--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(画面)_WA10101_ログイン.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(画面)_WA10101_ログイン.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FF04A2-1053-46FB-8C3A-35E337749231}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A2A76A-A96F-4FFA-B462-1ABD5ADA7471}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'2. WA10101(ログイン画面)'!#REF!</definedName>
     <definedName name="_Toc46209822" localSheetId="3">'1.  画面取引定義'!$B$5</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'1.  画面取引定義'!$A$1:$AI$21</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'2. WA10101(ログイン画面)'!$A$1:$AI$166</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'2. WA10101(ログイン画面)'!$A$1:$AI$180</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">データ!$A$1:$E$13</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
@@ -253,7 +253,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G71" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000D000000}">
+    <comment ref="G72" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -277,7 +277,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="207">
   <si>
     <t>PJ名</t>
   </si>
@@ -1368,37 +1368,7 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>(b)アカウント有効期限チェック</t>
-    <rPh sb="8" eb="10">
-      <t>ユウコウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>キゲン</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>(c)認証失敗回数チェック</t>
-    <rPh sb="3" eb="5">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シッパイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カイスウ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>認証失敗回数</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>(d)パスワード認証</t>
-    <rPh sb="8" eb="10">
-      <t>ニンショウ</t>
-    </rPh>
     <phoneticPr fontId="11"/>
   </si>
   <si>
@@ -1433,16 +1403,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>(e)TOPメニュー画面へ遷移する。</t>
-    <rPh sb="10" eb="12">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>メッセージID</t>
     <phoneticPr fontId="11"/>
   </si>
@@ -1477,10 +1437,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>ログインID（入力値）</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>ログインID</t>
     <phoneticPr fontId="11"/>
   </si>
@@ -1573,40 +1529,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>「(2) 検索処理」の検索結果をもとに、有効期限(FROM)≦システム日付≦有効期限(TO)ではない場合、エラーメッセージを表示し、後続処理中止する。</t>
-    <rPh sb="5" eb="7">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>コウゾク</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>チュウシ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>「(2) 検索処理」の検索結果をもとに、認証失敗回数＞3 の場合、エラーメッセージを表示し、後続処理中止する。</t>
     <rPh sb="5" eb="7">
       <t>ケンサク</t>
@@ -1650,10 +1572,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>ユーザに対し、ログインID・パスワードでのForm認証を行う。</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>認証失敗回数</t>
     <phoneticPr fontId="11"/>
   </si>
@@ -1763,10 +1681,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>2.6.2.ログインイベント</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
     <t>TIS</t>
     <phoneticPr fontId="14"/>
   </si>
@@ -1782,35 +1696,6 @@
     <phoneticPr fontId="14"/>
   </si>
   <si>
-    <t>・(2) DBアクセス（検索処理）：実装に合わせて検索条件修正
-・(3)　表示処理：パスワード認証成功時のセキュリティ対策追記</t>
-    <rPh sb="18" eb="20">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="25" eb="29">
-      <t>ケンサクジョウケン</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="49" eb="52">
-      <t>セイコウジ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>タイサク</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>ツイキ</t>
-    </rPh>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
     <t>第１．１版</t>
     <rPh sb="0" eb="1">
       <t>ダイ</t>
@@ -1819,6 +1704,148 @@
       <t>ハン</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AND</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>現在日付 BETWEEN 有効開始日 AND 有効終了日</t>
+    <rPh sb="0" eb="4">
+      <t>ゲンザイヒヅケ</t>
+    </rPh>
+    <rPh sb="13" eb="18">
+      <t>ユウコウカイシビ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>シュウリョウビ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>ログインIDとパスワードを入力し、Form認証を行う。</t>
+  </si>
+  <si>
+    <t>ログアウト処理時はセッションを破棄し、ログイン画面へ遷移する。</t>
+  </si>
+  <si>
+    <t>2.6.3.ログアウトイベント</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>セッションを破棄し、ログイン画面へ遷移する。</t>
+    <rPh sb="6" eb="8">
+      <t>ハキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>ログアウト</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>ヘッダー部の「ログアウト」ボタン押下</t>
+    <rPh sb="4" eb="5">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>セッションを破棄し、ログイン画面へ遷移する。</t>
+    <rPh sb="6" eb="8">
+      <t>ハキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>1.  画面取引定義
+2.6.2.ログインイベント
+2.6.3.ログアウトイベント</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>・(2) DBアクセス（検索処理）：実装に合わせて検索条件修正
+・(3)　表示処理：パスワード認証成功時のセキュリティ対策追記
+・ログアウト処理を追記</t>
+    <rPh sb="18" eb="20">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="25" eb="29">
+      <t>ケンサクジョウケン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="49" eb="52">
+      <t>セイコウジ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ツイキ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>(b)認証失敗回数チェック</t>
+    <rPh sb="3" eb="5">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイスウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>(c)パスワード認証</t>
+    <rPh sb="8" eb="10">
+      <t>ニンショウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>(d)TOPメニュー画面へ遷移する。</t>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
   </si>
 </sst>
 </file>
@@ -3037,7 +3064,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3050,6 +3077,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3262,261 +3292,270 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3525,18 +3564,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -4417,7 +4444,7 @@
       <c r="H23" s="5"/>
       <c r="I23" s="19"/>
       <c r="J23" s="15" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="K23" s="19"/>
       <c r="L23" s="19"/>
@@ -5062,7 +5089,7 @@
   <dimension ref="A1:AN34"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:F14"/>
+      <selection activeCell="Q10" sqref="Q10:AE10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -5077,51 +5104,51 @@
       <c r="B1" s="203"/>
       <c r="C1" s="203"/>
       <c r="D1" s="204"/>
-      <c r="E1" s="249" t="s">
+      <c r="E1" s="250" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="250"/>
-      <c r="G1" s="250"/>
-      <c r="H1" s="250"/>
-      <c r="I1" s="250"/>
-      <c r="J1" s="250"/>
-      <c r="K1" s="250"/>
-      <c r="L1" s="250"/>
-      <c r="M1" s="250"/>
-      <c r="N1" s="251"/>
+      <c r="F1" s="251"/>
+      <c r="G1" s="251"/>
+      <c r="H1" s="251"/>
+      <c r="I1" s="251"/>
+      <c r="J1" s="251"/>
+      <c r="K1" s="251"/>
+      <c r="L1" s="251"/>
+      <c r="M1" s="251"/>
+      <c r="N1" s="252"/>
       <c r="O1" s="205" t="s">
         <v>34</v>
       </c>
       <c r="P1" s="206"/>
       <c r="Q1" s="206"/>
       <c r="R1" s="207"/>
-      <c r="S1" s="255" t="s">
+      <c r="S1" s="256" t="s">
         <v>139</v>
       </c>
-      <c r="T1" s="256"/>
-      <c r="U1" s="256"/>
-      <c r="V1" s="256"/>
-      <c r="W1" s="256"/>
-      <c r="X1" s="256"/>
-      <c r="Y1" s="256"/>
-      <c r="Z1" s="257"/>
+      <c r="T1" s="257"/>
+      <c r="U1" s="257"/>
+      <c r="V1" s="257"/>
+      <c r="W1" s="257"/>
+      <c r="X1" s="257"/>
+      <c r="Y1" s="257"/>
+      <c r="Z1" s="258"/>
       <c r="AA1" s="202" t="s">
         <v>35</v>
       </c>
       <c r="AB1" s="204"/>
-      <c r="AC1" s="237" t="str">
+      <c r="AC1" s="238" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="238"/>
-      <c r="AE1" s="238"/>
-      <c r="AF1" s="239"/>
-      <c r="AG1" s="243">
+      <c r="AD1" s="239"/>
+      <c r="AE1" s="239"/>
+      <c r="AF1" s="240"/>
+      <c r="AG1" s="244">
         <f>IF(D8="","",D8)</f>
         <v>43656</v>
       </c>
-      <c r="AH1" s="244"/>
-      <c r="AI1" s="245"/>
+      <c r="AH1" s="245"/>
+      <c r="AI1" s="246"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="9"/>
@@ -5135,47 +5162,47 @@
       <c r="B2" s="203"/>
       <c r="C2" s="203"/>
       <c r="D2" s="204"/>
-      <c r="E2" s="249" t="s">
+      <c r="E2" s="250" t="s">
         <v>112</v>
       </c>
-      <c r="F2" s="250"/>
-      <c r="G2" s="250"/>
-      <c r="H2" s="250"/>
-      <c r="I2" s="250"/>
-      <c r="J2" s="250"/>
-      <c r="K2" s="250"/>
-      <c r="L2" s="250"/>
-      <c r="M2" s="250"/>
-      <c r="N2" s="251"/>
+      <c r="F2" s="251"/>
+      <c r="G2" s="251"/>
+      <c r="H2" s="251"/>
+      <c r="I2" s="251"/>
+      <c r="J2" s="251"/>
+      <c r="K2" s="251"/>
+      <c r="L2" s="251"/>
+      <c r="M2" s="251"/>
+      <c r="N2" s="252"/>
       <c r="O2" s="208"/>
       <c r="P2" s="209"/>
       <c r="Q2" s="209"/>
       <c r="R2" s="210"/>
-      <c r="S2" s="258"/>
-      <c r="T2" s="259"/>
-      <c r="U2" s="259"/>
-      <c r="V2" s="259"/>
-      <c r="W2" s="259"/>
-      <c r="X2" s="259"/>
-      <c r="Y2" s="259"/>
-      <c r="Z2" s="260"/>
+      <c r="S2" s="259"/>
+      <c r="T2" s="260"/>
+      <c r="U2" s="260"/>
+      <c r="V2" s="260"/>
+      <c r="W2" s="260"/>
+      <c r="X2" s="260"/>
+      <c r="Y2" s="260"/>
+      <c r="Z2" s="261"/>
       <c r="AA2" s="202" t="s">
         <v>36</v>
       </c>
       <c r="AB2" s="204"/>
-      <c r="AC2" s="246" t="str">
+      <c r="AC2" s="247" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="247"/>
-      <c r="AE2" s="247"/>
-      <c r="AF2" s="248"/>
-      <c r="AG2" s="243">
+      <c r="AD2" s="248"/>
+      <c r="AE2" s="248"/>
+      <c r="AF2" s="249"/>
+      <c r="AG2" s="244">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="244"/>
-      <c r="AI2" s="245"/>
+      <c r="AH2" s="245"/>
+      <c r="AI2" s="246"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
@@ -5189,39 +5216,39 @@
       <c r="B3" s="203"/>
       <c r="C3" s="203"/>
       <c r="D3" s="204"/>
-      <c r="E3" s="249" t="s">
+      <c r="E3" s="250" t="s">
         <v>134</v>
       </c>
-      <c r="F3" s="250"/>
-      <c r="G3" s="250"/>
-      <c r="H3" s="250"/>
-      <c r="I3" s="250"/>
-      <c r="J3" s="250"/>
-      <c r="K3" s="250"/>
-      <c r="L3" s="250"/>
-      <c r="M3" s="250"/>
-      <c r="N3" s="251"/>
+      <c r="F3" s="251"/>
+      <c r="G3" s="251"/>
+      <c r="H3" s="251"/>
+      <c r="I3" s="251"/>
+      <c r="J3" s="251"/>
+      <c r="K3" s="251"/>
+      <c r="L3" s="251"/>
+      <c r="M3" s="251"/>
+      <c r="N3" s="252"/>
       <c r="O3" s="211"/>
       <c r="P3" s="212"/>
       <c r="Q3" s="212"/>
       <c r="R3" s="213"/>
-      <c r="S3" s="261"/>
-      <c r="T3" s="262"/>
-      <c r="U3" s="262"/>
-      <c r="V3" s="262"/>
-      <c r="W3" s="262"/>
-      <c r="X3" s="262"/>
-      <c r="Y3" s="262"/>
-      <c r="Z3" s="263"/>
+      <c r="S3" s="262"/>
+      <c r="T3" s="263"/>
+      <c r="U3" s="263"/>
+      <c r="V3" s="263"/>
+      <c r="W3" s="263"/>
+      <c r="X3" s="263"/>
+      <c r="Y3" s="263"/>
+      <c r="Z3" s="264"/>
       <c r="AA3" s="214"/>
       <c r="AB3" s="215"/>
-      <c r="AC3" s="237"/>
-      <c r="AD3" s="238"/>
-      <c r="AE3" s="238"/>
-      <c r="AF3" s="239"/>
-      <c r="AG3" s="243"/>
-      <c r="AH3" s="244"/>
-      <c r="AI3" s="245"/>
+      <c r="AC3" s="238"/>
+      <c r="AD3" s="239"/>
+      <c r="AE3" s="239"/>
+      <c r="AF3" s="240"/>
+      <c r="AG3" s="244"/>
+      <c r="AH3" s="245"/>
+      <c r="AI3" s="246"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
@@ -5411,7 +5438,7 @@
       <c r="A8" s="56">
         <v>1</v>
       </c>
-      <c r="B8" s="403" t="s">
+      <c r="B8" s="231" t="s">
         <v>106</v>
       </c>
       <c r="C8" s="232"/>
@@ -5420,50 +5447,50 @@
       </c>
       <c r="E8" s="234"/>
       <c r="F8" s="235"/>
-      <c r="G8" s="231" t="s">
+      <c r="G8" s="236" t="s">
         <v>107</v>
       </c>
-      <c r="H8" s="236"/>
+      <c r="H8" s="237"/>
       <c r="I8" s="232"/>
-      <c r="J8" s="252" t="s">
+      <c r="J8" s="253" t="s">
         <v>108</v>
       </c>
-      <c r="K8" s="253"/>
-      <c r="L8" s="253"/>
-      <c r="M8" s="253"/>
-      <c r="N8" s="253"/>
-      <c r="O8" s="253"/>
-      <c r="P8" s="254"/>
-      <c r="Q8" s="240" t="s">
+      <c r="K8" s="254"/>
+      <c r="L8" s="254"/>
+      <c r="M8" s="254"/>
+      <c r="N8" s="254"/>
+      <c r="O8" s="254"/>
+      <c r="P8" s="255"/>
+      <c r="Q8" s="241" t="s">
         <v>109</v>
       </c>
-      <c r="R8" s="241"/>
-      <c r="S8" s="241"/>
-      <c r="T8" s="241"/>
-      <c r="U8" s="241"/>
-      <c r="V8" s="241"/>
-      <c r="W8" s="241"/>
-      <c r="X8" s="241"/>
-      <c r="Y8" s="241"/>
-      <c r="Z8" s="241"/>
-      <c r="AA8" s="241"/>
-      <c r="AB8" s="241"/>
-      <c r="AC8" s="241"/>
-      <c r="AD8" s="241"/>
-      <c r="AE8" s="242"/>
-      <c r="AF8" s="252" t="s">
+      <c r="R8" s="242"/>
+      <c r="S8" s="242"/>
+      <c r="T8" s="242"/>
+      <c r="U8" s="242"/>
+      <c r="V8" s="242"/>
+      <c r="W8" s="242"/>
+      <c r="X8" s="242"/>
+      <c r="Y8" s="242"/>
+      <c r="Z8" s="242"/>
+      <c r="AA8" s="242"/>
+      <c r="AB8" s="242"/>
+      <c r="AC8" s="242"/>
+      <c r="AD8" s="242"/>
+      <c r="AE8" s="243"/>
+      <c r="AF8" s="253" t="s">
         <v>110</v>
       </c>
-      <c r="AG8" s="253"/>
-      <c r="AH8" s="253"/>
-      <c r="AI8" s="254"/>
-    </row>
-    <row r="9" spans="1:40" s="55" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AG8" s="254"/>
+      <c r="AH8" s="254"/>
+      <c r="AI8" s="255"/>
+    </row>
+    <row r="9" spans="1:40" s="55" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="57">
         <v>2</v>
       </c>
       <c r="B9" s="222" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C9" s="223"/>
       <c r="D9" s="224">
@@ -5472,12 +5499,12 @@
       <c r="E9" s="225"/>
       <c r="F9" s="226"/>
       <c r="G9" s="222" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="H9" s="227"/>
       <c r="I9" s="223"/>
-      <c r="J9" s="219" t="s">
-        <v>196</v>
+      <c r="J9" s="216" t="s">
+        <v>202</v>
       </c>
       <c r="K9" s="220"/>
       <c r="L9" s="220"/>
@@ -5486,7 +5513,7 @@
       <c r="O9" s="220"/>
       <c r="P9" s="221"/>
       <c r="Q9" s="216" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="R9" s="217"/>
       <c r="S9" s="217"/>
@@ -5503,7 +5530,7 @@
       <c r="AD9" s="217"/>
       <c r="AE9" s="218"/>
       <c r="AF9" s="219" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="AG9" s="220"/>
       <c r="AH9" s="220"/>
@@ -6777,54 +6804,54 @@
       <c r="B1" s="203"/>
       <c r="C1" s="203"/>
       <c r="D1" s="204"/>
-      <c r="E1" s="273" t="str">
+      <c r="E1" s="274" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="250"/>
-      <c r="G1" s="250"/>
-      <c r="H1" s="250"/>
-      <c r="I1" s="250"/>
-      <c r="J1" s="250"/>
-      <c r="K1" s="250"/>
-      <c r="L1" s="250"/>
-      <c r="M1" s="250"/>
-      <c r="N1" s="251"/>
+      <c r="F1" s="251"/>
+      <c r="G1" s="251"/>
+      <c r="H1" s="251"/>
+      <c r="I1" s="251"/>
+      <c r="J1" s="251"/>
+      <c r="K1" s="251"/>
+      <c r="L1" s="251"/>
+      <c r="M1" s="251"/>
+      <c r="N1" s="252"/>
       <c r="O1" s="205" t="s">
         <v>60</v>
       </c>
       <c r="P1" s="206"/>
       <c r="Q1" s="206"/>
       <c r="R1" s="207"/>
-      <c r="S1" s="264" t="str">
+      <c r="S1" s="265" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10101/ログイン</v>
       </c>
-      <c r="T1" s="265"/>
-      <c r="U1" s="265"/>
-      <c r="V1" s="265"/>
-      <c r="W1" s="265"/>
-      <c r="X1" s="265"/>
-      <c r="Y1" s="265"/>
-      <c r="Z1" s="266"/>
+      <c r="T1" s="266"/>
+      <c r="U1" s="266"/>
+      <c r="V1" s="266"/>
+      <c r="W1" s="266"/>
+      <c r="X1" s="266"/>
+      <c r="Y1" s="266"/>
+      <c r="Z1" s="267"/>
       <c r="AA1" s="202" t="s">
         <v>3</v>
       </c>
       <c r="AB1" s="204"/>
-      <c r="AC1" s="237" t="str">
+      <c r="AC1" s="238" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="238"/>
-      <c r="AE1" s="238"/>
-      <c r="AF1" s="239"/>
-      <c r="AG1" s="274">
+      <c r="AD1" s="239"/>
+      <c r="AE1" s="239"/>
+      <c r="AF1" s="240"/>
+      <c r="AG1" s="275">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43656</v>
       </c>
-      <c r="AH1" s="275"/>
-      <c r="AI1" s="276"/>
+      <c r="AH1" s="276"/>
+      <c r="AI1" s="277"/>
     </row>
     <row r="2" spans="1:35" s="32" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A2" s="202" t="s">
@@ -6833,48 +6860,48 @@
       <c r="B2" s="203"/>
       <c r="C2" s="203"/>
       <c r="D2" s="204"/>
-      <c r="E2" s="273" t="str">
+      <c r="E2" s="274" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="250"/>
-      <c r="G2" s="250"/>
-      <c r="H2" s="250"/>
-      <c r="I2" s="250"/>
-      <c r="J2" s="250"/>
-      <c r="K2" s="250"/>
-      <c r="L2" s="250"/>
-      <c r="M2" s="250"/>
-      <c r="N2" s="251"/>
+      <c r="F2" s="251"/>
+      <c r="G2" s="251"/>
+      <c r="H2" s="251"/>
+      <c r="I2" s="251"/>
+      <c r="J2" s="251"/>
+      <c r="K2" s="251"/>
+      <c r="L2" s="251"/>
+      <c r="M2" s="251"/>
+      <c r="N2" s="252"/>
       <c r="O2" s="208"/>
       <c r="P2" s="209"/>
       <c r="Q2" s="209"/>
       <c r="R2" s="210"/>
-      <c r="S2" s="267"/>
-      <c r="T2" s="268"/>
-      <c r="U2" s="268"/>
-      <c r="V2" s="268"/>
-      <c r="W2" s="268"/>
-      <c r="X2" s="268"/>
-      <c r="Y2" s="268"/>
-      <c r="Z2" s="269"/>
+      <c r="S2" s="268"/>
+      <c r="T2" s="269"/>
+      <c r="U2" s="269"/>
+      <c r="V2" s="269"/>
+      <c r="W2" s="269"/>
+      <c r="X2" s="269"/>
+      <c r="Y2" s="269"/>
+      <c r="Z2" s="270"/>
       <c r="AA2" s="202" t="s">
         <v>4</v>
       </c>
       <c r="AB2" s="204"/>
-      <c r="AC2" s="237" t="str">
+      <c r="AC2" s="238" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="238"/>
-      <c r="AE2" s="238"/>
-      <c r="AF2" s="239"/>
-      <c r="AG2" s="274">
+      <c r="AD2" s="239"/>
+      <c r="AE2" s="239"/>
+      <c r="AF2" s="240"/>
+      <c r="AG2" s="275">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="275"/>
-      <c r="AI2" s="276"/>
+      <c r="AH2" s="276"/>
+      <c r="AI2" s="277"/>
     </row>
     <row r="3" spans="1:35" s="32" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A3" s="202" t="s">
@@ -6883,46 +6910,46 @@
       <c r="B3" s="203"/>
       <c r="C3" s="203"/>
       <c r="D3" s="204"/>
-      <c r="E3" s="273" t="str">
+      <c r="E3" s="274" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="250"/>
-      <c r="G3" s="250"/>
-      <c r="H3" s="250"/>
-      <c r="I3" s="250"/>
-      <c r="J3" s="250"/>
-      <c r="K3" s="250"/>
-      <c r="L3" s="250"/>
-      <c r="M3" s="250"/>
-      <c r="N3" s="251"/>
+      <c r="F3" s="251"/>
+      <c r="G3" s="251"/>
+      <c r="H3" s="251"/>
+      <c r="I3" s="251"/>
+      <c r="J3" s="251"/>
+      <c r="K3" s="251"/>
+      <c r="L3" s="251"/>
+      <c r="M3" s="251"/>
+      <c r="N3" s="252"/>
       <c r="O3" s="211"/>
       <c r="P3" s="212"/>
       <c r="Q3" s="212"/>
       <c r="R3" s="213"/>
-      <c r="S3" s="270"/>
-      <c r="T3" s="271"/>
-      <c r="U3" s="271"/>
-      <c r="V3" s="271"/>
-      <c r="W3" s="271"/>
-      <c r="X3" s="271"/>
-      <c r="Y3" s="271"/>
-      <c r="Z3" s="272"/>
+      <c r="S3" s="271"/>
+      <c r="T3" s="272"/>
+      <c r="U3" s="272"/>
+      <c r="V3" s="272"/>
+      <c r="W3" s="272"/>
+      <c r="X3" s="272"/>
+      <c r="Y3" s="272"/>
+      <c r="Z3" s="273"/>
       <c r="AA3" s="202"/>
       <c r="AB3" s="204"/>
-      <c r="AC3" s="237" t="str">
+      <c r="AC3" s="238" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="238"/>
-      <c r="AE3" s="238"/>
-      <c r="AF3" s="239"/>
-      <c r="AG3" s="274" t="str">
+      <c r="AD3" s="239"/>
+      <c r="AE3" s="239"/>
+      <c r="AF3" s="240"/>
+      <c r="AG3" s="275" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="275"/>
-      <c r="AI3" s="276"/>
+      <c r="AH3" s="276"/>
+      <c r="AI3" s="277"/>
     </row>
     <row r="4" spans="1:35" s="35" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="29"/>
@@ -7155,7 +7182,7 @@
     <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="31"/>
       <c r="B10" s="41" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C10" s="53"/>
       <c r="D10" s="31"/>
@@ -7838,7 +7865,7 @@
   <dimension ref="A1:AI52"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -7853,54 +7880,54 @@
       <c r="B1" s="203"/>
       <c r="C1" s="203"/>
       <c r="D1" s="204"/>
-      <c r="E1" s="273" t="str">
+      <c r="E1" s="274" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="250"/>
-      <c r="G1" s="250"/>
-      <c r="H1" s="250"/>
-      <c r="I1" s="250"/>
-      <c r="J1" s="250"/>
-      <c r="K1" s="250"/>
-      <c r="L1" s="250"/>
-      <c r="M1" s="250"/>
-      <c r="N1" s="251"/>
+      <c r="F1" s="251"/>
+      <c r="G1" s="251"/>
+      <c r="H1" s="251"/>
+      <c r="I1" s="251"/>
+      <c r="J1" s="251"/>
+      <c r="K1" s="251"/>
+      <c r="L1" s="251"/>
+      <c r="M1" s="251"/>
+      <c r="N1" s="252"/>
       <c r="O1" s="205" t="s">
         <v>60</v>
       </c>
       <c r="P1" s="206"/>
       <c r="Q1" s="206"/>
       <c r="R1" s="207"/>
-      <c r="S1" s="264" t="str">
+      <c r="S1" s="265" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10101/ログイン</v>
       </c>
-      <c r="T1" s="265"/>
-      <c r="U1" s="265"/>
-      <c r="V1" s="265"/>
-      <c r="W1" s="265"/>
-      <c r="X1" s="265"/>
-      <c r="Y1" s="265"/>
-      <c r="Z1" s="266"/>
+      <c r="T1" s="266"/>
+      <c r="U1" s="266"/>
+      <c r="V1" s="266"/>
+      <c r="W1" s="266"/>
+      <c r="X1" s="266"/>
+      <c r="Y1" s="266"/>
+      <c r="Z1" s="267"/>
       <c r="AA1" s="202" t="s">
         <v>3</v>
       </c>
       <c r="AB1" s="204"/>
-      <c r="AC1" s="237" t="str">
+      <c r="AC1" s="238" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="238"/>
-      <c r="AE1" s="238"/>
-      <c r="AF1" s="239"/>
-      <c r="AG1" s="274">
+      <c r="AD1" s="239"/>
+      <c r="AE1" s="239"/>
+      <c r="AF1" s="240"/>
+      <c r="AG1" s="275">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43656</v>
       </c>
-      <c r="AH1" s="275"/>
-      <c r="AI1" s="276"/>
+      <c r="AH1" s="276"/>
+      <c r="AI1" s="277"/>
     </row>
     <row r="2" spans="1:35" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="202" t="s">
@@ -7909,48 +7936,48 @@
       <c r="B2" s="203"/>
       <c r="C2" s="203"/>
       <c r="D2" s="204"/>
-      <c r="E2" s="273" t="str">
+      <c r="E2" s="274" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="250"/>
-      <c r="G2" s="250"/>
-      <c r="H2" s="250"/>
-      <c r="I2" s="250"/>
-      <c r="J2" s="250"/>
-      <c r="K2" s="250"/>
-      <c r="L2" s="250"/>
-      <c r="M2" s="250"/>
-      <c r="N2" s="251"/>
+      <c r="F2" s="251"/>
+      <c r="G2" s="251"/>
+      <c r="H2" s="251"/>
+      <c r="I2" s="251"/>
+      <c r="J2" s="251"/>
+      <c r="K2" s="251"/>
+      <c r="L2" s="251"/>
+      <c r="M2" s="251"/>
+      <c r="N2" s="252"/>
       <c r="O2" s="208"/>
       <c r="P2" s="209"/>
       <c r="Q2" s="209"/>
       <c r="R2" s="210"/>
-      <c r="S2" s="267"/>
-      <c r="T2" s="268"/>
-      <c r="U2" s="268"/>
-      <c r="V2" s="268"/>
-      <c r="W2" s="268"/>
-      <c r="X2" s="268"/>
-      <c r="Y2" s="268"/>
-      <c r="Z2" s="269"/>
+      <c r="S2" s="268"/>
+      <c r="T2" s="269"/>
+      <c r="U2" s="269"/>
+      <c r="V2" s="269"/>
+      <c r="W2" s="269"/>
+      <c r="X2" s="269"/>
+      <c r="Y2" s="269"/>
+      <c r="Z2" s="270"/>
       <c r="AA2" s="202" t="s">
         <v>4</v>
       </c>
       <c r="AB2" s="204"/>
-      <c r="AC2" s="237" t="str">
+      <c r="AC2" s="238" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="238"/>
-      <c r="AE2" s="238"/>
-      <c r="AF2" s="239"/>
-      <c r="AG2" s="274">
+      <c r="AD2" s="239"/>
+      <c r="AE2" s="239"/>
+      <c r="AF2" s="240"/>
+      <c r="AG2" s="275">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="275"/>
-      <c r="AI2" s="276"/>
+      <c r="AH2" s="276"/>
+      <c r="AI2" s="277"/>
     </row>
     <row r="3" spans="1:35" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="202" t="s">
@@ -7959,46 +7986,46 @@
       <c r="B3" s="203"/>
       <c r="C3" s="203"/>
       <c r="D3" s="204"/>
-      <c r="E3" s="273" t="str">
+      <c r="E3" s="274" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="250"/>
-      <c r="G3" s="250"/>
-      <c r="H3" s="250"/>
-      <c r="I3" s="250"/>
-      <c r="J3" s="250"/>
-      <c r="K3" s="250"/>
-      <c r="L3" s="250"/>
-      <c r="M3" s="250"/>
-      <c r="N3" s="251"/>
+      <c r="F3" s="251"/>
+      <c r="G3" s="251"/>
+      <c r="H3" s="251"/>
+      <c r="I3" s="251"/>
+      <c r="J3" s="251"/>
+      <c r="K3" s="251"/>
+      <c r="L3" s="251"/>
+      <c r="M3" s="251"/>
+      <c r="N3" s="252"/>
       <c r="O3" s="211"/>
       <c r="P3" s="212"/>
       <c r="Q3" s="212"/>
       <c r="R3" s="213"/>
-      <c r="S3" s="270"/>
-      <c r="T3" s="271"/>
-      <c r="U3" s="271"/>
-      <c r="V3" s="271"/>
-      <c r="W3" s="271"/>
-      <c r="X3" s="271"/>
-      <c r="Y3" s="271"/>
-      <c r="Z3" s="272"/>
+      <c r="S3" s="271"/>
+      <c r="T3" s="272"/>
+      <c r="U3" s="272"/>
+      <c r="V3" s="272"/>
+      <c r="W3" s="272"/>
+      <c r="X3" s="272"/>
+      <c r="Y3" s="272"/>
+      <c r="Z3" s="273"/>
       <c r="AA3" s="202"/>
       <c r="AB3" s="204"/>
-      <c r="AC3" s="237" t="str">
+      <c r="AC3" s="238" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="238"/>
-      <c r="AE3" s="238"/>
-      <c r="AF3" s="239"/>
-      <c r="AG3" s="274" t="str">
+      <c r="AD3" s="239"/>
+      <c r="AE3" s="239"/>
+      <c r="AF3" s="240"/>
+      <c r="AG3" s="275" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="275"/>
-      <c r="AI3" s="276"/>
+      <c r="AH3" s="276"/>
+      <c r="AI3" s="277"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -8014,90 +8041,90 @@
     <row r="7" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="8" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="92"/>
-      <c r="C8" s="287" t="s">
+      <c r="C8" s="288" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="288"/>
-      <c r="E8" s="288"/>
-      <c r="F8" s="289"/>
+      <c r="D8" s="289"/>
+      <c r="E8" s="289"/>
+      <c r="F8" s="290"/>
       <c r="G8" s="219" t="s">
         <v>137</v>
       </c>
-      <c r="H8" s="290"/>
-      <c r="I8" s="290"/>
-      <c r="J8" s="290"/>
-      <c r="K8" s="290"/>
-      <c r="L8" s="288"/>
-      <c r="M8" s="288"/>
-      <c r="N8" s="288"/>
-      <c r="O8" s="288"/>
-      <c r="P8" s="288"/>
-      <c r="Q8" s="288"/>
-      <c r="R8" s="288"/>
-      <c r="S8" s="288"/>
-      <c r="T8" s="288"/>
-      <c r="U8" s="288"/>
-      <c r="V8" s="288"/>
-      <c r="W8" s="288"/>
-      <c r="X8" s="288"/>
-      <c r="Y8" s="288"/>
-      <c r="Z8" s="288"/>
-      <c r="AA8" s="288"/>
-      <c r="AB8" s="288"/>
-      <c r="AC8" s="288"/>
-      <c r="AD8" s="288"/>
-      <c r="AE8" s="288"/>
-      <c r="AF8" s="288"/>
-      <c r="AG8" s="289"/>
+      <c r="H8" s="291"/>
+      <c r="I8" s="291"/>
+      <c r="J8" s="291"/>
+      <c r="K8" s="291"/>
+      <c r="L8" s="289"/>
+      <c r="M8" s="289"/>
+      <c r="N8" s="289"/>
+      <c r="O8" s="289"/>
+      <c r="P8" s="289"/>
+      <c r="Q8" s="289"/>
+      <c r="R8" s="289"/>
+      <c r="S8" s="289"/>
+      <c r="T8" s="289"/>
+      <c r="U8" s="289"/>
+      <c r="V8" s="289"/>
+      <c r="W8" s="289"/>
+      <c r="X8" s="289"/>
+      <c r="Y8" s="289"/>
+      <c r="Z8" s="289"/>
+      <c r="AA8" s="289"/>
+      <c r="AB8" s="289"/>
+      <c r="AC8" s="289"/>
+      <c r="AD8" s="289"/>
+      <c r="AE8" s="289"/>
+      <c r="AF8" s="289"/>
+      <c r="AG8" s="290"/>
     </row>
     <row r="9" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="92"/>
-      <c r="C9" s="291" t="s">
+      <c r="C9" s="292" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="293"/>
+      <c r="D9" s="293"/>
+      <c r="E9" s="293"/>
+      <c r="F9" s="294"/>
       <c r="G9" s="219" t="s">
         <v>138</v>
       </c>
-      <c r="H9" s="288"/>
-      <c r="I9" s="288"/>
-      <c r="J9" s="288"/>
-      <c r="K9" s="288"/>
-      <c r="L9" s="288"/>
-      <c r="M9" s="288"/>
-      <c r="N9" s="288"/>
-      <c r="O9" s="288"/>
-      <c r="P9" s="288"/>
-      <c r="Q9" s="288"/>
-      <c r="R9" s="288"/>
-      <c r="S9" s="288"/>
-      <c r="T9" s="288"/>
-      <c r="U9" s="288"/>
-      <c r="V9" s="288"/>
-      <c r="W9" s="288"/>
-      <c r="X9" s="288"/>
-      <c r="Y9" s="288"/>
-      <c r="Z9" s="288"/>
-      <c r="AA9" s="288"/>
-      <c r="AB9" s="288"/>
-      <c r="AC9" s="288"/>
-      <c r="AD9" s="288"/>
-      <c r="AE9" s="288"/>
-      <c r="AF9" s="288"/>
-      <c r="AG9" s="289"/>
+      <c r="H9" s="289"/>
+      <c r="I9" s="289"/>
+      <c r="J9" s="289"/>
+      <c r="K9" s="289"/>
+      <c r="L9" s="289"/>
+      <c r="M9" s="289"/>
+      <c r="N9" s="289"/>
+      <c r="O9" s="289"/>
+      <c r="P9" s="289"/>
+      <c r="Q9" s="289"/>
+      <c r="R9" s="289"/>
+      <c r="S9" s="289"/>
+      <c r="T9" s="289"/>
+      <c r="U9" s="289"/>
+      <c r="V9" s="289"/>
+      <c r="W9" s="289"/>
+      <c r="X9" s="289"/>
+      <c r="Y9" s="289"/>
+      <c r="Z9" s="289"/>
+      <c r="AA9" s="289"/>
+      <c r="AB9" s="289"/>
+      <c r="AC9" s="289"/>
+      <c r="AD9" s="289"/>
+      <c r="AE9" s="289"/>
+      <c r="AF9" s="289"/>
+      <c r="AG9" s="290"/>
     </row>
     <row r="10" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="92"/>
-      <c r="C10" s="278" t="s">
+      <c r="C10" s="279" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="279"/>
-      <c r="E10" s="279"/>
-      <c r="F10" s="280"/>
+      <c r="D10" s="280"/>
+      <c r="E10" s="280"/>
+      <c r="F10" s="281"/>
       <c r="G10" s="163" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="H10" s="93"/>
       <c r="I10" s="93"/>
@@ -8128,11 +8155,13 @@
     </row>
     <row r="11" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="92"/>
-      <c r="C11" s="281"/>
-      <c r="D11" s="282"/>
-      <c r="E11" s="282"/>
-      <c r="F11" s="283"/>
-      <c r="G11" s="95"/>
+      <c r="C11" s="282"/>
+      <c r="D11" s="283"/>
+      <c r="E11" s="283"/>
+      <c r="F11" s="284"/>
+      <c r="G11" s="95" t="s">
+        <v>196</v>
+      </c>
       <c r="H11" s="35"/>
       <c r="I11" s="35"/>
       <c r="J11" s="35"/>
@@ -8162,10 +8191,10 @@
     </row>
     <row r="12" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="92"/>
-      <c r="C12" s="281"/>
-      <c r="D12" s="282"/>
-      <c r="E12" s="282"/>
-      <c r="F12" s="283"/>
+      <c r="C12" s="282"/>
+      <c r="D12" s="283"/>
+      <c r="E12" s="283"/>
+      <c r="F12" s="284"/>
       <c r="G12" s="175"/>
       <c r="H12" s="35"/>
       <c r="I12" s="35"/>
@@ -8196,10 +8225,10 @@
     </row>
     <row r="13" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="92"/>
-      <c r="C13" s="284"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="286"/>
+      <c r="C13" s="285"/>
+      <c r="D13" s="286"/>
+      <c r="E13" s="286"/>
+      <c r="F13" s="287"/>
       <c r="G13" s="97"/>
       <c r="H13" s="98"/>
       <c r="I13" s="98"/>
@@ -8230,14 +8259,14 @@
     </row>
     <row r="14" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="92"/>
-      <c r="C14" s="277" t="s">
+      <c r="C14" s="278" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="277"/>
-      <c r="E14" s="277"/>
-      <c r="F14" s="277"/>
+      <c r="D14" s="278"/>
+      <c r="E14" s="278"/>
+      <c r="F14" s="278"/>
       <c r="G14" s="100" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H14" s="101"/>
       <c r="I14" s="101"/>
@@ -8345,7 +8374,7 @@
   <sheetPr codeName="Sheet7">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BG168"/>
+  <dimension ref="A1:BG176"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -8359,160 +8388,160 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="384" t="s">
+      <c r="A1" s="383" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="385"/>
-      <c r="C1" s="385"/>
-      <c r="D1" s="386"/>
-      <c r="E1" s="273" t="str">
+      <c r="B1" s="384"/>
+      <c r="C1" s="384"/>
+      <c r="D1" s="385"/>
+      <c r="E1" s="274" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="250"/>
-      <c r="G1" s="250"/>
-      <c r="H1" s="250"/>
-      <c r="I1" s="250"/>
-      <c r="J1" s="250"/>
-      <c r="K1" s="250"/>
-      <c r="L1" s="250"/>
-      <c r="M1" s="250"/>
-      <c r="N1" s="251"/>
+      <c r="F1" s="251"/>
+      <c r="G1" s="251"/>
+      <c r="H1" s="251"/>
+      <c r="I1" s="251"/>
+      <c r="J1" s="251"/>
+      <c r="K1" s="251"/>
+      <c r="L1" s="251"/>
+      <c r="M1" s="251"/>
+      <c r="N1" s="252"/>
       <c r="O1" s="205" t="s">
         <v>37</v>
       </c>
       <c r="P1" s="206"/>
       <c r="Q1" s="206"/>
       <c r="R1" s="207"/>
-      <c r="S1" s="264" t="str">
+      <c r="S1" s="265" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10101/ログイン</v>
       </c>
-      <c r="T1" s="265"/>
-      <c r="U1" s="265"/>
-      <c r="V1" s="265"/>
-      <c r="W1" s="265"/>
-      <c r="X1" s="265"/>
-      <c r="Y1" s="265"/>
-      <c r="Z1" s="266"/>
+      <c r="T1" s="266"/>
+      <c r="U1" s="266"/>
+      <c r="V1" s="266"/>
+      <c r="W1" s="266"/>
+      <c r="X1" s="266"/>
+      <c r="Y1" s="266"/>
+      <c r="Z1" s="267"/>
       <c r="AA1" s="202" t="s">
         <v>3</v>
       </c>
       <c r="AB1" s="204"/>
-      <c r="AC1" s="237" t="str">
+      <c r="AC1" s="238" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="238"/>
-      <c r="AE1" s="238"/>
-      <c r="AF1" s="239"/>
-      <c r="AG1" s="381">
+      <c r="AD1" s="239"/>
+      <c r="AE1" s="239"/>
+      <c r="AF1" s="240"/>
+      <c r="AG1" s="380">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43656</v>
       </c>
-      <c r="AH1" s="382"/>
-      <c r="AI1" s="383"/>
+      <c r="AH1" s="381"/>
+      <c r="AI1" s="382"/>
       <c r="AJ1" s="30"/>
     </row>
     <row r="2" spans="1:36" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="384" t="s">
+      <c r="A2" s="383" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="385"/>
-      <c r="C2" s="385"/>
-      <c r="D2" s="386"/>
-      <c r="E2" s="273" t="str">
+      <c r="B2" s="384"/>
+      <c r="C2" s="384"/>
+      <c r="D2" s="385"/>
+      <c r="E2" s="274" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="250"/>
-      <c r="G2" s="250"/>
-      <c r="H2" s="250"/>
-      <c r="I2" s="250"/>
-      <c r="J2" s="250"/>
-      <c r="K2" s="250"/>
-      <c r="L2" s="250"/>
-      <c r="M2" s="250"/>
-      <c r="N2" s="251"/>
+      <c r="F2" s="251"/>
+      <c r="G2" s="251"/>
+      <c r="H2" s="251"/>
+      <c r="I2" s="251"/>
+      <c r="J2" s="251"/>
+      <c r="K2" s="251"/>
+      <c r="L2" s="251"/>
+      <c r="M2" s="251"/>
+      <c r="N2" s="252"/>
       <c r="O2" s="208"/>
       <c r="P2" s="209"/>
       <c r="Q2" s="209"/>
       <c r="R2" s="210"/>
-      <c r="S2" s="267"/>
-      <c r="T2" s="268"/>
-      <c r="U2" s="268"/>
-      <c r="V2" s="268"/>
-      <c r="W2" s="268"/>
-      <c r="X2" s="268"/>
-      <c r="Y2" s="268"/>
-      <c r="Z2" s="269"/>
+      <c r="S2" s="268"/>
+      <c r="T2" s="269"/>
+      <c r="U2" s="269"/>
+      <c r="V2" s="269"/>
+      <c r="W2" s="269"/>
+      <c r="X2" s="269"/>
+      <c r="Y2" s="269"/>
+      <c r="Z2" s="270"/>
       <c r="AA2" s="202" t="s">
         <v>4</v>
       </c>
       <c r="AB2" s="204"/>
-      <c r="AC2" s="237" t="str">
+      <c r="AC2" s="238" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="238"/>
-      <c r="AE2" s="238"/>
-      <c r="AF2" s="239"/>
-      <c r="AG2" s="381">
+      <c r="AD2" s="239"/>
+      <c r="AE2" s="239"/>
+      <c r="AF2" s="240"/>
+      <c r="AG2" s="380">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="382"/>
-      <c r="AI2" s="383"/>
+      <c r="AH2" s="381"/>
+      <c r="AI2" s="382"/>
       <c r="AJ2" s="30"/>
     </row>
     <row r="3" spans="1:36" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="384" t="s">
+      <c r="A3" s="383" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="385"/>
-      <c r="C3" s="385"/>
-      <c r="D3" s="386"/>
-      <c r="E3" s="273" t="str">
+      <c r="B3" s="384"/>
+      <c r="C3" s="384"/>
+      <c r="D3" s="385"/>
+      <c r="E3" s="274" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="250"/>
-      <c r="G3" s="250"/>
-      <c r="H3" s="250"/>
-      <c r="I3" s="250"/>
-      <c r="J3" s="250"/>
-      <c r="K3" s="250"/>
-      <c r="L3" s="250"/>
-      <c r="M3" s="250"/>
-      <c r="N3" s="251"/>
+      <c r="F3" s="251"/>
+      <c r="G3" s="251"/>
+      <c r="H3" s="251"/>
+      <c r="I3" s="251"/>
+      <c r="J3" s="251"/>
+      <c r="K3" s="251"/>
+      <c r="L3" s="251"/>
+      <c r="M3" s="251"/>
+      <c r="N3" s="252"/>
       <c r="O3" s="211"/>
       <c r="P3" s="212"/>
       <c r="Q3" s="212"/>
       <c r="R3" s="213"/>
-      <c r="S3" s="270"/>
-      <c r="T3" s="271"/>
-      <c r="U3" s="271"/>
-      <c r="V3" s="271"/>
-      <c r="W3" s="271"/>
-      <c r="X3" s="271"/>
-      <c r="Y3" s="271"/>
-      <c r="Z3" s="272"/>
+      <c r="S3" s="271"/>
+      <c r="T3" s="272"/>
+      <c r="U3" s="272"/>
+      <c r="V3" s="272"/>
+      <c r="W3" s="272"/>
+      <c r="X3" s="272"/>
+      <c r="Y3" s="272"/>
+      <c r="Z3" s="273"/>
       <c r="AA3" s="202"/>
       <c r="AB3" s="204"/>
-      <c r="AC3" s="237" t="str">
+      <c r="AC3" s="238" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="238"/>
-      <c r="AE3" s="238"/>
-      <c r="AF3" s="239"/>
-      <c r="AG3" s="381" t="str">
+      <c r="AD3" s="239"/>
+      <c r="AE3" s="239"/>
+      <c r="AF3" s="240"/>
+      <c r="AG3" s="380" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="382"/>
-      <c r="AI3" s="383"/>
+      <c r="AH3" s="381"/>
+      <c r="AI3" s="382"/>
       <c r="AJ3" s="30"/>
     </row>
     <row r="4" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8664,39 +8693,39 @@
       <c r="D43" s="131" t="s">
         <v>41</v>
       </c>
-      <c r="E43" s="390" t="s">
+      <c r="E43" s="358" t="s">
         <v>69</v>
       </c>
-      <c r="F43" s="390"/>
-      <c r="G43" s="390"/>
-      <c r="H43" s="390"/>
-      <c r="I43" s="390"/>
-      <c r="J43" s="390"/>
-      <c r="K43" s="390"/>
-      <c r="L43" s="390"/>
-      <c r="M43" s="390"/>
-      <c r="N43" s="390" t="s">
+      <c r="F43" s="358"/>
+      <c r="G43" s="358"/>
+      <c r="H43" s="358"/>
+      <c r="I43" s="358"/>
+      <c r="J43" s="358"/>
+      <c r="K43" s="358"/>
+      <c r="L43" s="358"/>
+      <c r="M43" s="358"/>
+      <c r="N43" s="358" t="s">
         <v>43</v>
       </c>
-      <c r="O43" s="390"/>
-      <c r="P43" s="390"/>
-      <c r="Q43" s="390" t="s">
+      <c r="O43" s="358"/>
+      <c r="P43" s="358"/>
+      <c r="Q43" s="358" t="s">
         <v>25</v>
       </c>
-      <c r="R43" s="390"/>
-      <c r="S43" s="390"/>
-      <c r="T43" s="390"/>
-      <c r="U43" s="390"/>
-      <c r="V43" s="390" t="s">
+      <c r="R43" s="358"/>
+      <c r="S43" s="358"/>
+      <c r="T43" s="358"/>
+      <c r="U43" s="358"/>
+      <c r="V43" s="358" t="s">
         <v>14</v>
       </c>
-      <c r="W43" s="390"/>
-      <c r="X43" s="390"/>
-      <c r="Y43" s="390"/>
-      <c r="Z43" s="390"/>
-      <c r="AA43" s="390"/>
-      <c r="AB43" s="390"/>
-      <c r="AC43" s="390"/>
+      <c r="W43" s="358"/>
+      <c r="X43" s="358"/>
+      <c r="Y43" s="358"/>
+      <c r="Z43" s="358"/>
+      <c r="AA43" s="358"/>
+      <c r="AB43" s="358"/>
+      <c r="AC43" s="358"/>
       <c r="AD43" s="135"/>
       <c r="AE43" s="135"/>
       <c r="AF43" s="135"/>
@@ -8707,39 +8736,39 @@
       <c r="D44" s="153">
         <v>1</v>
       </c>
-      <c r="E44" s="391" t="s">
+      <c r="E44" s="375" t="s">
         <v>119</v>
       </c>
-      <c r="F44" s="348"/>
-      <c r="G44" s="348"/>
-      <c r="H44" s="348"/>
-      <c r="I44" s="348"/>
-      <c r="J44" s="348"/>
-      <c r="K44" s="348"/>
-      <c r="L44" s="348"/>
-      <c r="M44" s="348"/>
-      <c r="N44" s="348" t="s">
+      <c r="F44" s="372"/>
+      <c r="G44" s="372"/>
+      <c r="H44" s="372"/>
+      <c r="I44" s="372"/>
+      <c r="J44" s="372"/>
+      <c r="K44" s="372"/>
+      <c r="L44" s="372"/>
+      <c r="M44" s="372"/>
+      <c r="N44" s="372" t="s">
         <v>89</v>
       </c>
-      <c r="O44" s="348"/>
-      <c r="P44" s="348"/>
-      <c r="Q44" s="333" t="s">
+      <c r="O44" s="372"/>
+      <c r="P44" s="372"/>
+      <c r="Q44" s="370" t="s">
         <v>113</v>
       </c>
-      <c r="R44" s="333"/>
-      <c r="S44" s="333"/>
-      <c r="T44" s="333"/>
-      <c r="U44" s="333"/>
-      <c r="V44" s="334" t="s">
+      <c r="R44" s="370"/>
+      <c r="S44" s="370"/>
+      <c r="T44" s="370"/>
+      <c r="U44" s="370"/>
+      <c r="V44" s="371" t="s">
         <v>123</v>
       </c>
-      <c r="W44" s="333"/>
-      <c r="X44" s="333"/>
-      <c r="Y44" s="333"/>
-      <c r="Z44" s="333"/>
-      <c r="AA44" s="333"/>
-      <c r="AB44" s="333"/>
-      <c r="AC44" s="333"/>
+      <c r="W44" s="370"/>
+      <c r="X44" s="370"/>
+      <c r="Y44" s="370"/>
+      <c r="Z44" s="370"/>
+      <c r="AA44" s="370"/>
+      <c r="AB44" s="370"/>
+      <c r="AC44" s="370"/>
       <c r="AM44" s="35"/>
     </row>
     <row r="45" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8816,42 +8845,42 @@
       <c r="AZ48" s="133"/>
     </row>
     <row r="49" spans="3:53" s="91" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D49" s="300" t="s">
+      <c r="D49" s="301" t="s">
         <v>41</v>
       </c>
-      <c r="E49" s="345" t="s">
+      <c r="E49" s="352" t="s">
         <v>29</v>
       </c>
-      <c r="F49" s="346"/>
-      <c r="G49" s="346"/>
-      <c r="H49" s="346"/>
-      <c r="I49" s="346"/>
-      <c r="J49" s="346"/>
-      <c r="K49" s="346"/>
-      <c r="L49" s="346"/>
-      <c r="M49" s="346"/>
-      <c r="N49" s="346"/>
-      <c r="O49" s="346"/>
-      <c r="P49" s="346"/>
-      <c r="Q49" s="346"/>
-      <c r="R49" s="346"/>
-      <c r="S49" s="346"/>
-      <c r="T49" s="346"/>
-      <c r="U49" s="346"/>
-      <c r="V49" s="346"/>
-      <c r="W49" s="346"/>
-      <c r="X49" s="346"/>
-      <c r="Y49" s="346"/>
-      <c r="Z49" s="346"/>
-      <c r="AA49" s="346"/>
-      <c r="AB49" s="346"/>
-      <c r="AC49" s="347"/>
-      <c r="AD49" s="278" t="s">
+      <c r="F49" s="353"/>
+      <c r="G49" s="353"/>
+      <c r="H49" s="353"/>
+      <c r="I49" s="353"/>
+      <c r="J49" s="353"/>
+      <c r="K49" s="353"/>
+      <c r="L49" s="353"/>
+      <c r="M49" s="353"/>
+      <c r="N49" s="353"/>
+      <c r="O49" s="353"/>
+      <c r="P49" s="353"/>
+      <c r="Q49" s="353"/>
+      <c r="R49" s="353"/>
+      <c r="S49" s="353"/>
+      <c r="T49" s="353"/>
+      <c r="U49" s="353"/>
+      <c r="V49" s="353"/>
+      <c r="W49" s="353"/>
+      <c r="X49" s="353"/>
+      <c r="Y49" s="353"/>
+      <c r="Z49" s="353"/>
+      <c r="AA49" s="353"/>
+      <c r="AB49" s="353"/>
+      <c r="AC49" s="354"/>
+      <c r="AD49" s="279" t="s">
         <v>33</v>
       </c>
-      <c r="AE49" s="279"/>
-      <c r="AF49" s="279"/>
-      <c r="AG49" s="280"/>
+      <c r="AE49" s="280"/>
+      <c r="AF49" s="280"/>
+      <c r="AG49" s="281"/>
       <c r="AH49" s="133"/>
       <c r="AI49" s="133"/>
       <c r="AJ49" s="133"/>
@@ -8863,48 +8892,48 @@
       <c r="AN49" s="133"/>
     </row>
     <row r="50" spans="3:53" s="91" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D50" s="363"/>
-      <c r="E50" s="278" t="s">
+      <c r="D50" s="325"/>
+      <c r="E50" s="279" t="s">
         <v>31</v>
       </c>
-      <c r="F50" s="279"/>
-      <c r="G50" s="279"/>
-      <c r="H50" s="280"/>
-      <c r="I50" s="339" t="s">
+      <c r="F50" s="280"/>
+      <c r="G50" s="280"/>
+      <c r="H50" s="281"/>
+      <c r="I50" s="351" t="s">
         <v>39</v>
       </c>
-      <c r="J50" s="340"/>
-      <c r="K50" s="340"/>
-      <c r="L50" s="341"/>
-      <c r="M50" s="364" t="s">
+      <c r="J50" s="327"/>
+      <c r="K50" s="327"/>
+      <c r="L50" s="328"/>
+      <c r="M50" s="326" t="s">
         <v>118</v>
       </c>
-      <c r="N50" s="340"/>
-      <c r="O50" s="340"/>
-      <c r="P50" s="340"/>
-      <c r="Q50" s="340"/>
-      <c r="R50" s="340"/>
-      <c r="S50" s="340"/>
-      <c r="T50" s="341"/>
-      <c r="U50" s="278" t="s">
+      <c r="N50" s="327"/>
+      <c r="O50" s="327"/>
+      <c r="P50" s="327"/>
+      <c r="Q50" s="327"/>
+      <c r="R50" s="327"/>
+      <c r="S50" s="327"/>
+      <c r="T50" s="328"/>
+      <c r="U50" s="279" t="s">
         <v>32</v>
       </c>
-      <c r="V50" s="279"/>
-      <c r="W50" s="279"/>
-      <c r="X50" s="279"/>
-      <c r="Y50" s="280"/>
-      <c r="Z50" s="278" t="s">
+      <c r="V50" s="280"/>
+      <c r="W50" s="280"/>
+      <c r="X50" s="280"/>
+      <c r="Y50" s="281"/>
+      <c r="Z50" s="279" t="s">
         <v>27</v>
       </c>
-      <c r="AA50" s="279"/>
-      <c r="AB50" s="280"/>
-      <c r="AC50" s="300" t="s">
+      <c r="AA50" s="280"/>
+      <c r="AB50" s="281"/>
+      <c r="AC50" s="301" t="s">
         <v>44</v>
       </c>
-      <c r="AD50" s="281"/>
-      <c r="AE50" s="282"/>
-      <c r="AF50" s="282"/>
-      <c r="AG50" s="283"/>
+      <c r="AD50" s="282"/>
+      <c r="AE50" s="283"/>
+      <c r="AF50" s="283"/>
+      <c r="AG50" s="284"/>
       <c r="AH50" s="133"/>
       <c r="AI50" s="133"/>
       <c r="AJ50" s="133"/>
@@ -8920,36 +8949,36 @@
       <c r="AT50" s="133"/>
     </row>
     <row r="51" spans="3:53" s="91" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D51" s="301"/>
-      <c r="E51" s="284"/>
-      <c r="F51" s="285"/>
-      <c r="G51" s="285"/>
-      <c r="H51" s="286"/>
-      <c r="I51" s="342"/>
-      <c r="J51" s="343"/>
-      <c r="K51" s="343"/>
-      <c r="L51" s="344"/>
-      <c r="M51" s="342"/>
-      <c r="N51" s="343"/>
-      <c r="O51" s="343"/>
-      <c r="P51" s="343"/>
-      <c r="Q51" s="343"/>
-      <c r="R51" s="343"/>
-      <c r="S51" s="343"/>
-      <c r="T51" s="344"/>
-      <c r="U51" s="284"/>
-      <c r="V51" s="285"/>
-      <c r="W51" s="285"/>
-      <c r="X51" s="285"/>
-      <c r="Y51" s="286"/>
-      <c r="Z51" s="284"/>
-      <c r="AA51" s="285"/>
-      <c r="AB51" s="286"/>
-      <c r="AC51" s="301"/>
-      <c r="AD51" s="284"/>
-      <c r="AE51" s="285"/>
-      <c r="AF51" s="285"/>
-      <c r="AG51" s="286"/>
+      <c r="D51" s="302"/>
+      <c r="E51" s="285"/>
+      <c r="F51" s="286"/>
+      <c r="G51" s="286"/>
+      <c r="H51" s="287"/>
+      <c r="I51" s="329"/>
+      <c r="J51" s="330"/>
+      <c r="K51" s="330"/>
+      <c r="L51" s="331"/>
+      <c r="M51" s="329"/>
+      <c r="N51" s="330"/>
+      <c r="O51" s="330"/>
+      <c r="P51" s="330"/>
+      <c r="Q51" s="330"/>
+      <c r="R51" s="330"/>
+      <c r="S51" s="330"/>
+      <c r="T51" s="331"/>
+      <c r="U51" s="285"/>
+      <c r="V51" s="286"/>
+      <c r="W51" s="286"/>
+      <c r="X51" s="286"/>
+      <c r="Y51" s="287"/>
+      <c r="Z51" s="285"/>
+      <c r="AA51" s="286"/>
+      <c r="AB51" s="287"/>
+      <c r="AC51" s="302"/>
+      <c r="AD51" s="285"/>
+      <c r="AE51" s="286"/>
+      <c r="AF51" s="286"/>
+      <c r="AG51" s="287"/>
       <c r="AH51" s="133"/>
       <c r="AI51" s="133"/>
       <c r="AJ51" s="133"/>
@@ -8973,52 +9002,52 @@
       <c r="E52" s="219" t="s">
         <v>141</v>
       </c>
-      <c r="F52" s="290"/>
-      <c r="G52" s="290"/>
-      <c r="H52" s="337"/>
-      <c r="I52" s="338" t="s">
+      <c r="F52" s="291"/>
+      <c r="G52" s="291"/>
+      <c r="H52" s="349"/>
+      <c r="I52" s="350" t="s">
         <v>88</v>
       </c>
-      <c r="J52" s="338"/>
-      <c r="K52" s="338"/>
-      <c r="L52" s="338"/>
-      <c r="M52" s="349" t="s">
+      <c r="J52" s="350"/>
+      <c r="K52" s="350"/>
+      <c r="L52" s="350"/>
+      <c r="M52" s="373" t="s">
         <v>136</v>
       </c>
-      <c r="N52" s="350"/>
-      <c r="O52" s="350"/>
-      <c r="P52" s="350"/>
-      <c r="Q52" s="350"/>
-      <c r="R52" s="350"/>
-      <c r="S52" s="350"/>
-      <c r="T52" s="350"/>
-      <c r="U52" s="335" t="s">
+      <c r="N52" s="374"/>
+      <c r="O52" s="374"/>
+      <c r="P52" s="374"/>
+      <c r="Q52" s="374"/>
+      <c r="R52" s="374"/>
+      <c r="S52" s="374"/>
+      <c r="T52" s="374"/>
+      <c r="U52" s="347" t="s">
         <v>135</v>
       </c>
-      <c r="V52" s="336"/>
-      <c r="W52" s="336"/>
-      <c r="X52" s="336"/>
-      <c r="Y52" s="336"/>
-      <c r="Z52" s="335" t="s">
+      <c r="V52" s="348"/>
+      <c r="W52" s="348"/>
+      <c r="X52" s="348"/>
+      <c r="Y52" s="348"/>
+      <c r="Z52" s="347" t="s">
         <v>135</v>
       </c>
-      <c r="AA52" s="336"/>
-      <c r="AB52" s="336"/>
+      <c r="AA52" s="348"/>
+      <c r="AB52" s="348"/>
       <c r="AC52" s="176" t="s">
         <v>90</v>
       </c>
       <c r="AD52" s="216" t="s">
         <v>141</v>
       </c>
-      <c r="AE52" s="298"/>
-      <c r="AF52" s="298"/>
-      <c r="AG52" s="299"/>
+      <c r="AE52" s="299"/>
+      <c r="AF52" s="299"/>
+      <c r="AG52" s="300"/>
       <c r="AH52" s="133"/>
       <c r="AI52" s="133"/>
       <c r="AJ52" s="133"/>
       <c r="AK52" s="133"/>
       <c r="AL52" s="100" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="AM52" s="164"/>
       <c r="AN52" s="164"/>
@@ -9036,52 +9065,52 @@
       <c r="E53" s="219" t="s">
         <v>142</v>
       </c>
-      <c r="F53" s="290"/>
-      <c r="G53" s="290"/>
-      <c r="H53" s="337"/>
-      <c r="I53" s="396" t="s">
-        <v>176</v>
-      </c>
-      <c r="J53" s="338"/>
-      <c r="K53" s="338"/>
-      <c r="L53" s="338"/>
-      <c r="M53" s="327" t="s">
+      <c r="F53" s="291"/>
+      <c r="G53" s="291"/>
+      <c r="H53" s="349"/>
+      <c r="I53" s="376" t="s">
+        <v>171</v>
+      </c>
+      <c r="J53" s="350"/>
+      <c r="K53" s="350"/>
+      <c r="L53" s="350"/>
+      <c r="M53" s="355" t="s">
         <v>79</v>
       </c>
-      <c r="N53" s="328"/>
-      <c r="O53" s="328"/>
-      <c r="P53" s="328"/>
-      <c r="Q53" s="328"/>
-      <c r="R53" s="328"/>
-      <c r="S53" s="328"/>
-      <c r="T53" s="329"/>
+      <c r="N53" s="356"/>
+      <c r="O53" s="356"/>
+      <c r="P53" s="356"/>
+      <c r="Q53" s="356"/>
+      <c r="R53" s="356"/>
+      <c r="S53" s="356"/>
+      <c r="T53" s="357"/>
       <c r="U53" s="216" t="s">
-        <v>178</v>
-      </c>
-      <c r="V53" s="298"/>
-      <c r="W53" s="298"/>
-      <c r="X53" s="298"/>
-      <c r="Y53" s="299"/>
-      <c r="Z53" s="335" t="s">
+        <v>173</v>
+      </c>
+      <c r="V53" s="299"/>
+      <c r="W53" s="299"/>
+      <c r="X53" s="299"/>
+      <c r="Y53" s="300"/>
+      <c r="Z53" s="347" t="s">
         <v>135</v>
       </c>
-      <c r="AA53" s="336"/>
-      <c r="AB53" s="336"/>
+      <c r="AA53" s="348"/>
+      <c r="AB53" s="348"/>
       <c r="AC53" s="176" t="s">
         <v>90</v>
       </c>
       <c r="AD53" s="216" t="s">
         <v>142</v>
       </c>
-      <c r="AE53" s="298"/>
-      <c r="AF53" s="298"/>
-      <c r="AG53" s="299"/>
+      <c r="AE53" s="299"/>
+      <c r="AF53" s="299"/>
+      <c r="AG53" s="300"/>
       <c r="AH53" s="133"/>
       <c r="AI53" s="133"/>
       <c r="AJ53" s="133"/>
       <c r="AK53" s="133"/>
       <c r="AL53" s="100" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="AM53" s="164"/>
       <c r="AN53" s="164"/>
@@ -9200,24 +9229,24 @@
       <c r="AW57" s="105"/>
     </row>
     <row r="58" spans="3:53" x14ac:dyDescent="0.15">
-      <c r="D58" s="365" t="s">
+      <c r="D58" s="332" t="s">
         <v>117</v>
       </c>
-      <c r="E58" s="367" t="s">
+      <c r="E58" s="334" t="s">
         <v>49</v>
       </c>
-      <c r="F58" s="368"/>
-      <c r="G58" s="368"/>
-      <c r="H58" s="368"/>
-      <c r="I58" s="368"/>
-      <c r="J58" s="369"/>
-      <c r="K58" s="367" t="s">
+      <c r="F58" s="335"/>
+      <c r="G58" s="335"/>
+      <c r="H58" s="335"/>
+      <c r="I58" s="335"/>
+      <c r="J58" s="336"/>
+      <c r="K58" s="334" t="s">
         <v>50</v>
       </c>
-      <c r="L58" s="368"/>
-      <c r="M58" s="368"/>
-      <c r="N58" s="369"/>
-      <c r="O58" s="392" t="s">
+      <c r="L58" s="335"/>
+      <c r="M58" s="335"/>
+      <c r="N58" s="336"/>
+      <c r="O58" s="395" t="s">
         <v>51</v>
       </c>
       <c r="P58" s="139" t="s">
@@ -9228,21 +9257,21 @@
       <c r="S58" s="140"/>
       <c r="T58" s="140"/>
       <c r="U58" s="140"/>
-      <c r="V58" s="367" t="s">
+      <c r="V58" s="334" t="s">
         <v>30</v>
       </c>
-      <c r="W58" s="368"/>
-      <c r="X58" s="368"/>
-      <c r="Y58" s="368"/>
-      <c r="Z58" s="368"/>
-      <c r="AA58" s="368"/>
-      <c r="AB58" s="368"/>
-      <c r="AC58" s="368"/>
-      <c r="AD58" s="368"/>
-      <c r="AE58" s="368"/>
-      <c r="AF58" s="368"/>
-      <c r="AG58" s="368"/>
-      <c r="AH58" s="369"/>
+      <c r="W58" s="335"/>
+      <c r="X58" s="335"/>
+      <c r="Y58" s="335"/>
+      <c r="Z58" s="335"/>
+      <c r="AA58" s="335"/>
+      <c r="AB58" s="335"/>
+      <c r="AC58" s="335"/>
+      <c r="AD58" s="335"/>
+      <c r="AE58" s="335"/>
+      <c r="AF58" s="335"/>
+      <c r="AG58" s="335"/>
+      <c r="AH58" s="336"/>
       <c r="AK58" s="105"/>
       <c r="AL58" s="105"/>
       <c r="AM58" s="105"/>
@@ -9258,18 +9287,18 @@
       <c r="AW58" s="105"/>
     </row>
     <row r="59" spans="3:53" x14ac:dyDescent="0.15">
-      <c r="D59" s="366"/>
-      <c r="E59" s="370"/>
-      <c r="F59" s="371"/>
-      <c r="G59" s="371"/>
-      <c r="H59" s="371"/>
-      <c r="I59" s="371"/>
-      <c r="J59" s="372"/>
-      <c r="K59" s="370"/>
-      <c r="L59" s="371"/>
-      <c r="M59" s="371"/>
-      <c r="N59" s="372"/>
-      <c r="O59" s="393"/>
+      <c r="D59" s="333"/>
+      <c r="E59" s="337"/>
+      <c r="F59" s="338"/>
+      <c r="G59" s="338"/>
+      <c r="H59" s="338"/>
+      <c r="I59" s="338"/>
+      <c r="J59" s="339"/>
+      <c r="K59" s="337"/>
+      <c r="L59" s="338"/>
+      <c r="M59" s="338"/>
+      <c r="N59" s="339"/>
+      <c r="O59" s="396"/>
       <c r="P59" s="141" t="s">
         <v>52</v>
       </c>
@@ -9282,23 +9311,23 @@
       <c r="S59" s="141" t="s">
         <v>55</v>
       </c>
-      <c r="T59" s="394" t="s">
+      <c r="T59" s="397" t="s">
         <v>59</v>
       </c>
-      <c r="U59" s="395"/>
-      <c r="V59" s="370"/>
-      <c r="W59" s="371"/>
-      <c r="X59" s="371"/>
-      <c r="Y59" s="371"/>
-      <c r="Z59" s="371"/>
-      <c r="AA59" s="371"/>
-      <c r="AB59" s="371"/>
-      <c r="AC59" s="371"/>
-      <c r="AD59" s="371"/>
-      <c r="AE59" s="371"/>
-      <c r="AF59" s="371"/>
-      <c r="AG59" s="371"/>
-      <c r="AH59" s="372"/>
+      <c r="U59" s="398"/>
+      <c r="V59" s="337"/>
+      <c r="W59" s="338"/>
+      <c r="X59" s="338"/>
+      <c r="Y59" s="338"/>
+      <c r="Z59" s="338"/>
+      <c r="AA59" s="338"/>
+      <c r="AB59" s="338"/>
+      <c r="AC59" s="338"/>
+      <c r="AD59" s="338"/>
+      <c r="AE59" s="338"/>
+      <c r="AF59" s="338"/>
+      <c r="AG59" s="338"/>
+      <c r="AH59" s="339"/>
       <c r="AK59" s="105"/>
       <c r="AL59" s="105"/>
       <c r="AM59" s="105"/>
@@ -9317,20 +9346,20 @@
       <c r="D60" s="142">
         <v>1</v>
       </c>
-      <c r="E60" s="318" t="s">
+      <c r="E60" s="309" t="s">
         <v>143</v>
       </c>
-      <c r="F60" s="319"/>
-      <c r="G60" s="319"/>
-      <c r="H60" s="319"/>
-      <c r="I60" s="319"/>
-      <c r="J60" s="320"/>
-      <c r="K60" s="361" t="s">
+      <c r="F60" s="310"/>
+      <c r="G60" s="310"/>
+      <c r="H60" s="310"/>
+      <c r="I60" s="310"/>
+      <c r="J60" s="311"/>
+      <c r="K60" s="345" t="s">
         <v>91</v>
       </c>
-      <c r="L60" s="298"/>
-      <c r="M60" s="298"/>
-      <c r="N60" s="299"/>
+      <c r="L60" s="299"/>
+      <c r="M60" s="299"/>
+      <c r="N60" s="300"/>
       <c r="O60" s="137" t="s">
         <v>92</v>
       </c>
@@ -9346,25 +9375,25 @@
       <c r="S60" s="162" t="s">
         <v>89</v>
       </c>
-      <c r="T60" s="375" t="s">
+      <c r="T60" s="343" t="s">
         <v>89</v>
       </c>
-      <c r="U60" s="376"/>
-      <c r="V60" s="361" t="s">
+      <c r="U60" s="344"/>
+      <c r="V60" s="345" t="s">
         <v>79</v>
       </c>
-      <c r="W60" s="298"/>
-      <c r="X60" s="298"/>
-      <c r="Y60" s="298"/>
-      <c r="Z60" s="298"/>
-      <c r="AA60" s="298"/>
-      <c r="AB60" s="298"/>
-      <c r="AC60" s="298"/>
-      <c r="AD60" s="298"/>
-      <c r="AE60" s="298"/>
-      <c r="AF60" s="298"/>
-      <c r="AG60" s="298"/>
-      <c r="AH60" s="299"/>
+      <c r="W60" s="299"/>
+      <c r="X60" s="299"/>
+      <c r="Y60" s="299"/>
+      <c r="Z60" s="299"/>
+      <c r="AA60" s="299"/>
+      <c r="AB60" s="299"/>
+      <c r="AC60" s="299"/>
+      <c r="AD60" s="299"/>
+      <c r="AE60" s="299"/>
+      <c r="AF60" s="299"/>
+      <c r="AG60" s="299"/>
+      <c r="AH60" s="300"/>
       <c r="AK60" s="105"/>
       <c r="AL60" s="105"/>
       <c r="AM60" s="105"/>
@@ -9384,19 +9413,19 @@
         <v>2</v>
       </c>
       <c r="E61" s="198" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F61" s="199"/>
       <c r="G61" s="199"/>
       <c r="H61" s="199"/>
       <c r="I61" s="199"/>
       <c r="J61" s="199"/>
-      <c r="K61" s="361" t="s">
+      <c r="K61" s="345" t="s">
         <v>91</v>
       </c>
-      <c r="L61" s="298"/>
-      <c r="M61" s="298"/>
-      <c r="N61" s="299"/>
+      <c r="L61" s="299"/>
+      <c r="M61" s="299"/>
+      <c r="N61" s="300"/>
       <c r="O61" s="137" t="s">
         <v>92</v>
       </c>
@@ -9412,25 +9441,25 @@
       <c r="S61" s="176" t="s">
         <v>89</v>
       </c>
-      <c r="T61" s="375" t="s">
+      <c r="T61" s="343" t="s">
         <v>89</v>
       </c>
-      <c r="U61" s="376"/>
-      <c r="V61" s="361" t="s">
+      <c r="U61" s="344"/>
+      <c r="V61" s="345" t="s">
         <v>79</v>
       </c>
-      <c r="W61" s="298"/>
-      <c r="X61" s="298"/>
-      <c r="Y61" s="298"/>
-      <c r="Z61" s="298"/>
-      <c r="AA61" s="298"/>
-      <c r="AB61" s="298"/>
-      <c r="AC61" s="298"/>
-      <c r="AD61" s="298"/>
-      <c r="AE61" s="298"/>
-      <c r="AF61" s="298"/>
-      <c r="AG61" s="298"/>
-      <c r="AH61" s="299"/>
+      <c r="W61" s="299"/>
+      <c r="X61" s="299"/>
+      <c r="Y61" s="299"/>
+      <c r="Z61" s="299"/>
+      <c r="AA61" s="299"/>
+      <c r="AB61" s="299"/>
+      <c r="AC61" s="299"/>
+      <c r="AD61" s="299"/>
+      <c r="AE61" s="299"/>
+      <c r="AF61" s="299"/>
+      <c r="AG61" s="299"/>
+      <c r="AH61" s="300"/>
       <c r="AK61" s="105"/>
       <c r="AL61" s="105"/>
       <c r="AM61" s="105"/>
@@ -9556,235 +9585,256 @@
       <c r="D66" s="144" t="s">
         <v>11</v>
       </c>
-      <c r="E66" s="373" t="s">
+      <c r="E66" s="340" t="s">
         <v>72</v>
       </c>
-      <c r="F66" s="330"/>
-      <c r="G66" s="330"/>
-      <c r="H66" s="330"/>
-      <c r="I66" s="330"/>
-      <c r="J66" s="374"/>
-      <c r="K66" s="373" t="s">
+      <c r="F66" s="341"/>
+      <c r="G66" s="341"/>
+      <c r="H66" s="341"/>
+      <c r="I66" s="341"/>
+      <c r="J66" s="342"/>
+      <c r="K66" s="340" t="s">
         <v>38</v>
       </c>
-      <c r="L66" s="330"/>
-      <c r="M66" s="330"/>
-      <c r="N66" s="330"/>
-      <c r="O66" s="330"/>
-      <c r="P66" s="330"/>
-      <c r="Q66" s="331"/>
-      <c r="R66" s="287" t="s">
+      <c r="L66" s="341"/>
+      <c r="M66" s="341"/>
+      <c r="N66" s="341"/>
+      <c r="O66" s="341"/>
+      <c r="P66" s="341"/>
+      <c r="Q66" s="346"/>
+      <c r="R66" s="288" t="s">
         <v>73</v>
       </c>
-      <c r="S66" s="330"/>
-      <c r="T66" s="330"/>
-      <c r="U66" s="330"/>
-      <c r="V66" s="330"/>
-      <c r="W66" s="330"/>
-      <c r="X66" s="330"/>
-      <c r="Y66" s="331"/>
-      <c r="Z66" s="345" t="s">
+      <c r="S66" s="341"/>
+      <c r="T66" s="341"/>
+      <c r="U66" s="341"/>
+      <c r="V66" s="341"/>
+      <c r="W66" s="341"/>
+      <c r="X66" s="341"/>
+      <c r="Y66" s="346"/>
+      <c r="Z66" s="352" t="s">
         <v>26</v>
       </c>
-      <c r="AA66" s="346"/>
-      <c r="AB66" s="346"/>
-      <c r="AC66" s="346"/>
-      <c r="AD66" s="347"/>
-      <c r="AE66" s="400" t="s">
+      <c r="AA66" s="353"/>
+      <c r="AB66" s="353"/>
+      <c r="AC66" s="353"/>
+      <c r="AD66" s="354"/>
+      <c r="AE66" s="389" t="s">
         <v>129</v>
       </c>
-      <c r="AF66" s="401"/>
-      <c r="AG66" s="401"/>
-      <c r="AH66" s="402"/>
+      <c r="AF66" s="390"/>
+      <c r="AG66" s="390"/>
+      <c r="AH66" s="391"/>
     </row>
     <row r="67" spans="1:58" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D67" s="145">
         <v>1</v>
       </c>
-      <c r="E67" s="352" t="s">
+      <c r="E67" s="359" t="s">
         <v>94</v>
       </c>
-      <c r="F67" s="353"/>
-      <c r="G67" s="353"/>
-      <c r="H67" s="353"/>
-      <c r="I67" s="353"/>
-      <c r="J67" s="354"/>
-      <c r="K67" s="361" t="s">
+      <c r="F67" s="360"/>
+      <c r="G67" s="360"/>
+      <c r="H67" s="360"/>
+      <c r="I67" s="360"/>
+      <c r="J67" s="361"/>
+      <c r="K67" s="345" t="s">
         <v>95</v>
       </c>
-      <c r="L67" s="298"/>
-      <c r="M67" s="298"/>
-      <c r="N67" s="298"/>
-      <c r="O67" s="298"/>
-      <c r="P67" s="298"/>
-      <c r="Q67" s="299"/>
+      <c r="L67" s="299"/>
+      <c r="M67" s="299"/>
+      <c r="N67" s="299"/>
+      <c r="O67" s="299"/>
+      <c r="P67" s="299"/>
+      <c r="Q67" s="300"/>
       <c r="R67" s="216" t="s">
         <v>145</v>
       </c>
-      <c r="S67" s="298"/>
-      <c r="T67" s="298"/>
-      <c r="U67" s="298"/>
-      <c r="V67" s="298"/>
-      <c r="W67" s="298"/>
-      <c r="X67" s="298"/>
-      <c r="Y67" s="299"/>
-      <c r="Z67" s="361" t="s">
+      <c r="S67" s="299"/>
+      <c r="T67" s="299"/>
+      <c r="U67" s="299"/>
+      <c r="V67" s="299"/>
+      <c r="W67" s="299"/>
+      <c r="X67" s="299"/>
+      <c r="Y67" s="300"/>
+      <c r="Z67" s="345" t="s">
         <v>93</v>
       </c>
-      <c r="AA67" s="298"/>
-      <c r="AB67" s="298"/>
-      <c r="AC67" s="298"/>
-      <c r="AD67" s="299"/>
-      <c r="AE67" s="378" t="s">
+      <c r="AA67" s="299"/>
+      <c r="AB67" s="299"/>
+      <c r="AC67" s="299"/>
+      <c r="AD67" s="300"/>
+      <c r="AE67" s="386" t="s">
         <v>71</v>
       </c>
-      <c r="AF67" s="379"/>
-      <c r="AG67" s="379"/>
-      <c r="AH67" s="380"/>
+      <c r="AF67" s="387"/>
+      <c r="AG67" s="387"/>
+      <c r="AH67" s="388"/>
     </row>
     <row r="68" spans="1:58" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D68" s="145">
         <v>2</v>
       </c>
-      <c r="E68" s="377" t="s">
+      <c r="E68" s="369" t="s">
         <v>138</v>
       </c>
-      <c r="F68" s="353"/>
-      <c r="G68" s="353"/>
-      <c r="H68" s="353"/>
-      <c r="I68" s="353"/>
-      <c r="J68" s="354"/>
+      <c r="F68" s="360"/>
+      <c r="G68" s="360"/>
+      <c r="H68" s="360"/>
+      <c r="I68" s="360"/>
+      <c r="J68" s="361"/>
       <c r="K68" s="216" t="s">
         <v>144</v>
       </c>
-      <c r="L68" s="298"/>
-      <c r="M68" s="298"/>
-      <c r="N68" s="298"/>
-      <c r="O68" s="298"/>
-      <c r="P68" s="298"/>
-      <c r="Q68" s="299"/>
+      <c r="L68" s="299"/>
+      <c r="M68" s="299"/>
+      <c r="N68" s="299"/>
+      <c r="O68" s="299"/>
+      <c r="P68" s="299"/>
+      <c r="Q68" s="300"/>
       <c r="R68" s="216" t="s">
         <v>146</v>
       </c>
-      <c r="S68" s="298"/>
-      <c r="T68" s="298"/>
-      <c r="U68" s="298"/>
-      <c r="V68" s="298"/>
-      <c r="W68" s="298"/>
-      <c r="X68" s="298"/>
-      <c r="Y68" s="299"/>
+      <c r="S68" s="299"/>
+      <c r="T68" s="299"/>
+      <c r="U68" s="299"/>
+      <c r="V68" s="299"/>
+      <c r="W68" s="299"/>
+      <c r="X68" s="299"/>
+      <c r="Y68" s="300"/>
       <c r="Z68" s="216" t="s">
-        <v>164</v>
-      </c>
-      <c r="AA68" s="298"/>
-      <c r="AB68" s="298"/>
-      <c r="AC68" s="298"/>
-      <c r="AD68" s="299"/>
-      <c r="AE68" s="378" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA68" s="299"/>
+      <c r="AB68" s="299"/>
+      <c r="AC68" s="299"/>
+      <c r="AD68" s="300"/>
+      <c r="AE68" s="386" t="s">
         <v>71</v>
       </c>
-      <c r="AF68" s="379"/>
-      <c r="AG68" s="379"/>
-      <c r="AH68" s="380"/>
-    </row>
-    <row r="69" spans="1:58" s="108" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D69" s="128"/>
-      <c r="E69" s="150"/>
-      <c r="F69" s="150"/>
-      <c r="G69" s="150"/>
-      <c r="H69" s="150"/>
-      <c r="I69" s="150"/>
-      <c r="J69" s="150"/>
-      <c r="K69" s="157"/>
-      <c r="L69" s="157"/>
-      <c r="M69" s="157"/>
-      <c r="N69" s="157"/>
-      <c r="O69" s="157"/>
-      <c r="P69" s="157"/>
-      <c r="Q69" s="157"/>
-      <c r="R69" s="157"/>
-      <c r="S69" s="157"/>
-      <c r="T69" s="157"/>
-      <c r="U69" s="157"/>
-      <c r="V69" s="157"/>
-      <c r="W69" s="157"/>
-      <c r="X69" s="157"/>
-      <c r="Y69" s="157"/>
-      <c r="Z69" s="157"/>
-      <c r="AA69" s="157"/>
-      <c r="AB69" s="157"/>
-      <c r="AC69" s="157"/>
-      <c r="AD69" s="157"/>
-      <c r="AE69" s="157"/>
-      <c r="AF69" s="157"/>
-      <c r="AG69" s="157"/>
-      <c r="AH69" s="135"/>
-      <c r="AN69" s="29"/>
-      <c r="AO69" s="29"/>
-      <c r="AP69" s="29"/>
-    </row>
-    <row r="70" spans="1:58" x14ac:dyDescent="0.15">
-      <c r="A70" s="105"/>
-      <c r="B70" s="105"/>
-      <c r="C70" s="105"/>
-      <c r="D70" s="105"/>
-      <c r="E70" s="105"/>
-      <c r="F70" s="105"/>
-      <c r="G70" s="105"/>
-      <c r="H70" s="105"/>
-      <c r="I70" s="105"/>
-      <c r="J70" s="105"/>
-      <c r="K70" s="105"/>
-      <c r="L70" s="105"/>
-      <c r="M70" s="105"/>
-      <c r="N70" s="105"/>
-      <c r="O70" s="105"/>
-      <c r="P70" s="105"/>
-      <c r="Q70" s="105"/>
-      <c r="R70" s="105"/>
-      <c r="S70" s="105"/>
-      <c r="T70" s="105"/>
-      <c r="U70" s="105"/>
-      <c r="V70" s="105"/>
-      <c r="W70" s="105"/>
-      <c r="X70" s="105"/>
-      <c r="Y70" s="105"/>
-      <c r="Z70" s="105"/>
-      <c r="AA70" s="105"/>
-      <c r="AB70" s="105"/>
-      <c r="AC70" s="105"/>
-      <c r="AD70" s="105"/>
+      <c r="AF68" s="387"/>
+      <c r="AG68" s="387"/>
+      <c r="AH68" s="388"/>
+    </row>
+    <row r="69" spans="1:58" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D69" s="145">
+        <v>3</v>
+      </c>
+      <c r="E69" s="369" t="s">
+        <v>199</v>
+      </c>
+      <c r="F69" s="360"/>
+      <c r="G69" s="360"/>
+      <c r="H69" s="360"/>
+      <c r="I69" s="360"/>
+      <c r="J69" s="361"/>
+      <c r="K69" s="216" t="s">
+        <v>200</v>
+      </c>
+      <c r="L69" s="299"/>
+      <c r="M69" s="299"/>
+      <c r="N69" s="299"/>
+      <c r="O69" s="299"/>
+      <c r="P69" s="299"/>
+      <c r="Q69" s="300"/>
+      <c r="R69" s="216" t="s">
+        <v>201</v>
+      </c>
+      <c r="S69" s="299"/>
+      <c r="T69" s="299"/>
+      <c r="U69" s="299"/>
+      <c r="V69" s="299"/>
+      <c r="W69" s="299"/>
+      <c r="X69" s="299"/>
+      <c r="Y69" s="300"/>
+      <c r="Z69" s="216" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA69" s="299"/>
+      <c r="AB69" s="299"/>
+      <c r="AC69" s="299"/>
+      <c r="AD69" s="300"/>
+      <c r="AE69" s="386" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF69" s="387"/>
+      <c r="AG69" s="387"/>
+      <c r="AH69" s="388"/>
+    </row>
+    <row r="70" spans="1:58" s="108" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D70" s="128"/>
+      <c r="E70" s="150"/>
+      <c r="F70" s="150"/>
+      <c r="G70" s="150"/>
+      <c r="H70" s="150"/>
+      <c r="I70" s="150"/>
+      <c r="J70" s="150"/>
+      <c r="K70" s="157"/>
+      <c r="L70" s="157"/>
+      <c r="M70" s="157"/>
+      <c r="N70" s="157"/>
+      <c r="O70" s="157"/>
+      <c r="P70" s="157"/>
+      <c r="Q70" s="157"/>
+      <c r="R70" s="157"/>
+      <c r="S70" s="157"/>
+      <c r="T70" s="157"/>
+      <c r="U70" s="157"/>
+      <c r="V70" s="157"/>
+      <c r="W70" s="157"/>
+      <c r="X70" s="157"/>
+      <c r="Y70" s="157"/>
+      <c r="Z70" s="157"/>
+      <c r="AA70" s="157"/>
+      <c r="AB70" s="157"/>
+      <c r="AC70" s="157"/>
+      <c r="AD70" s="157"/>
       <c r="AE70" s="157"/>
       <c r="AF70" s="157"/>
       <c r="AG70" s="157"/>
-      <c r="AH70" s="105"/>
-      <c r="AI70" s="105"/>
-      <c r="AN70" s="105"/>
-      <c r="AO70" s="105"/>
-      <c r="AP70" s="105"/>
-      <c r="AQ70" s="105"/>
-      <c r="AR70" s="105"/>
-      <c r="AS70" s="105"/>
-      <c r="AT70" s="105"/>
-      <c r="AU70" s="105"/>
-      <c r="AV70" s="105"/>
-      <c r="AW70" s="105"/>
-      <c r="AX70" s="105"/>
-      <c r="AY70" s="105"/>
-      <c r="AZ70" s="105"/>
-      <c r="BA70" s="105"/>
-      <c r="BB70" s="105"/>
+      <c r="AH70" s="135"/>
+      <c r="AN70" s="29"/>
+      <c r="AO70" s="29"/>
+      <c r="AP70" s="29"/>
     </row>
     <row r="71" spans="1:58" x14ac:dyDescent="0.15">
-      <c r="C71" s="105" t="s">
-        <v>65</v>
-      </c>
-      <c r="D71" s="106"/>
-      <c r="E71" s="106"/>
-      <c r="G71" s="53"/>
-      <c r="I71" s="107"/>
+      <c r="A71" s="105"/>
+      <c r="B71" s="105"/>
+      <c r="C71" s="105"/>
+      <c r="D71" s="105"/>
+      <c r="E71" s="105"/>
+      <c r="F71" s="105"/>
+      <c r="G71" s="105"/>
+      <c r="H71" s="105"/>
+      <c r="I71" s="105"/>
+      <c r="J71" s="105"/>
+      <c r="K71" s="105"/>
+      <c r="L71" s="105"/>
+      <c r="M71" s="105"/>
+      <c r="N71" s="105"/>
+      <c r="O71" s="105"/>
+      <c r="P71" s="105"/>
+      <c r="Q71" s="105"/>
+      <c r="R71" s="105"/>
+      <c r="S71" s="105"/>
+      <c r="T71" s="105"/>
+      <c r="U71" s="105"/>
+      <c r="V71" s="105"/>
+      <c r="W71" s="105"/>
+      <c r="X71" s="105"/>
+      <c r="Y71" s="105"/>
+      <c r="Z71" s="105"/>
+      <c r="AA71" s="105"/>
+      <c r="AB71" s="105"/>
+      <c r="AC71" s="105"/>
+      <c r="AD71" s="105"/>
       <c r="AE71" s="157"/>
+      <c r="AF71" s="157"/>
       <c r="AG71" s="157"/>
+      <c r="AH71" s="105"/>
+      <c r="AI71" s="105"/>
+      <c r="AN71" s="105"/>
+      <c r="AO71" s="105"/>
       <c r="AP71" s="105"/>
       <c r="AQ71" s="105"/>
       <c r="AR71" s="105"/>
@@ -9798,15 +9848,17 @@
       <c r="AZ71" s="105"/>
       <c r="BA71" s="105"/>
       <c r="BB71" s="105"/>
-      <c r="BC71" s="105"/>
-      <c r="BD71" s="105"/>
-    </row>
-    <row r="72" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C72" s="105"/>
-      <c r="D72" s="152" t="s">
-        <v>96</v>
-      </c>
+    </row>
+    <row r="72" spans="1:58" x14ac:dyDescent="0.15">
+      <c r="C72" s="105" t="s">
+        <v>65</v>
+      </c>
+      <c r="D72" s="106"/>
       <c r="E72" s="106"/>
+      <c r="G72" s="53"/>
+      <c r="I72" s="107"/>
+      <c r="AE72" s="157"/>
+      <c r="AG72" s="157"/>
       <c r="AP72" s="105"/>
       <c r="AQ72" s="105"/>
       <c r="AR72" s="105"/>
@@ -9825,7 +9877,9 @@
     </row>
     <row r="73" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C73" s="105"/>
-      <c r="D73" s="106"/>
+      <c r="D73" s="152" t="s">
+        <v>96</v>
+      </c>
       <c r="E73" s="106"/>
       <c r="AP73" s="105"/>
       <c r="AQ73" s="105"/>
@@ -9843,122 +9897,116 @@
       <c r="BC73" s="105"/>
       <c r="BD73" s="105"/>
     </row>
-    <row r="74" spans="1:58" s="108" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C74" s="29"/>
+    <row r="74" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C74" s="105"/>
       <c r="D74" s="106"/>
-      <c r="E74" s="106" t="s">
+      <c r="E74" s="106"/>
+      <c r="AP74" s="105"/>
+      <c r="AQ74" s="105"/>
+      <c r="AR74" s="105"/>
+      <c r="AS74" s="105"/>
+      <c r="AT74" s="105"/>
+      <c r="AU74" s="105"/>
+      <c r="AV74" s="105"/>
+      <c r="AW74" s="105"/>
+      <c r="AX74" s="105"/>
+      <c r="AY74" s="105"/>
+      <c r="AZ74" s="105"/>
+      <c r="BA74" s="105"/>
+      <c r="BB74" s="105"/>
+      <c r="BC74" s="105"/>
+      <c r="BD74" s="105"/>
+    </row>
+    <row r="75" spans="1:58" s="108" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C75" s="29"/>
+      <c r="D75" s="106"/>
+      <c r="E75" s="106" t="s">
         <v>97</v>
       </c>
-      <c r="AP74" s="29"/>
-    </row>
-    <row r="75" spans="1:58" x14ac:dyDescent="0.15">
-      <c r="C75" s="105"/>
-      <c r="D75" s="106"/>
-      <c r="E75" s="106"/>
-      <c r="F75" s="106"/>
-    </row>
-    <row r="76" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AP75" s="29"/>
+    </row>
+    <row r="76" spans="1:58" x14ac:dyDescent="0.15">
       <c r="C76" s="105"/>
       <c r="D76" s="106"/>
       <c r="E76" s="106"/>
-      <c r="F76" s="17" t="s">
+      <c r="F76" s="106"/>
+    </row>
+    <row r="77" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C77" s="105"/>
+      <c r="D77" s="106"/>
+      <c r="E77" s="106"/>
+      <c r="F77" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="AP76" s="105"/>
-    </row>
-    <row r="77" spans="1:58" s="108" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="29"/>
-      <c r="B77" s="107"/>
-      <c r="C77" s="29"/>
-      <c r="D77" s="29"/>
-      <c r="E77" s="29"/>
-      <c r="G77" s="151"/>
-      <c r="H77" s="151"/>
-      <c r="I77" s="151"/>
-      <c r="J77" s="151"/>
-      <c r="K77" s="151"/>
-      <c r="L77" s="151"/>
-      <c r="M77" s="151"/>
-      <c r="N77" s="151"/>
-      <c r="O77" s="151"/>
-      <c r="P77" s="151"/>
-      <c r="Q77" s="151"/>
-      <c r="R77" s="151"/>
-      <c r="S77" s="151"/>
-      <c r="T77" s="151"/>
-      <c r="U77" s="151"/>
-      <c r="V77" s="151"/>
-      <c r="W77" s="151"/>
-      <c r="X77" s="151"/>
-      <c r="Y77" s="151"/>
-      <c r="Z77" s="151"/>
-      <c r="AA77" s="151"/>
-      <c r="AB77" s="151"/>
-      <c r="AC77" s="151"/>
-      <c r="AD77" s="149"/>
-      <c r="AE77" s="149"/>
-      <c r="AF77" s="149"/>
-      <c r="AG77" s="149"/>
-      <c r="AH77" s="149"/>
-      <c r="AI77" s="149"/>
-      <c r="AJ77" s="130"/>
+      <c r="AP77" s="105"/>
     </row>
     <row r="78" spans="1:58" s="108" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="AI78" s="125"/>
-      <c r="AJ78" s="125"/>
-      <c r="AK78" s="125"/>
-      <c r="AL78" s="125"/>
-      <c r="AM78" s="125"/>
-      <c r="AN78" s="125"/>
-      <c r="AO78" s="125"/>
-      <c r="AP78" s="125"/>
-      <c r="AQ78" s="125"/>
-      <c r="AR78" s="125"/>
-      <c r="AS78" s="125"/>
-      <c r="AT78" s="125"/>
-      <c r="AU78" s="125"/>
-      <c r="AV78" s="125"/>
-      <c r="AW78" s="125"/>
-      <c r="AX78" s="125"/>
-      <c r="AY78" s="125"/>
-      <c r="AZ78" s="125"/>
-      <c r="BA78" s="125"/>
-      <c r="BB78" s="125"/>
-      <c r="BC78" s="125"/>
-      <c r="BD78" s="125"/>
-      <c r="BE78" s="125"/>
-    </row>
-    <row r="79" spans="1:58" x14ac:dyDescent="0.15">
-      <c r="E79" s="103" t="s">
+      <c r="A78" s="29"/>
+      <c r="B78" s="107"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="29"/>
+      <c r="G78" s="151"/>
+      <c r="H78" s="151"/>
+      <c r="I78" s="151"/>
+      <c r="J78" s="151"/>
+      <c r="K78" s="151"/>
+      <c r="L78" s="151"/>
+      <c r="M78" s="151"/>
+      <c r="N78" s="151"/>
+      <c r="O78" s="151"/>
+      <c r="P78" s="151"/>
+      <c r="Q78" s="151"/>
+      <c r="R78" s="151"/>
+      <c r="S78" s="151"/>
+      <c r="T78" s="151"/>
+      <c r="U78" s="151"/>
+      <c r="V78" s="151"/>
+      <c r="W78" s="151"/>
+      <c r="X78" s="151"/>
+      <c r="Y78" s="151"/>
+      <c r="Z78" s="151"/>
+      <c r="AA78" s="151"/>
+      <c r="AB78" s="151"/>
+      <c r="AC78" s="151"/>
+      <c r="AD78" s="149"/>
+      <c r="AE78" s="149"/>
+      <c r="AF78" s="149"/>
+      <c r="AG78" s="149"/>
+      <c r="AH78" s="149"/>
+      <c r="AI78" s="149"/>
+      <c r="AJ78" s="130"/>
+    </row>
+    <row r="79" spans="1:58" s="108" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AI79" s="125"/>
+      <c r="AJ79" s="125"/>
+      <c r="AK79" s="125"/>
+      <c r="AL79" s="125"/>
+      <c r="AM79" s="125"/>
+      <c r="AN79" s="125"/>
+      <c r="AO79" s="125"/>
+      <c r="AP79" s="125"/>
+      <c r="AQ79" s="125"/>
+      <c r="AR79" s="125"/>
+      <c r="AS79" s="125"/>
+      <c r="AT79" s="125"/>
+      <c r="AU79" s="125"/>
+      <c r="AV79" s="125"/>
+      <c r="AW79" s="125"/>
+      <c r="AX79" s="125"/>
+      <c r="AY79" s="125"/>
+      <c r="AZ79" s="125"/>
+      <c r="BA79" s="125"/>
+      <c r="BB79" s="125"/>
+      <c r="BC79" s="125"/>
+      <c r="BD79" s="125"/>
+      <c r="BE79" s="125"/>
+    </row>
+    <row r="80" spans="1:58" x14ac:dyDescent="0.15">
+      <c r="E80" s="103" t="s">
         <v>147</v>
       </c>
-      <c r="G79" s="107"/>
-      <c r="AJ79" s="110"/>
-      <c r="AK79" s="110"/>
-      <c r="AL79" s="110"/>
-      <c r="AM79" s="110"/>
-      <c r="AN79" s="110"/>
-      <c r="AO79" s="110"/>
-      <c r="AP79" s="110"/>
-      <c r="AQ79" s="110"/>
-      <c r="AR79" s="110"/>
-      <c r="AS79" s="110"/>
-      <c r="AT79" s="110"/>
-      <c r="AU79" s="110"/>
-      <c r="AV79" s="110"/>
-      <c r="AW79" s="110"/>
-      <c r="AX79" s="110"/>
-      <c r="AY79" s="110"/>
-      <c r="AZ79" s="110"/>
-      <c r="BA79" s="110"/>
-      <c r="BB79" s="110"/>
-      <c r="BC79" s="110"/>
-      <c r="BD79" s="110"/>
-      <c r="BE79" s="110"/>
-      <c r="BF79" s="110"/>
-    </row>
-    <row r="80" spans="1:58" x14ac:dyDescent="0.15">
-      <c r="H80" s="107"/>
+      <c r="G80" s="107"/>
       <c r="AJ80" s="110"/>
       <c r="AK80" s="110"/>
       <c r="AL80" s="110"/>
@@ -9984,10 +10032,7 @@
       <c r="BF80" s="110"/>
     </row>
     <row r="81" spans="1:58" x14ac:dyDescent="0.15">
-      <c r="E81" s="126"/>
-      <c r="F81" s="71" t="s">
-        <v>148</v>
-      </c>
+      <c r="H81" s="107"/>
       <c r="AJ81" s="110"/>
       <c r="AK81" s="110"/>
       <c r="AL81" s="110"/>
@@ -10014,8 +10059,9 @@
     </row>
     <row r="82" spans="1:58" x14ac:dyDescent="0.15">
       <c r="E82" s="126"/>
-      <c r="F82" s="127"/>
-      <c r="G82" s="71"/>
+      <c r="F82" s="71" t="s">
+        <v>148</v>
+      </c>
       <c r="AJ82" s="110"/>
       <c r="AK82" s="110"/>
       <c r="AL82" s="110"/>
@@ -10042,6 +10088,8 @@
     </row>
     <row r="83" spans="1:58" x14ac:dyDescent="0.15">
       <c r="E83" s="126"/>
+      <c r="F83" s="127"/>
+      <c r="G83" s="71"/>
       <c r="AJ83" s="110"/>
       <c r="AK83" s="110"/>
       <c r="AL83" s="110"/>
@@ -10066,31 +10114,37 @@
       <c r="BE83" s="110"/>
       <c r="BF83" s="110"/>
     </row>
-    <row r="84" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C84" s="105"/>
-      <c r="D84" s="152" t="s">
-        <v>149</v>
-      </c>
-      <c r="E84" s="106"/>
-      <c r="AP84" s="105"/>
-      <c r="AQ84" s="105"/>
-      <c r="AR84" s="105"/>
-      <c r="AS84" s="105"/>
-      <c r="AT84" s="105"/>
-      <c r="AU84" s="105"/>
-      <c r="AV84" s="105"/>
-      <c r="AW84" s="105"/>
-      <c r="AX84" s="105"/>
-      <c r="AY84" s="105"/>
-      <c r="AZ84" s="105"/>
-      <c r="BA84" s="105"/>
-      <c r="BB84" s="105"/>
-      <c r="BC84" s="105"/>
-      <c r="BD84" s="105"/>
+    <row r="84" spans="1:58" x14ac:dyDescent="0.15">
+      <c r="E84" s="126"/>
+      <c r="AJ84" s="110"/>
+      <c r="AK84" s="110"/>
+      <c r="AL84" s="110"/>
+      <c r="AM84" s="110"/>
+      <c r="AN84" s="110"/>
+      <c r="AO84" s="110"/>
+      <c r="AP84" s="110"/>
+      <c r="AQ84" s="110"/>
+      <c r="AR84" s="110"/>
+      <c r="AS84" s="110"/>
+      <c r="AT84" s="110"/>
+      <c r="AU84" s="110"/>
+      <c r="AV84" s="110"/>
+      <c r="AW84" s="110"/>
+      <c r="AX84" s="110"/>
+      <c r="AY84" s="110"/>
+      <c r="AZ84" s="110"/>
+      <c r="BA84" s="110"/>
+      <c r="BB84" s="110"/>
+      <c r="BC84" s="110"/>
+      <c r="BD84" s="110"/>
+      <c r="BE84" s="110"/>
+      <c r="BF84" s="110"/>
     </row>
     <row r="85" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C85" s="105"/>
-      <c r="D85" s="106"/>
+      <c r="D85" s="152" t="s">
+        <v>149</v>
+      </c>
       <c r="E85" s="106"/>
       <c r="AP85" s="105"/>
       <c r="AQ85" s="105"/>
@@ -10108,131 +10162,84 @@
       <c r="BC85" s="105"/>
       <c r="BD85" s="105"/>
     </row>
-    <row r="86" spans="1:58" s="108" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C86" s="29"/>
+    <row r="86" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C86" s="105"/>
       <c r="D86" s="106"/>
-      <c r="E86" s="106" t="s">
+      <c r="E86" s="106"/>
+      <c r="AP86" s="105"/>
+      <c r="AQ86" s="105"/>
+      <c r="AR86" s="105"/>
+      <c r="AS86" s="105"/>
+      <c r="AT86" s="105"/>
+      <c r="AU86" s="105"/>
+      <c r="AV86" s="105"/>
+      <c r="AW86" s="105"/>
+      <c r="AX86" s="105"/>
+      <c r="AY86" s="105"/>
+      <c r="AZ86" s="105"/>
+      <c r="BA86" s="105"/>
+      <c r="BB86" s="105"/>
+      <c r="BC86" s="105"/>
+      <c r="BD86" s="105"/>
+    </row>
+    <row r="87" spans="1:58" s="108" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C87" s="29"/>
+      <c r="D87" s="106"/>
+      <c r="E87" s="106" t="s">
         <v>97</v>
       </c>
-      <c r="AP86" s="29"/>
-    </row>
-    <row r="87" spans="1:58" x14ac:dyDescent="0.15">
-      <c r="C87" s="105"/>
-      <c r="D87" s="106"/>
-      <c r="E87" s="106"/>
-      <c r="F87" s="106"/>
-    </row>
-    <row r="88" spans="1:58" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="103"/>
-      <c r="D88" s="105"/>
+      <c r="AP87" s="29"/>
+    </row>
+    <row r="88" spans="1:58" x14ac:dyDescent="0.15">
+      <c r="C88" s="105"/>
+      <c r="D88" s="106"/>
       <c r="E88" s="106"/>
-      <c r="F88" s="147" t="s">
-        <v>41</v>
-      </c>
-      <c r="G88" s="287" t="s">
-        <v>68</v>
-      </c>
-      <c r="H88" s="330"/>
-      <c r="I88" s="330"/>
-      <c r="J88" s="330"/>
-      <c r="K88" s="330"/>
-      <c r="L88" s="331"/>
-      <c r="M88" s="351" t="s">
-        <v>76</v>
-      </c>
-      <c r="N88" s="330"/>
-      <c r="O88" s="330"/>
-      <c r="P88" s="330"/>
-      <c r="Q88" s="330"/>
-      <c r="R88" s="330"/>
-      <c r="S88" s="330"/>
-      <c r="T88" s="330"/>
-      <c r="U88" s="330"/>
-      <c r="V88" s="331"/>
-      <c r="W88" s="362" t="s">
-        <v>166</v>
-      </c>
-      <c r="X88" s="359"/>
-      <c r="Y88" s="360"/>
-      <c r="Z88" s="358" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA88" s="359"/>
-      <c r="AB88" s="359"/>
-      <c r="AC88" s="360"/>
-      <c r="AD88" s="324" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE88" s="325"/>
-      <c r="AF88" s="325"/>
-      <c r="AG88" s="326"/>
-      <c r="AJ88" s="125"/>
-      <c r="AK88" s="125"/>
-      <c r="AL88" s="125"/>
-      <c r="AM88" s="125"/>
-      <c r="AN88" s="125"/>
-      <c r="AO88" s="125"/>
-      <c r="AP88" s="125"/>
-      <c r="AQ88" s="125"/>
-      <c r="AR88" s="125"/>
-      <c r="AS88" s="125"/>
-      <c r="AT88" s="125"/>
-      <c r="AU88" s="110"/>
-      <c r="AV88" s="110"/>
-      <c r="AW88" s="110"/>
-      <c r="AX88" s="110"/>
-      <c r="AY88" s="110"/>
-      <c r="AZ88" s="110"/>
-      <c r="BA88" s="110"/>
-      <c r="BB88" s="110"/>
-      <c r="BC88" s="110"/>
-      <c r="BD88" s="110"/>
-      <c r="BE88" s="110"/>
-    </row>
-    <row r="89" spans="1:58" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F88" s="106"/>
+    </row>
+    <row r="89" spans="1:58" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="103"/>
       <c r="D89" s="105"/>
       <c r="E89" s="106"/>
-      <c r="F89" s="148">
-        <v>1</v>
-      </c>
-      <c r="G89" s="332" t="s">
-        <v>70</v>
-      </c>
-      <c r="H89" s="328"/>
-      <c r="I89" s="328"/>
-      <c r="J89" s="328"/>
-      <c r="K89" s="328"/>
-      <c r="L89" s="329"/>
-      <c r="M89" s="327" t="s">
-        <v>86</v>
-      </c>
-      <c r="N89" s="328"/>
-      <c r="O89" s="328"/>
-      <c r="P89" s="328"/>
-      <c r="Q89" s="328"/>
-      <c r="R89" s="328"/>
-      <c r="S89" s="328"/>
-      <c r="T89" s="328"/>
-      <c r="U89" s="328"/>
-      <c r="V89" s="329"/>
-      <c r="W89" s="397" t="s">
-        <v>132</v>
-      </c>
-      <c r="X89" s="398"/>
-      <c r="Y89" s="399"/>
-      <c r="Z89" s="355" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA89" s="356"/>
-      <c r="AB89" s="356"/>
-      <c r="AC89" s="357"/>
-      <c r="AD89" s="327" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE89" s="328"/>
-      <c r="AF89" s="328"/>
-      <c r="AG89" s="329"/>
-      <c r="AI89" s="125"/>
+      <c r="F89" s="147" t="s">
+        <v>41</v>
+      </c>
+      <c r="G89" s="288" t="s">
+        <v>68</v>
+      </c>
+      <c r="H89" s="341"/>
+      <c r="I89" s="341"/>
+      <c r="J89" s="341"/>
+      <c r="K89" s="341"/>
+      <c r="L89" s="346"/>
+      <c r="M89" s="400" t="s">
+        <v>76</v>
+      </c>
+      <c r="N89" s="341"/>
+      <c r="O89" s="341"/>
+      <c r="P89" s="341"/>
+      <c r="Q89" s="341"/>
+      <c r="R89" s="341"/>
+      <c r="S89" s="341"/>
+      <c r="T89" s="341"/>
+      <c r="U89" s="341"/>
+      <c r="V89" s="346"/>
+      <c r="W89" s="368" t="s">
+        <v>162</v>
+      </c>
+      <c r="X89" s="366"/>
+      <c r="Y89" s="367"/>
+      <c r="Z89" s="365" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA89" s="366"/>
+      <c r="AB89" s="366"/>
+      <c r="AC89" s="367"/>
+      <c r="AD89" s="377" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE89" s="378"/>
+      <c r="AF89" s="378"/>
+      <c r="AG89" s="379"/>
       <c r="AJ89" s="125"/>
       <c r="AK89" s="125"/>
       <c r="AL89" s="125"/>
@@ -10256,38 +10263,49 @@
       <c r="BD89" s="110"/>
       <c r="BE89" s="110"/>
     </row>
-    <row r="90" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:58" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D90" s="105"/>
       <c r="E90" s="106"/>
-      <c r="F90" s="108"/>
-      <c r="G90" s="108"/>
-      <c r="H90" s="108"/>
-      <c r="I90" s="108"/>
-      <c r="J90" s="108"/>
-      <c r="K90" s="108"/>
-      <c r="L90" s="108"/>
-      <c r="M90" s="108"/>
-      <c r="N90" s="108"/>
-      <c r="O90" s="108"/>
-      <c r="P90" s="108"/>
-      <c r="Q90" s="108"/>
-      <c r="R90" s="108"/>
-      <c r="S90" s="108"/>
-      <c r="T90" s="108"/>
-      <c r="U90" s="108"/>
-      <c r="V90" s="108"/>
-      <c r="W90" s="108"/>
-      <c r="X90" s="108"/>
-      <c r="Y90" s="108"/>
-      <c r="Z90" s="108"/>
-      <c r="AA90" s="108"/>
-      <c r="AB90" s="108"/>
-      <c r="AC90" s="108"/>
-      <c r="AD90" s="108"/>
-      <c r="AE90" s="108"/>
-      <c r="AF90" s="108"/>
-      <c r="AG90" s="108"/>
-      <c r="AH90" s="108"/>
+      <c r="F90" s="148">
+        <v>1</v>
+      </c>
+      <c r="G90" s="399" t="s">
+        <v>70</v>
+      </c>
+      <c r="H90" s="356"/>
+      <c r="I90" s="356"/>
+      <c r="J90" s="356"/>
+      <c r="K90" s="356"/>
+      <c r="L90" s="357"/>
+      <c r="M90" s="355" t="s">
+        <v>86</v>
+      </c>
+      <c r="N90" s="356"/>
+      <c r="O90" s="356"/>
+      <c r="P90" s="356"/>
+      <c r="Q90" s="356"/>
+      <c r="R90" s="356"/>
+      <c r="S90" s="356"/>
+      <c r="T90" s="356"/>
+      <c r="U90" s="356"/>
+      <c r="V90" s="357"/>
+      <c r="W90" s="401" t="s">
+        <v>132</v>
+      </c>
+      <c r="X90" s="402"/>
+      <c r="Y90" s="403"/>
+      <c r="Z90" s="362" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA90" s="363"/>
+      <c r="AB90" s="363"/>
+      <c r="AC90" s="364"/>
+      <c r="AD90" s="355" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE90" s="356"/>
+      <c r="AF90" s="356"/>
+      <c r="AG90" s="357"/>
       <c r="AI90" s="125"/>
       <c r="AJ90" s="125"/>
       <c r="AK90" s="125"/>
@@ -10312,191 +10330,221 @@
       <c r="BD90" s="110"/>
       <c r="BE90" s="110"/>
     </row>
-    <row r="91" spans="1:58" s="108" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D91" s="29"/>
+    <row r="91" spans="1:58" x14ac:dyDescent="0.15">
+      <c r="D91" s="105"/>
       <c r="E91" s="106"/>
-      <c r="F91" s="104" t="s">
-        <v>122</v>
-      </c>
+      <c r="F91" s="108"/>
+      <c r="G91" s="108"/>
+      <c r="H91" s="108"/>
+      <c r="I91" s="108"/>
+      <c r="J91" s="108"/>
+      <c r="K91" s="108"/>
+      <c r="L91" s="108"/>
+      <c r="M91" s="108"/>
+      <c r="N91" s="108"/>
+      <c r="O91" s="108"/>
+      <c r="P91" s="108"/>
+      <c r="Q91" s="108"/>
+      <c r="R91" s="108"/>
+      <c r="S91" s="108"/>
+      <c r="T91" s="108"/>
+      <c r="U91" s="108"/>
+      <c r="V91" s="108"/>
+      <c r="W91" s="108"/>
+      <c r="X91" s="108"/>
+      <c r="Y91" s="108"/>
+      <c r="Z91" s="108"/>
+      <c r="AA91" s="108"/>
+      <c r="AB91" s="108"/>
+      <c r="AC91" s="108"/>
+      <c r="AD91" s="108"/>
+      <c r="AE91" s="108"/>
+      <c r="AF91" s="108"/>
+      <c r="AG91" s="108"/>
+      <c r="AH91" s="108"/>
+      <c r="AI91" s="125"/>
+      <c r="AJ91" s="125"/>
+      <c r="AK91" s="125"/>
+      <c r="AL91" s="125"/>
+      <c r="AM91" s="125"/>
+      <c r="AN91" s="125"/>
+      <c r="AO91" s="125"/>
+      <c r="AP91" s="125"/>
+      <c r="AQ91" s="125"/>
+      <c r="AR91" s="125"/>
+      <c r="AS91" s="125"/>
+      <c r="AT91" s="125"/>
+      <c r="AU91" s="110"/>
+      <c r="AV91" s="110"/>
+      <c r="AW91" s="110"/>
+      <c r="AX91" s="110"/>
+      <c r="AY91" s="110"/>
+      <c r="AZ91" s="110"/>
+      <c r="BA91" s="110"/>
+      <c r="BB91" s="110"/>
+      <c r="BC91" s="110"/>
+      <c r="BD91" s="110"/>
+      <c r="BE91" s="110"/>
     </row>
     <row r="92" spans="1:58" s="108" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D92" s="29"/>
       <c r="E92" s="106"/>
-      <c r="F92" s="106"/>
-      <c r="G92" s="104"/>
+      <c r="F92" s="104" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="93" spans="1:58" s="108" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="29"/>
-      <c r="B93" s="107"/>
-      <c r="C93" s="29"/>
       <c r="D93" s="29"/>
-      <c r="E93" s="29"/>
-      <c r="G93" s="151"/>
-      <c r="H93" s="151"/>
-      <c r="I93" s="151"/>
-      <c r="J93" s="151"/>
-      <c r="K93" s="151"/>
-      <c r="L93" s="151"/>
-      <c r="M93" s="151"/>
-      <c r="N93" s="151"/>
-      <c r="O93" s="151"/>
-      <c r="P93" s="151"/>
-      <c r="Q93" s="151"/>
-      <c r="R93" s="151"/>
-      <c r="S93" s="151"/>
-      <c r="T93" s="151"/>
-      <c r="U93" s="151"/>
-      <c r="V93" s="151"/>
-      <c r="W93" s="151"/>
-      <c r="X93" s="151"/>
-      <c r="Y93" s="151"/>
-      <c r="Z93" s="151"/>
-      <c r="AA93" s="151"/>
-      <c r="AB93" s="151"/>
-      <c r="AC93" s="151"/>
-      <c r="AD93" s="149"/>
-      <c r="AE93" s="149"/>
-      <c r="AF93" s="149"/>
-      <c r="AG93" s="149"/>
-      <c r="AH93" s="149"/>
-      <c r="AI93" s="149"/>
-      <c r="AJ93" s="130"/>
-    </row>
-    <row r="94" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C94" s="105"/>
-      <c r="D94" s="106"/>
-      <c r="E94" s="106"/>
-      <c r="AP94" s="105"/>
-    </row>
-    <row r="95" spans="1:58" x14ac:dyDescent="0.15">
-      <c r="E95" s="103" t="s">
+      <c r="E93" s="106"/>
+      <c r="F93" s="106"/>
+      <c r="G93" s="104"/>
+    </row>
+    <row r="94" spans="1:58" s="108" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="29"/>
+      <c r="B94" s="107"/>
+      <c r="C94" s="29"/>
+      <c r="D94" s="29"/>
+      <c r="E94" s="29"/>
+      <c r="G94" s="151"/>
+      <c r="H94" s="151"/>
+      <c r="I94" s="151"/>
+      <c r="J94" s="151"/>
+      <c r="K94" s="151"/>
+      <c r="L94" s="151"/>
+      <c r="M94" s="151"/>
+      <c r="N94" s="151"/>
+      <c r="O94" s="151"/>
+      <c r="P94" s="151"/>
+      <c r="Q94" s="151"/>
+      <c r="R94" s="151"/>
+      <c r="S94" s="151"/>
+      <c r="T94" s="151"/>
+      <c r="U94" s="151"/>
+      <c r="V94" s="151"/>
+      <c r="W94" s="151"/>
+      <c r="X94" s="151"/>
+      <c r="Y94" s="151"/>
+      <c r="Z94" s="151"/>
+      <c r="AA94" s="151"/>
+      <c r="AB94" s="151"/>
+      <c r="AC94" s="151"/>
+      <c r="AD94" s="149"/>
+      <c r="AE94" s="149"/>
+      <c r="AF94" s="149"/>
+      <c r="AG94" s="149"/>
+      <c r="AH94" s="149"/>
+      <c r="AI94" s="149"/>
+      <c r="AJ94" s="130"/>
+    </row>
+    <row r="95" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C95" s="105"/>
+      <c r="D95" s="106"/>
+      <c r="E95" s="106"/>
+      <c r="AP95" s="105"/>
+    </row>
+    <row r="96" spans="1:58" x14ac:dyDescent="0.15">
+      <c r="E96" s="103" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="96" spans="1:58" x14ac:dyDescent="0.15">
-      <c r="F96" s="103" t="s">
+    <row r="97" spans="6:58" x14ac:dyDescent="0.15">
+      <c r="F97" s="103" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="98" spans="6:58" s="108" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="G98" s="305" t="s">
+    <row r="99" spans="6:58" s="108" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G99" s="306" t="s">
         <v>99</v>
       </c>
-      <c r="H98" s="306"/>
-      <c r="I98" s="306"/>
-      <c r="J98" s="306"/>
-      <c r="K98" s="306"/>
-      <c r="L98" s="306"/>
-      <c r="M98" s="306"/>
-      <c r="N98" s="306"/>
-      <c r="O98" s="306"/>
-      <c r="P98" s="307"/>
-      <c r="Q98" s="308" t="s">
+      <c r="H99" s="307"/>
+      <c r="I99" s="307"/>
+      <c r="J99" s="307"/>
+      <c r="K99" s="307"/>
+      <c r="L99" s="307"/>
+      <c r="M99" s="307"/>
+      <c r="N99" s="307"/>
+      <c r="O99" s="307"/>
+      <c r="P99" s="308"/>
+      <c r="Q99" s="392" t="s">
         <v>100</v>
       </c>
-      <c r="R98" s="309"/>
-      <c r="S98" s="309"/>
-      <c r="T98" s="309"/>
-      <c r="U98" s="309"/>
-      <c r="V98" s="309"/>
-      <c r="W98" s="309"/>
-      <c r="X98" s="309"/>
-      <c r="Y98" s="309"/>
-      <c r="Z98" s="310"/>
-    </row>
-    <row r="99" spans="6:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G99" s="311" t="s">
+      <c r="R99" s="393"/>
+      <c r="S99" s="393"/>
+      <c r="T99" s="393"/>
+      <c r="U99" s="393"/>
+      <c r="V99" s="393"/>
+      <c r="W99" s="393"/>
+      <c r="X99" s="393"/>
+      <c r="Y99" s="393"/>
+      <c r="Z99" s="394"/>
+    </row>
+    <row r="100" spans="6:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G100" s="312" t="s">
         <v>143</v>
       </c>
-      <c r="H99" s="312"/>
-      <c r="I99" s="312"/>
-      <c r="J99" s="312"/>
-      <c r="K99" s="312"/>
-      <c r="L99" s="312"/>
-      <c r="M99" s="312"/>
-      <c r="N99" s="312"/>
-      <c r="O99" s="312"/>
-      <c r="P99" s="313"/>
-      <c r="Q99" s="318" t="s">
-        <v>174</v>
-      </c>
-      <c r="R99" s="319"/>
-      <c r="S99" s="319"/>
-      <c r="T99" s="319"/>
-      <c r="U99" s="319"/>
-      <c r="V99" s="319"/>
-      <c r="W99" s="319"/>
-      <c r="X99" s="319"/>
-      <c r="Y99" s="319"/>
-      <c r="Z99" s="320"/>
-      <c r="AG99" s="109"/>
-      <c r="AH99" s="109"/>
-    </row>
-    <row r="100" spans="6:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G100" s="314"/>
-      <c r="H100" s="315"/>
-      <c r="I100" s="315"/>
-      <c r="J100" s="315"/>
-      <c r="K100" s="315"/>
-      <c r="L100" s="315"/>
-      <c r="M100" s="315"/>
-      <c r="N100" s="315"/>
-      <c r="O100" s="315"/>
-      <c r="P100" s="316"/>
-      <c r="Q100" s="190" t="s">
-        <v>172</v>
-      </c>
-      <c r="R100" s="191"/>
-      <c r="S100" s="191"/>
-      <c r="T100" s="191"/>
-      <c r="U100" s="191"/>
-      <c r="V100" s="191"/>
-      <c r="W100" s="191"/>
-      <c r="X100" s="191"/>
-      <c r="Y100" s="191"/>
-      <c r="Z100" s="192"/>
+      <c r="H100" s="313"/>
+      <c r="I100" s="313"/>
+      <c r="J100" s="313"/>
+      <c r="K100" s="313"/>
+      <c r="L100" s="313"/>
+      <c r="M100" s="313"/>
+      <c r="N100" s="313"/>
+      <c r="O100" s="313"/>
+      <c r="P100" s="314"/>
+      <c r="Q100" s="309" t="s">
+        <v>169</v>
+      </c>
+      <c r="R100" s="310"/>
+      <c r="S100" s="310"/>
+      <c r="T100" s="310"/>
+      <c r="U100" s="310"/>
+      <c r="V100" s="310"/>
+      <c r="W100" s="310"/>
+      <c r="X100" s="310"/>
+      <c r="Y100" s="310"/>
+      <c r="Z100" s="311"/>
       <c r="AG100" s="109"/>
       <c r="AH100" s="109"/>
     </row>
     <row r="101" spans="6:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G101" s="314"/>
-      <c r="H101" s="315"/>
-      <c r="I101" s="315"/>
-      <c r="J101" s="315"/>
-      <c r="K101" s="315"/>
-      <c r="L101" s="315"/>
-      <c r="M101" s="315"/>
-      <c r="N101" s="315"/>
-      <c r="O101" s="315"/>
-      <c r="P101" s="316"/>
-      <c r="Q101" s="174" t="s">
-        <v>142</v>
-      </c>
-      <c r="R101" s="166"/>
-      <c r="S101" s="166"/>
-      <c r="T101" s="166"/>
-      <c r="U101" s="166"/>
-      <c r="V101" s="166"/>
-      <c r="W101" s="166"/>
-      <c r="X101" s="166"/>
-      <c r="Y101" s="166"/>
-      <c r="Z101" s="167"/>
+      <c r="G101" s="321"/>
+      <c r="H101" s="322"/>
+      <c r="I101" s="322"/>
+      <c r="J101" s="322"/>
+      <c r="K101" s="322"/>
+      <c r="L101" s="322"/>
+      <c r="M101" s="322"/>
+      <c r="N101" s="322"/>
+      <c r="O101" s="322"/>
+      <c r="P101" s="323"/>
+      <c r="Q101" s="190" t="s">
+        <v>168</v>
+      </c>
+      <c r="R101" s="191"/>
+      <c r="S101" s="191"/>
+      <c r="T101" s="191"/>
+      <c r="U101" s="191"/>
+      <c r="V101" s="191"/>
+      <c r="W101" s="191"/>
+      <c r="X101" s="191"/>
+      <c r="Y101" s="191"/>
+      <c r="Z101" s="192"/>
       <c r="AG101" s="109"/>
       <c r="AH101" s="109"/>
     </row>
     <row r="102" spans="6:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G102" s="314"/>
-      <c r="H102" s="315"/>
-      <c r="I102" s="315"/>
-      <c r="J102" s="315"/>
-      <c r="K102" s="315"/>
-      <c r="L102" s="315"/>
-      <c r="M102" s="315"/>
-      <c r="N102" s="315"/>
-      <c r="O102" s="315"/>
-      <c r="P102" s="316"/>
+      <c r="G102" s="321"/>
+      <c r="H102" s="322"/>
+      <c r="I102" s="322"/>
+      <c r="J102" s="322"/>
+      <c r="K102" s="322"/>
+      <c r="L102" s="322"/>
+      <c r="M102" s="322"/>
+      <c r="N102" s="322"/>
+      <c r="O102" s="322"/>
+      <c r="P102" s="323"/>
       <c r="Q102" s="174" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="R102" s="166"/>
       <c r="S102" s="166"/>
@@ -10511,75 +10559,59 @@
       <c r="AH102" s="109"/>
     </row>
     <row r="103" spans="6:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G103" s="314"/>
-      <c r="H103" s="315"/>
-      <c r="I103" s="315"/>
-      <c r="J103" s="315"/>
-      <c r="K103" s="315"/>
-      <c r="L103" s="315"/>
-      <c r="M103" s="315"/>
-      <c r="N103" s="315"/>
-      <c r="O103" s="315"/>
-      <c r="P103" s="316"/>
-      <c r="Q103" s="318" t="s">
-        <v>153</v>
-      </c>
-      <c r="R103" s="319"/>
-      <c r="S103" s="319"/>
-      <c r="T103" s="319"/>
-      <c r="U103" s="319"/>
-      <c r="V103" s="319"/>
-      <c r="W103" s="319"/>
-      <c r="X103" s="319"/>
-      <c r="Y103" s="319"/>
-      <c r="Z103" s="320"/>
+      <c r="G103" s="321"/>
+      <c r="H103" s="322"/>
+      <c r="I103" s="322"/>
+      <c r="J103" s="322"/>
+      <c r="K103" s="322"/>
+      <c r="L103" s="322"/>
+      <c r="M103" s="322"/>
+      <c r="N103" s="322"/>
+      <c r="O103" s="322"/>
+      <c r="P103" s="323"/>
+      <c r="Q103" s="174" t="s">
+        <v>156</v>
+      </c>
+      <c r="R103" s="166"/>
+      <c r="S103" s="166"/>
+      <c r="T103" s="166"/>
+      <c r="U103" s="166"/>
+      <c r="V103" s="166"/>
+      <c r="W103" s="166"/>
+      <c r="X103" s="166"/>
+      <c r="Y103" s="166"/>
+      <c r="Z103" s="167"/>
       <c r="AG103" s="109"/>
       <c r="AH103" s="109"/>
     </row>
-    <row r="104" spans="6:58" x14ac:dyDescent="0.15">
-      <c r="G104" s="317"/>
-      <c r="H104" s="315"/>
-      <c r="I104" s="315"/>
-      <c r="J104" s="315"/>
-      <c r="K104" s="315"/>
-      <c r="L104" s="315"/>
-      <c r="M104" s="315"/>
-      <c r="N104" s="315"/>
-      <c r="O104" s="315"/>
-      <c r="P104" s="316"/>
-      <c r="Q104" s="318" t="s">
-        <v>154</v>
-      </c>
-      <c r="R104" s="319"/>
-      <c r="S104" s="319"/>
-      <c r="T104" s="319"/>
-      <c r="U104" s="319"/>
-      <c r="V104" s="319"/>
-      <c r="W104" s="319"/>
-      <c r="X104" s="319"/>
-      <c r="Y104" s="319"/>
-      <c r="Z104" s="320"/>
-      <c r="AC104" s="110"/>
-      <c r="AD104" s="110"/>
-      <c r="AE104" s="110"/>
-      <c r="AF104" s="110"/>
+    <row r="104" spans="6:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G104" s="321"/>
+      <c r="H104" s="322"/>
+      <c r="I104" s="322"/>
+      <c r="J104" s="322"/>
+      <c r="K104" s="322"/>
+      <c r="L104" s="322"/>
+      <c r="M104" s="322"/>
+      <c r="N104" s="322"/>
+      <c r="O104" s="322"/>
+      <c r="P104" s="323"/>
+      <c r="Q104" s="309" t="s">
+        <v>153</v>
+      </c>
+      <c r="R104" s="310"/>
+      <c r="S104" s="310"/>
+      <c r="T104" s="310"/>
+      <c r="U104" s="310"/>
+      <c r="V104" s="310"/>
+      <c r="W104" s="310"/>
+      <c r="X104" s="310"/>
+      <c r="Y104" s="310"/>
+      <c r="Z104" s="311"/>
       <c r="AG104" s="109"/>
       <c r="AH104" s="109"/>
-      <c r="AP104" s="110"/>
-      <c r="AQ104" s="110"/>
-      <c r="AR104" s="110"/>
-      <c r="AS104" s="110"/>
-      <c r="AT104" s="110"/>
-      <c r="AU104" s="110"/>
-      <c r="AV104" s="110"/>
-      <c r="AW104" s="110"/>
-      <c r="AX104" s="110"/>
-      <c r="AY104" s="110"/>
     </row>
     <row r="105" spans="6:58" x14ac:dyDescent="0.15">
-      <c r="G105" s="321" t="s">
-        <v>101</v>
-      </c>
+      <c r="G105" s="324"/>
       <c r="H105" s="322"/>
       <c r="I105" s="322"/>
       <c r="J105" s="322"/>
@@ -10588,23 +10620,25 @@
       <c r="M105" s="322"/>
       <c r="N105" s="322"/>
       <c r="O105" s="322"/>
-      <c r="P105" s="322"/>
-      <c r="Q105" s="322"/>
-      <c r="R105" s="322"/>
-      <c r="S105" s="322"/>
-      <c r="T105" s="322"/>
-      <c r="U105" s="322"/>
-      <c r="V105" s="322"/>
-      <c r="W105" s="322"/>
-      <c r="X105" s="322"/>
-      <c r="Y105" s="322"/>
-      <c r="Z105" s="323"/>
-      <c r="AJ105" s="110"/>
-      <c r="AK105" s="110"/>
-      <c r="AL105" s="110"/>
-      <c r="AM105" s="110"/>
-      <c r="AN105" s="110"/>
-      <c r="AO105" s="110"/>
+      <c r="P105" s="323"/>
+      <c r="Q105" s="309" t="s">
+        <v>154</v>
+      </c>
+      <c r="R105" s="310"/>
+      <c r="S105" s="310"/>
+      <c r="T105" s="310"/>
+      <c r="U105" s="310"/>
+      <c r="V105" s="310"/>
+      <c r="W105" s="310"/>
+      <c r="X105" s="310"/>
+      <c r="Y105" s="310"/>
+      <c r="Z105" s="311"/>
+      <c r="AC105" s="110"/>
+      <c r="AD105" s="110"/>
+      <c r="AE105" s="110"/>
+      <c r="AF105" s="110"/>
+      <c r="AG105" s="109"/>
+      <c r="AH105" s="109"/>
       <c r="AP105" s="110"/>
       <c r="AQ105" s="110"/>
       <c r="AR105" s="110"/>
@@ -10615,35 +10649,30 @@
       <c r="AW105" s="110"/>
       <c r="AX105" s="110"/>
       <c r="AY105" s="110"/>
-      <c r="AZ105" s="110"/>
-      <c r="BA105" s="110"/>
-      <c r="BB105" s="110"/>
-      <c r="BC105" s="110"/>
-      <c r="BD105" s="110"/>
-      <c r="BE105" s="110"/>
-      <c r="BF105" s="110"/>
     </row>
     <row r="106" spans="6:58" x14ac:dyDescent="0.15">
-      <c r="G106" s="111"/>
-      <c r="H106" s="112"/>
-      <c r="I106" s="112"/>
-      <c r="J106" s="112"/>
-      <c r="K106" s="112"/>
-      <c r="L106" s="112"/>
-      <c r="M106" s="112"/>
-      <c r="N106" s="112"/>
-      <c r="O106" s="112"/>
-      <c r="P106" s="112"/>
-      <c r="Q106" s="112"/>
-      <c r="R106" s="112"/>
-      <c r="S106" s="112"/>
-      <c r="T106" s="112"/>
-      <c r="U106" s="112"/>
-      <c r="V106" s="112"/>
-      <c r="W106" s="112"/>
-      <c r="X106" s="112"/>
-      <c r="Y106" s="112"/>
-      <c r="Z106" s="113"/>
+      <c r="G106" s="318" t="s">
+        <v>101</v>
+      </c>
+      <c r="H106" s="319"/>
+      <c r="I106" s="319"/>
+      <c r="J106" s="319"/>
+      <c r="K106" s="319"/>
+      <c r="L106" s="319"/>
+      <c r="M106" s="319"/>
+      <c r="N106" s="319"/>
+      <c r="O106" s="319"/>
+      <c r="P106" s="319"/>
+      <c r="Q106" s="319"/>
+      <c r="R106" s="319"/>
+      <c r="S106" s="319"/>
+      <c r="T106" s="319"/>
+      <c r="U106" s="319"/>
+      <c r="V106" s="319"/>
+      <c r="W106" s="319"/>
+      <c r="X106" s="319"/>
+      <c r="Y106" s="319"/>
+      <c r="Z106" s="320"/>
       <c r="AJ106" s="110"/>
       <c r="AK106" s="110"/>
       <c r="AL106" s="110"/>
@@ -10669,30 +10698,26 @@
       <c r="BF106" s="110"/>
     </row>
     <row r="107" spans="6:58" x14ac:dyDescent="0.15">
-      <c r="G107" s="114"/>
-      <c r="H107" s="177" t="s">
-        <v>152</v>
-      </c>
-      <c r="I107" s="115"/>
-      <c r="J107" s="115"/>
-      <c r="K107" s="115"/>
-      <c r="L107" s="116"/>
-      <c r="N107" s="115"/>
-      <c r="O107" s="116" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q107" s="177" t="s">
-        <v>173</v>
-      </c>
-      <c r="R107" s="115"/>
-      <c r="S107" s="115"/>
-      <c r="T107" s="115"/>
-      <c r="U107" s="115"/>
-      <c r="V107" s="117"/>
-      <c r="W107" s="115"/>
-      <c r="X107" s="115"/>
-      <c r="Y107" s="115"/>
-      <c r="Z107" s="118"/>
+      <c r="G107" s="111"/>
+      <c r="H107" s="112"/>
+      <c r="I107" s="112"/>
+      <c r="J107" s="112"/>
+      <c r="K107" s="112"/>
+      <c r="L107" s="112"/>
+      <c r="M107" s="112"/>
+      <c r="N107" s="112"/>
+      <c r="O107" s="112"/>
+      <c r="P107" s="112"/>
+      <c r="Q107" s="112"/>
+      <c r="R107" s="112"/>
+      <c r="S107" s="112"/>
+      <c r="T107" s="112"/>
+      <c r="U107" s="112"/>
+      <c r="V107" s="112"/>
+      <c r="W107" s="112"/>
+      <c r="X107" s="112"/>
+      <c r="Y107" s="112"/>
+      <c r="Z107" s="113"/>
       <c r="AJ107" s="110"/>
       <c r="AK107" s="110"/>
       <c r="AL107" s="110"/>
@@ -10718,26 +10743,30 @@
       <c r="BF107" s="110"/>
     </row>
     <row r="108" spans="6:58" x14ac:dyDescent="0.15">
-      <c r="G108" s="119"/>
-      <c r="H108" s="120"/>
-      <c r="I108" s="120"/>
-      <c r="J108" s="120"/>
-      <c r="K108" s="120"/>
-      <c r="L108" s="121"/>
-      <c r="M108" s="121"/>
-      <c r="N108" s="120"/>
-      <c r="O108" s="120"/>
-      <c r="P108" s="120"/>
-      <c r="Q108" s="120"/>
-      <c r="R108" s="120"/>
-      <c r="S108" s="120"/>
-      <c r="T108" s="120"/>
-      <c r="U108" s="120"/>
-      <c r="V108" s="122"/>
-      <c r="W108" s="120"/>
-      <c r="X108" s="120"/>
-      <c r="Y108" s="120"/>
-      <c r="Z108" s="123"/>
+      <c r="G108" s="114"/>
+      <c r="H108" s="177"/>
+      <c r="I108" s="177" t="s">
+        <v>152</v>
+      </c>
+      <c r="J108" s="115"/>
+      <c r="K108" s="115"/>
+      <c r="L108" s="115"/>
+      <c r="M108" s="116"/>
+      <c r="O108" s="115"/>
+      <c r="P108" s="116" t="s">
+        <v>102</v>
+      </c>
+      <c r="R108" s="177" t="s">
+        <v>151</v>
+      </c>
+      <c r="S108" s="115"/>
+      <c r="T108" s="115"/>
+      <c r="U108" s="115"/>
+      <c r="V108" s="117"/>
+      <c r="W108" s="115"/>
+      <c r="X108" s="115"/>
+      <c r="Y108" s="115"/>
+      <c r="Z108" s="118"/>
       <c r="AJ108" s="110"/>
       <c r="AK108" s="110"/>
       <c r="AL108" s="110"/>
@@ -10763,18 +10792,16 @@
       <c r="BF108" s="110"/>
     </row>
     <row r="109" spans="6:58" x14ac:dyDescent="0.15">
-      <c r="G109" s="115"/>
-      <c r="H109" s="115"/>
-      <c r="I109" s="115"/>
+      <c r="G109" s="114"/>
+      <c r="H109" s="177"/>
+      <c r="I109" s="177"/>
       <c r="J109" s="115"/>
       <c r="K109" s="115"/>
-      <c r="L109" s="116"/>
+      <c r="L109" s="115"/>
       <c r="M109" s="116"/>
-      <c r="N109" s="115"/>
       <c r="O109" s="115"/>
-      <c r="P109" s="115"/>
-      <c r="Q109" s="115"/>
-      <c r="R109" s="115"/>
+      <c r="P109" s="116"/>
+      <c r="R109" s="177"/>
       <c r="S109" s="115"/>
       <c r="T109" s="115"/>
       <c r="U109" s="115"/>
@@ -10782,7 +10809,7 @@
       <c r="W109" s="115"/>
       <c r="X109" s="115"/>
       <c r="Y109" s="115"/>
-      <c r="Z109" s="124"/>
+      <c r="Z109" s="118"/>
       <c r="AJ109" s="110"/>
       <c r="AK109" s="110"/>
       <c r="AL109" s="110"/>
@@ -10808,192 +10835,204 @@
       <c r="BF109" s="110"/>
     </row>
     <row r="110" spans="6:58" x14ac:dyDescent="0.15">
-      <c r="F110" s="103" t="s">
+      <c r="G110" s="114"/>
+      <c r="H110" s="177" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="112" spans="6:58" s="108" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="G112" s="305" t="s">
+      <c r="I110" s="177" t="s">
+        <v>194</v>
+      </c>
+      <c r="J110" s="115"/>
+      <c r="K110" s="115"/>
+      <c r="L110" s="115"/>
+      <c r="M110" s="116"/>
+      <c r="O110" s="115"/>
+      <c r="P110" s="116"/>
+      <c r="R110" s="177"/>
+      <c r="S110" s="115"/>
+      <c r="T110" s="115"/>
+      <c r="U110" s="115"/>
+      <c r="V110" s="117"/>
+      <c r="W110" s="115"/>
+      <c r="X110" s="115"/>
+      <c r="Y110" s="115"/>
+      <c r="Z110" s="118"/>
+      <c r="AJ110" s="110"/>
+      <c r="AK110" s="110"/>
+      <c r="AL110" s="110"/>
+      <c r="AM110" s="110"/>
+      <c r="AN110" s="110"/>
+      <c r="AO110" s="110"/>
+      <c r="AP110" s="110"/>
+      <c r="AQ110" s="110"/>
+      <c r="AR110" s="110"/>
+      <c r="AS110" s="110"/>
+      <c r="AT110" s="110"/>
+      <c r="AU110" s="110"/>
+      <c r="AV110" s="110"/>
+      <c r="AW110" s="110"/>
+      <c r="AX110" s="110"/>
+      <c r="AY110" s="110"/>
+      <c r="AZ110" s="110"/>
+      <c r="BA110" s="110"/>
+      <c r="BB110" s="110"/>
+      <c r="BC110" s="110"/>
+      <c r="BD110" s="110"/>
+      <c r="BE110" s="110"/>
+      <c r="BF110" s="110"/>
+    </row>
+    <row r="111" spans="6:58" x14ac:dyDescent="0.15">
+      <c r="G111" s="119"/>
+      <c r="H111" s="120"/>
+      <c r="I111" s="120"/>
+      <c r="J111" s="120"/>
+      <c r="K111" s="120"/>
+      <c r="L111" s="121"/>
+      <c r="M111" s="121"/>
+      <c r="N111" s="120"/>
+      <c r="O111" s="120"/>
+      <c r="P111" s="120"/>
+      <c r="Q111" s="120"/>
+      <c r="R111" s="120"/>
+      <c r="S111" s="120"/>
+      <c r="T111" s="120"/>
+      <c r="U111" s="120"/>
+      <c r="V111" s="122"/>
+      <c r="W111" s="120"/>
+      <c r="X111" s="120"/>
+      <c r="Y111" s="120"/>
+      <c r="Z111" s="123"/>
+      <c r="AJ111" s="110"/>
+      <c r="AK111" s="110"/>
+      <c r="AL111" s="110"/>
+      <c r="AM111" s="110"/>
+      <c r="AN111" s="110"/>
+      <c r="AO111" s="110"/>
+      <c r="AP111" s="110"/>
+      <c r="AQ111" s="110"/>
+      <c r="AR111" s="110"/>
+      <c r="AS111" s="110"/>
+      <c r="AT111" s="110"/>
+      <c r="AU111" s="110"/>
+      <c r="AV111" s="110"/>
+      <c r="AW111" s="110"/>
+      <c r="AX111" s="110"/>
+      <c r="AY111" s="110"/>
+      <c r="AZ111" s="110"/>
+      <c r="BA111" s="110"/>
+      <c r="BB111" s="110"/>
+      <c r="BC111" s="110"/>
+      <c r="BD111" s="110"/>
+      <c r="BE111" s="110"/>
+      <c r="BF111" s="110"/>
+    </row>
+    <row r="112" spans="6:58" x14ac:dyDescent="0.15">
+      <c r="G112" s="115"/>
+      <c r="H112" s="115"/>
+      <c r="I112" s="115"/>
+      <c r="J112" s="115"/>
+      <c r="K112" s="115"/>
+      <c r="L112" s="116"/>
+      <c r="M112" s="116"/>
+      <c r="N112" s="115"/>
+      <c r="O112" s="115"/>
+      <c r="P112" s="115"/>
+      <c r="Q112" s="115"/>
+      <c r="R112" s="115"/>
+      <c r="S112" s="115"/>
+      <c r="T112" s="115"/>
+      <c r="U112" s="115"/>
+      <c r="V112" s="117"/>
+      <c r="W112" s="115"/>
+      <c r="X112" s="115"/>
+      <c r="Y112" s="115"/>
+      <c r="Z112" s="124"/>
+      <c r="AJ112" s="110"/>
+      <c r="AK112" s="110"/>
+      <c r="AL112" s="110"/>
+      <c r="AM112" s="110"/>
+      <c r="AN112" s="110"/>
+      <c r="AO112" s="110"/>
+      <c r="AP112" s="110"/>
+      <c r="AQ112" s="110"/>
+      <c r="AR112" s="110"/>
+      <c r="AS112" s="110"/>
+      <c r="AT112" s="110"/>
+      <c r="AU112" s="110"/>
+      <c r="AV112" s="110"/>
+      <c r="AW112" s="110"/>
+      <c r="AX112" s="110"/>
+      <c r="AY112" s="110"/>
+      <c r="AZ112" s="110"/>
+      <c r="BA112" s="110"/>
+      <c r="BB112" s="110"/>
+      <c r="BC112" s="110"/>
+      <c r="BD112" s="110"/>
+      <c r="BE112" s="110"/>
+      <c r="BF112" s="110"/>
+    </row>
+    <row r="113" spans="4:58" x14ac:dyDescent="0.15">
+      <c r="F113" s="103" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="115" spans="4:58" s="108" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G115" s="306" t="s">
         <v>99</v>
       </c>
-      <c r="H112" s="306"/>
-      <c r="I112" s="306"/>
-      <c r="J112" s="306"/>
-      <c r="K112" s="306"/>
-      <c r="L112" s="306"/>
-      <c r="M112" s="306"/>
-      <c r="N112" s="306"/>
-      <c r="O112" s="306"/>
-      <c r="P112" s="307"/>
-      <c r="Q112" s="308" t="s">
+      <c r="H115" s="307"/>
+      <c r="I115" s="307"/>
+      <c r="J115" s="307"/>
+      <c r="K115" s="307"/>
+      <c r="L115" s="307"/>
+      <c r="M115" s="307"/>
+      <c r="N115" s="307"/>
+      <c r="O115" s="307"/>
+      <c r="P115" s="308"/>
+      <c r="Q115" s="392" t="s">
         <v>100</v>
       </c>
-      <c r="R112" s="309"/>
-      <c r="S112" s="309"/>
-      <c r="T112" s="309"/>
-      <c r="U112" s="309"/>
-      <c r="V112" s="309"/>
-      <c r="W112" s="309"/>
-      <c r="X112" s="309"/>
-      <c r="Y112" s="309"/>
-      <c r="Z112" s="310"/>
-    </row>
-    <row r="113" spans="4:58" x14ac:dyDescent="0.15">
-      <c r="G113" s="311" t="s">
-        <v>188</v>
-      </c>
-      <c r="H113" s="312"/>
-      <c r="I113" s="312"/>
-      <c r="J113" s="312"/>
-      <c r="K113" s="312"/>
-      <c r="L113" s="312"/>
-      <c r="M113" s="312"/>
-      <c r="N113" s="312"/>
-      <c r="O113" s="312"/>
-      <c r="P113" s="313"/>
-      <c r="Q113" s="318" t="s">
-        <v>189</v>
-      </c>
-      <c r="R113" s="319"/>
-      <c r="S113" s="319"/>
-      <c r="T113" s="319"/>
-      <c r="U113" s="319"/>
-      <c r="V113" s="319"/>
-      <c r="W113" s="319"/>
-      <c r="X113" s="319"/>
-      <c r="Y113" s="319"/>
-      <c r="Z113" s="320"/>
-      <c r="AC113" s="110"/>
-      <c r="AD113" s="110"/>
-      <c r="AE113" s="110"/>
-      <c r="AF113" s="110"/>
-      <c r="AG113" s="109"/>
-      <c r="AH113" s="109"/>
-      <c r="AP113" s="110"/>
-      <c r="AQ113" s="110"/>
-      <c r="AR113" s="110"/>
-      <c r="AS113" s="110"/>
-      <c r="AT113" s="110"/>
-      <c r="AU113" s="110"/>
-      <c r="AV113" s="110"/>
-      <c r="AW113" s="110"/>
-      <c r="AX113" s="110"/>
-      <c r="AY113" s="110"/>
-    </row>
-    <row r="114" spans="4:58" x14ac:dyDescent="0.15">
-      <c r="G114" s="387"/>
-      <c r="H114" s="388"/>
-      <c r="I114" s="388"/>
-      <c r="J114" s="388"/>
-      <c r="K114" s="388"/>
-      <c r="L114" s="388"/>
-      <c r="M114" s="388"/>
-      <c r="N114" s="388"/>
-      <c r="O114" s="388"/>
-      <c r="P114" s="389"/>
-      <c r="Q114" s="318" t="s">
-        <v>190</v>
-      </c>
-      <c r="R114" s="319"/>
-      <c r="S114" s="319"/>
-      <c r="T114" s="319"/>
-      <c r="U114" s="319"/>
-      <c r="V114" s="319"/>
-      <c r="W114" s="319"/>
-      <c r="X114" s="319"/>
-      <c r="Y114" s="319"/>
-      <c r="Z114" s="320"/>
-      <c r="AC114" s="110"/>
-      <c r="AD114" s="110"/>
-      <c r="AE114" s="110"/>
-      <c r="AF114" s="110"/>
-      <c r="AG114" s="109"/>
-      <c r="AH114" s="109"/>
-      <c r="AP114" s="110"/>
-      <c r="AQ114" s="110"/>
-      <c r="AR114" s="110"/>
-      <c r="AS114" s="110"/>
-      <c r="AT114" s="110"/>
-      <c r="AU114" s="110"/>
-      <c r="AV114" s="110"/>
-      <c r="AW114" s="110"/>
-      <c r="AX114" s="110"/>
-      <c r="AY114" s="110"/>
-    </row>
-    <row r="115" spans="4:58" x14ac:dyDescent="0.15">
-      <c r="G115" s="321" t="s">
-        <v>101</v>
-      </c>
-      <c r="H115" s="322"/>
-      <c r="I115" s="322"/>
-      <c r="J115" s="322"/>
-      <c r="K115" s="322"/>
-      <c r="L115" s="322"/>
-      <c r="M115" s="322"/>
-      <c r="N115" s="322"/>
-      <c r="O115" s="322"/>
-      <c r="P115" s="322"/>
-      <c r="Q115" s="322"/>
-      <c r="R115" s="322"/>
-      <c r="S115" s="322"/>
-      <c r="T115" s="322"/>
-      <c r="U115" s="322"/>
-      <c r="V115" s="322"/>
-      <c r="W115" s="322"/>
-      <c r="X115" s="322"/>
-      <c r="Y115" s="322"/>
-      <c r="Z115" s="323"/>
-      <c r="AJ115" s="110"/>
-      <c r="AK115" s="110"/>
-      <c r="AL115" s="110"/>
-      <c r="AM115" s="110"/>
-      <c r="AN115" s="110"/>
-      <c r="AO115" s="110"/>
-      <c r="AP115" s="110"/>
-      <c r="AQ115" s="110"/>
-      <c r="AR115" s="110"/>
-      <c r="AS115" s="110"/>
-      <c r="AT115" s="110"/>
-      <c r="AU115" s="110"/>
-      <c r="AV115" s="110"/>
-      <c r="AW115" s="110"/>
-      <c r="AX115" s="110"/>
-      <c r="AY115" s="110"/>
-      <c r="AZ115" s="110"/>
-      <c r="BA115" s="110"/>
-      <c r="BB115" s="110"/>
-      <c r="BC115" s="110"/>
-      <c r="BD115" s="110"/>
-      <c r="BE115" s="110"/>
-      <c r="BF115" s="110"/>
+      <c r="R115" s="393"/>
+      <c r="S115" s="393"/>
+      <c r="T115" s="393"/>
+      <c r="U115" s="393"/>
+      <c r="V115" s="393"/>
+      <c r="W115" s="393"/>
+      <c r="X115" s="393"/>
+      <c r="Y115" s="393"/>
+      <c r="Z115" s="394"/>
     </row>
     <row r="116" spans="4:58" x14ac:dyDescent="0.15">
-      <c r="G116" s="111"/>
-      <c r="H116" s="112"/>
-      <c r="I116" s="112"/>
-      <c r="J116" s="112"/>
-      <c r="K116" s="112"/>
-      <c r="L116" s="112"/>
-      <c r="M116" s="112"/>
-      <c r="N116" s="112"/>
-      <c r="O116" s="112"/>
-      <c r="P116" s="112"/>
-      <c r="Q116" s="112"/>
-      <c r="R116" s="112"/>
-      <c r="S116" s="112"/>
-      <c r="T116" s="112"/>
-      <c r="U116" s="112"/>
-      <c r="V116" s="112"/>
-      <c r="W116" s="112"/>
-      <c r="X116" s="112"/>
-      <c r="Y116" s="112"/>
-      <c r="Z116" s="113"/>
-      <c r="AJ116" s="110"/>
-      <c r="AK116" s="110"/>
-      <c r="AL116" s="110"/>
-      <c r="AM116" s="110"/>
-      <c r="AN116" s="110"/>
-      <c r="AO116" s="110"/>
+      <c r="G116" s="312" t="s">
+        <v>181</v>
+      </c>
+      <c r="H116" s="313"/>
+      <c r="I116" s="313"/>
+      <c r="J116" s="313"/>
+      <c r="K116" s="313"/>
+      <c r="L116" s="313"/>
+      <c r="M116" s="313"/>
+      <c r="N116" s="313"/>
+      <c r="O116" s="313"/>
+      <c r="P116" s="314"/>
+      <c r="Q116" s="309" t="s">
+        <v>182</v>
+      </c>
+      <c r="R116" s="310"/>
+      <c r="S116" s="310"/>
+      <c r="T116" s="310"/>
+      <c r="U116" s="310"/>
+      <c r="V116" s="310"/>
+      <c r="W116" s="310"/>
+      <c r="X116" s="310"/>
+      <c r="Y116" s="310"/>
+      <c r="Z116" s="311"/>
+      <c r="AC116" s="110"/>
+      <c r="AD116" s="110"/>
+      <c r="AE116" s="110"/>
+      <c r="AF116" s="110"/>
+      <c r="AG116" s="109"/>
+      <c r="AH116" s="109"/>
       <c r="AP116" s="110"/>
       <c r="AQ116" s="110"/>
       <c r="AR116" s="110"/>
@@ -11004,45 +11043,36 @@
       <c r="AW116" s="110"/>
       <c r="AX116" s="110"/>
       <c r="AY116" s="110"/>
-      <c r="AZ116" s="110"/>
-      <c r="BA116" s="110"/>
-      <c r="BB116" s="110"/>
-      <c r="BC116" s="110"/>
-      <c r="BD116" s="110"/>
-      <c r="BE116" s="110"/>
-      <c r="BF116" s="110"/>
     </row>
     <row r="117" spans="4:58" x14ac:dyDescent="0.15">
-      <c r="G117" s="114"/>
-      <c r="H117" s="177" t="s">
-        <v>194</v>
-      </c>
-      <c r="I117" s="115"/>
-      <c r="J117" s="115"/>
-      <c r="K117" s="115"/>
-      <c r="L117" s="116"/>
-      <c r="N117" s="115"/>
-      <c r="O117" s="116" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q117" s="177" t="s">
-        <v>195</v>
-      </c>
-      <c r="R117" s="115"/>
-      <c r="S117" s="115"/>
-      <c r="T117" s="115"/>
-      <c r="U117" s="115"/>
-      <c r="V117" s="117"/>
-      <c r="W117" s="115"/>
-      <c r="X117" s="115"/>
-      <c r="Y117" s="115"/>
-      <c r="Z117" s="118"/>
-      <c r="AJ117" s="110"/>
-      <c r="AK117" s="110"/>
-      <c r="AL117" s="110"/>
-      <c r="AM117" s="110"/>
-      <c r="AN117" s="110"/>
-      <c r="AO117" s="110"/>
+      <c r="G117" s="315"/>
+      <c r="H117" s="316"/>
+      <c r="I117" s="316"/>
+      <c r="J117" s="316"/>
+      <c r="K117" s="316"/>
+      <c r="L117" s="316"/>
+      <c r="M117" s="316"/>
+      <c r="N117" s="316"/>
+      <c r="O117" s="316"/>
+      <c r="P117" s="317"/>
+      <c r="Q117" s="309" t="s">
+        <v>183</v>
+      </c>
+      <c r="R117" s="310"/>
+      <c r="S117" s="310"/>
+      <c r="T117" s="310"/>
+      <c r="U117" s="310"/>
+      <c r="V117" s="310"/>
+      <c r="W117" s="310"/>
+      <c r="X117" s="310"/>
+      <c r="Y117" s="310"/>
+      <c r="Z117" s="311"/>
+      <c r="AC117" s="110"/>
+      <c r="AD117" s="110"/>
+      <c r="AE117" s="110"/>
+      <c r="AF117" s="110"/>
+      <c r="AG117" s="109"/>
+      <c r="AH117" s="109"/>
       <c r="AP117" s="110"/>
       <c r="AQ117" s="110"/>
       <c r="AR117" s="110"/>
@@ -11053,35 +11083,30 @@
       <c r="AW117" s="110"/>
       <c r="AX117" s="110"/>
       <c r="AY117" s="110"/>
-      <c r="AZ117" s="110"/>
-      <c r="BA117" s="110"/>
-      <c r="BB117" s="110"/>
-      <c r="BC117" s="110"/>
-      <c r="BD117" s="110"/>
-      <c r="BE117" s="110"/>
-      <c r="BF117" s="110"/>
     </row>
     <row r="118" spans="4:58" x14ac:dyDescent="0.15">
-      <c r="G118" s="119"/>
-      <c r="H118" s="120"/>
-      <c r="I118" s="120"/>
-      <c r="J118" s="120"/>
-      <c r="K118" s="120"/>
-      <c r="L118" s="121"/>
-      <c r="M118" s="121"/>
-      <c r="N118" s="120"/>
-      <c r="O118" s="120"/>
-      <c r="P118" s="120"/>
-      <c r="Q118" s="120"/>
-      <c r="R118" s="120"/>
-      <c r="S118" s="120"/>
-      <c r="T118" s="120"/>
-      <c r="U118" s="120"/>
-      <c r="V118" s="122"/>
-      <c r="W118" s="120"/>
-      <c r="X118" s="120"/>
-      <c r="Y118" s="120"/>
-      <c r="Z118" s="123"/>
+      <c r="G118" s="318" t="s">
+        <v>101</v>
+      </c>
+      <c r="H118" s="319"/>
+      <c r="I118" s="319"/>
+      <c r="J118" s="319"/>
+      <c r="K118" s="319"/>
+      <c r="L118" s="319"/>
+      <c r="M118" s="319"/>
+      <c r="N118" s="319"/>
+      <c r="O118" s="319"/>
+      <c r="P118" s="319"/>
+      <c r="Q118" s="319"/>
+      <c r="R118" s="319"/>
+      <c r="S118" s="319"/>
+      <c r="T118" s="319"/>
+      <c r="U118" s="319"/>
+      <c r="V118" s="319"/>
+      <c r="W118" s="319"/>
+      <c r="X118" s="319"/>
+      <c r="Y118" s="319"/>
+      <c r="Z118" s="320"/>
       <c r="AJ118" s="110"/>
       <c r="AK118" s="110"/>
       <c r="AL118" s="110"/>
@@ -11107,26 +11132,26 @@
       <c r="BF118" s="110"/>
     </row>
     <row r="119" spans="4:58" x14ac:dyDescent="0.15">
-      <c r="G119" s="115"/>
-      <c r="H119" s="115"/>
-      <c r="I119" s="115"/>
-      <c r="J119" s="115"/>
-      <c r="K119" s="115"/>
-      <c r="L119" s="116"/>
-      <c r="M119" s="116"/>
-      <c r="N119" s="115"/>
-      <c r="O119" s="115"/>
-      <c r="P119" s="115"/>
-      <c r="Q119" s="115"/>
-      <c r="R119" s="115"/>
-      <c r="S119" s="115"/>
-      <c r="T119" s="115"/>
-      <c r="U119" s="115"/>
-      <c r="V119" s="117"/>
-      <c r="W119" s="115"/>
-      <c r="X119" s="115"/>
-      <c r="Y119" s="115"/>
-      <c r="Z119" s="124"/>
+      <c r="G119" s="111"/>
+      <c r="H119" s="112"/>
+      <c r="I119" s="112"/>
+      <c r="J119" s="112"/>
+      <c r="K119" s="112"/>
+      <c r="L119" s="112"/>
+      <c r="M119" s="112"/>
+      <c r="N119" s="112"/>
+      <c r="O119" s="112"/>
+      <c r="P119" s="112"/>
+      <c r="Q119" s="112"/>
+      <c r="R119" s="112"/>
+      <c r="S119" s="112"/>
+      <c r="T119" s="112"/>
+      <c r="U119" s="112"/>
+      <c r="V119" s="112"/>
+      <c r="W119" s="112"/>
+      <c r="X119" s="112"/>
+      <c r="Y119" s="112"/>
+      <c r="Z119" s="113"/>
       <c r="AJ119" s="110"/>
       <c r="AK119" s="110"/>
       <c r="AL119" s="110"/>
@@ -11151,36 +11176,76 @@
       <c r="BE119" s="110"/>
       <c r="BF119" s="110"/>
     </row>
-    <row r="120" spans="4:58" s="108" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="AI120" s="125"/>
-      <c r="AJ120" s="125"/>
-      <c r="AK120" s="125"/>
-      <c r="AL120" s="125"/>
-      <c r="AM120" s="125"/>
-      <c r="AN120" s="125"/>
-      <c r="AO120" s="125"/>
-      <c r="AP120" s="125"/>
-      <c r="AQ120" s="125"/>
-      <c r="AR120" s="125"/>
-      <c r="AS120" s="125"/>
-      <c r="AT120" s="125"/>
-      <c r="AU120" s="125"/>
-      <c r="AV120" s="125"/>
-      <c r="AW120" s="125"/>
-      <c r="AX120" s="125"/>
-      <c r="AY120" s="125"/>
-      <c r="AZ120" s="125"/>
-      <c r="BA120" s="125"/>
-      <c r="BB120" s="125"/>
-      <c r="BC120" s="125"/>
-      <c r="BD120" s="125"/>
-      <c r="BE120" s="125"/>
+    <row r="120" spans="4:58" x14ac:dyDescent="0.15">
+      <c r="G120" s="114"/>
+      <c r="H120" s="177" t="s">
+        <v>187</v>
+      </c>
+      <c r="I120" s="115"/>
+      <c r="J120" s="115"/>
+      <c r="K120" s="115"/>
+      <c r="L120" s="116"/>
+      <c r="N120" s="115"/>
+      <c r="O120" s="116" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q120" s="177" t="s">
+        <v>188</v>
+      </c>
+      <c r="R120" s="115"/>
+      <c r="S120" s="115"/>
+      <c r="T120" s="115"/>
+      <c r="U120" s="115"/>
+      <c r="V120" s="117"/>
+      <c r="W120" s="115"/>
+      <c r="X120" s="115"/>
+      <c r="Y120" s="115"/>
+      <c r="Z120" s="118"/>
+      <c r="AJ120" s="110"/>
+      <c r="AK120" s="110"/>
+      <c r="AL120" s="110"/>
+      <c r="AM120" s="110"/>
+      <c r="AN120" s="110"/>
+      <c r="AO120" s="110"/>
+      <c r="AP120" s="110"/>
+      <c r="AQ120" s="110"/>
+      <c r="AR120" s="110"/>
+      <c r="AS120" s="110"/>
+      <c r="AT120" s="110"/>
+      <c r="AU120" s="110"/>
+      <c r="AV120" s="110"/>
+      <c r="AW120" s="110"/>
+      <c r="AX120" s="110"/>
+      <c r="AY120" s="110"/>
+      <c r="AZ120" s="110"/>
+      <c r="BA120" s="110"/>
+      <c r="BB120" s="110"/>
+      <c r="BC120" s="110"/>
+      <c r="BD120" s="110"/>
+      <c r="BE120" s="110"/>
+      <c r="BF120" s="110"/>
     </row>
     <row r="121" spans="4:58" x14ac:dyDescent="0.15">
-      <c r="E121" s="103" t="s">
-        <v>103</v>
-      </c>
-      <c r="G121" s="107"/>
+      <c r="G121" s="119"/>
+      <c r="H121" s="120"/>
+      <c r="I121" s="120"/>
+      <c r="J121" s="120"/>
+      <c r="K121" s="120"/>
+      <c r="L121" s="121"/>
+      <c r="M121" s="121"/>
+      <c r="N121" s="120"/>
+      <c r="O121" s="120"/>
+      <c r="P121" s="120"/>
+      <c r="Q121" s="120"/>
+      <c r="R121" s="120"/>
+      <c r="S121" s="120"/>
+      <c r="T121" s="120"/>
+      <c r="U121" s="120"/>
+      <c r="V121" s="122"/>
+      <c r="W121" s="120"/>
+      <c r="X121" s="120"/>
+      <c r="Y121" s="120"/>
+      <c r="Z121" s="123"/>
       <c r="AJ121" s="110"/>
       <c r="AK121" s="110"/>
       <c r="AL121" s="110"/>
@@ -11205,46 +11270,81 @@
       <c r="BE121" s="110"/>
       <c r="BF121" s="110"/>
     </row>
-    <row r="122" spans="4:58" s="108" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D122" s="29"/>
-      <c r="E122" s="106"/>
-      <c r="F122" s="104"/>
-    </row>
-    <row r="123" spans="4:58" x14ac:dyDescent="0.15">
-      <c r="E123" s="126"/>
-      <c r="F123" s="71" t="s">
-        <v>155</v>
-      </c>
-      <c r="AJ123" s="110"/>
-      <c r="AK123" s="110"/>
-      <c r="AL123" s="110"/>
-      <c r="AM123" s="110"/>
-      <c r="AN123" s="110"/>
-      <c r="AO123" s="110"/>
-      <c r="AP123" s="110"/>
-      <c r="AQ123" s="110"/>
-      <c r="AR123" s="110"/>
-      <c r="AS123" s="110"/>
-      <c r="AT123" s="110"/>
-      <c r="AU123" s="110"/>
-      <c r="AV123" s="110"/>
-      <c r="AW123" s="110"/>
-      <c r="AX123" s="110"/>
-      <c r="AY123" s="110"/>
-      <c r="AZ123" s="110"/>
-      <c r="BA123" s="110"/>
-      <c r="BB123" s="110"/>
-      <c r="BC123" s="110"/>
-      <c r="BD123" s="110"/>
-      <c r="BE123" s="110"/>
-      <c r="BF123" s="110"/>
+    <row r="122" spans="4:58" x14ac:dyDescent="0.15">
+      <c r="G122" s="115"/>
+      <c r="H122" s="115"/>
+      <c r="I122" s="115"/>
+      <c r="J122" s="115"/>
+      <c r="K122" s="115"/>
+      <c r="L122" s="116"/>
+      <c r="M122" s="116"/>
+      <c r="N122" s="115"/>
+      <c r="O122" s="115"/>
+      <c r="P122" s="115"/>
+      <c r="Q122" s="115"/>
+      <c r="R122" s="115"/>
+      <c r="S122" s="115"/>
+      <c r="T122" s="115"/>
+      <c r="U122" s="115"/>
+      <c r="V122" s="117"/>
+      <c r="W122" s="115"/>
+      <c r="X122" s="115"/>
+      <c r="Y122" s="115"/>
+      <c r="Z122" s="124"/>
+      <c r="AJ122" s="110"/>
+      <c r="AK122" s="110"/>
+      <c r="AL122" s="110"/>
+      <c r="AM122" s="110"/>
+      <c r="AN122" s="110"/>
+      <c r="AO122" s="110"/>
+      <c r="AP122" s="110"/>
+      <c r="AQ122" s="110"/>
+      <c r="AR122" s="110"/>
+      <c r="AS122" s="110"/>
+      <c r="AT122" s="110"/>
+      <c r="AU122" s="110"/>
+      <c r="AV122" s="110"/>
+      <c r="AW122" s="110"/>
+      <c r="AX122" s="110"/>
+      <c r="AY122" s="110"/>
+      <c r="AZ122" s="110"/>
+      <c r="BA122" s="110"/>
+      <c r="BB122" s="110"/>
+      <c r="BC122" s="110"/>
+      <c r="BD122" s="110"/>
+      <c r="BE122" s="110"/>
+      <c r="BF122" s="110"/>
+    </row>
+    <row r="123" spans="4:58" s="108" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AI123" s="125"/>
+      <c r="AJ123" s="125"/>
+      <c r="AK123" s="125"/>
+      <c r="AL123" s="125"/>
+      <c r="AM123" s="125"/>
+      <c r="AN123" s="125"/>
+      <c r="AO123" s="125"/>
+      <c r="AP123" s="125"/>
+      <c r="AQ123" s="125"/>
+      <c r="AR123" s="125"/>
+      <c r="AS123" s="125"/>
+      <c r="AT123" s="125"/>
+      <c r="AU123" s="125"/>
+      <c r="AV123" s="125"/>
+      <c r="AW123" s="125"/>
+      <c r="AX123" s="125"/>
+      <c r="AY123" s="125"/>
+      <c r="AZ123" s="125"/>
+      <c r="BA123" s="125"/>
+      <c r="BB123" s="125"/>
+      <c r="BC123" s="125"/>
+      <c r="BD123" s="125"/>
+      <c r="BE123" s="125"/>
     </row>
     <row r="124" spans="4:58" x14ac:dyDescent="0.15">
-      <c r="E124" s="126"/>
-      <c r="F124" s="127"/>
-      <c r="G124" s="71" t="s">
-        <v>179</v>
-      </c>
+      <c r="E124" s="103" t="s">
+        <v>103</v>
+      </c>
+      <c r="G124" s="107"/>
       <c r="AJ124" s="110"/>
       <c r="AK124" s="110"/>
       <c r="AL124" s="110"/>
@@ -11269,47 +11369,16 @@
       <c r="BE124" s="110"/>
       <c r="BF124" s="110"/>
     </row>
-    <row r="125" spans="4:58" x14ac:dyDescent="0.15">
-      <c r="E125" s="126"/>
-      <c r="F125" s="127"/>
-      <c r="H125" s="74" t="s">
-        <v>175</v>
-      </c>
-      <c r="I125" s="193"/>
-      <c r="J125" s="193"/>
-      <c r="K125" s="193"/>
-      <c r="L125" s="193"/>
-      <c r="M125" s="193"/>
-      <c r="N125" s="193"/>
-      <c r="O125" s="193"/>
-      <c r="AJ125" s="110"/>
-      <c r="AK125" s="110"/>
-      <c r="AL125" s="110"/>
-      <c r="AM125" s="110"/>
-      <c r="AN125" s="110"/>
-      <c r="AO125" s="110"/>
-      <c r="AP125" s="110"/>
-      <c r="AQ125" s="110"/>
-      <c r="AR125" s="110"/>
-      <c r="AS125" s="110"/>
-      <c r="AT125" s="110"/>
-      <c r="AU125" s="110"/>
-      <c r="AV125" s="110"/>
-      <c r="AW125" s="110"/>
-      <c r="AX125" s="110"/>
-      <c r="AY125" s="110"/>
-      <c r="AZ125" s="110"/>
-      <c r="BA125" s="110"/>
-      <c r="BB125" s="110"/>
-      <c r="BC125" s="110"/>
-      <c r="BD125" s="110"/>
-      <c r="BE125" s="110"/>
-      <c r="BF125" s="110"/>
+    <row r="125" spans="4:58" s="108" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D125" s="29"/>
+      <c r="E125" s="106"/>
+      <c r="F125" s="104"/>
     </row>
     <row r="126" spans="4:58" x14ac:dyDescent="0.15">
       <c r="E126" s="126"/>
-      <c r="F126" s="127"/>
-      <c r="G126" s="71"/>
+      <c r="F126" s="71" t="s">
+        <v>155</v>
+      </c>
       <c r="AJ126" s="110"/>
       <c r="AK126" s="110"/>
       <c r="AL126" s="110"/>
@@ -11336,8 +11405,9 @@
     </row>
     <row r="127" spans="4:58" x14ac:dyDescent="0.15">
       <c r="E127" s="126"/>
-      <c r="F127" s="71" t="s">
-        <v>156</v>
+      <c r="F127" s="127"/>
+      <c r="G127" s="71" t="s">
+        <v>174</v>
       </c>
       <c r="AJ127" s="110"/>
       <c r="AK127" s="110"/>
@@ -11366,9 +11436,16 @@
     <row r="128" spans="4:58" x14ac:dyDescent="0.15">
       <c r="E128" s="126"/>
       <c r="F128" s="127"/>
-      <c r="G128" s="71" t="s">
-        <v>180</v>
-      </c>
+      <c r="H128" s="74" t="s">
+        <v>170</v>
+      </c>
+      <c r="I128" s="193"/>
+      <c r="J128" s="193"/>
+      <c r="K128" s="193"/>
+      <c r="L128" s="193"/>
+      <c r="M128" s="193"/>
+      <c r="N128" s="193"/>
+      <c r="O128" s="193"/>
       <c r="AJ128" s="110"/>
       <c r="AK128" s="110"/>
       <c r="AL128" s="110"/>
@@ -11396,15 +11473,7 @@
     <row r="129" spans="5:59" x14ac:dyDescent="0.15">
       <c r="E129" s="126"/>
       <c r="F129" s="127"/>
-      <c r="H129" s="74" t="s">
-        <v>175</v>
-      </c>
-      <c r="I129" s="193"/>
-      <c r="J129" s="193"/>
-      <c r="K129" s="193"/>
-      <c r="L129" s="193"/>
-      <c r="M129" s="193"/>
-      <c r="N129" s="193"/>
+      <c r="G129" s="71"/>
       <c r="AJ129" s="110"/>
       <c r="AK129" s="110"/>
       <c r="AL129" s="110"/>
@@ -11431,8 +11500,9 @@
     </row>
     <row r="130" spans="5:59" x14ac:dyDescent="0.15">
       <c r="E130" s="126"/>
-      <c r="F130" s="127"/>
-      <c r="G130" s="71"/>
+      <c r="F130" s="71" t="s">
+        <v>204</v>
+      </c>
       <c r="AJ130" s="110"/>
       <c r="AK130" s="110"/>
       <c r="AL130" s="110"/>
@@ -11459,8 +11529,9 @@
     </row>
     <row r="131" spans="5:59" x14ac:dyDescent="0.15">
       <c r="E131" s="126"/>
-      <c r="F131" s="71" t="s">
-        <v>157</v>
+      <c r="F131" s="127"/>
+      <c r="G131" s="71" t="s">
+        <v>175</v>
       </c>
       <c r="AJ131" s="110"/>
       <c r="AK131" s="110"/>
@@ -11489,9 +11560,15 @@
     <row r="132" spans="5:59" x14ac:dyDescent="0.15">
       <c r="E132" s="126"/>
       <c r="F132" s="127"/>
-      <c r="G132" s="71" t="s">
-        <v>181</v>
-      </c>
+      <c r="H132" s="74" t="s">
+        <v>170</v>
+      </c>
+      <c r="I132" s="193"/>
+      <c r="J132" s="193"/>
+      <c r="K132" s="193"/>
+      <c r="L132" s="193"/>
+      <c r="M132" s="193"/>
+      <c r="N132" s="193"/>
       <c r="AJ132" s="110"/>
       <c r="AK132" s="110"/>
       <c r="AL132" s="110"/>
@@ -11519,15 +11596,7 @@
     <row r="133" spans="5:59" x14ac:dyDescent="0.15">
       <c r="E133" s="126"/>
       <c r="F133" s="127"/>
-      <c r="H133" s="74" t="s">
-        <v>175</v>
-      </c>
-      <c r="I133" s="193"/>
-      <c r="J133" s="193"/>
-      <c r="K133" s="193"/>
-      <c r="L133" s="193"/>
-      <c r="M133" s="193"/>
-      <c r="N133" s="193"/>
+      <c r="G133" s="71"/>
       <c r="AJ133" s="110"/>
       <c r="AK133" s="110"/>
       <c r="AL133" s="110"/>
@@ -11554,8 +11623,9 @@
     </row>
     <row r="134" spans="5:59" x14ac:dyDescent="0.15">
       <c r="E134" s="126"/>
-      <c r="F134" s="127"/>
-      <c r="G134" s="71"/>
+      <c r="F134" s="71" t="s">
+        <v>205</v>
+      </c>
       <c r="AJ134" s="110"/>
       <c r="AK134" s="110"/>
       <c r="AL134" s="110"/>
@@ -11582,11 +11652,12 @@
     </row>
     <row r="135" spans="5:59" x14ac:dyDescent="0.15">
       <c r="E135" s="126"/>
-      <c r="F135" s="71" t="s">
-        <v>159</v>
+      <c r="F135" s="127"/>
+      <c r="G135" s="71" t="s">
+        <v>172</v>
       </c>
       <c r="AJ135" s="110"/>
-      <c r="AK135" s="110"/>
+      <c r="AK135" s="194"/>
       <c r="AL135" s="110"/>
       <c r="AM135" s="110"/>
       <c r="AN135" s="110"/>
@@ -11612,11 +11683,12 @@
     <row r="136" spans="5:59" x14ac:dyDescent="0.15">
       <c r="E136" s="126"/>
       <c r="F136" s="127"/>
-      <c r="G136" s="71" t="s">
-        <v>177</v>
+      <c r="G136" s="71"/>
+      <c r="H136" s="103" t="s">
+        <v>176</v>
       </c>
       <c r="AJ136" s="110"/>
-      <c r="AK136" s="194"/>
+      <c r="AK136" s="110"/>
       <c r="AL136" s="110"/>
       <c r="AM136" s="110"/>
       <c r="AN136" s="110"/>
@@ -11642,10 +11714,15 @@
     <row r="137" spans="5:59" x14ac:dyDescent="0.15">
       <c r="E137" s="126"/>
       <c r="F137" s="127"/>
-      <c r="G137" s="71"/>
-      <c r="H137" s="103" t="s">
-        <v>182</v>
-      </c>
+      <c r="H137" s="74" t="s">
+        <v>170</v>
+      </c>
+      <c r="I137" s="193"/>
+      <c r="J137" s="193"/>
+      <c r="K137" s="193"/>
+      <c r="L137" s="193"/>
+      <c r="M137" s="193"/>
+      <c r="N137" s="193"/>
       <c r="AJ137" s="110"/>
       <c r="AK137" s="110"/>
       <c r="AL137" s="110"/>
@@ -11673,15 +11750,7 @@
     <row r="138" spans="5:59" x14ac:dyDescent="0.15">
       <c r="E138" s="126"/>
       <c r="F138" s="127"/>
-      <c r="H138" s="74" t="s">
-        <v>175</v>
-      </c>
-      <c r="I138" s="193"/>
-      <c r="J138" s="193"/>
-      <c r="K138" s="193"/>
-      <c r="L138" s="193"/>
-      <c r="M138" s="193"/>
-      <c r="N138" s="193"/>
+      <c r="G138" s="71"/>
       <c r="AJ138" s="110"/>
       <c r="AK138" s="110"/>
       <c r="AL138" s="110"/>
@@ -11706,175 +11775,199 @@
       <c r="BE138" s="110"/>
       <c r="BF138" s="110"/>
     </row>
-    <row r="139" spans="5:59" x14ac:dyDescent="0.15">
-      <c r="E139" s="126"/>
-      <c r="F139" s="127"/>
-      <c r="G139" s="71"/>
-      <c r="AJ139" s="110"/>
-      <c r="AK139" s="110"/>
-      <c r="AL139" s="110"/>
-      <c r="AM139" s="110"/>
-      <c r="AN139" s="110"/>
-      <c r="AO139" s="110"/>
-      <c r="AP139" s="110"/>
-      <c r="AQ139" s="110"/>
-      <c r="AR139" s="110"/>
-      <c r="AS139" s="110"/>
-      <c r="AT139" s="110"/>
-      <c r="AU139" s="110"/>
-      <c r="AV139" s="110"/>
-      <c r="AW139" s="110"/>
-      <c r="AX139" s="110"/>
-      <c r="AY139" s="110"/>
-      <c r="AZ139" s="110"/>
-      <c r="BA139" s="110"/>
-      <c r="BB139" s="110"/>
-      <c r="BC139" s="110"/>
-      <c r="BD139" s="110"/>
-      <c r="BE139" s="110"/>
-      <c r="BF139" s="110"/>
+    <row r="139" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H139" s="301" t="s">
+        <v>157</v>
+      </c>
+      <c r="I139" s="279" t="s">
+        <v>104</v>
+      </c>
+      <c r="J139" s="280"/>
+      <c r="K139" s="280"/>
+      <c r="L139" s="280"/>
+      <c r="M139" s="280"/>
+      <c r="N139" s="281"/>
+      <c r="O139" s="303" t="s">
+        <v>114</v>
+      </c>
+      <c r="P139" s="304"/>
+      <c r="Q139" s="304"/>
+      <c r="R139" s="304"/>
+      <c r="S139" s="304"/>
+      <c r="T139" s="304"/>
+      <c r="U139" s="304"/>
+      <c r="V139" s="304"/>
+      <c r="W139" s="304"/>
+      <c r="X139" s="304"/>
+      <c r="Y139" s="305"/>
+      <c r="Z139" s="279" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA139" s="280"/>
+      <c r="AB139" s="280"/>
+      <c r="AC139" s="280"/>
+      <c r="AD139" s="280"/>
+      <c r="AE139" s="281"/>
+      <c r="AF139" s="184" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG139" s="185"/>
+      <c r="AH139" s="186"/>
     </row>
     <row r="140" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H140" s="300" t="s">
+      <c r="H140" s="302"/>
+      <c r="I140" s="285"/>
+      <c r="J140" s="286"/>
+      <c r="K140" s="286"/>
+      <c r="L140" s="286"/>
+      <c r="M140" s="286"/>
+      <c r="N140" s="287"/>
+      <c r="O140" s="303" t="s">
+        <v>115</v>
+      </c>
+      <c r="P140" s="304"/>
+      <c r="Q140" s="304"/>
+      <c r="R140" s="304"/>
+      <c r="S140" s="305"/>
+      <c r="T140" s="306" t="s">
+        <v>105</v>
+      </c>
+      <c r="U140" s="307"/>
+      <c r="V140" s="307"/>
+      <c r="W140" s="307"/>
+      <c r="X140" s="307"/>
+      <c r="Y140" s="308"/>
+      <c r="Z140" s="285"/>
+      <c r="AA140" s="286"/>
+      <c r="AB140" s="286"/>
+      <c r="AC140" s="286"/>
+      <c r="AD140" s="286"/>
+      <c r="AE140" s="287"/>
+      <c r="AF140" s="187"/>
+      <c r="AG140" s="188"/>
+      <c r="AH140" s="189"/>
+    </row>
+    <row r="141" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H141" s="138">
+        <v>1</v>
+      </c>
+      <c r="I141" s="295" t="s">
+        <v>158</v>
+      </c>
+      <c r="J141" s="296"/>
+      <c r="K141" s="296"/>
+      <c r="L141" s="296"/>
+      <c r="M141" s="296"/>
+      <c r="N141" s="297"/>
+      <c r="O141" s="178" t="s">
+        <v>143</v>
+      </c>
+      <c r="P141" s="179"/>
+      <c r="Q141" s="179"/>
+      <c r="R141" s="179"/>
+      <c r="S141" s="180"/>
+      <c r="T141" s="295" t="s">
+        <v>159</v>
+      </c>
+      <c r="U141" s="296"/>
+      <c r="V141" s="296"/>
+      <c r="W141" s="296"/>
+      <c r="X141" s="296"/>
+      <c r="Y141" s="297"/>
+      <c r="Z141" s="298" t="s">
         <v>160</v>
       </c>
-      <c r="I140" s="278" t="s">
-        <v>104</v>
-      </c>
-      <c r="J140" s="279"/>
-      <c r="K140" s="279"/>
-      <c r="L140" s="279"/>
-      <c r="M140" s="279"/>
-      <c r="N140" s="280"/>
-      <c r="O140" s="302" t="s">
-        <v>114</v>
-      </c>
-      <c r="P140" s="303"/>
-      <c r="Q140" s="303"/>
-      <c r="R140" s="303"/>
-      <c r="S140" s="303"/>
-      <c r="T140" s="303"/>
-      <c r="U140" s="303"/>
-      <c r="V140" s="303"/>
-      <c r="W140" s="303"/>
-      <c r="X140" s="303"/>
-      <c r="Y140" s="304"/>
-      <c r="Z140" s="278" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA140" s="279"/>
-      <c r="AB140" s="279"/>
-      <c r="AC140" s="279"/>
-      <c r="AD140" s="279"/>
-      <c r="AE140" s="280"/>
-      <c r="AF140" s="184" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG140" s="185"/>
-      <c r="AH140" s="186"/>
-    </row>
-    <row r="141" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H141" s="301"/>
-      <c r="I141" s="284"/>
-      <c r="J141" s="285"/>
-      <c r="K141" s="285"/>
-      <c r="L141" s="285"/>
-      <c r="M141" s="285"/>
-      <c r="N141" s="286"/>
-      <c r="O141" s="302" t="s">
-        <v>115</v>
-      </c>
-      <c r="P141" s="303"/>
-      <c r="Q141" s="303"/>
-      <c r="R141" s="303"/>
-      <c r="S141" s="304"/>
-      <c r="T141" s="305" t="s">
-        <v>105</v>
-      </c>
-      <c r="U141" s="306"/>
-      <c r="V141" s="306"/>
-      <c r="W141" s="306"/>
-      <c r="X141" s="306"/>
-      <c r="Y141" s="307"/>
-      <c r="Z141" s="284"/>
-      <c r="AA141" s="285"/>
-      <c r="AB141" s="285"/>
-      <c r="AC141" s="285"/>
-      <c r="AD141" s="285"/>
-      <c r="AE141" s="286"/>
-      <c r="AF141" s="187"/>
-      <c r="AG141" s="188"/>
-      <c r="AH141" s="189"/>
-    </row>
-    <row r="142" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H142" s="138">
-        <v>1</v>
-      </c>
-      <c r="I142" s="294" t="s">
-        <v>161</v>
-      </c>
-      <c r="J142" s="295"/>
-      <c r="K142" s="295"/>
-      <c r="L142" s="295"/>
-      <c r="M142" s="295"/>
-      <c r="N142" s="296"/>
-      <c r="O142" s="178" t="s">
-        <v>143</v>
-      </c>
-      <c r="P142" s="179"/>
-      <c r="Q142" s="179"/>
-      <c r="R142" s="179"/>
-      <c r="S142" s="180"/>
-      <c r="T142" s="294" t="s">
-        <v>162</v>
-      </c>
-      <c r="U142" s="295"/>
-      <c r="V142" s="295"/>
-      <c r="W142" s="295"/>
-      <c r="X142" s="295"/>
-      <c r="Y142" s="296"/>
-      <c r="Z142" s="297" t="s">
-        <v>163</v>
-      </c>
-      <c r="AA142" s="298"/>
-      <c r="AB142" s="298"/>
-      <c r="AC142" s="298"/>
-      <c r="AD142" s="298"/>
-      <c r="AE142" s="299"/>
-      <c r="AF142" s="170"/>
-      <c r="AG142" s="168"/>
-      <c r="AH142" s="169"/>
+      <c r="AA141" s="299"/>
+      <c r="AB141" s="299"/>
+      <c r="AC141" s="299"/>
+      <c r="AD141" s="299"/>
+      <c r="AE141" s="300"/>
+      <c r="AF141" s="170"/>
+      <c r="AG141" s="168"/>
+      <c r="AH141" s="169"/>
+    </row>
+    <row r="142" spans="5:59" x14ac:dyDescent="0.15">
+      <c r="H142" s="181" t="s">
+        <v>101</v>
+      </c>
+      <c r="I142" s="182"/>
+      <c r="J142" s="182"/>
+      <c r="K142" s="182"/>
+      <c r="L142" s="182"/>
+      <c r="M142" s="182"/>
+      <c r="N142" s="182"/>
+      <c r="O142" s="182"/>
+      <c r="P142" s="182"/>
+      <c r="Q142" s="182"/>
+      <c r="R142" s="182"/>
+      <c r="S142" s="182"/>
+      <c r="T142" s="182"/>
+      <c r="U142" s="182"/>
+      <c r="V142" s="182"/>
+      <c r="W142" s="182"/>
+      <c r="X142" s="182"/>
+      <c r="Y142" s="182"/>
+      <c r="Z142" s="182"/>
+      <c r="AA142" s="182"/>
+      <c r="AB142" s="182"/>
+      <c r="AC142" s="182"/>
+      <c r="AD142" s="182"/>
+      <c r="AE142" s="182"/>
+      <c r="AF142" s="182"/>
+      <c r="AG142" s="182"/>
+      <c r="AH142" s="183"/>
+      <c r="AK142" s="110"/>
+      <c r="AL142" s="110"/>
+      <c r="AM142" s="110"/>
+      <c r="AN142" s="110"/>
+      <c r="AO142" s="110"/>
+      <c r="AP142" s="110"/>
+      <c r="AQ142" s="110"/>
+      <c r="AR142" s="110"/>
+      <c r="AS142" s="110"/>
+      <c r="AT142" s="110"/>
+      <c r="AU142" s="110"/>
+      <c r="AV142" s="110"/>
+      <c r="AW142" s="110"/>
+      <c r="AX142" s="110"/>
+      <c r="AY142" s="110"/>
+      <c r="AZ142" s="110"/>
+      <c r="BA142" s="110"/>
+      <c r="BB142" s="110"/>
+      <c r="BC142" s="110"/>
+      <c r="BD142" s="110"/>
+      <c r="BE142" s="110"/>
+      <c r="BF142" s="110"/>
+      <c r="BG142" s="110"/>
     </row>
     <row r="143" spans="5:59" x14ac:dyDescent="0.15">
-      <c r="H143" s="181" t="s">
-        <v>101</v>
-      </c>
-      <c r="I143" s="182"/>
-      <c r="J143" s="182"/>
-      <c r="K143" s="182"/>
-      <c r="L143" s="182"/>
-      <c r="M143" s="182"/>
-      <c r="N143" s="182"/>
-      <c r="O143" s="182"/>
-      <c r="P143" s="182"/>
-      <c r="Q143" s="182"/>
-      <c r="R143" s="182"/>
-      <c r="S143" s="182"/>
-      <c r="T143" s="182"/>
-      <c r="U143" s="182"/>
-      <c r="V143" s="182"/>
-      <c r="W143" s="182"/>
-      <c r="X143" s="182"/>
-      <c r="Y143" s="182"/>
-      <c r="Z143" s="182"/>
-      <c r="AA143" s="182"/>
-      <c r="AB143" s="182"/>
-      <c r="AC143" s="182"/>
-      <c r="AD143" s="182"/>
-      <c r="AE143" s="182"/>
-      <c r="AF143" s="182"/>
-      <c r="AG143" s="182"/>
-      <c r="AH143" s="183"/>
+      <c r="H143" s="111"/>
+      <c r="I143" s="112"/>
+      <c r="J143" s="112"/>
+      <c r="K143" s="112"/>
+      <c r="L143" s="112"/>
+      <c r="M143" s="112"/>
+      <c r="N143" s="112"/>
+      <c r="O143" s="112"/>
+      <c r="P143" s="112"/>
+      <c r="Q143" s="112"/>
+      <c r="R143" s="112"/>
+      <c r="S143" s="112"/>
+      <c r="T143" s="112"/>
+      <c r="U143" s="112"/>
+      <c r="V143" s="112"/>
+      <c r="W143" s="112"/>
+      <c r="X143" s="112"/>
+      <c r="Y143" s="112"/>
+      <c r="Z143" s="112"/>
+      <c r="AA143" s="112"/>
+      <c r="AB143" s="112"/>
+      <c r="AC143" s="112"/>
+      <c r="AD143" s="112"/>
+      <c r="AE143" s="112"/>
+      <c r="AF143" s="112"/>
+      <c r="AG143" s="112"/>
+      <c r="AH143" s="113"/>
       <c r="AK143" s="110"/>
       <c r="AL143" s="110"/>
       <c r="AM143" s="110"/>
@@ -11900,33 +11993,37 @@
       <c r="BG143" s="110"/>
     </row>
     <row r="144" spans="5:59" x14ac:dyDescent="0.15">
-      <c r="H144" s="111"/>
-      <c r="I144" s="112"/>
-      <c r="J144" s="112"/>
-      <c r="K144" s="112"/>
-      <c r="L144" s="112"/>
-      <c r="M144" s="112"/>
-      <c r="N144" s="112"/>
-      <c r="O144" s="112"/>
-      <c r="P144" s="112"/>
-      <c r="Q144" s="112"/>
-      <c r="R144" s="112"/>
-      <c r="S144" s="112"/>
-      <c r="T144" s="112"/>
-      <c r="U144" s="112"/>
-      <c r="V144" s="112"/>
-      <c r="W144" s="112"/>
-      <c r="X144" s="112"/>
-      <c r="Y144" s="112"/>
-      <c r="Z144" s="112"/>
-      <c r="AA144" s="112"/>
-      <c r="AB144" s="112"/>
-      <c r="AC144" s="112"/>
-      <c r="AD144" s="112"/>
-      <c r="AE144" s="112"/>
-      <c r="AF144" s="112"/>
-      <c r="AG144" s="112"/>
-      <c r="AH144" s="113"/>
+      <c r="H144" s="114"/>
+      <c r="I144" s="177" t="s">
+        <v>152</v>
+      </c>
+      <c r="J144" s="115"/>
+      <c r="K144" s="115"/>
+      <c r="L144" s="115"/>
+      <c r="M144" s="116"/>
+      <c r="O144" s="115"/>
+      <c r="P144" s="116" t="s">
+        <v>102</v>
+      </c>
+      <c r="R144" s="177" t="s">
+        <v>151</v>
+      </c>
+      <c r="S144" s="115"/>
+      <c r="T144" s="115"/>
+      <c r="U144" s="115"/>
+      <c r="V144" s="115"/>
+      <c r="W144" s="117"/>
+      <c r="X144" s="115"/>
+      <c r="Y144" s="115"/>
+      <c r="Z144" s="115"/>
+      <c r="AA144" s="115"/>
+      <c r="AB144" s="117"/>
+      <c r="AC144" s="115"/>
+      <c r="AD144" s="117"/>
+      <c r="AE144" s="115"/>
+      <c r="AF144" s="117"/>
+      <c r="AG144" s="115"/>
+      <c r="AH144" s="118"/>
       <c r="AK144" s="110"/>
       <c r="AL144" s="110"/>
       <c r="AM144" s="110"/>
@@ -11952,37 +12049,33 @@
       <c r="BG144" s="110"/>
     </row>
     <row r="145" spans="5:59" x14ac:dyDescent="0.15">
-      <c r="H145" s="114"/>
-      <c r="I145" s="177" t="s">
-        <v>152</v>
-      </c>
-      <c r="J145" s="115"/>
-      <c r="K145" s="115"/>
-      <c r="L145" s="115"/>
-      <c r="M145" s="116"/>
-      <c r="O145" s="115"/>
-      <c r="P145" s="116" t="s">
-        <v>102</v>
-      </c>
-      <c r="R145" s="177" t="s">
-        <v>151</v>
-      </c>
-      <c r="S145" s="115"/>
-      <c r="T145" s="115"/>
-      <c r="U145" s="115"/>
-      <c r="V145" s="115"/>
-      <c r="W145" s="117"/>
-      <c r="X145" s="115"/>
-      <c r="Y145" s="115"/>
-      <c r="Z145" s="115"/>
-      <c r="AA145" s="115"/>
-      <c r="AB145" s="117"/>
-      <c r="AC145" s="115"/>
-      <c r="AD145" s="117"/>
-      <c r="AE145" s="115"/>
-      <c r="AF145" s="117"/>
-      <c r="AG145" s="115"/>
-      <c r="AH145" s="118"/>
+      <c r="H145" s="119"/>
+      <c r="I145" s="120"/>
+      <c r="J145" s="120"/>
+      <c r="K145" s="120"/>
+      <c r="L145" s="120"/>
+      <c r="M145" s="121"/>
+      <c r="N145" s="121"/>
+      <c r="O145" s="120"/>
+      <c r="P145" s="120"/>
+      <c r="Q145" s="120"/>
+      <c r="R145" s="120"/>
+      <c r="S145" s="120"/>
+      <c r="T145" s="120"/>
+      <c r="U145" s="120"/>
+      <c r="V145" s="120"/>
+      <c r="W145" s="122"/>
+      <c r="X145" s="120"/>
+      <c r="Y145" s="120"/>
+      <c r="Z145" s="120"/>
+      <c r="AA145" s="120"/>
+      <c r="AB145" s="122"/>
+      <c r="AC145" s="120"/>
+      <c r="AD145" s="122"/>
+      <c r="AE145" s="120"/>
+      <c r="AF145" s="122"/>
+      <c r="AG145" s="120"/>
+      <c r="AH145" s="123"/>
       <c r="AK145" s="110"/>
       <c r="AL145" s="110"/>
       <c r="AM145" s="110"/>
@@ -12008,33 +12101,10 @@
       <c r="BG145" s="110"/>
     </row>
     <row r="146" spans="5:59" x14ac:dyDescent="0.15">
-      <c r="H146" s="119"/>
-      <c r="I146" s="120"/>
-      <c r="J146" s="120"/>
-      <c r="K146" s="120"/>
-      <c r="L146" s="120"/>
-      <c r="M146" s="121"/>
-      <c r="N146" s="121"/>
-      <c r="O146" s="120"/>
-      <c r="P146" s="120"/>
-      <c r="Q146" s="120"/>
-      <c r="R146" s="120"/>
-      <c r="S146" s="120"/>
-      <c r="T146" s="120"/>
-      <c r="U146" s="120"/>
-      <c r="V146" s="120"/>
-      <c r="W146" s="122"/>
-      <c r="X146" s="120"/>
-      <c r="Y146" s="120"/>
-      <c r="Z146" s="120"/>
-      <c r="AA146" s="120"/>
-      <c r="AB146" s="122"/>
-      <c r="AC146" s="120"/>
-      <c r="AD146" s="122"/>
-      <c r="AE146" s="120"/>
-      <c r="AF146" s="122"/>
-      <c r="AG146" s="120"/>
-      <c r="AH146" s="123"/>
+      <c r="E146" s="126"/>
+      <c r="F146" s="127"/>
+      <c r="G146" s="71"/>
+      <c r="AJ146" s="110"/>
       <c r="AK146" s="110"/>
       <c r="AL146" s="110"/>
       <c r="AM146" s="110"/>
@@ -12057,12 +12127,13 @@
       <c r="BD146" s="110"/>
       <c r="BE146" s="110"/>
       <c r="BF146" s="110"/>
-      <c r="BG146" s="110"/>
     </row>
     <row r="147" spans="5:59" x14ac:dyDescent="0.15">
       <c r="E147" s="126"/>
       <c r="F147" s="127"/>
-      <c r="G147" s="71"/>
+      <c r="G147" s="71" t="s">
+        <v>180</v>
+      </c>
       <c r="AJ147" s="110"/>
       <c r="AK147" s="110"/>
       <c r="AL147" s="110"/>
@@ -12090,9 +12161,7 @@
     <row r="148" spans="5:59" x14ac:dyDescent="0.15">
       <c r="E148" s="126"/>
       <c r="F148" s="127"/>
-      <c r="G148" s="71" t="s">
-        <v>187</v>
-      </c>
+      <c r="G148" s="71"/>
       <c r="AJ148" s="110"/>
       <c r="AK148" s="110"/>
       <c r="AL148" s="110"/>
@@ -12117,214 +12186,238 @@
       <c r="BE148" s="110"/>
       <c r="BF148" s="110"/>
     </row>
-    <row r="149" spans="5:59" x14ac:dyDescent="0.15">
-      <c r="E149" s="126"/>
-      <c r="F149" s="127"/>
-      <c r="G149" s="71"/>
-      <c r="AJ149" s="110"/>
-      <c r="AK149" s="110"/>
-      <c r="AL149" s="110"/>
-      <c r="AM149" s="110"/>
-      <c r="AN149" s="110"/>
-      <c r="AO149" s="110"/>
-      <c r="AP149" s="110"/>
-      <c r="AQ149" s="110"/>
-      <c r="AR149" s="110"/>
-      <c r="AS149" s="110"/>
-      <c r="AT149" s="110"/>
-      <c r="AU149" s="110"/>
-      <c r="AV149" s="110"/>
-      <c r="AW149" s="110"/>
-      <c r="AX149" s="110"/>
-      <c r="AY149" s="110"/>
-      <c r="AZ149" s="110"/>
-      <c r="BA149" s="110"/>
-      <c r="BB149" s="110"/>
-      <c r="BC149" s="110"/>
-      <c r="BD149" s="110"/>
-      <c r="BE149" s="110"/>
-      <c r="BF149" s="110"/>
+    <row r="149" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H149" s="301" t="s">
+        <v>157</v>
+      </c>
+      <c r="I149" s="279" t="s">
+        <v>104</v>
+      </c>
+      <c r="J149" s="280"/>
+      <c r="K149" s="280"/>
+      <c r="L149" s="280"/>
+      <c r="M149" s="280"/>
+      <c r="N149" s="281"/>
+      <c r="O149" s="303" t="s">
+        <v>114</v>
+      </c>
+      <c r="P149" s="304"/>
+      <c r="Q149" s="304"/>
+      <c r="R149" s="304"/>
+      <c r="S149" s="304"/>
+      <c r="T149" s="304"/>
+      <c r="U149" s="304"/>
+      <c r="V149" s="304"/>
+      <c r="W149" s="304"/>
+      <c r="X149" s="304"/>
+      <c r="Y149" s="305"/>
+      <c r="Z149" s="279" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA149" s="280"/>
+      <c r="AB149" s="280"/>
+      <c r="AC149" s="280"/>
+      <c r="AD149" s="280"/>
+      <c r="AE149" s="281"/>
+      <c r="AF149" s="184" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG149" s="185"/>
+      <c r="AH149" s="186"/>
     </row>
     <row r="150" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H150" s="300" t="s">
-        <v>160</v>
-      </c>
-      <c r="I150" s="278" t="s">
-        <v>104</v>
-      </c>
-      <c r="J150" s="279"/>
-      <c r="K150" s="279"/>
-      <c r="L150" s="279"/>
-      <c r="M150" s="279"/>
-      <c r="N150" s="280"/>
-      <c r="O150" s="302" t="s">
-        <v>114</v>
-      </c>
-      <c r="P150" s="303"/>
-      <c r="Q150" s="303"/>
-      <c r="R150" s="303"/>
-      <c r="S150" s="303"/>
-      <c r="T150" s="303"/>
-      <c r="U150" s="303"/>
-      <c r="V150" s="303"/>
-      <c r="W150" s="303"/>
-      <c r="X150" s="303"/>
-      <c r="Y150" s="304"/>
-      <c r="Z150" s="278" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA150" s="279"/>
-      <c r="AB150" s="279"/>
-      <c r="AC150" s="279"/>
-      <c r="AD150" s="279"/>
-      <c r="AE150" s="280"/>
-      <c r="AF150" s="184" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG150" s="185"/>
-      <c r="AH150" s="186"/>
+      <c r="H150" s="302"/>
+      <c r="I150" s="285"/>
+      <c r="J150" s="286"/>
+      <c r="K150" s="286"/>
+      <c r="L150" s="286"/>
+      <c r="M150" s="286"/>
+      <c r="N150" s="287"/>
+      <c r="O150" s="303" t="s">
+        <v>115</v>
+      </c>
+      <c r="P150" s="304"/>
+      <c r="Q150" s="304"/>
+      <c r="R150" s="304"/>
+      <c r="S150" s="305"/>
+      <c r="T150" s="306" t="s">
+        <v>105</v>
+      </c>
+      <c r="U150" s="307"/>
+      <c r="V150" s="307"/>
+      <c r="W150" s="307"/>
+      <c r="X150" s="307"/>
+      <c r="Y150" s="308"/>
+      <c r="Z150" s="285"/>
+      <c r="AA150" s="286"/>
+      <c r="AB150" s="286"/>
+      <c r="AC150" s="286"/>
+      <c r="AD150" s="286"/>
+      <c r="AE150" s="287"/>
+      <c r="AF150" s="187"/>
+      <c r="AG150" s="188"/>
+      <c r="AH150" s="189"/>
     </row>
     <row r="151" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H151" s="301"/>
-      <c r="I151" s="284"/>
-      <c r="J151" s="285"/>
-      <c r="K151" s="285"/>
-      <c r="L151" s="285"/>
-      <c r="M151" s="285"/>
-      <c r="N151" s="286"/>
-      <c r="O151" s="302" t="s">
-        <v>115</v>
-      </c>
-      <c r="P151" s="303"/>
-      <c r="Q151" s="303"/>
-      <c r="R151" s="303"/>
-      <c r="S151" s="304"/>
-      <c r="T151" s="305" t="s">
-        <v>105</v>
-      </c>
-      <c r="U151" s="306"/>
-      <c r="V151" s="306"/>
-      <c r="W151" s="306"/>
-      <c r="X151" s="306"/>
-      <c r="Y151" s="307"/>
-      <c r="Z151" s="284"/>
-      <c r="AA151" s="285"/>
-      <c r="AB151" s="285"/>
-      <c r="AC151" s="285"/>
-      <c r="AD151" s="285"/>
-      <c r="AE151" s="286"/>
-      <c r="AF151" s="187"/>
-      <c r="AG151" s="188"/>
-      <c r="AH151" s="189"/>
+      <c r="H151" s="138">
+        <v>1</v>
+      </c>
+      <c r="I151" s="295" t="s">
+        <v>163</v>
+      </c>
+      <c r="J151" s="296"/>
+      <c r="K151" s="296"/>
+      <c r="L151" s="296"/>
+      <c r="M151" s="296"/>
+      <c r="N151" s="297"/>
+      <c r="O151" s="178" t="s">
+        <v>164</v>
+      </c>
+      <c r="P151" s="179"/>
+      <c r="Q151" s="179"/>
+      <c r="R151" s="179"/>
+      <c r="S151" s="180"/>
+      <c r="T151" s="295" t="s">
+        <v>159</v>
+      </c>
+      <c r="U151" s="296"/>
+      <c r="V151" s="296"/>
+      <c r="W151" s="296"/>
+      <c r="X151" s="296"/>
+      <c r="Y151" s="297"/>
+      <c r="Z151" s="298" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA151" s="299"/>
+      <c r="AB151" s="299"/>
+      <c r="AC151" s="299"/>
+      <c r="AD151" s="299"/>
+      <c r="AE151" s="300"/>
+      <c r="AF151" s="170"/>
+      <c r="AG151" s="168"/>
+      <c r="AH151" s="169"/>
     </row>
     <row r="152" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H152" s="138">
-        <v>1</v>
-      </c>
-      <c r="I152" s="294" t="s">
-        <v>167</v>
-      </c>
-      <c r="J152" s="295"/>
-      <c r="K152" s="295"/>
-      <c r="L152" s="295"/>
-      <c r="M152" s="295"/>
-      <c r="N152" s="296"/>
+        <v>2</v>
+      </c>
+      <c r="I152" s="295" t="s">
+        <v>179</v>
+      </c>
+      <c r="J152" s="296"/>
+      <c r="K152" s="296"/>
+      <c r="L152" s="296"/>
+      <c r="M152" s="296"/>
+      <c r="N152" s="297"/>
       <c r="O152" s="178" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="P152" s="179"/>
       <c r="Q152" s="179"/>
       <c r="R152" s="179"/>
       <c r="S152" s="180"/>
-      <c r="T152" s="294" t="s">
-        <v>162</v>
-      </c>
-      <c r="U152" s="295"/>
-      <c r="V152" s="295"/>
-      <c r="W152" s="295"/>
-      <c r="X152" s="295"/>
-      <c r="Y152" s="296"/>
-      <c r="Z152" s="297" t="s">
-        <v>169</v>
-      </c>
-      <c r="AA152" s="298"/>
-      <c r="AB152" s="298"/>
-      <c r="AC152" s="298"/>
-      <c r="AD152" s="298"/>
-      <c r="AE152" s="299"/>
-      <c r="AF152" s="170"/>
-      <c r="AG152" s="168"/>
-      <c r="AH152" s="169"/>
-    </row>
-    <row r="153" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H153" s="138">
-        <v>2</v>
-      </c>
-      <c r="I153" s="294" t="s">
-        <v>186</v>
-      </c>
-      <c r="J153" s="295"/>
-      <c r="K153" s="295"/>
-      <c r="L153" s="295"/>
-      <c r="M153" s="295"/>
-      <c r="N153" s="296"/>
-      <c r="O153" s="178" t="s">
-        <v>168</v>
-      </c>
-      <c r="P153" s="179"/>
-      <c r="Q153" s="179"/>
-      <c r="R153" s="179"/>
-      <c r="S153" s="180"/>
-      <c r="T153" s="294" t="s">
+      <c r="T152" s="295" t="s">
         <v>93</v>
       </c>
-      <c r="U153" s="295"/>
-      <c r="V153" s="295"/>
-      <c r="W153" s="295"/>
-      <c r="X153" s="295"/>
-      <c r="Y153" s="296"/>
-      <c r="Z153" s="297">
+      <c r="U152" s="296"/>
+      <c r="V152" s="296"/>
+      <c r="W152" s="296"/>
+      <c r="X152" s="296"/>
+      <c r="Y152" s="297"/>
+      <c r="Z152" s="298">
         <v>0</v>
       </c>
-      <c r="AA153" s="298"/>
-      <c r="AB153" s="298"/>
-      <c r="AC153" s="298"/>
-      <c r="AD153" s="298"/>
-      <c r="AE153" s="299"/>
-      <c r="AF153" s="197"/>
-      <c r="AG153" s="195"/>
-      <c r="AH153" s="196"/>
+      <c r="AA152" s="299"/>
+      <c r="AB152" s="299"/>
+      <c r="AC152" s="299"/>
+      <c r="AD152" s="299"/>
+      <c r="AE152" s="300"/>
+      <c r="AF152" s="197"/>
+      <c r="AG152" s="195"/>
+      <c r="AH152" s="196"/>
+    </row>
+    <row r="153" spans="5:59" x14ac:dyDescent="0.15">
+      <c r="H153" s="181" t="s">
+        <v>101</v>
+      </c>
+      <c r="I153" s="182"/>
+      <c r="J153" s="182"/>
+      <c r="K153" s="182"/>
+      <c r="L153" s="182"/>
+      <c r="M153" s="182"/>
+      <c r="N153" s="182"/>
+      <c r="O153" s="182"/>
+      <c r="P153" s="182"/>
+      <c r="Q153" s="182"/>
+      <c r="R153" s="182"/>
+      <c r="S153" s="182"/>
+      <c r="T153" s="182"/>
+      <c r="U153" s="182"/>
+      <c r="V153" s="182"/>
+      <c r="W153" s="182"/>
+      <c r="X153" s="182"/>
+      <c r="Y153" s="182"/>
+      <c r="Z153" s="182"/>
+      <c r="AA153" s="182"/>
+      <c r="AB153" s="182"/>
+      <c r="AC153" s="182"/>
+      <c r="AD153" s="182"/>
+      <c r="AE153" s="182"/>
+      <c r="AF153" s="182"/>
+      <c r="AG153" s="182"/>
+      <c r="AH153" s="183"/>
+      <c r="AK153" s="110"/>
+      <c r="AL153" s="110"/>
+      <c r="AM153" s="110"/>
+      <c r="AN153" s="110"/>
+      <c r="AO153" s="110"/>
+      <c r="AP153" s="110"/>
+      <c r="AQ153" s="110"/>
+      <c r="AR153" s="110"/>
+      <c r="AS153" s="110"/>
+      <c r="AT153" s="110"/>
+      <c r="AU153" s="110"/>
+      <c r="AV153" s="110"/>
+      <c r="AW153" s="110"/>
+      <c r="AX153" s="110"/>
+      <c r="AY153" s="110"/>
+      <c r="AZ153" s="110"/>
+      <c r="BA153" s="110"/>
+      <c r="BB153" s="110"/>
+      <c r="BC153" s="110"/>
+      <c r="BD153" s="110"/>
+      <c r="BE153" s="110"/>
+      <c r="BF153" s="110"/>
+      <c r="BG153" s="110"/>
     </row>
     <row r="154" spans="5:59" x14ac:dyDescent="0.15">
-      <c r="H154" s="181" t="s">
-        <v>101</v>
-      </c>
-      <c r="I154" s="182"/>
-      <c r="J154" s="182"/>
-      <c r="K154" s="182"/>
-      <c r="L154" s="182"/>
-      <c r="M154" s="182"/>
-      <c r="N154" s="182"/>
-      <c r="O154" s="182"/>
-      <c r="P154" s="182"/>
-      <c r="Q154" s="182"/>
-      <c r="R154" s="182"/>
-      <c r="S154" s="182"/>
-      <c r="T154" s="182"/>
-      <c r="U154" s="182"/>
-      <c r="V154" s="182"/>
-      <c r="W154" s="182"/>
-      <c r="X154" s="182"/>
-      <c r="Y154" s="182"/>
-      <c r="Z154" s="182"/>
-      <c r="AA154" s="182"/>
-      <c r="AB154" s="182"/>
-      <c r="AC154" s="182"/>
-      <c r="AD154" s="182"/>
-      <c r="AE154" s="182"/>
-      <c r="AF154" s="182"/>
-      <c r="AG154" s="182"/>
-      <c r="AH154" s="183"/>
+      <c r="H154" s="111"/>
+      <c r="I154" s="112"/>
+      <c r="J154" s="112"/>
+      <c r="K154" s="112"/>
+      <c r="L154" s="112"/>
+      <c r="M154" s="112"/>
+      <c r="N154" s="112"/>
+      <c r="O154" s="112"/>
+      <c r="P154" s="112"/>
+      <c r="Q154" s="112"/>
+      <c r="R154" s="112"/>
+      <c r="S154" s="112"/>
+      <c r="T154" s="112"/>
+      <c r="U154" s="112"/>
+      <c r="V154" s="112"/>
+      <c r="W154" s="112"/>
+      <c r="X154" s="112"/>
+      <c r="Y154" s="112"/>
+      <c r="Z154" s="112"/>
+      <c r="AA154" s="112"/>
+      <c r="AB154" s="112"/>
+      <c r="AC154" s="112"/>
+      <c r="AD154" s="112"/>
+      <c r="AE154" s="112"/>
+      <c r="AF154" s="112"/>
+      <c r="AG154" s="112"/>
+      <c r="AH154" s="113"/>
       <c r="AK154" s="110"/>
       <c r="AL154" s="110"/>
       <c r="AM154" s="110"/>
@@ -12350,33 +12443,37 @@
       <c r="BG154" s="110"/>
     </row>
     <row r="155" spans="5:59" x14ac:dyDescent="0.15">
-      <c r="H155" s="111"/>
-      <c r="I155" s="112"/>
-      <c r="J155" s="112"/>
-      <c r="K155" s="112"/>
-      <c r="L155" s="112"/>
-      <c r="M155" s="112"/>
-      <c r="N155" s="112"/>
-      <c r="O155" s="112"/>
-      <c r="P155" s="112"/>
-      <c r="Q155" s="112"/>
-      <c r="R155" s="112"/>
-      <c r="S155" s="112"/>
-      <c r="T155" s="112"/>
-      <c r="U155" s="112"/>
-      <c r="V155" s="112"/>
-      <c r="W155" s="112"/>
-      <c r="X155" s="112"/>
-      <c r="Y155" s="112"/>
-      <c r="Z155" s="112"/>
-      <c r="AA155" s="112"/>
-      <c r="AB155" s="112"/>
-      <c r="AC155" s="112"/>
-      <c r="AD155" s="112"/>
-      <c r="AE155" s="112"/>
-      <c r="AF155" s="112"/>
-      <c r="AG155" s="112"/>
-      <c r="AH155" s="113"/>
+      <c r="H155" s="114"/>
+      <c r="I155" s="177" t="s">
+        <v>152</v>
+      </c>
+      <c r="J155" s="115"/>
+      <c r="K155" s="115"/>
+      <c r="L155" s="115"/>
+      <c r="M155" s="116"/>
+      <c r="O155" s="115"/>
+      <c r="P155" s="116" t="s">
+        <v>102</v>
+      </c>
+      <c r="R155" s="177" t="s">
+        <v>151</v>
+      </c>
+      <c r="S155" s="115"/>
+      <c r="T155" s="115"/>
+      <c r="U155" s="115"/>
+      <c r="V155" s="115"/>
+      <c r="W155" s="117"/>
+      <c r="X155" s="115"/>
+      <c r="Y155" s="115"/>
+      <c r="Z155" s="115"/>
+      <c r="AA155" s="115"/>
+      <c r="AB155" s="117"/>
+      <c r="AC155" s="115"/>
+      <c r="AD155" s="117"/>
+      <c r="AE155" s="115"/>
+      <c r="AF155" s="117"/>
+      <c r="AG155" s="115"/>
+      <c r="AH155" s="118"/>
       <c r="AK155" s="110"/>
       <c r="AL155" s="110"/>
       <c r="AM155" s="110"/>
@@ -12402,37 +12499,33 @@
       <c r="BG155" s="110"/>
     </row>
     <row r="156" spans="5:59" x14ac:dyDescent="0.15">
-      <c r="H156" s="114"/>
-      <c r="I156" s="177" t="s">
-        <v>152</v>
-      </c>
-      <c r="J156" s="115"/>
-      <c r="K156" s="115"/>
-      <c r="L156" s="115"/>
-      <c r="M156" s="116"/>
-      <c r="O156" s="115"/>
-      <c r="P156" s="116" t="s">
-        <v>102</v>
-      </c>
-      <c r="R156" s="177" t="s">
-        <v>151</v>
-      </c>
-      <c r="S156" s="115"/>
-      <c r="T156" s="115"/>
-      <c r="U156" s="115"/>
-      <c r="V156" s="115"/>
-      <c r="W156" s="117"/>
-      <c r="X156" s="115"/>
-      <c r="Y156" s="115"/>
-      <c r="Z156" s="115"/>
-      <c r="AA156" s="115"/>
-      <c r="AB156" s="117"/>
-      <c r="AC156" s="115"/>
-      <c r="AD156" s="117"/>
-      <c r="AE156" s="115"/>
-      <c r="AF156" s="117"/>
-      <c r="AG156" s="115"/>
-      <c r="AH156" s="118"/>
+      <c r="H156" s="119"/>
+      <c r="I156" s="120"/>
+      <c r="J156" s="120"/>
+      <c r="K156" s="120"/>
+      <c r="L156" s="120"/>
+      <c r="M156" s="121"/>
+      <c r="N156" s="121"/>
+      <c r="O156" s="120"/>
+      <c r="P156" s="120"/>
+      <c r="Q156" s="120"/>
+      <c r="R156" s="120"/>
+      <c r="S156" s="120"/>
+      <c r="T156" s="120"/>
+      <c r="U156" s="120"/>
+      <c r="V156" s="120"/>
+      <c r="W156" s="122"/>
+      <c r="X156" s="120"/>
+      <c r="Y156" s="120"/>
+      <c r="Z156" s="120"/>
+      <c r="AA156" s="120"/>
+      <c r="AB156" s="122"/>
+      <c r="AC156" s="120"/>
+      <c r="AD156" s="122"/>
+      <c r="AE156" s="120"/>
+      <c r="AF156" s="122"/>
+      <c r="AG156" s="120"/>
+      <c r="AH156" s="123"/>
       <c r="AK156" s="110"/>
       <c r="AL156" s="110"/>
       <c r="AM156" s="110"/>
@@ -12458,33 +12551,10 @@
       <c r="BG156" s="110"/>
     </row>
     <row r="157" spans="5:59" x14ac:dyDescent="0.15">
-      <c r="H157" s="119"/>
-      <c r="I157" s="120"/>
-      <c r="J157" s="120"/>
-      <c r="K157" s="120"/>
-      <c r="L157" s="120"/>
-      <c r="M157" s="121"/>
-      <c r="N157" s="121"/>
-      <c r="O157" s="120"/>
-      <c r="P157" s="120"/>
-      <c r="Q157" s="120"/>
-      <c r="R157" s="120"/>
-      <c r="S157" s="120"/>
-      <c r="T157" s="120"/>
-      <c r="U157" s="120"/>
-      <c r="V157" s="120"/>
-      <c r="W157" s="122"/>
-      <c r="X157" s="120"/>
-      <c r="Y157" s="120"/>
-      <c r="Z157" s="120"/>
-      <c r="AA157" s="120"/>
-      <c r="AB157" s="122"/>
-      <c r="AC157" s="120"/>
-      <c r="AD157" s="122"/>
-      <c r="AE157" s="120"/>
-      <c r="AF157" s="122"/>
-      <c r="AG157" s="120"/>
-      <c r="AH157" s="123"/>
+      <c r="E157" s="126"/>
+      <c r="F157" s="127"/>
+      <c r="G157" s="71"/>
+      <c r="AJ157" s="110"/>
       <c r="AK157" s="110"/>
       <c r="AL157" s="110"/>
       <c r="AM157" s="110"/>
@@ -12507,12 +12577,13 @@
       <c r="BD157" s="110"/>
       <c r="BE157" s="110"/>
       <c r="BF157" s="110"/>
-      <c r="BG157" s="110"/>
     </row>
     <row r="158" spans="5:59" x14ac:dyDescent="0.15">
       <c r="E158" s="126"/>
       <c r="F158" s="127"/>
-      <c r="G158" s="71"/>
+      <c r="G158" s="71" t="s">
+        <v>185</v>
+      </c>
       <c r="AJ158" s="110"/>
       <c r="AK158" s="110"/>
       <c r="AL158" s="110"/>
@@ -12540,9 +12611,7 @@
     <row r="159" spans="5:59" x14ac:dyDescent="0.15">
       <c r="E159" s="126"/>
       <c r="F159" s="127"/>
-      <c r="G159" s="71" t="s">
-        <v>192</v>
-      </c>
+      <c r="G159" s="71"/>
       <c r="AJ159" s="110"/>
       <c r="AK159" s="110"/>
       <c r="AL159" s="110"/>
@@ -12570,7 +12639,9 @@
     <row r="160" spans="5:59" x14ac:dyDescent="0.15">
       <c r="E160" s="126"/>
       <c r="F160" s="127"/>
-      <c r="G160" s="71"/>
+      <c r="G160" s="71" t="s">
+        <v>184</v>
+      </c>
       <c r="AJ160" s="110"/>
       <c r="AK160" s="110"/>
       <c r="AL160" s="110"/>
@@ -12595,12 +12666,10 @@
       <c r="BE160" s="110"/>
       <c r="BF160" s="110"/>
     </row>
-    <row r="161" spans="5:58" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:58" x14ac:dyDescent="0.15">
       <c r="E161" s="126"/>
       <c r="F161" s="127"/>
-      <c r="G161" s="71" t="s">
-        <v>191</v>
-      </c>
+      <c r="G161" s="71"/>
       <c r="AJ161" s="110"/>
       <c r="AK161" s="110"/>
       <c r="AL161" s="110"/>
@@ -12625,10 +12694,11 @@
       <c r="BE161" s="110"/>
       <c r="BF161" s="110"/>
     </row>
-    <row r="162" spans="5:58" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:58" x14ac:dyDescent="0.15">
       <c r="E162" s="126"/>
-      <c r="F162" s="127"/>
-      <c r="G162" s="71"/>
+      <c r="F162" s="71" t="s">
+        <v>206</v>
+      </c>
       <c r="AJ162" s="110"/>
       <c r="AK162" s="110"/>
       <c r="AL162" s="110"/>
@@ -12653,11 +12723,10 @@
       <c r="BE162" s="110"/>
       <c r="BF162" s="110"/>
     </row>
-    <row r="163" spans="5:58" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:58" x14ac:dyDescent="0.15">
       <c r="E163" s="126"/>
-      <c r="F163" s="71" t="s">
-        <v>165</v>
-      </c>
+      <c r="F163" s="127"/>
+      <c r="G163" s="71"/>
       <c r="AJ163" s="110"/>
       <c r="AK163" s="110"/>
       <c r="AL163" s="110"/>
@@ -12682,10 +12751,9 @@
       <c r="BE163" s="110"/>
       <c r="BF163" s="110"/>
     </row>
-    <row r="164" spans="5:58" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:58" x14ac:dyDescent="0.15">
       <c r="E164" s="126"/>
-      <c r="F164" s="127"/>
-      <c r="G164" s="71"/>
+      <c r="F164" s="71"/>
       <c r="AJ164" s="110"/>
       <c r="AK164" s="110"/>
       <c r="AL164" s="110"/>
@@ -12710,91 +12778,60 @@
       <c r="BE164" s="110"/>
       <c r="BF164" s="110"/>
     </row>
-    <row r="165" spans="5:58" x14ac:dyDescent="0.15">
-      <c r="E165" s="126"/>
-      <c r="F165" s="71"/>
-      <c r="AJ165" s="110"/>
-      <c r="AK165" s="110"/>
-      <c r="AL165" s="110"/>
-      <c r="AM165" s="110"/>
-      <c r="AN165" s="110"/>
-      <c r="AO165" s="110"/>
-      <c r="AP165" s="110"/>
-      <c r="AQ165" s="110"/>
-      <c r="AR165" s="110"/>
-      <c r="AS165" s="110"/>
-      <c r="AT165" s="110"/>
-      <c r="AU165" s="110"/>
-      <c r="AV165" s="110"/>
-      <c r="AW165" s="110"/>
-      <c r="AX165" s="110"/>
-      <c r="AY165" s="110"/>
-      <c r="AZ165" s="110"/>
-      <c r="BA165" s="110"/>
-      <c r="BB165" s="110"/>
-      <c r="BC165" s="110"/>
-      <c r="BD165" s="110"/>
-      <c r="BE165" s="110"/>
-      <c r="BF165" s="110"/>
-    </row>
-    <row r="166" spans="5:58" x14ac:dyDescent="0.15">
-      <c r="E166" s="126"/>
-      <c r="F166" s="127"/>
-      <c r="G166" s="71"/>
-      <c r="AJ166" s="110"/>
-      <c r="AK166" s="110"/>
-      <c r="AL166" s="110"/>
-      <c r="AM166" s="110"/>
-      <c r="AN166" s="110"/>
-      <c r="AO166" s="110"/>
-      <c r="AP166" s="110"/>
-      <c r="AQ166" s="110"/>
-      <c r="AR166" s="110"/>
-      <c r="AS166" s="110"/>
-      <c r="AT166" s="110"/>
-      <c r="AU166" s="110"/>
-      <c r="AV166" s="110"/>
-      <c r="AW166" s="110"/>
-      <c r="AX166" s="110"/>
-      <c r="AY166" s="110"/>
-      <c r="AZ166" s="110"/>
-      <c r="BA166" s="110"/>
-      <c r="BB166" s="110"/>
-      <c r="BC166" s="110"/>
-      <c r="BD166" s="110"/>
-      <c r="BE166" s="110"/>
-      <c r="BF166" s="110"/>
-    </row>
-    <row r="167" spans="5:58" x14ac:dyDescent="0.15">
-      <c r="E167" s="126"/>
-      <c r="F167" s="127"/>
-      <c r="G167" s="71"/>
-      <c r="AJ167" s="110"/>
-      <c r="AK167" s="110"/>
-      <c r="AL167" s="110"/>
-      <c r="AM167" s="110"/>
-      <c r="AN167" s="110"/>
-      <c r="AO167" s="110"/>
-      <c r="AP167" s="110"/>
-      <c r="AQ167" s="110"/>
-      <c r="AR167" s="110"/>
-      <c r="AS167" s="110"/>
-      <c r="AT167" s="110"/>
-      <c r="AU167" s="110"/>
-      <c r="AV167" s="110"/>
-      <c r="AW167" s="110"/>
-      <c r="AX167" s="110"/>
-      <c r="AY167" s="110"/>
-      <c r="AZ167" s="110"/>
-      <c r="BA167" s="110"/>
-      <c r="BB167" s="110"/>
-      <c r="BC167" s="110"/>
-      <c r="BD167" s="110"/>
-      <c r="BE167" s="110"/>
-      <c r="BF167" s="110"/>
-    </row>
-    <row r="168" spans="5:58" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C165" s="105"/>
+      <c r="D165" s="152" t="s">
+        <v>197</v>
+      </c>
+      <c r="E165" s="106"/>
+      <c r="AP165" s="105"/>
+      <c r="AQ165" s="105"/>
+      <c r="AR165" s="105"/>
+      <c r="AS165" s="105"/>
+      <c r="AT165" s="105"/>
+      <c r="AU165" s="105"/>
+      <c r="AV165" s="105"/>
+      <c r="AW165" s="105"/>
+      <c r="AX165" s="105"/>
+      <c r="AY165" s="105"/>
+      <c r="AZ165" s="105"/>
+      <c r="BA165" s="105"/>
+      <c r="BB165" s="105"/>
+      <c r="BC165" s="105"/>
+      <c r="BD165" s="105"/>
+    </row>
+    <row r="166" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C166" s="105"/>
+      <c r="D166" s="106"/>
+      <c r="E166" s="106"/>
+      <c r="AP166" s="105"/>
+      <c r="AQ166" s="105"/>
+      <c r="AR166" s="105"/>
+      <c r="AS166" s="105"/>
+      <c r="AT166" s="105"/>
+      <c r="AU166" s="105"/>
+      <c r="AV166" s="105"/>
+      <c r="AW166" s="105"/>
+      <c r="AX166" s="105"/>
+      <c r="AY166" s="105"/>
+      <c r="AZ166" s="105"/>
+      <c r="BA166" s="105"/>
+      <c r="BB166" s="105"/>
+      <c r="BC166" s="105"/>
+      <c r="BD166" s="105"/>
+    </row>
+    <row r="167" spans="1:58" s="108" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C167" s="29"/>
+      <c r="D167" s="106"/>
+      <c r="E167" s="106" t="s">
+        <v>97</v>
+      </c>
+      <c r="AP167" s="29"/>
+    </row>
+    <row r="168" spans="1:58" x14ac:dyDescent="0.15">
       <c r="E168" s="126"/>
+      <c r="F168" s="127"/>
+      <c r="G168" s="71"/>
       <c r="AJ168" s="110"/>
       <c r="AK168" s="110"/>
       <c r="AL168" s="110"/>
@@ -12819,17 +12856,233 @@
       <c r="BE168" s="110"/>
       <c r="BF168" s="110"/>
     </row>
+    <row r="169" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C169" s="105"/>
+      <c r="D169" s="106"/>
+      <c r="E169" s="106"/>
+      <c r="F169" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP169" s="105"/>
+    </row>
+    <row r="170" spans="1:58" s="108" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A170" s="29"/>
+      <c r="B170" s="107"/>
+      <c r="C170" s="29"/>
+      <c r="D170" s="29"/>
+      <c r="E170" s="29"/>
+      <c r="G170" s="151"/>
+      <c r="H170" s="151"/>
+      <c r="I170" s="151"/>
+      <c r="J170" s="151"/>
+      <c r="K170" s="151"/>
+      <c r="L170" s="151"/>
+      <c r="M170" s="151"/>
+      <c r="N170" s="151"/>
+      <c r="O170" s="151"/>
+      <c r="P170" s="151"/>
+      <c r="Q170" s="151"/>
+      <c r="R170" s="151"/>
+      <c r="S170" s="151"/>
+      <c r="T170" s="151"/>
+      <c r="U170" s="151"/>
+      <c r="V170" s="151"/>
+      <c r="W170" s="151"/>
+      <c r="X170" s="151"/>
+      <c r="Y170" s="151"/>
+      <c r="Z170" s="151"/>
+      <c r="AA170" s="151"/>
+      <c r="AB170" s="151"/>
+      <c r="AC170" s="151"/>
+      <c r="AD170" s="149"/>
+      <c r="AE170" s="149"/>
+      <c r="AF170" s="149"/>
+      <c r="AG170" s="149"/>
+      <c r="AH170" s="149"/>
+      <c r="AI170" s="149"/>
+      <c r="AJ170" s="130"/>
+    </row>
+    <row r="171" spans="1:58" s="108" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AI171" s="125"/>
+      <c r="AJ171" s="125"/>
+      <c r="AK171" s="125"/>
+      <c r="AL171" s="125"/>
+      <c r="AM171" s="125"/>
+      <c r="AN171" s="125"/>
+      <c r="AO171" s="125"/>
+      <c r="AP171" s="125"/>
+      <c r="AQ171" s="125"/>
+      <c r="AR171" s="125"/>
+      <c r="AS171" s="125"/>
+      <c r="AT171" s="125"/>
+      <c r="AU171" s="125"/>
+      <c r="AV171" s="125"/>
+      <c r="AW171" s="125"/>
+      <c r="AX171" s="125"/>
+      <c r="AY171" s="125"/>
+      <c r="AZ171" s="125"/>
+      <c r="BA171" s="125"/>
+      <c r="BB171" s="125"/>
+      <c r="BC171" s="125"/>
+      <c r="BD171" s="125"/>
+      <c r="BE171" s="125"/>
+    </row>
+    <row r="172" spans="1:58" x14ac:dyDescent="0.15">
+      <c r="E172" s="103" t="s">
+        <v>147</v>
+      </c>
+      <c r="G172" s="107"/>
+      <c r="AJ172" s="110"/>
+      <c r="AK172" s="110"/>
+      <c r="AL172" s="110"/>
+      <c r="AM172" s="110"/>
+      <c r="AN172" s="110"/>
+      <c r="AO172" s="110"/>
+      <c r="AP172" s="110"/>
+      <c r="AQ172" s="110"/>
+      <c r="AR172" s="110"/>
+      <c r="AS172" s="110"/>
+      <c r="AT172" s="110"/>
+      <c r="AU172" s="110"/>
+      <c r="AV172" s="110"/>
+      <c r="AW172" s="110"/>
+      <c r="AX172" s="110"/>
+      <c r="AY172" s="110"/>
+      <c r="AZ172" s="110"/>
+      <c r="BA172" s="110"/>
+      <c r="BB172" s="110"/>
+      <c r="BC172" s="110"/>
+      <c r="BD172" s="110"/>
+      <c r="BE172" s="110"/>
+      <c r="BF172" s="110"/>
+    </row>
+    <row r="173" spans="1:58" x14ac:dyDescent="0.15">
+      <c r="H173" s="107"/>
+      <c r="AJ173" s="110"/>
+      <c r="AK173" s="110"/>
+      <c r="AL173" s="110"/>
+      <c r="AM173" s="110"/>
+      <c r="AN173" s="110"/>
+      <c r="AO173" s="110"/>
+      <c r="AP173" s="110"/>
+      <c r="AQ173" s="110"/>
+      <c r="AR173" s="110"/>
+      <c r="AS173" s="110"/>
+      <c r="AT173" s="110"/>
+      <c r="AU173" s="110"/>
+      <c r="AV173" s="110"/>
+      <c r="AW173" s="110"/>
+      <c r="AX173" s="110"/>
+      <c r="AY173" s="110"/>
+      <c r="AZ173" s="110"/>
+      <c r="BA173" s="110"/>
+      <c r="BB173" s="110"/>
+      <c r="BC173" s="110"/>
+      <c r="BD173" s="110"/>
+      <c r="BE173" s="110"/>
+      <c r="BF173" s="110"/>
+    </row>
+    <row r="174" spans="1:58" x14ac:dyDescent="0.15">
+      <c r="E174" s="126"/>
+      <c r="F174" s="71" t="s">
+        <v>198</v>
+      </c>
+      <c r="AJ174" s="110"/>
+      <c r="AK174" s="110"/>
+      <c r="AL174" s="110"/>
+      <c r="AM174" s="110"/>
+      <c r="AN174" s="110"/>
+      <c r="AO174" s="110"/>
+      <c r="AP174" s="110"/>
+      <c r="AQ174" s="110"/>
+      <c r="AR174" s="110"/>
+      <c r="AS174" s="110"/>
+      <c r="AT174" s="110"/>
+      <c r="AU174" s="110"/>
+      <c r="AV174" s="110"/>
+      <c r="AW174" s="110"/>
+      <c r="AX174" s="110"/>
+      <c r="AY174" s="110"/>
+      <c r="AZ174" s="110"/>
+      <c r="BA174" s="110"/>
+      <c r="BB174" s="110"/>
+      <c r="BC174" s="110"/>
+      <c r="BD174" s="110"/>
+      <c r="BE174" s="110"/>
+      <c r="BF174" s="110"/>
+    </row>
+    <row r="175" spans="1:58" x14ac:dyDescent="0.15">
+      <c r="E175" s="126"/>
+      <c r="F175" s="71"/>
+      <c r="G175" s="71"/>
+      <c r="AJ175" s="110"/>
+      <c r="AK175" s="110"/>
+      <c r="AL175" s="110"/>
+      <c r="AM175" s="110"/>
+      <c r="AN175" s="110"/>
+      <c r="AO175" s="110"/>
+      <c r="AP175" s="110"/>
+      <c r="AQ175" s="110"/>
+      <c r="AR175" s="110"/>
+      <c r="AS175" s="110"/>
+      <c r="AT175" s="110"/>
+      <c r="AU175" s="110"/>
+      <c r="AV175" s="110"/>
+      <c r="AW175" s="110"/>
+      <c r="AX175" s="110"/>
+      <c r="AY175" s="110"/>
+      <c r="AZ175" s="110"/>
+      <c r="BA175" s="110"/>
+      <c r="BB175" s="110"/>
+      <c r="BC175" s="110"/>
+      <c r="BD175" s="110"/>
+      <c r="BE175" s="110"/>
+      <c r="BF175" s="110"/>
+    </row>
+    <row r="176" spans="1:58" x14ac:dyDescent="0.15">
+      <c r="E176" s="126"/>
+      <c r="AJ176" s="110"/>
+      <c r="AK176" s="110"/>
+      <c r="AL176" s="110"/>
+      <c r="AM176" s="110"/>
+      <c r="AN176" s="110"/>
+      <c r="AO176" s="110"/>
+      <c r="AP176" s="110"/>
+      <c r="AQ176" s="110"/>
+      <c r="AR176" s="110"/>
+      <c r="AS176" s="110"/>
+      <c r="AT176" s="110"/>
+      <c r="AU176" s="110"/>
+      <c r="AV176" s="110"/>
+      <c r="AW176" s="110"/>
+      <c r="AX176" s="110"/>
+      <c r="AY176" s="110"/>
+      <c r="AZ176" s="110"/>
+      <c r="BA176" s="110"/>
+      <c r="BB176" s="110"/>
+      <c r="BC176" s="110"/>
+      <c r="BD176" s="110"/>
+      <c r="BE176" s="110"/>
+      <c r="BF176" s="110"/>
+    </row>
   </sheetData>
-  <mergeCells count="118">
-    <mergeCell ref="AE66:AH66"/>
-    <mergeCell ref="Z66:AD66"/>
-    <mergeCell ref="AE67:AH67"/>
+  <mergeCells count="123">
     <mergeCell ref="K66:Q66"/>
-    <mergeCell ref="G112:P112"/>
-    <mergeCell ref="Q112:Z112"/>
+    <mergeCell ref="G115:P115"/>
+    <mergeCell ref="Q115:Z115"/>
     <mergeCell ref="O58:O59"/>
     <mergeCell ref="V58:AH59"/>
     <mergeCell ref="T59:U59"/>
+    <mergeCell ref="G99:P99"/>
+    <mergeCell ref="Q99:Z99"/>
+    <mergeCell ref="G90:L90"/>
+    <mergeCell ref="M89:V89"/>
+    <mergeCell ref="W90:Y90"/>
+    <mergeCell ref="E69:J69"/>
+    <mergeCell ref="K69:Q69"/>
+    <mergeCell ref="R69:Y69"/>
+    <mergeCell ref="Z69:AD69"/>
+    <mergeCell ref="AE69:AH69"/>
     <mergeCell ref="AD49:AG51"/>
     <mergeCell ref="Z52:AB52"/>
     <mergeCell ref="AD53:AG53"/>
@@ -12839,6 +13092,9 @@
     <mergeCell ref="R68:Y68"/>
     <mergeCell ref="Z68:AD68"/>
     <mergeCell ref="AE68:AH68"/>
+    <mergeCell ref="AE66:AH66"/>
+    <mergeCell ref="Z66:AD66"/>
+    <mergeCell ref="AE67:AH67"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
@@ -12861,12 +13117,25 @@
     <mergeCell ref="Q43:U43"/>
     <mergeCell ref="V43:AC43"/>
     <mergeCell ref="E67:J67"/>
+    <mergeCell ref="Z90:AC90"/>
     <mergeCell ref="Z89:AC89"/>
-    <mergeCell ref="Z88:AC88"/>
-    <mergeCell ref="M89:V89"/>
+    <mergeCell ref="M90:V90"/>
     <mergeCell ref="R67:Y67"/>
     <mergeCell ref="Z67:AD67"/>
-    <mergeCell ref="W88:Y88"/>
+    <mergeCell ref="W89:Y89"/>
+    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="E68:J68"/>
+    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="Q44:U44"/>
+    <mergeCell ref="V44:AC44"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="M52:T52"/>
+    <mergeCell ref="E44:M44"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="AD89:AG89"/>
+    <mergeCell ref="AD90:AG90"/>
+    <mergeCell ref="G89:L89"/>
     <mergeCell ref="D49:D51"/>
     <mergeCell ref="M50:T51"/>
     <mergeCell ref="D58:D59"/>
@@ -12877,15 +13146,10 @@
     <mergeCell ref="V61:AH61"/>
     <mergeCell ref="K61:N61"/>
     <mergeCell ref="R66:Y66"/>
-    <mergeCell ref="K67:Q67"/>
     <mergeCell ref="E60:J60"/>
     <mergeCell ref="K60:N60"/>
     <mergeCell ref="T60:U60"/>
     <mergeCell ref="V60:AH60"/>
-    <mergeCell ref="E68:J68"/>
-    <mergeCell ref="K68:Q68"/>
-    <mergeCell ref="Q44:U44"/>
-    <mergeCell ref="V44:AC44"/>
     <mergeCell ref="U53:Y53"/>
     <mergeCell ref="Z53:AB53"/>
     <mergeCell ref="E52:H52"/>
@@ -12895,50 +13159,37 @@
     <mergeCell ref="E49:AC49"/>
     <mergeCell ref="Z50:AB51"/>
     <mergeCell ref="AC50:AC51"/>
-    <mergeCell ref="N44:P44"/>
     <mergeCell ref="M53:T53"/>
-    <mergeCell ref="M52:T52"/>
-    <mergeCell ref="E44:M44"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="I142:N142"/>
-    <mergeCell ref="T142:Y142"/>
-    <mergeCell ref="Z142:AE142"/>
-    <mergeCell ref="Q103:Z103"/>
-    <mergeCell ref="H140:H141"/>
-    <mergeCell ref="I140:N141"/>
-    <mergeCell ref="O140:Y140"/>
-    <mergeCell ref="Z140:AE141"/>
-    <mergeCell ref="O141:S141"/>
+    <mergeCell ref="I141:N141"/>
     <mergeCell ref="T141:Y141"/>
-    <mergeCell ref="G113:P114"/>
-    <mergeCell ref="Q113:Z113"/>
-    <mergeCell ref="Q114:Z114"/>
-    <mergeCell ref="G115:Z115"/>
-    <mergeCell ref="G98:P98"/>
-    <mergeCell ref="Q98:Z98"/>
-    <mergeCell ref="G99:P104"/>
-    <mergeCell ref="Q99:Z99"/>
+    <mergeCell ref="Z141:AE141"/>
     <mergeCell ref="Q104:Z104"/>
-    <mergeCell ref="G105:Z105"/>
-    <mergeCell ref="AD88:AG88"/>
-    <mergeCell ref="AD89:AG89"/>
-    <mergeCell ref="G88:L88"/>
-    <mergeCell ref="G89:L89"/>
-    <mergeCell ref="M88:V88"/>
-    <mergeCell ref="W89:Y89"/>
-    <mergeCell ref="I153:N153"/>
-    <mergeCell ref="T153:Y153"/>
-    <mergeCell ref="Z153:AE153"/>
+    <mergeCell ref="H139:H140"/>
+    <mergeCell ref="I139:N140"/>
+    <mergeCell ref="O139:Y139"/>
+    <mergeCell ref="Z139:AE140"/>
+    <mergeCell ref="O140:S140"/>
+    <mergeCell ref="T140:Y140"/>
+    <mergeCell ref="G116:P117"/>
+    <mergeCell ref="Q116:Z116"/>
+    <mergeCell ref="Q117:Z117"/>
+    <mergeCell ref="G118:Z118"/>
+    <mergeCell ref="G100:P105"/>
+    <mergeCell ref="Q100:Z100"/>
+    <mergeCell ref="Q105:Z105"/>
+    <mergeCell ref="G106:Z106"/>
     <mergeCell ref="I152:N152"/>
     <mergeCell ref="T152:Y152"/>
     <mergeCell ref="Z152:AE152"/>
-    <mergeCell ref="H150:H151"/>
-    <mergeCell ref="I150:N151"/>
-    <mergeCell ref="O150:Y150"/>
-    <mergeCell ref="Z150:AE151"/>
-    <mergeCell ref="O151:S151"/>
+    <mergeCell ref="I151:N151"/>
     <mergeCell ref="T151:Y151"/>
+    <mergeCell ref="Z151:AE151"/>
+    <mergeCell ref="H149:H150"/>
+    <mergeCell ref="I149:N150"/>
+    <mergeCell ref="O149:Y149"/>
+    <mergeCell ref="Z149:AE150"/>
+    <mergeCell ref="O150:S150"/>
+    <mergeCell ref="T150:Y150"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="5">
@@ -12964,11 +13215,12 @@
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>
-  <rowBreaks count="4" manualBreakCount="4">
+  <rowBreaks count="5" manualBreakCount="5">
     <brk id="40" max="34" man="1"/>
-    <brk id="70" max="34" man="1"/>
-    <brk id="109" max="34" man="1"/>
-    <brk id="119" max="34" man="1"/>
+    <brk id="71" max="34" man="1"/>
+    <brk id="112" max="34" man="1"/>
+    <brk id="122" max="34" man="1"/>
+    <brk id="164" max="34" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -12979,7 +13231,7 @@
           <x14:formula1>
             <xm:f>データ!$D$2:$D$4</xm:f>
           </x14:formula1>
-          <xm:sqref>AH69 AE67:AH68</xm:sqref>
+          <xm:sqref>AH70 AE67:AH69</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(画面)_WA10101_ログイン.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(画面)_WA10101_ログイン.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A2A76A-A96F-4FFA-B462-1ABD5ADA7471}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF76404B-1B2C-4D04-B28D-3A1C87C0921A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'2. WA10101(ログイン画面)'!#REF!</definedName>
     <definedName name="_Toc46209822" localSheetId="3">'1.  画面取引定義'!$B$5</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'1.  画面取引定義'!$A$1:$AI$21</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'2. WA10101(ログイン画面)'!$A$1:$AI$180</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'2. WA10101(ログイン画面)'!$A$1:$AI$183</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">データ!$A$1:$E$13</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
@@ -277,7 +277,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="208">
   <si>
     <t>PJ名</t>
   </si>
@@ -1628,38 +1628,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>エ.「(2) 検索処理」の検索結果を認証情報としてセッションに追加する。</t>
-    <rPh sb="7" eb="9">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>ウ.セキュリティ対策として、セッション再作成、CSRFトークン発行を実施する。</t>
-    <rPh sb="8" eb="10">
-      <t>タイサク</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>(b) ユーザ検索条件</t>
     <rPh sb="7" eb="9">
       <t>ケンサク</t>
@@ -1782,7 +1750,89 @@
     <phoneticPr fontId="14"/>
   </si>
   <si>
+    <t>(b)認証失敗回数チェック</t>
+    <rPh sb="3" eb="5">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイスウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>(c)パスワード認証</t>
+    <rPh sb="8" eb="10">
+      <t>ニンショウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>(d)TOPメニュー画面へ遷移する。</t>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>ウ.パスワード有効期限が現在日付より前日の場合、無効なアカウントとしてエラーメッセージを表示し、後続処理中止する。</t>
+    <rPh sb="7" eb="11">
+      <t>ユウコウキゲン</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>ゲンザイヒヅケ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ゼンジツ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ムコウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>エ.セキュリティ対策として、セッション再作成、CSRFトークン発行を実施する。</t>
+    <rPh sb="8" eb="10">
+      <t>タイサク</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>オ.「(2) 検索処理」の検索結果を認証情報としてセッションに追加する。</t>
+    <rPh sb="7" eb="9">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
     <t>・(2) DBアクセス（検索処理）：実装に合わせて検索条件修正
+・(3)　表示処理：パスワード有効期限判定追記
 ・(3)　表示処理：パスワード認証成功時のセキュリティ対策追記
 ・ログアウト処理を追記</t>
     <rPh sb="18" eb="20">
@@ -1798,54 +1848,24 @@
       <t>シュウセイ</t>
     </rPh>
     <rPh sb="47" eb="49">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="49" eb="52">
-      <t>セイコウジ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>タイサク</t>
-    </rPh>
-    <rPh sb="61" eb="63">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
       <t>ツイキ</t>
     </rPh>
-    <rPh sb="70" eb="72">
+    <rPh sb="94" eb="96">
       <t>ショリ</t>
     </rPh>
-    <rPh sb="73" eb="75">
+    <rPh sb="97" eb="99">
       <t>ツイキ</t>
     </rPh>
     <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>(b)認証失敗回数チェック</t>
-    <rPh sb="3" eb="5">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シッパイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カイスウ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>(c)パスワード認証</t>
-    <rPh sb="8" eb="10">
-      <t>ニンショウ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>(d)TOPメニュー画面へ遷移する。</t>
-    <rPh sb="10" eb="12">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
   </si>
 </sst>
 </file>
@@ -2977,6 +2997,153 @@
     <xf numFmtId="31" fontId="8" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3019,151 +3186,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3193,18 +3225,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3256,33 +3276,15 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3291,249 +3293,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3544,6 +3303,24 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3553,6 +3330,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -3564,6 +3347,243 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -4444,7 +4464,7 @@
       <c r="H23" s="5"/>
       <c r="I23" s="19"/>
       <c r="J23" s="15" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K23" s="19"/>
       <c r="L23" s="19"/>
@@ -5089,7 +5109,7 @@
   <dimension ref="A1:AN34"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10:AE10"/>
+      <selection activeCell="D14" sqref="D14:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -5098,57 +5118,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="251" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="203"/>
-      <c r="C1" s="203"/>
-      <c r="D1" s="204"/>
-      <c r="E1" s="250" t="s">
+      <c r="B1" s="252"/>
+      <c r="C1" s="252"/>
+      <c r="D1" s="253"/>
+      <c r="E1" s="220" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="251"/>
-      <c r="G1" s="251"/>
-      <c r="H1" s="251"/>
-      <c r="I1" s="251"/>
-      <c r="J1" s="251"/>
-      <c r="K1" s="251"/>
-      <c r="L1" s="251"/>
-      <c r="M1" s="251"/>
-      <c r="N1" s="252"/>
-      <c r="O1" s="205" t="s">
+      <c r="F1" s="221"/>
+      <c r="G1" s="221"/>
+      <c r="H1" s="221"/>
+      <c r="I1" s="221"/>
+      <c r="J1" s="221"/>
+      <c r="K1" s="221"/>
+      <c r="L1" s="221"/>
+      <c r="M1" s="221"/>
+      <c r="N1" s="222"/>
+      <c r="O1" s="254" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="206"/>
-      <c r="Q1" s="206"/>
-      <c r="R1" s="207"/>
-      <c r="S1" s="256" t="s">
+      <c r="P1" s="255"/>
+      <c r="Q1" s="255"/>
+      <c r="R1" s="256"/>
+      <c r="S1" s="232" t="s">
         <v>139</v>
       </c>
-      <c r="T1" s="257"/>
-      <c r="U1" s="257"/>
-      <c r="V1" s="257"/>
-      <c r="W1" s="257"/>
-      <c r="X1" s="257"/>
-      <c r="Y1" s="257"/>
-      <c r="Z1" s="258"/>
-      <c r="AA1" s="202" t="s">
+      <c r="T1" s="233"/>
+      <c r="U1" s="233"/>
+      <c r="V1" s="233"/>
+      <c r="W1" s="233"/>
+      <c r="X1" s="233"/>
+      <c r="Y1" s="233"/>
+      <c r="Z1" s="234"/>
+      <c r="AA1" s="251" t="s">
         <v>35</v>
       </c>
-      <c r="AB1" s="204"/>
-      <c r="AC1" s="238" t="str">
+      <c r="AB1" s="253"/>
+      <c r="AC1" s="202" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="239"/>
-      <c r="AE1" s="239"/>
-      <c r="AF1" s="240"/>
-      <c r="AG1" s="244">
+      <c r="AD1" s="203"/>
+      <c r="AE1" s="203"/>
+      <c r="AF1" s="204"/>
+      <c r="AG1" s="208">
         <f>IF(D8="","",D8)</f>
         <v>43656</v>
       </c>
-      <c r="AH1" s="245"/>
-      <c r="AI1" s="246"/>
+      <c r="AH1" s="209"/>
+      <c r="AI1" s="210"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="9"/>
@@ -5156,53 +5176,53 @@
       <c r="AN1" s="10"/>
     </row>
     <row r="2" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="202" t="s">
+      <c r="A2" s="251" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="203"/>
-      <c r="C2" s="203"/>
-      <c r="D2" s="204"/>
-      <c r="E2" s="250" t="s">
+      <c r="B2" s="252"/>
+      <c r="C2" s="252"/>
+      <c r="D2" s="253"/>
+      <c r="E2" s="220" t="s">
         <v>112</v>
       </c>
-      <c r="F2" s="251"/>
-      <c r="G2" s="251"/>
-      <c r="H2" s="251"/>
-      <c r="I2" s="251"/>
-      <c r="J2" s="251"/>
-      <c r="K2" s="251"/>
-      <c r="L2" s="251"/>
-      <c r="M2" s="251"/>
-      <c r="N2" s="252"/>
-      <c r="O2" s="208"/>
-      <c r="P2" s="209"/>
-      <c r="Q2" s="209"/>
-      <c r="R2" s="210"/>
-      <c r="S2" s="259"/>
-      <c r="T2" s="260"/>
-      <c r="U2" s="260"/>
-      <c r="V2" s="260"/>
-      <c r="W2" s="260"/>
-      <c r="X2" s="260"/>
-      <c r="Y2" s="260"/>
-      <c r="Z2" s="261"/>
-      <c r="AA2" s="202" t="s">
+      <c r="F2" s="221"/>
+      <c r="G2" s="221"/>
+      <c r="H2" s="221"/>
+      <c r="I2" s="221"/>
+      <c r="J2" s="221"/>
+      <c r="K2" s="221"/>
+      <c r="L2" s="221"/>
+      <c r="M2" s="221"/>
+      <c r="N2" s="222"/>
+      <c r="O2" s="257"/>
+      <c r="P2" s="258"/>
+      <c r="Q2" s="258"/>
+      <c r="R2" s="259"/>
+      <c r="S2" s="235"/>
+      <c r="T2" s="236"/>
+      <c r="U2" s="236"/>
+      <c r="V2" s="236"/>
+      <c r="W2" s="236"/>
+      <c r="X2" s="236"/>
+      <c r="Y2" s="236"/>
+      <c r="Z2" s="237"/>
+      <c r="AA2" s="251" t="s">
         <v>36</v>
       </c>
-      <c r="AB2" s="204"/>
-      <c r="AC2" s="247" t="str">
+      <c r="AB2" s="253"/>
+      <c r="AC2" s="211" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="248"/>
-      <c r="AE2" s="248"/>
-      <c r="AF2" s="249"/>
-      <c r="AG2" s="244">
+      <c r="AD2" s="212"/>
+      <c r="AE2" s="212"/>
+      <c r="AF2" s="213"/>
+      <c r="AG2" s="208">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="245"/>
-      <c r="AI2" s="246"/>
+      <c r="AH2" s="209"/>
+      <c r="AI2" s="210"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
@@ -5210,45 +5230,45 @@
       <c r="AN2" s="9"/>
     </row>
     <row r="3" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="202" t="s">
+      <c r="A3" s="251" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="203"/>
-      <c r="C3" s="203"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="250" t="s">
+      <c r="B3" s="252"/>
+      <c r="C3" s="252"/>
+      <c r="D3" s="253"/>
+      <c r="E3" s="220" t="s">
         <v>134</v>
       </c>
-      <c r="F3" s="251"/>
-      <c r="G3" s="251"/>
-      <c r="H3" s="251"/>
-      <c r="I3" s="251"/>
-      <c r="J3" s="251"/>
-      <c r="K3" s="251"/>
-      <c r="L3" s="251"/>
-      <c r="M3" s="251"/>
-      <c r="N3" s="252"/>
-      <c r="O3" s="211"/>
-      <c r="P3" s="212"/>
-      <c r="Q3" s="212"/>
-      <c r="R3" s="213"/>
-      <c r="S3" s="262"/>
-      <c r="T3" s="263"/>
-      <c r="U3" s="263"/>
-      <c r="V3" s="263"/>
-      <c r="W3" s="263"/>
-      <c r="X3" s="263"/>
-      <c r="Y3" s="263"/>
-      <c r="Z3" s="264"/>
-      <c r="AA3" s="214"/>
-      <c r="AB3" s="215"/>
-      <c r="AC3" s="238"/>
-      <c r="AD3" s="239"/>
-      <c r="AE3" s="239"/>
-      <c r="AF3" s="240"/>
-      <c r="AG3" s="244"/>
-      <c r="AH3" s="245"/>
-      <c r="AI3" s="246"/>
+      <c r="F3" s="221"/>
+      <c r="G3" s="221"/>
+      <c r="H3" s="221"/>
+      <c r="I3" s="221"/>
+      <c r="J3" s="221"/>
+      <c r="K3" s="221"/>
+      <c r="L3" s="221"/>
+      <c r="M3" s="221"/>
+      <c r="N3" s="222"/>
+      <c r="O3" s="260"/>
+      <c r="P3" s="261"/>
+      <c r="Q3" s="261"/>
+      <c r="R3" s="262"/>
+      <c r="S3" s="238"/>
+      <c r="T3" s="239"/>
+      <c r="U3" s="239"/>
+      <c r="V3" s="239"/>
+      <c r="W3" s="239"/>
+      <c r="X3" s="239"/>
+      <c r="Y3" s="239"/>
+      <c r="Z3" s="240"/>
+      <c r="AA3" s="263"/>
+      <c r="AB3" s="264"/>
+      <c r="AC3" s="202"/>
+      <c r="AD3" s="203"/>
+      <c r="AE3" s="203"/>
+      <c r="AF3" s="204"/>
+      <c r="AG3" s="208"/>
+      <c r="AH3" s="209"/>
+      <c r="AI3" s="210"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
@@ -5387,1042 +5407,1042 @@
       <c r="A7" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="228" t="s">
+      <c r="B7" s="217" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="229"/>
-      <c r="D7" s="228" t="s">
+      <c r="C7" s="219"/>
+      <c r="D7" s="217" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="230"/>
-      <c r="F7" s="229"/>
-      <c r="G7" s="228" t="s">
+      <c r="E7" s="218"/>
+      <c r="F7" s="219"/>
+      <c r="G7" s="217" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="230"/>
-      <c r="I7" s="229"/>
-      <c r="J7" s="228" t="s">
+      <c r="H7" s="218"/>
+      <c r="I7" s="219"/>
+      <c r="J7" s="217" t="s">
         <v>85</v>
       </c>
-      <c r="K7" s="230"/>
-      <c r="L7" s="230"/>
-      <c r="M7" s="230"/>
-      <c r="N7" s="230"/>
-      <c r="O7" s="230"/>
-      <c r="P7" s="229"/>
-      <c r="Q7" s="228" t="s">
+      <c r="K7" s="218"/>
+      <c r="L7" s="218"/>
+      <c r="M7" s="218"/>
+      <c r="N7" s="218"/>
+      <c r="O7" s="218"/>
+      <c r="P7" s="219"/>
+      <c r="Q7" s="217" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="230"/>
-      <c r="S7" s="230"/>
-      <c r="T7" s="230"/>
-      <c r="U7" s="230"/>
-      <c r="V7" s="230"/>
-      <c r="W7" s="230"/>
-      <c r="X7" s="230"/>
-      <c r="Y7" s="230"/>
-      <c r="Z7" s="230"/>
-      <c r="AA7" s="230"/>
-      <c r="AB7" s="230"/>
-      <c r="AC7" s="230"/>
-      <c r="AD7" s="230"/>
-      <c r="AE7" s="229"/>
-      <c r="AF7" s="228" t="s">
+      <c r="R7" s="218"/>
+      <c r="S7" s="218"/>
+      <c r="T7" s="218"/>
+      <c r="U7" s="218"/>
+      <c r="V7" s="218"/>
+      <c r="W7" s="218"/>
+      <c r="X7" s="218"/>
+      <c r="Y7" s="218"/>
+      <c r="Z7" s="218"/>
+      <c r="AA7" s="218"/>
+      <c r="AB7" s="218"/>
+      <c r="AC7" s="218"/>
+      <c r="AD7" s="218"/>
+      <c r="AE7" s="219"/>
+      <c r="AF7" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="230"/>
-      <c r="AH7" s="230"/>
-      <c r="AI7" s="229"/>
+      <c r="AG7" s="218"/>
+      <c r="AH7" s="218"/>
+      <c r="AI7" s="219"/>
     </row>
     <row r="8" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="56">
         <v>1</v>
       </c>
-      <c r="B8" s="231" t="s">
+      <c r="B8" s="244" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="232"/>
-      <c r="D8" s="233">
+      <c r="C8" s="245"/>
+      <c r="D8" s="246">
         <v>43656</v>
       </c>
-      <c r="E8" s="234"/>
-      <c r="F8" s="235"/>
-      <c r="G8" s="236" t="s">
+      <c r="E8" s="247"/>
+      <c r="F8" s="248"/>
+      <c r="G8" s="249" t="s">
         <v>107</v>
       </c>
-      <c r="H8" s="237"/>
-      <c r="I8" s="232"/>
-      <c r="J8" s="253" t="s">
+      <c r="H8" s="250"/>
+      <c r="I8" s="245"/>
+      <c r="J8" s="229" t="s">
         <v>108</v>
       </c>
-      <c r="K8" s="254"/>
-      <c r="L8" s="254"/>
-      <c r="M8" s="254"/>
-      <c r="N8" s="254"/>
-      <c r="O8" s="254"/>
-      <c r="P8" s="255"/>
-      <c r="Q8" s="241" t="s">
+      <c r="K8" s="230"/>
+      <c r="L8" s="230"/>
+      <c r="M8" s="230"/>
+      <c r="N8" s="230"/>
+      <c r="O8" s="230"/>
+      <c r="P8" s="231"/>
+      <c r="Q8" s="205" t="s">
         <v>109</v>
       </c>
-      <c r="R8" s="242"/>
-      <c r="S8" s="242"/>
-      <c r="T8" s="242"/>
-      <c r="U8" s="242"/>
-      <c r="V8" s="242"/>
-      <c r="W8" s="242"/>
-      <c r="X8" s="242"/>
-      <c r="Y8" s="242"/>
-      <c r="Z8" s="242"/>
-      <c r="AA8" s="242"/>
-      <c r="AB8" s="242"/>
-      <c r="AC8" s="242"/>
-      <c r="AD8" s="242"/>
-      <c r="AE8" s="243"/>
-      <c r="AF8" s="253" t="s">
+      <c r="R8" s="206"/>
+      <c r="S8" s="206"/>
+      <c r="T8" s="206"/>
+      <c r="U8" s="206"/>
+      <c r="V8" s="206"/>
+      <c r="W8" s="206"/>
+      <c r="X8" s="206"/>
+      <c r="Y8" s="206"/>
+      <c r="Z8" s="206"/>
+      <c r="AA8" s="206"/>
+      <c r="AB8" s="206"/>
+      <c r="AC8" s="206"/>
+      <c r="AD8" s="206"/>
+      <c r="AE8" s="207"/>
+      <c r="AF8" s="229" t="s">
         <v>110</v>
       </c>
-      <c r="AG8" s="254"/>
-      <c r="AH8" s="254"/>
-      <c r="AI8" s="255"/>
-    </row>
-    <row r="9" spans="1:40" s="55" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AG8" s="230"/>
+      <c r="AH8" s="230"/>
+      <c r="AI8" s="231"/>
+    </row>
+    <row r="9" spans="1:40" s="55" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="57">
         <v>2</v>
       </c>
-      <c r="B9" s="222" t="s">
-        <v>190</v>
-      </c>
-      <c r="C9" s="223"/>
-      <c r="D9" s="224">
+      <c r="B9" s="214" t="s">
+        <v>188</v>
+      </c>
+      <c r="C9" s="216"/>
+      <c r="D9" s="241">
         <v>44796</v>
       </c>
-      <c r="E9" s="225"/>
-      <c r="F9" s="226"/>
-      <c r="G9" s="222" t="s">
-        <v>191</v>
-      </c>
-      <c r="H9" s="227"/>
-      <c r="I9" s="223"/>
-      <c r="J9" s="216" t="s">
-        <v>202</v>
-      </c>
-      <c r="K9" s="220"/>
-      <c r="L9" s="220"/>
-      <c r="M9" s="220"/>
-      <c r="N9" s="220"/>
-      <c r="O9" s="220"/>
-      <c r="P9" s="221"/>
-      <c r="Q9" s="216" t="s">
-        <v>203</v>
-      </c>
-      <c r="R9" s="217"/>
-      <c r="S9" s="217"/>
-      <c r="T9" s="217"/>
-      <c r="U9" s="217"/>
-      <c r="V9" s="217"/>
-      <c r="W9" s="217"/>
-      <c r="X9" s="217"/>
-      <c r="Y9" s="217"/>
-      <c r="Z9" s="217"/>
-      <c r="AA9" s="217"/>
-      <c r="AB9" s="217"/>
-      <c r="AC9" s="217"/>
-      <c r="AD9" s="217"/>
-      <c r="AE9" s="218"/>
-      <c r="AF9" s="219" t="s">
+      <c r="E9" s="242"/>
+      <c r="F9" s="243"/>
+      <c r="G9" s="214" t="s">
         <v>189</v>
       </c>
-      <c r="AG9" s="220"/>
-      <c r="AH9" s="220"/>
-      <c r="AI9" s="221"/>
+      <c r="H9" s="215"/>
+      <c r="I9" s="216"/>
+      <c r="J9" s="223" t="s">
+        <v>200</v>
+      </c>
+      <c r="K9" s="227"/>
+      <c r="L9" s="227"/>
+      <c r="M9" s="227"/>
+      <c r="N9" s="227"/>
+      <c r="O9" s="227"/>
+      <c r="P9" s="228"/>
+      <c r="Q9" s="223" t="s">
+        <v>207</v>
+      </c>
+      <c r="R9" s="224"/>
+      <c r="S9" s="224"/>
+      <c r="T9" s="224"/>
+      <c r="U9" s="224"/>
+      <c r="V9" s="224"/>
+      <c r="W9" s="224"/>
+      <c r="X9" s="224"/>
+      <c r="Y9" s="224"/>
+      <c r="Z9" s="224"/>
+      <c r="AA9" s="224"/>
+      <c r="AB9" s="224"/>
+      <c r="AC9" s="224"/>
+      <c r="AD9" s="224"/>
+      <c r="AE9" s="225"/>
+      <c r="AF9" s="226" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG9" s="227"/>
+      <c r="AH9" s="227"/>
+      <c r="AI9" s="228"/>
     </row>
     <row r="10" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="57"/>
-      <c r="B10" s="222"/>
-      <c r="C10" s="223"/>
-      <c r="D10" s="224"/>
-      <c r="E10" s="225"/>
-      <c r="F10" s="226"/>
-      <c r="G10" s="222"/>
-      <c r="H10" s="227"/>
-      <c r="I10" s="223"/>
-      <c r="J10" s="219"/>
-      <c r="K10" s="220"/>
-      <c r="L10" s="220"/>
-      <c r="M10" s="220"/>
-      <c r="N10" s="220"/>
-      <c r="O10" s="220"/>
-      <c r="P10" s="221"/>
-      <c r="Q10" s="216"/>
-      <c r="R10" s="217"/>
-      <c r="S10" s="217"/>
-      <c r="T10" s="217"/>
-      <c r="U10" s="217"/>
-      <c r="V10" s="217"/>
-      <c r="W10" s="217"/>
-      <c r="X10" s="217"/>
-      <c r="Y10" s="217"/>
-      <c r="Z10" s="217"/>
-      <c r="AA10" s="217"/>
-      <c r="AB10" s="217"/>
-      <c r="AC10" s="217"/>
-      <c r="AD10" s="217"/>
-      <c r="AE10" s="218"/>
-      <c r="AF10" s="219"/>
-      <c r="AG10" s="220"/>
-      <c r="AH10" s="220"/>
-      <c r="AI10" s="221"/>
+      <c r="B10" s="214"/>
+      <c r="C10" s="216"/>
+      <c r="D10" s="241"/>
+      <c r="E10" s="242"/>
+      <c r="F10" s="243"/>
+      <c r="G10" s="214"/>
+      <c r="H10" s="215"/>
+      <c r="I10" s="216"/>
+      <c r="J10" s="226"/>
+      <c r="K10" s="227"/>
+      <c r="L10" s="227"/>
+      <c r="M10" s="227"/>
+      <c r="N10" s="227"/>
+      <c r="O10" s="227"/>
+      <c r="P10" s="228"/>
+      <c r="Q10" s="223"/>
+      <c r="R10" s="224"/>
+      <c r="S10" s="224"/>
+      <c r="T10" s="224"/>
+      <c r="U10" s="224"/>
+      <c r="V10" s="224"/>
+      <c r="W10" s="224"/>
+      <c r="X10" s="224"/>
+      <c r="Y10" s="224"/>
+      <c r="Z10" s="224"/>
+      <c r="AA10" s="224"/>
+      <c r="AB10" s="224"/>
+      <c r="AC10" s="224"/>
+      <c r="AD10" s="224"/>
+      <c r="AE10" s="225"/>
+      <c r="AF10" s="226"/>
+      <c r="AG10" s="227"/>
+      <c r="AH10" s="227"/>
+      <c r="AI10" s="228"/>
     </row>
     <row r="11" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="57"/>
-      <c r="B11" s="222"/>
-      <c r="C11" s="223"/>
-      <c r="D11" s="224"/>
-      <c r="E11" s="225"/>
-      <c r="F11" s="226"/>
-      <c r="G11" s="222"/>
-      <c r="H11" s="227"/>
-      <c r="I11" s="223"/>
-      <c r="J11" s="219"/>
-      <c r="K11" s="220"/>
-      <c r="L11" s="220"/>
-      <c r="M11" s="220"/>
-      <c r="N11" s="220"/>
-      <c r="O11" s="220"/>
-      <c r="P11" s="221"/>
-      <c r="Q11" s="216"/>
-      <c r="R11" s="217"/>
-      <c r="S11" s="217"/>
-      <c r="T11" s="217"/>
-      <c r="U11" s="217"/>
-      <c r="V11" s="217"/>
-      <c r="W11" s="217"/>
-      <c r="X11" s="217"/>
-      <c r="Y11" s="217"/>
-      <c r="Z11" s="217"/>
-      <c r="AA11" s="217"/>
-      <c r="AB11" s="217"/>
-      <c r="AC11" s="217"/>
-      <c r="AD11" s="217"/>
-      <c r="AE11" s="218"/>
-      <c r="AF11" s="219"/>
-      <c r="AG11" s="220"/>
-      <c r="AH11" s="220"/>
-      <c r="AI11" s="221"/>
+      <c r="B11" s="214"/>
+      <c r="C11" s="216"/>
+      <c r="D11" s="241"/>
+      <c r="E11" s="242"/>
+      <c r="F11" s="243"/>
+      <c r="G11" s="214"/>
+      <c r="H11" s="215"/>
+      <c r="I11" s="216"/>
+      <c r="J11" s="226"/>
+      <c r="K11" s="227"/>
+      <c r="L11" s="227"/>
+      <c r="M11" s="227"/>
+      <c r="N11" s="227"/>
+      <c r="O11" s="227"/>
+      <c r="P11" s="228"/>
+      <c r="Q11" s="223"/>
+      <c r="R11" s="224"/>
+      <c r="S11" s="224"/>
+      <c r="T11" s="224"/>
+      <c r="U11" s="224"/>
+      <c r="V11" s="224"/>
+      <c r="W11" s="224"/>
+      <c r="X11" s="224"/>
+      <c r="Y11" s="224"/>
+      <c r="Z11" s="224"/>
+      <c r="AA11" s="224"/>
+      <c r="AB11" s="224"/>
+      <c r="AC11" s="224"/>
+      <c r="AD11" s="224"/>
+      <c r="AE11" s="225"/>
+      <c r="AF11" s="226"/>
+      <c r="AG11" s="227"/>
+      <c r="AH11" s="227"/>
+      <c r="AI11" s="228"/>
     </row>
     <row r="12" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="57"/>
-      <c r="B12" s="222"/>
-      <c r="C12" s="223"/>
-      <c r="D12" s="224"/>
-      <c r="E12" s="225"/>
-      <c r="F12" s="226"/>
-      <c r="G12" s="222"/>
-      <c r="H12" s="227"/>
-      <c r="I12" s="223"/>
-      <c r="J12" s="219"/>
-      <c r="K12" s="220"/>
-      <c r="L12" s="220"/>
-      <c r="M12" s="220"/>
-      <c r="N12" s="220"/>
-      <c r="O12" s="220"/>
-      <c r="P12" s="221"/>
-      <c r="Q12" s="216"/>
-      <c r="R12" s="217"/>
-      <c r="S12" s="217"/>
-      <c r="T12" s="217"/>
-      <c r="U12" s="217"/>
-      <c r="V12" s="217"/>
-      <c r="W12" s="217"/>
-      <c r="X12" s="217"/>
-      <c r="Y12" s="217"/>
-      <c r="Z12" s="217"/>
-      <c r="AA12" s="217"/>
-      <c r="AB12" s="217"/>
-      <c r="AC12" s="217"/>
-      <c r="AD12" s="217"/>
-      <c r="AE12" s="218"/>
-      <c r="AF12" s="219"/>
-      <c r="AG12" s="220"/>
-      <c r="AH12" s="220"/>
-      <c r="AI12" s="221"/>
+      <c r="B12" s="214"/>
+      <c r="C12" s="216"/>
+      <c r="D12" s="241"/>
+      <c r="E12" s="242"/>
+      <c r="F12" s="243"/>
+      <c r="G12" s="214"/>
+      <c r="H12" s="215"/>
+      <c r="I12" s="216"/>
+      <c r="J12" s="226"/>
+      <c r="K12" s="227"/>
+      <c r="L12" s="227"/>
+      <c r="M12" s="227"/>
+      <c r="N12" s="227"/>
+      <c r="O12" s="227"/>
+      <c r="P12" s="228"/>
+      <c r="Q12" s="223"/>
+      <c r="R12" s="224"/>
+      <c r="S12" s="224"/>
+      <c r="T12" s="224"/>
+      <c r="U12" s="224"/>
+      <c r="V12" s="224"/>
+      <c r="W12" s="224"/>
+      <c r="X12" s="224"/>
+      <c r="Y12" s="224"/>
+      <c r="Z12" s="224"/>
+      <c r="AA12" s="224"/>
+      <c r="AB12" s="224"/>
+      <c r="AC12" s="224"/>
+      <c r="AD12" s="224"/>
+      <c r="AE12" s="225"/>
+      <c r="AF12" s="226"/>
+      <c r="AG12" s="227"/>
+      <c r="AH12" s="227"/>
+      <c r="AI12" s="228"/>
     </row>
     <row r="13" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="57"/>
-      <c r="B13" s="222"/>
-      <c r="C13" s="223"/>
-      <c r="D13" s="224"/>
-      <c r="E13" s="225"/>
-      <c r="F13" s="226"/>
-      <c r="G13" s="222"/>
-      <c r="H13" s="227"/>
-      <c r="I13" s="223"/>
-      <c r="J13" s="219"/>
-      <c r="K13" s="220"/>
-      <c r="L13" s="220"/>
-      <c r="M13" s="220"/>
-      <c r="N13" s="220"/>
-      <c r="O13" s="220"/>
-      <c r="P13" s="221"/>
-      <c r="Q13" s="216"/>
-      <c r="R13" s="217"/>
-      <c r="S13" s="217"/>
-      <c r="T13" s="217"/>
-      <c r="U13" s="217"/>
-      <c r="V13" s="217"/>
-      <c r="W13" s="217"/>
-      <c r="X13" s="217"/>
-      <c r="Y13" s="217"/>
-      <c r="Z13" s="217"/>
-      <c r="AA13" s="217"/>
-      <c r="AB13" s="217"/>
-      <c r="AC13" s="217"/>
-      <c r="AD13" s="217"/>
-      <c r="AE13" s="218"/>
-      <c r="AF13" s="219"/>
-      <c r="AG13" s="220"/>
-      <c r="AH13" s="220"/>
-      <c r="AI13" s="221"/>
+      <c r="B13" s="214"/>
+      <c r="C13" s="216"/>
+      <c r="D13" s="241"/>
+      <c r="E13" s="242"/>
+      <c r="F13" s="243"/>
+      <c r="G13" s="214"/>
+      <c r="H13" s="215"/>
+      <c r="I13" s="216"/>
+      <c r="J13" s="226"/>
+      <c r="K13" s="227"/>
+      <c r="L13" s="227"/>
+      <c r="M13" s="227"/>
+      <c r="N13" s="227"/>
+      <c r="O13" s="227"/>
+      <c r="P13" s="228"/>
+      <c r="Q13" s="223"/>
+      <c r="R13" s="224"/>
+      <c r="S13" s="224"/>
+      <c r="T13" s="224"/>
+      <c r="U13" s="224"/>
+      <c r="V13" s="224"/>
+      <c r="W13" s="224"/>
+      <c r="X13" s="224"/>
+      <c r="Y13" s="224"/>
+      <c r="Z13" s="224"/>
+      <c r="AA13" s="224"/>
+      <c r="AB13" s="224"/>
+      <c r="AC13" s="224"/>
+      <c r="AD13" s="224"/>
+      <c r="AE13" s="225"/>
+      <c r="AF13" s="226"/>
+      <c r="AG13" s="227"/>
+      <c r="AH13" s="227"/>
+      <c r="AI13" s="228"/>
     </row>
     <row r="14" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="57"/>
-      <c r="B14" s="222"/>
-      <c r="C14" s="223"/>
-      <c r="D14" s="224"/>
-      <c r="E14" s="225"/>
-      <c r="F14" s="226"/>
-      <c r="G14" s="222"/>
-      <c r="H14" s="227"/>
-      <c r="I14" s="223"/>
-      <c r="J14" s="219"/>
-      <c r="K14" s="220"/>
-      <c r="L14" s="220"/>
-      <c r="M14" s="220"/>
-      <c r="N14" s="220"/>
-      <c r="O14" s="220"/>
-      <c r="P14" s="221"/>
-      <c r="Q14" s="216"/>
-      <c r="R14" s="217"/>
-      <c r="S14" s="217"/>
-      <c r="T14" s="217"/>
-      <c r="U14" s="217"/>
-      <c r="V14" s="217"/>
-      <c r="W14" s="217"/>
-      <c r="X14" s="217"/>
-      <c r="Y14" s="217"/>
-      <c r="Z14" s="217"/>
-      <c r="AA14" s="217"/>
-      <c r="AB14" s="217"/>
-      <c r="AC14" s="217"/>
-      <c r="AD14" s="217"/>
-      <c r="AE14" s="218"/>
-      <c r="AF14" s="219"/>
-      <c r="AG14" s="220"/>
-      <c r="AH14" s="220"/>
-      <c r="AI14" s="221"/>
+      <c r="B14" s="214"/>
+      <c r="C14" s="216"/>
+      <c r="D14" s="241"/>
+      <c r="E14" s="242"/>
+      <c r="F14" s="243"/>
+      <c r="G14" s="214"/>
+      <c r="H14" s="215"/>
+      <c r="I14" s="216"/>
+      <c r="J14" s="226"/>
+      <c r="K14" s="227"/>
+      <c r="L14" s="227"/>
+      <c r="M14" s="227"/>
+      <c r="N14" s="227"/>
+      <c r="O14" s="227"/>
+      <c r="P14" s="228"/>
+      <c r="Q14" s="223"/>
+      <c r="R14" s="224"/>
+      <c r="S14" s="224"/>
+      <c r="T14" s="224"/>
+      <c r="U14" s="224"/>
+      <c r="V14" s="224"/>
+      <c r="W14" s="224"/>
+      <c r="X14" s="224"/>
+      <c r="Y14" s="224"/>
+      <c r="Z14" s="224"/>
+      <c r="AA14" s="224"/>
+      <c r="AB14" s="224"/>
+      <c r="AC14" s="224"/>
+      <c r="AD14" s="224"/>
+      <c r="AE14" s="225"/>
+      <c r="AF14" s="226"/>
+      <c r="AG14" s="227"/>
+      <c r="AH14" s="227"/>
+      <c r="AI14" s="228"/>
     </row>
     <row r="15" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="57"/>
-      <c r="B15" s="222"/>
-      <c r="C15" s="223"/>
-      <c r="D15" s="224"/>
-      <c r="E15" s="225"/>
-      <c r="F15" s="226"/>
-      <c r="G15" s="222"/>
-      <c r="H15" s="227"/>
-      <c r="I15" s="223"/>
-      <c r="J15" s="219"/>
-      <c r="K15" s="220"/>
-      <c r="L15" s="220"/>
-      <c r="M15" s="220"/>
-      <c r="N15" s="220"/>
-      <c r="O15" s="220"/>
-      <c r="P15" s="221"/>
-      <c r="Q15" s="216"/>
-      <c r="R15" s="217"/>
-      <c r="S15" s="217"/>
-      <c r="T15" s="217"/>
-      <c r="U15" s="217"/>
-      <c r="V15" s="217"/>
-      <c r="W15" s="217"/>
-      <c r="X15" s="217"/>
-      <c r="Y15" s="217"/>
-      <c r="Z15" s="217"/>
-      <c r="AA15" s="217"/>
-      <c r="AB15" s="217"/>
-      <c r="AC15" s="217"/>
-      <c r="AD15" s="217"/>
-      <c r="AE15" s="218"/>
-      <c r="AF15" s="219"/>
-      <c r="AG15" s="220"/>
-      <c r="AH15" s="220"/>
-      <c r="AI15" s="221"/>
+      <c r="B15" s="214"/>
+      <c r="C15" s="216"/>
+      <c r="D15" s="241"/>
+      <c r="E15" s="242"/>
+      <c r="F15" s="243"/>
+      <c r="G15" s="214"/>
+      <c r="H15" s="215"/>
+      <c r="I15" s="216"/>
+      <c r="J15" s="226"/>
+      <c r="K15" s="227"/>
+      <c r="L15" s="227"/>
+      <c r="M15" s="227"/>
+      <c r="N15" s="227"/>
+      <c r="O15" s="227"/>
+      <c r="P15" s="228"/>
+      <c r="Q15" s="223"/>
+      <c r="R15" s="224"/>
+      <c r="S15" s="224"/>
+      <c r="T15" s="224"/>
+      <c r="U15" s="224"/>
+      <c r="V15" s="224"/>
+      <c r="W15" s="224"/>
+      <c r="X15" s="224"/>
+      <c r="Y15" s="224"/>
+      <c r="Z15" s="224"/>
+      <c r="AA15" s="224"/>
+      <c r="AB15" s="224"/>
+      <c r="AC15" s="224"/>
+      <c r="AD15" s="224"/>
+      <c r="AE15" s="225"/>
+      <c r="AF15" s="226"/>
+      <c r="AG15" s="227"/>
+      <c r="AH15" s="227"/>
+      <c r="AI15" s="228"/>
     </row>
     <row r="16" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="57"/>
-      <c r="B16" s="222"/>
-      <c r="C16" s="223"/>
-      <c r="D16" s="224"/>
-      <c r="E16" s="225"/>
-      <c r="F16" s="226"/>
-      <c r="G16" s="222"/>
-      <c r="H16" s="227"/>
-      <c r="I16" s="223"/>
-      <c r="J16" s="219"/>
-      <c r="K16" s="220"/>
-      <c r="L16" s="220"/>
-      <c r="M16" s="220"/>
-      <c r="N16" s="220"/>
-      <c r="O16" s="220"/>
-      <c r="P16" s="221"/>
-      <c r="Q16" s="216"/>
-      <c r="R16" s="217"/>
-      <c r="S16" s="217"/>
-      <c r="T16" s="217"/>
-      <c r="U16" s="217"/>
-      <c r="V16" s="217"/>
-      <c r="W16" s="217"/>
-      <c r="X16" s="217"/>
-      <c r="Y16" s="217"/>
-      <c r="Z16" s="217"/>
-      <c r="AA16" s="217"/>
-      <c r="AB16" s="217"/>
-      <c r="AC16" s="217"/>
-      <c r="AD16" s="217"/>
-      <c r="AE16" s="218"/>
-      <c r="AF16" s="219"/>
-      <c r="AG16" s="220"/>
-      <c r="AH16" s="220"/>
-      <c r="AI16" s="221"/>
+      <c r="B16" s="214"/>
+      <c r="C16" s="216"/>
+      <c r="D16" s="241"/>
+      <c r="E16" s="242"/>
+      <c r="F16" s="243"/>
+      <c r="G16" s="214"/>
+      <c r="H16" s="215"/>
+      <c r="I16" s="216"/>
+      <c r="J16" s="226"/>
+      <c r="K16" s="227"/>
+      <c r="L16" s="227"/>
+      <c r="M16" s="227"/>
+      <c r="N16" s="227"/>
+      <c r="O16" s="227"/>
+      <c r="P16" s="228"/>
+      <c r="Q16" s="223"/>
+      <c r="R16" s="224"/>
+      <c r="S16" s="224"/>
+      <c r="T16" s="224"/>
+      <c r="U16" s="224"/>
+      <c r="V16" s="224"/>
+      <c r="W16" s="224"/>
+      <c r="X16" s="224"/>
+      <c r="Y16" s="224"/>
+      <c r="Z16" s="224"/>
+      <c r="AA16" s="224"/>
+      <c r="AB16" s="224"/>
+      <c r="AC16" s="224"/>
+      <c r="AD16" s="224"/>
+      <c r="AE16" s="225"/>
+      <c r="AF16" s="226"/>
+      <c r="AG16" s="227"/>
+      <c r="AH16" s="227"/>
+      <c r="AI16" s="228"/>
     </row>
     <row r="17" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="57"/>
-      <c r="B17" s="222"/>
-      <c r="C17" s="223"/>
-      <c r="D17" s="224"/>
-      <c r="E17" s="225"/>
-      <c r="F17" s="226"/>
-      <c r="G17" s="222"/>
-      <c r="H17" s="227"/>
-      <c r="I17" s="223"/>
-      <c r="J17" s="219"/>
-      <c r="K17" s="220"/>
-      <c r="L17" s="220"/>
-      <c r="M17" s="220"/>
-      <c r="N17" s="220"/>
-      <c r="O17" s="220"/>
-      <c r="P17" s="221"/>
-      <c r="Q17" s="216"/>
-      <c r="R17" s="217"/>
-      <c r="S17" s="217"/>
-      <c r="T17" s="217"/>
-      <c r="U17" s="217"/>
-      <c r="V17" s="217"/>
-      <c r="W17" s="217"/>
-      <c r="X17" s="217"/>
-      <c r="Y17" s="217"/>
-      <c r="Z17" s="217"/>
-      <c r="AA17" s="217"/>
-      <c r="AB17" s="217"/>
-      <c r="AC17" s="217"/>
-      <c r="AD17" s="217"/>
-      <c r="AE17" s="218"/>
-      <c r="AF17" s="219"/>
-      <c r="AG17" s="220"/>
-      <c r="AH17" s="220"/>
-      <c r="AI17" s="221"/>
+      <c r="B17" s="214"/>
+      <c r="C17" s="216"/>
+      <c r="D17" s="241"/>
+      <c r="E17" s="242"/>
+      <c r="F17" s="243"/>
+      <c r="G17" s="214"/>
+      <c r="H17" s="215"/>
+      <c r="I17" s="216"/>
+      <c r="J17" s="226"/>
+      <c r="K17" s="227"/>
+      <c r="L17" s="227"/>
+      <c r="M17" s="227"/>
+      <c r="N17" s="227"/>
+      <c r="O17" s="227"/>
+      <c r="P17" s="228"/>
+      <c r="Q17" s="223"/>
+      <c r="R17" s="224"/>
+      <c r="S17" s="224"/>
+      <c r="T17" s="224"/>
+      <c r="U17" s="224"/>
+      <c r="V17" s="224"/>
+      <c r="W17" s="224"/>
+      <c r="X17" s="224"/>
+      <c r="Y17" s="224"/>
+      <c r="Z17" s="224"/>
+      <c r="AA17" s="224"/>
+      <c r="AB17" s="224"/>
+      <c r="AC17" s="224"/>
+      <c r="AD17" s="224"/>
+      <c r="AE17" s="225"/>
+      <c r="AF17" s="226"/>
+      <c r="AG17" s="227"/>
+      <c r="AH17" s="227"/>
+      <c r="AI17" s="228"/>
     </row>
     <row r="18" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="57"/>
-      <c r="B18" s="222"/>
-      <c r="C18" s="223"/>
-      <c r="D18" s="224"/>
-      <c r="E18" s="225"/>
-      <c r="F18" s="226"/>
-      <c r="G18" s="222"/>
-      <c r="H18" s="227"/>
-      <c r="I18" s="223"/>
-      <c r="J18" s="219"/>
-      <c r="K18" s="220"/>
-      <c r="L18" s="220"/>
-      <c r="M18" s="220"/>
-      <c r="N18" s="220"/>
-      <c r="O18" s="220"/>
-      <c r="P18" s="221"/>
-      <c r="Q18" s="216"/>
-      <c r="R18" s="217"/>
-      <c r="S18" s="217"/>
-      <c r="T18" s="217"/>
-      <c r="U18" s="217"/>
-      <c r="V18" s="217"/>
-      <c r="W18" s="217"/>
-      <c r="X18" s="217"/>
-      <c r="Y18" s="217"/>
-      <c r="Z18" s="217"/>
-      <c r="AA18" s="217"/>
-      <c r="AB18" s="217"/>
-      <c r="AC18" s="217"/>
-      <c r="AD18" s="217"/>
-      <c r="AE18" s="218"/>
-      <c r="AF18" s="219"/>
-      <c r="AG18" s="220"/>
-      <c r="AH18" s="220"/>
-      <c r="AI18" s="221"/>
+      <c r="B18" s="214"/>
+      <c r="C18" s="216"/>
+      <c r="D18" s="241"/>
+      <c r="E18" s="242"/>
+      <c r="F18" s="243"/>
+      <c r="G18" s="214"/>
+      <c r="H18" s="215"/>
+      <c r="I18" s="216"/>
+      <c r="J18" s="226"/>
+      <c r="K18" s="227"/>
+      <c r="L18" s="227"/>
+      <c r="M18" s="227"/>
+      <c r="N18" s="227"/>
+      <c r="O18" s="227"/>
+      <c r="P18" s="228"/>
+      <c r="Q18" s="223"/>
+      <c r="R18" s="224"/>
+      <c r="S18" s="224"/>
+      <c r="T18" s="224"/>
+      <c r="U18" s="224"/>
+      <c r="V18" s="224"/>
+      <c r="W18" s="224"/>
+      <c r="X18" s="224"/>
+      <c r="Y18" s="224"/>
+      <c r="Z18" s="224"/>
+      <c r="AA18" s="224"/>
+      <c r="AB18" s="224"/>
+      <c r="AC18" s="224"/>
+      <c r="AD18" s="224"/>
+      <c r="AE18" s="225"/>
+      <c r="AF18" s="226"/>
+      <c r="AG18" s="227"/>
+      <c r="AH18" s="227"/>
+      <c r="AI18" s="228"/>
     </row>
     <row r="19" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="57"/>
-      <c r="B19" s="222"/>
-      <c r="C19" s="223"/>
-      <c r="D19" s="224"/>
-      <c r="E19" s="225"/>
-      <c r="F19" s="226"/>
-      <c r="G19" s="222"/>
-      <c r="H19" s="227"/>
-      <c r="I19" s="223"/>
-      <c r="J19" s="219"/>
-      <c r="K19" s="220"/>
-      <c r="L19" s="220"/>
-      <c r="M19" s="220"/>
-      <c r="N19" s="220"/>
-      <c r="O19" s="220"/>
-      <c r="P19" s="221"/>
-      <c r="Q19" s="216"/>
-      <c r="R19" s="217"/>
-      <c r="S19" s="217"/>
-      <c r="T19" s="217"/>
-      <c r="U19" s="217"/>
-      <c r="V19" s="217"/>
-      <c r="W19" s="217"/>
-      <c r="X19" s="217"/>
-      <c r="Y19" s="217"/>
-      <c r="Z19" s="217"/>
-      <c r="AA19" s="217"/>
-      <c r="AB19" s="217"/>
-      <c r="AC19" s="217"/>
-      <c r="AD19" s="217"/>
-      <c r="AE19" s="218"/>
-      <c r="AF19" s="219"/>
-      <c r="AG19" s="220"/>
-      <c r="AH19" s="220"/>
-      <c r="AI19" s="221"/>
+      <c r="B19" s="214"/>
+      <c r="C19" s="216"/>
+      <c r="D19" s="241"/>
+      <c r="E19" s="242"/>
+      <c r="F19" s="243"/>
+      <c r="G19" s="214"/>
+      <c r="H19" s="215"/>
+      <c r="I19" s="216"/>
+      <c r="J19" s="226"/>
+      <c r="K19" s="227"/>
+      <c r="L19" s="227"/>
+      <c r="M19" s="227"/>
+      <c r="N19" s="227"/>
+      <c r="O19" s="227"/>
+      <c r="P19" s="228"/>
+      <c r="Q19" s="223"/>
+      <c r="R19" s="224"/>
+      <c r="S19" s="224"/>
+      <c r="T19" s="224"/>
+      <c r="U19" s="224"/>
+      <c r="V19" s="224"/>
+      <c r="W19" s="224"/>
+      <c r="X19" s="224"/>
+      <c r="Y19" s="224"/>
+      <c r="Z19" s="224"/>
+      <c r="AA19" s="224"/>
+      <c r="AB19" s="224"/>
+      <c r="AC19" s="224"/>
+      <c r="AD19" s="224"/>
+      <c r="AE19" s="225"/>
+      <c r="AF19" s="226"/>
+      <c r="AG19" s="227"/>
+      <c r="AH19" s="227"/>
+      <c r="AI19" s="228"/>
     </row>
     <row r="20" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="57"/>
-      <c r="B20" s="222"/>
-      <c r="C20" s="223"/>
-      <c r="D20" s="224"/>
-      <c r="E20" s="225"/>
-      <c r="F20" s="226"/>
-      <c r="G20" s="222"/>
-      <c r="H20" s="227"/>
-      <c r="I20" s="223"/>
-      <c r="J20" s="219"/>
-      <c r="K20" s="220"/>
-      <c r="L20" s="220"/>
-      <c r="M20" s="220"/>
-      <c r="N20" s="220"/>
-      <c r="O20" s="220"/>
-      <c r="P20" s="221"/>
-      <c r="Q20" s="216"/>
-      <c r="R20" s="217"/>
-      <c r="S20" s="217"/>
-      <c r="T20" s="217"/>
-      <c r="U20" s="217"/>
-      <c r="V20" s="217"/>
-      <c r="W20" s="217"/>
-      <c r="X20" s="217"/>
-      <c r="Y20" s="217"/>
-      <c r="Z20" s="217"/>
-      <c r="AA20" s="217"/>
-      <c r="AB20" s="217"/>
-      <c r="AC20" s="217"/>
-      <c r="AD20" s="217"/>
-      <c r="AE20" s="218"/>
-      <c r="AF20" s="219"/>
-      <c r="AG20" s="220"/>
-      <c r="AH20" s="220"/>
-      <c r="AI20" s="221"/>
+      <c r="B20" s="214"/>
+      <c r="C20" s="216"/>
+      <c r="D20" s="241"/>
+      <c r="E20" s="242"/>
+      <c r="F20" s="243"/>
+      <c r="G20" s="214"/>
+      <c r="H20" s="215"/>
+      <c r="I20" s="216"/>
+      <c r="J20" s="226"/>
+      <c r="K20" s="227"/>
+      <c r="L20" s="227"/>
+      <c r="M20" s="227"/>
+      <c r="N20" s="227"/>
+      <c r="O20" s="227"/>
+      <c r="P20" s="228"/>
+      <c r="Q20" s="223"/>
+      <c r="R20" s="224"/>
+      <c r="S20" s="224"/>
+      <c r="T20" s="224"/>
+      <c r="U20" s="224"/>
+      <c r="V20" s="224"/>
+      <c r="W20" s="224"/>
+      <c r="X20" s="224"/>
+      <c r="Y20" s="224"/>
+      <c r="Z20" s="224"/>
+      <c r="AA20" s="224"/>
+      <c r="AB20" s="224"/>
+      <c r="AC20" s="224"/>
+      <c r="AD20" s="224"/>
+      <c r="AE20" s="225"/>
+      <c r="AF20" s="226"/>
+      <c r="AG20" s="227"/>
+      <c r="AH20" s="227"/>
+      <c r="AI20" s="228"/>
     </row>
     <row r="21" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="57"/>
-      <c r="B21" s="222"/>
-      <c r="C21" s="223"/>
-      <c r="D21" s="224"/>
-      <c r="E21" s="225"/>
-      <c r="F21" s="226"/>
-      <c r="G21" s="222"/>
-      <c r="H21" s="227"/>
-      <c r="I21" s="223"/>
-      <c r="J21" s="219"/>
-      <c r="K21" s="220"/>
-      <c r="L21" s="220"/>
-      <c r="M21" s="220"/>
-      <c r="N21" s="220"/>
-      <c r="O21" s="220"/>
-      <c r="P21" s="221"/>
-      <c r="Q21" s="216"/>
-      <c r="R21" s="217"/>
-      <c r="S21" s="217"/>
-      <c r="T21" s="217"/>
-      <c r="U21" s="217"/>
-      <c r="V21" s="217"/>
-      <c r="W21" s="217"/>
-      <c r="X21" s="217"/>
-      <c r="Y21" s="217"/>
-      <c r="Z21" s="217"/>
-      <c r="AA21" s="217"/>
-      <c r="AB21" s="217"/>
-      <c r="AC21" s="217"/>
-      <c r="AD21" s="217"/>
-      <c r="AE21" s="218"/>
-      <c r="AF21" s="219"/>
-      <c r="AG21" s="220"/>
-      <c r="AH21" s="220"/>
-      <c r="AI21" s="221"/>
+      <c r="B21" s="214"/>
+      <c r="C21" s="216"/>
+      <c r="D21" s="241"/>
+      <c r="E21" s="242"/>
+      <c r="F21" s="243"/>
+      <c r="G21" s="214"/>
+      <c r="H21" s="215"/>
+      <c r="I21" s="216"/>
+      <c r="J21" s="226"/>
+      <c r="K21" s="227"/>
+      <c r="L21" s="227"/>
+      <c r="M21" s="227"/>
+      <c r="N21" s="227"/>
+      <c r="O21" s="227"/>
+      <c r="P21" s="228"/>
+      <c r="Q21" s="223"/>
+      <c r="R21" s="224"/>
+      <c r="S21" s="224"/>
+      <c r="T21" s="224"/>
+      <c r="U21" s="224"/>
+      <c r="V21" s="224"/>
+      <c r="W21" s="224"/>
+      <c r="X21" s="224"/>
+      <c r="Y21" s="224"/>
+      <c r="Z21" s="224"/>
+      <c r="AA21" s="224"/>
+      <c r="AB21" s="224"/>
+      <c r="AC21" s="224"/>
+      <c r="AD21" s="224"/>
+      <c r="AE21" s="225"/>
+      <c r="AF21" s="226"/>
+      <c r="AG21" s="227"/>
+      <c r="AH21" s="227"/>
+      <c r="AI21" s="228"/>
     </row>
     <row r="22" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="57"/>
-      <c r="B22" s="222"/>
-      <c r="C22" s="223"/>
-      <c r="D22" s="224"/>
-      <c r="E22" s="225"/>
-      <c r="F22" s="226"/>
-      <c r="G22" s="222"/>
-      <c r="H22" s="227"/>
-      <c r="I22" s="223"/>
-      <c r="J22" s="219"/>
-      <c r="K22" s="220"/>
-      <c r="L22" s="220"/>
-      <c r="M22" s="220"/>
-      <c r="N22" s="220"/>
-      <c r="O22" s="220"/>
-      <c r="P22" s="221"/>
-      <c r="Q22" s="216"/>
-      <c r="R22" s="217"/>
-      <c r="S22" s="217"/>
-      <c r="T22" s="217"/>
-      <c r="U22" s="217"/>
-      <c r="V22" s="217"/>
-      <c r="W22" s="217"/>
-      <c r="X22" s="217"/>
-      <c r="Y22" s="217"/>
-      <c r="Z22" s="217"/>
-      <c r="AA22" s="217"/>
-      <c r="AB22" s="217"/>
-      <c r="AC22" s="217"/>
-      <c r="AD22" s="217"/>
-      <c r="AE22" s="218"/>
-      <c r="AF22" s="219"/>
-      <c r="AG22" s="220"/>
-      <c r="AH22" s="220"/>
-      <c r="AI22" s="221"/>
+      <c r="B22" s="214"/>
+      <c r="C22" s="216"/>
+      <c r="D22" s="241"/>
+      <c r="E22" s="242"/>
+      <c r="F22" s="243"/>
+      <c r="G22" s="214"/>
+      <c r="H22" s="215"/>
+      <c r="I22" s="216"/>
+      <c r="J22" s="226"/>
+      <c r="K22" s="227"/>
+      <c r="L22" s="227"/>
+      <c r="M22" s="227"/>
+      <c r="N22" s="227"/>
+      <c r="O22" s="227"/>
+      <c r="P22" s="228"/>
+      <c r="Q22" s="223"/>
+      <c r="R22" s="224"/>
+      <c r="S22" s="224"/>
+      <c r="T22" s="224"/>
+      <c r="U22" s="224"/>
+      <c r="V22" s="224"/>
+      <c r="W22" s="224"/>
+      <c r="X22" s="224"/>
+      <c r="Y22" s="224"/>
+      <c r="Z22" s="224"/>
+      <c r="AA22" s="224"/>
+      <c r="AB22" s="224"/>
+      <c r="AC22" s="224"/>
+      <c r="AD22" s="224"/>
+      <c r="AE22" s="225"/>
+      <c r="AF22" s="226"/>
+      <c r="AG22" s="227"/>
+      <c r="AH22" s="227"/>
+      <c r="AI22" s="228"/>
     </row>
     <row r="23" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="57"/>
-      <c r="B23" s="222"/>
-      <c r="C23" s="223"/>
-      <c r="D23" s="224"/>
-      <c r="E23" s="225"/>
-      <c r="F23" s="226"/>
-      <c r="G23" s="222"/>
-      <c r="H23" s="227"/>
-      <c r="I23" s="223"/>
-      <c r="J23" s="219"/>
-      <c r="K23" s="220"/>
-      <c r="L23" s="220"/>
-      <c r="M23" s="220"/>
-      <c r="N23" s="220"/>
-      <c r="O23" s="220"/>
-      <c r="P23" s="221"/>
-      <c r="Q23" s="216"/>
-      <c r="R23" s="217"/>
-      <c r="S23" s="217"/>
-      <c r="T23" s="217"/>
-      <c r="U23" s="217"/>
-      <c r="V23" s="217"/>
-      <c r="W23" s="217"/>
-      <c r="X23" s="217"/>
-      <c r="Y23" s="217"/>
-      <c r="Z23" s="217"/>
-      <c r="AA23" s="217"/>
-      <c r="AB23" s="217"/>
-      <c r="AC23" s="217"/>
-      <c r="AD23" s="217"/>
-      <c r="AE23" s="218"/>
-      <c r="AF23" s="219"/>
-      <c r="AG23" s="220"/>
-      <c r="AH23" s="220"/>
-      <c r="AI23" s="221"/>
+      <c r="B23" s="214"/>
+      <c r="C23" s="216"/>
+      <c r="D23" s="241"/>
+      <c r="E23" s="242"/>
+      <c r="F23" s="243"/>
+      <c r="G23" s="214"/>
+      <c r="H23" s="215"/>
+      <c r="I23" s="216"/>
+      <c r="J23" s="226"/>
+      <c r="K23" s="227"/>
+      <c r="L23" s="227"/>
+      <c r="M23" s="227"/>
+      <c r="N23" s="227"/>
+      <c r="O23" s="227"/>
+      <c r="P23" s="228"/>
+      <c r="Q23" s="223"/>
+      <c r="R23" s="224"/>
+      <c r="S23" s="224"/>
+      <c r="T23" s="224"/>
+      <c r="U23" s="224"/>
+      <c r="V23" s="224"/>
+      <c r="W23" s="224"/>
+      <c r="X23" s="224"/>
+      <c r="Y23" s="224"/>
+      <c r="Z23" s="224"/>
+      <c r="AA23" s="224"/>
+      <c r="AB23" s="224"/>
+      <c r="AC23" s="224"/>
+      <c r="AD23" s="224"/>
+      <c r="AE23" s="225"/>
+      <c r="AF23" s="226"/>
+      <c r="AG23" s="227"/>
+      <c r="AH23" s="227"/>
+      <c r="AI23" s="228"/>
     </row>
     <row r="24" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="57"/>
-      <c r="B24" s="222"/>
-      <c r="C24" s="223"/>
-      <c r="D24" s="224"/>
-      <c r="E24" s="225"/>
-      <c r="F24" s="226"/>
-      <c r="G24" s="222"/>
-      <c r="H24" s="227"/>
-      <c r="I24" s="223"/>
-      <c r="J24" s="219"/>
-      <c r="K24" s="220"/>
-      <c r="L24" s="220"/>
-      <c r="M24" s="220"/>
-      <c r="N24" s="220"/>
-      <c r="O24" s="220"/>
-      <c r="P24" s="221"/>
-      <c r="Q24" s="216"/>
-      <c r="R24" s="217"/>
-      <c r="S24" s="217"/>
-      <c r="T24" s="217"/>
-      <c r="U24" s="217"/>
-      <c r="V24" s="217"/>
-      <c r="W24" s="217"/>
-      <c r="X24" s="217"/>
-      <c r="Y24" s="217"/>
-      <c r="Z24" s="217"/>
-      <c r="AA24" s="217"/>
-      <c r="AB24" s="217"/>
-      <c r="AC24" s="217"/>
-      <c r="AD24" s="217"/>
-      <c r="AE24" s="218"/>
-      <c r="AF24" s="219"/>
-      <c r="AG24" s="220"/>
-      <c r="AH24" s="220"/>
-      <c r="AI24" s="221"/>
+      <c r="B24" s="214"/>
+      <c r="C24" s="216"/>
+      <c r="D24" s="241"/>
+      <c r="E24" s="242"/>
+      <c r="F24" s="243"/>
+      <c r="G24" s="214"/>
+      <c r="H24" s="215"/>
+      <c r="I24" s="216"/>
+      <c r="J24" s="226"/>
+      <c r="K24" s="227"/>
+      <c r="L24" s="227"/>
+      <c r="M24" s="227"/>
+      <c r="N24" s="227"/>
+      <c r="O24" s="227"/>
+      <c r="P24" s="228"/>
+      <c r="Q24" s="223"/>
+      <c r="R24" s="224"/>
+      <c r="S24" s="224"/>
+      <c r="T24" s="224"/>
+      <c r="U24" s="224"/>
+      <c r="V24" s="224"/>
+      <c r="W24" s="224"/>
+      <c r="X24" s="224"/>
+      <c r="Y24" s="224"/>
+      <c r="Z24" s="224"/>
+      <c r="AA24" s="224"/>
+      <c r="AB24" s="224"/>
+      <c r="AC24" s="224"/>
+      <c r="AD24" s="224"/>
+      <c r="AE24" s="225"/>
+      <c r="AF24" s="226"/>
+      <c r="AG24" s="227"/>
+      <c r="AH24" s="227"/>
+      <c r="AI24" s="228"/>
     </row>
     <row r="25" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="57"/>
-      <c r="B25" s="222"/>
-      <c r="C25" s="223"/>
-      <c r="D25" s="224"/>
-      <c r="E25" s="225"/>
-      <c r="F25" s="226"/>
-      <c r="G25" s="222"/>
-      <c r="H25" s="227"/>
-      <c r="I25" s="223"/>
-      <c r="J25" s="219"/>
-      <c r="K25" s="220"/>
-      <c r="L25" s="220"/>
-      <c r="M25" s="220"/>
-      <c r="N25" s="220"/>
-      <c r="O25" s="220"/>
-      <c r="P25" s="221"/>
-      <c r="Q25" s="216"/>
-      <c r="R25" s="217"/>
-      <c r="S25" s="217"/>
-      <c r="T25" s="217"/>
-      <c r="U25" s="217"/>
-      <c r="V25" s="217"/>
-      <c r="W25" s="217"/>
-      <c r="X25" s="217"/>
-      <c r="Y25" s="217"/>
-      <c r="Z25" s="217"/>
-      <c r="AA25" s="217"/>
-      <c r="AB25" s="217"/>
-      <c r="AC25" s="217"/>
-      <c r="AD25" s="217"/>
-      <c r="AE25" s="218"/>
-      <c r="AF25" s="219"/>
-      <c r="AG25" s="220"/>
-      <c r="AH25" s="220"/>
-      <c r="AI25" s="221"/>
+      <c r="B25" s="214"/>
+      <c r="C25" s="216"/>
+      <c r="D25" s="241"/>
+      <c r="E25" s="242"/>
+      <c r="F25" s="243"/>
+      <c r="G25" s="214"/>
+      <c r="H25" s="215"/>
+      <c r="I25" s="216"/>
+      <c r="J25" s="226"/>
+      <c r="K25" s="227"/>
+      <c r="L25" s="227"/>
+      <c r="M25" s="227"/>
+      <c r="N25" s="227"/>
+      <c r="O25" s="227"/>
+      <c r="P25" s="228"/>
+      <c r="Q25" s="223"/>
+      <c r="R25" s="224"/>
+      <c r="S25" s="224"/>
+      <c r="T25" s="224"/>
+      <c r="U25" s="224"/>
+      <c r="V25" s="224"/>
+      <c r="W25" s="224"/>
+      <c r="X25" s="224"/>
+      <c r="Y25" s="224"/>
+      <c r="Z25" s="224"/>
+      <c r="AA25" s="224"/>
+      <c r="AB25" s="224"/>
+      <c r="AC25" s="224"/>
+      <c r="AD25" s="224"/>
+      <c r="AE25" s="225"/>
+      <c r="AF25" s="226"/>
+      <c r="AG25" s="227"/>
+      <c r="AH25" s="227"/>
+      <c r="AI25" s="228"/>
     </row>
     <row r="26" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="57"/>
-      <c r="B26" s="222"/>
-      <c r="C26" s="223"/>
-      <c r="D26" s="224"/>
-      <c r="E26" s="225"/>
-      <c r="F26" s="226"/>
-      <c r="G26" s="222"/>
-      <c r="H26" s="227"/>
-      <c r="I26" s="223"/>
-      <c r="J26" s="219"/>
-      <c r="K26" s="220"/>
-      <c r="L26" s="220"/>
-      <c r="M26" s="220"/>
-      <c r="N26" s="220"/>
-      <c r="O26" s="220"/>
-      <c r="P26" s="221"/>
-      <c r="Q26" s="216"/>
-      <c r="R26" s="217"/>
-      <c r="S26" s="217"/>
-      <c r="T26" s="217"/>
-      <c r="U26" s="217"/>
-      <c r="V26" s="217"/>
-      <c r="W26" s="217"/>
-      <c r="X26" s="217"/>
-      <c r="Y26" s="217"/>
-      <c r="Z26" s="217"/>
-      <c r="AA26" s="217"/>
-      <c r="AB26" s="217"/>
-      <c r="AC26" s="217"/>
-      <c r="AD26" s="217"/>
-      <c r="AE26" s="218"/>
-      <c r="AF26" s="219"/>
-      <c r="AG26" s="220"/>
-      <c r="AH26" s="220"/>
-      <c r="AI26" s="221"/>
+      <c r="B26" s="214"/>
+      <c r="C26" s="216"/>
+      <c r="D26" s="241"/>
+      <c r="E26" s="242"/>
+      <c r="F26" s="243"/>
+      <c r="G26" s="214"/>
+      <c r="H26" s="215"/>
+      <c r="I26" s="216"/>
+      <c r="J26" s="226"/>
+      <c r="K26" s="227"/>
+      <c r="L26" s="227"/>
+      <c r="M26" s="227"/>
+      <c r="N26" s="227"/>
+      <c r="O26" s="227"/>
+      <c r="P26" s="228"/>
+      <c r="Q26" s="223"/>
+      <c r="R26" s="224"/>
+      <c r="S26" s="224"/>
+      <c r="T26" s="224"/>
+      <c r="U26" s="224"/>
+      <c r="V26" s="224"/>
+      <c r="W26" s="224"/>
+      <c r="X26" s="224"/>
+      <c r="Y26" s="224"/>
+      <c r="Z26" s="224"/>
+      <c r="AA26" s="224"/>
+      <c r="AB26" s="224"/>
+      <c r="AC26" s="224"/>
+      <c r="AD26" s="224"/>
+      <c r="AE26" s="225"/>
+      <c r="AF26" s="226"/>
+      <c r="AG26" s="227"/>
+      <c r="AH26" s="227"/>
+      <c r="AI26" s="228"/>
     </row>
     <row r="27" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="57"/>
-      <c r="B27" s="222"/>
-      <c r="C27" s="223"/>
-      <c r="D27" s="224"/>
-      <c r="E27" s="225"/>
-      <c r="F27" s="226"/>
-      <c r="G27" s="222"/>
-      <c r="H27" s="227"/>
-      <c r="I27" s="223"/>
-      <c r="J27" s="219"/>
-      <c r="K27" s="220"/>
-      <c r="L27" s="220"/>
-      <c r="M27" s="220"/>
-      <c r="N27" s="220"/>
-      <c r="O27" s="220"/>
-      <c r="P27" s="221"/>
-      <c r="Q27" s="216"/>
-      <c r="R27" s="217"/>
-      <c r="S27" s="217"/>
-      <c r="T27" s="217"/>
-      <c r="U27" s="217"/>
-      <c r="V27" s="217"/>
-      <c r="W27" s="217"/>
-      <c r="X27" s="217"/>
-      <c r="Y27" s="217"/>
-      <c r="Z27" s="217"/>
-      <c r="AA27" s="217"/>
-      <c r="AB27" s="217"/>
-      <c r="AC27" s="217"/>
-      <c r="AD27" s="217"/>
-      <c r="AE27" s="218"/>
-      <c r="AF27" s="219"/>
-      <c r="AG27" s="220"/>
-      <c r="AH27" s="220"/>
-      <c r="AI27" s="221"/>
+      <c r="B27" s="214"/>
+      <c r="C27" s="216"/>
+      <c r="D27" s="241"/>
+      <c r="E27" s="242"/>
+      <c r="F27" s="243"/>
+      <c r="G27" s="214"/>
+      <c r="H27" s="215"/>
+      <c r="I27" s="216"/>
+      <c r="J27" s="226"/>
+      <c r="K27" s="227"/>
+      <c r="L27" s="227"/>
+      <c r="M27" s="227"/>
+      <c r="N27" s="227"/>
+      <c r="O27" s="227"/>
+      <c r="P27" s="228"/>
+      <c r="Q27" s="223"/>
+      <c r="R27" s="224"/>
+      <c r="S27" s="224"/>
+      <c r="T27" s="224"/>
+      <c r="U27" s="224"/>
+      <c r="V27" s="224"/>
+      <c r="W27" s="224"/>
+      <c r="X27" s="224"/>
+      <c r="Y27" s="224"/>
+      <c r="Z27" s="224"/>
+      <c r="AA27" s="224"/>
+      <c r="AB27" s="224"/>
+      <c r="AC27" s="224"/>
+      <c r="AD27" s="224"/>
+      <c r="AE27" s="225"/>
+      <c r="AF27" s="226"/>
+      <c r="AG27" s="227"/>
+      <c r="AH27" s="227"/>
+      <c r="AI27" s="228"/>
     </row>
     <row r="28" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="57"/>
-      <c r="B28" s="222"/>
-      <c r="C28" s="223"/>
-      <c r="D28" s="224"/>
-      <c r="E28" s="225"/>
-      <c r="F28" s="226"/>
-      <c r="G28" s="222"/>
-      <c r="H28" s="227"/>
-      <c r="I28" s="223"/>
-      <c r="J28" s="219"/>
-      <c r="K28" s="220"/>
-      <c r="L28" s="220"/>
-      <c r="M28" s="220"/>
-      <c r="N28" s="220"/>
-      <c r="O28" s="220"/>
-      <c r="P28" s="221"/>
-      <c r="Q28" s="216"/>
-      <c r="R28" s="217"/>
-      <c r="S28" s="217"/>
-      <c r="T28" s="217"/>
-      <c r="U28" s="217"/>
-      <c r="V28" s="217"/>
-      <c r="W28" s="217"/>
-      <c r="X28" s="217"/>
-      <c r="Y28" s="217"/>
-      <c r="Z28" s="217"/>
-      <c r="AA28" s="217"/>
-      <c r="AB28" s="217"/>
-      <c r="AC28" s="217"/>
-      <c r="AD28" s="217"/>
-      <c r="AE28" s="218"/>
-      <c r="AF28" s="219"/>
-      <c r="AG28" s="220"/>
-      <c r="AH28" s="220"/>
-      <c r="AI28" s="221"/>
+      <c r="B28" s="214"/>
+      <c r="C28" s="216"/>
+      <c r="D28" s="241"/>
+      <c r="E28" s="242"/>
+      <c r="F28" s="243"/>
+      <c r="G28" s="214"/>
+      <c r="H28" s="215"/>
+      <c r="I28" s="216"/>
+      <c r="J28" s="226"/>
+      <c r="K28" s="227"/>
+      <c r="L28" s="227"/>
+      <c r="M28" s="227"/>
+      <c r="N28" s="227"/>
+      <c r="O28" s="227"/>
+      <c r="P28" s="228"/>
+      <c r="Q28" s="223"/>
+      <c r="R28" s="224"/>
+      <c r="S28" s="224"/>
+      <c r="T28" s="224"/>
+      <c r="U28" s="224"/>
+      <c r="V28" s="224"/>
+      <c r="W28" s="224"/>
+      <c r="X28" s="224"/>
+      <c r="Y28" s="224"/>
+      <c r="Z28" s="224"/>
+      <c r="AA28" s="224"/>
+      <c r="AB28" s="224"/>
+      <c r="AC28" s="224"/>
+      <c r="AD28" s="224"/>
+      <c r="AE28" s="225"/>
+      <c r="AF28" s="226"/>
+      <c r="AG28" s="227"/>
+      <c r="AH28" s="227"/>
+      <c r="AI28" s="228"/>
     </row>
     <row r="29" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="57"/>
-      <c r="B29" s="222"/>
-      <c r="C29" s="223"/>
-      <c r="D29" s="224"/>
-      <c r="E29" s="225"/>
-      <c r="F29" s="226"/>
-      <c r="G29" s="222"/>
-      <c r="H29" s="227"/>
-      <c r="I29" s="223"/>
-      <c r="J29" s="219"/>
-      <c r="K29" s="220"/>
-      <c r="L29" s="220"/>
-      <c r="M29" s="220"/>
-      <c r="N29" s="220"/>
-      <c r="O29" s="220"/>
-      <c r="P29" s="221"/>
-      <c r="Q29" s="216"/>
-      <c r="R29" s="217"/>
-      <c r="S29" s="217"/>
-      <c r="T29" s="217"/>
-      <c r="U29" s="217"/>
-      <c r="V29" s="217"/>
-      <c r="W29" s="217"/>
-      <c r="X29" s="217"/>
-      <c r="Y29" s="217"/>
-      <c r="Z29" s="217"/>
-      <c r="AA29" s="217"/>
-      <c r="AB29" s="217"/>
-      <c r="AC29" s="217"/>
-      <c r="AD29" s="217"/>
-      <c r="AE29" s="218"/>
-      <c r="AF29" s="219"/>
-      <c r="AG29" s="220"/>
-      <c r="AH29" s="220"/>
-      <c r="AI29" s="221"/>
+      <c r="B29" s="214"/>
+      <c r="C29" s="216"/>
+      <c r="D29" s="241"/>
+      <c r="E29" s="242"/>
+      <c r="F29" s="243"/>
+      <c r="G29" s="214"/>
+      <c r="H29" s="215"/>
+      <c r="I29" s="216"/>
+      <c r="J29" s="226"/>
+      <c r="K29" s="227"/>
+      <c r="L29" s="227"/>
+      <c r="M29" s="227"/>
+      <c r="N29" s="227"/>
+      <c r="O29" s="227"/>
+      <c r="P29" s="228"/>
+      <c r="Q29" s="223"/>
+      <c r="R29" s="224"/>
+      <c r="S29" s="224"/>
+      <c r="T29" s="224"/>
+      <c r="U29" s="224"/>
+      <c r="V29" s="224"/>
+      <c r="W29" s="224"/>
+      <c r="X29" s="224"/>
+      <c r="Y29" s="224"/>
+      <c r="Z29" s="224"/>
+      <c r="AA29" s="224"/>
+      <c r="AB29" s="224"/>
+      <c r="AC29" s="224"/>
+      <c r="AD29" s="224"/>
+      <c r="AE29" s="225"/>
+      <c r="AF29" s="226"/>
+      <c r="AG29" s="227"/>
+      <c r="AH29" s="227"/>
+      <c r="AI29" s="228"/>
     </row>
     <row r="30" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="57"/>
-      <c r="B30" s="222"/>
-      <c r="C30" s="223"/>
-      <c r="D30" s="224"/>
-      <c r="E30" s="225"/>
-      <c r="F30" s="226"/>
-      <c r="G30" s="222"/>
-      <c r="H30" s="227"/>
-      <c r="I30" s="223"/>
-      <c r="J30" s="219"/>
-      <c r="K30" s="220"/>
-      <c r="L30" s="220"/>
-      <c r="M30" s="220"/>
-      <c r="N30" s="220"/>
-      <c r="O30" s="220"/>
-      <c r="P30" s="221"/>
-      <c r="Q30" s="216"/>
-      <c r="R30" s="217"/>
-      <c r="S30" s="217"/>
-      <c r="T30" s="217"/>
-      <c r="U30" s="217"/>
-      <c r="V30" s="217"/>
-      <c r="W30" s="217"/>
-      <c r="X30" s="217"/>
-      <c r="Y30" s="217"/>
-      <c r="Z30" s="217"/>
-      <c r="AA30" s="217"/>
-      <c r="AB30" s="217"/>
-      <c r="AC30" s="217"/>
-      <c r="AD30" s="217"/>
-      <c r="AE30" s="218"/>
-      <c r="AF30" s="219"/>
-      <c r="AG30" s="220"/>
-      <c r="AH30" s="220"/>
-      <c r="AI30" s="221"/>
+      <c r="B30" s="214"/>
+      <c r="C30" s="216"/>
+      <c r="D30" s="241"/>
+      <c r="E30" s="242"/>
+      <c r="F30" s="243"/>
+      <c r="G30" s="214"/>
+      <c r="H30" s="215"/>
+      <c r="I30" s="216"/>
+      <c r="J30" s="226"/>
+      <c r="K30" s="227"/>
+      <c r="L30" s="227"/>
+      <c r="M30" s="227"/>
+      <c r="N30" s="227"/>
+      <c r="O30" s="227"/>
+      <c r="P30" s="228"/>
+      <c r="Q30" s="223"/>
+      <c r="R30" s="224"/>
+      <c r="S30" s="224"/>
+      <c r="T30" s="224"/>
+      <c r="U30" s="224"/>
+      <c r="V30" s="224"/>
+      <c r="W30" s="224"/>
+      <c r="X30" s="224"/>
+      <c r="Y30" s="224"/>
+      <c r="Z30" s="224"/>
+      <c r="AA30" s="224"/>
+      <c r="AB30" s="224"/>
+      <c r="AC30" s="224"/>
+      <c r="AD30" s="224"/>
+      <c r="AE30" s="225"/>
+      <c r="AF30" s="226"/>
+      <c r="AG30" s="227"/>
+      <c r="AH30" s="227"/>
+      <c r="AI30" s="228"/>
     </row>
     <row r="31" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="57"/>
-      <c r="B31" s="222"/>
-      <c r="C31" s="223"/>
-      <c r="D31" s="224"/>
-      <c r="E31" s="225"/>
-      <c r="F31" s="226"/>
-      <c r="G31" s="222"/>
-      <c r="H31" s="227"/>
-      <c r="I31" s="223"/>
-      <c r="J31" s="219"/>
-      <c r="K31" s="220"/>
-      <c r="L31" s="220"/>
-      <c r="M31" s="220"/>
-      <c r="N31" s="220"/>
-      <c r="O31" s="220"/>
-      <c r="P31" s="221"/>
-      <c r="Q31" s="216"/>
-      <c r="R31" s="217"/>
-      <c r="S31" s="217"/>
-      <c r="T31" s="217"/>
-      <c r="U31" s="217"/>
-      <c r="V31" s="217"/>
-      <c r="W31" s="217"/>
-      <c r="X31" s="217"/>
-      <c r="Y31" s="217"/>
-      <c r="Z31" s="217"/>
-      <c r="AA31" s="217"/>
-      <c r="AB31" s="217"/>
-      <c r="AC31" s="217"/>
-      <c r="AD31" s="217"/>
-      <c r="AE31" s="218"/>
-      <c r="AF31" s="219"/>
-      <c r="AG31" s="220"/>
-      <c r="AH31" s="220"/>
-      <c r="AI31" s="221"/>
+      <c r="B31" s="214"/>
+      <c r="C31" s="216"/>
+      <c r="D31" s="241"/>
+      <c r="E31" s="242"/>
+      <c r="F31" s="243"/>
+      <c r="G31" s="214"/>
+      <c r="H31" s="215"/>
+      <c r="I31" s="216"/>
+      <c r="J31" s="226"/>
+      <c r="K31" s="227"/>
+      <c r="L31" s="227"/>
+      <c r="M31" s="227"/>
+      <c r="N31" s="227"/>
+      <c r="O31" s="227"/>
+      <c r="P31" s="228"/>
+      <c r="Q31" s="223"/>
+      <c r="R31" s="224"/>
+      <c r="S31" s="224"/>
+      <c r="T31" s="224"/>
+      <c r="U31" s="224"/>
+      <c r="V31" s="224"/>
+      <c r="W31" s="224"/>
+      <c r="X31" s="224"/>
+      <c r="Y31" s="224"/>
+      <c r="Z31" s="224"/>
+      <c r="AA31" s="224"/>
+      <c r="AB31" s="224"/>
+      <c r="AC31" s="224"/>
+      <c r="AD31" s="224"/>
+      <c r="AE31" s="225"/>
+      <c r="AF31" s="226"/>
+      <c r="AG31" s="227"/>
+      <c r="AH31" s="227"/>
+      <c r="AI31" s="228"/>
     </row>
     <row r="32" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="57"/>
-      <c r="B32" s="222"/>
-      <c r="C32" s="223"/>
-      <c r="D32" s="224"/>
-      <c r="E32" s="225"/>
-      <c r="F32" s="226"/>
-      <c r="G32" s="222"/>
-      <c r="H32" s="227"/>
-      <c r="I32" s="223"/>
-      <c r="J32" s="219"/>
-      <c r="K32" s="220"/>
-      <c r="L32" s="220"/>
-      <c r="M32" s="220"/>
-      <c r="N32" s="220"/>
-      <c r="O32" s="220"/>
-      <c r="P32" s="221"/>
-      <c r="Q32" s="216"/>
-      <c r="R32" s="217"/>
-      <c r="S32" s="217"/>
-      <c r="T32" s="217"/>
-      <c r="U32" s="217"/>
-      <c r="V32" s="217"/>
-      <c r="W32" s="217"/>
-      <c r="X32" s="217"/>
-      <c r="Y32" s="217"/>
-      <c r="Z32" s="217"/>
-      <c r="AA32" s="217"/>
-      <c r="AB32" s="217"/>
-      <c r="AC32" s="217"/>
-      <c r="AD32" s="217"/>
-      <c r="AE32" s="218"/>
-      <c r="AF32" s="219"/>
-      <c r="AG32" s="220"/>
-      <c r="AH32" s="220"/>
-      <c r="AI32" s="221"/>
+      <c r="B32" s="214"/>
+      <c r="C32" s="216"/>
+      <c r="D32" s="241"/>
+      <c r="E32" s="242"/>
+      <c r="F32" s="243"/>
+      <c r="G32" s="214"/>
+      <c r="H32" s="215"/>
+      <c r="I32" s="216"/>
+      <c r="J32" s="226"/>
+      <c r="K32" s="227"/>
+      <c r="L32" s="227"/>
+      <c r="M32" s="227"/>
+      <c r="N32" s="227"/>
+      <c r="O32" s="227"/>
+      <c r="P32" s="228"/>
+      <c r="Q32" s="223"/>
+      <c r="R32" s="224"/>
+      <c r="S32" s="224"/>
+      <c r="T32" s="224"/>
+      <c r="U32" s="224"/>
+      <c r="V32" s="224"/>
+      <c r="W32" s="224"/>
+      <c r="X32" s="224"/>
+      <c r="Y32" s="224"/>
+      <c r="Z32" s="224"/>
+      <c r="AA32" s="224"/>
+      <c r="AB32" s="224"/>
+      <c r="AC32" s="224"/>
+      <c r="AD32" s="224"/>
+      <c r="AE32" s="225"/>
+      <c r="AF32" s="226"/>
+      <c r="AG32" s="227"/>
+      <c r="AH32" s="227"/>
+      <c r="AI32" s="228"/>
     </row>
     <row r="33" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="57"/>
-      <c r="B33" s="222"/>
-      <c r="C33" s="223"/>
-      <c r="D33" s="224"/>
-      <c r="E33" s="225"/>
-      <c r="F33" s="226"/>
-      <c r="G33" s="222"/>
-      <c r="H33" s="227"/>
-      <c r="I33" s="223"/>
-      <c r="J33" s="219"/>
-      <c r="K33" s="220"/>
-      <c r="L33" s="220"/>
-      <c r="M33" s="220"/>
-      <c r="N33" s="220"/>
-      <c r="O33" s="220"/>
-      <c r="P33" s="221"/>
-      <c r="Q33" s="216"/>
-      <c r="R33" s="217"/>
-      <c r="S33" s="217"/>
-      <c r="T33" s="217"/>
-      <c r="U33" s="217"/>
-      <c r="V33" s="217"/>
-      <c r="W33" s="217"/>
-      <c r="X33" s="217"/>
-      <c r="Y33" s="217"/>
-      <c r="Z33" s="217"/>
-      <c r="AA33" s="217"/>
-      <c r="AB33" s="217"/>
-      <c r="AC33" s="217"/>
-      <c r="AD33" s="217"/>
-      <c r="AE33" s="218"/>
-      <c r="AF33" s="219"/>
-      <c r="AG33" s="220"/>
-      <c r="AH33" s="220"/>
-      <c r="AI33" s="221"/>
+      <c r="B33" s="214"/>
+      <c r="C33" s="216"/>
+      <c r="D33" s="241"/>
+      <c r="E33" s="242"/>
+      <c r="F33" s="243"/>
+      <c r="G33" s="214"/>
+      <c r="H33" s="215"/>
+      <c r="I33" s="216"/>
+      <c r="J33" s="226"/>
+      <c r="K33" s="227"/>
+      <c r="L33" s="227"/>
+      <c r="M33" s="227"/>
+      <c r="N33" s="227"/>
+      <c r="O33" s="227"/>
+      <c r="P33" s="228"/>
+      <c r="Q33" s="223"/>
+      <c r="R33" s="224"/>
+      <c r="S33" s="224"/>
+      <c r="T33" s="224"/>
+      <c r="U33" s="224"/>
+      <c r="V33" s="224"/>
+      <c r="W33" s="224"/>
+      <c r="X33" s="224"/>
+      <c r="Y33" s="224"/>
+      <c r="Z33" s="224"/>
+      <c r="AA33" s="224"/>
+      <c r="AB33" s="224"/>
+      <c r="AC33" s="224"/>
+      <c r="AD33" s="224"/>
+      <c r="AE33" s="225"/>
+      <c r="AF33" s="226"/>
+      <c r="AG33" s="227"/>
+      <c r="AH33" s="227"/>
+      <c r="AI33" s="228"/>
     </row>
     <row r="34" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="28"/>
@@ -6463,161 +6483,6 @@
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -6642,6 +6507,161 @@
     <mergeCell ref="AF22:AI22"/>
     <mergeCell ref="J23:P23"/>
     <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="S1:Z3"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <printOptions horizontalCentered="1"/>
@@ -6798,158 +6818,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="32" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="251" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="203"/>
-      <c r="C1" s="203"/>
-      <c r="D1" s="204"/>
-      <c r="E1" s="274" t="str">
+      <c r="B1" s="252"/>
+      <c r="C1" s="252"/>
+      <c r="D1" s="253"/>
+      <c r="E1" s="268" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="251"/>
-      <c r="G1" s="251"/>
-      <c r="H1" s="251"/>
-      <c r="I1" s="251"/>
-      <c r="J1" s="251"/>
-      <c r="K1" s="251"/>
-      <c r="L1" s="251"/>
-      <c r="M1" s="251"/>
-      <c r="N1" s="252"/>
-      <c r="O1" s="205" t="s">
+      <c r="F1" s="221"/>
+      <c r="G1" s="221"/>
+      <c r="H1" s="221"/>
+      <c r="I1" s="221"/>
+      <c r="J1" s="221"/>
+      <c r="K1" s="221"/>
+      <c r="L1" s="221"/>
+      <c r="M1" s="221"/>
+      <c r="N1" s="222"/>
+      <c r="O1" s="254" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="206"/>
-      <c r="Q1" s="206"/>
-      <c r="R1" s="207"/>
-      <c r="S1" s="265" t="str">
+      <c r="P1" s="255"/>
+      <c r="Q1" s="255"/>
+      <c r="R1" s="256"/>
+      <c r="S1" s="269" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10101/ログイン</v>
       </c>
-      <c r="T1" s="266"/>
-      <c r="U1" s="266"/>
-      <c r="V1" s="266"/>
-      <c r="W1" s="266"/>
-      <c r="X1" s="266"/>
-      <c r="Y1" s="266"/>
-      <c r="Z1" s="267"/>
-      <c r="AA1" s="202" t="s">
+      <c r="T1" s="270"/>
+      <c r="U1" s="270"/>
+      <c r="V1" s="270"/>
+      <c r="W1" s="270"/>
+      <c r="X1" s="270"/>
+      <c r="Y1" s="270"/>
+      <c r="Z1" s="271"/>
+      <c r="AA1" s="251" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="204"/>
-      <c r="AC1" s="238" t="str">
+      <c r="AB1" s="253"/>
+      <c r="AC1" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="239"/>
-      <c r="AE1" s="239"/>
-      <c r="AF1" s="240"/>
-      <c r="AG1" s="275">
+      <c r="AD1" s="203"/>
+      <c r="AE1" s="203"/>
+      <c r="AF1" s="204"/>
+      <c r="AG1" s="265">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43656</v>
       </c>
-      <c r="AH1" s="276"/>
-      <c r="AI1" s="277"/>
+      <c r="AH1" s="266"/>
+      <c r="AI1" s="267"/>
     </row>
     <row r="2" spans="1:35" s="32" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="202" t="s">
+      <c r="A2" s="251" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="203"/>
-      <c r="C2" s="203"/>
-      <c r="D2" s="204"/>
-      <c r="E2" s="274" t="str">
+      <c r="B2" s="252"/>
+      <c r="C2" s="252"/>
+      <c r="D2" s="253"/>
+      <c r="E2" s="268" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="251"/>
-      <c r="G2" s="251"/>
-      <c r="H2" s="251"/>
-      <c r="I2" s="251"/>
-      <c r="J2" s="251"/>
-      <c r="K2" s="251"/>
-      <c r="L2" s="251"/>
-      <c r="M2" s="251"/>
-      <c r="N2" s="252"/>
-      <c r="O2" s="208"/>
-      <c r="P2" s="209"/>
-      <c r="Q2" s="209"/>
-      <c r="R2" s="210"/>
-      <c r="S2" s="268"/>
-      <c r="T2" s="269"/>
-      <c r="U2" s="269"/>
-      <c r="V2" s="269"/>
-      <c r="W2" s="269"/>
-      <c r="X2" s="269"/>
-      <c r="Y2" s="269"/>
-      <c r="Z2" s="270"/>
-      <c r="AA2" s="202" t="s">
+      <c r="F2" s="221"/>
+      <c r="G2" s="221"/>
+      <c r="H2" s="221"/>
+      <c r="I2" s="221"/>
+      <c r="J2" s="221"/>
+      <c r="K2" s="221"/>
+      <c r="L2" s="221"/>
+      <c r="M2" s="221"/>
+      <c r="N2" s="222"/>
+      <c r="O2" s="257"/>
+      <c r="P2" s="258"/>
+      <c r="Q2" s="258"/>
+      <c r="R2" s="259"/>
+      <c r="S2" s="272"/>
+      <c r="T2" s="273"/>
+      <c r="U2" s="273"/>
+      <c r="V2" s="273"/>
+      <c r="W2" s="273"/>
+      <c r="X2" s="273"/>
+      <c r="Y2" s="273"/>
+      <c r="Z2" s="274"/>
+      <c r="AA2" s="251" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="204"/>
-      <c r="AC2" s="238" t="str">
+      <c r="AB2" s="253"/>
+      <c r="AC2" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="239"/>
-      <c r="AE2" s="239"/>
-      <c r="AF2" s="240"/>
-      <c r="AG2" s="275">
+      <c r="AD2" s="203"/>
+      <c r="AE2" s="203"/>
+      <c r="AF2" s="204"/>
+      <c r="AG2" s="265">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="276"/>
-      <c r="AI2" s="277"/>
+      <c r="AH2" s="266"/>
+      <c r="AI2" s="267"/>
     </row>
     <row r="3" spans="1:35" s="32" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="202" t="s">
+      <c r="A3" s="251" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="203"/>
-      <c r="C3" s="203"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="274" t="str">
+      <c r="B3" s="252"/>
+      <c r="C3" s="252"/>
+      <c r="D3" s="253"/>
+      <c r="E3" s="268" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="251"/>
-      <c r="G3" s="251"/>
-      <c r="H3" s="251"/>
-      <c r="I3" s="251"/>
-      <c r="J3" s="251"/>
-      <c r="K3" s="251"/>
-      <c r="L3" s="251"/>
-      <c r="M3" s="251"/>
-      <c r="N3" s="252"/>
-      <c r="O3" s="211"/>
-      <c r="P3" s="212"/>
-      <c r="Q3" s="212"/>
-      <c r="R3" s="213"/>
-      <c r="S3" s="271"/>
-      <c r="T3" s="272"/>
-      <c r="U3" s="272"/>
-      <c r="V3" s="272"/>
-      <c r="W3" s="272"/>
-      <c r="X3" s="272"/>
-      <c r="Y3" s="272"/>
-      <c r="Z3" s="273"/>
-      <c r="AA3" s="202"/>
-      <c r="AB3" s="204"/>
-      <c r="AC3" s="238" t="str">
+      <c r="F3" s="221"/>
+      <c r="G3" s="221"/>
+      <c r="H3" s="221"/>
+      <c r="I3" s="221"/>
+      <c r="J3" s="221"/>
+      <c r="K3" s="221"/>
+      <c r="L3" s="221"/>
+      <c r="M3" s="221"/>
+      <c r="N3" s="222"/>
+      <c r="O3" s="260"/>
+      <c r="P3" s="261"/>
+      <c r="Q3" s="261"/>
+      <c r="R3" s="262"/>
+      <c r="S3" s="275"/>
+      <c r="T3" s="276"/>
+      <c r="U3" s="276"/>
+      <c r="V3" s="276"/>
+      <c r="W3" s="276"/>
+      <c r="X3" s="276"/>
+      <c r="Y3" s="276"/>
+      <c r="Z3" s="277"/>
+      <c r="AA3" s="251"/>
+      <c r="AB3" s="253"/>
+      <c r="AC3" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="239"/>
-      <c r="AE3" s="239"/>
-      <c r="AF3" s="240"/>
-      <c r="AG3" s="275" t="str">
+      <c r="AD3" s="203"/>
+      <c r="AE3" s="203"/>
+      <c r="AF3" s="204"/>
+      <c r="AG3" s="265" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="276"/>
-      <c r="AI3" s="277"/>
+      <c r="AH3" s="266"/>
+      <c r="AI3" s="267"/>
     </row>
     <row r="4" spans="1:35" s="35" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="29"/>
@@ -7831,14 +7851,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -7848,6 +7860,14 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -7874,158 +7894,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="251" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="203"/>
-      <c r="C1" s="203"/>
-      <c r="D1" s="204"/>
-      <c r="E1" s="274" t="str">
+      <c r="B1" s="252"/>
+      <c r="C1" s="252"/>
+      <c r="D1" s="253"/>
+      <c r="E1" s="268" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="251"/>
-      <c r="G1" s="251"/>
-      <c r="H1" s="251"/>
-      <c r="I1" s="251"/>
-      <c r="J1" s="251"/>
-      <c r="K1" s="251"/>
-      <c r="L1" s="251"/>
-      <c r="M1" s="251"/>
-      <c r="N1" s="252"/>
-      <c r="O1" s="205" t="s">
+      <c r="F1" s="221"/>
+      <c r="G1" s="221"/>
+      <c r="H1" s="221"/>
+      <c r="I1" s="221"/>
+      <c r="J1" s="221"/>
+      <c r="K1" s="221"/>
+      <c r="L1" s="221"/>
+      <c r="M1" s="221"/>
+      <c r="N1" s="222"/>
+      <c r="O1" s="254" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="206"/>
-      <c r="Q1" s="206"/>
-      <c r="R1" s="207"/>
-      <c r="S1" s="265" t="str">
+      <c r="P1" s="255"/>
+      <c r="Q1" s="255"/>
+      <c r="R1" s="256"/>
+      <c r="S1" s="269" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10101/ログイン</v>
       </c>
-      <c r="T1" s="266"/>
-      <c r="U1" s="266"/>
-      <c r="V1" s="266"/>
-      <c r="W1" s="266"/>
-      <c r="X1" s="266"/>
-      <c r="Y1" s="266"/>
-      <c r="Z1" s="267"/>
-      <c r="AA1" s="202" t="s">
+      <c r="T1" s="270"/>
+      <c r="U1" s="270"/>
+      <c r="V1" s="270"/>
+      <c r="W1" s="270"/>
+      <c r="X1" s="270"/>
+      <c r="Y1" s="270"/>
+      <c r="Z1" s="271"/>
+      <c r="AA1" s="251" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="204"/>
-      <c r="AC1" s="238" t="str">
+      <c r="AB1" s="253"/>
+      <c r="AC1" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="239"/>
-      <c r="AE1" s="239"/>
-      <c r="AF1" s="240"/>
-      <c r="AG1" s="275">
+      <c r="AD1" s="203"/>
+      <c r="AE1" s="203"/>
+      <c r="AF1" s="204"/>
+      <c r="AG1" s="265">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43656</v>
       </c>
-      <c r="AH1" s="276"/>
-      <c r="AI1" s="277"/>
+      <c r="AH1" s="266"/>
+      <c r="AI1" s="267"/>
     </row>
     <row r="2" spans="1:35" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="202" t="s">
+      <c r="A2" s="251" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="203"/>
-      <c r="C2" s="203"/>
-      <c r="D2" s="204"/>
-      <c r="E2" s="274" t="str">
+      <c r="B2" s="252"/>
+      <c r="C2" s="252"/>
+      <c r="D2" s="253"/>
+      <c r="E2" s="268" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="251"/>
-      <c r="G2" s="251"/>
-      <c r="H2" s="251"/>
-      <c r="I2" s="251"/>
-      <c r="J2" s="251"/>
-      <c r="K2" s="251"/>
-      <c r="L2" s="251"/>
-      <c r="M2" s="251"/>
-      <c r="N2" s="252"/>
-      <c r="O2" s="208"/>
-      <c r="P2" s="209"/>
-      <c r="Q2" s="209"/>
-      <c r="R2" s="210"/>
-      <c r="S2" s="268"/>
-      <c r="T2" s="269"/>
-      <c r="U2" s="269"/>
-      <c r="V2" s="269"/>
-      <c r="W2" s="269"/>
-      <c r="X2" s="269"/>
-      <c r="Y2" s="269"/>
-      <c r="Z2" s="270"/>
-      <c r="AA2" s="202" t="s">
+      <c r="F2" s="221"/>
+      <c r="G2" s="221"/>
+      <c r="H2" s="221"/>
+      <c r="I2" s="221"/>
+      <c r="J2" s="221"/>
+      <c r="K2" s="221"/>
+      <c r="L2" s="221"/>
+      <c r="M2" s="221"/>
+      <c r="N2" s="222"/>
+      <c r="O2" s="257"/>
+      <c r="P2" s="258"/>
+      <c r="Q2" s="258"/>
+      <c r="R2" s="259"/>
+      <c r="S2" s="272"/>
+      <c r="T2" s="273"/>
+      <c r="U2" s="273"/>
+      <c r="V2" s="273"/>
+      <c r="W2" s="273"/>
+      <c r="X2" s="273"/>
+      <c r="Y2" s="273"/>
+      <c r="Z2" s="274"/>
+      <c r="AA2" s="251" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="204"/>
-      <c r="AC2" s="238" t="str">
+      <c r="AB2" s="253"/>
+      <c r="AC2" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="239"/>
-      <c r="AE2" s="239"/>
-      <c r="AF2" s="240"/>
-      <c r="AG2" s="275">
+      <c r="AD2" s="203"/>
+      <c r="AE2" s="203"/>
+      <c r="AF2" s="204"/>
+      <c r="AG2" s="265">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="276"/>
-      <c r="AI2" s="277"/>
+      <c r="AH2" s="266"/>
+      <c r="AI2" s="267"/>
     </row>
     <row r="3" spans="1:35" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="202" t="s">
+      <c r="A3" s="251" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="203"/>
-      <c r="C3" s="203"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="274" t="str">
+      <c r="B3" s="252"/>
+      <c r="C3" s="252"/>
+      <c r="D3" s="253"/>
+      <c r="E3" s="268" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="251"/>
-      <c r="G3" s="251"/>
-      <c r="H3" s="251"/>
-      <c r="I3" s="251"/>
-      <c r="J3" s="251"/>
-      <c r="K3" s="251"/>
-      <c r="L3" s="251"/>
-      <c r="M3" s="251"/>
-      <c r="N3" s="252"/>
-      <c r="O3" s="211"/>
-      <c r="P3" s="212"/>
-      <c r="Q3" s="212"/>
-      <c r="R3" s="213"/>
-      <c r="S3" s="271"/>
-      <c r="T3" s="272"/>
-      <c r="U3" s="272"/>
-      <c r="V3" s="272"/>
-      <c r="W3" s="272"/>
-      <c r="X3" s="272"/>
-      <c r="Y3" s="272"/>
-      <c r="Z3" s="273"/>
-      <c r="AA3" s="202"/>
-      <c r="AB3" s="204"/>
-      <c r="AC3" s="238" t="str">
+      <c r="F3" s="221"/>
+      <c r="G3" s="221"/>
+      <c r="H3" s="221"/>
+      <c r="I3" s="221"/>
+      <c r="J3" s="221"/>
+      <c r="K3" s="221"/>
+      <c r="L3" s="221"/>
+      <c r="M3" s="221"/>
+      <c r="N3" s="222"/>
+      <c r="O3" s="260"/>
+      <c r="P3" s="261"/>
+      <c r="Q3" s="261"/>
+      <c r="R3" s="262"/>
+      <c r="S3" s="275"/>
+      <c r="T3" s="276"/>
+      <c r="U3" s="276"/>
+      <c r="V3" s="276"/>
+      <c r="W3" s="276"/>
+      <c r="X3" s="276"/>
+      <c r="Y3" s="276"/>
+      <c r="Z3" s="277"/>
+      <c r="AA3" s="251"/>
+      <c r="AB3" s="253"/>
+      <c r="AC3" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="239"/>
-      <c r="AE3" s="239"/>
-      <c r="AF3" s="240"/>
-      <c r="AG3" s="275" t="str">
+      <c r="AD3" s="203"/>
+      <c r="AE3" s="203"/>
+      <c r="AF3" s="204"/>
+      <c r="AG3" s="265" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="276"/>
-      <c r="AI3" s="277"/>
+      <c r="AH3" s="266"/>
+      <c r="AI3" s="267"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -8047,7 +8067,7 @@
       <c r="D8" s="289"/>
       <c r="E8" s="289"/>
       <c r="F8" s="290"/>
-      <c r="G8" s="219" t="s">
+      <c r="G8" s="226" t="s">
         <v>137</v>
       </c>
       <c r="H8" s="291"/>
@@ -8085,7 +8105,7 @@
       <c r="D9" s="293"/>
       <c r="E9" s="293"/>
       <c r="F9" s="294"/>
-      <c r="G9" s="219" t="s">
+      <c r="G9" s="226" t="s">
         <v>138</v>
       </c>
       <c r="H9" s="289"/>
@@ -8124,7 +8144,7 @@
       <c r="E10" s="280"/>
       <c r="F10" s="281"/>
       <c r="G10" s="163" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H10" s="93"/>
       <c r="I10" s="93"/>
@@ -8160,7 +8180,7 @@
       <c r="E11" s="283"/>
       <c r="F11" s="284"/>
       <c r="G11" s="95" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H11" s="35"/>
       <c r="I11" s="35"/>
@@ -8335,18 +8355,6 @@
     <row r="52" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C10:F13"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:AG8"/>
-    <mergeCell ref="G9:AG9"/>
-    <mergeCell ref="C9:F9"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -8358,6 +8366,18 @@
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C10:F13"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:AG8"/>
+    <mergeCell ref="G9:AG9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -8374,7 +8394,7 @@
   <sheetPr codeName="Sheet7">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BG176"/>
+  <dimension ref="A1:BG179"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -8388,160 +8408,160 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="383" t="s">
+      <c r="A1" s="340" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="384"/>
-      <c r="C1" s="384"/>
-      <c r="D1" s="385"/>
-      <c r="E1" s="274" t="str">
+      <c r="B1" s="341"/>
+      <c r="C1" s="341"/>
+      <c r="D1" s="342"/>
+      <c r="E1" s="268" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="251"/>
-      <c r="G1" s="251"/>
-      <c r="H1" s="251"/>
-      <c r="I1" s="251"/>
-      <c r="J1" s="251"/>
-      <c r="K1" s="251"/>
-      <c r="L1" s="251"/>
-      <c r="M1" s="251"/>
-      <c r="N1" s="252"/>
-      <c r="O1" s="205" t="s">
+      <c r="F1" s="221"/>
+      <c r="G1" s="221"/>
+      <c r="H1" s="221"/>
+      <c r="I1" s="221"/>
+      <c r="J1" s="221"/>
+      <c r="K1" s="221"/>
+      <c r="L1" s="221"/>
+      <c r="M1" s="221"/>
+      <c r="N1" s="222"/>
+      <c r="O1" s="254" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="206"/>
-      <c r="Q1" s="206"/>
-      <c r="R1" s="207"/>
-      <c r="S1" s="265" t="str">
+      <c r="P1" s="255"/>
+      <c r="Q1" s="255"/>
+      <c r="R1" s="256"/>
+      <c r="S1" s="269" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10101/ログイン</v>
       </c>
-      <c r="T1" s="266"/>
-      <c r="U1" s="266"/>
-      <c r="V1" s="266"/>
-      <c r="W1" s="266"/>
-      <c r="X1" s="266"/>
-      <c r="Y1" s="266"/>
-      <c r="Z1" s="267"/>
-      <c r="AA1" s="202" t="s">
+      <c r="T1" s="270"/>
+      <c r="U1" s="270"/>
+      <c r="V1" s="270"/>
+      <c r="W1" s="270"/>
+      <c r="X1" s="270"/>
+      <c r="Y1" s="270"/>
+      <c r="Z1" s="271"/>
+      <c r="AA1" s="251" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="204"/>
-      <c r="AC1" s="238" t="str">
+      <c r="AB1" s="253"/>
+      <c r="AC1" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="239"/>
-      <c r="AE1" s="239"/>
-      <c r="AF1" s="240"/>
-      <c r="AG1" s="380">
+      <c r="AD1" s="203"/>
+      <c r="AE1" s="203"/>
+      <c r="AF1" s="204"/>
+      <c r="AG1" s="337">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43656</v>
       </c>
-      <c r="AH1" s="381"/>
-      <c r="AI1" s="382"/>
+      <c r="AH1" s="338"/>
+      <c r="AI1" s="339"/>
       <c r="AJ1" s="30"/>
     </row>
     <row r="2" spans="1:36" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="383" t="s">
+      <c r="A2" s="340" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="384"/>
-      <c r="C2" s="384"/>
-      <c r="D2" s="385"/>
-      <c r="E2" s="274" t="str">
+      <c r="B2" s="341"/>
+      <c r="C2" s="341"/>
+      <c r="D2" s="342"/>
+      <c r="E2" s="268" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="251"/>
-      <c r="G2" s="251"/>
-      <c r="H2" s="251"/>
-      <c r="I2" s="251"/>
-      <c r="J2" s="251"/>
-      <c r="K2" s="251"/>
-      <c r="L2" s="251"/>
-      <c r="M2" s="251"/>
-      <c r="N2" s="252"/>
-      <c r="O2" s="208"/>
-      <c r="P2" s="209"/>
-      <c r="Q2" s="209"/>
-      <c r="R2" s="210"/>
-      <c r="S2" s="268"/>
-      <c r="T2" s="269"/>
-      <c r="U2" s="269"/>
-      <c r="V2" s="269"/>
-      <c r="W2" s="269"/>
-      <c r="X2" s="269"/>
-      <c r="Y2" s="269"/>
-      <c r="Z2" s="270"/>
-      <c r="AA2" s="202" t="s">
+      <c r="F2" s="221"/>
+      <c r="G2" s="221"/>
+      <c r="H2" s="221"/>
+      <c r="I2" s="221"/>
+      <c r="J2" s="221"/>
+      <c r="K2" s="221"/>
+      <c r="L2" s="221"/>
+      <c r="M2" s="221"/>
+      <c r="N2" s="222"/>
+      <c r="O2" s="257"/>
+      <c r="P2" s="258"/>
+      <c r="Q2" s="258"/>
+      <c r="R2" s="259"/>
+      <c r="S2" s="272"/>
+      <c r="T2" s="273"/>
+      <c r="U2" s="273"/>
+      <c r="V2" s="273"/>
+      <c r="W2" s="273"/>
+      <c r="X2" s="273"/>
+      <c r="Y2" s="273"/>
+      <c r="Z2" s="274"/>
+      <c r="AA2" s="251" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="204"/>
-      <c r="AC2" s="238" t="str">
+      <c r="AB2" s="253"/>
+      <c r="AC2" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="239"/>
-      <c r="AE2" s="239"/>
-      <c r="AF2" s="240"/>
-      <c r="AG2" s="380">
+      <c r="AD2" s="203"/>
+      <c r="AE2" s="203"/>
+      <c r="AF2" s="204"/>
+      <c r="AG2" s="337">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="381"/>
-      <c r="AI2" s="382"/>
+      <c r="AH2" s="338"/>
+      <c r="AI2" s="339"/>
       <c r="AJ2" s="30"/>
     </row>
     <row r="3" spans="1:36" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="383" t="s">
+      <c r="A3" s="340" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="384"/>
-      <c r="C3" s="384"/>
-      <c r="D3" s="385"/>
-      <c r="E3" s="274" t="str">
+      <c r="B3" s="341"/>
+      <c r="C3" s="341"/>
+      <c r="D3" s="342"/>
+      <c r="E3" s="268" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="251"/>
-      <c r="G3" s="251"/>
-      <c r="H3" s="251"/>
-      <c r="I3" s="251"/>
-      <c r="J3" s="251"/>
-      <c r="K3" s="251"/>
-      <c r="L3" s="251"/>
-      <c r="M3" s="251"/>
-      <c r="N3" s="252"/>
-      <c r="O3" s="211"/>
-      <c r="P3" s="212"/>
-      <c r="Q3" s="212"/>
-      <c r="R3" s="213"/>
-      <c r="S3" s="271"/>
-      <c r="T3" s="272"/>
-      <c r="U3" s="272"/>
-      <c r="V3" s="272"/>
-      <c r="W3" s="272"/>
-      <c r="X3" s="272"/>
-      <c r="Y3" s="272"/>
-      <c r="Z3" s="273"/>
-      <c r="AA3" s="202"/>
-      <c r="AB3" s="204"/>
-      <c r="AC3" s="238" t="str">
+      <c r="F3" s="221"/>
+      <c r="G3" s="221"/>
+      <c r="H3" s="221"/>
+      <c r="I3" s="221"/>
+      <c r="J3" s="221"/>
+      <c r="K3" s="221"/>
+      <c r="L3" s="221"/>
+      <c r="M3" s="221"/>
+      <c r="N3" s="222"/>
+      <c r="O3" s="260"/>
+      <c r="P3" s="261"/>
+      <c r="Q3" s="261"/>
+      <c r="R3" s="262"/>
+      <c r="S3" s="275"/>
+      <c r="T3" s="276"/>
+      <c r="U3" s="276"/>
+      <c r="V3" s="276"/>
+      <c r="W3" s="276"/>
+      <c r="X3" s="276"/>
+      <c r="Y3" s="276"/>
+      <c r="Z3" s="277"/>
+      <c r="AA3" s="251"/>
+      <c r="AB3" s="253"/>
+      <c r="AC3" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="239"/>
-      <c r="AE3" s="239"/>
-      <c r="AF3" s="240"/>
-      <c r="AG3" s="380" t="str">
+      <c r="AD3" s="203"/>
+      <c r="AE3" s="203"/>
+      <c r="AF3" s="204"/>
+      <c r="AG3" s="337" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="381"/>
-      <c r="AI3" s="382"/>
+      <c r="AH3" s="338"/>
+      <c r="AI3" s="339"/>
       <c r="AJ3" s="30"/>
     </row>
     <row r="4" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8693,39 +8713,39 @@
       <c r="D43" s="131" t="s">
         <v>41</v>
       </c>
-      <c r="E43" s="358" t="s">
+      <c r="E43" s="343" t="s">
         <v>69</v>
       </c>
-      <c r="F43" s="358"/>
-      <c r="G43" s="358"/>
-      <c r="H43" s="358"/>
-      <c r="I43" s="358"/>
-      <c r="J43" s="358"/>
-      <c r="K43" s="358"/>
-      <c r="L43" s="358"/>
-      <c r="M43" s="358"/>
-      <c r="N43" s="358" t="s">
+      <c r="F43" s="343"/>
+      <c r="G43" s="343"/>
+      <c r="H43" s="343"/>
+      <c r="I43" s="343"/>
+      <c r="J43" s="343"/>
+      <c r="K43" s="343"/>
+      <c r="L43" s="343"/>
+      <c r="M43" s="343"/>
+      <c r="N43" s="343" t="s">
         <v>43</v>
       </c>
-      <c r="O43" s="358"/>
-      <c r="P43" s="358"/>
-      <c r="Q43" s="358" t="s">
+      <c r="O43" s="343"/>
+      <c r="P43" s="343"/>
+      <c r="Q43" s="343" t="s">
         <v>25</v>
       </c>
-      <c r="R43" s="358"/>
-      <c r="S43" s="358"/>
-      <c r="T43" s="358"/>
-      <c r="U43" s="358"/>
-      <c r="V43" s="358" t="s">
+      <c r="R43" s="343"/>
+      <c r="S43" s="343"/>
+      <c r="T43" s="343"/>
+      <c r="U43" s="343"/>
+      <c r="V43" s="343" t="s">
         <v>14</v>
       </c>
-      <c r="W43" s="358"/>
-      <c r="X43" s="358"/>
-      <c r="Y43" s="358"/>
-      <c r="Z43" s="358"/>
-      <c r="AA43" s="358"/>
-      <c r="AB43" s="358"/>
-      <c r="AC43" s="358"/>
+      <c r="W43" s="343"/>
+      <c r="X43" s="343"/>
+      <c r="Y43" s="343"/>
+      <c r="Z43" s="343"/>
+      <c r="AA43" s="343"/>
+      <c r="AB43" s="343"/>
+      <c r="AC43" s="343"/>
       <c r="AD43" s="135"/>
       <c r="AE43" s="135"/>
       <c r="AF43" s="135"/>
@@ -8736,39 +8756,39 @@
       <c r="D44" s="153">
         <v>1</v>
       </c>
-      <c r="E44" s="375" t="s">
+      <c r="E44" s="359" t="s">
         <v>119</v>
       </c>
-      <c r="F44" s="372"/>
-      <c r="G44" s="372"/>
-      <c r="H44" s="372"/>
-      <c r="I44" s="372"/>
-      <c r="J44" s="372"/>
-      <c r="K44" s="372"/>
-      <c r="L44" s="372"/>
-      <c r="M44" s="372"/>
-      <c r="N44" s="372" t="s">
+      <c r="F44" s="356"/>
+      <c r="G44" s="356"/>
+      <c r="H44" s="356"/>
+      <c r="I44" s="356"/>
+      <c r="J44" s="356"/>
+      <c r="K44" s="356"/>
+      <c r="L44" s="356"/>
+      <c r="M44" s="356"/>
+      <c r="N44" s="356" t="s">
         <v>89</v>
       </c>
-      <c r="O44" s="372"/>
-      <c r="P44" s="372"/>
-      <c r="Q44" s="370" t="s">
+      <c r="O44" s="356"/>
+      <c r="P44" s="356"/>
+      <c r="Q44" s="354" t="s">
         <v>113</v>
       </c>
-      <c r="R44" s="370"/>
-      <c r="S44" s="370"/>
-      <c r="T44" s="370"/>
-      <c r="U44" s="370"/>
-      <c r="V44" s="371" t="s">
+      <c r="R44" s="354"/>
+      <c r="S44" s="354"/>
+      <c r="T44" s="354"/>
+      <c r="U44" s="354"/>
+      <c r="V44" s="355" t="s">
         <v>123</v>
       </c>
-      <c r="W44" s="370"/>
-      <c r="X44" s="370"/>
-      <c r="Y44" s="370"/>
-      <c r="Z44" s="370"/>
-      <c r="AA44" s="370"/>
-      <c r="AB44" s="370"/>
-      <c r="AC44" s="370"/>
+      <c r="W44" s="354"/>
+      <c r="X44" s="354"/>
+      <c r="Y44" s="354"/>
+      <c r="Z44" s="354"/>
+      <c r="AA44" s="354"/>
+      <c r="AB44" s="354"/>
+      <c r="AC44" s="354"/>
       <c r="AM44" s="35"/>
     </row>
     <row r="45" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8845,36 +8865,36 @@
       <c r="AZ48" s="133"/>
     </row>
     <row r="49" spans="3:53" s="91" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D49" s="301" t="s">
+      <c r="D49" s="366" t="s">
         <v>41</v>
       </c>
-      <c r="E49" s="352" t="s">
+      <c r="E49" s="334" t="s">
         <v>29</v>
       </c>
-      <c r="F49" s="353"/>
-      <c r="G49" s="353"/>
-      <c r="H49" s="353"/>
-      <c r="I49" s="353"/>
-      <c r="J49" s="353"/>
-      <c r="K49" s="353"/>
-      <c r="L49" s="353"/>
-      <c r="M49" s="353"/>
-      <c r="N49" s="353"/>
-      <c r="O49" s="353"/>
-      <c r="P49" s="353"/>
-      <c r="Q49" s="353"/>
-      <c r="R49" s="353"/>
-      <c r="S49" s="353"/>
-      <c r="T49" s="353"/>
-      <c r="U49" s="353"/>
-      <c r="V49" s="353"/>
-      <c r="W49" s="353"/>
-      <c r="X49" s="353"/>
-      <c r="Y49" s="353"/>
-      <c r="Z49" s="353"/>
-      <c r="AA49" s="353"/>
-      <c r="AB49" s="353"/>
-      <c r="AC49" s="354"/>
+      <c r="F49" s="335"/>
+      <c r="G49" s="335"/>
+      <c r="H49" s="335"/>
+      <c r="I49" s="335"/>
+      <c r="J49" s="335"/>
+      <c r="K49" s="335"/>
+      <c r="L49" s="335"/>
+      <c r="M49" s="335"/>
+      <c r="N49" s="335"/>
+      <c r="O49" s="335"/>
+      <c r="P49" s="335"/>
+      <c r="Q49" s="335"/>
+      <c r="R49" s="335"/>
+      <c r="S49" s="335"/>
+      <c r="T49" s="335"/>
+      <c r="U49" s="335"/>
+      <c r="V49" s="335"/>
+      <c r="W49" s="335"/>
+      <c r="X49" s="335"/>
+      <c r="Y49" s="335"/>
+      <c r="Z49" s="335"/>
+      <c r="AA49" s="335"/>
+      <c r="AB49" s="335"/>
+      <c r="AC49" s="336"/>
       <c r="AD49" s="279" t="s">
         <v>33</v>
       </c>
@@ -8892,29 +8912,29 @@
       <c r="AN49" s="133"/>
     </row>
     <row r="50" spans="3:53" s="91" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D50" s="325"/>
+      <c r="D50" s="367"/>
       <c r="E50" s="279" t="s">
         <v>31</v>
       </c>
       <c r="F50" s="280"/>
       <c r="G50" s="280"/>
       <c r="H50" s="281"/>
-      <c r="I50" s="351" t="s">
+      <c r="I50" s="383" t="s">
         <v>39</v>
       </c>
-      <c r="J50" s="327"/>
-      <c r="K50" s="327"/>
-      <c r="L50" s="328"/>
-      <c r="M50" s="326" t="s">
+      <c r="J50" s="370"/>
+      <c r="K50" s="370"/>
+      <c r="L50" s="371"/>
+      <c r="M50" s="369" t="s">
         <v>118</v>
       </c>
-      <c r="N50" s="327"/>
-      <c r="O50" s="327"/>
-      <c r="P50" s="327"/>
-      <c r="Q50" s="327"/>
-      <c r="R50" s="327"/>
-      <c r="S50" s="327"/>
-      <c r="T50" s="328"/>
+      <c r="N50" s="370"/>
+      <c r="O50" s="370"/>
+      <c r="P50" s="370"/>
+      <c r="Q50" s="370"/>
+      <c r="R50" s="370"/>
+      <c r="S50" s="370"/>
+      <c r="T50" s="371"/>
       <c r="U50" s="279" t="s">
         <v>32</v>
       </c>
@@ -8927,7 +8947,7 @@
       </c>
       <c r="AA50" s="280"/>
       <c r="AB50" s="281"/>
-      <c r="AC50" s="301" t="s">
+      <c r="AC50" s="366" t="s">
         <v>44</v>
       </c>
       <c r="AD50" s="282"/>
@@ -8949,23 +8969,23 @@
       <c r="AT50" s="133"/>
     </row>
     <row r="51" spans="3:53" s="91" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D51" s="302"/>
+      <c r="D51" s="368"/>
       <c r="E51" s="285"/>
       <c r="F51" s="286"/>
       <c r="G51" s="286"/>
       <c r="H51" s="287"/>
-      <c r="I51" s="329"/>
-      <c r="J51" s="330"/>
-      <c r="K51" s="330"/>
-      <c r="L51" s="331"/>
-      <c r="M51" s="329"/>
-      <c r="N51" s="330"/>
-      <c r="O51" s="330"/>
-      <c r="P51" s="330"/>
-      <c r="Q51" s="330"/>
-      <c r="R51" s="330"/>
-      <c r="S51" s="330"/>
-      <c r="T51" s="331"/>
+      <c r="I51" s="372"/>
+      <c r="J51" s="373"/>
+      <c r="K51" s="373"/>
+      <c r="L51" s="374"/>
+      <c r="M51" s="372"/>
+      <c r="N51" s="373"/>
+      <c r="O51" s="373"/>
+      <c r="P51" s="373"/>
+      <c r="Q51" s="373"/>
+      <c r="R51" s="373"/>
+      <c r="S51" s="373"/>
+      <c r="T51" s="374"/>
       <c r="U51" s="285"/>
       <c r="V51" s="286"/>
       <c r="W51" s="286"/>
@@ -8974,7 +8994,7 @@
       <c r="Z51" s="285"/>
       <c r="AA51" s="286"/>
       <c r="AB51" s="287"/>
-      <c r="AC51" s="302"/>
+      <c r="AC51" s="368"/>
       <c r="AD51" s="285"/>
       <c r="AE51" s="286"/>
       <c r="AF51" s="286"/>
@@ -8999,49 +9019,49 @@
       <c r="D52" s="138">
         <v>1</v>
       </c>
-      <c r="E52" s="219" t="s">
+      <c r="E52" s="226" t="s">
         <v>141</v>
       </c>
       <c r="F52" s="291"/>
       <c r="G52" s="291"/>
-      <c r="H52" s="349"/>
-      <c r="I52" s="350" t="s">
+      <c r="H52" s="362"/>
+      <c r="I52" s="361" t="s">
         <v>88</v>
       </c>
-      <c r="J52" s="350"/>
-      <c r="K52" s="350"/>
-      <c r="L52" s="350"/>
-      <c r="M52" s="373" t="s">
+      <c r="J52" s="361"/>
+      <c r="K52" s="361"/>
+      <c r="L52" s="361"/>
+      <c r="M52" s="357" t="s">
         <v>136</v>
       </c>
-      <c r="N52" s="374"/>
-      <c r="O52" s="374"/>
-      <c r="P52" s="374"/>
-      <c r="Q52" s="374"/>
-      <c r="R52" s="374"/>
-      <c r="S52" s="374"/>
-      <c r="T52" s="374"/>
-      <c r="U52" s="347" t="s">
+      <c r="N52" s="358"/>
+      <c r="O52" s="358"/>
+      <c r="P52" s="358"/>
+      <c r="Q52" s="358"/>
+      <c r="R52" s="358"/>
+      <c r="S52" s="358"/>
+      <c r="T52" s="358"/>
+      <c r="U52" s="329" t="s">
         <v>135</v>
       </c>
-      <c r="V52" s="348"/>
-      <c r="W52" s="348"/>
-      <c r="X52" s="348"/>
-      <c r="Y52" s="348"/>
-      <c r="Z52" s="347" t="s">
+      <c r="V52" s="330"/>
+      <c r="W52" s="330"/>
+      <c r="X52" s="330"/>
+      <c r="Y52" s="330"/>
+      <c r="Z52" s="329" t="s">
         <v>135</v>
       </c>
-      <c r="AA52" s="348"/>
-      <c r="AB52" s="348"/>
+      <c r="AA52" s="330"/>
+      <c r="AB52" s="330"/>
       <c r="AC52" s="176" t="s">
         <v>90</v>
       </c>
-      <c r="AD52" s="216" t="s">
+      <c r="AD52" s="223" t="s">
         <v>141</v>
       </c>
-      <c r="AE52" s="299"/>
-      <c r="AF52" s="299"/>
-      <c r="AG52" s="300"/>
+      <c r="AE52" s="324"/>
+      <c r="AF52" s="324"/>
+      <c r="AG52" s="325"/>
       <c r="AH52" s="133"/>
       <c r="AI52" s="133"/>
       <c r="AJ52" s="133"/>
@@ -9062,49 +9082,49 @@
       <c r="D53" s="138">
         <v>2</v>
       </c>
-      <c r="E53" s="219" t="s">
+      <c r="E53" s="226" t="s">
         <v>142</v>
       </c>
       <c r="F53" s="291"/>
       <c r="G53" s="291"/>
-      <c r="H53" s="349"/>
-      <c r="I53" s="376" t="s">
+      <c r="H53" s="362"/>
+      <c r="I53" s="360" t="s">
         <v>171</v>
       </c>
-      <c r="J53" s="350"/>
-      <c r="K53" s="350"/>
-      <c r="L53" s="350"/>
-      <c r="M53" s="355" t="s">
+      <c r="J53" s="361"/>
+      <c r="K53" s="361"/>
+      <c r="L53" s="361"/>
+      <c r="M53" s="351" t="s">
         <v>79</v>
       </c>
-      <c r="N53" s="356"/>
-      <c r="O53" s="356"/>
-      <c r="P53" s="356"/>
-      <c r="Q53" s="356"/>
-      <c r="R53" s="356"/>
-      <c r="S53" s="356"/>
-      <c r="T53" s="357"/>
-      <c r="U53" s="216" t="s">
+      <c r="N53" s="315"/>
+      <c r="O53" s="315"/>
+      <c r="P53" s="315"/>
+      <c r="Q53" s="315"/>
+      <c r="R53" s="315"/>
+      <c r="S53" s="315"/>
+      <c r="T53" s="316"/>
+      <c r="U53" s="223" t="s">
         <v>173</v>
       </c>
-      <c r="V53" s="299"/>
-      <c r="W53" s="299"/>
-      <c r="X53" s="299"/>
-      <c r="Y53" s="300"/>
-      <c r="Z53" s="347" t="s">
+      <c r="V53" s="324"/>
+      <c r="W53" s="324"/>
+      <c r="X53" s="324"/>
+      <c r="Y53" s="325"/>
+      <c r="Z53" s="329" t="s">
         <v>135</v>
       </c>
-      <c r="AA53" s="348"/>
-      <c r="AB53" s="348"/>
+      <c r="AA53" s="330"/>
+      <c r="AB53" s="330"/>
       <c r="AC53" s="176" t="s">
         <v>90</v>
       </c>
-      <c r="AD53" s="216" t="s">
+      <c r="AD53" s="223" t="s">
         <v>142</v>
       </c>
-      <c r="AE53" s="299"/>
-      <c r="AF53" s="299"/>
-      <c r="AG53" s="300"/>
+      <c r="AE53" s="324"/>
+      <c r="AF53" s="324"/>
+      <c r="AG53" s="325"/>
       <c r="AH53" s="133"/>
       <c r="AI53" s="133"/>
       <c r="AJ53" s="133"/>
@@ -9229,24 +9249,24 @@
       <c r="AW57" s="105"/>
     </row>
     <row r="58" spans="3:53" x14ac:dyDescent="0.15">
-      <c r="D58" s="332" t="s">
+      <c r="D58" s="375" t="s">
         <v>117</v>
       </c>
-      <c r="E58" s="334" t="s">
+      <c r="E58" s="306" t="s">
         <v>49</v>
       </c>
-      <c r="F58" s="335"/>
-      <c r="G58" s="335"/>
-      <c r="H58" s="335"/>
-      <c r="I58" s="335"/>
-      <c r="J58" s="336"/>
-      <c r="K58" s="334" t="s">
+      <c r="F58" s="307"/>
+      <c r="G58" s="307"/>
+      <c r="H58" s="307"/>
+      <c r="I58" s="307"/>
+      <c r="J58" s="308"/>
+      <c r="K58" s="306" t="s">
         <v>50</v>
       </c>
-      <c r="L58" s="335"/>
-      <c r="M58" s="335"/>
-      <c r="N58" s="336"/>
-      <c r="O58" s="395" t="s">
+      <c r="L58" s="307"/>
+      <c r="M58" s="307"/>
+      <c r="N58" s="308"/>
+      <c r="O58" s="304" t="s">
         <v>51</v>
       </c>
       <c r="P58" s="139" t="s">
@@ -9257,21 +9277,21 @@
       <c r="S58" s="140"/>
       <c r="T58" s="140"/>
       <c r="U58" s="140"/>
-      <c r="V58" s="334" t="s">
+      <c r="V58" s="306" t="s">
         <v>30</v>
       </c>
-      <c r="W58" s="335"/>
-      <c r="X58" s="335"/>
-      <c r="Y58" s="335"/>
-      <c r="Z58" s="335"/>
-      <c r="AA58" s="335"/>
-      <c r="AB58" s="335"/>
-      <c r="AC58" s="335"/>
-      <c r="AD58" s="335"/>
-      <c r="AE58" s="335"/>
-      <c r="AF58" s="335"/>
-      <c r="AG58" s="335"/>
-      <c r="AH58" s="336"/>
+      <c r="W58" s="307"/>
+      <c r="X58" s="307"/>
+      <c r="Y58" s="307"/>
+      <c r="Z58" s="307"/>
+      <c r="AA58" s="307"/>
+      <c r="AB58" s="307"/>
+      <c r="AC58" s="307"/>
+      <c r="AD58" s="307"/>
+      <c r="AE58" s="307"/>
+      <c r="AF58" s="307"/>
+      <c r="AG58" s="307"/>
+      <c r="AH58" s="308"/>
       <c r="AK58" s="105"/>
       <c r="AL58" s="105"/>
       <c r="AM58" s="105"/>
@@ -9287,18 +9307,18 @@
       <c r="AW58" s="105"/>
     </row>
     <row r="59" spans="3:53" x14ac:dyDescent="0.15">
-      <c r="D59" s="333"/>
-      <c r="E59" s="337"/>
-      <c r="F59" s="338"/>
-      <c r="G59" s="338"/>
-      <c r="H59" s="338"/>
-      <c r="I59" s="338"/>
-      <c r="J59" s="339"/>
-      <c r="K59" s="337"/>
-      <c r="L59" s="338"/>
-      <c r="M59" s="338"/>
-      <c r="N59" s="339"/>
-      <c r="O59" s="396"/>
+      <c r="D59" s="376"/>
+      <c r="E59" s="309"/>
+      <c r="F59" s="310"/>
+      <c r="G59" s="310"/>
+      <c r="H59" s="310"/>
+      <c r="I59" s="310"/>
+      <c r="J59" s="311"/>
+      <c r="K59" s="309"/>
+      <c r="L59" s="310"/>
+      <c r="M59" s="310"/>
+      <c r="N59" s="311"/>
+      <c r="O59" s="305"/>
       <c r="P59" s="141" t="s">
         <v>52</v>
       </c>
@@ -9311,23 +9331,23 @@
       <c r="S59" s="141" t="s">
         <v>55</v>
       </c>
-      <c r="T59" s="397" t="s">
+      <c r="T59" s="312" t="s">
         <v>59</v>
       </c>
-      <c r="U59" s="398"/>
-      <c r="V59" s="337"/>
-      <c r="W59" s="338"/>
-      <c r="X59" s="338"/>
-      <c r="Y59" s="338"/>
-      <c r="Z59" s="338"/>
-      <c r="AA59" s="338"/>
-      <c r="AB59" s="338"/>
-      <c r="AC59" s="338"/>
-      <c r="AD59" s="338"/>
-      <c r="AE59" s="338"/>
-      <c r="AF59" s="338"/>
-      <c r="AG59" s="338"/>
-      <c r="AH59" s="339"/>
+      <c r="U59" s="313"/>
+      <c r="V59" s="309"/>
+      <c r="W59" s="310"/>
+      <c r="X59" s="310"/>
+      <c r="Y59" s="310"/>
+      <c r="Z59" s="310"/>
+      <c r="AA59" s="310"/>
+      <c r="AB59" s="310"/>
+      <c r="AC59" s="310"/>
+      <c r="AD59" s="310"/>
+      <c r="AE59" s="310"/>
+      <c r="AF59" s="310"/>
+      <c r="AG59" s="310"/>
+      <c r="AH59" s="311"/>
       <c r="AK59" s="105"/>
       <c r="AL59" s="105"/>
       <c r="AM59" s="105"/>
@@ -9346,20 +9366,20 @@
       <c r="D60" s="142">
         <v>1</v>
       </c>
-      <c r="E60" s="309" t="s">
+      <c r="E60" s="380" t="s">
         <v>143</v>
       </c>
-      <c r="F60" s="310"/>
-      <c r="G60" s="310"/>
-      <c r="H60" s="310"/>
-      <c r="I60" s="310"/>
-      <c r="J60" s="311"/>
-      <c r="K60" s="345" t="s">
+      <c r="F60" s="381"/>
+      <c r="G60" s="381"/>
+      <c r="H60" s="381"/>
+      <c r="I60" s="381"/>
+      <c r="J60" s="382"/>
+      <c r="K60" s="352" t="s">
         <v>91</v>
       </c>
-      <c r="L60" s="299"/>
-      <c r="M60" s="299"/>
-      <c r="N60" s="300"/>
+      <c r="L60" s="324"/>
+      <c r="M60" s="324"/>
+      <c r="N60" s="325"/>
       <c r="O60" s="137" t="s">
         <v>92</v>
       </c>
@@ -9375,25 +9395,25 @@
       <c r="S60" s="162" t="s">
         <v>89</v>
       </c>
-      <c r="T60" s="343" t="s">
+      <c r="T60" s="378" t="s">
         <v>89</v>
       </c>
-      <c r="U60" s="344"/>
-      <c r="V60" s="345" t="s">
+      <c r="U60" s="379"/>
+      <c r="V60" s="352" t="s">
         <v>79</v>
       </c>
-      <c r="W60" s="299"/>
-      <c r="X60" s="299"/>
-      <c r="Y60" s="299"/>
-      <c r="Z60" s="299"/>
-      <c r="AA60" s="299"/>
-      <c r="AB60" s="299"/>
-      <c r="AC60" s="299"/>
-      <c r="AD60" s="299"/>
-      <c r="AE60" s="299"/>
-      <c r="AF60" s="299"/>
-      <c r="AG60" s="299"/>
-      <c r="AH60" s="300"/>
+      <c r="W60" s="324"/>
+      <c r="X60" s="324"/>
+      <c r="Y60" s="324"/>
+      <c r="Z60" s="324"/>
+      <c r="AA60" s="324"/>
+      <c r="AB60" s="324"/>
+      <c r="AC60" s="324"/>
+      <c r="AD60" s="324"/>
+      <c r="AE60" s="324"/>
+      <c r="AF60" s="324"/>
+      <c r="AG60" s="324"/>
+      <c r="AH60" s="325"/>
       <c r="AK60" s="105"/>
       <c r="AL60" s="105"/>
       <c r="AM60" s="105"/>
@@ -9420,12 +9440,12 @@
       <c r="H61" s="199"/>
       <c r="I61" s="199"/>
       <c r="J61" s="199"/>
-      <c r="K61" s="345" t="s">
+      <c r="K61" s="352" t="s">
         <v>91</v>
       </c>
-      <c r="L61" s="299"/>
-      <c r="M61" s="299"/>
-      <c r="N61" s="300"/>
+      <c r="L61" s="324"/>
+      <c r="M61" s="324"/>
+      <c r="N61" s="325"/>
       <c r="O61" s="137" t="s">
         <v>92</v>
       </c>
@@ -9441,25 +9461,25 @@
       <c r="S61" s="176" t="s">
         <v>89</v>
       </c>
-      <c r="T61" s="343" t="s">
+      <c r="T61" s="378" t="s">
         <v>89</v>
       </c>
-      <c r="U61" s="344"/>
-      <c r="V61" s="345" t="s">
+      <c r="U61" s="379"/>
+      <c r="V61" s="352" t="s">
         <v>79</v>
       </c>
-      <c r="W61" s="299"/>
-      <c r="X61" s="299"/>
-      <c r="Y61" s="299"/>
-      <c r="Z61" s="299"/>
-      <c r="AA61" s="299"/>
-      <c r="AB61" s="299"/>
-      <c r="AC61" s="299"/>
-      <c r="AD61" s="299"/>
-      <c r="AE61" s="299"/>
-      <c r="AF61" s="299"/>
-      <c r="AG61" s="299"/>
-      <c r="AH61" s="300"/>
+      <c r="W61" s="324"/>
+      <c r="X61" s="324"/>
+      <c r="Y61" s="324"/>
+      <c r="Z61" s="324"/>
+      <c r="AA61" s="324"/>
+      <c r="AB61" s="324"/>
+      <c r="AC61" s="324"/>
+      <c r="AD61" s="324"/>
+      <c r="AE61" s="324"/>
+      <c r="AF61" s="324"/>
+      <c r="AG61" s="324"/>
+      <c r="AH61" s="325"/>
       <c r="AK61" s="105"/>
       <c r="AL61" s="105"/>
       <c r="AM61" s="105"/>
@@ -9585,181 +9605,181 @@
       <c r="D66" s="144" t="s">
         <v>11</v>
       </c>
-      <c r="E66" s="340" t="s">
+      <c r="E66" s="295" t="s">
         <v>72</v>
       </c>
-      <c r="F66" s="341"/>
-      <c r="G66" s="341"/>
-      <c r="H66" s="341"/>
-      <c r="I66" s="341"/>
-      <c r="J66" s="342"/>
-      <c r="K66" s="340" t="s">
+      <c r="F66" s="296"/>
+      <c r="G66" s="296"/>
+      <c r="H66" s="296"/>
+      <c r="I66" s="296"/>
+      <c r="J66" s="377"/>
+      <c r="K66" s="295" t="s">
         <v>38</v>
       </c>
-      <c r="L66" s="341"/>
-      <c r="M66" s="341"/>
-      <c r="N66" s="341"/>
-      <c r="O66" s="341"/>
-      <c r="P66" s="341"/>
-      <c r="Q66" s="346"/>
+      <c r="L66" s="296"/>
+      <c r="M66" s="296"/>
+      <c r="N66" s="296"/>
+      <c r="O66" s="296"/>
+      <c r="P66" s="296"/>
+      <c r="Q66" s="297"/>
       <c r="R66" s="288" t="s">
         <v>73</v>
       </c>
-      <c r="S66" s="341"/>
-      <c r="T66" s="341"/>
-      <c r="U66" s="341"/>
-      <c r="V66" s="341"/>
-      <c r="W66" s="341"/>
-      <c r="X66" s="341"/>
-      <c r="Y66" s="346"/>
-      <c r="Z66" s="352" t="s">
+      <c r="S66" s="296"/>
+      <c r="T66" s="296"/>
+      <c r="U66" s="296"/>
+      <c r="V66" s="296"/>
+      <c r="W66" s="296"/>
+      <c r="X66" s="296"/>
+      <c r="Y66" s="297"/>
+      <c r="Z66" s="334" t="s">
         <v>26</v>
       </c>
-      <c r="AA66" s="353"/>
-      <c r="AB66" s="353"/>
-      <c r="AC66" s="353"/>
-      <c r="AD66" s="354"/>
-      <c r="AE66" s="389" t="s">
+      <c r="AA66" s="335"/>
+      <c r="AB66" s="335"/>
+      <c r="AC66" s="335"/>
+      <c r="AD66" s="336"/>
+      <c r="AE66" s="331" t="s">
         <v>129</v>
       </c>
-      <c r="AF66" s="390"/>
-      <c r="AG66" s="390"/>
-      <c r="AH66" s="391"/>
+      <c r="AF66" s="332"/>
+      <c r="AG66" s="332"/>
+      <c r="AH66" s="333"/>
     </row>
     <row r="67" spans="1:58" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D67" s="145">
         <v>1</v>
       </c>
-      <c r="E67" s="359" t="s">
+      <c r="E67" s="344" t="s">
         <v>94</v>
       </c>
-      <c r="F67" s="360"/>
-      <c r="G67" s="360"/>
-      <c r="H67" s="360"/>
-      <c r="I67" s="360"/>
-      <c r="J67" s="361"/>
-      <c r="K67" s="345" t="s">
+      <c r="F67" s="322"/>
+      <c r="G67" s="322"/>
+      <c r="H67" s="322"/>
+      <c r="I67" s="322"/>
+      <c r="J67" s="323"/>
+      <c r="K67" s="352" t="s">
         <v>95</v>
       </c>
-      <c r="L67" s="299"/>
-      <c r="M67" s="299"/>
-      <c r="N67" s="299"/>
-      <c r="O67" s="299"/>
-      <c r="P67" s="299"/>
-      <c r="Q67" s="300"/>
-      <c r="R67" s="216" t="s">
+      <c r="L67" s="324"/>
+      <c r="M67" s="324"/>
+      <c r="N67" s="324"/>
+      <c r="O67" s="324"/>
+      <c r="P67" s="324"/>
+      <c r="Q67" s="325"/>
+      <c r="R67" s="223" t="s">
         <v>145</v>
       </c>
-      <c r="S67" s="299"/>
-      <c r="T67" s="299"/>
-      <c r="U67" s="299"/>
-      <c r="V67" s="299"/>
-      <c r="W67" s="299"/>
-      <c r="X67" s="299"/>
-      <c r="Y67" s="300"/>
-      <c r="Z67" s="345" t="s">
+      <c r="S67" s="324"/>
+      <c r="T67" s="324"/>
+      <c r="U67" s="324"/>
+      <c r="V67" s="324"/>
+      <c r="W67" s="324"/>
+      <c r="X67" s="324"/>
+      <c r="Y67" s="325"/>
+      <c r="Z67" s="352" t="s">
         <v>93</v>
       </c>
-      <c r="AA67" s="299"/>
-      <c r="AB67" s="299"/>
-      <c r="AC67" s="299"/>
-      <c r="AD67" s="300"/>
-      <c r="AE67" s="386" t="s">
+      <c r="AA67" s="324"/>
+      <c r="AB67" s="324"/>
+      <c r="AC67" s="324"/>
+      <c r="AD67" s="325"/>
+      <c r="AE67" s="326" t="s">
         <v>71</v>
       </c>
-      <c r="AF67" s="387"/>
-      <c r="AG67" s="387"/>
-      <c r="AH67" s="388"/>
+      <c r="AF67" s="327"/>
+      <c r="AG67" s="327"/>
+      <c r="AH67" s="328"/>
     </row>
     <row r="68" spans="1:58" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D68" s="145">
         <v>2</v>
       </c>
-      <c r="E68" s="369" t="s">
+      <c r="E68" s="321" t="s">
         <v>138</v>
       </c>
-      <c r="F68" s="360"/>
-      <c r="G68" s="360"/>
-      <c r="H68" s="360"/>
-      <c r="I68" s="360"/>
-      <c r="J68" s="361"/>
-      <c r="K68" s="216" t="s">
+      <c r="F68" s="322"/>
+      <c r="G68" s="322"/>
+      <c r="H68" s="322"/>
+      <c r="I68" s="322"/>
+      <c r="J68" s="323"/>
+      <c r="K68" s="223" t="s">
         <v>144</v>
       </c>
-      <c r="L68" s="299"/>
-      <c r="M68" s="299"/>
-      <c r="N68" s="299"/>
-      <c r="O68" s="299"/>
-      <c r="P68" s="299"/>
-      <c r="Q68" s="300"/>
-      <c r="R68" s="216" t="s">
+      <c r="L68" s="324"/>
+      <c r="M68" s="324"/>
+      <c r="N68" s="324"/>
+      <c r="O68" s="324"/>
+      <c r="P68" s="324"/>
+      <c r="Q68" s="325"/>
+      <c r="R68" s="223" t="s">
         <v>146</v>
       </c>
-      <c r="S68" s="299"/>
-      <c r="T68" s="299"/>
-      <c r="U68" s="299"/>
-      <c r="V68" s="299"/>
-      <c r="W68" s="299"/>
-      <c r="X68" s="299"/>
-      <c r="Y68" s="300"/>
-      <c r="Z68" s="216" t="s">
+      <c r="S68" s="324"/>
+      <c r="T68" s="324"/>
+      <c r="U68" s="324"/>
+      <c r="V68" s="324"/>
+      <c r="W68" s="324"/>
+      <c r="X68" s="324"/>
+      <c r="Y68" s="325"/>
+      <c r="Z68" s="223" t="s">
         <v>161</v>
       </c>
-      <c r="AA68" s="299"/>
-      <c r="AB68" s="299"/>
-      <c r="AC68" s="299"/>
-      <c r="AD68" s="300"/>
-      <c r="AE68" s="386" t="s">
+      <c r="AA68" s="324"/>
+      <c r="AB68" s="324"/>
+      <c r="AC68" s="324"/>
+      <c r="AD68" s="325"/>
+      <c r="AE68" s="326" t="s">
         <v>71</v>
       </c>
-      <c r="AF68" s="387"/>
-      <c r="AG68" s="387"/>
-      <c r="AH68" s="388"/>
+      <c r="AF68" s="327"/>
+      <c r="AG68" s="327"/>
+      <c r="AH68" s="328"/>
     </row>
     <row r="69" spans="1:58" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D69" s="145">
         <v>3</v>
       </c>
-      <c r="E69" s="369" t="s">
+      <c r="E69" s="321" t="s">
+        <v>197</v>
+      </c>
+      <c r="F69" s="322"/>
+      <c r="G69" s="322"/>
+      <c r="H69" s="322"/>
+      <c r="I69" s="322"/>
+      <c r="J69" s="323"/>
+      <c r="K69" s="223" t="s">
+        <v>198</v>
+      </c>
+      <c r="L69" s="324"/>
+      <c r="M69" s="324"/>
+      <c r="N69" s="324"/>
+      <c r="O69" s="324"/>
+      <c r="P69" s="324"/>
+      <c r="Q69" s="325"/>
+      <c r="R69" s="223" t="s">
         <v>199</v>
       </c>
-      <c r="F69" s="360"/>
-      <c r="G69" s="360"/>
-      <c r="H69" s="360"/>
-      <c r="I69" s="360"/>
-      <c r="J69" s="361"/>
-      <c r="K69" s="216" t="s">
-        <v>200</v>
-      </c>
-      <c r="L69" s="299"/>
-      <c r="M69" s="299"/>
-      <c r="N69" s="299"/>
-      <c r="O69" s="299"/>
-      <c r="P69" s="299"/>
-      <c r="Q69" s="300"/>
-      <c r="R69" s="216" t="s">
-        <v>201</v>
-      </c>
-      <c r="S69" s="299"/>
-      <c r="T69" s="299"/>
-      <c r="U69" s="299"/>
-      <c r="V69" s="299"/>
-      <c r="W69" s="299"/>
-      <c r="X69" s="299"/>
-      <c r="Y69" s="300"/>
-      <c r="Z69" s="216" t="s">
+      <c r="S69" s="324"/>
+      <c r="T69" s="324"/>
+      <c r="U69" s="324"/>
+      <c r="V69" s="324"/>
+      <c r="W69" s="324"/>
+      <c r="X69" s="324"/>
+      <c r="Y69" s="325"/>
+      <c r="Z69" s="223" t="s">
         <v>138</v>
       </c>
-      <c r="AA69" s="299"/>
-      <c r="AB69" s="299"/>
-      <c r="AC69" s="299"/>
-      <c r="AD69" s="300"/>
-      <c r="AE69" s="386" t="s">
+      <c r="AA69" s="324"/>
+      <c r="AB69" s="324"/>
+      <c r="AC69" s="324"/>
+      <c r="AD69" s="325"/>
+      <c r="AE69" s="326" t="s">
         <v>71</v>
       </c>
-      <c r="AF69" s="387"/>
-      <c r="AG69" s="387"/>
-      <c r="AH69" s="388"/>
+      <c r="AF69" s="327"/>
+      <c r="AG69" s="327"/>
+      <c r="AH69" s="328"/>
     </row>
     <row r="70" spans="1:58" s="108" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D70" s="128"/>
@@ -10206,40 +10226,40 @@
       <c r="G89" s="288" t="s">
         <v>68</v>
       </c>
-      <c r="H89" s="341"/>
-      <c r="I89" s="341"/>
-      <c r="J89" s="341"/>
-      <c r="K89" s="341"/>
-      <c r="L89" s="346"/>
-      <c r="M89" s="400" t="s">
+      <c r="H89" s="296"/>
+      <c r="I89" s="296"/>
+      <c r="J89" s="296"/>
+      <c r="K89" s="296"/>
+      <c r="L89" s="297"/>
+      <c r="M89" s="317" t="s">
         <v>76</v>
       </c>
-      <c r="N89" s="341"/>
-      <c r="O89" s="341"/>
-      <c r="P89" s="341"/>
-      <c r="Q89" s="341"/>
-      <c r="R89" s="341"/>
-      <c r="S89" s="341"/>
-      <c r="T89" s="341"/>
-      <c r="U89" s="341"/>
-      <c r="V89" s="346"/>
-      <c r="W89" s="368" t="s">
+      <c r="N89" s="296"/>
+      <c r="O89" s="296"/>
+      <c r="P89" s="296"/>
+      <c r="Q89" s="296"/>
+      <c r="R89" s="296"/>
+      <c r="S89" s="296"/>
+      <c r="T89" s="296"/>
+      <c r="U89" s="296"/>
+      <c r="V89" s="297"/>
+      <c r="W89" s="353" t="s">
         <v>162</v>
       </c>
-      <c r="X89" s="366"/>
-      <c r="Y89" s="367"/>
-      <c r="Z89" s="365" t="s">
+      <c r="X89" s="349"/>
+      <c r="Y89" s="350"/>
+      <c r="Z89" s="348" t="s">
         <v>77</v>
       </c>
-      <c r="AA89" s="366"/>
-      <c r="AB89" s="366"/>
-      <c r="AC89" s="367"/>
-      <c r="AD89" s="377" t="s">
+      <c r="AA89" s="349"/>
+      <c r="AB89" s="349"/>
+      <c r="AC89" s="350"/>
+      <c r="AD89" s="363" t="s">
         <v>130</v>
       </c>
-      <c r="AE89" s="378"/>
-      <c r="AF89" s="378"/>
-      <c r="AG89" s="379"/>
+      <c r="AE89" s="364"/>
+      <c r="AF89" s="364"/>
+      <c r="AG89" s="365"/>
       <c r="AJ89" s="125"/>
       <c r="AK89" s="125"/>
       <c r="AL89" s="125"/>
@@ -10269,43 +10289,43 @@
       <c r="F90" s="148">
         <v>1</v>
       </c>
-      <c r="G90" s="399" t="s">
+      <c r="G90" s="314" t="s">
         <v>70</v>
       </c>
-      <c r="H90" s="356"/>
-      <c r="I90" s="356"/>
-      <c r="J90" s="356"/>
-      <c r="K90" s="356"/>
-      <c r="L90" s="357"/>
-      <c r="M90" s="355" t="s">
+      <c r="H90" s="315"/>
+      <c r="I90" s="315"/>
+      <c r="J90" s="315"/>
+      <c r="K90" s="315"/>
+      <c r="L90" s="316"/>
+      <c r="M90" s="351" t="s">
         <v>86</v>
       </c>
-      <c r="N90" s="356"/>
-      <c r="O90" s="356"/>
-      <c r="P90" s="356"/>
-      <c r="Q90" s="356"/>
-      <c r="R90" s="356"/>
-      <c r="S90" s="356"/>
-      <c r="T90" s="356"/>
-      <c r="U90" s="356"/>
-      <c r="V90" s="357"/>
-      <c r="W90" s="401" t="s">
+      <c r="N90" s="315"/>
+      <c r="O90" s="315"/>
+      <c r="P90" s="315"/>
+      <c r="Q90" s="315"/>
+      <c r="R90" s="315"/>
+      <c r="S90" s="315"/>
+      <c r="T90" s="315"/>
+      <c r="U90" s="315"/>
+      <c r="V90" s="316"/>
+      <c r="W90" s="318" t="s">
         <v>132</v>
       </c>
-      <c r="X90" s="402"/>
-      <c r="Y90" s="403"/>
-      <c r="Z90" s="362" t="s">
+      <c r="X90" s="319"/>
+      <c r="Y90" s="320"/>
+      <c r="Z90" s="345" t="s">
         <v>131</v>
       </c>
-      <c r="AA90" s="363"/>
-      <c r="AB90" s="363"/>
-      <c r="AC90" s="364"/>
-      <c r="AD90" s="355" t="s">
+      <c r="AA90" s="346"/>
+      <c r="AB90" s="346"/>
+      <c r="AC90" s="347"/>
+      <c r="AD90" s="351" t="s">
         <v>120</v>
       </c>
-      <c r="AE90" s="356"/>
-      <c r="AF90" s="356"/>
-      <c r="AG90" s="357"/>
+      <c r="AE90" s="315"/>
+      <c r="AF90" s="315"/>
+      <c r="AG90" s="316"/>
       <c r="AI90" s="125"/>
       <c r="AJ90" s="125"/>
       <c r="AK90" s="125"/>
@@ -10453,70 +10473,70 @@
       </c>
     </row>
     <row r="99" spans="6:58" s="108" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="G99" s="306" t="s">
+      <c r="G99" s="298" t="s">
         <v>99</v>
       </c>
-      <c r="H99" s="307"/>
-      <c r="I99" s="307"/>
-      <c r="J99" s="307"/>
-      <c r="K99" s="307"/>
-      <c r="L99" s="307"/>
-      <c r="M99" s="307"/>
-      <c r="N99" s="307"/>
-      <c r="O99" s="307"/>
-      <c r="P99" s="308"/>
-      <c r="Q99" s="392" t="s">
+      <c r="H99" s="299"/>
+      <c r="I99" s="299"/>
+      <c r="J99" s="299"/>
+      <c r="K99" s="299"/>
+      <c r="L99" s="299"/>
+      <c r="M99" s="299"/>
+      <c r="N99" s="299"/>
+      <c r="O99" s="299"/>
+      <c r="P99" s="300"/>
+      <c r="Q99" s="301" t="s">
         <v>100</v>
       </c>
-      <c r="R99" s="393"/>
-      <c r="S99" s="393"/>
-      <c r="T99" s="393"/>
-      <c r="U99" s="393"/>
-      <c r="V99" s="393"/>
-      <c r="W99" s="393"/>
-      <c r="X99" s="393"/>
-      <c r="Y99" s="393"/>
-      <c r="Z99" s="394"/>
+      <c r="R99" s="302"/>
+      <c r="S99" s="302"/>
+      <c r="T99" s="302"/>
+      <c r="U99" s="302"/>
+      <c r="V99" s="302"/>
+      <c r="W99" s="302"/>
+      <c r="X99" s="302"/>
+      <c r="Y99" s="302"/>
+      <c r="Z99" s="303"/>
     </row>
     <row r="100" spans="6:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G100" s="312" t="s">
+      <c r="G100" s="391" t="s">
         <v>143</v>
       </c>
-      <c r="H100" s="313"/>
-      <c r="I100" s="313"/>
-      <c r="J100" s="313"/>
-      <c r="K100" s="313"/>
-      <c r="L100" s="313"/>
-      <c r="M100" s="313"/>
-      <c r="N100" s="313"/>
-      <c r="O100" s="313"/>
-      <c r="P100" s="314"/>
-      <c r="Q100" s="309" t="s">
+      <c r="H100" s="392"/>
+      <c r="I100" s="392"/>
+      <c r="J100" s="392"/>
+      <c r="K100" s="392"/>
+      <c r="L100" s="392"/>
+      <c r="M100" s="392"/>
+      <c r="N100" s="392"/>
+      <c r="O100" s="392"/>
+      <c r="P100" s="393"/>
+      <c r="Q100" s="380" t="s">
         <v>169</v>
       </c>
-      <c r="R100" s="310"/>
-      <c r="S100" s="310"/>
-      <c r="T100" s="310"/>
-      <c r="U100" s="310"/>
-      <c r="V100" s="310"/>
-      <c r="W100" s="310"/>
-      <c r="X100" s="310"/>
-      <c r="Y100" s="310"/>
-      <c r="Z100" s="311"/>
+      <c r="R100" s="381"/>
+      <c r="S100" s="381"/>
+      <c r="T100" s="381"/>
+      <c r="U100" s="381"/>
+      <c r="V100" s="381"/>
+      <c r="W100" s="381"/>
+      <c r="X100" s="381"/>
+      <c r="Y100" s="381"/>
+      <c r="Z100" s="382"/>
       <c r="AG100" s="109"/>
       <c r="AH100" s="109"/>
     </row>
     <row r="101" spans="6:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G101" s="321"/>
-      <c r="H101" s="322"/>
-      <c r="I101" s="322"/>
-      <c r="J101" s="322"/>
-      <c r="K101" s="322"/>
-      <c r="L101" s="322"/>
-      <c r="M101" s="322"/>
-      <c r="N101" s="322"/>
-      <c r="O101" s="322"/>
-      <c r="P101" s="323"/>
+      <c r="G101" s="400"/>
+      <c r="H101" s="401"/>
+      <c r="I101" s="401"/>
+      <c r="J101" s="401"/>
+      <c r="K101" s="401"/>
+      <c r="L101" s="401"/>
+      <c r="M101" s="401"/>
+      <c r="N101" s="401"/>
+      <c r="O101" s="401"/>
+      <c r="P101" s="402"/>
       <c r="Q101" s="190" t="s">
         <v>168</v>
       </c>
@@ -10533,16 +10553,16 @@
       <c r="AH101" s="109"/>
     </row>
     <row r="102" spans="6:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G102" s="321"/>
-      <c r="H102" s="322"/>
-      <c r="I102" s="322"/>
-      <c r="J102" s="322"/>
-      <c r="K102" s="322"/>
-      <c r="L102" s="322"/>
-      <c r="M102" s="322"/>
-      <c r="N102" s="322"/>
-      <c r="O102" s="322"/>
-      <c r="P102" s="323"/>
+      <c r="G102" s="400"/>
+      <c r="H102" s="401"/>
+      <c r="I102" s="401"/>
+      <c r="J102" s="401"/>
+      <c r="K102" s="401"/>
+      <c r="L102" s="401"/>
+      <c r="M102" s="401"/>
+      <c r="N102" s="401"/>
+      <c r="O102" s="401"/>
+      <c r="P102" s="402"/>
       <c r="Q102" s="174" t="s">
         <v>142</v>
       </c>
@@ -10559,16 +10579,16 @@
       <c r="AH102" s="109"/>
     </row>
     <row r="103" spans="6:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G103" s="321"/>
-      <c r="H103" s="322"/>
-      <c r="I103" s="322"/>
-      <c r="J103" s="322"/>
-      <c r="K103" s="322"/>
-      <c r="L103" s="322"/>
-      <c r="M103" s="322"/>
-      <c r="N103" s="322"/>
-      <c r="O103" s="322"/>
-      <c r="P103" s="323"/>
+      <c r="G103" s="400"/>
+      <c r="H103" s="401"/>
+      <c r="I103" s="401"/>
+      <c r="J103" s="401"/>
+      <c r="K103" s="401"/>
+      <c r="L103" s="401"/>
+      <c r="M103" s="401"/>
+      <c r="N103" s="401"/>
+      <c r="O103" s="401"/>
+      <c r="P103" s="402"/>
       <c r="Q103" s="174" t="s">
         <v>156</v>
       </c>
@@ -10585,54 +10605,54 @@
       <c r="AH103" s="109"/>
     </row>
     <row r="104" spans="6:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G104" s="321"/>
-      <c r="H104" s="322"/>
-      <c r="I104" s="322"/>
-      <c r="J104" s="322"/>
-      <c r="K104" s="322"/>
-      <c r="L104" s="322"/>
-      <c r="M104" s="322"/>
-      <c r="N104" s="322"/>
-      <c r="O104" s="322"/>
-      <c r="P104" s="323"/>
-      <c r="Q104" s="309" t="s">
+      <c r="G104" s="400"/>
+      <c r="H104" s="401"/>
+      <c r="I104" s="401"/>
+      <c r="J104" s="401"/>
+      <c r="K104" s="401"/>
+      <c r="L104" s="401"/>
+      <c r="M104" s="401"/>
+      <c r="N104" s="401"/>
+      <c r="O104" s="401"/>
+      <c r="P104" s="402"/>
+      <c r="Q104" s="380" t="s">
         <v>153</v>
       </c>
-      <c r="R104" s="310"/>
-      <c r="S104" s="310"/>
-      <c r="T104" s="310"/>
-      <c r="U104" s="310"/>
-      <c r="V104" s="310"/>
-      <c r="W104" s="310"/>
-      <c r="X104" s="310"/>
-      <c r="Y104" s="310"/>
-      <c r="Z104" s="311"/>
+      <c r="R104" s="381"/>
+      <c r="S104" s="381"/>
+      <c r="T104" s="381"/>
+      <c r="U104" s="381"/>
+      <c r="V104" s="381"/>
+      <c r="W104" s="381"/>
+      <c r="X104" s="381"/>
+      <c r="Y104" s="381"/>
+      <c r="Z104" s="382"/>
       <c r="AG104" s="109"/>
       <c r="AH104" s="109"/>
     </row>
     <row r="105" spans="6:58" x14ac:dyDescent="0.15">
-      <c r="G105" s="324"/>
-      <c r="H105" s="322"/>
-      <c r="I105" s="322"/>
-      <c r="J105" s="322"/>
-      <c r="K105" s="322"/>
-      <c r="L105" s="322"/>
-      <c r="M105" s="322"/>
-      <c r="N105" s="322"/>
-      <c r="O105" s="322"/>
-      <c r="P105" s="323"/>
-      <c r="Q105" s="309" t="s">
+      <c r="G105" s="403"/>
+      <c r="H105" s="401"/>
+      <c r="I105" s="401"/>
+      <c r="J105" s="401"/>
+      <c r="K105" s="401"/>
+      <c r="L105" s="401"/>
+      <c r="M105" s="401"/>
+      <c r="N105" s="401"/>
+      <c r="O105" s="401"/>
+      <c r="P105" s="402"/>
+      <c r="Q105" s="380" t="s">
         <v>154</v>
       </c>
-      <c r="R105" s="310"/>
-      <c r="S105" s="310"/>
-      <c r="T105" s="310"/>
-      <c r="U105" s="310"/>
-      <c r="V105" s="310"/>
-      <c r="W105" s="310"/>
-      <c r="X105" s="310"/>
-      <c r="Y105" s="310"/>
-      <c r="Z105" s="311"/>
+      <c r="R105" s="381"/>
+      <c r="S105" s="381"/>
+      <c r="T105" s="381"/>
+      <c r="U105" s="381"/>
+      <c r="V105" s="381"/>
+      <c r="W105" s="381"/>
+      <c r="X105" s="381"/>
+      <c r="Y105" s="381"/>
+      <c r="Z105" s="382"/>
       <c r="AC105" s="110"/>
       <c r="AD105" s="110"/>
       <c r="AE105" s="110"/>
@@ -10651,28 +10671,28 @@
       <c r="AY105" s="110"/>
     </row>
     <row r="106" spans="6:58" x14ac:dyDescent="0.15">
-      <c r="G106" s="318" t="s">
+      <c r="G106" s="397" t="s">
         <v>101</v>
       </c>
-      <c r="H106" s="319"/>
-      <c r="I106" s="319"/>
-      <c r="J106" s="319"/>
-      <c r="K106" s="319"/>
-      <c r="L106" s="319"/>
-      <c r="M106" s="319"/>
-      <c r="N106" s="319"/>
-      <c r="O106" s="319"/>
-      <c r="P106" s="319"/>
-      <c r="Q106" s="319"/>
-      <c r="R106" s="319"/>
-      <c r="S106" s="319"/>
-      <c r="T106" s="319"/>
-      <c r="U106" s="319"/>
-      <c r="V106" s="319"/>
-      <c r="W106" s="319"/>
-      <c r="X106" s="319"/>
-      <c r="Y106" s="319"/>
-      <c r="Z106" s="320"/>
+      <c r="H106" s="398"/>
+      <c r="I106" s="398"/>
+      <c r="J106" s="398"/>
+      <c r="K106" s="398"/>
+      <c r="L106" s="398"/>
+      <c r="M106" s="398"/>
+      <c r="N106" s="398"/>
+      <c r="O106" s="398"/>
+      <c r="P106" s="398"/>
+      <c r="Q106" s="398"/>
+      <c r="R106" s="398"/>
+      <c r="S106" s="398"/>
+      <c r="T106" s="398"/>
+      <c r="U106" s="398"/>
+      <c r="V106" s="398"/>
+      <c r="W106" s="398"/>
+      <c r="X106" s="398"/>
+      <c r="Y106" s="398"/>
+      <c r="Z106" s="399"/>
       <c r="AJ106" s="110"/>
       <c r="AK106" s="110"/>
       <c r="AL106" s="110"/>
@@ -10837,10 +10857,10 @@
     <row r="110" spans="6:58" x14ac:dyDescent="0.15">
       <c r="G110" s="114"/>
       <c r="H110" s="177" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I110" s="177" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J110" s="115"/>
       <c r="K110" s="115"/>
@@ -10973,60 +10993,60 @@
     </row>
     <row r="113" spans="4:58" x14ac:dyDescent="0.15">
       <c r="F113" s="103" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="115" spans="4:58" s="108" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="G115" s="306" t="s">
+      <c r="G115" s="298" t="s">
         <v>99</v>
       </c>
-      <c r="H115" s="307"/>
-      <c r="I115" s="307"/>
-      <c r="J115" s="307"/>
-      <c r="K115" s="307"/>
-      <c r="L115" s="307"/>
-      <c r="M115" s="307"/>
-      <c r="N115" s="307"/>
-      <c r="O115" s="307"/>
-      <c r="P115" s="308"/>
-      <c r="Q115" s="392" t="s">
+      <c r="H115" s="299"/>
+      <c r="I115" s="299"/>
+      <c r="J115" s="299"/>
+      <c r="K115" s="299"/>
+      <c r="L115" s="299"/>
+      <c r="M115" s="299"/>
+      <c r="N115" s="299"/>
+      <c r="O115" s="299"/>
+      <c r="P115" s="300"/>
+      <c r="Q115" s="301" t="s">
         <v>100</v>
       </c>
-      <c r="R115" s="393"/>
-      <c r="S115" s="393"/>
-      <c r="T115" s="393"/>
-      <c r="U115" s="393"/>
-      <c r="V115" s="393"/>
-      <c r="W115" s="393"/>
-      <c r="X115" s="393"/>
-      <c r="Y115" s="393"/>
-      <c r="Z115" s="394"/>
+      <c r="R115" s="302"/>
+      <c r="S115" s="302"/>
+      <c r="T115" s="302"/>
+      <c r="U115" s="302"/>
+      <c r="V115" s="302"/>
+      <c r="W115" s="302"/>
+      <c r="X115" s="302"/>
+      <c r="Y115" s="302"/>
+      <c r="Z115" s="303"/>
     </row>
     <row r="116" spans="4:58" x14ac:dyDescent="0.15">
-      <c r="G116" s="312" t="s">
+      <c r="G116" s="391" t="s">
         <v>181</v>
       </c>
-      <c r="H116" s="313"/>
-      <c r="I116" s="313"/>
-      <c r="J116" s="313"/>
-      <c r="K116" s="313"/>
-      <c r="L116" s="313"/>
-      <c r="M116" s="313"/>
-      <c r="N116" s="313"/>
-      <c r="O116" s="313"/>
-      <c r="P116" s="314"/>
-      <c r="Q116" s="309" t="s">
+      <c r="H116" s="392"/>
+      <c r="I116" s="392"/>
+      <c r="J116" s="392"/>
+      <c r="K116" s="392"/>
+      <c r="L116" s="392"/>
+      <c r="M116" s="392"/>
+      <c r="N116" s="392"/>
+      <c r="O116" s="392"/>
+      <c r="P116" s="393"/>
+      <c r="Q116" s="380" t="s">
         <v>182</v>
       </c>
-      <c r="R116" s="310"/>
-      <c r="S116" s="310"/>
-      <c r="T116" s="310"/>
-      <c r="U116" s="310"/>
-      <c r="V116" s="310"/>
-      <c r="W116" s="310"/>
-      <c r="X116" s="310"/>
-      <c r="Y116" s="310"/>
-      <c r="Z116" s="311"/>
+      <c r="R116" s="381"/>
+      <c r="S116" s="381"/>
+      <c r="T116" s="381"/>
+      <c r="U116" s="381"/>
+      <c r="V116" s="381"/>
+      <c r="W116" s="381"/>
+      <c r="X116" s="381"/>
+      <c r="Y116" s="381"/>
+      <c r="Z116" s="382"/>
       <c r="AC116" s="110"/>
       <c r="AD116" s="110"/>
       <c r="AE116" s="110"/>
@@ -11045,28 +11065,28 @@
       <c r="AY116" s="110"/>
     </row>
     <row r="117" spans="4:58" x14ac:dyDescent="0.15">
-      <c r="G117" s="315"/>
-      <c r="H117" s="316"/>
-      <c r="I117" s="316"/>
-      <c r="J117" s="316"/>
-      <c r="K117" s="316"/>
-      <c r="L117" s="316"/>
-      <c r="M117" s="316"/>
-      <c r="N117" s="316"/>
-      <c r="O117" s="316"/>
-      <c r="P117" s="317"/>
-      <c r="Q117" s="309" t="s">
+      <c r="G117" s="394"/>
+      <c r="H117" s="395"/>
+      <c r="I117" s="395"/>
+      <c r="J117" s="395"/>
+      <c r="K117" s="395"/>
+      <c r="L117" s="395"/>
+      <c r="M117" s="395"/>
+      <c r="N117" s="395"/>
+      <c r="O117" s="395"/>
+      <c r="P117" s="396"/>
+      <c r="Q117" s="380" t="s">
         <v>183</v>
       </c>
-      <c r="R117" s="310"/>
-      <c r="S117" s="310"/>
-      <c r="T117" s="310"/>
-      <c r="U117" s="310"/>
-      <c r="V117" s="310"/>
-      <c r="W117" s="310"/>
-      <c r="X117" s="310"/>
-      <c r="Y117" s="310"/>
-      <c r="Z117" s="311"/>
+      <c r="R117" s="381"/>
+      <c r="S117" s="381"/>
+      <c r="T117" s="381"/>
+      <c r="U117" s="381"/>
+      <c r="V117" s="381"/>
+      <c r="W117" s="381"/>
+      <c r="X117" s="381"/>
+      <c r="Y117" s="381"/>
+      <c r="Z117" s="382"/>
       <c r="AC117" s="110"/>
       <c r="AD117" s="110"/>
       <c r="AE117" s="110"/>
@@ -11085,28 +11105,28 @@
       <c r="AY117" s="110"/>
     </row>
     <row r="118" spans="4:58" x14ac:dyDescent="0.15">
-      <c r="G118" s="318" t="s">
+      <c r="G118" s="397" t="s">
         <v>101</v>
       </c>
-      <c r="H118" s="319"/>
-      <c r="I118" s="319"/>
-      <c r="J118" s="319"/>
-      <c r="K118" s="319"/>
-      <c r="L118" s="319"/>
-      <c r="M118" s="319"/>
-      <c r="N118" s="319"/>
-      <c r="O118" s="319"/>
-      <c r="P118" s="319"/>
-      <c r="Q118" s="319"/>
-      <c r="R118" s="319"/>
-      <c r="S118" s="319"/>
-      <c r="T118" s="319"/>
-      <c r="U118" s="319"/>
-      <c r="V118" s="319"/>
-      <c r="W118" s="319"/>
-      <c r="X118" s="319"/>
-      <c r="Y118" s="319"/>
-      <c r="Z118" s="320"/>
+      <c r="H118" s="398"/>
+      <c r="I118" s="398"/>
+      <c r="J118" s="398"/>
+      <c r="K118" s="398"/>
+      <c r="L118" s="398"/>
+      <c r="M118" s="398"/>
+      <c r="N118" s="398"/>
+      <c r="O118" s="398"/>
+      <c r="P118" s="398"/>
+      <c r="Q118" s="398"/>
+      <c r="R118" s="398"/>
+      <c r="S118" s="398"/>
+      <c r="T118" s="398"/>
+      <c r="U118" s="398"/>
+      <c r="V118" s="398"/>
+      <c r="W118" s="398"/>
+      <c r="X118" s="398"/>
+      <c r="Y118" s="398"/>
+      <c r="Z118" s="399"/>
       <c r="AJ118" s="110"/>
       <c r="AK118" s="110"/>
       <c r="AL118" s="110"/>
@@ -11179,7 +11199,7 @@
     <row r="120" spans="4:58" x14ac:dyDescent="0.15">
       <c r="G120" s="114"/>
       <c r="H120" s="177" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I120" s="115"/>
       <c r="J120" s="115"/>
@@ -11190,7 +11210,7 @@
         <v>102</v>
       </c>
       <c r="Q120" s="177" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="R120" s="115"/>
       <c r="S120" s="115"/>
@@ -11501,7 +11521,7 @@
     <row r="130" spans="5:59" x14ac:dyDescent="0.15">
       <c r="E130" s="126"/>
       <c r="F130" s="71" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AJ130" s="110"/>
       <c r="AK130" s="110"/>
@@ -11624,7 +11644,7 @@
     <row r="134" spans="5:59" x14ac:dyDescent="0.15">
       <c r="E134" s="126"/>
       <c r="F134" s="71" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="AJ134" s="110"/>
       <c r="AK134" s="110"/>
@@ -11776,7 +11796,7 @@
       <c r="BF138" s="110"/>
     </row>
     <row r="139" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H139" s="301" t="s">
+      <c r="H139" s="366" t="s">
         <v>157</v>
       </c>
       <c r="I139" s="279" t="s">
@@ -11787,19 +11807,19 @@
       <c r="L139" s="280"/>
       <c r="M139" s="280"/>
       <c r="N139" s="281"/>
-      <c r="O139" s="303" t="s">
+      <c r="O139" s="388" t="s">
         <v>114</v>
       </c>
-      <c r="P139" s="304"/>
-      <c r="Q139" s="304"/>
-      <c r="R139" s="304"/>
-      <c r="S139" s="304"/>
-      <c r="T139" s="304"/>
-      <c r="U139" s="304"/>
-      <c r="V139" s="304"/>
-      <c r="W139" s="304"/>
-      <c r="X139" s="304"/>
-      <c r="Y139" s="305"/>
+      <c r="P139" s="389"/>
+      <c r="Q139" s="389"/>
+      <c r="R139" s="389"/>
+      <c r="S139" s="389"/>
+      <c r="T139" s="389"/>
+      <c r="U139" s="389"/>
+      <c r="V139" s="389"/>
+      <c r="W139" s="389"/>
+      <c r="X139" s="389"/>
+      <c r="Y139" s="390"/>
       <c r="Z139" s="279" t="s">
         <v>32</v>
       </c>
@@ -11815,28 +11835,28 @@
       <c r="AH139" s="186"/>
     </row>
     <row r="140" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H140" s="302"/>
+      <c r="H140" s="368"/>
       <c r="I140" s="285"/>
       <c r="J140" s="286"/>
       <c r="K140" s="286"/>
       <c r="L140" s="286"/>
       <c r="M140" s="286"/>
       <c r="N140" s="287"/>
-      <c r="O140" s="303" t="s">
+      <c r="O140" s="388" t="s">
         <v>115</v>
       </c>
-      <c r="P140" s="304"/>
-      <c r="Q140" s="304"/>
-      <c r="R140" s="304"/>
-      <c r="S140" s="305"/>
-      <c r="T140" s="306" t="s">
+      <c r="P140" s="389"/>
+      <c r="Q140" s="389"/>
+      <c r="R140" s="389"/>
+      <c r="S140" s="390"/>
+      <c r="T140" s="298" t="s">
         <v>105</v>
       </c>
-      <c r="U140" s="307"/>
-      <c r="V140" s="307"/>
-      <c r="W140" s="307"/>
-      <c r="X140" s="307"/>
-      <c r="Y140" s="308"/>
+      <c r="U140" s="299"/>
+      <c r="V140" s="299"/>
+      <c r="W140" s="299"/>
+      <c r="X140" s="299"/>
+      <c r="Y140" s="300"/>
       <c r="Z140" s="285"/>
       <c r="AA140" s="286"/>
       <c r="AB140" s="286"/>
@@ -11851,14 +11871,14 @@
       <c r="H141" s="138">
         <v>1</v>
       </c>
-      <c r="I141" s="295" t="s">
+      <c r="I141" s="384" t="s">
         <v>158</v>
       </c>
-      <c r="J141" s="296"/>
-      <c r="K141" s="296"/>
-      <c r="L141" s="296"/>
-      <c r="M141" s="296"/>
-      <c r="N141" s="297"/>
+      <c r="J141" s="385"/>
+      <c r="K141" s="385"/>
+      <c r="L141" s="385"/>
+      <c r="M141" s="385"/>
+      <c r="N141" s="386"/>
       <c r="O141" s="178" t="s">
         <v>143</v>
       </c>
@@ -11866,22 +11886,22 @@
       <c r="Q141" s="179"/>
       <c r="R141" s="179"/>
       <c r="S141" s="180"/>
-      <c r="T141" s="295" t="s">
+      <c r="T141" s="384" t="s">
         <v>159</v>
       </c>
-      <c r="U141" s="296"/>
-      <c r="V141" s="296"/>
-      <c r="W141" s="296"/>
-      <c r="X141" s="296"/>
-      <c r="Y141" s="297"/>
-      <c r="Z141" s="298" t="s">
+      <c r="U141" s="385"/>
+      <c r="V141" s="385"/>
+      <c r="W141" s="385"/>
+      <c r="X141" s="385"/>
+      <c r="Y141" s="386"/>
+      <c r="Z141" s="387" t="s">
         <v>160</v>
       </c>
-      <c r="AA141" s="299"/>
-      <c r="AB141" s="299"/>
-      <c r="AC141" s="299"/>
-      <c r="AD141" s="299"/>
-      <c r="AE141" s="300"/>
+      <c r="AA141" s="324"/>
+      <c r="AB141" s="324"/>
+      <c r="AC141" s="324"/>
+      <c r="AD141" s="324"/>
+      <c r="AE141" s="325"/>
       <c r="AF141" s="170"/>
       <c r="AG141" s="168"/>
       <c r="AH141" s="169"/>
@@ -12187,7 +12207,7 @@
       <c r="BF148" s="110"/>
     </row>
     <row r="149" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H149" s="301" t="s">
+      <c r="H149" s="366" t="s">
         <v>157</v>
       </c>
       <c r="I149" s="279" t="s">
@@ -12198,19 +12218,19 @@
       <c r="L149" s="280"/>
       <c r="M149" s="280"/>
       <c r="N149" s="281"/>
-      <c r="O149" s="303" t="s">
+      <c r="O149" s="388" t="s">
         <v>114</v>
       </c>
-      <c r="P149" s="304"/>
-      <c r="Q149" s="304"/>
-      <c r="R149" s="304"/>
-      <c r="S149" s="304"/>
-      <c r="T149" s="304"/>
-      <c r="U149" s="304"/>
-      <c r="V149" s="304"/>
-      <c r="W149" s="304"/>
-      <c r="X149" s="304"/>
-      <c r="Y149" s="305"/>
+      <c r="P149" s="389"/>
+      <c r="Q149" s="389"/>
+      <c r="R149" s="389"/>
+      <c r="S149" s="389"/>
+      <c r="T149" s="389"/>
+      <c r="U149" s="389"/>
+      <c r="V149" s="389"/>
+      <c r="W149" s="389"/>
+      <c r="X149" s="389"/>
+      <c r="Y149" s="390"/>
       <c r="Z149" s="279" t="s">
         <v>32</v>
       </c>
@@ -12226,28 +12246,28 @@
       <c r="AH149" s="186"/>
     </row>
     <row r="150" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H150" s="302"/>
+      <c r="H150" s="368"/>
       <c r="I150" s="285"/>
       <c r="J150" s="286"/>
       <c r="K150" s="286"/>
       <c r="L150" s="286"/>
       <c r="M150" s="286"/>
       <c r="N150" s="287"/>
-      <c r="O150" s="303" t="s">
+      <c r="O150" s="388" t="s">
         <v>115</v>
       </c>
-      <c r="P150" s="304"/>
-      <c r="Q150" s="304"/>
-      <c r="R150" s="304"/>
-      <c r="S150" s="305"/>
-      <c r="T150" s="306" t="s">
+      <c r="P150" s="389"/>
+      <c r="Q150" s="389"/>
+      <c r="R150" s="389"/>
+      <c r="S150" s="390"/>
+      <c r="T150" s="298" t="s">
         <v>105</v>
       </c>
-      <c r="U150" s="307"/>
-      <c r="V150" s="307"/>
-      <c r="W150" s="307"/>
-      <c r="X150" s="307"/>
-      <c r="Y150" s="308"/>
+      <c r="U150" s="299"/>
+      <c r="V150" s="299"/>
+      <c r="W150" s="299"/>
+      <c r="X150" s="299"/>
+      <c r="Y150" s="300"/>
       <c r="Z150" s="285"/>
       <c r="AA150" s="286"/>
       <c r="AB150" s="286"/>
@@ -12262,14 +12282,14 @@
       <c r="H151" s="138">
         <v>1</v>
       </c>
-      <c r="I151" s="295" t="s">
+      <c r="I151" s="384" t="s">
         <v>163</v>
       </c>
-      <c r="J151" s="296"/>
-      <c r="K151" s="296"/>
-      <c r="L151" s="296"/>
-      <c r="M151" s="296"/>
-      <c r="N151" s="297"/>
+      <c r="J151" s="385"/>
+      <c r="K151" s="385"/>
+      <c r="L151" s="385"/>
+      <c r="M151" s="385"/>
+      <c r="N151" s="386"/>
       <c r="O151" s="178" t="s">
         <v>164</v>
       </c>
@@ -12277,22 +12297,22 @@
       <c r="Q151" s="179"/>
       <c r="R151" s="179"/>
       <c r="S151" s="180"/>
-      <c r="T151" s="295" t="s">
+      <c r="T151" s="384" t="s">
         <v>159</v>
       </c>
-      <c r="U151" s="296"/>
-      <c r="V151" s="296"/>
-      <c r="W151" s="296"/>
-      <c r="X151" s="296"/>
-      <c r="Y151" s="297"/>
-      <c r="Z151" s="298" t="s">
+      <c r="U151" s="385"/>
+      <c r="V151" s="385"/>
+      <c r="W151" s="385"/>
+      <c r="X151" s="385"/>
+      <c r="Y151" s="386"/>
+      <c r="Z151" s="387" t="s">
         <v>165</v>
       </c>
-      <c r="AA151" s="299"/>
-      <c r="AB151" s="299"/>
-      <c r="AC151" s="299"/>
-      <c r="AD151" s="299"/>
-      <c r="AE151" s="300"/>
+      <c r="AA151" s="324"/>
+      <c r="AB151" s="324"/>
+      <c r="AC151" s="324"/>
+      <c r="AD151" s="324"/>
+      <c r="AE151" s="325"/>
       <c r="AF151" s="170"/>
       <c r="AG151" s="168"/>
       <c r="AH151" s="169"/>
@@ -12301,14 +12321,14 @@
       <c r="H152" s="138">
         <v>2</v>
       </c>
-      <c r="I152" s="295" t="s">
+      <c r="I152" s="384" t="s">
         <v>179</v>
       </c>
-      <c r="J152" s="296"/>
-      <c r="K152" s="296"/>
-      <c r="L152" s="296"/>
-      <c r="M152" s="296"/>
-      <c r="N152" s="297"/>
+      <c r="J152" s="385"/>
+      <c r="K152" s="385"/>
+      <c r="L152" s="385"/>
+      <c r="M152" s="385"/>
+      <c r="N152" s="386"/>
       <c r="O152" s="178" t="s">
         <v>164</v>
       </c>
@@ -12316,22 +12336,22 @@
       <c r="Q152" s="179"/>
       <c r="R152" s="179"/>
       <c r="S152" s="180"/>
-      <c r="T152" s="295" t="s">
+      <c r="T152" s="384" t="s">
         <v>93</v>
       </c>
-      <c r="U152" s="296"/>
-      <c r="V152" s="296"/>
-      <c r="W152" s="296"/>
-      <c r="X152" s="296"/>
-      <c r="Y152" s="297"/>
-      <c r="Z152" s="298">
+      <c r="U152" s="385"/>
+      <c r="V152" s="385"/>
+      <c r="W152" s="385"/>
+      <c r="X152" s="385"/>
+      <c r="Y152" s="386"/>
+      <c r="Z152" s="387">
         <v>0</v>
       </c>
-      <c r="AA152" s="299"/>
-      <c r="AB152" s="299"/>
-      <c r="AC152" s="299"/>
-      <c r="AD152" s="299"/>
-      <c r="AE152" s="300"/>
+      <c r="AA152" s="324"/>
+      <c r="AB152" s="324"/>
+      <c r="AC152" s="324"/>
+      <c r="AD152" s="324"/>
+      <c r="AE152" s="325"/>
       <c r="AF152" s="197"/>
       <c r="AG152" s="195"/>
       <c r="AH152" s="196"/>
@@ -12582,7 +12602,7 @@
       <c r="E158" s="126"/>
       <c r="F158" s="127"/>
       <c r="G158" s="71" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="AJ158" s="110"/>
       <c r="AK158" s="110"/>
@@ -12611,7 +12631,15 @@
     <row r="159" spans="5:59" x14ac:dyDescent="0.15">
       <c r="E159" s="126"/>
       <c r="F159" s="127"/>
-      <c r="G159" s="71"/>
+      <c r="H159" s="74" t="s">
+        <v>170</v>
+      </c>
+      <c r="I159" s="193"/>
+      <c r="J159" s="193"/>
+      <c r="K159" s="193"/>
+      <c r="L159" s="193"/>
+      <c r="M159" s="193"/>
+      <c r="N159" s="193"/>
       <c r="AJ159" s="110"/>
       <c r="AK159" s="110"/>
       <c r="AL159" s="110"/>
@@ -12639,9 +12667,7 @@
     <row r="160" spans="5:59" x14ac:dyDescent="0.15">
       <c r="E160" s="126"/>
       <c r="F160" s="127"/>
-      <c r="G160" s="71" t="s">
-        <v>184</v>
-      </c>
+      <c r="G160" s="71"/>
       <c r="AJ160" s="110"/>
       <c r="AK160" s="110"/>
       <c r="AL160" s="110"/>
@@ -12669,7 +12695,9 @@
     <row r="161" spans="1:58" x14ac:dyDescent="0.15">
       <c r="E161" s="126"/>
       <c r="F161" s="127"/>
-      <c r="G161" s="71"/>
+      <c r="G161" s="71" t="s">
+        <v>205</v>
+      </c>
       <c r="AJ161" s="110"/>
       <c r="AK161" s="110"/>
       <c r="AL161" s="110"/>
@@ -12696,9 +12724,8 @@
     </row>
     <row r="162" spans="1:58" x14ac:dyDescent="0.15">
       <c r="E162" s="126"/>
-      <c r="F162" s="71" t="s">
-        <v>206</v>
-      </c>
+      <c r="F162" s="127"/>
+      <c r="G162" s="71"/>
       <c r="AJ162" s="110"/>
       <c r="AK162" s="110"/>
       <c r="AL162" s="110"/>
@@ -12726,7 +12753,9 @@
     <row r="163" spans="1:58" x14ac:dyDescent="0.15">
       <c r="E163" s="126"/>
       <c r="F163" s="127"/>
-      <c r="G163" s="71"/>
+      <c r="G163" s="71" t="s">
+        <v>206</v>
+      </c>
       <c r="AJ163" s="110"/>
       <c r="AK163" s="110"/>
       <c r="AL163" s="110"/>
@@ -12753,7 +12782,8 @@
     </row>
     <row r="164" spans="1:58" x14ac:dyDescent="0.15">
       <c r="E164" s="126"/>
-      <c r="F164" s="71"/>
+      <c r="F164" s="127"/>
+      <c r="G164" s="71"/>
       <c r="AJ164" s="110"/>
       <c r="AK164" s="110"/>
       <c r="AL164" s="110"/>
@@ -12778,243 +12808,244 @@
       <c r="BE164" s="110"/>
       <c r="BF164" s="110"/>
     </row>
-    <row r="165" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C165" s="105"/>
-      <c r="D165" s="152" t="s">
-        <v>197</v>
-      </c>
-      <c r="E165" s="106"/>
-      <c r="AP165" s="105"/>
-      <c r="AQ165" s="105"/>
-      <c r="AR165" s="105"/>
-      <c r="AS165" s="105"/>
-      <c r="AT165" s="105"/>
-      <c r="AU165" s="105"/>
-      <c r="AV165" s="105"/>
-      <c r="AW165" s="105"/>
-      <c r="AX165" s="105"/>
-      <c r="AY165" s="105"/>
-      <c r="AZ165" s="105"/>
-      <c r="BA165" s="105"/>
-      <c r="BB165" s="105"/>
-      <c r="BC165" s="105"/>
-      <c r="BD165" s="105"/>
-    </row>
-    <row r="166" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C166" s="105"/>
-      <c r="D166" s="106"/>
-      <c r="E166" s="106"/>
-      <c r="AP166" s="105"/>
-      <c r="AQ166" s="105"/>
-      <c r="AR166" s="105"/>
-      <c r="AS166" s="105"/>
-      <c r="AT166" s="105"/>
-      <c r="AU166" s="105"/>
-      <c r="AV166" s="105"/>
-      <c r="AW166" s="105"/>
-      <c r="AX166" s="105"/>
-      <c r="AY166" s="105"/>
-      <c r="AZ166" s="105"/>
-      <c r="BA166" s="105"/>
-      <c r="BB166" s="105"/>
-      <c r="BC166" s="105"/>
-      <c r="BD166" s="105"/>
-    </row>
-    <row r="167" spans="1:58" s="108" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C167" s="29"/>
-      <c r="D167" s="106"/>
-      <c r="E167" s="106" t="s">
-        <v>97</v>
-      </c>
-      <c r="AP167" s="29"/>
-    </row>
-    <row r="168" spans="1:58" x14ac:dyDescent="0.15">
-      <c r="E168" s="126"/>
-      <c r="F168" s="127"/>
-      <c r="G168" s="71"/>
-      <c r="AJ168" s="110"/>
-      <c r="AK168" s="110"/>
-      <c r="AL168" s="110"/>
-      <c r="AM168" s="110"/>
-      <c r="AN168" s="110"/>
-      <c r="AO168" s="110"/>
-      <c r="AP168" s="110"/>
-      <c r="AQ168" s="110"/>
-      <c r="AR168" s="110"/>
-      <c r="AS168" s="110"/>
-      <c r="AT168" s="110"/>
-      <c r="AU168" s="110"/>
-      <c r="AV168" s="110"/>
-      <c r="AW168" s="110"/>
-      <c r="AX168" s="110"/>
-      <c r="AY168" s="110"/>
-      <c r="AZ168" s="110"/>
-      <c r="BA168" s="110"/>
-      <c r="BB168" s="110"/>
-      <c r="BC168" s="110"/>
-      <c r="BD168" s="110"/>
-      <c r="BE168" s="110"/>
-      <c r="BF168" s="110"/>
+    <row r="165" spans="1:58" x14ac:dyDescent="0.15">
+      <c r="E165" s="126"/>
+      <c r="F165" s="71" t="s">
+        <v>203</v>
+      </c>
+      <c r="AJ165" s="110"/>
+      <c r="AK165" s="110"/>
+      <c r="AL165" s="110"/>
+      <c r="AM165" s="110"/>
+      <c r="AN165" s="110"/>
+      <c r="AO165" s="110"/>
+      <c r="AP165" s="110"/>
+      <c r="AQ165" s="110"/>
+      <c r="AR165" s="110"/>
+      <c r="AS165" s="110"/>
+      <c r="AT165" s="110"/>
+      <c r="AU165" s="110"/>
+      <c r="AV165" s="110"/>
+      <c r="AW165" s="110"/>
+      <c r="AX165" s="110"/>
+      <c r="AY165" s="110"/>
+      <c r="AZ165" s="110"/>
+      <c r="BA165" s="110"/>
+      <c r="BB165" s="110"/>
+      <c r="BC165" s="110"/>
+      <c r="BD165" s="110"/>
+      <c r="BE165" s="110"/>
+      <c r="BF165" s="110"/>
+    </row>
+    <row r="166" spans="1:58" x14ac:dyDescent="0.15">
+      <c r="E166" s="126"/>
+      <c r="F166" s="127"/>
+      <c r="G166" s="71"/>
+      <c r="AJ166" s="110"/>
+      <c r="AK166" s="110"/>
+      <c r="AL166" s="110"/>
+      <c r="AM166" s="110"/>
+      <c r="AN166" s="110"/>
+      <c r="AO166" s="110"/>
+      <c r="AP166" s="110"/>
+      <c r="AQ166" s="110"/>
+      <c r="AR166" s="110"/>
+      <c r="AS166" s="110"/>
+      <c r="AT166" s="110"/>
+      <c r="AU166" s="110"/>
+      <c r="AV166" s="110"/>
+      <c r="AW166" s="110"/>
+      <c r="AX166" s="110"/>
+      <c r="AY166" s="110"/>
+      <c r="AZ166" s="110"/>
+      <c r="BA166" s="110"/>
+      <c r="BB166" s="110"/>
+      <c r="BC166" s="110"/>
+      <c r="BD166" s="110"/>
+      <c r="BE166" s="110"/>
+      <c r="BF166" s="110"/>
+    </row>
+    <row r="167" spans="1:58" x14ac:dyDescent="0.15">
+      <c r="E167" s="126"/>
+      <c r="F167" s="71"/>
+      <c r="AJ167" s="110"/>
+      <c r="AK167" s="110"/>
+      <c r="AL167" s="110"/>
+      <c r="AM167" s="110"/>
+      <c r="AN167" s="110"/>
+      <c r="AO167" s="110"/>
+      <c r="AP167" s="110"/>
+      <c r="AQ167" s="110"/>
+      <c r="AR167" s="110"/>
+      <c r="AS167" s="110"/>
+      <c r="AT167" s="110"/>
+      <c r="AU167" s="110"/>
+      <c r="AV167" s="110"/>
+      <c r="AW167" s="110"/>
+      <c r="AX167" s="110"/>
+      <c r="AY167" s="110"/>
+      <c r="AZ167" s="110"/>
+      <c r="BA167" s="110"/>
+      <c r="BB167" s="110"/>
+      <c r="BC167" s="110"/>
+      <c r="BD167" s="110"/>
+      <c r="BE167" s="110"/>
+      <c r="BF167" s="110"/>
+    </row>
+    <row r="168" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C168" s="105"/>
+      <c r="D168" s="152" t="s">
+        <v>195</v>
+      </c>
+      <c r="E168" s="106"/>
+      <c r="AP168" s="105"/>
+      <c r="AQ168" s="105"/>
+      <c r="AR168" s="105"/>
+      <c r="AS168" s="105"/>
+      <c r="AT168" s="105"/>
+      <c r="AU168" s="105"/>
+      <c r="AV168" s="105"/>
+      <c r="AW168" s="105"/>
+      <c r="AX168" s="105"/>
+      <c r="AY168" s="105"/>
+      <c r="AZ168" s="105"/>
+      <c r="BA168" s="105"/>
+      <c r="BB168" s="105"/>
+      <c r="BC168" s="105"/>
+      <c r="BD168" s="105"/>
     </row>
     <row r="169" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C169" s="105"/>
       <c r="D169" s="106"/>
       <c r="E169" s="106"/>
-      <c r="F169" s="17" t="s">
+      <c r="AP169" s="105"/>
+      <c r="AQ169" s="105"/>
+      <c r="AR169" s="105"/>
+      <c r="AS169" s="105"/>
+      <c r="AT169" s="105"/>
+      <c r="AU169" s="105"/>
+      <c r="AV169" s="105"/>
+      <c r="AW169" s="105"/>
+      <c r="AX169" s="105"/>
+      <c r="AY169" s="105"/>
+      <c r="AZ169" s="105"/>
+      <c r="BA169" s="105"/>
+      <c r="BB169" s="105"/>
+      <c r="BC169" s="105"/>
+      <c r="BD169" s="105"/>
+    </row>
+    <row r="170" spans="1:58" s="108" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C170" s="29"/>
+      <c r="D170" s="106"/>
+      <c r="E170" s="106" t="s">
+        <v>97</v>
+      </c>
+      <c r="AP170" s="29"/>
+    </row>
+    <row r="171" spans="1:58" x14ac:dyDescent="0.15">
+      <c r="E171" s="126"/>
+      <c r="F171" s="127"/>
+      <c r="G171" s="71"/>
+      <c r="AJ171" s="110"/>
+      <c r="AK171" s="110"/>
+      <c r="AL171" s="110"/>
+      <c r="AM171" s="110"/>
+      <c r="AN171" s="110"/>
+      <c r="AO171" s="110"/>
+      <c r="AP171" s="110"/>
+      <c r="AQ171" s="110"/>
+      <c r="AR171" s="110"/>
+      <c r="AS171" s="110"/>
+      <c r="AT171" s="110"/>
+      <c r="AU171" s="110"/>
+      <c r="AV171" s="110"/>
+      <c r="AW171" s="110"/>
+      <c r="AX171" s="110"/>
+      <c r="AY171" s="110"/>
+      <c r="AZ171" s="110"/>
+      <c r="BA171" s="110"/>
+      <c r="BB171" s="110"/>
+      <c r="BC171" s="110"/>
+      <c r="BD171" s="110"/>
+      <c r="BE171" s="110"/>
+      <c r="BF171" s="110"/>
+    </row>
+    <row r="172" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C172" s="105"/>
+      <c r="D172" s="106"/>
+      <c r="E172" s="106"/>
+      <c r="F172" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="AP169" s="105"/>
-    </row>
-    <row r="170" spans="1:58" s="108" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A170" s="29"/>
-      <c r="B170" s="107"/>
-      <c r="C170" s="29"/>
-      <c r="D170" s="29"/>
-      <c r="E170" s="29"/>
-      <c r="G170" s="151"/>
-      <c r="H170" s="151"/>
-      <c r="I170" s="151"/>
-      <c r="J170" s="151"/>
-      <c r="K170" s="151"/>
-      <c r="L170" s="151"/>
-      <c r="M170" s="151"/>
-      <c r="N170" s="151"/>
-      <c r="O170" s="151"/>
-      <c r="P170" s="151"/>
-      <c r="Q170" s="151"/>
-      <c r="R170" s="151"/>
-      <c r="S170" s="151"/>
-      <c r="T170" s="151"/>
-      <c r="U170" s="151"/>
-      <c r="V170" s="151"/>
-      <c r="W170" s="151"/>
-      <c r="X170" s="151"/>
-      <c r="Y170" s="151"/>
-      <c r="Z170" s="151"/>
-      <c r="AA170" s="151"/>
-      <c r="AB170" s="151"/>
-      <c r="AC170" s="151"/>
-      <c r="AD170" s="149"/>
-      <c r="AE170" s="149"/>
-      <c r="AF170" s="149"/>
-      <c r="AG170" s="149"/>
-      <c r="AH170" s="149"/>
-      <c r="AI170" s="149"/>
-      <c r="AJ170" s="130"/>
-    </row>
-    <row r="171" spans="1:58" s="108" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="AI171" s="125"/>
-      <c r="AJ171" s="125"/>
-      <c r="AK171" s="125"/>
-      <c r="AL171" s="125"/>
-      <c r="AM171" s="125"/>
-      <c r="AN171" s="125"/>
-      <c r="AO171" s="125"/>
-      <c r="AP171" s="125"/>
-      <c r="AQ171" s="125"/>
-      <c r="AR171" s="125"/>
-      <c r="AS171" s="125"/>
-      <c r="AT171" s="125"/>
-      <c r="AU171" s="125"/>
-      <c r="AV171" s="125"/>
-      <c r="AW171" s="125"/>
-      <c r="AX171" s="125"/>
-      <c r="AY171" s="125"/>
-      <c r="AZ171" s="125"/>
-      <c r="BA171" s="125"/>
-      <c r="BB171" s="125"/>
-      <c r="BC171" s="125"/>
-      <c r="BD171" s="125"/>
-      <c r="BE171" s="125"/>
-    </row>
-    <row r="172" spans="1:58" x14ac:dyDescent="0.15">
-      <c r="E172" s="103" t="s">
+      <c r="AP172" s="105"/>
+    </row>
+    <row r="173" spans="1:58" s="108" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A173" s="29"/>
+      <c r="B173" s="107"/>
+      <c r="C173" s="29"/>
+      <c r="D173" s="29"/>
+      <c r="E173" s="29"/>
+      <c r="G173" s="151"/>
+      <c r="H173" s="151"/>
+      <c r="I173" s="151"/>
+      <c r="J173" s="151"/>
+      <c r="K173" s="151"/>
+      <c r="L173" s="151"/>
+      <c r="M173" s="151"/>
+      <c r="N173" s="151"/>
+      <c r="O173" s="151"/>
+      <c r="P173" s="151"/>
+      <c r="Q173" s="151"/>
+      <c r="R173" s="151"/>
+      <c r="S173" s="151"/>
+      <c r="T173" s="151"/>
+      <c r="U173" s="151"/>
+      <c r="V173" s="151"/>
+      <c r="W173" s="151"/>
+      <c r="X173" s="151"/>
+      <c r="Y173" s="151"/>
+      <c r="Z173" s="151"/>
+      <c r="AA173" s="151"/>
+      <c r="AB173" s="151"/>
+      <c r="AC173" s="151"/>
+      <c r="AD173" s="149"/>
+      <c r="AE173" s="149"/>
+      <c r="AF173" s="149"/>
+      <c r="AG173" s="149"/>
+      <c r="AH173" s="149"/>
+      <c r="AI173" s="149"/>
+      <c r="AJ173" s="130"/>
+    </row>
+    <row r="174" spans="1:58" s="108" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AI174" s="125"/>
+      <c r="AJ174" s="125"/>
+      <c r="AK174" s="125"/>
+      <c r="AL174" s="125"/>
+      <c r="AM174" s="125"/>
+      <c r="AN174" s="125"/>
+      <c r="AO174" s="125"/>
+      <c r="AP174" s="125"/>
+      <c r="AQ174" s="125"/>
+      <c r="AR174" s="125"/>
+      <c r="AS174" s="125"/>
+      <c r="AT174" s="125"/>
+      <c r="AU174" s="125"/>
+      <c r="AV174" s="125"/>
+      <c r="AW174" s="125"/>
+      <c r="AX174" s="125"/>
+      <c r="AY174" s="125"/>
+      <c r="AZ174" s="125"/>
+      <c r="BA174" s="125"/>
+      <c r="BB174" s="125"/>
+      <c r="BC174" s="125"/>
+      <c r="BD174" s="125"/>
+      <c r="BE174" s="125"/>
+    </row>
+    <row r="175" spans="1:58" x14ac:dyDescent="0.15">
+      <c r="E175" s="103" t="s">
         <v>147</v>
       </c>
-      <c r="G172" s="107"/>
-      <c r="AJ172" s="110"/>
-      <c r="AK172" s="110"/>
-      <c r="AL172" s="110"/>
-      <c r="AM172" s="110"/>
-      <c r="AN172" s="110"/>
-      <c r="AO172" s="110"/>
-      <c r="AP172" s="110"/>
-      <c r="AQ172" s="110"/>
-      <c r="AR172" s="110"/>
-      <c r="AS172" s="110"/>
-      <c r="AT172" s="110"/>
-      <c r="AU172" s="110"/>
-      <c r="AV172" s="110"/>
-      <c r="AW172" s="110"/>
-      <c r="AX172" s="110"/>
-      <c r="AY172" s="110"/>
-      <c r="AZ172" s="110"/>
-      <c r="BA172" s="110"/>
-      <c r="BB172" s="110"/>
-      <c r="BC172" s="110"/>
-      <c r="BD172" s="110"/>
-      <c r="BE172" s="110"/>
-      <c r="BF172" s="110"/>
-    </row>
-    <row r="173" spans="1:58" x14ac:dyDescent="0.15">
-      <c r="H173" s="107"/>
-      <c r="AJ173" s="110"/>
-      <c r="AK173" s="110"/>
-      <c r="AL173" s="110"/>
-      <c r="AM173" s="110"/>
-      <c r="AN173" s="110"/>
-      <c r="AO173" s="110"/>
-      <c r="AP173" s="110"/>
-      <c r="AQ173" s="110"/>
-      <c r="AR173" s="110"/>
-      <c r="AS173" s="110"/>
-      <c r="AT173" s="110"/>
-      <c r="AU173" s="110"/>
-      <c r="AV173" s="110"/>
-      <c r="AW173" s="110"/>
-      <c r="AX173" s="110"/>
-      <c r="AY173" s="110"/>
-      <c r="AZ173" s="110"/>
-      <c r="BA173" s="110"/>
-      <c r="BB173" s="110"/>
-      <c r="BC173" s="110"/>
-      <c r="BD173" s="110"/>
-      <c r="BE173" s="110"/>
-      <c r="BF173" s="110"/>
-    </row>
-    <row r="174" spans="1:58" x14ac:dyDescent="0.15">
-      <c r="E174" s="126"/>
-      <c r="F174" s="71" t="s">
-        <v>198</v>
-      </c>
-      <c r="AJ174" s="110"/>
-      <c r="AK174" s="110"/>
-      <c r="AL174" s="110"/>
-      <c r="AM174" s="110"/>
-      <c r="AN174" s="110"/>
-      <c r="AO174" s="110"/>
-      <c r="AP174" s="110"/>
-      <c r="AQ174" s="110"/>
-      <c r="AR174" s="110"/>
-      <c r="AS174" s="110"/>
-      <c r="AT174" s="110"/>
-      <c r="AU174" s="110"/>
-      <c r="AV174" s="110"/>
-      <c r="AW174" s="110"/>
-      <c r="AX174" s="110"/>
-      <c r="AY174" s="110"/>
-      <c r="AZ174" s="110"/>
-      <c r="BA174" s="110"/>
-      <c r="BB174" s="110"/>
-      <c r="BC174" s="110"/>
-      <c r="BD174" s="110"/>
-      <c r="BE174" s="110"/>
-      <c r="BF174" s="110"/>
-    </row>
-    <row r="175" spans="1:58" x14ac:dyDescent="0.15">
-      <c r="E175" s="126"/>
-      <c r="F175" s="71"/>
-      <c r="G175" s="71"/>
+      <c r="G175" s="107"/>
       <c r="AJ175" s="110"/>
       <c r="AK175" s="110"/>
       <c r="AL175" s="110"/>
@@ -13040,7 +13071,7 @@
       <c r="BF175" s="110"/>
     </row>
     <row r="176" spans="1:58" x14ac:dyDescent="0.15">
-      <c r="E176" s="126"/>
+      <c r="H176" s="107"/>
       <c r="AJ176" s="110"/>
       <c r="AK176" s="110"/>
       <c r="AL176" s="110"/>
@@ -13065,53 +13096,145 @@
       <c r="BE176" s="110"/>
       <c r="BF176" s="110"/>
     </row>
+    <row r="177" spans="5:58" x14ac:dyDescent="0.15">
+      <c r="E177" s="126"/>
+      <c r="F177" s="71" t="s">
+        <v>196</v>
+      </c>
+      <c r="AJ177" s="110"/>
+      <c r="AK177" s="110"/>
+      <c r="AL177" s="110"/>
+      <c r="AM177" s="110"/>
+      <c r="AN177" s="110"/>
+      <c r="AO177" s="110"/>
+      <c r="AP177" s="110"/>
+      <c r="AQ177" s="110"/>
+      <c r="AR177" s="110"/>
+      <c r="AS177" s="110"/>
+      <c r="AT177" s="110"/>
+      <c r="AU177" s="110"/>
+      <c r="AV177" s="110"/>
+      <c r="AW177" s="110"/>
+      <c r="AX177" s="110"/>
+      <c r="AY177" s="110"/>
+      <c r="AZ177" s="110"/>
+      <c r="BA177" s="110"/>
+      <c r="BB177" s="110"/>
+      <c r="BC177" s="110"/>
+      <c r="BD177" s="110"/>
+      <c r="BE177" s="110"/>
+      <c r="BF177" s="110"/>
+    </row>
+    <row r="178" spans="5:58" x14ac:dyDescent="0.15">
+      <c r="E178" s="126"/>
+      <c r="F178" s="71"/>
+      <c r="G178" s="71"/>
+      <c r="AJ178" s="110"/>
+      <c r="AK178" s="110"/>
+      <c r="AL178" s="110"/>
+      <c r="AM178" s="110"/>
+      <c r="AN178" s="110"/>
+      <c r="AO178" s="110"/>
+      <c r="AP178" s="110"/>
+      <c r="AQ178" s="110"/>
+      <c r="AR178" s="110"/>
+      <c r="AS178" s="110"/>
+      <c r="AT178" s="110"/>
+      <c r="AU178" s="110"/>
+      <c r="AV178" s="110"/>
+      <c r="AW178" s="110"/>
+      <c r="AX178" s="110"/>
+      <c r="AY178" s="110"/>
+      <c r="AZ178" s="110"/>
+      <c r="BA178" s="110"/>
+      <c r="BB178" s="110"/>
+      <c r="BC178" s="110"/>
+      <c r="BD178" s="110"/>
+      <c r="BE178" s="110"/>
+      <c r="BF178" s="110"/>
+    </row>
+    <row r="179" spans="5:58" x14ac:dyDescent="0.15">
+      <c r="E179" s="126"/>
+      <c r="AJ179" s="110"/>
+      <c r="AK179" s="110"/>
+      <c r="AL179" s="110"/>
+      <c r="AM179" s="110"/>
+      <c r="AN179" s="110"/>
+      <c r="AO179" s="110"/>
+      <c r="AP179" s="110"/>
+      <c r="AQ179" s="110"/>
+      <c r="AR179" s="110"/>
+      <c r="AS179" s="110"/>
+      <c r="AT179" s="110"/>
+      <c r="AU179" s="110"/>
+      <c r="AV179" s="110"/>
+      <c r="AW179" s="110"/>
+      <c r="AX179" s="110"/>
+      <c r="AY179" s="110"/>
+      <c r="AZ179" s="110"/>
+      <c r="BA179" s="110"/>
+      <c r="BB179" s="110"/>
+      <c r="BC179" s="110"/>
+      <c r="BD179" s="110"/>
+      <c r="BE179" s="110"/>
+      <c r="BF179" s="110"/>
+    </row>
   </sheetData>
   <mergeCells count="123">
-    <mergeCell ref="K66:Q66"/>
-    <mergeCell ref="G115:P115"/>
-    <mergeCell ref="Q115:Z115"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="V58:AH59"/>
-    <mergeCell ref="T59:U59"/>
-    <mergeCell ref="G99:P99"/>
-    <mergeCell ref="Q99:Z99"/>
-    <mergeCell ref="G90:L90"/>
-    <mergeCell ref="M89:V89"/>
-    <mergeCell ref="W90:Y90"/>
-    <mergeCell ref="E69:J69"/>
-    <mergeCell ref="K69:Q69"/>
-    <mergeCell ref="R69:Y69"/>
-    <mergeCell ref="Z69:AD69"/>
-    <mergeCell ref="AE69:AH69"/>
-    <mergeCell ref="AD49:AG51"/>
-    <mergeCell ref="Z52:AB52"/>
-    <mergeCell ref="AD53:AG53"/>
-    <mergeCell ref="AD52:AG52"/>
-    <mergeCell ref="U50:Y51"/>
-    <mergeCell ref="U52:Y52"/>
-    <mergeCell ref="R68:Y68"/>
-    <mergeCell ref="Z68:AD68"/>
-    <mergeCell ref="AE68:AH68"/>
-    <mergeCell ref="AE66:AH66"/>
-    <mergeCell ref="Z66:AD66"/>
-    <mergeCell ref="AE67:AH67"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="I152:N152"/>
+    <mergeCell ref="T152:Y152"/>
+    <mergeCell ref="Z152:AE152"/>
+    <mergeCell ref="I151:N151"/>
+    <mergeCell ref="T151:Y151"/>
+    <mergeCell ref="Z151:AE151"/>
+    <mergeCell ref="H149:H150"/>
+    <mergeCell ref="I149:N150"/>
+    <mergeCell ref="O149:Y149"/>
+    <mergeCell ref="Z149:AE150"/>
+    <mergeCell ref="O150:S150"/>
+    <mergeCell ref="T150:Y150"/>
+    <mergeCell ref="I141:N141"/>
+    <mergeCell ref="T141:Y141"/>
+    <mergeCell ref="Z141:AE141"/>
+    <mergeCell ref="Q104:Z104"/>
+    <mergeCell ref="H139:H140"/>
+    <mergeCell ref="I139:N140"/>
+    <mergeCell ref="O139:Y139"/>
+    <mergeCell ref="Z139:AE140"/>
+    <mergeCell ref="O140:S140"/>
+    <mergeCell ref="T140:Y140"/>
+    <mergeCell ref="G116:P117"/>
+    <mergeCell ref="Q116:Z116"/>
+    <mergeCell ref="Q117:Z117"/>
+    <mergeCell ref="G118:Z118"/>
+    <mergeCell ref="G100:P105"/>
+    <mergeCell ref="Q100:Z100"/>
+    <mergeCell ref="Q105:Z105"/>
+    <mergeCell ref="G106:Z106"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="M50:T51"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:J59"/>
+    <mergeCell ref="K58:N59"/>
+    <mergeCell ref="E66:J66"/>
+    <mergeCell ref="T61:U61"/>
+    <mergeCell ref="V61:AH61"/>
+    <mergeCell ref="K61:N61"/>
+    <mergeCell ref="R66:Y66"/>
+    <mergeCell ref="E60:J60"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="T60:U60"/>
+    <mergeCell ref="V60:AH60"/>
+    <mergeCell ref="U53:Y53"/>
+    <mergeCell ref="Z53:AB53"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="I50:L51"/>
+    <mergeCell ref="E50:H51"/>
+    <mergeCell ref="E49:AC49"/>
+    <mergeCell ref="Z50:AB51"/>
+    <mergeCell ref="AC50:AC51"/>
+    <mergeCell ref="M53:T53"/>
     <mergeCell ref="E43:M43"/>
     <mergeCell ref="N43:P43"/>
     <mergeCell ref="Q43:U43"/>
@@ -13136,60 +13259,51 @@
     <mergeCell ref="AD89:AG89"/>
     <mergeCell ref="AD90:AG90"/>
     <mergeCell ref="G89:L89"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="M50:T51"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:J59"/>
-    <mergeCell ref="K58:N59"/>
-    <mergeCell ref="E66:J66"/>
-    <mergeCell ref="T61:U61"/>
-    <mergeCell ref="V61:AH61"/>
-    <mergeCell ref="K61:N61"/>
-    <mergeCell ref="R66:Y66"/>
-    <mergeCell ref="E60:J60"/>
-    <mergeCell ref="K60:N60"/>
-    <mergeCell ref="T60:U60"/>
-    <mergeCell ref="V60:AH60"/>
-    <mergeCell ref="U53:Y53"/>
-    <mergeCell ref="Z53:AB53"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="I50:L51"/>
-    <mergeCell ref="E50:H51"/>
-    <mergeCell ref="E49:AC49"/>
-    <mergeCell ref="Z50:AB51"/>
-    <mergeCell ref="AC50:AC51"/>
-    <mergeCell ref="M53:T53"/>
-    <mergeCell ref="I141:N141"/>
-    <mergeCell ref="T141:Y141"/>
-    <mergeCell ref="Z141:AE141"/>
-    <mergeCell ref="Q104:Z104"/>
-    <mergeCell ref="H139:H140"/>
-    <mergeCell ref="I139:N140"/>
-    <mergeCell ref="O139:Y139"/>
-    <mergeCell ref="Z139:AE140"/>
-    <mergeCell ref="O140:S140"/>
-    <mergeCell ref="T140:Y140"/>
-    <mergeCell ref="G116:P117"/>
-    <mergeCell ref="Q116:Z116"/>
-    <mergeCell ref="Q117:Z117"/>
-    <mergeCell ref="G118:Z118"/>
-    <mergeCell ref="G100:P105"/>
-    <mergeCell ref="Q100:Z100"/>
-    <mergeCell ref="Q105:Z105"/>
-    <mergeCell ref="G106:Z106"/>
-    <mergeCell ref="I152:N152"/>
-    <mergeCell ref="T152:Y152"/>
-    <mergeCell ref="Z152:AE152"/>
-    <mergeCell ref="I151:N151"/>
-    <mergeCell ref="T151:Y151"/>
-    <mergeCell ref="Z151:AE151"/>
-    <mergeCell ref="H149:H150"/>
-    <mergeCell ref="I149:N150"/>
-    <mergeCell ref="O149:Y149"/>
-    <mergeCell ref="Z149:AE150"/>
-    <mergeCell ref="O150:S150"/>
-    <mergeCell ref="T150:Y150"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AD49:AG51"/>
+    <mergeCell ref="Z52:AB52"/>
+    <mergeCell ref="AD53:AG53"/>
+    <mergeCell ref="AD52:AG52"/>
+    <mergeCell ref="U50:Y51"/>
+    <mergeCell ref="U52:Y52"/>
+    <mergeCell ref="R68:Y68"/>
+    <mergeCell ref="Z68:AD68"/>
+    <mergeCell ref="AE68:AH68"/>
+    <mergeCell ref="AE66:AH66"/>
+    <mergeCell ref="Z66:AD66"/>
+    <mergeCell ref="AE67:AH67"/>
+    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="G115:P115"/>
+    <mergeCell ref="Q115:Z115"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="V58:AH59"/>
+    <mergeCell ref="T59:U59"/>
+    <mergeCell ref="G99:P99"/>
+    <mergeCell ref="Q99:Z99"/>
+    <mergeCell ref="G90:L90"/>
+    <mergeCell ref="M89:V89"/>
+    <mergeCell ref="W90:Y90"/>
+    <mergeCell ref="E69:J69"/>
+    <mergeCell ref="K69:Q69"/>
+    <mergeCell ref="R69:Y69"/>
+    <mergeCell ref="Z69:AD69"/>
+    <mergeCell ref="AE69:AH69"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="5">
@@ -13220,7 +13334,7 @@
     <brk id="71" max="34" man="1"/>
     <brk id="112" max="34" man="1"/>
     <brk id="122" max="34" man="1"/>
-    <brk id="164" max="34" man="1"/>
+    <brk id="167" max="34" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(画面)_WA10101_ログイン.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(画面)_WA10101_ログイン.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF76404B-1B2C-4D04-B28D-3A1C87C0921A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B46B0B6-ED56-4954-A4B2-E45A53808CB3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'2. WA10101(ログイン画面)'!#REF!</definedName>
     <definedName name="_Toc46209822" localSheetId="3">'1.  画面取引定義'!$B$5</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'1.  画面取引定義'!$A$1:$AI$21</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'2. WA10101(ログイン画面)'!$A$1:$AI$183</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'2. WA10101(ログイン画面)'!$A$1:$AI$185</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">データ!$A$1:$E$13</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
@@ -277,7 +277,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="209">
   <si>
     <t>PJ名</t>
   </si>
@@ -1799,38 +1799,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>エ.セキュリティ対策として、セッション再作成、CSRFトークン発行を実施する。</t>
-    <rPh sb="8" eb="10">
-      <t>タイサク</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>オ.「(2) 検索処理」の検索結果を認証情報としてセッションに追加する。</t>
-    <rPh sb="7" eb="9">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>・(2) DBアクセス（検索処理）：実装に合わせて検索条件修正
 ・(3)　表示処理：パスワード有効期限判定追記
 ・(3)　表示処理：パスワード認証成功時のセキュリティ対策追記
@@ -1866,6 +1834,39 @@
       <t>ツイキ</t>
     </rPh>
     <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>エ.セッションフィクセーション対策としてセッションIDを変更する。</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>オ.CSRFトークン発行を実施する。</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>カ.「(2) 検索処理」の検索結果を認証情報としてセッションに追加する。</t>
+    <rPh sb="7" eb="9">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
   </si>
 </sst>
 </file>
@@ -2997,6 +2998,114 @@
     <xf numFmtId="31" fontId="8" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3033,24 +3142,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3060,24 +3151,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3114,77 +3187,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -3195,36 +3226,6 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3276,23 +3277,284 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3303,24 +3565,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3330,12 +3574,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -3347,243 +3585,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -5118,57 +5119,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="251" t="s">
+      <c r="A1" s="202" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="252"/>
-      <c r="C1" s="252"/>
-      <c r="D1" s="253"/>
-      <c r="E1" s="220" t="s">
+      <c r="B1" s="203"/>
+      <c r="C1" s="203"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="250" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="221"/>
-      <c r="G1" s="221"/>
-      <c r="H1" s="221"/>
-      <c r="I1" s="221"/>
-      <c r="J1" s="221"/>
-      <c r="K1" s="221"/>
-      <c r="L1" s="221"/>
-      <c r="M1" s="221"/>
-      <c r="N1" s="222"/>
-      <c r="O1" s="254" t="s">
+      <c r="F1" s="251"/>
+      <c r="G1" s="251"/>
+      <c r="H1" s="251"/>
+      <c r="I1" s="251"/>
+      <c r="J1" s="251"/>
+      <c r="K1" s="251"/>
+      <c r="L1" s="251"/>
+      <c r="M1" s="251"/>
+      <c r="N1" s="252"/>
+      <c r="O1" s="205" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="255"/>
-      <c r="Q1" s="255"/>
-      <c r="R1" s="256"/>
-      <c r="S1" s="232" t="s">
+      <c r="P1" s="206"/>
+      <c r="Q1" s="206"/>
+      <c r="R1" s="207"/>
+      <c r="S1" s="256" t="s">
         <v>139</v>
       </c>
-      <c r="T1" s="233"/>
-      <c r="U1" s="233"/>
-      <c r="V1" s="233"/>
-      <c r="W1" s="233"/>
-      <c r="X1" s="233"/>
-      <c r="Y1" s="233"/>
-      <c r="Z1" s="234"/>
-      <c r="AA1" s="251" t="s">
+      <c r="T1" s="257"/>
+      <c r="U1" s="257"/>
+      <c r="V1" s="257"/>
+      <c r="W1" s="257"/>
+      <c r="X1" s="257"/>
+      <c r="Y1" s="257"/>
+      <c r="Z1" s="258"/>
+      <c r="AA1" s="202" t="s">
         <v>35</v>
       </c>
-      <c r="AB1" s="253"/>
-      <c r="AC1" s="202" t="str">
+      <c r="AB1" s="204"/>
+      <c r="AC1" s="238" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="203"/>
-      <c r="AE1" s="203"/>
-      <c r="AF1" s="204"/>
-      <c r="AG1" s="208">
+      <c r="AD1" s="239"/>
+      <c r="AE1" s="239"/>
+      <c r="AF1" s="240"/>
+      <c r="AG1" s="244">
         <f>IF(D8="","",D8)</f>
         <v>43656</v>
       </c>
-      <c r="AH1" s="209"/>
-      <c r="AI1" s="210"/>
+      <c r="AH1" s="245"/>
+      <c r="AI1" s="246"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="9"/>
@@ -5176,53 +5177,53 @@
       <c r="AN1" s="10"/>
     </row>
     <row r="2" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="251" t="s">
+      <c r="A2" s="202" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="252"/>
-      <c r="C2" s="252"/>
-      <c r="D2" s="253"/>
-      <c r="E2" s="220" t="s">
+      <c r="B2" s="203"/>
+      <c r="C2" s="203"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="250" t="s">
         <v>112</v>
       </c>
-      <c r="F2" s="221"/>
-      <c r="G2" s="221"/>
-      <c r="H2" s="221"/>
-      <c r="I2" s="221"/>
-      <c r="J2" s="221"/>
-      <c r="K2" s="221"/>
-      <c r="L2" s="221"/>
-      <c r="M2" s="221"/>
-      <c r="N2" s="222"/>
-      <c r="O2" s="257"/>
-      <c r="P2" s="258"/>
-      <c r="Q2" s="258"/>
-      <c r="R2" s="259"/>
-      <c r="S2" s="235"/>
-      <c r="T2" s="236"/>
-      <c r="U2" s="236"/>
-      <c r="V2" s="236"/>
-      <c r="W2" s="236"/>
-      <c r="X2" s="236"/>
-      <c r="Y2" s="236"/>
-      <c r="Z2" s="237"/>
-      <c r="AA2" s="251" t="s">
+      <c r="F2" s="251"/>
+      <c r="G2" s="251"/>
+      <c r="H2" s="251"/>
+      <c r="I2" s="251"/>
+      <c r="J2" s="251"/>
+      <c r="K2" s="251"/>
+      <c r="L2" s="251"/>
+      <c r="M2" s="251"/>
+      <c r="N2" s="252"/>
+      <c r="O2" s="208"/>
+      <c r="P2" s="209"/>
+      <c r="Q2" s="209"/>
+      <c r="R2" s="210"/>
+      <c r="S2" s="259"/>
+      <c r="T2" s="260"/>
+      <c r="U2" s="260"/>
+      <c r="V2" s="260"/>
+      <c r="W2" s="260"/>
+      <c r="X2" s="260"/>
+      <c r="Y2" s="260"/>
+      <c r="Z2" s="261"/>
+      <c r="AA2" s="202" t="s">
         <v>36</v>
       </c>
-      <c r="AB2" s="253"/>
-      <c r="AC2" s="211" t="str">
+      <c r="AB2" s="204"/>
+      <c r="AC2" s="247" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="212"/>
-      <c r="AE2" s="212"/>
-      <c r="AF2" s="213"/>
-      <c r="AG2" s="208">
+      <c r="AD2" s="248"/>
+      <c r="AE2" s="248"/>
+      <c r="AF2" s="249"/>
+      <c r="AG2" s="244">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="209"/>
-      <c r="AI2" s="210"/>
+      <c r="AH2" s="245"/>
+      <c r="AI2" s="246"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
@@ -5230,45 +5231,45 @@
       <c r="AN2" s="9"/>
     </row>
     <row r="3" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="251" t="s">
+      <c r="A3" s="202" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="252"/>
-      <c r="C3" s="252"/>
-      <c r="D3" s="253"/>
-      <c r="E3" s="220" t="s">
+      <c r="B3" s="203"/>
+      <c r="C3" s="203"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="250" t="s">
         <v>134</v>
       </c>
-      <c r="F3" s="221"/>
-      <c r="G3" s="221"/>
-      <c r="H3" s="221"/>
-      <c r="I3" s="221"/>
-      <c r="J3" s="221"/>
-      <c r="K3" s="221"/>
-      <c r="L3" s="221"/>
-      <c r="M3" s="221"/>
-      <c r="N3" s="222"/>
-      <c r="O3" s="260"/>
-      <c r="P3" s="261"/>
-      <c r="Q3" s="261"/>
-      <c r="R3" s="262"/>
-      <c r="S3" s="238"/>
-      <c r="T3" s="239"/>
-      <c r="U3" s="239"/>
-      <c r="V3" s="239"/>
-      <c r="W3" s="239"/>
-      <c r="X3" s="239"/>
-      <c r="Y3" s="239"/>
-      <c r="Z3" s="240"/>
-      <c r="AA3" s="263"/>
-      <c r="AB3" s="264"/>
-      <c r="AC3" s="202"/>
-      <c r="AD3" s="203"/>
-      <c r="AE3" s="203"/>
-      <c r="AF3" s="204"/>
-      <c r="AG3" s="208"/>
-      <c r="AH3" s="209"/>
-      <c r="AI3" s="210"/>
+      <c r="F3" s="251"/>
+      <c r="G3" s="251"/>
+      <c r="H3" s="251"/>
+      <c r="I3" s="251"/>
+      <c r="J3" s="251"/>
+      <c r="K3" s="251"/>
+      <c r="L3" s="251"/>
+      <c r="M3" s="251"/>
+      <c r="N3" s="252"/>
+      <c r="O3" s="211"/>
+      <c r="P3" s="212"/>
+      <c r="Q3" s="212"/>
+      <c r="R3" s="213"/>
+      <c r="S3" s="262"/>
+      <c r="T3" s="263"/>
+      <c r="U3" s="263"/>
+      <c r="V3" s="263"/>
+      <c r="W3" s="263"/>
+      <c r="X3" s="263"/>
+      <c r="Y3" s="263"/>
+      <c r="Z3" s="264"/>
+      <c r="AA3" s="214"/>
+      <c r="AB3" s="215"/>
+      <c r="AC3" s="238"/>
+      <c r="AD3" s="239"/>
+      <c r="AE3" s="239"/>
+      <c r="AF3" s="240"/>
+      <c r="AG3" s="244"/>
+      <c r="AH3" s="245"/>
+      <c r="AI3" s="246"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
@@ -5407,1042 +5408,1042 @@
       <c r="A7" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="217" t="s">
+      <c r="B7" s="228" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="219"/>
-      <c r="D7" s="217" t="s">
+      <c r="C7" s="229"/>
+      <c r="D7" s="228" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="218"/>
-      <c r="F7" s="219"/>
-      <c r="G7" s="217" t="s">
+      <c r="E7" s="230"/>
+      <c r="F7" s="229"/>
+      <c r="G7" s="228" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="218"/>
-      <c r="I7" s="219"/>
-      <c r="J7" s="217" t="s">
+      <c r="H7" s="230"/>
+      <c r="I7" s="229"/>
+      <c r="J7" s="228" t="s">
         <v>85</v>
       </c>
-      <c r="K7" s="218"/>
-      <c r="L7" s="218"/>
-      <c r="M7" s="218"/>
-      <c r="N7" s="218"/>
-      <c r="O7" s="218"/>
-      <c r="P7" s="219"/>
-      <c r="Q7" s="217" t="s">
+      <c r="K7" s="230"/>
+      <c r="L7" s="230"/>
+      <c r="M7" s="230"/>
+      <c r="N7" s="230"/>
+      <c r="O7" s="230"/>
+      <c r="P7" s="229"/>
+      <c r="Q7" s="228" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="218"/>
-      <c r="S7" s="218"/>
-      <c r="T7" s="218"/>
-      <c r="U7" s="218"/>
-      <c r="V7" s="218"/>
-      <c r="W7" s="218"/>
-      <c r="X7" s="218"/>
-      <c r="Y7" s="218"/>
-      <c r="Z7" s="218"/>
-      <c r="AA7" s="218"/>
-      <c r="AB7" s="218"/>
-      <c r="AC7" s="218"/>
-      <c r="AD7" s="218"/>
-      <c r="AE7" s="219"/>
-      <c r="AF7" s="217" t="s">
+      <c r="R7" s="230"/>
+      <c r="S7" s="230"/>
+      <c r="T7" s="230"/>
+      <c r="U7" s="230"/>
+      <c r="V7" s="230"/>
+      <c r="W7" s="230"/>
+      <c r="X7" s="230"/>
+      <c r="Y7" s="230"/>
+      <c r="Z7" s="230"/>
+      <c r="AA7" s="230"/>
+      <c r="AB7" s="230"/>
+      <c r="AC7" s="230"/>
+      <c r="AD7" s="230"/>
+      <c r="AE7" s="229"/>
+      <c r="AF7" s="228" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="218"/>
-      <c r="AH7" s="218"/>
-      <c r="AI7" s="219"/>
+      <c r="AG7" s="230"/>
+      <c r="AH7" s="230"/>
+      <c r="AI7" s="229"/>
     </row>
     <row r="8" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="56">
         <v>1</v>
       </c>
-      <c r="B8" s="244" t="s">
+      <c r="B8" s="231" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="245"/>
-      <c r="D8" s="246">
+      <c r="C8" s="232"/>
+      <c r="D8" s="233">
         <v>43656</v>
       </c>
-      <c r="E8" s="247"/>
-      <c r="F8" s="248"/>
-      <c r="G8" s="249" t="s">
+      <c r="E8" s="234"/>
+      <c r="F8" s="235"/>
+      <c r="G8" s="236" t="s">
         <v>107</v>
       </c>
-      <c r="H8" s="250"/>
-      <c r="I8" s="245"/>
-      <c r="J8" s="229" t="s">
+      <c r="H8" s="237"/>
+      <c r="I8" s="232"/>
+      <c r="J8" s="253" t="s">
         <v>108</v>
       </c>
-      <c r="K8" s="230"/>
-      <c r="L8" s="230"/>
-      <c r="M8" s="230"/>
-      <c r="N8" s="230"/>
-      <c r="O8" s="230"/>
-      <c r="P8" s="231"/>
-      <c r="Q8" s="205" t="s">
+      <c r="K8" s="254"/>
+      <c r="L8" s="254"/>
+      <c r="M8" s="254"/>
+      <c r="N8" s="254"/>
+      <c r="O8" s="254"/>
+      <c r="P8" s="255"/>
+      <c r="Q8" s="241" t="s">
         <v>109</v>
       </c>
-      <c r="R8" s="206"/>
-      <c r="S8" s="206"/>
-      <c r="T8" s="206"/>
-      <c r="U8" s="206"/>
-      <c r="V8" s="206"/>
-      <c r="W8" s="206"/>
-      <c r="X8" s="206"/>
-      <c r="Y8" s="206"/>
-      <c r="Z8" s="206"/>
-      <c r="AA8" s="206"/>
-      <c r="AB8" s="206"/>
-      <c r="AC8" s="206"/>
-      <c r="AD8" s="206"/>
-      <c r="AE8" s="207"/>
-      <c r="AF8" s="229" t="s">
+      <c r="R8" s="242"/>
+      <c r="S8" s="242"/>
+      <c r="T8" s="242"/>
+      <c r="U8" s="242"/>
+      <c r="V8" s="242"/>
+      <c r="W8" s="242"/>
+      <c r="X8" s="242"/>
+      <c r="Y8" s="242"/>
+      <c r="Z8" s="242"/>
+      <c r="AA8" s="242"/>
+      <c r="AB8" s="242"/>
+      <c r="AC8" s="242"/>
+      <c r="AD8" s="242"/>
+      <c r="AE8" s="243"/>
+      <c r="AF8" s="253" t="s">
         <v>110</v>
       </c>
-      <c r="AG8" s="230"/>
-      <c r="AH8" s="230"/>
-      <c r="AI8" s="231"/>
+      <c r="AG8" s="254"/>
+      <c r="AH8" s="254"/>
+      <c r="AI8" s="255"/>
     </row>
     <row r="9" spans="1:40" s="55" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="57">
         <v>2</v>
       </c>
-      <c r="B9" s="214" t="s">
+      <c r="B9" s="222" t="s">
         <v>188</v>
       </c>
-      <c r="C9" s="216"/>
-      <c r="D9" s="241">
+      <c r="C9" s="223"/>
+      <c r="D9" s="224">
         <v>44796</v>
       </c>
-      <c r="E9" s="242"/>
-      <c r="F9" s="243"/>
-      <c r="G9" s="214" t="s">
+      <c r="E9" s="225"/>
+      <c r="F9" s="226"/>
+      <c r="G9" s="222" t="s">
         <v>189</v>
       </c>
-      <c r="H9" s="215"/>
-      <c r="I9" s="216"/>
-      <c r="J9" s="223" t="s">
+      <c r="H9" s="227"/>
+      <c r="I9" s="223"/>
+      <c r="J9" s="216" t="s">
         <v>200</v>
       </c>
-      <c r="K9" s="227"/>
-      <c r="L9" s="227"/>
-      <c r="M9" s="227"/>
-      <c r="N9" s="227"/>
-      <c r="O9" s="227"/>
-      <c r="P9" s="228"/>
-      <c r="Q9" s="223" t="s">
-        <v>207</v>
-      </c>
-      <c r="R9" s="224"/>
-      <c r="S9" s="224"/>
-      <c r="T9" s="224"/>
-      <c r="U9" s="224"/>
-      <c r="V9" s="224"/>
-      <c r="W9" s="224"/>
-      <c r="X9" s="224"/>
-      <c r="Y9" s="224"/>
-      <c r="Z9" s="224"/>
-      <c r="AA9" s="224"/>
-      <c r="AB9" s="224"/>
-      <c r="AC9" s="224"/>
-      <c r="AD9" s="224"/>
-      <c r="AE9" s="225"/>
-      <c r="AF9" s="226" t="s">
+      <c r="K9" s="220"/>
+      <c r="L9" s="220"/>
+      <c r="M9" s="220"/>
+      <c r="N9" s="220"/>
+      <c r="O9" s="220"/>
+      <c r="P9" s="221"/>
+      <c r="Q9" s="216" t="s">
+        <v>205</v>
+      </c>
+      <c r="R9" s="217"/>
+      <c r="S9" s="217"/>
+      <c r="T9" s="217"/>
+      <c r="U9" s="217"/>
+      <c r="V9" s="217"/>
+      <c r="W9" s="217"/>
+      <c r="X9" s="217"/>
+      <c r="Y9" s="217"/>
+      <c r="Z9" s="217"/>
+      <c r="AA9" s="217"/>
+      <c r="AB9" s="217"/>
+      <c r="AC9" s="217"/>
+      <c r="AD9" s="217"/>
+      <c r="AE9" s="218"/>
+      <c r="AF9" s="219" t="s">
         <v>187</v>
       </c>
-      <c r="AG9" s="227"/>
-      <c r="AH9" s="227"/>
-      <c r="AI9" s="228"/>
+      <c r="AG9" s="220"/>
+      <c r="AH9" s="220"/>
+      <c r="AI9" s="221"/>
     </row>
     <row r="10" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="57"/>
-      <c r="B10" s="214"/>
-      <c r="C10" s="216"/>
-      <c r="D10" s="241"/>
-      <c r="E10" s="242"/>
-      <c r="F10" s="243"/>
-      <c r="G10" s="214"/>
-      <c r="H10" s="215"/>
-      <c r="I10" s="216"/>
-      <c r="J10" s="226"/>
-      <c r="K10" s="227"/>
-      <c r="L10" s="227"/>
-      <c r="M10" s="227"/>
-      <c r="N10" s="227"/>
-      <c r="O10" s="227"/>
-      <c r="P10" s="228"/>
-      <c r="Q10" s="223"/>
-      <c r="R10" s="224"/>
-      <c r="S10" s="224"/>
-      <c r="T10" s="224"/>
-      <c r="U10" s="224"/>
-      <c r="V10" s="224"/>
-      <c r="W10" s="224"/>
-      <c r="X10" s="224"/>
-      <c r="Y10" s="224"/>
-      <c r="Z10" s="224"/>
-      <c r="AA10" s="224"/>
-      <c r="AB10" s="224"/>
-      <c r="AC10" s="224"/>
-      <c r="AD10" s="224"/>
-      <c r="AE10" s="225"/>
-      <c r="AF10" s="226"/>
-      <c r="AG10" s="227"/>
-      <c r="AH10" s="227"/>
-      <c r="AI10" s="228"/>
+      <c r="B10" s="222"/>
+      <c r="C10" s="223"/>
+      <c r="D10" s="224"/>
+      <c r="E10" s="225"/>
+      <c r="F10" s="226"/>
+      <c r="G10" s="222"/>
+      <c r="H10" s="227"/>
+      <c r="I10" s="223"/>
+      <c r="J10" s="219"/>
+      <c r="K10" s="220"/>
+      <c r="L10" s="220"/>
+      <c r="M10" s="220"/>
+      <c r="N10" s="220"/>
+      <c r="O10" s="220"/>
+      <c r="P10" s="221"/>
+      <c r="Q10" s="216"/>
+      <c r="R10" s="217"/>
+      <c r="S10" s="217"/>
+      <c r="T10" s="217"/>
+      <c r="U10" s="217"/>
+      <c r="V10" s="217"/>
+      <c r="W10" s="217"/>
+      <c r="X10" s="217"/>
+      <c r="Y10" s="217"/>
+      <c r="Z10" s="217"/>
+      <c r="AA10" s="217"/>
+      <c r="AB10" s="217"/>
+      <c r="AC10" s="217"/>
+      <c r="AD10" s="217"/>
+      <c r="AE10" s="218"/>
+      <c r="AF10" s="219"/>
+      <c r="AG10" s="220"/>
+      <c r="AH10" s="220"/>
+      <c r="AI10" s="221"/>
     </row>
     <row r="11" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="57"/>
-      <c r="B11" s="214"/>
-      <c r="C11" s="216"/>
-      <c r="D11" s="241"/>
-      <c r="E11" s="242"/>
-      <c r="F11" s="243"/>
-      <c r="G11" s="214"/>
-      <c r="H11" s="215"/>
-      <c r="I11" s="216"/>
-      <c r="J11" s="226"/>
-      <c r="K11" s="227"/>
-      <c r="L11" s="227"/>
-      <c r="M11" s="227"/>
-      <c r="N11" s="227"/>
-      <c r="O11" s="227"/>
-      <c r="P11" s="228"/>
-      <c r="Q11" s="223"/>
-      <c r="R11" s="224"/>
-      <c r="S11" s="224"/>
-      <c r="T11" s="224"/>
-      <c r="U11" s="224"/>
-      <c r="V11" s="224"/>
-      <c r="W11" s="224"/>
-      <c r="X11" s="224"/>
-      <c r="Y11" s="224"/>
-      <c r="Z11" s="224"/>
-      <c r="AA11" s="224"/>
-      <c r="AB11" s="224"/>
-      <c r="AC11" s="224"/>
-      <c r="AD11" s="224"/>
-      <c r="AE11" s="225"/>
-      <c r="AF11" s="226"/>
-      <c r="AG11" s="227"/>
-      <c r="AH11" s="227"/>
-      <c r="AI11" s="228"/>
+      <c r="B11" s="222"/>
+      <c r="C11" s="223"/>
+      <c r="D11" s="224"/>
+      <c r="E11" s="225"/>
+      <c r="F11" s="226"/>
+      <c r="G11" s="222"/>
+      <c r="H11" s="227"/>
+      <c r="I11" s="223"/>
+      <c r="J11" s="219"/>
+      <c r="K11" s="220"/>
+      <c r="L11" s="220"/>
+      <c r="M11" s="220"/>
+      <c r="N11" s="220"/>
+      <c r="O11" s="220"/>
+      <c r="P11" s="221"/>
+      <c r="Q11" s="216"/>
+      <c r="R11" s="217"/>
+      <c r="S11" s="217"/>
+      <c r="T11" s="217"/>
+      <c r="U11" s="217"/>
+      <c r="V11" s="217"/>
+      <c r="W11" s="217"/>
+      <c r="X11" s="217"/>
+      <c r="Y11" s="217"/>
+      <c r="Z11" s="217"/>
+      <c r="AA11" s="217"/>
+      <c r="AB11" s="217"/>
+      <c r="AC11" s="217"/>
+      <c r="AD11" s="217"/>
+      <c r="AE11" s="218"/>
+      <c r="AF11" s="219"/>
+      <c r="AG11" s="220"/>
+      <c r="AH11" s="220"/>
+      <c r="AI11" s="221"/>
     </row>
     <row r="12" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="57"/>
-      <c r="B12" s="214"/>
-      <c r="C12" s="216"/>
-      <c r="D12" s="241"/>
-      <c r="E12" s="242"/>
-      <c r="F12" s="243"/>
-      <c r="G12" s="214"/>
-      <c r="H12" s="215"/>
-      <c r="I12" s="216"/>
-      <c r="J12" s="226"/>
-      <c r="K12" s="227"/>
-      <c r="L12" s="227"/>
-      <c r="M12" s="227"/>
-      <c r="N12" s="227"/>
-      <c r="O12" s="227"/>
-      <c r="P12" s="228"/>
-      <c r="Q12" s="223"/>
-      <c r="R12" s="224"/>
-      <c r="S12" s="224"/>
-      <c r="T12" s="224"/>
-      <c r="U12" s="224"/>
-      <c r="V12" s="224"/>
-      <c r="W12" s="224"/>
-      <c r="X12" s="224"/>
-      <c r="Y12" s="224"/>
-      <c r="Z12" s="224"/>
-      <c r="AA12" s="224"/>
-      <c r="AB12" s="224"/>
-      <c r="AC12" s="224"/>
-      <c r="AD12" s="224"/>
-      <c r="AE12" s="225"/>
-      <c r="AF12" s="226"/>
-      <c r="AG12" s="227"/>
-      <c r="AH12" s="227"/>
-      <c r="AI12" s="228"/>
+      <c r="B12" s="222"/>
+      <c r="C12" s="223"/>
+      <c r="D12" s="224"/>
+      <c r="E12" s="225"/>
+      <c r="F12" s="226"/>
+      <c r="G12" s="222"/>
+      <c r="H12" s="227"/>
+      <c r="I12" s="223"/>
+      <c r="J12" s="219"/>
+      <c r="K12" s="220"/>
+      <c r="L12" s="220"/>
+      <c r="M12" s="220"/>
+      <c r="N12" s="220"/>
+      <c r="O12" s="220"/>
+      <c r="P12" s="221"/>
+      <c r="Q12" s="216"/>
+      <c r="R12" s="217"/>
+      <c r="S12" s="217"/>
+      <c r="T12" s="217"/>
+      <c r="U12" s="217"/>
+      <c r="V12" s="217"/>
+      <c r="W12" s="217"/>
+      <c r="X12" s="217"/>
+      <c r="Y12" s="217"/>
+      <c r="Z12" s="217"/>
+      <c r="AA12" s="217"/>
+      <c r="AB12" s="217"/>
+      <c r="AC12" s="217"/>
+      <c r="AD12" s="217"/>
+      <c r="AE12" s="218"/>
+      <c r="AF12" s="219"/>
+      <c r="AG12" s="220"/>
+      <c r="AH12" s="220"/>
+      <c r="AI12" s="221"/>
     </row>
     <row r="13" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="57"/>
-      <c r="B13" s="214"/>
-      <c r="C13" s="216"/>
-      <c r="D13" s="241"/>
-      <c r="E13" s="242"/>
-      <c r="F13" s="243"/>
-      <c r="G13" s="214"/>
-      <c r="H13" s="215"/>
-      <c r="I13" s="216"/>
-      <c r="J13" s="226"/>
-      <c r="K13" s="227"/>
-      <c r="L13" s="227"/>
-      <c r="M13" s="227"/>
-      <c r="N13" s="227"/>
-      <c r="O13" s="227"/>
-      <c r="P13" s="228"/>
-      <c r="Q13" s="223"/>
-      <c r="R13" s="224"/>
-      <c r="S13" s="224"/>
-      <c r="T13" s="224"/>
-      <c r="U13" s="224"/>
-      <c r="V13" s="224"/>
-      <c r="W13" s="224"/>
-      <c r="X13" s="224"/>
-      <c r="Y13" s="224"/>
-      <c r="Z13" s="224"/>
-      <c r="AA13" s="224"/>
-      <c r="AB13" s="224"/>
-      <c r="AC13" s="224"/>
-      <c r="AD13" s="224"/>
-      <c r="AE13" s="225"/>
-      <c r="AF13" s="226"/>
-      <c r="AG13" s="227"/>
-      <c r="AH13" s="227"/>
-      <c r="AI13" s="228"/>
+      <c r="B13" s="222"/>
+      <c r="C13" s="223"/>
+      <c r="D13" s="224"/>
+      <c r="E13" s="225"/>
+      <c r="F13" s="226"/>
+      <c r="G13" s="222"/>
+      <c r="H13" s="227"/>
+      <c r="I13" s="223"/>
+      <c r="J13" s="219"/>
+      <c r="K13" s="220"/>
+      <c r="L13" s="220"/>
+      <c r="M13" s="220"/>
+      <c r="N13" s="220"/>
+      <c r="O13" s="220"/>
+      <c r="P13" s="221"/>
+      <c r="Q13" s="216"/>
+      <c r="R13" s="217"/>
+      <c r="S13" s="217"/>
+      <c r="T13" s="217"/>
+      <c r="U13" s="217"/>
+      <c r="V13" s="217"/>
+      <c r="W13" s="217"/>
+      <c r="X13" s="217"/>
+      <c r="Y13" s="217"/>
+      <c r="Z13" s="217"/>
+      <c r="AA13" s="217"/>
+      <c r="AB13" s="217"/>
+      <c r="AC13" s="217"/>
+      <c r="AD13" s="217"/>
+      <c r="AE13" s="218"/>
+      <c r="AF13" s="219"/>
+      <c r="AG13" s="220"/>
+      <c r="AH13" s="220"/>
+      <c r="AI13" s="221"/>
     </row>
     <row r="14" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="57"/>
-      <c r="B14" s="214"/>
-      <c r="C14" s="216"/>
-      <c r="D14" s="241"/>
-      <c r="E14" s="242"/>
-      <c r="F14" s="243"/>
-      <c r="G14" s="214"/>
-      <c r="H14" s="215"/>
-      <c r="I14" s="216"/>
-      <c r="J14" s="226"/>
-      <c r="K14" s="227"/>
-      <c r="L14" s="227"/>
-      <c r="M14" s="227"/>
-      <c r="N14" s="227"/>
-      <c r="O14" s="227"/>
-      <c r="P14" s="228"/>
-      <c r="Q14" s="223"/>
-      <c r="R14" s="224"/>
-      <c r="S14" s="224"/>
-      <c r="T14" s="224"/>
-      <c r="U14" s="224"/>
-      <c r="V14" s="224"/>
-      <c r="W14" s="224"/>
-      <c r="X14" s="224"/>
-      <c r="Y14" s="224"/>
-      <c r="Z14" s="224"/>
-      <c r="AA14" s="224"/>
-      <c r="AB14" s="224"/>
-      <c r="AC14" s="224"/>
-      <c r="AD14" s="224"/>
-      <c r="AE14" s="225"/>
-      <c r="AF14" s="226"/>
-      <c r="AG14" s="227"/>
-      <c r="AH14" s="227"/>
-      <c r="AI14" s="228"/>
+      <c r="B14" s="222"/>
+      <c r="C14" s="223"/>
+      <c r="D14" s="224"/>
+      <c r="E14" s="225"/>
+      <c r="F14" s="226"/>
+      <c r="G14" s="222"/>
+      <c r="H14" s="227"/>
+      <c r="I14" s="223"/>
+      <c r="J14" s="219"/>
+      <c r="K14" s="220"/>
+      <c r="L14" s="220"/>
+      <c r="M14" s="220"/>
+      <c r="N14" s="220"/>
+      <c r="O14" s="220"/>
+      <c r="P14" s="221"/>
+      <c r="Q14" s="216"/>
+      <c r="R14" s="217"/>
+      <c r="S14" s="217"/>
+      <c r="T14" s="217"/>
+      <c r="U14" s="217"/>
+      <c r="V14" s="217"/>
+      <c r="W14" s="217"/>
+      <c r="X14" s="217"/>
+      <c r="Y14" s="217"/>
+      <c r="Z14" s="217"/>
+      <c r="AA14" s="217"/>
+      <c r="AB14" s="217"/>
+      <c r="AC14" s="217"/>
+      <c r="AD14" s="217"/>
+      <c r="AE14" s="218"/>
+      <c r="AF14" s="219"/>
+      <c r="AG14" s="220"/>
+      <c r="AH14" s="220"/>
+      <c r="AI14" s="221"/>
     </row>
     <row r="15" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="57"/>
-      <c r="B15" s="214"/>
-      <c r="C15" s="216"/>
-      <c r="D15" s="241"/>
-      <c r="E15" s="242"/>
-      <c r="F15" s="243"/>
-      <c r="G15" s="214"/>
-      <c r="H15" s="215"/>
-      <c r="I15" s="216"/>
-      <c r="J15" s="226"/>
-      <c r="K15" s="227"/>
-      <c r="L15" s="227"/>
-      <c r="M15" s="227"/>
-      <c r="N15" s="227"/>
-      <c r="O15" s="227"/>
-      <c r="P15" s="228"/>
-      <c r="Q15" s="223"/>
-      <c r="R15" s="224"/>
-      <c r="S15" s="224"/>
-      <c r="T15" s="224"/>
-      <c r="U15" s="224"/>
-      <c r="V15" s="224"/>
-      <c r="W15" s="224"/>
-      <c r="X15" s="224"/>
-      <c r="Y15" s="224"/>
-      <c r="Z15" s="224"/>
-      <c r="AA15" s="224"/>
-      <c r="AB15" s="224"/>
-      <c r="AC15" s="224"/>
-      <c r="AD15" s="224"/>
-      <c r="AE15" s="225"/>
-      <c r="AF15" s="226"/>
-      <c r="AG15" s="227"/>
-      <c r="AH15" s="227"/>
-      <c r="AI15" s="228"/>
+      <c r="B15" s="222"/>
+      <c r="C15" s="223"/>
+      <c r="D15" s="224"/>
+      <c r="E15" s="225"/>
+      <c r="F15" s="226"/>
+      <c r="G15" s="222"/>
+      <c r="H15" s="227"/>
+      <c r="I15" s="223"/>
+      <c r="J15" s="219"/>
+      <c r="K15" s="220"/>
+      <c r="L15" s="220"/>
+      <c r="M15" s="220"/>
+      <c r="N15" s="220"/>
+      <c r="O15" s="220"/>
+      <c r="P15" s="221"/>
+      <c r="Q15" s="216"/>
+      <c r="R15" s="217"/>
+      <c r="S15" s="217"/>
+      <c r="T15" s="217"/>
+      <c r="U15" s="217"/>
+      <c r="V15" s="217"/>
+      <c r="W15" s="217"/>
+      <c r="X15" s="217"/>
+      <c r="Y15" s="217"/>
+      <c r="Z15" s="217"/>
+      <c r="AA15" s="217"/>
+      <c r="AB15" s="217"/>
+      <c r="AC15" s="217"/>
+      <c r="AD15" s="217"/>
+      <c r="AE15" s="218"/>
+      <c r="AF15" s="219"/>
+      <c r="AG15" s="220"/>
+      <c r="AH15" s="220"/>
+      <c r="AI15" s="221"/>
     </row>
     <row r="16" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="57"/>
-      <c r="B16" s="214"/>
-      <c r="C16" s="216"/>
-      <c r="D16" s="241"/>
-      <c r="E16" s="242"/>
-      <c r="F16" s="243"/>
-      <c r="G16" s="214"/>
-      <c r="H16" s="215"/>
-      <c r="I16" s="216"/>
-      <c r="J16" s="226"/>
-      <c r="K16" s="227"/>
-      <c r="L16" s="227"/>
-      <c r="M16" s="227"/>
-      <c r="N16" s="227"/>
-      <c r="O16" s="227"/>
-      <c r="P16" s="228"/>
-      <c r="Q16" s="223"/>
-      <c r="R16" s="224"/>
-      <c r="S16" s="224"/>
-      <c r="T16" s="224"/>
-      <c r="U16" s="224"/>
-      <c r="V16" s="224"/>
-      <c r="W16" s="224"/>
-      <c r="X16" s="224"/>
-      <c r="Y16" s="224"/>
-      <c r="Z16" s="224"/>
-      <c r="AA16" s="224"/>
-      <c r="AB16" s="224"/>
-      <c r="AC16" s="224"/>
-      <c r="AD16" s="224"/>
-      <c r="AE16" s="225"/>
-      <c r="AF16" s="226"/>
-      <c r="AG16" s="227"/>
-      <c r="AH16" s="227"/>
-      <c r="AI16" s="228"/>
+      <c r="B16" s="222"/>
+      <c r="C16" s="223"/>
+      <c r="D16" s="224"/>
+      <c r="E16" s="225"/>
+      <c r="F16" s="226"/>
+      <c r="G16" s="222"/>
+      <c r="H16" s="227"/>
+      <c r="I16" s="223"/>
+      <c r="J16" s="219"/>
+      <c r="K16" s="220"/>
+      <c r="L16" s="220"/>
+      <c r="M16" s="220"/>
+      <c r="N16" s="220"/>
+      <c r="O16" s="220"/>
+      <c r="P16" s="221"/>
+      <c r="Q16" s="216"/>
+      <c r="R16" s="217"/>
+      <c r="S16" s="217"/>
+      <c r="T16" s="217"/>
+      <c r="U16" s="217"/>
+      <c r="V16" s="217"/>
+      <c r="W16" s="217"/>
+      <c r="X16" s="217"/>
+      <c r="Y16" s="217"/>
+      <c r="Z16" s="217"/>
+      <c r="AA16" s="217"/>
+      <c r="AB16" s="217"/>
+      <c r="AC16" s="217"/>
+      <c r="AD16" s="217"/>
+      <c r="AE16" s="218"/>
+      <c r="AF16" s="219"/>
+      <c r="AG16" s="220"/>
+      <c r="AH16" s="220"/>
+      <c r="AI16" s="221"/>
     </row>
     <row r="17" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="57"/>
-      <c r="B17" s="214"/>
-      <c r="C17" s="216"/>
-      <c r="D17" s="241"/>
-      <c r="E17" s="242"/>
-      <c r="F17" s="243"/>
-      <c r="G17" s="214"/>
-      <c r="H17" s="215"/>
-      <c r="I17" s="216"/>
-      <c r="J17" s="226"/>
-      <c r="K17" s="227"/>
-      <c r="L17" s="227"/>
-      <c r="M17" s="227"/>
-      <c r="N17" s="227"/>
-      <c r="O17" s="227"/>
-      <c r="P17" s="228"/>
-      <c r="Q17" s="223"/>
-      <c r="R17" s="224"/>
-      <c r="S17" s="224"/>
-      <c r="T17" s="224"/>
-      <c r="U17" s="224"/>
-      <c r="V17" s="224"/>
-      <c r="W17" s="224"/>
-      <c r="X17" s="224"/>
-      <c r="Y17" s="224"/>
-      <c r="Z17" s="224"/>
-      <c r="AA17" s="224"/>
-      <c r="AB17" s="224"/>
-      <c r="AC17" s="224"/>
-      <c r="AD17" s="224"/>
-      <c r="AE17" s="225"/>
-      <c r="AF17" s="226"/>
-      <c r="AG17" s="227"/>
-      <c r="AH17" s="227"/>
-      <c r="AI17" s="228"/>
+      <c r="B17" s="222"/>
+      <c r="C17" s="223"/>
+      <c r="D17" s="224"/>
+      <c r="E17" s="225"/>
+      <c r="F17" s="226"/>
+      <c r="G17" s="222"/>
+      <c r="H17" s="227"/>
+      <c r="I17" s="223"/>
+      <c r="J17" s="219"/>
+      <c r="K17" s="220"/>
+      <c r="L17" s="220"/>
+      <c r="M17" s="220"/>
+      <c r="N17" s="220"/>
+      <c r="O17" s="220"/>
+      <c r="P17" s="221"/>
+      <c r="Q17" s="216"/>
+      <c r="R17" s="217"/>
+      <c r="S17" s="217"/>
+      <c r="T17" s="217"/>
+      <c r="U17" s="217"/>
+      <c r="V17" s="217"/>
+      <c r="W17" s="217"/>
+      <c r="X17" s="217"/>
+      <c r="Y17" s="217"/>
+      <c r="Z17" s="217"/>
+      <c r="AA17" s="217"/>
+      <c r="AB17" s="217"/>
+      <c r="AC17" s="217"/>
+      <c r="AD17" s="217"/>
+      <c r="AE17" s="218"/>
+      <c r="AF17" s="219"/>
+      <c r="AG17" s="220"/>
+      <c r="AH17" s="220"/>
+      <c r="AI17" s="221"/>
     </row>
     <row r="18" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="57"/>
-      <c r="B18" s="214"/>
-      <c r="C18" s="216"/>
-      <c r="D18" s="241"/>
-      <c r="E18" s="242"/>
-      <c r="F18" s="243"/>
-      <c r="G18" s="214"/>
-      <c r="H18" s="215"/>
-      <c r="I18" s="216"/>
-      <c r="J18" s="226"/>
-      <c r="K18" s="227"/>
-      <c r="L18" s="227"/>
-      <c r="M18" s="227"/>
-      <c r="N18" s="227"/>
-      <c r="O18" s="227"/>
-      <c r="P18" s="228"/>
-      <c r="Q18" s="223"/>
-      <c r="R18" s="224"/>
-      <c r="S18" s="224"/>
-      <c r="T18" s="224"/>
-      <c r="U18" s="224"/>
-      <c r="V18" s="224"/>
-      <c r="W18" s="224"/>
-      <c r="X18" s="224"/>
-      <c r="Y18" s="224"/>
-      <c r="Z18" s="224"/>
-      <c r="AA18" s="224"/>
-      <c r="AB18" s="224"/>
-      <c r="AC18" s="224"/>
-      <c r="AD18" s="224"/>
-      <c r="AE18" s="225"/>
-      <c r="AF18" s="226"/>
-      <c r="AG18" s="227"/>
-      <c r="AH18" s="227"/>
-      <c r="AI18" s="228"/>
+      <c r="B18" s="222"/>
+      <c r="C18" s="223"/>
+      <c r="D18" s="224"/>
+      <c r="E18" s="225"/>
+      <c r="F18" s="226"/>
+      <c r="G18" s="222"/>
+      <c r="H18" s="227"/>
+      <c r="I18" s="223"/>
+      <c r="J18" s="219"/>
+      <c r="K18" s="220"/>
+      <c r="L18" s="220"/>
+      <c r="M18" s="220"/>
+      <c r="N18" s="220"/>
+      <c r="O18" s="220"/>
+      <c r="P18" s="221"/>
+      <c r="Q18" s="216"/>
+      <c r="R18" s="217"/>
+      <c r="S18" s="217"/>
+      <c r="T18" s="217"/>
+      <c r="U18" s="217"/>
+      <c r="V18" s="217"/>
+      <c r="W18" s="217"/>
+      <c r="X18" s="217"/>
+      <c r="Y18" s="217"/>
+      <c r="Z18" s="217"/>
+      <c r="AA18" s="217"/>
+      <c r="AB18" s="217"/>
+      <c r="AC18" s="217"/>
+      <c r="AD18" s="217"/>
+      <c r="AE18" s="218"/>
+      <c r="AF18" s="219"/>
+      <c r="AG18" s="220"/>
+      <c r="AH18" s="220"/>
+      <c r="AI18" s="221"/>
     </row>
     <row r="19" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="57"/>
-      <c r="B19" s="214"/>
-      <c r="C19" s="216"/>
-      <c r="D19" s="241"/>
-      <c r="E19" s="242"/>
-      <c r="F19" s="243"/>
-      <c r="G19" s="214"/>
-      <c r="H19" s="215"/>
-      <c r="I19" s="216"/>
-      <c r="J19" s="226"/>
-      <c r="K19" s="227"/>
-      <c r="L19" s="227"/>
-      <c r="M19" s="227"/>
-      <c r="N19" s="227"/>
-      <c r="O19" s="227"/>
-      <c r="P19" s="228"/>
-      <c r="Q19" s="223"/>
-      <c r="R19" s="224"/>
-      <c r="S19" s="224"/>
-      <c r="T19" s="224"/>
-      <c r="U19" s="224"/>
-      <c r="V19" s="224"/>
-      <c r="W19" s="224"/>
-      <c r="X19" s="224"/>
-      <c r="Y19" s="224"/>
-      <c r="Z19" s="224"/>
-      <c r="AA19" s="224"/>
-      <c r="AB19" s="224"/>
-      <c r="AC19" s="224"/>
-      <c r="AD19" s="224"/>
-      <c r="AE19" s="225"/>
-      <c r="AF19" s="226"/>
-      <c r="AG19" s="227"/>
-      <c r="AH19" s="227"/>
-      <c r="AI19" s="228"/>
+      <c r="B19" s="222"/>
+      <c r="C19" s="223"/>
+      <c r="D19" s="224"/>
+      <c r="E19" s="225"/>
+      <c r="F19" s="226"/>
+      <c r="G19" s="222"/>
+      <c r="H19" s="227"/>
+      <c r="I19" s="223"/>
+      <c r="J19" s="219"/>
+      <c r="K19" s="220"/>
+      <c r="L19" s="220"/>
+      <c r="M19" s="220"/>
+      <c r="N19" s="220"/>
+      <c r="O19" s="220"/>
+      <c r="P19" s="221"/>
+      <c r="Q19" s="216"/>
+      <c r="R19" s="217"/>
+      <c r="S19" s="217"/>
+      <c r="T19" s="217"/>
+      <c r="U19" s="217"/>
+      <c r="V19" s="217"/>
+      <c r="W19" s="217"/>
+      <c r="X19" s="217"/>
+      <c r="Y19" s="217"/>
+      <c r="Z19" s="217"/>
+      <c r="AA19" s="217"/>
+      <c r="AB19" s="217"/>
+      <c r="AC19" s="217"/>
+      <c r="AD19" s="217"/>
+      <c r="AE19" s="218"/>
+      <c r="AF19" s="219"/>
+      <c r="AG19" s="220"/>
+      <c r="AH19" s="220"/>
+      <c r="AI19" s="221"/>
     </row>
     <row r="20" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="57"/>
-      <c r="B20" s="214"/>
-      <c r="C20" s="216"/>
-      <c r="D20" s="241"/>
-      <c r="E20" s="242"/>
-      <c r="F20" s="243"/>
-      <c r="G20" s="214"/>
-      <c r="H20" s="215"/>
-      <c r="I20" s="216"/>
-      <c r="J20" s="226"/>
-      <c r="K20" s="227"/>
-      <c r="L20" s="227"/>
-      <c r="M20" s="227"/>
-      <c r="N20" s="227"/>
-      <c r="O20" s="227"/>
-      <c r="P20" s="228"/>
-      <c r="Q20" s="223"/>
-      <c r="R20" s="224"/>
-      <c r="S20" s="224"/>
-      <c r="T20" s="224"/>
-      <c r="U20" s="224"/>
-      <c r="V20" s="224"/>
-      <c r="W20" s="224"/>
-      <c r="X20" s="224"/>
-      <c r="Y20" s="224"/>
-      <c r="Z20" s="224"/>
-      <c r="AA20" s="224"/>
-      <c r="AB20" s="224"/>
-      <c r="AC20" s="224"/>
-      <c r="AD20" s="224"/>
-      <c r="AE20" s="225"/>
-      <c r="AF20" s="226"/>
-      <c r="AG20" s="227"/>
-      <c r="AH20" s="227"/>
-      <c r="AI20" s="228"/>
+      <c r="B20" s="222"/>
+      <c r="C20" s="223"/>
+      <c r="D20" s="224"/>
+      <c r="E20" s="225"/>
+      <c r="F20" s="226"/>
+      <c r="G20" s="222"/>
+      <c r="H20" s="227"/>
+      <c r="I20" s="223"/>
+      <c r="J20" s="219"/>
+      <c r="K20" s="220"/>
+      <c r="L20" s="220"/>
+      <c r="M20" s="220"/>
+      <c r="N20" s="220"/>
+      <c r="O20" s="220"/>
+      <c r="P20" s="221"/>
+      <c r="Q20" s="216"/>
+      <c r="R20" s="217"/>
+      <c r="S20" s="217"/>
+      <c r="T20" s="217"/>
+      <c r="U20" s="217"/>
+      <c r="V20" s="217"/>
+      <c r="W20" s="217"/>
+      <c r="X20" s="217"/>
+      <c r="Y20" s="217"/>
+      <c r="Z20" s="217"/>
+      <c r="AA20" s="217"/>
+      <c r="AB20" s="217"/>
+      <c r="AC20" s="217"/>
+      <c r="AD20" s="217"/>
+      <c r="AE20" s="218"/>
+      <c r="AF20" s="219"/>
+      <c r="AG20" s="220"/>
+      <c r="AH20" s="220"/>
+      <c r="AI20" s="221"/>
     </row>
     <row r="21" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="57"/>
-      <c r="B21" s="214"/>
-      <c r="C21" s="216"/>
-      <c r="D21" s="241"/>
-      <c r="E21" s="242"/>
-      <c r="F21" s="243"/>
-      <c r="G21" s="214"/>
-      <c r="H21" s="215"/>
-      <c r="I21" s="216"/>
-      <c r="J21" s="226"/>
-      <c r="K21" s="227"/>
-      <c r="L21" s="227"/>
-      <c r="M21" s="227"/>
-      <c r="N21" s="227"/>
-      <c r="O21" s="227"/>
-      <c r="P21" s="228"/>
-      <c r="Q21" s="223"/>
-      <c r="R21" s="224"/>
-      <c r="S21" s="224"/>
-      <c r="T21" s="224"/>
-      <c r="U21" s="224"/>
-      <c r="V21" s="224"/>
-      <c r="W21" s="224"/>
-      <c r="X21" s="224"/>
-      <c r="Y21" s="224"/>
-      <c r="Z21" s="224"/>
-      <c r="AA21" s="224"/>
-      <c r="AB21" s="224"/>
-      <c r="AC21" s="224"/>
-      <c r="AD21" s="224"/>
-      <c r="AE21" s="225"/>
-      <c r="AF21" s="226"/>
-      <c r="AG21" s="227"/>
-      <c r="AH21" s="227"/>
-      <c r="AI21" s="228"/>
+      <c r="B21" s="222"/>
+      <c r="C21" s="223"/>
+      <c r="D21" s="224"/>
+      <c r="E21" s="225"/>
+      <c r="F21" s="226"/>
+      <c r="G21" s="222"/>
+      <c r="H21" s="227"/>
+      <c r="I21" s="223"/>
+      <c r="J21" s="219"/>
+      <c r="K21" s="220"/>
+      <c r="L21" s="220"/>
+      <c r="M21" s="220"/>
+      <c r="N21" s="220"/>
+      <c r="O21" s="220"/>
+      <c r="P21" s="221"/>
+      <c r="Q21" s="216"/>
+      <c r="R21" s="217"/>
+      <c r="S21" s="217"/>
+      <c r="T21" s="217"/>
+      <c r="U21" s="217"/>
+      <c r="V21" s="217"/>
+      <c r="W21" s="217"/>
+      <c r="X21" s="217"/>
+      <c r="Y21" s="217"/>
+      <c r="Z21" s="217"/>
+      <c r="AA21" s="217"/>
+      <c r="AB21" s="217"/>
+      <c r="AC21" s="217"/>
+      <c r="AD21" s="217"/>
+      <c r="AE21" s="218"/>
+      <c r="AF21" s="219"/>
+      <c r="AG21" s="220"/>
+      <c r="AH21" s="220"/>
+      <c r="AI21" s="221"/>
     </row>
     <row r="22" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="57"/>
-      <c r="B22" s="214"/>
-      <c r="C22" s="216"/>
-      <c r="D22" s="241"/>
-      <c r="E22" s="242"/>
-      <c r="F22" s="243"/>
-      <c r="G22" s="214"/>
-      <c r="H22" s="215"/>
-      <c r="I22" s="216"/>
-      <c r="J22" s="226"/>
-      <c r="K22" s="227"/>
-      <c r="L22" s="227"/>
-      <c r="M22" s="227"/>
-      <c r="N22" s="227"/>
-      <c r="O22" s="227"/>
-      <c r="P22" s="228"/>
-      <c r="Q22" s="223"/>
-      <c r="R22" s="224"/>
-      <c r="S22" s="224"/>
-      <c r="T22" s="224"/>
-      <c r="U22" s="224"/>
-      <c r="V22" s="224"/>
-      <c r="W22" s="224"/>
-      <c r="X22" s="224"/>
-      <c r="Y22" s="224"/>
-      <c r="Z22" s="224"/>
-      <c r="AA22" s="224"/>
-      <c r="AB22" s="224"/>
-      <c r="AC22" s="224"/>
-      <c r="AD22" s="224"/>
-      <c r="AE22" s="225"/>
-      <c r="AF22" s="226"/>
-      <c r="AG22" s="227"/>
-      <c r="AH22" s="227"/>
-      <c r="AI22" s="228"/>
+      <c r="B22" s="222"/>
+      <c r="C22" s="223"/>
+      <c r="D22" s="224"/>
+      <c r="E22" s="225"/>
+      <c r="F22" s="226"/>
+      <c r="G22" s="222"/>
+      <c r="H22" s="227"/>
+      <c r="I22" s="223"/>
+      <c r="J22" s="219"/>
+      <c r="K22" s="220"/>
+      <c r="L22" s="220"/>
+      <c r="M22" s="220"/>
+      <c r="N22" s="220"/>
+      <c r="O22" s="220"/>
+      <c r="P22" s="221"/>
+      <c r="Q22" s="216"/>
+      <c r="R22" s="217"/>
+      <c r="S22" s="217"/>
+      <c r="T22" s="217"/>
+      <c r="U22" s="217"/>
+      <c r="V22" s="217"/>
+      <c r="W22" s="217"/>
+      <c r="X22" s="217"/>
+      <c r="Y22" s="217"/>
+      <c r="Z22" s="217"/>
+      <c r="AA22" s="217"/>
+      <c r="AB22" s="217"/>
+      <c r="AC22" s="217"/>
+      <c r="AD22" s="217"/>
+      <c r="AE22" s="218"/>
+      <c r="AF22" s="219"/>
+      <c r="AG22" s="220"/>
+      <c r="AH22" s="220"/>
+      <c r="AI22" s="221"/>
     </row>
     <row r="23" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="57"/>
-      <c r="B23" s="214"/>
-      <c r="C23" s="216"/>
-      <c r="D23" s="241"/>
-      <c r="E23" s="242"/>
-      <c r="F23" s="243"/>
-      <c r="G23" s="214"/>
-      <c r="H23" s="215"/>
-      <c r="I23" s="216"/>
-      <c r="J23" s="226"/>
-      <c r="K23" s="227"/>
-      <c r="L23" s="227"/>
-      <c r="M23" s="227"/>
-      <c r="N23" s="227"/>
-      <c r="O23" s="227"/>
-      <c r="P23" s="228"/>
-      <c r="Q23" s="223"/>
-      <c r="R23" s="224"/>
-      <c r="S23" s="224"/>
-      <c r="T23" s="224"/>
-      <c r="U23" s="224"/>
-      <c r="V23" s="224"/>
-      <c r="W23" s="224"/>
-      <c r="X23" s="224"/>
-      <c r="Y23" s="224"/>
-      <c r="Z23" s="224"/>
-      <c r="AA23" s="224"/>
-      <c r="AB23" s="224"/>
-      <c r="AC23" s="224"/>
-      <c r="AD23" s="224"/>
-      <c r="AE23" s="225"/>
-      <c r="AF23" s="226"/>
-      <c r="AG23" s="227"/>
-      <c r="AH23" s="227"/>
-      <c r="AI23" s="228"/>
+      <c r="B23" s="222"/>
+      <c r="C23" s="223"/>
+      <c r="D23" s="224"/>
+      <c r="E23" s="225"/>
+      <c r="F23" s="226"/>
+      <c r="G23" s="222"/>
+      <c r="H23" s="227"/>
+      <c r="I23" s="223"/>
+      <c r="J23" s="219"/>
+      <c r="K23" s="220"/>
+      <c r="L23" s="220"/>
+      <c r="M23" s="220"/>
+      <c r="N23" s="220"/>
+      <c r="O23" s="220"/>
+      <c r="P23" s="221"/>
+      <c r="Q23" s="216"/>
+      <c r="R23" s="217"/>
+      <c r="S23" s="217"/>
+      <c r="T23" s="217"/>
+      <c r="U23" s="217"/>
+      <c r="V23" s="217"/>
+      <c r="W23" s="217"/>
+      <c r="X23" s="217"/>
+      <c r="Y23" s="217"/>
+      <c r="Z23" s="217"/>
+      <c r="AA23" s="217"/>
+      <c r="AB23" s="217"/>
+      <c r="AC23" s="217"/>
+      <c r="AD23" s="217"/>
+      <c r="AE23" s="218"/>
+      <c r="AF23" s="219"/>
+      <c r="AG23" s="220"/>
+      <c r="AH23" s="220"/>
+      <c r="AI23" s="221"/>
     </row>
     <row r="24" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="57"/>
-      <c r="B24" s="214"/>
-      <c r="C24" s="216"/>
-      <c r="D24" s="241"/>
-      <c r="E24" s="242"/>
-      <c r="F24" s="243"/>
-      <c r="G24" s="214"/>
-      <c r="H24" s="215"/>
-      <c r="I24" s="216"/>
-      <c r="J24" s="226"/>
-      <c r="K24" s="227"/>
-      <c r="L24" s="227"/>
-      <c r="M24" s="227"/>
-      <c r="N24" s="227"/>
-      <c r="O24" s="227"/>
-      <c r="P24" s="228"/>
-      <c r="Q24" s="223"/>
-      <c r="R24" s="224"/>
-      <c r="S24" s="224"/>
-      <c r="T24" s="224"/>
-      <c r="U24" s="224"/>
-      <c r="V24" s="224"/>
-      <c r="W24" s="224"/>
-      <c r="X24" s="224"/>
-      <c r="Y24" s="224"/>
-      <c r="Z24" s="224"/>
-      <c r="AA24" s="224"/>
-      <c r="AB24" s="224"/>
-      <c r="AC24" s="224"/>
-      <c r="AD24" s="224"/>
-      <c r="AE24" s="225"/>
-      <c r="AF24" s="226"/>
-      <c r="AG24" s="227"/>
-      <c r="AH24" s="227"/>
-      <c r="AI24" s="228"/>
+      <c r="B24" s="222"/>
+      <c r="C24" s="223"/>
+      <c r="D24" s="224"/>
+      <c r="E24" s="225"/>
+      <c r="F24" s="226"/>
+      <c r="G24" s="222"/>
+      <c r="H24" s="227"/>
+      <c r="I24" s="223"/>
+      <c r="J24" s="219"/>
+      <c r="K24" s="220"/>
+      <c r="L24" s="220"/>
+      <c r="M24" s="220"/>
+      <c r="N24" s="220"/>
+      <c r="O24" s="220"/>
+      <c r="P24" s="221"/>
+      <c r="Q24" s="216"/>
+      <c r="R24" s="217"/>
+      <c r="S24" s="217"/>
+      <c r="T24" s="217"/>
+      <c r="U24" s="217"/>
+      <c r="V24" s="217"/>
+      <c r="W24" s="217"/>
+      <c r="X24" s="217"/>
+      <c r="Y24" s="217"/>
+      <c r="Z24" s="217"/>
+      <c r="AA24" s="217"/>
+      <c r="AB24" s="217"/>
+      <c r="AC24" s="217"/>
+      <c r="AD24" s="217"/>
+      <c r="AE24" s="218"/>
+      <c r="AF24" s="219"/>
+      <c r="AG24" s="220"/>
+      <c r="AH24" s="220"/>
+      <c r="AI24" s="221"/>
     </row>
     <row r="25" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="57"/>
-      <c r="B25" s="214"/>
-      <c r="C25" s="216"/>
-      <c r="D25" s="241"/>
-      <c r="E25" s="242"/>
-      <c r="F25" s="243"/>
-      <c r="G25" s="214"/>
-      <c r="H25" s="215"/>
-      <c r="I25" s="216"/>
-      <c r="J25" s="226"/>
-      <c r="K25" s="227"/>
-      <c r="L25" s="227"/>
-      <c r="M25" s="227"/>
-      <c r="N25" s="227"/>
-      <c r="O25" s="227"/>
-      <c r="P25" s="228"/>
-      <c r="Q25" s="223"/>
-      <c r="R25" s="224"/>
-      <c r="S25" s="224"/>
-      <c r="T25" s="224"/>
-      <c r="U25" s="224"/>
-      <c r="V25" s="224"/>
-      <c r="W25" s="224"/>
-      <c r="X25" s="224"/>
-      <c r="Y25" s="224"/>
-      <c r="Z25" s="224"/>
-      <c r="AA25" s="224"/>
-      <c r="AB25" s="224"/>
-      <c r="AC25" s="224"/>
-      <c r="AD25" s="224"/>
-      <c r="AE25" s="225"/>
-      <c r="AF25" s="226"/>
-      <c r="AG25" s="227"/>
-      <c r="AH25" s="227"/>
-      <c r="AI25" s="228"/>
+      <c r="B25" s="222"/>
+      <c r="C25" s="223"/>
+      <c r="D25" s="224"/>
+      <c r="E25" s="225"/>
+      <c r="F25" s="226"/>
+      <c r="G25" s="222"/>
+      <c r="H25" s="227"/>
+      <c r="I25" s="223"/>
+      <c r="J25" s="219"/>
+      <c r="K25" s="220"/>
+      <c r="L25" s="220"/>
+      <c r="M25" s="220"/>
+      <c r="N25" s="220"/>
+      <c r="O25" s="220"/>
+      <c r="P25" s="221"/>
+      <c r="Q25" s="216"/>
+      <c r="R25" s="217"/>
+      <c r="S25" s="217"/>
+      <c r="T25" s="217"/>
+      <c r="U25" s="217"/>
+      <c r="V25" s="217"/>
+      <c r="W25" s="217"/>
+      <c r="X25" s="217"/>
+      <c r="Y25" s="217"/>
+      <c r="Z25" s="217"/>
+      <c r="AA25" s="217"/>
+      <c r="AB25" s="217"/>
+      <c r="AC25" s="217"/>
+      <c r="AD25" s="217"/>
+      <c r="AE25" s="218"/>
+      <c r="AF25" s="219"/>
+      <c r="AG25" s="220"/>
+      <c r="AH25" s="220"/>
+      <c r="AI25" s="221"/>
     </row>
     <row r="26" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="57"/>
-      <c r="B26" s="214"/>
-      <c r="C26" s="216"/>
-      <c r="D26" s="241"/>
-      <c r="E26" s="242"/>
-      <c r="F26" s="243"/>
-      <c r="G26" s="214"/>
-      <c r="H26" s="215"/>
-      <c r="I26" s="216"/>
-      <c r="J26" s="226"/>
-      <c r="K26" s="227"/>
-      <c r="L26" s="227"/>
-      <c r="M26" s="227"/>
-      <c r="N26" s="227"/>
-      <c r="O26" s="227"/>
-      <c r="P26" s="228"/>
-      <c r="Q26" s="223"/>
-      <c r="R26" s="224"/>
-      <c r="S26" s="224"/>
-      <c r="T26" s="224"/>
-      <c r="U26" s="224"/>
-      <c r="V26" s="224"/>
-      <c r="W26" s="224"/>
-      <c r="X26" s="224"/>
-      <c r="Y26" s="224"/>
-      <c r="Z26" s="224"/>
-      <c r="AA26" s="224"/>
-      <c r="AB26" s="224"/>
-      <c r="AC26" s="224"/>
-      <c r="AD26" s="224"/>
-      <c r="AE26" s="225"/>
-      <c r="AF26" s="226"/>
-      <c r="AG26" s="227"/>
-      <c r="AH26" s="227"/>
-      <c r="AI26" s="228"/>
+      <c r="B26" s="222"/>
+      <c r="C26" s="223"/>
+      <c r="D26" s="224"/>
+      <c r="E26" s="225"/>
+      <c r="F26" s="226"/>
+      <c r="G26" s="222"/>
+      <c r="H26" s="227"/>
+      <c r="I26" s="223"/>
+      <c r="J26" s="219"/>
+      <c r="K26" s="220"/>
+      <c r="L26" s="220"/>
+      <c r="M26" s="220"/>
+      <c r="N26" s="220"/>
+      <c r="O26" s="220"/>
+      <c r="P26" s="221"/>
+      <c r="Q26" s="216"/>
+      <c r="R26" s="217"/>
+      <c r="S26" s="217"/>
+      <c r="T26" s="217"/>
+      <c r="U26" s="217"/>
+      <c r="V26" s="217"/>
+      <c r="W26" s="217"/>
+      <c r="X26" s="217"/>
+      <c r="Y26" s="217"/>
+      <c r="Z26" s="217"/>
+      <c r="AA26" s="217"/>
+      <c r="AB26" s="217"/>
+      <c r="AC26" s="217"/>
+      <c r="AD26" s="217"/>
+      <c r="AE26" s="218"/>
+      <c r="AF26" s="219"/>
+      <c r="AG26" s="220"/>
+      <c r="AH26" s="220"/>
+      <c r="AI26" s="221"/>
     </row>
     <row r="27" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="57"/>
-      <c r="B27" s="214"/>
-      <c r="C27" s="216"/>
-      <c r="D27" s="241"/>
-      <c r="E27" s="242"/>
-      <c r="F27" s="243"/>
-      <c r="G27" s="214"/>
-      <c r="H27" s="215"/>
-      <c r="I27" s="216"/>
-      <c r="J27" s="226"/>
-      <c r="K27" s="227"/>
-      <c r="L27" s="227"/>
-      <c r="M27" s="227"/>
-      <c r="N27" s="227"/>
-      <c r="O27" s="227"/>
-      <c r="P27" s="228"/>
-      <c r="Q27" s="223"/>
-      <c r="R27" s="224"/>
-      <c r="S27" s="224"/>
-      <c r="T27" s="224"/>
-      <c r="U27" s="224"/>
-      <c r="V27" s="224"/>
-      <c r="W27" s="224"/>
-      <c r="X27" s="224"/>
-      <c r="Y27" s="224"/>
-      <c r="Z27" s="224"/>
-      <c r="AA27" s="224"/>
-      <c r="AB27" s="224"/>
-      <c r="AC27" s="224"/>
-      <c r="AD27" s="224"/>
-      <c r="AE27" s="225"/>
-      <c r="AF27" s="226"/>
-      <c r="AG27" s="227"/>
-      <c r="AH27" s="227"/>
-      <c r="AI27" s="228"/>
+      <c r="B27" s="222"/>
+      <c r="C27" s="223"/>
+      <c r="D27" s="224"/>
+      <c r="E27" s="225"/>
+      <c r="F27" s="226"/>
+      <c r="G27" s="222"/>
+      <c r="H27" s="227"/>
+      <c r="I27" s="223"/>
+      <c r="J27" s="219"/>
+      <c r="K27" s="220"/>
+      <c r="L27" s="220"/>
+      <c r="M27" s="220"/>
+      <c r="N27" s="220"/>
+      <c r="O27" s="220"/>
+      <c r="P27" s="221"/>
+      <c r="Q27" s="216"/>
+      <c r="R27" s="217"/>
+      <c r="S27" s="217"/>
+      <c r="T27" s="217"/>
+      <c r="U27" s="217"/>
+      <c r="V27" s="217"/>
+      <c r="W27" s="217"/>
+      <c r="X27" s="217"/>
+      <c r="Y27" s="217"/>
+      <c r="Z27" s="217"/>
+      <c r="AA27" s="217"/>
+      <c r="AB27" s="217"/>
+      <c r="AC27" s="217"/>
+      <c r="AD27" s="217"/>
+      <c r="AE27" s="218"/>
+      <c r="AF27" s="219"/>
+      <c r="AG27" s="220"/>
+      <c r="AH27" s="220"/>
+      <c r="AI27" s="221"/>
     </row>
     <row r="28" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="57"/>
-      <c r="B28" s="214"/>
-      <c r="C28" s="216"/>
-      <c r="D28" s="241"/>
-      <c r="E28" s="242"/>
-      <c r="F28" s="243"/>
-      <c r="G28" s="214"/>
-      <c r="H28" s="215"/>
-      <c r="I28" s="216"/>
-      <c r="J28" s="226"/>
-      <c r="K28" s="227"/>
-      <c r="L28" s="227"/>
-      <c r="M28" s="227"/>
-      <c r="N28" s="227"/>
-      <c r="O28" s="227"/>
-      <c r="P28" s="228"/>
-      <c r="Q28" s="223"/>
-      <c r="R28" s="224"/>
-      <c r="S28" s="224"/>
-      <c r="T28" s="224"/>
-      <c r="U28" s="224"/>
-      <c r="V28" s="224"/>
-      <c r="W28" s="224"/>
-      <c r="X28" s="224"/>
-      <c r="Y28" s="224"/>
-      <c r="Z28" s="224"/>
-      <c r="AA28" s="224"/>
-      <c r="AB28" s="224"/>
-      <c r="AC28" s="224"/>
-      <c r="AD28" s="224"/>
-      <c r="AE28" s="225"/>
-      <c r="AF28" s="226"/>
-      <c r="AG28" s="227"/>
-      <c r="AH28" s="227"/>
-      <c r="AI28" s="228"/>
+      <c r="B28" s="222"/>
+      <c r="C28" s="223"/>
+      <c r="D28" s="224"/>
+      <c r="E28" s="225"/>
+      <c r="F28" s="226"/>
+      <c r="G28" s="222"/>
+      <c r="H28" s="227"/>
+      <c r="I28" s="223"/>
+      <c r="J28" s="219"/>
+      <c r="K28" s="220"/>
+      <c r="L28" s="220"/>
+      <c r="M28" s="220"/>
+      <c r="N28" s="220"/>
+      <c r="O28" s="220"/>
+      <c r="P28" s="221"/>
+      <c r="Q28" s="216"/>
+      <c r="R28" s="217"/>
+      <c r="S28" s="217"/>
+      <c r="T28" s="217"/>
+      <c r="U28" s="217"/>
+      <c r="V28" s="217"/>
+      <c r="W28" s="217"/>
+      <c r="X28" s="217"/>
+      <c r="Y28" s="217"/>
+      <c r="Z28" s="217"/>
+      <c r="AA28" s="217"/>
+      <c r="AB28" s="217"/>
+      <c r="AC28" s="217"/>
+      <c r="AD28" s="217"/>
+      <c r="AE28" s="218"/>
+      <c r="AF28" s="219"/>
+      <c r="AG28" s="220"/>
+      <c r="AH28" s="220"/>
+      <c r="AI28" s="221"/>
     </row>
     <row r="29" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="57"/>
-      <c r="B29" s="214"/>
-      <c r="C29" s="216"/>
-      <c r="D29" s="241"/>
-      <c r="E29" s="242"/>
-      <c r="F29" s="243"/>
-      <c r="G29" s="214"/>
-      <c r="H29" s="215"/>
-      <c r="I29" s="216"/>
-      <c r="J29" s="226"/>
-      <c r="K29" s="227"/>
-      <c r="L29" s="227"/>
-      <c r="M29" s="227"/>
-      <c r="N29" s="227"/>
-      <c r="O29" s="227"/>
-      <c r="P29" s="228"/>
-      <c r="Q29" s="223"/>
-      <c r="R29" s="224"/>
-      <c r="S29" s="224"/>
-      <c r="T29" s="224"/>
-      <c r="U29" s="224"/>
-      <c r="V29" s="224"/>
-      <c r="W29" s="224"/>
-      <c r="X29" s="224"/>
-      <c r="Y29" s="224"/>
-      <c r="Z29" s="224"/>
-      <c r="AA29" s="224"/>
-      <c r="AB29" s="224"/>
-      <c r="AC29" s="224"/>
-      <c r="AD29" s="224"/>
-      <c r="AE29" s="225"/>
-      <c r="AF29" s="226"/>
-      <c r="AG29" s="227"/>
-      <c r="AH29" s="227"/>
-      <c r="AI29" s="228"/>
+      <c r="B29" s="222"/>
+      <c r="C29" s="223"/>
+      <c r="D29" s="224"/>
+      <c r="E29" s="225"/>
+      <c r="F29" s="226"/>
+      <c r="G29" s="222"/>
+      <c r="H29" s="227"/>
+      <c r="I29" s="223"/>
+      <c r="J29" s="219"/>
+      <c r="K29" s="220"/>
+      <c r="L29" s="220"/>
+      <c r="M29" s="220"/>
+      <c r="N29" s="220"/>
+      <c r="O29" s="220"/>
+      <c r="P29" s="221"/>
+      <c r="Q29" s="216"/>
+      <c r="R29" s="217"/>
+      <c r="S29" s="217"/>
+      <c r="T29" s="217"/>
+      <c r="U29" s="217"/>
+      <c r="V29" s="217"/>
+      <c r="W29" s="217"/>
+      <c r="X29" s="217"/>
+      <c r="Y29" s="217"/>
+      <c r="Z29" s="217"/>
+      <c r="AA29" s="217"/>
+      <c r="AB29" s="217"/>
+      <c r="AC29" s="217"/>
+      <c r="AD29" s="217"/>
+      <c r="AE29" s="218"/>
+      <c r="AF29" s="219"/>
+      <c r="AG29" s="220"/>
+      <c r="AH29" s="220"/>
+      <c r="AI29" s="221"/>
     </row>
     <row r="30" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="57"/>
-      <c r="B30" s="214"/>
-      <c r="C30" s="216"/>
-      <c r="D30" s="241"/>
-      <c r="E30" s="242"/>
-      <c r="F30" s="243"/>
-      <c r="G30" s="214"/>
-      <c r="H30" s="215"/>
-      <c r="I30" s="216"/>
-      <c r="J30" s="226"/>
-      <c r="K30" s="227"/>
-      <c r="L30" s="227"/>
-      <c r="M30" s="227"/>
-      <c r="N30" s="227"/>
-      <c r="O30" s="227"/>
-      <c r="P30" s="228"/>
-      <c r="Q30" s="223"/>
-      <c r="R30" s="224"/>
-      <c r="S30" s="224"/>
-      <c r="T30" s="224"/>
-      <c r="U30" s="224"/>
-      <c r="V30" s="224"/>
-      <c r="W30" s="224"/>
-      <c r="X30" s="224"/>
-      <c r="Y30" s="224"/>
-      <c r="Z30" s="224"/>
-      <c r="AA30" s="224"/>
-      <c r="AB30" s="224"/>
-      <c r="AC30" s="224"/>
-      <c r="AD30" s="224"/>
-      <c r="AE30" s="225"/>
-      <c r="AF30" s="226"/>
-      <c r="AG30" s="227"/>
-      <c r="AH30" s="227"/>
-      <c r="AI30" s="228"/>
+      <c r="B30" s="222"/>
+      <c r="C30" s="223"/>
+      <c r="D30" s="224"/>
+      <c r="E30" s="225"/>
+      <c r="F30" s="226"/>
+      <c r="G30" s="222"/>
+      <c r="H30" s="227"/>
+      <c r="I30" s="223"/>
+      <c r="J30" s="219"/>
+      <c r="K30" s="220"/>
+      <c r="L30" s="220"/>
+      <c r="M30" s="220"/>
+      <c r="N30" s="220"/>
+      <c r="O30" s="220"/>
+      <c r="P30" s="221"/>
+      <c r="Q30" s="216"/>
+      <c r="R30" s="217"/>
+      <c r="S30" s="217"/>
+      <c r="T30" s="217"/>
+      <c r="U30" s="217"/>
+      <c r="V30" s="217"/>
+      <c r="W30" s="217"/>
+      <c r="X30" s="217"/>
+      <c r="Y30" s="217"/>
+      <c r="Z30" s="217"/>
+      <c r="AA30" s="217"/>
+      <c r="AB30" s="217"/>
+      <c r="AC30" s="217"/>
+      <c r="AD30" s="217"/>
+      <c r="AE30" s="218"/>
+      <c r="AF30" s="219"/>
+      <c r="AG30" s="220"/>
+      <c r="AH30" s="220"/>
+      <c r="AI30" s="221"/>
     </row>
     <row r="31" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="57"/>
-      <c r="B31" s="214"/>
-      <c r="C31" s="216"/>
-      <c r="D31" s="241"/>
-      <c r="E31" s="242"/>
-      <c r="F31" s="243"/>
-      <c r="G31" s="214"/>
-      <c r="H31" s="215"/>
-      <c r="I31" s="216"/>
-      <c r="J31" s="226"/>
-      <c r="K31" s="227"/>
-      <c r="L31" s="227"/>
-      <c r="M31" s="227"/>
-      <c r="N31" s="227"/>
-      <c r="O31" s="227"/>
-      <c r="P31" s="228"/>
-      <c r="Q31" s="223"/>
-      <c r="R31" s="224"/>
-      <c r="S31" s="224"/>
-      <c r="T31" s="224"/>
-      <c r="U31" s="224"/>
-      <c r="V31" s="224"/>
-      <c r="W31" s="224"/>
-      <c r="X31" s="224"/>
-      <c r="Y31" s="224"/>
-      <c r="Z31" s="224"/>
-      <c r="AA31" s="224"/>
-      <c r="AB31" s="224"/>
-      <c r="AC31" s="224"/>
-      <c r="AD31" s="224"/>
-      <c r="AE31" s="225"/>
-      <c r="AF31" s="226"/>
-      <c r="AG31" s="227"/>
-      <c r="AH31" s="227"/>
-      <c r="AI31" s="228"/>
+      <c r="B31" s="222"/>
+      <c r="C31" s="223"/>
+      <c r="D31" s="224"/>
+      <c r="E31" s="225"/>
+      <c r="F31" s="226"/>
+      <c r="G31" s="222"/>
+      <c r="H31" s="227"/>
+      <c r="I31" s="223"/>
+      <c r="J31" s="219"/>
+      <c r="K31" s="220"/>
+      <c r="L31" s="220"/>
+      <c r="M31" s="220"/>
+      <c r="N31" s="220"/>
+      <c r="O31" s="220"/>
+      <c r="P31" s="221"/>
+      <c r="Q31" s="216"/>
+      <c r="R31" s="217"/>
+      <c r="S31" s="217"/>
+      <c r="T31" s="217"/>
+      <c r="U31" s="217"/>
+      <c r="V31" s="217"/>
+      <c r="W31" s="217"/>
+      <c r="X31" s="217"/>
+      <c r="Y31" s="217"/>
+      <c r="Z31" s="217"/>
+      <c r="AA31" s="217"/>
+      <c r="AB31" s="217"/>
+      <c r="AC31" s="217"/>
+      <c r="AD31" s="217"/>
+      <c r="AE31" s="218"/>
+      <c r="AF31" s="219"/>
+      <c r="AG31" s="220"/>
+      <c r="AH31" s="220"/>
+      <c r="AI31" s="221"/>
     </row>
     <row r="32" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="57"/>
-      <c r="B32" s="214"/>
-      <c r="C32" s="216"/>
-      <c r="D32" s="241"/>
-      <c r="E32" s="242"/>
-      <c r="F32" s="243"/>
-      <c r="G32" s="214"/>
-      <c r="H32" s="215"/>
-      <c r="I32" s="216"/>
-      <c r="J32" s="226"/>
-      <c r="K32" s="227"/>
-      <c r="L32" s="227"/>
-      <c r="M32" s="227"/>
-      <c r="N32" s="227"/>
-      <c r="O32" s="227"/>
-      <c r="P32" s="228"/>
-      <c r="Q32" s="223"/>
-      <c r="R32" s="224"/>
-      <c r="S32" s="224"/>
-      <c r="T32" s="224"/>
-      <c r="U32" s="224"/>
-      <c r="V32" s="224"/>
-      <c r="W32" s="224"/>
-      <c r="X32" s="224"/>
-      <c r="Y32" s="224"/>
-      <c r="Z32" s="224"/>
-      <c r="AA32" s="224"/>
-      <c r="AB32" s="224"/>
-      <c r="AC32" s="224"/>
-      <c r="AD32" s="224"/>
-      <c r="AE32" s="225"/>
-      <c r="AF32" s="226"/>
-      <c r="AG32" s="227"/>
-      <c r="AH32" s="227"/>
-      <c r="AI32" s="228"/>
+      <c r="B32" s="222"/>
+      <c r="C32" s="223"/>
+      <c r="D32" s="224"/>
+      <c r="E32" s="225"/>
+      <c r="F32" s="226"/>
+      <c r="G32" s="222"/>
+      <c r="H32" s="227"/>
+      <c r="I32" s="223"/>
+      <c r="J32" s="219"/>
+      <c r="K32" s="220"/>
+      <c r="L32" s="220"/>
+      <c r="M32" s="220"/>
+      <c r="N32" s="220"/>
+      <c r="O32" s="220"/>
+      <c r="P32" s="221"/>
+      <c r="Q32" s="216"/>
+      <c r="R32" s="217"/>
+      <c r="S32" s="217"/>
+      <c r="T32" s="217"/>
+      <c r="U32" s="217"/>
+      <c r="V32" s="217"/>
+      <c r="W32" s="217"/>
+      <c r="X32" s="217"/>
+      <c r="Y32" s="217"/>
+      <c r="Z32" s="217"/>
+      <c r="AA32" s="217"/>
+      <c r="AB32" s="217"/>
+      <c r="AC32" s="217"/>
+      <c r="AD32" s="217"/>
+      <c r="AE32" s="218"/>
+      <c r="AF32" s="219"/>
+      <c r="AG32" s="220"/>
+      <c r="AH32" s="220"/>
+      <c r="AI32" s="221"/>
     </row>
     <row r="33" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="57"/>
-      <c r="B33" s="214"/>
-      <c r="C33" s="216"/>
-      <c r="D33" s="241"/>
-      <c r="E33" s="242"/>
-      <c r="F33" s="243"/>
-      <c r="G33" s="214"/>
-      <c r="H33" s="215"/>
-      <c r="I33" s="216"/>
-      <c r="J33" s="226"/>
-      <c r="K33" s="227"/>
-      <c r="L33" s="227"/>
-      <c r="M33" s="227"/>
-      <c r="N33" s="227"/>
-      <c r="O33" s="227"/>
-      <c r="P33" s="228"/>
-      <c r="Q33" s="223"/>
-      <c r="R33" s="224"/>
-      <c r="S33" s="224"/>
-      <c r="T33" s="224"/>
-      <c r="U33" s="224"/>
-      <c r="V33" s="224"/>
-      <c r="W33" s="224"/>
-      <c r="X33" s="224"/>
-      <c r="Y33" s="224"/>
-      <c r="Z33" s="224"/>
-      <c r="AA33" s="224"/>
-      <c r="AB33" s="224"/>
-      <c r="AC33" s="224"/>
-      <c r="AD33" s="224"/>
-      <c r="AE33" s="225"/>
-      <c r="AF33" s="226"/>
-      <c r="AG33" s="227"/>
-      <c r="AH33" s="227"/>
-      <c r="AI33" s="228"/>
+      <c r="B33" s="222"/>
+      <c r="C33" s="223"/>
+      <c r="D33" s="224"/>
+      <c r="E33" s="225"/>
+      <c r="F33" s="226"/>
+      <c r="G33" s="222"/>
+      <c r="H33" s="227"/>
+      <c r="I33" s="223"/>
+      <c r="J33" s="219"/>
+      <c r="K33" s="220"/>
+      <c r="L33" s="220"/>
+      <c r="M33" s="220"/>
+      <c r="N33" s="220"/>
+      <c r="O33" s="220"/>
+      <c r="P33" s="221"/>
+      <c r="Q33" s="216"/>
+      <c r="R33" s="217"/>
+      <c r="S33" s="217"/>
+      <c r="T33" s="217"/>
+      <c r="U33" s="217"/>
+      <c r="V33" s="217"/>
+      <c r="W33" s="217"/>
+      <c r="X33" s="217"/>
+      <c r="Y33" s="217"/>
+      <c r="Z33" s="217"/>
+      <c r="AA33" s="217"/>
+      <c r="AB33" s="217"/>
+      <c r="AC33" s="217"/>
+      <c r="AD33" s="217"/>
+      <c r="AE33" s="218"/>
+      <c r="AF33" s="219"/>
+      <c r="AG33" s="220"/>
+      <c r="AH33" s="220"/>
+      <c r="AI33" s="221"/>
     </row>
     <row r="34" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="28"/>
@@ -6483,6 +6484,161 @@
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -6507,161 +6663,6 @@
     <mergeCell ref="AF22:AI22"/>
     <mergeCell ref="J23:P23"/>
     <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="S1:Z3"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <printOptions horizontalCentered="1"/>
@@ -6818,158 +6819,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="32" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="251" t="s">
+      <c r="A1" s="202" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="252"/>
-      <c r="C1" s="252"/>
-      <c r="D1" s="253"/>
-      <c r="E1" s="268" t="str">
+      <c r="B1" s="203"/>
+      <c r="C1" s="203"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="274" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="221"/>
-      <c r="G1" s="221"/>
-      <c r="H1" s="221"/>
-      <c r="I1" s="221"/>
-      <c r="J1" s="221"/>
-      <c r="K1" s="221"/>
-      <c r="L1" s="221"/>
-      <c r="M1" s="221"/>
-      <c r="N1" s="222"/>
-      <c r="O1" s="254" t="s">
+      <c r="F1" s="251"/>
+      <c r="G1" s="251"/>
+      <c r="H1" s="251"/>
+      <c r="I1" s="251"/>
+      <c r="J1" s="251"/>
+      <c r="K1" s="251"/>
+      <c r="L1" s="251"/>
+      <c r="M1" s="251"/>
+      <c r="N1" s="252"/>
+      <c r="O1" s="205" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="255"/>
-      <c r="Q1" s="255"/>
-      <c r="R1" s="256"/>
-      <c r="S1" s="269" t="str">
+      <c r="P1" s="206"/>
+      <c r="Q1" s="206"/>
+      <c r="R1" s="207"/>
+      <c r="S1" s="265" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10101/ログイン</v>
       </c>
-      <c r="T1" s="270"/>
-      <c r="U1" s="270"/>
-      <c r="V1" s="270"/>
-      <c r="W1" s="270"/>
-      <c r="X1" s="270"/>
-      <c r="Y1" s="270"/>
-      <c r="Z1" s="271"/>
-      <c r="AA1" s="251" t="s">
+      <c r="T1" s="266"/>
+      <c r="U1" s="266"/>
+      <c r="V1" s="266"/>
+      <c r="W1" s="266"/>
+      <c r="X1" s="266"/>
+      <c r="Y1" s="266"/>
+      <c r="Z1" s="267"/>
+      <c r="AA1" s="202" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="253"/>
-      <c r="AC1" s="202" t="str">
+      <c r="AB1" s="204"/>
+      <c r="AC1" s="238" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="203"/>
-      <c r="AE1" s="203"/>
-      <c r="AF1" s="204"/>
-      <c r="AG1" s="265">
+      <c r="AD1" s="239"/>
+      <c r="AE1" s="239"/>
+      <c r="AF1" s="240"/>
+      <c r="AG1" s="275">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43656</v>
       </c>
-      <c r="AH1" s="266"/>
-      <c r="AI1" s="267"/>
+      <c r="AH1" s="276"/>
+      <c r="AI1" s="277"/>
     </row>
     <row r="2" spans="1:35" s="32" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="251" t="s">
+      <c r="A2" s="202" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="252"/>
-      <c r="C2" s="252"/>
-      <c r="D2" s="253"/>
-      <c r="E2" s="268" t="str">
+      <c r="B2" s="203"/>
+      <c r="C2" s="203"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="274" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="221"/>
-      <c r="G2" s="221"/>
-      <c r="H2" s="221"/>
-      <c r="I2" s="221"/>
-      <c r="J2" s="221"/>
-      <c r="K2" s="221"/>
-      <c r="L2" s="221"/>
-      <c r="M2" s="221"/>
-      <c r="N2" s="222"/>
-      <c r="O2" s="257"/>
-      <c r="P2" s="258"/>
-      <c r="Q2" s="258"/>
-      <c r="R2" s="259"/>
-      <c r="S2" s="272"/>
-      <c r="T2" s="273"/>
-      <c r="U2" s="273"/>
-      <c r="V2" s="273"/>
-      <c r="W2" s="273"/>
-      <c r="X2" s="273"/>
-      <c r="Y2" s="273"/>
-      <c r="Z2" s="274"/>
-      <c r="AA2" s="251" t="s">
+      <c r="F2" s="251"/>
+      <c r="G2" s="251"/>
+      <c r="H2" s="251"/>
+      <c r="I2" s="251"/>
+      <c r="J2" s="251"/>
+      <c r="K2" s="251"/>
+      <c r="L2" s="251"/>
+      <c r="M2" s="251"/>
+      <c r="N2" s="252"/>
+      <c r="O2" s="208"/>
+      <c r="P2" s="209"/>
+      <c r="Q2" s="209"/>
+      <c r="R2" s="210"/>
+      <c r="S2" s="268"/>
+      <c r="T2" s="269"/>
+      <c r="U2" s="269"/>
+      <c r="V2" s="269"/>
+      <c r="W2" s="269"/>
+      <c r="X2" s="269"/>
+      <c r="Y2" s="269"/>
+      <c r="Z2" s="270"/>
+      <c r="AA2" s="202" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="253"/>
-      <c r="AC2" s="202" t="str">
+      <c r="AB2" s="204"/>
+      <c r="AC2" s="238" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="203"/>
-      <c r="AE2" s="203"/>
-      <c r="AF2" s="204"/>
-      <c r="AG2" s="265">
+      <c r="AD2" s="239"/>
+      <c r="AE2" s="239"/>
+      <c r="AF2" s="240"/>
+      <c r="AG2" s="275">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="266"/>
-      <c r="AI2" s="267"/>
+      <c r="AH2" s="276"/>
+      <c r="AI2" s="277"/>
     </row>
     <row r="3" spans="1:35" s="32" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="251" t="s">
+      <c r="A3" s="202" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="252"/>
-      <c r="C3" s="252"/>
-      <c r="D3" s="253"/>
-      <c r="E3" s="268" t="str">
+      <c r="B3" s="203"/>
+      <c r="C3" s="203"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="274" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="221"/>
-      <c r="G3" s="221"/>
-      <c r="H3" s="221"/>
-      <c r="I3" s="221"/>
-      <c r="J3" s="221"/>
-      <c r="K3" s="221"/>
-      <c r="L3" s="221"/>
-      <c r="M3" s="221"/>
-      <c r="N3" s="222"/>
-      <c r="O3" s="260"/>
-      <c r="P3" s="261"/>
-      <c r="Q3" s="261"/>
-      <c r="R3" s="262"/>
-      <c r="S3" s="275"/>
-      <c r="T3" s="276"/>
-      <c r="U3" s="276"/>
-      <c r="V3" s="276"/>
-      <c r="W3" s="276"/>
-      <c r="X3" s="276"/>
-      <c r="Y3" s="276"/>
-      <c r="Z3" s="277"/>
-      <c r="AA3" s="251"/>
-      <c r="AB3" s="253"/>
-      <c r="AC3" s="202" t="str">
+      <c r="F3" s="251"/>
+      <c r="G3" s="251"/>
+      <c r="H3" s="251"/>
+      <c r="I3" s="251"/>
+      <c r="J3" s="251"/>
+      <c r="K3" s="251"/>
+      <c r="L3" s="251"/>
+      <c r="M3" s="251"/>
+      <c r="N3" s="252"/>
+      <c r="O3" s="211"/>
+      <c r="P3" s="212"/>
+      <c r="Q3" s="212"/>
+      <c r="R3" s="213"/>
+      <c r="S3" s="271"/>
+      <c r="T3" s="272"/>
+      <c r="U3" s="272"/>
+      <c r="V3" s="272"/>
+      <c r="W3" s="272"/>
+      <c r="X3" s="272"/>
+      <c r="Y3" s="272"/>
+      <c r="Z3" s="273"/>
+      <c r="AA3" s="202"/>
+      <c r="AB3" s="204"/>
+      <c r="AC3" s="238" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="203"/>
-      <c r="AE3" s="203"/>
-      <c r="AF3" s="204"/>
-      <c r="AG3" s="265" t="str">
+      <c r="AD3" s="239"/>
+      <c r="AE3" s="239"/>
+      <c r="AF3" s="240"/>
+      <c r="AG3" s="275" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="266"/>
-      <c r="AI3" s="267"/>
+      <c r="AH3" s="276"/>
+      <c r="AI3" s="277"/>
     </row>
     <row r="4" spans="1:35" s="35" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="29"/>
@@ -7851,6 +7852,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -7860,14 +7869,6 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -7894,158 +7895,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="251" t="s">
+      <c r="A1" s="202" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="252"/>
-      <c r="C1" s="252"/>
-      <c r="D1" s="253"/>
-      <c r="E1" s="268" t="str">
+      <c r="B1" s="203"/>
+      <c r="C1" s="203"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="274" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="221"/>
-      <c r="G1" s="221"/>
-      <c r="H1" s="221"/>
-      <c r="I1" s="221"/>
-      <c r="J1" s="221"/>
-      <c r="K1" s="221"/>
-      <c r="L1" s="221"/>
-      <c r="M1" s="221"/>
-      <c r="N1" s="222"/>
-      <c r="O1" s="254" t="s">
+      <c r="F1" s="251"/>
+      <c r="G1" s="251"/>
+      <c r="H1" s="251"/>
+      <c r="I1" s="251"/>
+      <c r="J1" s="251"/>
+      <c r="K1" s="251"/>
+      <c r="L1" s="251"/>
+      <c r="M1" s="251"/>
+      <c r="N1" s="252"/>
+      <c r="O1" s="205" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="255"/>
-      <c r="Q1" s="255"/>
-      <c r="R1" s="256"/>
-      <c r="S1" s="269" t="str">
+      <c r="P1" s="206"/>
+      <c r="Q1" s="206"/>
+      <c r="R1" s="207"/>
+      <c r="S1" s="265" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10101/ログイン</v>
       </c>
-      <c r="T1" s="270"/>
-      <c r="U1" s="270"/>
-      <c r="V1" s="270"/>
-      <c r="W1" s="270"/>
-      <c r="X1" s="270"/>
-      <c r="Y1" s="270"/>
-      <c r="Z1" s="271"/>
-      <c r="AA1" s="251" t="s">
+      <c r="T1" s="266"/>
+      <c r="U1" s="266"/>
+      <c r="V1" s="266"/>
+      <c r="W1" s="266"/>
+      <c r="X1" s="266"/>
+      <c r="Y1" s="266"/>
+      <c r="Z1" s="267"/>
+      <c r="AA1" s="202" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="253"/>
-      <c r="AC1" s="202" t="str">
+      <c r="AB1" s="204"/>
+      <c r="AC1" s="238" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="203"/>
-      <c r="AE1" s="203"/>
-      <c r="AF1" s="204"/>
-      <c r="AG1" s="265">
+      <c r="AD1" s="239"/>
+      <c r="AE1" s="239"/>
+      <c r="AF1" s="240"/>
+      <c r="AG1" s="275">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43656</v>
       </c>
-      <c r="AH1" s="266"/>
-      <c r="AI1" s="267"/>
+      <c r="AH1" s="276"/>
+      <c r="AI1" s="277"/>
     </row>
     <row r="2" spans="1:35" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="251" t="s">
+      <c r="A2" s="202" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="252"/>
-      <c r="C2" s="252"/>
-      <c r="D2" s="253"/>
-      <c r="E2" s="268" t="str">
+      <c r="B2" s="203"/>
+      <c r="C2" s="203"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="274" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="221"/>
-      <c r="G2" s="221"/>
-      <c r="H2" s="221"/>
-      <c r="I2" s="221"/>
-      <c r="J2" s="221"/>
-      <c r="K2" s="221"/>
-      <c r="L2" s="221"/>
-      <c r="M2" s="221"/>
-      <c r="N2" s="222"/>
-      <c r="O2" s="257"/>
-      <c r="P2" s="258"/>
-      <c r="Q2" s="258"/>
-      <c r="R2" s="259"/>
-      <c r="S2" s="272"/>
-      <c r="T2" s="273"/>
-      <c r="U2" s="273"/>
-      <c r="V2" s="273"/>
-      <c r="W2" s="273"/>
-      <c r="X2" s="273"/>
-      <c r="Y2" s="273"/>
-      <c r="Z2" s="274"/>
-      <c r="AA2" s="251" t="s">
+      <c r="F2" s="251"/>
+      <c r="G2" s="251"/>
+      <c r="H2" s="251"/>
+      <c r="I2" s="251"/>
+      <c r="J2" s="251"/>
+      <c r="K2" s="251"/>
+      <c r="L2" s="251"/>
+      <c r="M2" s="251"/>
+      <c r="N2" s="252"/>
+      <c r="O2" s="208"/>
+      <c r="P2" s="209"/>
+      <c r="Q2" s="209"/>
+      <c r="R2" s="210"/>
+      <c r="S2" s="268"/>
+      <c r="T2" s="269"/>
+      <c r="U2" s="269"/>
+      <c r="V2" s="269"/>
+      <c r="W2" s="269"/>
+      <c r="X2" s="269"/>
+      <c r="Y2" s="269"/>
+      <c r="Z2" s="270"/>
+      <c r="AA2" s="202" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="253"/>
-      <c r="AC2" s="202" t="str">
+      <c r="AB2" s="204"/>
+      <c r="AC2" s="238" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="203"/>
-      <c r="AE2" s="203"/>
-      <c r="AF2" s="204"/>
-      <c r="AG2" s="265">
+      <c r="AD2" s="239"/>
+      <c r="AE2" s="239"/>
+      <c r="AF2" s="240"/>
+      <c r="AG2" s="275">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="266"/>
-      <c r="AI2" s="267"/>
+      <c r="AH2" s="276"/>
+      <c r="AI2" s="277"/>
     </row>
     <row r="3" spans="1:35" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="251" t="s">
+      <c r="A3" s="202" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="252"/>
-      <c r="C3" s="252"/>
-      <c r="D3" s="253"/>
-      <c r="E3" s="268" t="str">
+      <c r="B3" s="203"/>
+      <c r="C3" s="203"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="274" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="221"/>
-      <c r="G3" s="221"/>
-      <c r="H3" s="221"/>
-      <c r="I3" s="221"/>
-      <c r="J3" s="221"/>
-      <c r="K3" s="221"/>
-      <c r="L3" s="221"/>
-      <c r="M3" s="221"/>
-      <c r="N3" s="222"/>
-      <c r="O3" s="260"/>
-      <c r="P3" s="261"/>
-      <c r="Q3" s="261"/>
-      <c r="R3" s="262"/>
-      <c r="S3" s="275"/>
-      <c r="T3" s="276"/>
-      <c r="U3" s="276"/>
-      <c r="V3" s="276"/>
-      <c r="W3" s="276"/>
-      <c r="X3" s="276"/>
-      <c r="Y3" s="276"/>
-      <c r="Z3" s="277"/>
-      <c r="AA3" s="251"/>
-      <c r="AB3" s="253"/>
-      <c r="AC3" s="202" t="str">
+      <c r="F3" s="251"/>
+      <c r="G3" s="251"/>
+      <c r="H3" s="251"/>
+      <c r="I3" s="251"/>
+      <c r="J3" s="251"/>
+      <c r="K3" s="251"/>
+      <c r="L3" s="251"/>
+      <c r="M3" s="251"/>
+      <c r="N3" s="252"/>
+      <c r="O3" s="211"/>
+      <c r="P3" s="212"/>
+      <c r="Q3" s="212"/>
+      <c r="R3" s="213"/>
+      <c r="S3" s="271"/>
+      <c r="T3" s="272"/>
+      <c r="U3" s="272"/>
+      <c r="V3" s="272"/>
+      <c r="W3" s="272"/>
+      <c r="X3" s="272"/>
+      <c r="Y3" s="272"/>
+      <c r="Z3" s="273"/>
+      <c r="AA3" s="202"/>
+      <c r="AB3" s="204"/>
+      <c r="AC3" s="238" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="203"/>
-      <c r="AE3" s="203"/>
-      <c r="AF3" s="204"/>
-      <c r="AG3" s="265" t="str">
+      <c r="AD3" s="239"/>
+      <c r="AE3" s="239"/>
+      <c r="AF3" s="240"/>
+      <c r="AG3" s="275" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="266"/>
-      <c r="AI3" s="267"/>
+      <c r="AH3" s="276"/>
+      <c r="AI3" s="277"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -8067,7 +8068,7 @@
       <c r="D8" s="289"/>
       <c r="E8" s="289"/>
       <c r="F8" s="290"/>
-      <c r="G8" s="226" t="s">
+      <c r="G8" s="219" t="s">
         <v>137</v>
       </c>
       <c r="H8" s="291"/>
@@ -8105,7 +8106,7 @@
       <c r="D9" s="293"/>
       <c r="E9" s="293"/>
       <c r="F9" s="294"/>
-      <c r="G9" s="226" t="s">
+      <c r="G9" s="219" t="s">
         <v>138</v>
       </c>
       <c r="H9" s="289"/>
@@ -8355,6 +8356,18 @@
     <row r="52" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C10:F13"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:AG8"/>
+    <mergeCell ref="G9:AG9"/>
+    <mergeCell ref="C9:F9"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -8366,18 +8379,6 @@
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C10:F13"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:AG8"/>
-    <mergeCell ref="G9:AG9"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -8394,7 +8395,7 @@
   <sheetPr codeName="Sheet7">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BG179"/>
+  <dimension ref="A1:BG181"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -8408,160 +8409,160 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="340" t="s">
+      <c r="A1" s="383" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="341"/>
-      <c r="C1" s="341"/>
-      <c r="D1" s="342"/>
-      <c r="E1" s="268" t="str">
+      <c r="B1" s="384"/>
+      <c r="C1" s="384"/>
+      <c r="D1" s="385"/>
+      <c r="E1" s="274" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="221"/>
-      <c r="G1" s="221"/>
-      <c r="H1" s="221"/>
-      <c r="I1" s="221"/>
-      <c r="J1" s="221"/>
-      <c r="K1" s="221"/>
-      <c r="L1" s="221"/>
-      <c r="M1" s="221"/>
-      <c r="N1" s="222"/>
-      <c r="O1" s="254" t="s">
+      <c r="F1" s="251"/>
+      <c r="G1" s="251"/>
+      <c r="H1" s="251"/>
+      <c r="I1" s="251"/>
+      <c r="J1" s="251"/>
+      <c r="K1" s="251"/>
+      <c r="L1" s="251"/>
+      <c r="M1" s="251"/>
+      <c r="N1" s="252"/>
+      <c r="O1" s="205" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="255"/>
-      <c r="Q1" s="255"/>
-      <c r="R1" s="256"/>
-      <c r="S1" s="269" t="str">
+      <c r="P1" s="206"/>
+      <c r="Q1" s="206"/>
+      <c r="R1" s="207"/>
+      <c r="S1" s="265" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10101/ログイン</v>
       </c>
-      <c r="T1" s="270"/>
-      <c r="U1" s="270"/>
-      <c r="V1" s="270"/>
-      <c r="W1" s="270"/>
-      <c r="X1" s="270"/>
-      <c r="Y1" s="270"/>
-      <c r="Z1" s="271"/>
-      <c r="AA1" s="251" t="s">
+      <c r="T1" s="266"/>
+      <c r="U1" s="266"/>
+      <c r="V1" s="266"/>
+      <c r="W1" s="266"/>
+      <c r="X1" s="266"/>
+      <c r="Y1" s="266"/>
+      <c r="Z1" s="267"/>
+      <c r="AA1" s="202" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="253"/>
-      <c r="AC1" s="202" t="str">
+      <c r="AB1" s="204"/>
+      <c r="AC1" s="238" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="203"/>
-      <c r="AE1" s="203"/>
-      <c r="AF1" s="204"/>
-      <c r="AG1" s="337">
+      <c r="AD1" s="239"/>
+      <c r="AE1" s="239"/>
+      <c r="AF1" s="240"/>
+      <c r="AG1" s="380">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43656</v>
       </c>
-      <c r="AH1" s="338"/>
-      <c r="AI1" s="339"/>
+      <c r="AH1" s="381"/>
+      <c r="AI1" s="382"/>
       <c r="AJ1" s="30"/>
     </row>
     <row r="2" spans="1:36" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="340" t="s">
+      <c r="A2" s="383" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="341"/>
-      <c r="C2" s="341"/>
-      <c r="D2" s="342"/>
-      <c r="E2" s="268" t="str">
+      <c r="B2" s="384"/>
+      <c r="C2" s="384"/>
+      <c r="D2" s="385"/>
+      <c r="E2" s="274" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="221"/>
-      <c r="G2" s="221"/>
-      <c r="H2" s="221"/>
-      <c r="I2" s="221"/>
-      <c r="J2" s="221"/>
-      <c r="K2" s="221"/>
-      <c r="L2" s="221"/>
-      <c r="M2" s="221"/>
-      <c r="N2" s="222"/>
-      <c r="O2" s="257"/>
-      <c r="P2" s="258"/>
-      <c r="Q2" s="258"/>
-      <c r="R2" s="259"/>
-      <c r="S2" s="272"/>
-      <c r="T2" s="273"/>
-      <c r="U2" s="273"/>
-      <c r="V2" s="273"/>
-      <c r="W2" s="273"/>
-      <c r="X2" s="273"/>
-      <c r="Y2" s="273"/>
-      <c r="Z2" s="274"/>
-      <c r="AA2" s="251" t="s">
+      <c r="F2" s="251"/>
+      <c r="G2" s="251"/>
+      <c r="H2" s="251"/>
+      <c r="I2" s="251"/>
+      <c r="J2" s="251"/>
+      <c r="K2" s="251"/>
+      <c r="L2" s="251"/>
+      <c r="M2" s="251"/>
+      <c r="N2" s="252"/>
+      <c r="O2" s="208"/>
+      <c r="P2" s="209"/>
+      <c r="Q2" s="209"/>
+      <c r="R2" s="210"/>
+      <c r="S2" s="268"/>
+      <c r="T2" s="269"/>
+      <c r="U2" s="269"/>
+      <c r="V2" s="269"/>
+      <c r="W2" s="269"/>
+      <c r="X2" s="269"/>
+      <c r="Y2" s="269"/>
+      <c r="Z2" s="270"/>
+      <c r="AA2" s="202" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="253"/>
-      <c r="AC2" s="202" t="str">
+      <c r="AB2" s="204"/>
+      <c r="AC2" s="238" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="203"/>
-      <c r="AE2" s="203"/>
-      <c r="AF2" s="204"/>
-      <c r="AG2" s="337">
+      <c r="AD2" s="239"/>
+      <c r="AE2" s="239"/>
+      <c r="AF2" s="240"/>
+      <c r="AG2" s="380">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="338"/>
-      <c r="AI2" s="339"/>
+      <c r="AH2" s="381"/>
+      <c r="AI2" s="382"/>
       <c r="AJ2" s="30"/>
     </row>
     <row r="3" spans="1:36" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="340" t="s">
+      <c r="A3" s="383" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="341"/>
-      <c r="C3" s="341"/>
-      <c r="D3" s="342"/>
-      <c r="E3" s="268" t="str">
+      <c r="B3" s="384"/>
+      <c r="C3" s="384"/>
+      <c r="D3" s="385"/>
+      <c r="E3" s="274" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="221"/>
-      <c r="G3" s="221"/>
-      <c r="H3" s="221"/>
-      <c r="I3" s="221"/>
-      <c r="J3" s="221"/>
-      <c r="K3" s="221"/>
-      <c r="L3" s="221"/>
-      <c r="M3" s="221"/>
-      <c r="N3" s="222"/>
-      <c r="O3" s="260"/>
-      <c r="P3" s="261"/>
-      <c r="Q3" s="261"/>
-      <c r="R3" s="262"/>
-      <c r="S3" s="275"/>
-      <c r="T3" s="276"/>
-      <c r="U3" s="276"/>
-      <c r="V3" s="276"/>
-      <c r="W3" s="276"/>
-      <c r="X3" s="276"/>
-      <c r="Y3" s="276"/>
-      <c r="Z3" s="277"/>
-      <c r="AA3" s="251"/>
-      <c r="AB3" s="253"/>
-      <c r="AC3" s="202" t="str">
+      <c r="F3" s="251"/>
+      <c r="G3" s="251"/>
+      <c r="H3" s="251"/>
+      <c r="I3" s="251"/>
+      <c r="J3" s="251"/>
+      <c r="K3" s="251"/>
+      <c r="L3" s="251"/>
+      <c r="M3" s="251"/>
+      <c r="N3" s="252"/>
+      <c r="O3" s="211"/>
+      <c r="P3" s="212"/>
+      <c r="Q3" s="212"/>
+      <c r="R3" s="213"/>
+      <c r="S3" s="271"/>
+      <c r="T3" s="272"/>
+      <c r="U3" s="272"/>
+      <c r="V3" s="272"/>
+      <c r="W3" s="272"/>
+      <c r="X3" s="272"/>
+      <c r="Y3" s="272"/>
+      <c r="Z3" s="273"/>
+      <c r="AA3" s="202"/>
+      <c r="AB3" s="204"/>
+      <c r="AC3" s="238" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="203"/>
-      <c r="AE3" s="203"/>
-      <c r="AF3" s="204"/>
-      <c r="AG3" s="337" t="str">
+      <c r="AD3" s="239"/>
+      <c r="AE3" s="239"/>
+      <c r="AF3" s="240"/>
+      <c r="AG3" s="380" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="338"/>
-      <c r="AI3" s="339"/>
+      <c r="AH3" s="381"/>
+      <c r="AI3" s="382"/>
       <c r="AJ3" s="30"/>
     </row>
     <row r="4" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8713,39 +8714,39 @@
       <c r="D43" s="131" t="s">
         <v>41</v>
       </c>
-      <c r="E43" s="343" t="s">
+      <c r="E43" s="358" t="s">
         <v>69</v>
       </c>
-      <c r="F43" s="343"/>
-      <c r="G43" s="343"/>
-      <c r="H43" s="343"/>
-      <c r="I43" s="343"/>
-      <c r="J43" s="343"/>
-      <c r="K43" s="343"/>
-      <c r="L43" s="343"/>
-      <c r="M43" s="343"/>
-      <c r="N43" s="343" t="s">
+      <c r="F43" s="358"/>
+      <c r="G43" s="358"/>
+      <c r="H43" s="358"/>
+      <c r="I43" s="358"/>
+      <c r="J43" s="358"/>
+      <c r="K43" s="358"/>
+      <c r="L43" s="358"/>
+      <c r="M43" s="358"/>
+      <c r="N43" s="358" t="s">
         <v>43</v>
       </c>
-      <c r="O43" s="343"/>
-      <c r="P43" s="343"/>
-      <c r="Q43" s="343" t="s">
+      <c r="O43" s="358"/>
+      <c r="P43" s="358"/>
+      <c r="Q43" s="358" t="s">
         <v>25</v>
       </c>
-      <c r="R43" s="343"/>
-      <c r="S43" s="343"/>
-      <c r="T43" s="343"/>
-      <c r="U43" s="343"/>
-      <c r="V43" s="343" t="s">
+      <c r="R43" s="358"/>
+      <c r="S43" s="358"/>
+      <c r="T43" s="358"/>
+      <c r="U43" s="358"/>
+      <c r="V43" s="358" t="s">
         <v>14</v>
       </c>
-      <c r="W43" s="343"/>
-      <c r="X43" s="343"/>
-      <c r="Y43" s="343"/>
-      <c r="Z43" s="343"/>
-      <c r="AA43" s="343"/>
-      <c r="AB43" s="343"/>
-      <c r="AC43" s="343"/>
+      <c r="W43" s="358"/>
+      <c r="X43" s="358"/>
+      <c r="Y43" s="358"/>
+      <c r="Z43" s="358"/>
+      <c r="AA43" s="358"/>
+      <c r="AB43" s="358"/>
+      <c r="AC43" s="358"/>
       <c r="AD43" s="135"/>
       <c r="AE43" s="135"/>
       <c r="AF43" s="135"/>
@@ -8756,39 +8757,39 @@
       <c r="D44" s="153">
         <v>1</v>
       </c>
-      <c r="E44" s="359" t="s">
+      <c r="E44" s="375" t="s">
         <v>119</v>
       </c>
-      <c r="F44" s="356"/>
-      <c r="G44" s="356"/>
-      <c r="H44" s="356"/>
-      <c r="I44" s="356"/>
-      <c r="J44" s="356"/>
-      <c r="K44" s="356"/>
-      <c r="L44" s="356"/>
-      <c r="M44" s="356"/>
-      <c r="N44" s="356" t="s">
+      <c r="F44" s="372"/>
+      <c r="G44" s="372"/>
+      <c r="H44" s="372"/>
+      <c r="I44" s="372"/>
+      <c r="J44" s="372"/>
+      <c r="K44" s="372"/>
+      <c r="L44" s="372"/>
+      <c r="M44" s="372"/>
+      <c r="N44" s="372" t="s">
         <v>89</v>
       </c>
-      <c r="O44" s="356"/>
-      <c r="P44" s="356"/>
-      <c r="Q44" s="354" t="s">
+      <c r="O44" s="372"/>
+      <c r="P44" s="372"/>
+      <c r="Q44" s="370" t="s">
         <v>113</v>
       </c>
-      <c r="R44" s="354"/>
-      <c r="S44" s="354"/>
-      <c r="T44" s="354"/>
-      <c r="U44" s="354"/>
-      <c r="V44" s="355" t="s">
+      <c r="R44" s="370"/>
+      <c r="S44" s="370"/>
+      <c r="T44" s="370"/>
+      <c r="U44" s="370"/>
+      <c r="V44" s="371" t="s">
         <v>123</v>
       </c>
-      <c r="W44" s="354"/>
-      <c r="X44" s="354"/>
-      <c r="Y44" s="354"/>
-      <c r="Z44" s="354"/>
-      <c r="AA44" s="354"/>
-      <c r="AB44" s="354"/>
-      <c r="AC44" s="354"/>
+      <c r="W44" s="370"/>
+      <c r="X44" s="370"/>
+      <c r="Y44" s="370"/>
+      <c r="Z44" s="370"/>
+      <c r="AA44" s="370"/>
+      <c r="AB44" s="370"/>
+      <c r="AC44" s="370"/>
       <c r="AM44" s="35"/>
     </row>
     <row r="45" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8865,36 +8866,36 @@
       <c r="AZ48" s="133"/>
     </row>
     <row r="49" spans="3:53" s="91" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D49" s="366" t="s">
+      <c r="D49" s="301" t="s">
         <v>41</v>
       </c>
-      <c r="E49" s="334" t="s">
+      <c r="E49" s="352" t="s">
         <v>29</v>
       </c>
-      <c r="F49" s="335"/>
-      <c r="G49" s="335"/>
-      <c r="H49" s="335"/>
-      <c r="I49" s="335"/>
-      <c r="J49" s="335"/>
-      <c r="K49" s="335"/>
-      <c r="L49" s="335"/>
-      <c r="M49" s="335"/>
-      <c r="N49" s="335"/>
-      <c r="O49" s="335"/>
-      <c r="P49" s="335"/>
-      <c r="Q49" s="335"/>
-      <c r="R49" s="335"/>
-      <c r="S49" s="335"/>
-      <c r="T49" s="335"/>
-      <c r="U49" s="335"/>
-      <c r="V49" s="335"/>
-      <c r="W49" s="335"/>
-      <c r="X49" s="335"/>
-      <c r="Y49" s="335"/>
-      <c r="Z49" s="335"/>
-      <c r="AA49" s="335"/>
-      <c r="AB49" s="335"/>
-      <c r="AC49" s="336"/>
+      <c r="F49" s="353"/>
+      <c r="G49" s="353"/>
+      <c r="H49" s="353"/>
+      <c r="I49" s="353"/>
+      <c r="J49" s="353"/>
+      <c r="K49" s="353"/>
+      <c r="L49" s="353"/>
+      <c r="M49" s="353"/>
+      <c r="N49" s="353"/>
+      <c r="O49" s="353"/>
+      <c r="P49" s="353"/>
+      <c r="Q49" s="353"/>
+      <c r="R49" s="353"/>
+      <c r="S49" s="353"/>
+      <c r="T49" s="353"/>
+      <c r="U49" s="353"/>
+      <c r="V49" s="353"/>
+      <c r="W49" s="353"/>
+      <c r="X49" s="353"/>
+      <c r="Y49" s="353"/>
+      <c r="Z49" s="353"/>
+      <c r="AA49" s="353"/>
+      <c r="AB49" s="353"/>
+      <c r="AC49" s="354"/>
       <c r="AD49" s="279" t="s">
         <v>33</v>
       </c>
@@ -8912,29 +8913,29 @@
       <c r="AN49" s="133"/>
     </row>
     <row r="50" spans="3:53" s="91" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D50" s="367"/>
+      <c r="D50" s="325"/>
       <c r="E50" s="279" t="s">
         <v>31</v>
       </c>
       <c r="F50" s="280"/>
       <c r="G50" s="280"/>
       <c r="H50" s="281"/>
-      <c r="I50" s="383" t="s">
+      <c r="I50" s="351" t="s">
         <v>39</v>
       </c>
-      <c r="J50" s="370"/>
-      <c r="K50" s="370"/>
-      <c r="L50" s="371"/>
-      <c r="M50" s="369" t="s">
+      <c r="J50" s="327"/>
+      <c r="K50" s="327"/>
+      <c r="L50" s="328"/>
+      <c r="M50" s="326" t="s">
         <v>118</v>
       </c>
-      <c r="N50" s="370"/>
-      <c r="O50" s="370"/>
-      <c r="P50" s="370"/>
-      <c r="Q50" s="370"/>
-      <c r="R50" s="370"/>
-      <c r="S50" s="370"/>
-      <c r="T50" s="371"/>
+      <c r="N50" s="327"/>
+      <c r="O50" s="327"/>
+      <c r="P50" s="327"/>
+      <c r="Q50" s="327"/>
+      <c r="R50" s="327"/>
+      <c r="S50" s="327"/>
+      <c r="T50" s="328"/>
       <c r="U50" s="279" t="s">
         <v>32</v>
       </c>
@@ -8947,7 +8948,7 @@
       </c>
       <c r="AA50" s="280"/>
       <c r="AB50" s="281"/>
-      <c r="AC50" s="366" t="s">
+      <c r="AC50" s="301" t="s">
         <v>44</v>
       </c>
       <c r="AD50" s="282"/>
@@ -8969,23 +8970,23 @@
       <c r="AT50" s="133"/>
     </row>
     <row r="51" spans="3:53" s="91" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D51" s="368"/>
+      <c r="D51" s="302"/>
       <c r="E51" s="285"/>
       <c r="F51" s="286"/>
       <c r="G51" s="286"/>
       <c r="H51" s="287"/>
-      <c r="I51" s="372"/>
-      <c r="J51" s="373"/>
-      <c r="K51" s="373"/>
-      <c r="L51" s="374"/>
-      <c r="M51" s="372"/>
-      <c r="N51" s="373"/>
-      <c r="O51" s="373"/>
-      <c r="P51" s="373"/>
-      <c r="Q51" s="373"/>
-      <c r="R51" s="373"/>
-      <c r="S51" s="373"/>
-      <c r="T51" s="374"/>
+      <c r="I51" s="329"/>
+      <c r="J51" s="330"/>
+      <c r="K51" s="330"/>
+      <c r="L51" s="331"/>
+      <c r="M51" s="329"/>
+      <c r="N51" s="330"/>
+      <c r="O51" s="330"/>
+      <c r="P51" s="330"/>
+      <c r="Q51" s="330"/>
+      <c r="R51" s="330"/>
+      <c r="S51" s="330"/>
+      <c r="T51" s="331"/>
       <c r="U51" s="285"/>
       <c r="V51" s="286"/>
       <c r="W51" s="286"/>
@@ -8994,7 +8995,7 @@
       <c r="Z51" s="285"/>
       <c r="AA51" s="286"/>
       <c r="AB51" s="287"/>
-      <c r="AC51" s="368"/>
+      <c r="AC51" s="302"/>
       <c r="AD51" s="285"/>
       <c r="AE51" s="286"/>
       <c r="AF51" s="286"/>
@@ -9019,49 +9020,49 @@
       <c r="D52" s="138">
         <v>1</v>
       </c>
-      <c r="E52" s="226" t="s">
+      <c r="E52" s="219" t="s">
         <v>141</v>
       </c>
       <c r="F52" s="291"/>
       <c r="G52" s="291"/>
-      <c r="H52" s="362"/>
-      <c r="I52" s="361" t="s">
+      <c r="H52" s="349"/>
+      <c r="I52" s="350" t="s">
         <v>88</v>
       </c>
-      <c r="J52" s="361"/>
-      <c r="K52" s="361"/>
-      <c r="L52" s="361"/>
-      <c r="M52" s="357" t="s">
+      <c r="J52" s="350"/>
+      <c r="K52" s="350"/>
+      <c r="L52" s="350"/>
+      <c r="M52" s="373" t="s">
         <v>136</v>
       </c>
-      <c r="N52" s="358"/>
-      <c r="O52" s="358"/>
-      <c r="P52" s="358"/>
-      <c r="Q52" s="358"/>
-      <c r="R52" s="358"/>
-      <c r="S52" s="358"/>
-      <c r="T52" s="358"/>
-      <c r="U52" s="329" t="s">
+      <c r="N52" s="374"/>
+      <c r="O52" s="374"/>
+      <c r="P52" s="374"/>
+      <c r="Q52" s="374"/>
+      <c r="R52" s="374"/>
+      <c r="S52" s="374"/>
+      <c r="T52" s="374"/>
+      <c r="U52" s="347" t="s">
         <v>135</v>
       </c>
-      <c r="V52" s="330"/>
-      <c r="W52" s="330"/>
-      <c r="X52" s="330"/>
-      <c r="Y52" s="330"/>
-      <c r="Z52" s="329" t="s">
+      <c r="V52" s="348"/>
+      <c r="W52" s="348"/>
+      <c r="X52" s="348"/>
+      <c r="Y52" s="348"/>
+      <c r="Z52" s="347" t="s">
         <v>135</v>
       </c>
-      <c r="AA52" s="330"/>
-      <c r="AB52" s="330"/>
+      <c r="AA52" s="348"/>
+      <c r="AB52" s="348"/>
       <c r="AC52" s="176" t="s">
         <v>90</v>
       </c>
-      <c r="AD52" s="223" t="s">
+      <c r="AD52" s="216" t="s">
         <v>141</v>
       </c>
-      <c r="AE52" s="324"/>
-      <c r="AF52" s="324"/>
-      <c r="AG52" s="325"/>
+      <c r="AE52" s="299"/>
+      <c r="AF52" s="299"/>
+      <c r="AG52" s="300"/>
       <c r="AH52" s="133"/>
       <c r="AI52" s="133"/>
       <c r="AJ52" s="133"/>
@@ -9082,49 +9083,49 @@
       <c r="D53" s="138">
         <v>2</v>
       </c>
-      <c r="E53" s="226" t="s">
+      <c r="E53" s="219" t="s">
         <v>142</v>
       </c>
       <c r="F53" s="291"/>
       <c r="G53" s="291"/>
-      <c r="H53" s="362"/>
-      <c r="I53" s="360" t="s">
+      <c r="H53" s="349"/>
+      <c r="I53" s="376" t="s">
         <v>171</v>
       </c>
-      <c r="J53" s="361"/>
-      <c r="K53" s="361"/>
-      <c r="L53" s="361"/>
-      <c r="M53" s="351" t="s">
+      <c r="J53" s="350"/>
+      <c r="K53" s="350"/>
+      <c r="L53" s="350"/>
+      <c r="M53" s="355" t="s">
         <v>79</v>
       </c>
-      <c r="N53" s="315"/>
-      <c r="O53" s="315"/>
-      <c r="P53" s="315"/>
-      <c r="Q53" s="315"/>
-      <c r="R53" s="315"/>
-      <c r="S53" s="315"/>
-      <c r="T53" s="316"/>
-      <c r="U53" s="223" t="s">
+      <c r="N53" s="356"/>
+      <c r="O53" s="356"/>
+      <c r="P53" s="356"/>
+      <c r="Q53" s="356"/>
+      <c r="R53" s="356"/>
+      <c r="S53" s="356"/>
+      <c r="T53" s="357"/>
+      <c r="U53" s="216" t="s">
         <v>173</v>
       </c>
-      <c r="V53" s="324"/>
-      <c r="W53" s="324"/>
-      <c r="X53" s="324"/>
-      <c r="Y53" s="325"/>
-      <c r="Z53" s="329" t="s">
+      <c r="V53" s="299"/>
+      <c r="W53" s="299"/>
+      <c r="X53" s="299"/>
+      <c r="Y53" s="300"/>
+      <c r="Z53" s="347" t="s">
         <v>135</v>
       </c>
-      <c r="AA53" s="330"/>
-      <c r="AB53" s="330"/>
+      <c r="AA53" s="348"/>
+      <c r="AB53" s="348"/>
       <c r="AC53" s="176" t="s">
         <v>90</v>
       </c>
-      <c r="AD53" s="223" t="s">
+      <c r="AD53" s="216" t="s">
         <v>142</v>
       </c>
-      <c r="AE53" s="324"/>
-      <c r="AF53" s="324"/>
-      <c r="AG53" s="325"/>
+      <c r="AE53" s="299"/>
+      <c r="AF53" s="299"/>
+      <c r="AG53" s="300"/>
       <c r="AH53" s="133"/>
       <c r="AI53" s="133"/>
       <c r="AJ53" s="133"/>
@@ -9249,24 +9250,24 @@
       <c r="AW57" s="105"/>
     </row>
     <row r="58" spans="3:53" x14ac:dyDescent="0.15">
-      <c r="D58" s="375" t="s">
+      <c r="D58" s="332" t="s">
         <v>117</v>
       </c>
-      <c r="E58" s="306" t="s">
+      <c r="E58" s="334" t="s">
         <v>49</v>
       </c>
-      <c r="F58" s="307"/>
-      <c r="G58" s="307"/>
-      <c r="H58" s="307"/>
-      <c r="I58" s="307"/>
-      <c r="J58" s="308"/>
-      <c r="K58" s="306" t="s">
+      <c r="F58" s="335"/>
+      <c r="G58" s="335"/>
+      <c r="H58" s="335"/>
+      <c r="I58" s="335"/>
+      <c r="J58" s="336"/>
+      <c r="K58" s="334" t="s">
         <v>50</v>
       </c>
-      <c r="L58" s="307"/>
-      <c r="M58" s="307"/>
-      <c r="N58" s="308"/>
-      <c r="O58" s="304" t="s">
+      <c r="L58" s="335"/>
+      <c r="M58" s="335"/>
+      <c r="N58" s="336"/>
+      <c r="O58" s="395" t="s">
         <v>51</v>
       </c>
       <c r="P58" s="139" t="s">
@@ -9277,21 +9278,21 @@
       <c r="S58" s="140"/>
       <c r="T58" s="140"/>
       <c r="U58" s="140"/>
-      <c r="V58" s="306" t="s">
+      <c r="V58" s="334" t="s">
         <v>30</v>
       </c>
-      <c r="W58" s="307"/>
-      <c r="X58" s="307"/>
-      <c r="Y58" s="307"/>
-      <c r="Z58" s="307"/>
-      <c r="AA58" s="307"/>
-      <c r="AB58" s="307"/>
-      <c r="AC58" s="307"/>
-      <c r="AD58" s="307"/>
-      <c r="AE58" s="307"/>
-      <c r="AF58" s="307"/>
-      <c r="AG58" s="307"/>
-      <c r="AH58" s="308"/>
+      <c r="W58" s="335"/>
+      <c r="X58" s="335"/>
+      <c r="Y58" s="335"/>
+      <c r="Z58" s="335"/>
+      <c r="AA58" s="335"/>
+      <c r="AB58" s="335"/>
+      <c r="AC58" s="335"/>
+      <c r="AD58" s="335"/>
+      <c r="AE58" s="335"/>
+      <c r="AF58" s="335"/>
+      <c r="AG58" s="335"/>
+      <c r="AH58" s="336"/>
       <c r="AK58" s="105"/>
       <c r="AL58" s="105"/>
       <c r="AM58" s="105"/>
@@ -9307,18 +9308,18 @@
       <c r="AW58" s="105"/>
     </row>
     <row r="59" spans="3:53" x14ac:dyDescent="0.15">
-      <c r="D59" s="376"/>
-      <c r="E59" s="309"/>
-      <c r="F59" s="310"/>
-      <c r="G59" s="310"/>
-      <c r="H59" s="310"/>
-      <c r="I59" s="310"/>
-      <c r="J59" s="311"/>
-      <c r="K59" s="309"/>
-      <c r="L59" s="310"/>
-      <c r="M59" s="310"/>
-      <c r="N59" s="311"/>
-      <c r="O59" s="305"/>
+      <c r="D59" s="333"/>
+      <c r="E59" s="337"/>
+      <c r="F59" s="338"/>
+      <c r="G59" s="338"/>
+      <c r="H59" s="338"/>
+      <c r="I59" s="338"/>
+      <c r="J59" s="339"/>
+      <c r="K59" s="337"/>
+      <c r="L59" s="338"/>
+      <c r="M59" s="338"/>
+      <c r="N59" s="339"/>
+      <c r="O59" s="396"/>
       <c r="P59" s="141" t="s">
         <v>52</v>
       </c>
@@ -9331,23 +9332,23 @@
       <c r="S59" s="141" t="s">
         <v>55</v>
       </c>
-      <c r="T59" s="312" t="s">
+      <c r="T59" s="397" t="s">
         <v>59</v>
       </c>
-      <c r="U59" s="313"/>
-      <c r="V59" s="309"/>
-      <c r="W59" s="310"/>
-      <c r="X59" s="310"/>
-      <c r="Y59" s="310"/>
-      <c r="Z59" s="310"/>
-      <c r="AA59" s="310"/>
-      <c r="AB59" s="310"/>
-      <c r="AC59" s="310"/>
-      <c r="AD59" s="310"/>
-      <c r="AE59" s="310"/>
-      <c r="AF59" s="310"/>
-      <c r="AG59" s="310"/>
-      <c r="AH59" s="311"/>
+      <c r="U59" s="398"/>
+      <c r="V59" s="337"/>
+      <c r="W59" s="338"/>
+      <c r="X59" s="338"/>
+      <c r="Y59" s="338"/>
+      <c r="Z59" s="338"/>
+      <c r="AA59" s="338"/>
+      <c r="AB59" s="338"/>
+      <c r="AC59" s="338"/>
+      <c r="AD59" s="338"/>
+      <c r="AE59" s="338"/>
+      <c r="AF59" s="338"/>
+      <c r="AG59" s="338"/>
+      <c r="AH59" s="339"/>
       <c r="AK59" s="105"/>
       <c r="AL59" s="105"/>
       <c r="AM59" s="105"/>
@@ -9366,20 +9367,20 @@
       <c r="D60" s="142">
         <v>1</v>
       </c>
-      <c r="E60" s="380" t="s">
+      <c r="E60" s="309" t="s">
         <v>143</v>
       </c>
-      <c r="F60" s="381"/>
-      <c r="G60" s="381"/>
-      <c r="H60" s="381"/>
-      <c r="I60" s="381"/>
-      <c r="J60" s="382"/>
-      <c r="K60" s="352" t="s">
+      <c r="F60" s="310"/>
+      <c r="G60" s="310"/>
+      <c r="H60" s="310"/>
+      <c r="I60" s="310"/>
+      <c r="J60" s="311"/>
+      <c r="K60" s="345" t="s">
         <v>91</v>
       </c>
-      <c r="L60" s="324"/>
-      <c r="M60" s="324"/>
-      <c r="N60" s="325"/>
+      <c r="L60" s="299"/>
+      <c r="M60" s="299"/>
+      <c r="N60" s="300"/>
       <c r="O60" s="137" t="s">
         <v>92</v>
       </c>
@@ -9395,25 +9396,25 @@
       <c r="S60" s="162" t="s">
         <v>89</v>
       </c>
-      <c r="T60" s="378" t="s">
+      <c r="T60" s="343" t="s">
         <v>89</v>
       </c>
-      <c r="U60" s="379"/>
-      <c r="V60" s="352" t="s">
+      <c r="U60" s="344"/>
+      <c r="V60" s="345" t="s">
         <v>79</v>
       </c>
-      <c r="W60" s="324"/>
-      <c r="X60" s="324"/>
-      <c r="Y60" s="324"/>
-      <c r="Z60" s="324"/>
-      <c r="AA60" s="324"/>
-      <c r="AB60" s="324"/>
-      <c r="AC60" s="324"/>
-      <c r="AD60" s="324"/>
-      <c r="AE60" s="324"/>
-      <c r="AF60" s="324"/>
-      <c r="AG60" s="324"/>
-      <c r="AH60" s="325"/>
+      <c r="W60" s="299"/>
+      <c r="X60" s="299"/>
+      <c r="Y60" s="299"/>
+      <c r="Z60" s="299"/>
+      <c r="AA60" s="299"/>
+      <c r="AB60" s="299"/>
+      <c r="AC60" s="299"/>
+      <c r="AD60" s="299"/>
+      <c r="AE60" s="299"/>
+      <c r="AF60" s="299"/>
+      <c r="AG60" s="299"/>
+      <c r="AH60" s="300"/>
       <c r="AK60" s="105"/>
       <c r="AL60" s="105"/>
       <c r="AM60" s="105"/>
@@ -9440,12 +9441,12 @@
       <c r="H61" s="199"/>
       <c r="I61" s="199"/>
       <c r="J61" s="199"/>
-      <c r="K61" s="352" t="s">
+      <c r="K61" s="345" t="s">
         <v>91</v>
       </c>
-      <c r="L61" s="324"/>
-      <c r="M61" s="324"/>
-      <c r="N61" s="325"/>
+      <c r="L61" s="299"/>
+      <c r="M61" s="299"/>
+      <c r="N61" s="300"/>
       <c r="O61" s="137" t="s">
         <v>92</v>
       </c>
@@ -9461,25 +9462,25 @@
       <c r="S61" s="176" t="s">
         <v>89</v>
       </c>
-      <c r="T61" s="378" t="s">
+      <c r="T61" s="343" t="s">
         <v>89</v>
       </c>
-      <c r="U61" s="379"/>
-      <c r="V61" s="352" t="s">
+      <c r="U61" s="344"/>
+      <c r="V61" s="345" t="s">
         <v>79</v>
       </c>
-      <c r="W61" s="324"/>
-      <c r="X61" s="324"/>
-      <c r="Y61" s="324"/>
-      <c r="Z61" s="324"/>
-      <c r="AA61" s="324"/>
-      <c r="AB61" s="324"/>
-      <c r="AC61" s="324"/>
-      <c r="AD61" s="324"/>
-      <c r="AE61" s="324"/>
-      <c r="AF61" s="324"/>
-      <c r="AG61" s="324"/>
-      <c r="AH61" s="325"/>
+      <c r="W61" s="299"/>
+      <c r="X61" s="299"/>
+      <c r="Y61" s="299"/>
+      <c r="Z61" s="299"/>
+      <c r="AA61" s="299"/>
+      <c r="AB61" s="299"/>
+      <c r="AC61" s="299"/>
+      <c r="AD61" s="299"/>
+      <c r="AE61" s="299"/>
+      <c r="AF61" s="299"/>
+      <c r="AG61" s="299"/>
+      <c r="AH61" s="300"/>
       <c r="AK61" s="105"/>
       <c r="AL61" s="105"/>
       <c r="AM61" s="105"/>
@@ -9605,181 +9606,181 @@
       <c r="D66" s="144" t="s">
         <v>11</v>
       </c>
-      <c r="E66" s="295" t="s">
+      <c r="E66" s="340" t="s">
         <v>72</v>
       </c>
-      <c r="F66" s="296"/>
-      <c r="G66" s="296"/>
-      <c r="H66" s="296"/>
-      <c r="I66" s="296"/>
-      <c r="J66" s="377"/>
-      <c r="K66" s="295" t="s">
+      <c r="F66" s="341"/>
+      <c r="G66" s="341"/>
+      <c r="H66" s="341"/>
+      <c r="I66" s="341"/>
+      <c r="J66" s="342"/>
+      <c r="K66" s="340" t="s">
         <v>38</v>
       </c>
-      <c r="L66" s="296"/>
-      <c r="M66" s="296"/>
-      <c r="N66" s="296"/>
-      <c r="O66" s="296"/>
-      <c r="P66" s="296"/>
-      <c r="Q66" s="297"/>
+      <c r="L66" s="341"/>
+      <c r="M66" s="341"/>
+      <c r="N66" s="341"/>
+      <c r="O66" s="341"/>
+      <c r="P66" s="341"/>
+      <c r="Q66" s="346"/>
       <c r="R66" s="288" t="s">
         <v>73</v>
       </c>
-      <c r="S66" s="296"/>
-      <c r="T66" s="296"/>
-      <c r="U66" s="296"/>
-      <c r="V66" s="296"/>
-      <c r="W66" s="296"/>
-      <c r="X66" s="296"/>
-      <c r="Y66" s="297"/>
-      <c r="Z66" s="334" t="s">
+      <c r="S66" s="341"/>
+      <c r="T66" s="341"/>
+      <c r="U66" s="341"/>
+      <c r="V66" s="341"/>
+      <c r="W66" s="341"/>
+      <c r="X66" s="341"/>
+      <c r="Y66" s="346"/>
+      <c r="Z66" s="352" t="s">
         <v>26</v>
       </c>
-      <c r="AA66" s="335"/>
-      <c r="AB66" s="335"/>
-      <c r="AC66" s="335"/>
-      <c r="AD66" s="336"/>
-      <c r="AE66" s="331" t="s">
+      <c r="AA66" s="353"/>
+      <c r="AB66" s="353"/>
+      <c r="AC66" s="353"/>
+      <c r="AD66" s="354"/>
+      <c r="AE66" s="389" t="s">
         <v>129</v>
       </c>
-      <c r="AF66" s="332"/>
-      <c r="AG66" s="332"/>
-      <c r="AH66" s="333"/>
+      <c r="AF66" s="390"/>
+      <c r="AG66" s="390"/>
+      <c r="AH66" s="391"/>
     </row>
     <row r="67" spans="1:58" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D67" s="145">
         <v>1</v>
       </c>
-      <c r="E67" s="344" t="s">
+      <c r="E67" s="359" t="s">
         <v>94</v>
       </c>
-      <c r="F67" s="322"/>
-      <c r="G67" s="322"/>
-      <c r="H67" s="322"/>
-      <c r="I67" s="322"/>
-      <c r="J67" s="323"/>
-      <c r="K67" s="352" t="s">
+      <c r="F67" s="360"/>
+      <c r="G67" s="360"/>
+      <c r="H67" s="360"/>
+      <c r="I67" s="360"/>
+      <c r="J67" s="361"/>
+      <c r="K67" s="345" t="s">
         <v>95</v>
       </c>
-      <c r="L67" s="324"/>
-      <c r="M67" s="324"/>
-      <c r="N67" s="324"/>
-      <c r="O67" s="324"/>
-      <c r="P67" s="324"/>
-      <c r="Q67" s="325"/>
-      <c r="R67" s="223" t="s">
+      <c r="L67" s="299"/>
+      <c r="M67" s="299"/>
+      <c r="N67" s="299"/>
+      <c r="O67" s="299"/>
+      <c r="P67" s="299"/>
+      <c r="Q67" s="300"/>
+      <c r="R67" s="216" t="s">
         <v>145</v>
       </c>
-      <c r="S67" s="324"/>
-      <c r="T67" s="324"/>
-      <c r="U67" s="324"/>
-      <c r="V67" s="324"/>
-      <c r="W67" s="324"/>
-      <c r="X67" s="324"/>
-      <c r="Y67" s="325"/>
-      <c r="Z67" s="352" t="s">
+      <c r="S67" s="299"/>
+      <c r="T67" s="299"/>
+      <c r="U67" s="299"/>
+      <c r="V67" s="299"/>
+      <c r="W67" s="299"/>
+      <c r="X67" s="299"/>
+      <c r="Y67" s="300"/>
+      <c r="Z67" s="345" t="s">
         <v>93</v>
       </c>
-      <c r="AA67" s="324"/>
-      <c r="AB67" s="324"/>
-      <c r="AC67" s="324"/>
-      <c r="AD67" s="325"/>
-      <c r="AE67" s="326" t="s">
+      <c r="AA67" s="299"/>
+      <c r="AB67" s="299"/>
+      <c r="AC67" s="299"/>
+      <c r="AD67" s="300"/>
+      <c r="AE67" s="386" t="s">
         <v>71</v>
       </c>
-      <c r="AF67" s="327"/>
-      <c r="AG67" s="327"/>
-      <c r="AH67" s="328"/>
+      <c r="AF67" s="387"/>
+      <c r="AG67" s="387"/>
+      <c r="AH67" s="388"/>
     </row>
     <row r="68" spans="1:58" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D68" s="145">
         <v>2</v>
       </c>
-      <c r="E68" s="321" t="s">
+      <c r="E68" s="369" t="s">
         <v>138</v>
       </c>
-      <c r="F68" s="322"/>
-      <c r="G68" s="322"/>
-      <c r="H68" s="322"/>
-      <c r="I68" s="322"/>
-      <c r="J68" s="323"/>
-      <c r="K68" s="223" t="s">
+      <c r="F68" s="360"/>
+      <c r="G68" s="360"/>
+      <c r="H68" s="360"/>
+      <c r="I68" s="360"/>
+      <c r="J68" s="361"/>
+      <c r="K68" s="216" t="s">
         <v>144</v>
       </c>
-      <c r="L68" s="324"/>
-      <c r="M68" s="324"/>
-      <c r="N68" s="324"/>
-      <c r="O68" s="324"/>
-      <c r="P68" s="324"/>
-      <c r="Q68" s="325"/>
-      <c r="R68" s="223" t="s">
+      <c r="L68" s="299"/>
+      <c r="M68" s="299"/>
+      <c r="N68" s="299"/>
+      <c r="O68" s="299"/>
+      <c r="P68" s="299"/>
+      <c r="Q68" s="300"/>
+      <c r="R68" s="216" t="s">
         <v>146</v>
       </c>
-      <c r="S68" s="324"/>
-      <c r="T68" s="324"/>
-      <c r="U68" s="324"/>
-      <c r="V68" s="324"/>
-      <c r="W68" s="324"/>
-      <c r="X68" s="324"/>
-      <c r="Y68" s="325"/>
-      <c r="Z68" s="223" t="s">
+      <c r="S68" s="299"/>
+      <c r="T68" s="299"/>
+      <c r="U68" s="299"/>
+      <c r="V68" s="299"/>
+      <c r="W68" s="299"/>
+      <c r="X68" s="299"/>
+      <c r="Y68" s="300"/>
+      <c r="Z68" s="216" t="s">
         <v>161</v>
       </c>
-      <c r="AA68" s="324"/>
-      <c r="AB68" s="324"/>
-      <c r="AC68" s="324"/>
-      <c r="AD68" s="325"/>
-      <c r="AE68" s="326" t="s">
+      <c r="AA68" s="299"/>
+      <c r="AB68" s="299"/>
+      <c r="AC68" s="299"/>
+      <c r="AD68" s="300"/>
+      <c r="AE68" s="386" t="s">
         <v>71</v>
       </c>
-      <c r="AF68" s="327"/>
-      <c r="AG68" s="327"/>
-      <c r="AH68" s="328"/>
+      <c r="AF68" s="387"/>
+      <c r="AG68" s="387"/>
+      <c r="AH68" s="388"/>
     </row>
     <row r="69" spans="1:58" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D69" s="145">
         <v>3</v>
       </c>
-      <c r="E69" s="321" t="s">
+      <c r="E69" s="369" t="s">
         <v>197</v>
       </c>
-      <c r="F69" s="322"/>
-      <c r="G69" s="322"/>
-      <c r="H69" s="322"/>
-      <c r="I69" s="322"/>
-      <c r="J69" s="323"/>
-      <c r="K69" s="223" t="s">
+      <c r="F69" s="360"/>
+      <c r="G69" s="360"/>
+      <c r="H69" s="360"/>
+      <c r="I69" s="360"/>
+      <c r="J69" s="361"/>
+      <c r="K69" s="216" t="s">
         <v>198</v>
       </c>
-      <c r="L69" s="324"/>
-      <c r="M69" s="324"/>
-      <c r="N69" s="324"/>
-      <c r="O69" s="324"/>
-      <c r="P69" s="324"/>
-      <c r="Q69" s="325"/>
-      <c r="R69" s="223" t="s">
+      <c r="L69" s="299"/>
+      <c r="M69" s="299"/>
+      <c r="N69" s="299"/>
+      <c r="O69" s="299"/>
+      <c r="P69" s="299"/>
+      <c r="Q69" s="300"/>
+      <c r="R69" s="216" t="s">
         <v>199</v>
       </c>
-      <c r="S69" s="324"/>
-      <c r="T69" s="324"/>
-      <c r="U69" s="324"/>
-      <c r="V69" s="324"/>
-      <c r="W69" s="324"/>
-      <c r="X69" s="324"/>
-      <c r="Y69" s="325"/>
-      <c r="Z69" s="223" t="s">
+      <c r="S69" s="299"/>
+      <c r="T69" s="299"/>
+      <c r="U69" s="299"/>
+      <c r="V69" s="299"/>
+      <c r="W69" s="299"/>
+      <c r="X69" s="299"/>
+      <c r="Y69" s="300"/>
+      <c r="Z69" s="216" t="s">
         <v>138</v>
       </c>
-      <c r="AA69" s="324"/>
-      <c r="AB69" s="324"/>
-      <c r="AC69" s="324"/>
-      <c r="AD69" s="325"/>
-      <c r="AE69" s="326" t="s">
+      <c r="AA69" s="299"/>
+      <c r="AB69" s="299"/>
+      <c r="AC69" s="299"/>
+      <c r="AD69" s="300"/>
+      <c r="AE69" s="386" t="s">
         <v>71</v>
       </c>
-      <c r="AF69" s="327"/>
-      <c r="AG69" s="327"/>
-      <c r="AH69" s="328"/>
+      <c r="AF69" s="387"/>
+      <c r="AG69" s="387"/>
+      <c r="AH69" s="388"/>
     </row>
     <row r="70" spans="1:58" s="108" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D70" s="128"/>
@@ -10226,40 +10227,40 @@
       <c r="G89" s="288" t="s">
         <v>68</v>
       </c>
-      <c r="H89" s="296"/>
-      <c r="I89" s="296"/>
-      <c r="J89" s="296"/>
-      <c r="K89" s="296"/>
-      <c r="L89" s="297"/>
-      <c r="M89" s="317" t="s">
+      <c r="H89" s="341"/>
+      <c r="I89" s="341"/>
+      <c r="J89" s="341"/>
+      <c r="K89" s="341"/>
+      <c r="L89" s="346"/>
+      <c r="M89" s="400" t="s">
         <v>76</v>
       </c>
-      <c r="N89" s="296"/>
-      <c r="O89" s="296"/>
-      <c r="P89" s="296"/>
-      <c r="Q89" s="296"/>
-      <c r="R89" s="296"/>
-      <c r="S89" s="296"/>
-      <c r="T89" s="296"/>
-      <c r="U89" s="296"/>
-      <c r="V89" s="297"/>
-      <c r="W89" s="353" t="s">
+      <c r="N89" s="341"/>
+      <c r="O89" s="341"/>
+      <c r="P89" s="341"/>
+      <c r="Q89" s="341"/>
+      <c r="R89" s="341"/>
+      <c r="S89" s="341"/>
+      <c r="T89" s="341"/>
+      <c r="U89" s="341"/>
+      <c r="V89" s="346"/>
+      <c r="W89" s="368" t="s">
         <v>162</v>
       </c>
-      <c r="X89" s="349"/>
-      <c r="Y89" s="350"/>
-      <c r="Z89" s="348" t="s">
+      <c r="X89" s="366"/>
+      <c r="Y89" s="367"/>
+      <c r="Z89" s="365" t="s">
         <v>77</v>
       </c>
-      <c r="AA89" s="349"/>
-      <c r="AB89" s="349"/>
-      <c r="AC89" s="350"/>
-      <c r="AD89" s="363" t="s">
+      <c r="AA89" s="366"/>
+      <c r="AB89" s="366"/>
+      <c r="AC89" s="367"/>
+      <c r="AD89" s="377" t="s">
         <v>130</v>
       </c>
-      <c r="AE89" s="364"/>
-      <c r="AF89" s="364"/>
-      <c r="AG89" s="365"/>
+      <c r="AE89" s="378"/>
+      <c r="AF89" s="378"/>
+      <c r="AG89" s="379"/>
       <c r="AJ89" s="125"/>
       <c r="AK89" s="125"/>
       <c r="AL89" s="125"/>
@@ -10289,43 +10290,43 @@
       <c r="F90" s="148">
         <v>1</v>
       </c>
-      <c r="G90" s="314" t="s">
+      <c r="G90" s="399" t="s">
         <v>70</v>
       </c>
-      <c r="H90" s="315"/>
-      <c r="I90" s="315"/>
-      <c r="J90" s="315"/>
-      <c r="K90" s="315"/>
-      <c r="L90" s="316"/>
-      <c r="M90" s="351" t="s">
+      <c r="H90" s="356"/>
+      <c r="I90" s="356"/>
+      <c r="J90" s="356"/>
+      <c r="K90" s="356"/>
+      <c r="L90" s="357"/>
+      <c r="M90" s="355" t="s">
         <v>86</v>
       </c>
-      <c r="N90" s="315"/>
-      <c r="O90" s="315"/>
-      <c r="P90" s="315"/>
-      <c r="Q90" s="315"/>
-      <c r="R90" s="315"/>
-      <c r="S90" s="315"/>
-      <c r="T90" s="315"/>
-      <c r="U90" s="315"/>
-      <c r="V90" s="316"/>
-      <c r="W90" s="318" t="s">
+      <c r="N90" s="356"/>
+      <c r="O90" s="356"/>
+      <c r="P90" s="356"/>
+      <c r="Q90" s="356"/>
+      <c r="R90" s="356"/>
+      <c r="S90" s="356"/>
+      <c r="T90" s="356"/>
+      <c r="U90" s="356"/>
+      <c r="V90" s="357"/>
+      <c r="W90" s="401" t="s">
         <v>132</v>
       </c>
-      <c r="X90" s="319"/>
-      <c r="Y90" s="320"/>
-      <c r="Z90" s="345" t="s">
+      <c r="X90" s="402"/>
+      <c r="Y90" s="403"/>
+      <c r="Z90" s="362" t="s">
         <v>131</v>
       </c>
-      <c r="AA90" s="346"/>
-      <c r="AB90" s="346"/>
-      <c r="AC90" s="347"/>
-      <c r="AD90" s="351" t="s">
+      <c r="AA90" s="363"/>
+      <c r="AB90" s="363"/>
+      <c r="AC90" s="364"/>
+      <c r="AD90" s="355" t="s">
         <v>120</v>
       </c>
-      <c r="AE90" s="315"/>
-      <c r="AF90" s="315"/>
-      <c r="AG90" s="316"/>
+      <c r="AE90" s="356"/>
+      <c r="AF90" s="356"/>
+      <c r="AG90" s="357"/>
       <c r="AI90" s="125"/>
       <c r="AJ90" s="125"/>
       <c r="AK90" s="125"/>
@@ -10473,70 +10474,70 @@
       </c>
     </row>
     <row r="99" spans="6:58" s="108" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="G99" s="298" t="s">
+      <c r="G99" s="306" t="s">
         <v>99</v>
       </c>
-      <c r="H99" s="299"/>
-      <c r="I99" s="299"/>
-      <c r="J99" s="299"/>
-      <c r="K99" s="299"/>
-      <c r="L99" s="299"/>
-      <c r="M99" s="299"/>
-      <c r="N99" s="299"/>
-      <c r="O99" s="299"/>
-      <c r="P99" s="300"/>
-      <c r="Q99" s="301" t="s">
+      <c r="H99" s="307"/>
+      <c r="I99" s="307"/>
+      <c r="J99" s="307"/>
+      <c r="K99" s="307"/>
+      <c r="L99" s="307"/>
+      <c r="M99" s="307"/>
+      <c r="N99" s="307"/>
+      <c r="O99" s="307"/>
+      <c r="P99" s="308"/>
+      <c r="Q99" s="392" t="s">
         <v>100</v>
       </c>
-      <c r="R99" s="302"/>
-      <c r="S99" s="302"/>
-      <c r="T99" s="302"/>
-      <c r="U99" s="302"/>
-      <c r="V99" s="302"/>
-      <c r="W99" s="302"/>
-      <c r="X99" s="302"/>
-      <c r="Y99" s="302"/>
-      <c r="Z99" s="303"/>
+      <c r="R99" s="393"/>
+      <c r="S99" s="393"/>
+      <c r="T99" s="393"/>
+      <c r="U99" s="393"/>
+      <c r="V99" s="393"/>
+      <c r="W99" s="393"/>
+      <c r="X99" s="393"/>
+      <c r="Y99" s="393"/>
+      <c r="Z99" s="394"/>
     </row>
     <row r="100" spans="6:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G100" s="391" t="s">
+      <c r="G100" s="312" t="s">
         <v>143</v>
       </c>
-      <c r="H100" s="392"/>
-      <c r="I100" s="392"/>
-      <c r="J100" s="392"/>
-      <c r="K100" s="392"/>
-      <c r="L100" s="392"/>
-      <c r="M100" s="392"/>
-      <c r="N100" s="392"/>
-      <c r="O100" s="392"/>
-      <c r="P100" s="393"/>
-      <c r="Q100" s="380" t="s">
+      <c r="H100" s="313"/>
+      <c r="I100" s="313"/>
+      <c r="J100" s="313"/>
+      <c r="K100" s="313"/>
+      <c r="L100" s="313"/>
+      <c r="M100" s="313"/>
+      <c r="N100" s="313"/>
+      <c r="O100" s="313"/>
+      <c r="P100" s="314"/>
+      <c r="Q100" s="309" t="s">
         <v>169</v>
       </c>
-      <c r="R100" s="381"/>
-      <c r="S100" s="381"/>
-      <c r="T100" s="381"/>
-      <c r="U100" s="381"/>
-      <c r="V100" s="381"/>
-      <c r="W100" s="381"/>
-      <c r="X100" s="381"/>
-      <c r="Y100" s="381"/>
-      <c r="Z100" s="382"/>
+      <c r="R100" s="310"/>
+      <c r="S100" s="310"/>
+      <c r="T100" s="310"/>
+      <c r="U100" s="310"/>
+      <c r="V100" s="310"/>
+      <c r="W100" s="310"/>
+      <c r="X100" s="310"/>
+      <c r="Y100" s="310"/>
+      <c r="Z100" s="311"/>
       <c r="AG100" s="109"/>
       <c r="AH100" s="109"/>
     </row>
     <row r="101" spans="6:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G101" s="400"/>
-      <c r="H101" s="401"/>
-      <c r="I101" s="401"/>
-      <c r="J101" s="401"/>
-      <c r="K101" s="401"/>
-      <c r="L101" s="401"/>
-      <c r="M101" s="401"/>
-      <c r="N101" s="401"/>
-      <c r="O101" s="401"/>
-      <c r="P101" s="402"/>
+      <c r="G101" s="321"/>
+      <c r="H101" s="322"/>
+      <c r="I101" s="322"/>
+      <c r="J101" s="322"/>
+      <c r="K101" s="322"/>
+      <c r="L101" s="322"/>
+      <c r="M101" s="322"/>
+      <c r="N101" s="322"/>
+      <c r="O101" s="322"/>
+      <c r="P101" s="323"/>
       <c r="Q101" s="190" t="s">
         <v>168</v>
       </c>
@@ -10553,16 +10554,16 @@
       <c r="AH101" s="109"/>
     </row>
     <row r="102" spans="6:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G102" s="400"/>
-      <c r="H102" s="401"/>
-      <c r="I102" s="401"/>
-      <c r="J102" s="401"/>
-      <c r="K102" s="401"/>
-      <c r="L102" s="401"/>
-      <c r="M102" s="401"/>
-      <c r="N102" s="401"/>
-      <c r="O102" s="401"/>
-      <c r="P102" s="402"/>
+      <c r="G102" s="321"/>
+      <c r="H102" s="322"/>
+      <c r="I102" s="322"/>
+      <c r="J102" s="322"/>
+      <c r="K102" s="322"/>
+      <c r="L102" s="322"/>
+      <c r="M102" s="322"/>
+      <c r="N102" s="322"/>
+      <c r="O102" s="322"/>
+      <c r="P102" s="323"/>
       <c r="Q102" s="174" t="s">
         <v>142</v>
       </c>
@@ -10579,16 +10580,16 @@
       <c r="AH102" s="109"/>
     </row>
     <row r="103" spans="6:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G103" s="400"/>
-      <c r="H103" s="401"/>
-      <c r="I103" s="401"/>
-      <c r="J103" s="401"/>
-      <c r="K103" s="401"/>
-      <c r="L103" s="401"/>
-      <c r="M103" s="401"/>
-      <c r="N103" s="401"/>
-      <c r="O103" s="401"/>
-      <c r="P103" s="402"/>
+      <c r="G103" s="321"/>
+      <c r="H103" s="322"/>
+      <c r="I103" s="322"/>
+      <c r="J103" s="322"/>
+      <c r="K103" s="322"/>
+      <c r="L103" s="322"/>
+      <c r="M103" s="322"/>
+      <c r="N103" s="322"/>
+      <c r="O103" s="322"/>
+      <c r="P103" s="323"/>
       <c r="Q103" s="174" t="s">
         <v>156</v>
       </c>
@@ -10605,54 +10606,54 @@
       <c r="AH103" s="109"/>
     </row>
     <row r="104" spans="6:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G104" s="400"/>
-      <c r="H104" s="401"/>
-      <c r="I104" s="401"/>
-      <c r="J104" s="401"/>
-      <c r="K104" s="401"/>
-      <c r="L104" s="401"/>
-      <c r="M104" s="401"/>
-      <c r="N104" s="401"/>
-      <c r="O104" s="401"/>
-      <c r="P104" s="402"/>
-      <c r="Q104" s="380" t="s">
+      <c r="G104" s="321"/>
+      <c r="H104" s="322"/>
+      <c r="I104" s="322"/>
+      <c r="J104" s="322"/>
+      <c r="K104" s="322"/>
+      <c r="L104" s="322"/>
+      <c r="M104" s="322"/>
+      <c r="N104" s="322"/>
+      <c r="O104" s="322"/>
+      <c r="P104" s="323"/>
+      <c r="Q104" s="309" t="s">
         <v>153</v>
       </c>
-      <c r="R104" s="381"/>
-      <c r="S104" s="381"/>
-      <c r="T104" s="381"/>
-      <c r="U104" s="381"/>
-      <c r="V104" s="381"/>
-      <c r="W104" s="381"/>
-      <c r="X104" s="381"/>
-      <c r="Y104" s="381"/>
-      <c r="Z104" s="382"/>
+      <c r="R104" s="310"/>
+      <c r="S104" s="310"/>
+      <c r="T104" s="310"/>
+      <c r="U104" s="310"/>
+      <c r="V104" s="310"/>
+      <c r="W104" s="310"/>
+      <c r="X104" s="310"/>
+      <c r="Y104" s="310"/>
+      <c r="Z104" s="311"/>
       <c r="AG104" s="109"/>
       <c r="AH104" s="109"/>
     </row>
     <row r="105" spans="6:58" x14ac:dyDescent="0.15">
-      <c r="G105" s="403"/>
-      <c r="H105" s="401"/>
-      <c r="I105" s="401"/>
-      <c r="J105" s="401"/>
-      <c r="K105" s="401"/>
-      <c r="L105" s="401"/>
-      <c r="M105" s="401"/>
-      <c r="N105" s="401"/>
-      <c r="O105" s="401"/>
-      <c r="P105" s="402"/>
-      <c r="Q105" s="380" t="s">
+      <c r="G105" s="324"/>
+      <c r="H105" s="322"/>
+      <c r="I105" s="322"/>
+      <c r="J105" s="322"/>
+      <c r="K105" s="322"/>
+      <c r="L105" s="322"/>
+      <c r="M105" s="322"/>
+      <c r="N105" s="322"/>
+      <c r="O105" s="322"/>
+      <c r="P105" s="323"/>
+      <c r="Q105" s="309" t="s">
         <v>154</v>
       </c>
-      <c r="R105" s="381"/>
-      <c r="S105" s="381"/>
-      <c r="T105" s="381"/>
-      <c r="U105" s="381"/>
-      <c r="V105" s="381"/>
-      <c r="W105" s="381"/>
-      <c r="X105" s="381"/>
-      <c r="Y105" s="381"/>
-      <c r="Z105" s="382"/>
+      <c r="R105" s="310"/>
+      <c r="S105" s="310"/>
+      <c r="T105" s="310"/>
+      <c r="U105" s="310"/>
+      <c r="V105" s="310"/>
+      <c r="W105" s="310"/>
+      <c r="X105" s="310"/>
+      <c r="Y105" s="310"/>
+      <c r="Z105" s="311"/>
       <c r="AC105" s="110"/>
       <c r="AD105" s="110"/>
       <c r="AE105" s="110"/>
@@ -10671,28 +10672,28 @@
       <c r="AY105" s="110"/>
     </row>
     <row r="106" spans="6:58" x14ac:dyDescent="0.15">
-      <c r="G106" s="397" t="s">
+      <c r="G106" s="318" t="s">
         <v>101</v>
       </c>
-      <c r="H106" s="398"/>
-      <c r="I106" s="398"/>
-      <c r="J106" s="398"/>
-      <c r="K106" s="398"/>
-      <c r="L106" s="398"/>
-      <c r="M106" s="398"/>
-      <c r="N106" s="398"/>
-      <c r="O106" s="398"/>
-      <c r="P106" s="398"/>
-      <c r="Q106" s="398"/>
-      <c r="R106" s="398"/>
-      <c r="S106" s="398"/>
-      <c r="T106" s="398"/>
-      <c r="U106" s="398"/>
-      <c r="V106" s="398"/>
-      <c r="W106" s="398"/>
-      <c r="X106" s="398"/>
-      <c r="Y106" s="398"/>
-      <c r="Z106" s="399"/>
+      <c r="H106" s="319"/>
+      <c r="I106" s="319"/>
+      <c r="J106" s="319"/>
+      <c r="K106" s="319"/>
+      <c r="L106" s="319"/>
+      <c r="M106" s="319"/>
+      <c r="N106" s="319"/>
+      <c r="O106" s="319"/>
+      <c r="P106" s="319"/>
+      <c r="Q106" s="319"/>
+      <c r="R106" s="319"/>
+      <c r="S106" s="319"/>
+      <c r="T106" s="319"/>
+      <c r="U106" s="319"/>
+      <c r="V106" s="319"/>
+      <c r="W106" s="319"/>
+      <c r="X106" s="319"/>
+      <c r="Y106" s="319"/>
+      <c r="Z106" s="320"/>
       <c r="AJ106" s="110"/>
       <c r="AK106" s="110"/>
       <c r="AL106" s="110"/>
@@ -10997,56 +10998,56 @@
       </c>
     </row>
     <row r="115" spans="4:58" s="108" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="G115" s="298" t="s">
+      <c r="G115" s="306" t="s">
         <v>99</v>
       </c>
-      <c r="H115" s="299"/>
-      <c r="I115" s="299"/>
-      <c r="J115" s="299"/>
-      <c r="K115" s="299"/>
-      <c r="L115" s="299"/>
-      <c r="M115" s="299"/>
-      <c r="N115" s="299"/>
-      <c r="O115" s="299"/>
-      <c r="P115" s="300"/>
-      <c r="Q115" s="301" t="s">
+      <c r="H115" s="307"/>
+      <c r="I115" s="307"/>
+      <c r="J115" s="307"/>
+      <c r="K115" s="307"/>
+      <c r="L115" s="307"/>
+      <c r="M115" s="307"/>
+      <c r="N115" s="307"/>
+      <c r="O115" s="307"/>
+      <c r="P115" s="308"/>
+      <c r="Q115" s="392" t="s">
         <v>100</v>
       </c>
-      <c r="R115" s="302"/>
-      <c r="S115" s="302"/>
-      <c r="T115" s="302"/>
-      <c r="U115" s="302"/>
-      <c r="V115" s="302"/>
-      <c r="W115" s="302"/>
-      <c r="X115" s="302"/>
-      <c r="Y115" s="302"/>
-      <c r="Z115" s="303"/>
+      <c r="R115" s="393"/>
+      <c r="S115" s="393"/>
+      <c r="T115" s="393"/>
+      <c r="U115" s="393"/>
+      <c r="V115" s="393"/>
+      <c r="W115" s="393"/>
+      <c r="X115" s="393"/>
+      <c r="Y115" s="393"/>
+      <c r="Z115" s="394"/>
     </row>
     <row r="116" spans="4:58" x14ac:dyDescent="0.15">
-      <c r="G116" s="391" t="s">
+      <c r="G116" s="312" t="s">
         <v>181</v>
       </c>
-      <c r="H116" s="392"/>
-      <c r="I116" s="392"/>
-      <c r="J116" s="392"/>
-      <c r="K116" s="392"/>
-      <c r="L116" s="392"/>
-      <c r="M116" s="392"/>
-      <c r="N116" s="392"/>
-      <c r="O116" s="392"/>
-      <c r="P116" s="393"/>
-      <c r="Q116" s="380" t="s">
+      <c r="H116" s="313"/>
+      <c r="I116" s="313"/>
+      <c r="J116" s="313"/>
+      <c r="K116" s="313"/>
+      <c r="L116" s="313"/>
+      <c r="M116" s="313"/>
+      <c r="N116" s="313"/>
+      <c r="O116" s="313"/>
+      <c r="P116" s="314"/>
+      <c r="Q116" s="309" t="s">
         <v>182</v>
       </c>
-      <c r="R116" s="381"/>
-      <c r="S116" s="381"/>
-      <c r="T116" s="381"/>
-      <c r="U116" s="381"/>
-      <c r="V116" s="381"/>
-      <c r="W116" s="381"/>
-      <c r="X116" s="381"/>
-      <c r="Y116" s="381"/>
-      <c r="Z116" s="382"/>
+      <c r="R116" s="310"/>
+      <c r="S116" s="310"/>
+      <c r="T116" s="310"/>
+      <c r="U116" s="310"/>
+      <c r="V116" s="310"/>
+      <c r="W116" s="310"/>
+      <c r="X116" s="310"/>
+      <c r="Y116" s="310"/>
+      <c r="Z116" s="311"/>
       <c r="AC116" s="110"/>
       <c r="AD116" s="110"/>
       <c r="AE116" s="110"/>
@@ -11065,28 +11066,28 @@
       <c r="AY116" s="110"/>
     </row>
     <row r="117" spans="4:58" x14ac:dyDescent="0.15">
-      <c r="G117" s="394"/>
-      <c r="H117" s="395"/>
-      <c r="I117" s="395"/>
-      <c r="J117" s="395"/>
-      <c r="K117" s="395"/>
-      <c r="L117" s="395"/>
-      <c r="M117" s="395"/>
-      <c r="N117" s="395"/>
-      <c r="O117" s="395"/>
-      <c r="P117" s="396"/>
-      <c r="Q117" s="380" t="s">
+      <c r="G117" s="315"/>
+      <c r="H117" s="316"/>
+      <c r="I117" s="316"/>
+      <c r="J117" s="316"/>
+      <c r="K117" s="316"/>
+      <c r="L117" s="316"/>
+      <c r="M117" s="316"/>
+      <c r="N117" s="316"/>
+      <c r="O117" s="316"/>
+      <c r="P117" s="317"/>
+      <c r="Q117" s="309" t="s">
         <v>183</v>
       </c>
-      <c r="R117" s="381"/>
-      <c r="S117" s="381"/>
-      <c r="T117" s="381"/>
-      <c r="U117" s="381"/>
-      <c r="V117" s="381"/>
-      <c r="W117" s="381"/>
-      <c r="X117" s="381"/>
-      <c r="Y117" s="381"/>
-      <c r="Z117" s="382"/>
+      <c r="R117" s="310"/>
+      <c r="S117" s="310"/>
+      <c r="T117" s="310"/>
+      <c r="U117" s="310"/>
+      <c r="V117" s="310"/>
+      <c r="W117" s="310"/>
+      <c r="X117" s="310"/>
+      <c r="Y117" s="310"/>
+      <c r="Z117" s="311"/>
       <c r="AC117" s="110"/>
       <c r="AD117" s="110"/>
       <c r="AE117" s="110"/>
@@ -11105,28 +11106,28 @@
       <c r="AY117" s="110"/>
     </row>
     <row r="118" spans="4:58" x14ac:dyDescent="0.15">
-      <c r="G118" s="397" t="s">
+      <c r="G118" s="318" t="s">
         <v>101</v>
       </c>
-      <c r="H118" s="398"/>
-      <c r="I118" s="398"/>
-      <c r="J118" s="398"/>
-      <c r="K118" s="398"/>
-      <c r="L118" s="398"/>
-      <c r="M118" s="398"/>
-      <c r="N118" s="398"/>
-      <c r="O118" s="398"/>
-      <c r="P118" s="398"/>
-      <c r="Q118" s="398"/>
-      <c r="R118" s="398"/>
-      <c r="S118" s="398"/>
-      <c r="T118" s="398"/>
-      <c r="U118" s="398"/>
-      <c r="V118" s="398"/>
-      <c r="W118" s="398"/>
-      <c r="X118" s="398"/>
-      <c r="Y118" s="398"/>
-      <c r="Z118" s="399"/>
+      <c r="H118" s="319"/>
+      <c r="I118" s="319"/>
+      <c r="J118" s="319"/>
+      <c r="K118" s="319"/>
+      <c r="L118" s="319"/>
+      <c r="M118" s="319"/>
+      <c r="N118" s="319"/>
+      <c r="O118" s="319"/>
+      <c r="P118" s="319"/>
+      <c r="Q118" s="319"/>
+      <c r="R118" s="319"/>
+      <c r="S118" s="319"/>
+      <c r="T118" s="319"/>
+      <c r="U118" s="319"/>
+      <c r="V118" s="319"/>
+      <c r="W118" s="319"/>
+      <c r="X118" s="319"/>
+      <c r="Y118" s="319"/>
+      <c r="Z118" s="320"/>
       <c r="AJ118" s="110"/>
       <c r="AK118" s="110"/>
       <c r="AL118" s="110"/>
@@ -11796,7 +11797,7 @@
       <c r="BF138" s="110"/>
     </row>
     <row r="139" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H139" s="366" t="s">
+      <c r="H139" s="301" t="s">
         <v>157</v>
       </c>
       <c r="I139" s="279" t="s">
@@ -11807,19 +11808,19 @@
       <c r="L139" s="280"/>
       <c r="M139" s="280"/>
       <c r="N139" s="281"/>
-      <c r="O139" s="388" t="s">
+      <c r="O139" s="303" t="s">
         <v>114</v>
       </c>
-      <c r="P139" s="389"/>
-      <c r="Q139" s="389"/>
-      <c r="R139" s="389"/>
-      <c r="S139" s="389"/>
-      <c r="T139" s="389"/>
-      <c r="U139" s="389"/>
-      <c r="V139" s="389"/>
-      <c r="W139" s="389"/>
-      <c r="X139" s="389"/>
-      <c r="Y139" s="390"/>
+      <c r="P139" s="304"/>
+      <c r="Q139" s="304"/>
+      <c r="R139" s="304"/>
+      <c r="S139" s="304"/>
+      <c r="T139" s="304"/>
+      <c r="U139" s="304"/>
+      <c r="V139" s="304"/>
+      <c r="W139" s="304"/>
+      <c r="X139" s="304"/>
+      <c r="Y139" s="305"/>
       <c r="Z139" s="279" t="s">
         <v>32</v>
       </c>
@@ -11835,28 +11836,28 @@
       <c r="AH139" s="186"/>
     </row>
     <row r="140" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H140" s="368"/>
+      <c r="H140" s="302"/>
       <c r="I140" s="285"/>
       <c r="J140" s="286"/>
       <c r="K140" s="286"/>
       <c r="L140" s="286"/>
       <c r="M140" s="286"/>
       <c r="N140" s="287"/>
-      <c r="O140" s="388" t="s">
+      <c r="O140" s="303" t="s">
         <v>115</v>
       </c>
-      <c r="P140" s="389"/>
-      <c r="Q140" s="389"/>
-      <c r="R140" s="389"/>
-      <c r="S140" s="390"/>
-      <c r="T140" s="298" t="s">
+      <c r="P140" s="304"/>
+      <c r="Q140" s="304"/>
+      <c r="R140" s="304"/>
+      <c r="S140" s="305"/>
+      <c r="T140" s="306" t="s">
         <v>105</v>
       </c>
-      <c r="U140" s="299"/>
-      <c r="V140" s="299"/>
-      <c r="W140" s="299"/>
-      <c r="X140" s="299"/>
-      <c r="Y140" s="300"/>
+      <c r="U140" s="307"/>
+      <c r="V140" s="307"/>
+      <c r="W140" s="307"/>
+      <c r="X140" s="307"/>
+      <c r="Y140" s="308"/>
       <c r="Z140" s="285"/>
       <c r="AA140" s="286"/>
       <c r="AB140" s="286"/>
@@ -11871,14 +11872,14 @@
       <c r="H141" s="138">
         <v>1</v>
       </c>
-      <c r="I141" s="384" t="s">
+      <c r="I141" s="295" t="s">
         <v>158</v>
       </c>
-      <c r="J141" s="385"/>
-      <c r="K141" s="385"/>
-      <c r="L141" s="385"/>
-      <c r="M141" s="385"/>
-      <c r="N141" s="386"/>
+      <c r="J141" s="296"/>
+      <c r="K141" s="296"/>
+      <c r="L141" s="296"/>
+      <c r="M141" s="296"/>
+      <c r="N141" s="297"/>
       <c r="O141" s="178" t="s">
         <v>143</v>
       </c>
@@ -11886,22 +11887,22 @@
       <c r="Q141" s="179"/>
       <c r="R141" s="179"/>
       <c r="S141" s="180"/>
-      <c r="T141" s="384" t="s">
+      <c r="T141" s="295" t="s">
         <v>159</v>
       </c>
-      <c r="U141" s="385"/>
-      <c r="V141" s="385"/>
-      <c r="W141" s="385"/>
-      <c r="X141" s="385"/>
-      <c r="Y141" s="386"/>
-      <c r="Z141" s="387" t="s">
+      <c r="U141" s="296"/>
+      <c r="V141" s="296"/>
+      <c r="W141" s="296"/>
+      <c r="X141" s="296"/>
+      <c r="Y141" s="297"/>
+      <c r="Z141" s="298" t="s">
         <v>160</v>
       </c>
-      <c r="AA141" s="324"/>
-      <c r="AB141" s="324"/>
-      <c r="AC141" s="324"/>
-      <c r="AD141" s="324"/>
-      <c r="AE141" s="325"/>
+      <c r="AA141" s="299"/>
+      <c r="AB141" s="299"/>
+      <c r="AC141" s="299"/>
+      <c r="AD141" s="299"/>
+      <c r="AE141" s="300"/>
       <c r="AF141" s="170"/>
       <c r="AG141" s="168"/>
       <c r="AH141" s="169"/>
@@ -12207,7 +12208,7 @@
       <c r="BF148" s="110"/>
     </row>
     <row r="149" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H149" s="366" t="s">
+      <c r="H149" s="301" t="s">
         <v>157</v>
       </c>
       <c r="I149" s="279" t="s">
@@ -12218,19 +12219,19 @@
       <c r="L149" s="280"/>
       <c r="M149" s="280"/>
       <c r="N149" s="281"/>
-      <c r="O149" s="388" t="s">
+      <c r="O149" s="303" t="s">
         <v>114</v>
       </c>
-      <c r="P149" s="389"/>
-      <c r="Q149" s="389"/>
-      <c r="R149" s="389"/>
-      <c r="S149" s="389"/>
-      <c r="T149" s="389"/>
-      <c r="U149" s="389"/>
-      <c r="V149" s="389"/>
-      <c r="W149" s="389"/>
-      <c r="X149" s="389"/>
-      <c r="Y149" s="390"/>
+      <c r="P149" s="304"/>
+      <c r="Q149" s="304"/>
+      <c r="R149" s="304"/>
+      <c r="S149" s="304"/>
+      <c r="T149" s="304"/>
+      <c r="U149" s="304"/>
+      <c r="V149" s="304"/>
+      <c r="W149" s="304"/>
+      <c r="X149" s="304"/>
+      <c r="Y149" s="305"/>
       <c r="Z149" s="279" t="s">
         <v>32</v>
       </c>
@@ -12246,28 +12247,28 @@
       <c r="AH149" s="186"/>
     </row>
     <row r="150" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H150" s="368"/>
+      <c r="H150" s="302"/>
       <c r="I150" s="285"/>
       <c r="J150" s="286"/>
       <c r="K150" s="286"/>
       <c r="L150" s="286"/>
       <c r="M150" s="286"/>
       <c r="N150" s="287"/>
-      <c r="O150" s="388" t="s">
+      <c r="O150" s="303" t="s">
         <v>115</v>
       </c>
-      <c r="P150" s="389"/>
-      <c r="Q150" s="389"/>
-      <c r="R150" s="389"/>
-      <c r="S150" s="390"/>
-      <c r="T150" s="298" t="s">
+      <c r="P150" s="304"/>
+      <c r="Q150" s="304"/>
+      <c r="R150" s="304"/>
+      <c r="S150" s="305"/>
+      <c r="T150" s="306" t="s">
         <v>105</v>
       </c>
-      <c r="U150" s="299"/>
-      <c r="V150" s="299"/>
-      <c r="W150" s="299"/>
-      <c r="X150" s="299"/>
-      <c r="Y150" s="300"/>
+      <c r="U150" s="307"/>
+      <c r="V150" s="307"/>
+      <c r="W150" s="307"/>
+      <c r="X150" s="307"/>
+      <c r="Y150" s="308"/>
       <c r="Z150" s="285"/>
       <c r="AA150" s="286"/>
       <c r="AB150" s="286"/>
@@ -12282,14 +12283,14 @@
       <c r="H151" s="138">
         <v>1</v>
       </c>
-      <c r="I151" s="384" t="s">
+      <c r="I151" s="295" t="s">
         <v>163</v>
       </c>
-      <c r="J151" s="385"/>
-      <c r="K151" s="385"/>
-      <c r="L151" s="385"/>
-      <c r="M151" s="385"/>
-      <c r="N151" s="386"/>
+      <c r="J151" s="296"/>
+      <c r="K151" s="296"/>
+      <c r="L151" s="296"/>
+      <c r="M151" s="296"/>
+      <c r="N151" s="297"/>
       <c r="O151" s="178" t="s">
         <v>164</v>
       </c>
@@ -12297,22 +12298,22 @@
       <c r="Q151" s="179"/>
       <c r="R151" s="179"/>
       <c r="S151" s="180"/>
-      <c r="T151" s="384" t="s">
+      <c r="T151" s="295" t="s">
         <v>159</v>
       </c>
-      <c r="U151" s="385"/>
-      <c r="V151" s="385"/>
-      <c r="W151" s="385"/>
-      <c r="X151" s="385"/>
-      <c r="Y151" s="386"/>
-      <c r="Z151" s="387" t="s">
+      <c r="U151" s="296"/>
+      <c r="V151" s="296"/>
+      <c r="W151" s="296"/>
+      <c r="X151" s="296"/>
+      <c r="Y151" s="297"/>
+      <c r="Z151" s="298" t="s">
         <v>165</v>
       </c>
-      <c r="AA151" s="324"/>
-      <c r="AB151" s="324"/>
-      <c r="AC151" s="324"/>
-      <c r="AD151" s="324"/>
-      <c r="AE151" s="325"/>
+      <c r="AA151" s="299"/>
+      <c r="AB151" s="299"/>
+      <c r="AC151" s="299"/>
+      <c r="AD151" s="299"/>
+      <c r="AE151" s="300"/>
       <c r="AF151" s="170"/>
       <c r="AG151" s="168"/>
       <c r="AH151" s="169"/>
@@ -12321,14 +12322,14 @@
       <c r="H152" s="138">
         <v>2</v>
       </c>
-      <c r="I152" s="384" t="s">
+      <c r="I152" s="295" t="s">
         <v>179</v>
       </c>
-      <c r="J152" s="385"/>
-      <c r="K152" s="385"/>
-      <c r="L152" s="385"/>
-      <c r="M152" s="385"/>
-      <c r="N152" s="386"/>
+      <c r="J152" s="296"/>
+      <c r="K152" s="296"/>
+      <c r="L152" s="296"/>
+      <c r="M152" s="296"/>
+      <c r="N152" s="297"/>
       <c r="O152" s="178" t="s">
         <v>164</v>
       </c>
@@ -12336,22 +12337,22 @@
       <c r="Q152" s="179"/>
       <c r="R152" s="179"/>
       <c r="S152" s="180"/>
-      <c r="T152" s="384" t="s">
+      <c r="T152" s="295" t="s">
         <v>93</v>
       </c>
-      <c r="U152" s="385"/>
-      <c r="V152" s="385"/>
-      <c r="W152" s="385"/>
-      <c r="X152" s="385"/>
-      <c r="Y152" s="386"/>
-      <c r="Z152" s="387">
+      <c r="U152" s="296"/>
+      <c r="V152" s="296"/>
+      <c r="W152" s="296"/>
+      <c r="X152" s="296"/>
+      <c r="Y152" s="297"/>
+      <c r="Z152" s="298">
         <v>0</v>
       </c>
-      <c r="AA152" s="324"/>
-      <c r="AB152" s="324"/>
-      <c r="AC152" s="324"/>
-      <c r="AD152" s="324"/>
-      <c r="AE152" s="325"/>
+      <c r="AA152" s="299"/>
+      <c r="AB152" s="299"/>
+      <c r="AC152" s="299"/>
+      <c r="AD152" s="299"/>
+      <c r="AE152" s="300"/>
       <c r="AF152" s="197"/>
       <c r="AG152" s="195"/>
       <c r="AH152" s="196"/>
@@ -12696,7 +12697,7 @@
       <c r="E161" s="126"/>
       <c r="F161" s="127"/>
       <c r="G161" s="71" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AJ161" s="110"/>
       <c r="AK161" s="110"/>
@@ -12754,7 +12755,7 @@
       <c r="E163" s="126"/>
       <c r="F163" s="127"/>
       <c r="G163" s="71" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AJ163" s="110"/>
       <c r="AK163" s="110"/>
@@ -12810,8 +12811,9 @@
     </row>
     <row r="165" spans="1:58" x14ac:dyDescent="0.15">
       <c r="E165" s="126"/>
-      <c r="F165" s="71" t="s">
-        <v>203</v>
+      <c r="F165" s="127"/>
+      <c r="G165" s="71" t="s">
+        <v>208</v>
       </c>
       <c r="AJ165" s="110"/>
       <c r="AK165" s="110"/>
@@ -12867,7 +12869,9 @@
     </row>
     <row r="167" spans="1:58" x14ac:dyDescent="0.15">
       <c r="E167" s="126"/>
-      <c r="F167" s="71"/>
+      <c r="F167" s="71" t="s">
+        <v>203</v>
+      </c>
       <c r="AJ167" s="110"/>
       <c r="AK167" s="110"/>
       <c r="AL167" s="110"/>
@@ -12892,215 +12896,215 @@
       <c r="BE167" s="110"/>
       <c r="BF167" s="110"/>
     </row>
-    <row r="168" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C168" s="105"/>
-      <c r="D168" s="152" t="s">
+    <row r="168" spans="1:58" x14ac:dyDescent="0.15">
+      <c r="E168" s="126"/>
+      <c r="F168" s="127"/>
+      <c r="G168" s="71"/>
+      <c r="AJ168" s="110"/>
+      <c r="AK168" s="110"/>
+      <c r="AL168" s="110"/>
+      <c r="AM168" s="110"/>
+      <c r="AN168" s="110"/>
+      <c r="AO168" s="110"/>
+      <c r="AP168" s="110"/>
+      <c r="AQ168" s="110"/>
+      <c r="AR168" s="110"/>
+      <c r="AS168" s="110"/>
+      <c r="AT168" s="110"/>
+      <c r="AU168" s="110"/>
+      <c r="AV168" s="110"/>
+      <c r="AW168" s="110"/>
+      <c r="AX168" s="110"/>
+      <c r="AY168" s="110"/>
+      <c r="AZ168" s="110"/>
+      <c r="BA168" s="110"/>
+      <c r="BB168" s="110"/>
+      <c r="BC168" s="110"/>
+      <c r="BD168" s="110"/>
+      <c r="BE168" s="110"/>
+      <c r="BF168" s="110"/>
+    </row>
+    <row r="169" spans="1:58" x14ac:dyDescent="0.15">
+      <c r="E169" s="126"/>
+      <c r="F169" s="71"/>
+      <c r="AJ169" s="110"/>
+      <c r="AK169" s="110"/>
+      <c r="AL169" s="110"/>
+      <c r="AM169" s="110"/>
+      <c r="AN169" s="110"/>
+      <c r="AO169" s="110"/>
+      <c r="AP169" s="110"/>
+      <c r="AQ169" s="110"/>
+      <c r="AR169" s="110"/>
+      <c r="AS169" s="110"/>
+      <c r="AT169" s="110"/>
+      <c r="AU169" s="110"/>
+      <c r="AV169" s="110"/>
+      <c r="AW169" s="110"/>
+      <c r="AX169" s="110"/>
+      <c r="AY169" s="110"/>
+      <c r="AZ169" s="110"/>
+      <c r="BA169" s="110"/>
+      <c r="BB169" s="110"/>
+      <c r="BC169" s="110"/>
+      <c r="BD169" s="110"/>
+      <c r="BE169" s="110"/>
+      <c r="BF169" s="110"/>
+    </row>
+    <row r="170" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C170" s="105"/>
+      <c r="D170" s="152" t="s">
         <v>195</v>
       </c>
-      <c r="E168" s="106"/>
-      <c r="AP168" s="105"/>
-      <c r="AQ168" s="105"/>
-      <c r="AR168" s="105"/>
-      <c r="AS168" s="105"/>
-      <c r="AT168" s="105"/>
-      <c r="AU168" s="105"/>
-      <c r="AV168" s="105"/>
-      <c r="AW168" s="105"/>
-      <c r="AX168" s="105"/>
-      <c r="AY168" s="105"/>
-      <c r="AZ168" s="105"/>
-      <c r="BA168" s="105"/>
-      <c r="BB168" s="105"/>
-      <c r="BC168" s="105"/>
-      <c r="BD168" s="105"/>
-    </row>
-    <row r="169" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C169" s="105"/>
-      <c r="D169" s="106"/>
-      <c r="E169" s="106"/>
-      <c r="AP169" s="105"/>
-      <c r="AQ169" s="105"/>
-      <c r="AR169" s="105"/>
-      <c r="AS169" s="105"/>
-      <c r="AT169" s="105"/>
-      <c r="AU169" s="105"/>
-      <c r="AV169" s="105"/>
-      <c r="AW169" s="105"/>
-      <c r="AX169" s="105"/>
-      <c r="AY169" s="105"/>
-      <c r="AZ169" s="105"/>
-      <c r="BA169" s="105"/>
-      <c r="BB169" s="105"/>
-      <c r="BC169" s="105"/>
-      <c r="BD169" s="105"/>
-    </row>
-    <row r="170" spans="1:58" s="108" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C170" s="29"/>
-      <c r="D170" s="106"/>
-      <c r="E170" s="106" t="s">
+      <c r="E170" s="106"/>
+      <c r="AP170" s="105"/>
+      <c r="AQ170" s="105"/>
+      <c r="AR170" s="105"/>
+      <c r="AS170" s="105"/>
+      <c r="AT170" s="105"/>
+      <c r="AU170" s="105"/>
+      <c r="AV170" s="105"/>
+      <c r="AW170" s="105"/>
+      <c r="AX170" s="105"/>
+      <c r="AY170" s="105"/>
+      <c r="AZ170" s="105"/>
+      <c r="BA170" s="105"/>
+      <c r="BB170" s="105"/>
+      <c r="BC170" s="105"/>
+      <c r="BD170" s="105"/>
+    </row>
+    <row r="171" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C171" s="105"/>
+      <c r="D171" s="106"/>
+      <c r="E171" s="106"/>
+      <c r="AP171" s="105"/>
+      <c r="AQ171" s="105"/>
+      <c r="AR171" s="105"/>
+      <c r="AS171" s="105"/>
+      <c r="AT171" s="105"/>
+      <c r="AU171" s="105"/>
+      <c r="AV171" s="105"/>
+      <c r="AW171" s="105"/>
+      <c r="AX171" s="105"/>
+      <c r="AY171" s="105"/>
+      <c r="AZ171" s="105"/>
+      <c r="BA171" s="105"/>
+      <c r="BB171" s="105"/>
+      <c r="BC171" s="105"/>
+      <c r="BD171" s="105"/>
+    </row>
+    <row r="172" spans="1:58" s="108" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C172" s="29"/>
+      <c r="D172" s="106"/>
+      <c r="E172" s="106" t="s">
         <v>97</v>
       </c>
-      <c r="AP170" s="29"/>
-    </row>
-    <row r="171" spans="1:58" x14ac:dyDescent="0.15">
-      <c r="E171" s="126"/>
-      <c r="F171" s="127"/>
-      <c r="G171" s="71"/>
-      <c r="AJ171" s="110"/>
-      <c r="AK171" s="110"/>
-      <c r="AL171" s="110"/>
-      <c r="AM171" s="110"/>
-      <c r="AN171" s="110"/>
-      <c r="AO171" s="110"/>
-      <c r="AP171" s="110"/>
-      <c r="AQ171" s="110"/>
-      <c r="AR171" s="110"/>
-      <c r="AS171" s="110"/>
-      <c r="AT171" s="110"/>
-      <c r="AU171" s="110"/>
-      <c r="AV171" s="110"/>
-      <c r="AW171" s="110"/>
-      <c r="AX171" s="110"/>
-      <c r="AY171" s="110"/>
-      <c r="AZ171" s="110"/>
-      <c r="BA171" s="110"/>
-      <c r="BB171" s="110"/>
-      <c r="BC171" s="110"/>
-      <c r="BD171" s="110"/>
-      <c r="BE171" s="110"/>
-      <c r="BF171" s="110"/>
-    </row>
-    <row r="172" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C172" s="105"/>
-      <c r="D172" s="106"/>
-      <c r="E172" s="106"/>
-      <c r="F172" s="17" t="s">
+      <c r="AP172" s="29"/>
+    </row>
+    <row r="173" spans="1:58" x14ac:dyDescent="0.15">
+      <c r="E173" s="126"/>
+      <c r="F173" s="127"/>
+      <c r="G173" s="71"/>
+      <c r="AJ173" s="110"/>
+      <c r="AK173" s="110"/>
+      <c r="AL173" s="110"/>
+      <c r="AM173" s="110"/>
+      <c r="AN173" s="110"/>
+      <c r="AO173" s="110"/>
+      <c r="AP173" s="110"/>
+      <c r="AQ173" s="110"/>
+      <c r="AR173" s="110"/>
+      <c r="AS173" s="110"/>
+      <c r="AT173" s="110"/>
+      <c r="AU173" s="110"/>
+      <c r="AV173" s="110"/>
+      <c r="AW173" s="110"/>
+      <c r="AX173" s="110"/>
+      <c r="AY173" s="110"/>
+      <c r="AZ173" s="110"/>
+      <c r="BA173" s="110"/>
+      <c r="BB173" s="110"/>
+      <c r="BC173" s="110"/>
+      <c r="BD173" s="110"/>
+      <c r="BE173" s="110"/>
+      <c r="BF173" s="110"/>
+    </row>
+    <row r="174" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C174" s="105"/>
+      <c r="D174" s="106"/>
+      <c r="E174" s="106"/>
+      <c r="F174" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="AP172" s="105"/>
-    </row>
-    <row r="173" spans="1:58" s="108" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A173" s="29"/>
-      <c r="B173" s="107"/>
-      <c r="C173" s="29"/>
-      <c r="D173" s="29"/>
-      <c r="E173" s="29"/>
-      <c r="G173" s="151"/>
-      <c r="H173" s="151"/>
-      <c r="I173" s="151"/>
-      <c r="J173" s="151"/>
-      <c r="K173" s="151"/>
-      <c r="L173" s="151"/>
-      <c r="M173" s="151"/>
-      <c r="N173" s="151"/>
-      <c r="O173" s="151"/>
-      <c r="P173" s="151"/>
-      <c r="Q173" s="151"/>
-      <c r="R173" s="151"/>
-      <c r="S173" s="151"/>
-      <c r="T173" s="151"/>
-      <c r="U173" s="151"/>
-      <c r="V173" s="151"/>
-      <c r="W173" s="151"/>
-      <c r="X173" s="151"/>
-      <c r="Y173" s="151"/>
-      <c r="Z173" s="151"/>
-      <c r="AA173" s="151"/>
-      <c r="AB173" s="151"/>
-      <c r="AC173" s="151"/>
-      <c r="AD173" s="149"/>
-      <c r="AE173" s="149"/>
-      <c r="AF173" s="149"/>
-      <c r="AG173" s="149"/>
-      <c r="AH173" s="149"/>
-      <c r="AI173" s="149"/>
-      <c r="AJ173" s="130"/>
-    </row>
-    <row r="174" spans="1:58" s="108" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="AI174" s="125"/>
-      <c r="AJ174" s="125"/>
-      <c r="AK174" s="125"/>
-      <c r="AL174" s="125"/>
-      <c r="AM174" s="125"/>
-      <c r="AN174" s="125"/>
-      <c r="AO174" s="125"/>
-      <c r="AP174" s="125"/>
-      <c r="AQ174" s="125"/>
-      <c r="AR174" s="125"/>
-      <c r="AS174" s="125"/>
-      <c r="AT174" s="125"/>
-      <c r="AU174" s="125"/>
-      <c r="AV174" s="125"/>
-      <c r="AW174" s="125"/>
-      <c r="AX174" s="125"/>
-      <c r="AY174" s="125"/>
-      <c r="AZ174" s="125"/>
-      <c r="BA174" s="125"/>
-      <c r="BB174" s="125"/>
-      <c r="BC174" s="125"/>
-      <c r="BD174" s="125"/>
-      <c r="BE174" s="125"/>
-    </row>
-    <row r="175" spans="1:58" x14ac:dyDescent="0.15">
-      <c r="E175" s="103" t="s">
+      <c r="AP174" s="105"/>
+    </row>
+    <row r="175" spans="1:58" s="108" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A175" s="29"/>
+      <c r="B175" s="107"/>
+      <c r="C175" s="29"/>
+      <c r="D175" s="29"/>
+      <c r="E175" s="29"/>
+      <c r="G175" s="151"/>
+      <c r="H175" s="151"/>
+      <c r="I175" s="151"/>
+      <c r="J175" s="151"/>
+      <c r="K175" s="151"/>
+      <c r="L175" s="151"/>
+      <c r="M175" s="151"/>
+      <c r="N175" s="151"/>
+      <c r="O175" s="151"/>
+      <c r="P175" s="151"/>
+      <c r="Q175" s="151"/>
+      <c r="R175" s="151"/>
+      <c r="S175" s="151"/>
+      <c r="T175" s="151"/>
+      <c r="U175" s="151"/>
+      <c r="V175" s="151"/>
+      <c r="W175" s="151"/>
+      <c r="X175" s="151"/>
+      <c r="Y175" s="151"/>
+      <c r="Z175" s="151"/>
+      <c r="AA175" s="151"/>
+      <c r="AB175" s="151"/>
+      <c r="AC175" s="151"/>
+      <c r="AD175" s="149"/>
+      <c r="AE175" s="149"/>
+      <c r="AF175" s="149"/>
+      <c r="AG175" s="149"/>
+      <c r="AH175" s="149"/>
+      <c r="AI175" s="149"/>
+      <c r="AJ175" s="130"/>
+    </row>
+    <row r="176" spans="1:58" s="108" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AI176" s="125"/>
+      <c r="AJ176" s="125"/>
+      <c r="AK176" s="125"/>
+      <c r="AL176" s="125"/>
+      <c r="AM176" s="125"/>
+      <c r="AN176" s="125"/>
+      <c r="AO176" s="125"/>
+      <c r="AP176" s="125"/>
+      <c r="AQ176" s="125"/>
+      <c r="AR176" s="125"/>
+      <c r="AS176" s="125"/>
+      <c r="AT176" s="125"/>
+      <c r="AU176" s="125"/>
+      <c r="AV176" s="125"/>
+      <c r="AW176" s="125"/>
+      <c r="AX176" s="125"/>
+      <c r="AY176" s="125"/>
+      <c r="AZ176" s="125"/>
+      <c r="BA176" s="125"/>
+      <c r="BB176" s="125"/>
+      <c r="BC176" s="125"/>
+      <c r="BD176" s="125"/>
+      <c r="BE176" s="125"/>
+    </row>
+    <row r="177" spans="5:58" x14ac:dyDescent="0.15">
+      <c r="E177" s="103" t="s">
         <v>147</v>
       </c>
-      <c r="G175" s="107"/>
-      <c r="AJ175" s="110"/>
-      <c r="AK175" s="110"/>
-      <c r="AL175" s="110"/>
-      <c r="AM175" s="110"/>
-      <c r="AN175" s="110"/>
-      <c r="AO175" s="110"/>
-      <c r="AP175" s="110"/>
-      <c r="AQ175" s="110"/>
-      <c r="AR175" s="110"/>
-      <c r="AS175" s="110"/>
-      <c r="AT175" s="110"/>
-      <c r="AU175" s="110"/>
-      <c r="AV175" s="110"/>
-      <c r="AW175" s="110"/>
-      <c r="AX175" s="110"/>
-      <c r="AY175" s="110"/>
-      <c r="AZ175" s="110"/>
-      <c r="BA175" s="110"/>
-      <c r="BB175" s="110"/>
-      <c r="BC175" s="110"/>
-      <c r="BD175" s="110"/>
-      <c r="BE175" s="110"/>
-      <c r="BF175" s="110"/>
-    </row>
-    <row r="176" spans="1:58" x14ac:dyDescent="0.15">
-      <c r="H176" s="107"/>
-      <c r="AJ176" s="110"/>
-      <c r="AK176" s="110"/>
-      <c r="AL176" s="110"/>
-      <c r="AM176" s="110"/>
-      <c r="AN176" s="110"/>
-      <c r="AO176" s="110"/>
-      <c r="AP176" s="110"/>
-      <c r="AQ176" s="110"/>
-      <c r="AR176" s="110"/>
-      <c r="AS176" s="110"/>
-      <c r="AT176" s="110"/>
-      <c r="AU176" s="110"/>
-      <c r="AV176" s="110"/>
-      <c r="AW176" s="110"/>
-      <c r="AX176" s="110"/>
-      <c r="AY176" s="110"/>
-      <c r="AZ176" s="110"/>
-      <c r="BA176" s="110"/>
-      <c r="BB176" s="110"/>
-      <c r="BC176" s="110"/>
-      <c r="BD176" s="110"/>
-      <c r="BE176" s="110"/>
-      <c r="BF176" s="110"/>
-    </row>
-    <row r="177" spans="5:58" x14ac:dyDescent="0.15">
-      <c r="E177" s="126"/>
-      <c r="F177" s="71" t="s">
-        <v>196</v>
-      </c>
+      <c r="G177" s="107"/>
       <c r="AJ177" s="110"/>
       <c r="AK177" s="110"/>
       <c r="AL177" s="110"/>
@@ -13126,9 +13130,7 @@
       <c r="BF177" s="110"/>
     </row>
     <row r="178" spans="5:58" x14ac:dyDescent="0.15">
-      <c r="E178" s="126"/>
-      <c r="F178" s="71"/>
-      <c r="G178" s="71"/>
+      <c r="H178" s="107"/>
       <c r="AJ178" s="110"/>
       <c r="AK178" s="110"/>
       <c r="AL178" s="110"/>
@@ -13155,6 +13157,9 @@
     </row>
     <row r="179" spans="5:58" x14ac:dyDescent="0.15">
       <c r="E179" s="126"/>
+      <c r="F179" s="71" t="s">
+        <v>196</v>
+      </c>
       <c r="AJ179" s="110"/>
       <c r="AK179" s="110"/>
       <c r="AL179" s="110"/>
@@ -13179,38 +13184,131 @@
       <c r="BE179" s="110"/>
       <c r="BF179" s="110"/>
     </row>
+    <row r="180" spans="5:58" x14ac:dyDescent="0.15">
+      <c r="E180" s="126"/>
+      <c r="F180" s="71"/>
+      <c r="G180" s="71"/>
+      <c r="AJ180" s="110"/>
+      <c r="AK180" s="110"/>
+      <c r="AL180" s="110"/>
+      <c r="AM180" s="110"/>
+      <c r="AN180" s="110"/>
+      <c r="AO180" s="110"/>
+      <c r="AP180" s="110"/>
+      <c r="AQ180" s="110"/>
+      <c r="AR180" s="110"/>
+      <c r="AS180" s="110"/>
+      <c r="AT180" s="110"/>
+      <c r="AU180" s="110"/>
+      <c r="AV180" s="110"/>
+      <c r="AW180" s="110"/>
+      <c r="AX180" s="110"/>
+      <c r="AY180" s="110"/>
+      <c r="AZ180" s="110"/>
+      <c r="BA180" s="110"/>
+      <c r="BB180" s="110"/>
+      <c r="BC180" s="110"/>
+      <c r="BD180" s="110"/>
+      <c r="BE180" s="110"/>
+      <c r="BF180" s="110"/>
+    </row>
+    <row r="181" spans="5:58" x14ac:dyDescent="0.15">
+      <c r="E181" s="126"/>
+      <c r="AJ181" s="110"/>
+      <c r="AK181" s="110"/>
+      <c r="AL181" s="110"/>
+      <c r="AM181" s="110"/>
+      <c r="AN181" s="110"/>
+      <c r="AO181" s="110"/>
+      <c r="AP181" s="110"/>
+      <c r="AQ181" s="110"/>
+      <c r="AR181" s="110"/>
+      <c r="AS181" s="110"/>
+      <c r="AT181" s="110"/>
+      <c r="AU181" s="110"/>
+      <c r="AV181" s="110"/>
+      <c r="AW181" s="110"/>
+      <c r="AX181" s="110"/>
+      <c r="AY181" s="110"/>
+      <c r="AZ181" s="110"/>
+      <c r="BA181" s="110"/>
+      <c r="BB181" s="110"/>
+      <c r="BC181" s="110"/>
+      <c r="BD181" s="110"/>
+      <c r="BE181" s="110"/>
+      <c r="BF181" s="110"/>
+    </row>
   </sheetData>
   <mergeCells count="123">
-    <mergeCell ref="I152:N152"/>
-    <mergeCell ref="T152:Y152"/>
-    <mergeCell ref="Z152:AE152"/>
-    <mergeCell ref="I151:N151"/>
-    <mergeCell ref="T151:Y151"/>
-    <mergeCell ref="Z151:AE151"/>
-    <mergeCell ref="H149:H150"/>
-    <mergeCell ref="I149:N150"/>
-    <mergeCell ref="O149:Y149"/>
-    <mergeCell ref="Z149:AE150"/>
-    <mergeCell ref="O150:S150"/>
-    <mergeCell ref="T150:Y150"/>
-    <mergeCell ref="I141:N141"/>
-    <mergeCell ref="T141:Y141"/>
-    <mergeCell ref="Z141:AE141"/>
-    <mergeCell ref="Q104:Z104"/>
-    <mergeCell ref="H139:H140"/>
-    <mergeCell ref="I139:N140"/>
-    <mergeCell ref="O139:Y139"/>
-    <mergeCell ref="Z139:AE140"/>
-    <mergeCell ref="O140:S140"/>
-    <mergeCell ref="T140:Y140"/>
-    <mergeCell ref="G116:P117"/>
-    <mergeCell ref="Q116:Z116"/>
-    <mergeCell ref="Q117:Z117"/>
-    <mergeCell ref="G118:Z118"/>
-    <mergeCell ref="G100:P105"/>
-    <mergeCell ref="Q100:Z100"/>
-    <mergeCell ref="Q105:Z105"/>
-    <mergeCell ref="G106:Z106"/>
+    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="G115:P115"/>
+    <mergeCell ref="Q115:Z115"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="V58:AH59"/>
+    <mergeCell ref="T59:U59"/>
+    <mergeCell ref="G99:P99"/>
+    <mergeCell ref="Q99:Z99"/>
+    <mergeCell ref="G90:L90"/>
+    <mergeCell ref="M89:V89"/>
+    <mergeCell ref="W90:Y90"/>
+    <mergeCell ref="E69:J69"/>
+    <mergeCell ref="K69:Q69"/>
+    <mergeCell ref="R69:Y69"/>
+    <mergeCell ref="Z69:AD69"/>
+    <mergeCell ref="AE69:AH69"/>
+    <mergeCell ref="AD49:AG51"/>
+    <mergeCell ref="Z52:AB52"/>
+    <mergeCell ref="AD53:AG53"/>
+    <mergeCell ref="AD52:AG52"/>
+    <mergeCell ref="U50:Y51"/>
+    <mergeCell ref="U52:Y52"/>
+    <mergeCell ref="R68:Y68"/>
+    <mergeCell ref="Z68:AD68"/>
+    <mergeCell ref="AE68:AH68"/>
+    <mergeCell ref="AE66:AH66"/>
+    <mergeCell ref="Z66:AD66"/>
+    <mergeCell ref="AE67:AH67"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="E43:M43"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="Q43:U43"/>
+    <mergeCell ref="V43:AC43"/>
+    <mergeCell ref="E67:J67"/>
+    <mergeCell ref="Z90:AC90"/>
+    <mergeCell ref="Z89:AC89"/>
+    <mergeCell ref="M90:V90"/>
+    <mergeCell ref="R67:Y67"/>
+    <mergeCell ref="Z67:AD67"/>
+    <mergeCell ref="W89:Y89"/>
+    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="E68:J68"/>
+    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="Q44:U44"/>
+    <mergeCell ref="V44:AC44"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="M52:T52"/>
+    <mergeCell ref="E44:M44"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="AD89:AG89"/>
+    <mergeCell ref="AD90:AG90"/>
+    <mergeCell ref="G89:L89"/>
     <mergeCell ref="D49:D51"/>
     <mergeCell ref="M50:T51"/>
     <mergeCell ref="D58:D59"/>
@@ -13235,75 +13333,36 @@
     <mergeCell ref="Z50:AB51"/>
     <mergeCell ref="AC50:AC51"/>
     <mergeCell ref="M53:T53"/>
-    <mergeCell ref="E43:M43"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="Q43:U43"/>
-    <mergeCell ref="V43:AC43"/>
-    <mergeCell ref="E67:J67"/>
-    <mergeCell ref="Z90:AC90"/>
-    <mergeCell ref="Z89:AC89"/>
-    <mergeCell ref="M90:V90"/>
-    <mergeCell ref="R67:Y67"/>
-    <mergeCell ref="Z67:AD67"/>
-    <mergeCell ref="W89:Y89"/>
-    <mergeCell ref="K67:Q67"/>
-    <mergeCell ref="E68:J68"/>
-    <mergeCell ref="K68:Q68"/>
-    <mergeCell ref="Q44:U44"/>
-    <mergeCell ref="V44:AC44"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="M52:T52"/>
-    <mergeCell ref="E44:M44"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="AD89:AG89"/>
-    <mergeCell ref="AD90:AG90"/>
-    <mergeCell ref="G89:L89"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AD49:AG51"/>
-    <mergeCell ref="Z52:AB52"/>
-    <mergeCell ref="AD53:AG53"/>
-    <mergeCell ref="AD52:AG52"/>
-    <mergeCell ref="U50:Y51"/>
-    <mergeCell ref="U52:Y52"/>
-    <mergeCell ref="R68:Y68"/>
-    <mergeCell ref="Z68:AD68"/>
-    <mergeCell ref="AE68:AH68"/>
-    <mergeCell ref="AE66:AH66"/>
-    <mergeCell ref="Z66:AD66"/>
-    <mergeCell ref="AE67:AH67"/>
-    <mergeCell ref="K66:Q66"/>
-    <mergeCell ref="G115:P115"/>
-    <mergeCell ref="Q115:Z115"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="V58:AH59"/>
-    <mergeCell ref="T59:U59"/>
-    <mergeCell ref="G99:P99"/>
-    <mergeCell ref="Q99:Z99"/>
-    <mergeCell ref="G90:L90"/>
-    <mergeCell ref="M89:V89"/>
-    <mergeCell ref="W90:Y90"/>
-    <mergeCell ref="E69:J69"/>
-    <mergeCell ref="K69:Q69"/>
-    <mergeCell ref="R69:Y69"/>
-    <mergeCell ref="Z69:AD69"/>
-    <mergeCell ref="AE69:AH69"/>
+    <mergeCell ref="I141:N141"/>
+    <mergeCell ref="T141:Y141"/>
+    <mergeCell ref="Z141:AE141"/>
+    <mergeCell ref="Q104:Z104"/>
+    <mergeCell ref="H139:H140"/>
+    <mergeCell ref="I139:N140"/>
+    <mergeCell ref="O139:Y139"/>
+    <mergeCell ref="Z139:AE140"/>
+    <mergeCell ref="O140:S140"/>
+    <mergeCell ref="T140:Y140"/>
+    <mergeCell ref="G116:P117"/>
+    <mergeCell ref="Q116:Z116"/>
+    <mergeCell ref="Q117:Z117"/>
+    <mergeCell ref="G118:Z118"/>
+    <mergeCell ref="G100:P105"/>
+    <mergeCell ref="Q100:Z100"/>
+    <mergeCell ref="Q105:Z105"/>
+    <mergeCell ref="G106:Z106"/>
+    <mergeCell ref="I152:N152"/>
+    <mergeCell ref="T152:Y152"/>
+    <mergeCell ref="Z152:AE152"/>
+    <mergeCell ref="I151:N151"/>
+    <mergeCell ref="T151:Y151"/>
+    <mergeCell ref="Z151:AE151"/>
+    <mergeCell ref="H149:H150"/>
+    <mergeCell ref="I149:N150"/>
+    <mergeCell ref="O149:Y149"/>
+    <mergeCell ref="Z149:AE150"/>
+    <mergeCell ref="O150:S150"/>
+    <mergeCell ref="T150:Y150"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="5">
@@ -13334,7 +13393,7 @@
     <brk id="71" max="34" man="1"/>
     <brk id="112" max="34" man="1"/>
     <brk id="122" max="34" man="1"/>
-    <brk id="167" max="34" man="1"/>
+    <brk id="169" max="34" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(画面)_WA10101_ログイン.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(画面)_WA10101_ログイン.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B46B0B6-ED56-4954-A4B2-E45A53808CB3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF9B12F-40C8-4BF1-B044-768D37CA4564}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2998,6 +2998,153 @@
     <xf numFmtId="31" fontId="8" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3040,151 +3187,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3214,18 +3226,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3277,33 +3277,15 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3312,249 +3294,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3565,6 +3304,24 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3574,6 +3331,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -3585,6 +3348,243 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -5119,57 +5119,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="251" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="203"/>
-      <c r="C1" s="203"/>
-      <c r="D1" s="204"/>
-      <c r="E1" s="250" t="s">
+      <c r="B1" s="252"/>
+      <c r="C1" s="252"/>
+      <c r="D1" s="253"/>
+      <c r="E1" s="220" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="251"/>
-      <c r="G1" s="251"/>
-      <c r="H1" s="251"/>
-      <c r="I1" s="251"/>
-      <c r="J1" s="251"/>
-      <c r="K1" s="251"/>
-      <c r="L1" s="251"/>
-      <c r="M1" s="251"/>
-      <c r="N1" s="252"/>
-      <c r="O1" s="205" t="s">
+      <c r="F1" s="221"/>
+      <c r="G1" s="221"/>
+      <c r="H1" s="221"/>
+      <c r="I1" s="221"/>
+      <c r="J1" s="221"/>
+      <c r="K1" s="221"/>
+      <c r="L1" s="221"/>
+      <c r="M1" s="221"/>
+      <c r="N1" s="222"/>
+      <c r="O1" s="254" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="206"/>
-      <c r="Q1" s="206"/>
-      <c r="R1" s="207"/>
-      <c r="S1" s="256" t="s">
+      <c r="P1" s="255"/>
+      <c r="Q1" s="255"/>
+      <c r="R1" s="256"/>
+      <c r="S1" s="232" t="s">
         <v>139</v>
       </c>
-      <c r="T1" s="257"/>
-      <c r="U1" s="257"/>
-      <c r="V1" s="257"/>
-      <c r="W1" s="257"/>
-      <c r="X1" s="257"/>
-      <c r="Y1" s="257"/>
-      <c r="Z1" s="258"/>
-      <c r="AA1" s="202" t="s">
+      <c r="T1" s="233"/>
+      <c r="U1" s="233"/>
+      <c r="V1" s="233"/>
+      <c r="W1" s="233"/>
+      <c r="X1" s="233"/>
+      <c r="Y1" s="233"/>
+      <c r="Z1" s="234"/>
+      <c r="AA1" s="251" t="s">
         <v>35</v>
       </c>
-      <c r="AB1" s="204"/>
-      <c r="AC1" s="238" t="str">
+      <c r="AB1" s="253"/>
+      <c r="AC1" s="202" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="239"/>
-      <c r="AE1" s="239"/>
-      <c r="AF1" s="240"/>
-      <c r="AG1" s="244">
+      <c r="AD1" s="203"/>
+      <c r="AE1" s="203"/>
+      <c r="AF1" s="204"/>
+      <c r="AG1" s="208">
         <f>IF(D8="","",D8)</f>
         <v>43656</v>
       </c>
-      <c r="AH1" s="245"/>
-      <c r="AI1" s="246"/>
+      <c r="AH1" s="209"/>
+      <c r="AI1" s="210"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="9"/>
@@ -5177,53 +5177,53 @@
       <c r="AN1" s="10"/>
     </row>
     <row r="2" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="202" t="s">
+      <c r="A2" s="251" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="203"/>
-      <c r="C2" s="203"/>
-      <c r="D2" s="204"/>
-      <c r="E2" s="250" t="s">
+      <c r="B2" s="252"/>
+      <c r="C2" s="252"/>
+      <c r="D2" s="253"/>
+      <c r="E2" s="220" t="s">
         <v>112</v>
       </c>
-      <c r="F2" s="251"/>
-      <c r="G2" s="251"/>
-      <c r="H2" s="251"/>
-      <c r="I2" s="251"/>
-      <c r="J2" s="251"/>
-      <c r="K2" s="251"/>
-      <c r="L2" s="251"/>
-      <c r="M2" s="251"/>
-      <c r="N2" s="252"/>
-      <c r="O2" s="208"/>
-      <c r="P2" s="209"/>
-      <c r="Q2" s="209"/>
-      <c r="R2" s="210"/>
-      <c r="S2" s="259"/>
-      <c r="T2" s="260"/>
-      <c r="U2" s="260"/>
-      <c r="V2" s="260"/>
-      <c r="W2" s="260"/>
-      <c r="X2" s="260"/>
-      <c r="Y2" s="260"/>
-      <c r="Z2" s="261"/>
-      <c r="AA2" s="202" t="s">
+      <c r="F2" s="221"/>
+      <c r="G2" s="221"/>
+      <c r="H2" s="221"/>
+      <c r="I2" s="221"/>
+      <c r="J2" s="221"/>
+      <c r="K2" s="221"/>
+      <c r="L2" s="221"/>
+      <c r="M2" s="221"/>
+      <c r="N2" s="222"/>
+      <c r="O2" s="257"/>
+      <c r="P2" s="258"/>
+      <c r="Q2" s="258"/>
+      <c r="R2" s="259"/>
+      <c r="S2" s="235"/>
+      <c r="T2" s="236"/>
+      <c r="U2" s="236"/>
+      <c r="V2" s="236"/>
+      <c r="W2" s="236"/>
+      <c r="X2" s="236"/>
+      <c r="Y2" s="236"/>
+      <c r="Z2" s="237"/>
+      <c r="AA2" s="251" t="s">
         <v>36</v>
       </c>
-      <c r="AB2" s="204"/>
-      <c r="AC2" s="247" t="str">
+      <c r="AB2" s="253"/>
+      <c r="AC2" s="211" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="248"/>
-      <c r="AE2" s="248"/>
-      <c r="AF2" s="249"/>
-      <c r="AG2" s="244">
+      <c r="AD2" s="212"/>
+      <c r="AE2" s="212"/>
+      <c r="AF2" s="213"/>
+      <c r="AG2" s="208">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="245"/>
-      <c r="AI2" s="246"/>
+      <c r="AH2" s="209"/>
+      <c r="AI2" s="210"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
@@ -5231,45 +5231,45 @@
       <c r="AN2" s="9"/>
     </row>
     <row r="3" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="202" t="s">
+      <c r="A3" s="251" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="203"/>
-      <c r="C3" s="203"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="250" t="s">
+      <c r="B3" s="252"/>
+      <c r="C3" s="252"/>
+      <c r="D3" s="253"/>
+      <c r="E3" s="220" t="s">
         <v>134</v>
       </c>
-      <c r="F3" s="251"/>
-      <c r="G3" s="251"/>
-      <c r="H3" s="251"/>
-      <c r="I3" s="251"/>
-      <c r="J3" s="251"/>
-      <c r="K3" s="251"/>
-      <c r="L3" s="251"/>
-      <c r="M3" s="251"/>
-      <c r="N3" s="252"/>
-      <c r="O3" s="211"/>
-      <c r="P3" s="212"/>
-      <c r="Q3" s="212"/>
-      <c r="R3" s="213"/>
-      <c r="S3" s="262"/>
-      <c r="T3" s="263"/>
-      <c r="U3" s="263"/>
-      <c r="V3" s="263"/>
-      <c r="W3" s="263"/>
-      <c r="X3" s="263"/>
-      <c r="Y3" s="263"/>
-      <c r="Z3" s="264"/>
-      <c r="AA3" s="214"/>
-      <c r="AB3" s="215"/>
-      <c r="AC3" s="238"/>
-      <c r="AD3" s="239"/>
-      <c r="AE3" s="239"/>
-      <c r="AF3" s="240"/>
-      <c r="AG3" s="244"/>
-      <c r="AH3" s="245"/>
-      <c r="AI3" s="246"/>
+      <c r="F3" s="221"/>
+      <c r="G3" s="221"/>
+      <c r="H3" s="221"/>
+      <c r="I3" s="221"/>
+      <c r="J3" s="221"/>
+      <c r="K3" s="221"/>
+      <c r="L3" s="221"/>
+      <c r="M3" s="221"/>
+      <c r="N3" s="222"/>
+      <c r="O3" s="260"/>
+      <c r="P3" s="261"/>
+      <c r="Q3" s="261"/>
+      <c r="R3" s="262"/>
+      <c r="S3" s="238"/>
+      <c r="T3" s="239"/>
+      <c r="U3" s="239"/>
+      <c r="V3" s="239"/>
+      <c r="W3" s="239"/>
+      <c r="X3" s="239"/>
+      <c r="Y3" s="239"/>
+      <c r="Z3" s="240"/>
+      <c r="AA3" s="263"/>
+      <c r="AB3" s="264"/>
+      <c r="AC3" s="202"/>
+      <c r="AD3" s="203"/>
+      <c r="AE3" s="203"/>
+      <c r="AF3" s="204"/>
+      <c r="AG3" s="208"/>
+      <c r="AH3" s="209"/>
+      <c r="AI3" s="210"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
@@ -5408,1042 +5408,1042 @@
       <c r="A7" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="228" t="s">
+      <c r="B7" s="217" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="229"/>
-      <c r="D7" s="228" t="s">
+      <c r="C7" s="219"/>
+      <c r="D7" s="217" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="230"/>
-      <c r="F7" s="229"/>
-      <c r="G7" s="228" t="s">
+      <c r="E7" s="218"/>
+      <c r="F7" s="219"/>
+      <c r="G7" s="217" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="230"/>
-      <c r="I7" s="229"/>
-      <c r="J7" s="228" t="s">
+      <c r="H7" s="218"/>
+      <c r="I7" s="219"/>
+      <c r="J7" s="217" t="s">
         <v>85</v>
       </c>
-      <c r="K7" s="230"/>
-      <c r="L7" s="230"/>
-      <c r="M7" s="230"/>
-      <c r="N7" s="230"/>
-      <c r="O7" s="230"/>
-      <c r="P7" s="229"/>
-      <c r="Q7" s="228" t="s">
+      <c r="K7" s="218"/>
+      <c r="L7" s="218"/>
+      <c r="M7" s="218"/>
+      <c r="N7" s="218"/>
+      <c r="O7" s="218"/>
+      <c r="P7" s="219"/>
+      <c r="Q7" s="217" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="230"/>
-      <c r="S7" s="230"/>
-      <c r="T7" s="230"/>
-      <c r="U7" s="230"/>
-      <c r="V7" s="230"/>
-      <c r="W7" s="230"/>
-      <c r="X7" s="230"/>
-      <c r="Y7" s="230"/>
-      <c r="Z7" s="230"/>
-      <c r="AA7" s="230"/>
-      <c r="AB7" s="230"/>
-      <c r="AC7" s="230"/>
-      <c r="AD7" s="230"/>
-      <c r="AE7" s="229"/>
-      <c r="AF7" s="228" t="s">
+      <c r="R7" s="218"/>
+      <c r="S7" s="218"/>
+      <c r="T7" s="218"/>
+      <c r="U7" s="218"/>
+      <c r="V7" s="218"/>
+      <c r="W7" s="218"/>
+      <c r="X7" s="218"/>
+      <c r="Y7" s="218"/>
+      <c r="Z7" s="218"/>
+      <c r="AA7" s="218"/>
+      <c r="AB7" s="218"/>
+      <c r="AC7" s="218"/>
+      <c r="AD7" s="218"/>
+      <c r="AE7" s="219"/>
+      <c r="AF7" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="230"/>
-      <c r="AH7" s="230"/>
-      <c r="AI7" s="229"/>
+      <c r="AG7" s="218"/>
+      <c r="AH7" s="218"/>
+      <c r="AI7" s="219"/>
     </row>
     <row r="8" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="56">
         <v>1</v>
       </c>
-      <c r="B8" s="231" t="s">
+      <c r="B8" s="244" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="232"/>
-      <c r="D8" s="233">
+      <c r="C8" s="245"/>
+      <c r="D8" s="246">
         <v>43656</v>
       </c>
-      <c r="E8" s="234"/>
-      <c r="F8" s="235"/>
-      <c r="G8" s="236" t="s">
+      <c r="E8" s="247"/>
+      <c r="F8" s="248"/>
+      <c r="G8" s="249" t="s">
         <v>107</v>
       </c>
-      <c r="H8" s="237"/>
-      <c r="I8" s="232"/>
-      <c r="J8" s="253" t="s">
+      <c r="H8" s="250"/>
+      <c r="I8" s="245"/>
+      <c r="J8" s="229" t="s">
         <v>108</v>
       </c>
-      <c r="K8" s="254"/>
-      <c r="L8" s="254"/>
-      <c r="M8" s="254"/>
-      <c r="N8" s="254"/>
-      <c r="O8" s="254"/>
-      <c r="P8" s="255"/>
-      <c r="Q8" s="241" t="s">
+      <c r="K8" s="230"/>
+      <c r="L8" s="230"/>
+      <c r="M8" s="230"/>
+      <c r="N8" s="230"/>
+      <c r="O8" s="230"/>
+      <c r="P8" s="231"/>
+      <c r="Q8" s="205" t="s">
         <v>109</v>
       </c>
-      <c r="R8" s="242"/>
-      <c r="S8" s="242"/>
-      <c r="T8" s="242"/>
-      <c r="U8" s="242"/>
-      <c r="V8" s="242"/>
-      <c r="W8" s="242"/>
-      <c r="X8" s="242"/>
-      <c r="Y8" s="242"/>
-      <c r="Z8" s="242"/>
-      <c r="AA8" s="242"/>
-      <c r="AB8" s="242"/>
-      <c r="AC8" s="242"/>
-      <c r="AD8" s="242"/>
-      <c r="AE8" s="243"/>
-      <c r="AF8" s="253" t="s">
+      <c r="R8" s="206"/>
+      <c r="S8" s="206"/>
+      <c r="T8" s="206"/>
+      <c r="U8" s="206"/>
+      <c r="V8" s="206"/>
+      <c r="W8" s="206"/>
+      <c r="X8" s="206"/>
+      <c r="Y8" s="206"/>
+      <c r="Z8" s="206"/>
+      <c r="AA8" s="206"/>
+      <c r="AB8" s="206"/>
+      <c r="AC8" s="206"/>
+      <c r="AD8" s="206"/>
+      <c r="AE8" s="207"/>
+      <c r="AF8" s="229" t="s">
         <v>110</v>
       </c>
-      <c r="AG8" s="254"/>
-      <c r="AH8" s="254"/>
-      <c r="AI8" s="255"/>
+      <c r="AG8" s="230"/>
+      <c r="AH8" s="230"/>
+      <c r="AI8" s="231"/>
     </row>
     <row r="9" spans="1:40" s="55" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="57">
         <v>2</v>
       </c>
-      <c r="B9" s="222" t="s">
+      <c r="B9" s="214" t="s">
         <v>188</v>
       </c>
-      <c r="C9" s="223"/>
-      <c r="D9" s="224">
+      <c r="C9" s="216"/>
+      <c r="D9" s="241">
         <v>44796</v>
       </c>
-      <c r="E9" s="225"/>
-      <c r="F9" s="226"/>
-      <c r="G9" s="222" t="s">
+      <c r="E9" s="242"/>
+      <c r="F9" s="243"/>
+      <c r="G9" s="214" t="s">
         <v>189</v>
       </c>
-      <c r="H9" s="227"/>
-      <c r="I9" s="223"/>
-      <c r="J9" s="216" t="s">
+      <c r="H9" s="215"/>
+      <c r="I9" s="216"/>
+      <c r="J9" s="223" t="s">
         <v>200</v>
       </c>
-      <c r="K9" s="220"/>
-      <c r="L9" s="220"/>
-      <c r="M9" s="220"/>
-      <c r="N9" s="220"/>
-      <c r="O9" s="220"/>
-      <c r="P9" s="221"/>
-      <c r="Q9" s="216" t="s">
+      <c r="K9" s="227"/>
+      <c r="L9" s="227"/>
+      <c r="M9" s="227"/>
+      <c r="N9" s="227"/>
+      <c r="O9" s="227"/>
+      <c r="P9" s="228"/>
+      <c r="Q9" s="223" t="s">
         <v>205</v>
       </c>
-      <c r="R9" s="217"/>
-      <c r="S9" s="217"/>
-      <c r="T9" s="217"/>
-      <c r="U9" s="217"/>
-      <c r="V9" s="217"/>
-      <c r="W9" s="217"/>
-      <c r="X9" s="217"/>
-      <c r="Y9" s="217"/>
-      <c r="Z9" s="217"/>
-      <c r="AA9" s="217"/>
-      <c r="AB9" s="217"/>
-      <c r="AC9" s="217"/>
-      <c r="AD9" s="217"/>
-      <c r="AE9" s="218"/>
-      <c r="AF9" s="219" t="s">
+      <c r="R9" s="224"/>
+      <c r="S9" s="224"/>
+      <c r="T9" s="224"/>
+      <c r="U9" s="224"/>
+      <c r="V9" s="224"/>
+      <c r="W9" s="224"/>
+      <c r="X9" s="224"/>
+      <c r="Y9" s="224"/>
+      <c r="Z9" s="224"/>
+      <c r="AA9" s="224"/>
+      <c r="AB9" s="224"/>
+      <c r="AC9" s="224"/>
+      <c r="AD9" s="224"/>
+      <c r="AE9" s="225"/>
+      <c r="AF9" s="226" t="s">
         <v>187</v>
       </c>
-      <c r="AG9" s="220"/>
-      <c r="AH9" s="220"/>
-      <c r="AI9" s="221"/>
+      <c r="AG9" s="227"/>
+      <c r="AH9" s="227"/>
+      <c r="AI9" s="228"/>
     </row>
     <row r="10" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="57"/>
-      <c r="B10" s="222"/>
-      <c r="C10" s="223"/>
-      <c r="D10" s="224"/>
-      <c r="E10" s="225"/>
-      <c r="F10" s="226"/>
-      <c r="G10" s="222"/>
-      <c r="H10" s="227"/>
-      <c r="I10" s="223"/>
-      <c r="J10" s="219"/>
-      <c r="K10" s="220"/>
-      <c r="L10" s="220"/>
-      <c r="M10" s="220"/>
-      <c r="N10" s="220"/>
-      <c r="O10" s="220"/>
-      <c r="P10" s="221"/>
-      <c r="Q10" s="216"/>
-      <c r="R10" s="217"/>
-      <c r="S10" s="217"/>
-      <c r="T10" s="217"/>
-      <c r="U10" s="217"/>
-      <c r="V10" s="217"/>
-      <c r="W10" s="217"/>
-      <c r="X10" s="217"/>
-      <c r="Y10" s="217"/>
-      <c r="Z10" s="217"/>
-      <c r="AA10" s="217"/>
-      <c r="AB10" s="217"/>
-      <c r="AC10" s="217"/>
-      <c r="AD10" s="217"/>
-      <c r="AE10" s="218"/>
-      <c r="AF10" s="219"/>
-      <c r="AG10" s="220"/>
-      <c r="AH10" s="220"/>
-      <c r="AI10" s="221"/>
+      <c r="B10" s="214"/>
+      <c r="C10" s="216"/>
+      <c r="D10" s="241"/>
+      <c r="E10" s="242"/>
+      <c r="F10" s="243"/>
+      <c r="G10" s="214"/>
+      <c r="H10" s="215"/>
+      <c r="I10" s="216"/>
+      <c r="J10" s="226"/>
+      <c r="K10" s="227"/>
+      <c r="L10" s="227"/>
+      <c r="M10" s="227"/>
+      <c r="N10" s="227"/>
+      <c r="O10" s="227"/>
+      <c r="P10" s="228"/>
+      <c r="Q10" s="223"/>
+      <c r="R10" s="224"/>
+      <c r="S10" s="224"/>
+      <c r="T10" s="224"/>
+      <c r="U10" s="224"/>
+      <c r="V10" s="224"/>
+      <c r="W10" s="224"/>
+      <c r="X10" s="224"/>
+      <c r="Y10" s="224"/>
+      <c r="Z10" s="224"/>
+      <c r="AA10" s="224"/>
+      <c r="AB10" s="224"/>
+      <c r="AC10" s="224"/>
+      <c r="AD10" s="224"/>
+      <c r="AE10" s="225"/>
+      <c r="AF10" s="226"/>
+      <c r="AG10" s="227"/>
+      <c r="AH10" s="227"/>
+      <c r="AI10" s="228"/>
     </row>
     <row r="11" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="57"/>
-      <c r="B11" s="222"/>
-      <c r="C11" s="223"/>
-      <c r="D11" s="224"/>
-      <c r="E11" s="225"/>
-      <c r="F11" s="226"/>
-      <c r="G11" s="222"/>
-      <c r="H11" s="227"/>
-      <c r="I11" s="223"/>
-      <c r="J11" s="219"/>
-      <c r="K11" s="220"/>
-      <c r="L11" s="220"/>
-      <c r="M11" s="220"/>
-      <c r="N11" s="220"/>
-      <c r="O11" s="220"/>
-      <c r="P11" s="221"/>
-      <c r="Q11" s="216"/>
-      <c r="R11" s="217"/>
-      <c r="S11" s="217"/>
-      <c r="T11" s="217"/>
-      <c r="U11" s="217"/>
-      <c r="V11" s="217"/>
-      <c r="W11" s="217"/>
-      <c r="X11" s="217"/>
-      <c r="Y11" s="217"/>
-      <c r="Z11" s="217"/>
-      <c r="AA11" s="217"/>
-      <c r="AB11" s="217"/>
-      <c r="AC11" s="217"/>
-      <c r="AD11" s="217"/>
-      <c r="AE11" s="218"/>
-      <c r="AF11" s="219"/>
-      <c r="AG11" s="220"/>
-      <c r="AH11" s="220"/>
-      <c r="AI11" s="221"/>
+      <c r="B11" s="214"/>
+      <c r="C11" s="216"/>
+      <c r="D11" s="241"/>
+      <c r="E11" s="242"/>
+      <c r="F11" s="243"/>
+      <c r="G11" s="214"/>
+      <c r="H11" s="215"/>
+      <c r="I11" s="216"/>
+      <c r="J11" s="226"/>
+      <c r="K11" s="227"/>
+      <c r="L11" s="227"/>
+      <c r="M11" s="227"/>
+      <c r="N11" s="227"/>
+      <c r="O11" s="227"/>
+      <c r="P11" s="228"/>
+      <c r="Q11" s="223"/>
+      <c r="R11" s="224"/>
+      <c r="S11" s="224"/>
+      <c r="T11" s="224"/>
+      <c r="U11" s="224"/>
+      <c r="V11" s="224"/>
+      <c r="W11" s="224"/>
+      <c r="X11" s="224"/>
+      <c r="Y11" s="224"/>
+      <c r="Z11" s="224"/>
+      <c r="AA11" s="224"/>
+      <c r="AB11" s="224"/>
+      <c r="AC11" s="224"/>
+      <c r="AD11" s="224"/>
+      <c r="AE11" s="225"/>
+      <c r="AF11" s="226"/>
+      <c r="AG11" s="227"/>
+      <c r="AH11" s="227"/>
+      <c r="AI11" s="228"/>
     </row>
     <row r="12" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="57"/>
-      <c r="B12" s="222"/>
-      <c r="C12" s="223"/>
-      <c r="D12" s="224"/>
-      <c r="E12" s="225"/>
-      <c r="F12" s="226"/>
-      <c r="G12" s="222"/>
-      <c r="H12" s="227"/>
-      <c r="I12" s="223"/>
-      <c r="J12" s="219"/>
-      <c r="K12" s="220"/>
-      <c r="L12" s="220"/>
-      <c r="M12" s="220"/>
-      <c r="N12" s="220"/>
-      <c r="O12" s="220"/>
-      <c r="P12" s="221"/>
-      <c r="Q12" s="216"/>
-      <c r="R12" s="217"/>
-      <c r="S12" s="217"/>
-      <c r="T12" s="217"/>
-      <c r="U12" s="217"/>
-      <c r="V12" s="217"/>
-      <c r="W12" s="217"/>
-      <c r="X12" s="217"/>
-      <c r="Y12" s="217"/>
-      <c r="Z12" s="217"/>
-      <c r="AA12" s="217"/>
-      <c r="AB12" s="217"/>
-      <c r="AC12" s="217"/>
-      <c r="AD12" s="217"/>
-      <c r="AE12" s="218"/>
-      <c r="AF12" s="219"/>
-      <c r="AG12" s="220"/>
-      <c r="AH12" s="220"/>
-      <c r="AI12" s="221"/>
+      <c r="B12" s="214"/>
+      <c r="C12" s="216"/>
+      <c r="D12" s="241"/>
+      <c r="E12" s="242"/>
+      <c r="F12" s="243"/>
+      <c r="G12" s="214"/>
+      <c r="H12" s="215"/>
+      <c r="I12" s="216"/>
+      <c r="J12" s="226"/>
+      <c r="K12" s="227"/>
+      <c r="L12" s="227"/>
+      <c r="M12" s="227"/>
+      <c r="N12" s="227"/>
+      <c r="O12" s="227"/>
+      <c r="P12" s="228"/>
+      <c r="Q12" s="223"/>
+      <c r="R12" s="224"/>
+      <c r="S12" s="224"/>
+      <c r="T12" s="224"/>
+      <c r="U12" s="224"/>
+      <c r="V12" s="224"/>
+      <c r="W12" s="224"/>
+      <c r="X12" s="224"/>
+      <c r="Y12" s="224"/>
+      <c r="Z12" s="224"/>
+      <c r="AA12" s="224"/>
+      <c r="AB12" s="224"/>
+      <c r="AC12" s="224"/>
+      <c r="AD12" s="224"/>
+      <c r="AE12" s="225"/>
+      <c r="AF12" s="226"/>
+      <c r="AG12" s="227"/>
+      <c r="AH12" s="227"/>
+      <c r="AI12" s="228"/>
     </row>
     <row r="13" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="57"/>
-      <c r="B13" s="222"/>
-      <c r="C13" s="223"/>
-      <c r="D13" s="224"/>
-      <c r="E13" s="225"/>
-      <c r="F13" s="226"/>
-      <c r="G13" s="222"/>
-      <c r="H13" s="227"/>
-      <c r="I13" s="223"/>
-      <c r="J13" s="219"/>
-      <c r="K13" s="220"/>
-      <c r="L13" s="220"/>
-      <c r="M13" s="220"/>
-      <c r="N13" s="220"/>
-      <c r="O13" s="220"/>
-      <c r="P13" s="221"/>
-      <c r="Q13" s="216"/>
-      <c r="R13" s="217"/>
-      <c r="S13" s="217"/>
-      <c r="T13" s="217"/>
-      <c r="U13" s="217"/>
-      <c r="V13" s="217"/>
-      <c r="W13" s="217"/>
-      <c r="X13" s="217"/>
-      <c r="Y13" s="217"/>
-      <c r="Z13" s="217"/>
-      <c r="AA13" s="217"/>
-      <c r="AB13" s="217"/>
-      <c r="AC13" s="217"/>
-      <c r="AD13" s="217"/>
-      <c r="AE13" s="218"/>
-      <c r="AF13" s="219"/>
-      <c r="AG13" s="220"/>
-      <c r="AH13" s="220"/>
-      <c r="AI13" s="221"/>
+      <c r="B13" s="214"/>
+      <c r="C13" s="216"/>
+      <c r="D13" s="241"/>
+      <c r="E13" s="242"/>
+      <c r="F13" s="243"/>
+      <c r="G13" s="214"/>
+      <c r="H13" s="215"/>
+      <c r="I13" s="216"/>
+      <c r="J13" s="226"/>
+      <c r="K13" s="227"/>
+      <c r="L13" s="227"/>
+      <c r="M13" s="227"/>
+      <c r="N13" s="227"/>
+      <c r="O13" s="227"/>
+      <c r="P13" s="228"/>
+      <c r="Q13" s="223"/>
+      <c r="R13" s="224"/>
+      <c r="S13" s="224"/>
+      <c r="T13" s="224"/>
+      <c r="U13" s="224"/>
+      <c r="V13" s="224"/>
+      <c r="W13" s="224"/>
+      <c r="X13" s="224"/>
+      <c r="Y13" s="224"/>
+      <c r="Z13" s="224"/>
+      <c r="AA13" s="224"/>
+      <c r="AB13" s="224"/>
+      <c r="AC13" s="224"/>
+      <c r="AD13" s="224"/>
+      <c r="AE13" s="225"/>
+      <c r="AF13" s="226"/>
+      <c r="AG13" s="227"/>
+      <c r="AH13" s="227"/>
+      <c r="AI13" s="228"/>
     </row>
     <row r="14" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="57"/>
-      <c r="B14" s="222"/>
-      <c r="C14" s="223"/>
-      <c r="D14" s="224"/>
-      <c r="E14" s="225"/>
-      <c r="F14" s="226"/>
-      <c r="G14" s="222"/>
-      <c r="H14" s="227"/>
-      <c r="I14" s="223"/>
-      <c r="J14" s="219"/>
-      <c r="K14" s="220"/>
-      <c r="L14" s="220"/>
-      <c r="M14" s="220"/>
-      <c r="N14" s="220"/>
-      <c r="O14" s="220"/>
-      <c r="P14" s="221"/>
-      <c r="Q14" s="216"/>
-      <c r="R14" s="217"/>
-      <c r="S14" s="217"/>
-      <c r="T14" s="217"/>
-      <c r="U14" s="217"/>
-      <c r="V14" s="217"/>
-      <c r="W14" s="217"/>
-      <c r="X14" s="217"/>
-      <c r="Y14" s="217"/>
-      <c r="Z14" s="217"/>
-      <c r="AA14" s="217"/>
-      <c r="AB14" s="217"/>
-      <c r="AC14" s="217"/>
-      <c r="AD14" s="217"/>
-      <c r="AE14" s="218"/>
-      <c r="AF14" s="219"/>
-      <c r="AG14" s="220"/>
-      <c r="AH14" s="220"/>
-      <c r="AI14" s="221"/>
+      <c r="B14" s="214"/>
+      <c r="C14" s="216"/>
+      <c r="D14" s="241"/>
+      <c r="E14" s="242"/>
+      <c r="F14" s="243"/>
+      <c r="G14" s="214"/>
+      <c r="H14" s="215"/>
+      <c r="I14" s="216"/>
+      <c r="J14" s="226"/>
+      <c r="K14" s="227"/>
+      <c r="L14" s="227"/>
+      <c r="M14" s="227"/>
+      <c r="N14" s="227"/>
+      <c r="O14" s="227"/>
+      <c r="P14" s="228"/>
+      <c r="Q14" s="223"/>
+      <c r="R14" s="224"/>
+      <c r="S14" s="224"/>
+      <c r="T14" s="224"/>
+      <c r="U14" s="224"/>
+      <c r="V14" s="224"/>
+      <c r="W14" s="224"/>
+      <c r="X14" s="224"/>
+      <c r="Y14" s="224"/>
+      <c r="Z14" s="224"/>
+      <c r="AA14" s="224"/>
+      <c r="AB14" s="224"/>
+      <c r="AC14" s="224"/>
+      <c r="AD14" s="224"/>
+      <c r="AE14" s="225"/>
+      <c r="AF14" s="226"/>
+      <c r="AG14" s="227"/>
+      <c r="AH14" s="227"/>
+      <c r="AI14" s="228"/>
     </row>
     <row r="15" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="57"/>
-      <c r="B15" s="222"/>
-      <c r="C15" s="223"/>
-      <c r="D15" s="224"/>
-      <c r="E15" s="225"/>
-      <c r="F15" s="226"/>
-      <c r="G15" s="222"/>
-      <c r="H15" s="227"/>
-      <c r="I15" s="223"/>
-      <c r="J15" s="219"/>
-      <c r="K15" s="220"/>
-      <c r="L15" s="220"/>
-      <c r="M15" s="220"/>
-      <c r="N15" s="220"/>
-      <c r="O15" s="220"/>
-      <c r="P15" s="221"/>
-      <c r="Q15" s="216"/>
-      <c r="R15" s="217"/>
-      <c r="S15" s="217"/>
-      <c r="T15" s="217"/>
-      <c r="U15" s="217"/>
-      <c r="V15" s="217"/>
-      <c r="W15" s="217"/>
-      <c r="X15" s="217"/>
-      <c r="Y15" s="217"/>
-      <c r="Z15" s="217"/>
-      <c r="AA15" s="217"/>
-      <c r="AB15" s="217"/>
-      <c r="AC15" s="217"/>
-      <c r="AD15" s="217"/>
-      <c r="AE15" s="218"/>
-      <c r="AF15" s="219"/>
-      <c r="AG15" s="220"/>
-      <c r="AH15" s="220"/>
-      <c r="AI15" s="221"/>
+      <c r="B15" s="214"/>
+      <c r="C15" s="216"/>
+      <c r="D15" s="241"/>
+      <c r="E15" s="242"/>
+      <c r="F15" s="243"/>
+      <c r="G15" s="214"/>
+      <c r="H15" s="215"/>
+      <c r="I15" s="216"/>
+      <c r="J15" s="226"/>
+      <c r="K15" s="227"/>
+      <c r="L15" s="227"/>
+      <c r="M15" s="227"/>
+      <c r="N15" s="227"/>
+      <c r="O15" s="227"/>
+      <c r="P15" s="228"/>
+      <c r="Q15" s="223"/>
+      <c r="R15" s="224"/>
+      <c r="S15" s="224"/>
+      <c r="T15" s="224"/>
+      <c r="U15" s="224"/>
+      <c r="V15" s="224"/>
+      <c r="W15" s="224"/>
+      <c r="X15" s="224"/>
+      <c r="Y15" s="224"/>
+      <c r="Z15" s="224"/>
+      <c r="AA15" s="224"/>
+      <c r="AB15" s="224"/>
+      <c r="AC15" s="224"/>
+      <c r="AD15" s="224"/>
+      <c r="AE15" s="225"/>
+      <c r="AF15" s="226"/>
+      <c r="AG15" s="227"/>
+      <c r="AH15" s="227"/>
+      <c r="AI15" s="228"/>
     </row>
     <row r="16" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="57"/>
-      <c r="B16" s="222"/>
-      <c r="C16" s="223"/>
-      <c r="D16" s="224"/>
-      <c r="E16" s="225"/>
-      <c r="F16" s="226"/>
-      <c r="G16" s="222"/>
-      <c r="H16" s="227"/>
-      <c r="I16" s="223"/>
-      <c r="J16" s="219"/>
-      <c r="K16" s="220"/>
-      <c r="L16" s="220"/>
-      <c r="M16" s="220"/>
-      <c r="N16" s="220"/>
-      <c r="O16" s="220"/>
-      <c r="P16" s="221"/>
-      <c r="Q16" s="216"/>
-      <c r="R16" s="217"/>
-      <c r="S16" s="217"/>
-      <c r="T16" s="217"/>
-      <c r="U16" s="217"/>
-      <c r="V16" s="217"/>
-      <c r="W16" s="217"/>
-      <c r="X16" s="217"/>
-      <c r="Y16" s="217"/>
-      <c r="Z16" s="217"/>
-      <c r="AA16" s="217"/>
-      <c r="AB16" s="217"/>
-      <c r="AC16" s="217"/>
-      <c r="AD16" s="217"/>
-      <c r="AE16" s="218"/>
-      <c r="AF16" s="219"/>
-      <c r="AG16" s="220"/>
-      <c r="AH16" s="220"/>
-      <c r="AI16" s="221"/>
+      <c r="B16" s="214"/>
+      <c r="C16" s="216"/>
+      <c r="D16" s="241"/>
+      <c r="E16" s="242"/>
+      <c r="F16" s="243"/>
+      <c r="G16" s="214"/>
+      <c r="H16" s="215"/>
+      <c r="I16" s="216"/>
+      <c r="J16" s="226"/>
+      <c r="K16" s="227"/>
+      <c r="L16" s="227"/>
+      <c r="M16" s="227"/>
+      <c r="N16" s="227"/>
+      <c r="O16" s="227"/>
+      <c r="P16" s="228"/>
+      <c r="Q16" s="223"/>
+      <c r="R16" s="224"/>
+      <c r="S16" s="224"/>
+      <c r="T16" s="224"/>
+      <c r="U16" s="224"/>
+      <c r="V16" s="224"/>
+      <c r="W16" s="224"/>
+      <c r="X16" s="224"/>
+      <c r="Y16" s="224"/>
+      <c r="Z16" s="224"/>
+      <c r="AA16" s="224"/>
+      <c r="AB16" s="224"/>
+      <c r="AC16" s="224"/>
+      <c r="AD16" s="224"/>
+      <c r="AE16" s="225"/>
+      <c r="AF16" s="226"/>
+      <c r="AG16" s="227"/>
+      <c r="AH16" s="227"/>
+      <c r="AI16" s="228"/>
     </row>
     <row r="17" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="57"/>
-      <c r="B17" s="222"/>
-      <c r="C17" s="223"/>
-      <c r="D17" s="224"/>
-      <c r="E17" s="225"/>
-      <c r="F17" s="226"/>
-      <c r="G17" s="222"/>
-      <c r="H17" s="227"/>
-      <c r="I17" s="223"/>
-      <c r="J17" s="219"/>
-      <c r="K17" s="220"/>
-      <c r="L17" s="220"/>
-      <c r="M17" s="220"/>
-      <c r="N17" s="220"/>
-      <c r="O17" s="220"/>
-      <c r="P17" s="221"/>
-      <c r="Q17" s="216"/>
-      <c r="R17" s="217"/>
-      <c r="S17" s="217"/>
-      <c r="T17" s="217"/>
-      <c r="U17" s="217"/>
-      <c r="V17" s="217"/>
-      <c r="W17" s="217"/>
-      <c r="X17" s="217"/>
-      <c r="Y17" s="217"/>
-      <c r="Z17" s="217"/>
-      <c r="AA17" s="217"/>
-      <c r="AB17" s="217"/>
-      <c r="AC17" s="217"/>
-      <c r="AD17" s="217"/>
-      <c r="AE17" s="218"/>
-      <c r="AF17" s="219"/>
-      <c r="AG17" s="220"/>
-      <c r="AH17" s="220"/>
-      <c r="AI17" s="221"/>
+      <c r="B17" s="214"/>
+      <c r="C17" s="216"/>
+      <c r="D17" s="241"/>
+      <c r="E17" s="242"/>
+      <c r="F17" s="243"/>
+      <c r="G17" s="214"/>
+      <c r="H17" s="215"/>
+      <c r="I17" s="216"/>
+      <c r="J17" s="226"/>
+      <c r="K17" s="227"/>
+      <c r="L17" s="227"/>
+      <c r="M17" s="227"/>
+      <c r="N17" s="227"/>
+      <c r="O17" s="227"/>
+      <c r="P17" s="228"/>
+      <c r="Q17" s="223"/>
+      <c r="R17" s="224"/>
+      <c r="S17" s="224"/>
+      <c r="T17" s="224"/>
+      <c r="U17" s="224"/>
+      <c r="V17" s="224"/>
+      <c r="W17" s="224"/>
+      <c r="X17" s="224"/>
+      <c r="Y17" s="224"/>
+      <c r="Z17" s="224"/>
+      <c r="AA17" s="224"/>
+      <c r="AB17" s="224"/>
+      <c r="AC17" s="224"/>
+      <c r="AD17" s="224"/>
+      <c r="AE17" s="225"/>
+      <c r="AF17" s="226"/>
+      <c r="AG17" s="227"/>
+      <c r="AH17" s="227"/>
+      <c r="AI17" s="228"/>
     </row>
     <row r="18" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="57"/>
-      <c r="B18" s="222"/>
-      <c r="C18" s="223"/>
-      <c r="D18" s="224"/>
-      <c r="E18" s="225"/>
-      <c r="F18" s="226"/>
-      <c r="G18" s="222"/>
-      <c r="H18" s="227"/>
-      <c r="I18" s="223"/>
-      <c r="J18" s="219"/>
-      <c r="K18" s="220"/>
-      <c r="L18" s="220"/>
-      <c r="M18" s="220"/>
-      <c r="N18" s="220"/>
-      <c r="O18" s="220"/>
-      <c r="P18" s="221"/>
-      <c r="Q18" s="216"/>
-      <c r="R18" s="217"/>
-      <c r="S18" s="217"/>
-      <c r="T18" s="217"/>
-      <c r="U18" s="217"/>
-      <c r="V18" s="217"/>
-      <c r="W18" s="217"/>
-      <c r="X18" s="217"/>
-      <c r="Y18" s="217"/>
-      <c r="Z18" s="217"/>
-      <c r="AA18" s="217"/>
-      <c r="AB18" s="217"/>
-      <c r="AC18" s="217"/>
-      <c r="AD18" s="217"/>
-      <c r="AE18" s="218"/>
-      <c r="AF18" s="219"/>
-      <c r="AG18" s="220"/>
-      <c r="AH18" s="220"/>
-      <c r="AI18" s="221"/>
+      <c r="B18" s="214"/>
+      <c r="C18" s="216"/>
+      <c r="D18" s="241"/>
+      <c r="E18" s="242"/>
+      <c r="F18" s="243"/>
+      <c r="G18" s="214"/>
+      <c r="H18" s="215"/>
+      <c r="I18" s="216"/>
+      <c r="J18" s="226"/>
+      <c r="K18" s="227"/>
+      <c r="L18" s="227"/>
+      <c r="M18" s="227"/>
+      <c r="N18" s="227"/>
+      <c r="O18" s="227"/>
+      <c r="P18" s="228"/>
+      <c r="Q18" s="223"/>
+      <c r="R18" s="224"/>
+      <c r="S18" s="224"/>
+      <c r="T18" s="224"/>
+      <c r="U18" s="224"/>
+      <c r="V18" s="224"/>
+      <c r="W18" s="224"/>
+      <c r="X18" s="224"/>
+      <c r="Y18" s="224"/>
+      <c r="Z18" s="224"/>
+      <c r="AA18" s="224"/>
+      <c r="AB18" s="224"/>
+      <c r="AC18" s="224"/>
+      <c r="AD18" s="224"/>
+      <c r="AE18" s="225"/>
+      <c r="AF18" s="226"/>
+      <c r="AG18" s="227"/>
+      <c r="AH18" s="227"/>
+      <c r="AI18" s="228"/>
     </row>
     <row r="19" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="57"/>
-      <c r="B19" s="222"/>
-      <c r="C19" s="223"/>
-      <c r="D19" s="224"/>
-      <c r="E19" s="225"/>
-      <c r="F19" s="226"/>
-      <c r="G19" s="222"/>
-      <c r="H19" s="227"/>
-      <c r="I19" s="223"/>
-      <c r="J19" s="219"/>
-      <c r="K19" s="220"/>
-      <c r="L19" s="220"/>
-      <c r="M19" s="220"/>
-      <c r="N19" s="220"/>
-      <c r="O19" s="220"/>
-      <c r="P19" s="221"/>
-      <c r="Q19" s="216"/>
-      <c r="R19" s="217"/>
-      <c r="S19" s="217"/>
-      <c r="T19" s="217"/>
-      <c r="U19" s="217"/>
-      <c r="V19" s="217"/>
-      <c r="W19" s="217"/>
-      <c r="X19" s="217"/>
-      <c r="Y19" s="217"/>
-      <c r="Z19" s="217"/>
-      <c r="AA19" s="217"/>
-      <c r="AB19" s="217"/>
-      <c r="AC19" s="217"/>
-      <c r="AD19" s="217"/>
-      <c r="AE19" s="218"/>
-      <c r="AF19" s="219"/>
-      <c r="AG19" s="220"/>
-      <c r="AH19" s="220"/>
-      <c r="AI19" s="221"/>
+      <c r="B19" s="214"/>
+      <c r="C19" s="216"/>
+      <c r="D19" s="241"/>
+      <c r="E19" s="242"/>
+      <c r="F19" s="243"/>
+      <c r="G19" s="214"/>
+      <c r="H19" s="215"/>
+      <c r="I19" s="216"/>
+      <c r="J19" s="226"/>
+      <c r="K19" s="227"/>
+      <c r="L19" s="227"/>
+      <c r="M19" s="227"/>
+      <c r="N19" s="227"/>
+      <c r="O19" s="227"/>
+      <c r="P19" s="228"/>
+      <c r="Q19" s="223"/>
+      <c r="R19" s="224"/>
+      <c r="S19" s="224"/>
+      <c r="T19" s="224"/>
+      <c r="U19" s="224"/>
+      <c r="V19" s="224"/>
+      <c r="W19" s="224"/>
+      <c r="X19" s="224"/>
+      <c r="Y19" s="224"/>
+      <c r="Z19" s="224"/>
+      <c r="AA19" s="224"/>
+      <c r="AB19" s="224"/>
+      <c r="AC19" s="224"/>
+      <c r="AD19" s="224"/>
+      <c r="AE19" s="225"/>
+      <c r="AF19" s="226"/>
+      <c r="AG19" s="227"/>
+      <c r="AH19" s="227"/>
+      <c r="AI19" s="228"/>
     </row>
     <row r="20" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="57"/>
-      <c r="B20" s="222"/>
-      <c r="C20" s="223"/>
-      <c r="D20" s="224"/>
-      <c r="E20" s="225"/>
-      <c r="F20" s="226"/>
-      <c r="G20" s="222"/>
-      <c r="H20" s="227"/>
-      <c r="I20" s="223"/>
-      <c r="J20" s="219"/>
-      <c r="K20" s="220"/>
-      <c r="L20" s="220"/>
-      <c r="M20" s="220"/>
-      <c r="N20" s="220"/>
-      <c r="O20" s="220"/>
-      <c r="P20" s="221"/>
-      <c r="Q20" s="216"/>
-      <c r="R20" s="217"/>
-      <c r="S20" s="217"/>
-      <c r="T20" s="217"/>
-      <c r="U20" s="217"/>
-      <c r="V20" s="217"/>
-      <c r="W20" s="217"/>
-      <c r="X20" s="217"/>
-      <c r="Y20" s="217"/>
-      <c r="Z20" s="217"/>
-      <c r="AA20" s="217"/>
-      <c r="AB20" s="217"/>
-      <c r="AC20" s="217"/>
-      <c r="AD20" s="217"/>
-      <c r="AE20" s="218"/>
-      <c r="AF20" s="219"/>
-      <c r="AG20" s="220"/>
-      <c r="AH20" s="220"/>
-      <c r="AI20" s="221"/>
+      <c r="B20" s="214"/>
+      <c r="C20" s="216"/>
+      <c r="D20" s="241"/>
+      <c r="E20" s="242"/>
+      <c r="F20" s="243"/>
+      <c r="G20" s="214"/>
+      <c r="H20" s="215"/>
+      <c r="I20" s="216"/>
+      <c r="J20" s="226"/>
+      <c r="K20" s="227"/>
+      <c r="L20" s="227"/>
+      <c r="M20" s="227"/>
+      <c r="N20" s="227"/>
+      <c r="O20" s="227"/>
+      <c r="P20" s="228"/>
+      <c r="Q20" s="223"/>
+      <c r="R20" s="224"/>
+      <c r="S20" s="224"/>
+      <c r="T20" s="224"/>
+      <c r="U20" s="224"/>
+      <c r="V20" s="224"/>
+      <c r="W20" s="224"/>
+      <c r="X20" s="224"/>
+      <c r="Y20" s="224"/>
+      <c r="Z20" s="224"/>
+      <c r="AA20" s="224"/>
+      <c r="AB20" s="224"/>
+      <c r="AC20" s="224"/>
+      <c r="AD20" s="224"/>
+      <c r="AE20" s="225"/>
+      <c r="AF20" s="226"/>
+      <c r="AG20" s="227"/>
+      <c r="AH20" s="227"/>
+      <c r="AI20" s="228"/>
     </row>
     <row r="21" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="57"/>
-      <c r="B21" s="222"/>
-      <c r="C21" s="223"/>
-      <c r="D21" s="224"/>
-      <c r="E21" s="225"/>
-      <c r="F21" s="226"/>
-      <c r="G21" s="222"/>
-      <c r="H21" s="227"/>
-      <c r="I21" s="223"/>
-      <c r="J21" s="219"/>
-      <c r="K21" s="220"/>
-      <c r="L21" s="220"/>
-      <c r="M21" s="220"/>
-      <c r="N21" s="220"/>
-      <c r="O21" s="220"/>
-      <c r="P21" s="221"/>
-      <c r="Q21" s="216"/>
-      <c r="R21" s="217"/>
-      <c r="S21" s="217"/>
-      <c r="T21" s="217"/>
-      <c r="U21" s="217"/>
-      <c r="V21" s="217"/>
-      <c r="W21" s="217"/>
-      <c r="X21" s="217"/>
-      <c r="Y21" s="217"/>
-      <c r="Z21" s="217"/>
-      <c r="AA21" s="217"/>
-      <c r="AB21" s="217"/>
-      <c r="AC21" s="217"/>
-      <c r="AD21" s="217"/>
-      <c r="AE21" s="218"/>
-      <c r="AF21" s="219"/>
-      <c r="AG21" s="220"/>
-      <c r="AH21" s="220"/>
-      <c r="AI21" s="221"/>
+      <c r="B21" s="214"/>
+      <c r="C21" s="216"/>
+      <c r="D21" s="241"/>
+      <c r="E21" s="242"/>
+      <c r="F21" s="243"/>
+      <c r="G21" s="214"/>
+      <c r="H21" s="215"/>
+      <c r="I21" s="216"/>
+      <c r="J21" s="226"/>
+      <c r="K21" s="227"/>
+      <c r="L21" s="227"/>
+      <c r="M21" s="227"/>
+      <c r="N21" s="227"/>
+      <c r="O21" s="227"/>
+      <c r="P21" s="228"/>
+      <c r="Q21" s="223"/>
+      <c r="R21" s="224"/>
+      <c r="S21" s="224"/>
+      <c r="T21" s="224"/>
+      <c r="U21" s="224"/>
+      <c r="V21" s="224"/>
+      <c r="W21" s="224"/>
+      <c r="X21" s="224"/>
+      <c r="Y21" s="224"/>
+      <c r="Z21" s="224"/>
+      <c r="AA21" s="224"/>
+      <c r="AB21" s="224"/>
+      <c r="AC21" s="224"/>
+      <c r="AD21" s="224"/>
+      <c r="AE21" s="225"/>
+      <c r="AF21" s="226"/>
+      <c r="AG21" s="227"/>
+      <c r="AH21" s="227"/>
+      <c r="AI21" s="228"/>
     </row>
     <row r="22" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="57"/>
-      <c r="B22" s="222"/>
-      <c r="C22" s="223"/>
-      <c r="D22" s="224"/>
-      <c r="E22" s="225"/>
-      <c r="F22" s="226"/>
-      <c r="G22" s="222"/>
-      <c r="H22" s="227"/>
-      <c r="I22" s="223"/>
-      <c r="J22" s="219"/>
-      <c r="K22" s="220"/>
-      <c r="L22" s="220"/>
-      <c r="M22" s="220"/>
-      <c r="N22" s="220"/>
-      <c r="O22" s="220"/>
-      <c r="P22" s="221"/>
-      <c r="Q22" s="216"/>
-      <c r="R22" s="217"/>
-      <c r="S22" s="217"/>
-      <c r="T22" s="217"/>
-      <c r="U22" s="217"/>
-      <c r="V22" s="217"/>
-      <c r="W22" s="217"/>
-      <c r="X22" s="217"/>
-      <c r="Y22" s="217"/>
-      <c r="Z22" s="217"/>
-      <c r="AA22" s="217"/>
-      <c r="AB22" s="217"/>
-      <c r="AC22" s="217"/>
-      <c r="AD22" s="217"/>
-      <c r="AE22" s="218"/>
-      <c r="AF22" s="219"/>
-      <c r="AG22" s="220"/>
-      <c r="AH22" s="220"/>
-      <c r="AI22" s="221"/>
+      <c r="B22" s="214"/>
+      <c r="C22" s="216"/>
+      <c r="D22" s="241"/>
+      <c r="E22" s="242"/>
+      <c r="F22" s="243"/>
+      <c r="G22" s="214"/>
+      <c r="H22" s="215"/>
+      <c r="I22" s="216"/>
+      <c r="J22" s="226"/>
+      <c r="K22" s="227"/>
+      <c r="L22" s="227"/>
+      <c r="M22" s="227"/>
+      <c r="N22" s="227"/>
+      <c r="O22" s="227"/>
+      <c r="P22" s="228"/>
+      <c r="Q22" s="223"/>
+      <c r="R22" s="224"/>
+      <c r="S22" s="224"/>
+      <c r="T22" s="224"/>
+      <c r="U22" s="224"/>
+      <c r="V22" s="224"/>
+      <c r="W22" s="224"/>
+      <c r="X22" s="224"/>
+      <c r="Y22" s="224"/>
+      <c r="Z22" s="224"/>
+      <c r="AA22" s="224"/>
+      <c r="AB22" s="224"/>
+      <c r="AC22" s="224"/>
+      <c r="AD22" s="224"/>
+      <c r="AE22" s="225"/>
+      <c r="AF22" s="226"/>
+      <c r="AG22" s="227"/>
+      <c r="AH22" s="227"/>
+      <c r="AI22" s="228"/>
     </row>
     <row r="23" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="57"/>
-      <c r="B23" s="222"/>
-      <c r="C23" s="223"/>
-      <c r="D23" s="224"/>
-      <c r="E23" s="225"/>
-      <c r="F23" s="226"/>
-      <c r="G23" s="222"/>
-      <c r="H23" s="227"/>
-      <c r="I23" s="223"/>
-      <c r="J23" s="219"/>
-      <c r="K23" s="220"/>
-      <c r="L23" s="220"/>
-      <c r="M23" s="220"/>
-      <c r="N23" s="220"/>
-      <c r="O23" s="220"/>
-      <c r="P23" s="221"/>
-      <c r="Q23" s="216"/>
-      <c r="R23" s="217"/>
-      <c r="S23" s="217"/>
-      <c r="T23" s="217"/>
-      <c r="U23" s="217"/>
-      <c r="V23" s="217"/>
-      <c r="W23" s="217"/>
-      <c r="X23" s="217"/>
-      <c r="Y23" s="217"/>
-      <c r="Z23" s="217"/>
-      <c r="AA23" s="217"/>
-      <c r="AB23" s="217"/>
-      <c r="AC23" s="217"/>
-      <c r="AD23" s="217"/>
-      <c r="AE23" s="218"/>
-      <c r="AF23" s="219"/>
-      <c r="AG23" s="220"/>
-      <c r="AH23" s="220"/>
-      <c r="AI23" s="221"/>
+      <c r="B23" s="214"/>
+      <c r="C23" s="216"/>
+      <c r="D23" s="241"/>
+      <c r="E23" s="242"/>
+      <c r="F23" s="243"/>
+      <c r="G23" s="214"/>
+      <c r="H23" s="215"/>
+      <c r="I23" s="216"/>
+      <c r="J23" s="226"/>
+      <c r="K23" s="227"/>
+      <c r="L23" s="227"/>
+      <c r="M23" s="227"/>
+      <c r="N23" s="227"/>
+      <c r="O23" s="227"/>
+      <c r="P23" s="228"/>
+      <c r="Q23" s="223"/>
+      <c r="R23" s="224"/>
+      <c r="S23" s="224"/>
+      <c r="T23" s="224"/>
+      <c r="U23" s="224"/>
+      <c r="V23" s="224"/>
+      <c r="W23" s="224"/>
+      <c r="X23" s="224"/>
+      <c r="Y23" s="224"/>
+      <c r="Z23" s="224"/>
+      <c r="AA23" s="224"/>
+      <c r="AB23" s="224"/>
+      <c r="AC23" s="224"/>
+      <c r="AD23" s="224"/>
+      <c r="AE23" s="225"/>
+      <c r="AF23" s="226"/>
+      <c r="AG23" s="227"/>
+      <c r="AH23" s="227"/>
+      <c r="AI23" s="228"/>
     </row>
     <row r="24" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="57"/>
-      <c r="B24" s="222"/>
-      <c r="C24" s="223"/>
-      <c r="D24" s="224"/>
-      <c r="E24" s="225"/>
-      <c r="F24" s="226"/>
-      <c r="G24" s="222"/>
-      <c r="H24" s="227"/>
-      <c r="I24" s="223"/>
-      <c r="J24" s="219"/>
-      <c r="K24" s="220"/>
-      <c r="L24" s="220"/>
-      <c r="M24" s="220"/>
-      <c r="N24" s="220"/>
-      <c r="O24" s="220"/>
-      <c r="P24" s="221"/>
-      <c r="Q24" s="216"/>
-      <c r="R24" s="217"/>
-      <c r="S24" s="217"/>
-      <c r="T24" s="217"/>
-      <c r="U24" s="217"/>
-      <c r="V24" s="217"/>
-      <c r="W24" s="217"/>
-      <c r="X24" s="217"/>
-      <c r="Y24" s="217"/>
-      <c r="Z24" s="217"/>
-      <c r="AA24" s="217"/>
-      <c r="AB24" s="217"/>
-      <c r="AC24" s="217"/>
-      <c r="AD24" s="217"/>
-      <c r="AE24" s="218"/>
-      <c r="AF24" s="219"/>
-      <c r="AG24" s="220"/>
-      <c r="AH24" s="220"/>
-      <c r="AI24" s="221"/>
+      <c r="B24" s="214"/>
+      <c r="C24" s="216"/>
+      <c r="D24" s="241"/>
+      <c r="E24" s="242"/>
+      <c r="F24" s="243"/>
+      <c r="G24" s="214"/>
+      <c r="H24" s="215"/>
+      <c r="I24" s="216"/>
+      <c r="J24" s="226"/>
+      <c r="K24" s="227"/>
+      <c r="L24" s="227"/>
+      <c r="M24" s="227"/>
+      <c r="N24" s="227"/>
+      <c r="O24" s="227"/>
+      <c r="P24" s="228"/>
+      <c r="Q24" s="223"/>
+      <c r="R24" s="224"/>
+      <c r="S24" s="224"/>
+      <c r="T24" s="224"/>
+      <c r="U24" s="224"/>
+      <c r="V24" s="224"/>
+      <c r="W24" s="224"/>
+      <c r="X24" s="224"/>
+      <c r="Y24" s="224"/>
+      <c r="Z24" s="224"/>
+      <c r="AA24" s="224"/>
+      <c r="AB24" s="224"/>
+      <c r="AC24" s="224"/>
+      <c r="AD24" s="224"/>
+      <c r="AE24" s="225"/>
+      <c r="AF24" s="226"/>
+      <c r="AG24" s="227"/>
+      <c r="AH24" s="227"/>
+      <c r="AI24" s="228"/>
     </row>
     <row r="25" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="57"/>
-      <c r="B25" s="222"/>
-      <c r="C25" s="223"/>
-      <c r="D25" s="224"/>
-      <c r="E25" s="225"/>
-      <c r="F25" s="226"/>
-      <c r="G25" s="222"/>
-      <c r="H25" s="227"/>
-      <c r="I25" s="223"/>
-      <c r="J25" s="219"/>
-      <c r="K25" s="220"/>
-      <c r="L25" s="220"/>
-      <c r="M25" s="220"/>
-      <c r="N25" s="220"/>
-      <c r="O25" s="220"/>
-      <c r="P25" s="221"/>
-      <c r="Q25" s="216"/>
-      <c r="R25" s="217"/>
-      <c r="S25" s="217"/>
-      <c r="T25" s="217"/>
-      <c r="U25" s="217"/>
-      <c r="V25" s="217"/>
-      <c r="W25" s="217"/>
-      <c r="X25" s="217"/>
-      <c r="Y25" s="217"/>
-      <c r="Z25" s="217"/>
-      <c r="AA25" s="217"/>
-      <c r="AB25" s="217"/>
-      <c r="AC25" s="217"/>
-      <c r="AD25" s="217"/>
-      <c r="AE25" s="218"/>
-      <c r="AF25" s="219"/>
-      <c r="AG25" s="220"/>
-      <c r="AH25" s="220"/>
-      <c r="AI25" s="221"/>
+      <c r="B25" s="214"/>
+      <c r="C25" s="216"/>
+      <c r="D25" s="241"/>
+      <c r="E25" s="242"/>
+      <c r="F25" s="243"/>
+      <c r="G25" s="214"/>
+      <c r="H25" s="215"/>
+      <c r="I25" s="216"/>
+      <c r="J25" s="226"/>
+      <c r="K25" s="227"/>
+      <c r="L25" s="227"/>
+      <c r="M25" s="227"/>
+      <c r="N25" s="227"/>
+      <c r="O25" s="227"/>
+      <c r="P25" s="228"/>
+      <c r="Q25" s="223"/>
+      <c r="R25" s="224"/>
+      <c r="S25" s="224"/>
+      <c r="T25" s="224"/>
+      <c r="U25" s="224"/>
+      <c r="V25" s="224"/>
+      <c r="W25" s="224"/>
+      <c r="X25" s="224"/>
+      <c r="Y25" s="224"/>
+      <c r="Z25" s="224"/>
+      <c r="AA25" s="224"/>
+      <c r="AB25" s="224"/>
+      <c r="AC25" s="224"/>
+      <c r="AD25" s="224"/>
+      <c r="AE25" s="225"/>
+      <c r="AF25" s="226"/>
+      <c r="AG25" s="227"/>
+      <c r="AH25" s="227"/>
+      <c r="AI25" s="228"/>
     </row>
     <row r="26" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="57"/>
-      <c r="B26" s="222"/>
-      <c r="C26" s="223"/>
-      <c r="D26" s="224"/>
-      <c r="E26" s="225"/>
-      <c r="F26" s="226"/>
-      <c r="G26" s="222"/>
-      <c r="H26" s="227"/>
-      <c r="I26" s="223"/>
-      <c r="J26" s="219"/>
-      <c r="K26" s="220"/>
-      <c r="L26" s="220"/>
-      <c r="M26" s="220"/>
-      <c r="N26" s="220"/>
-      <c r="O26" s="220"/>
-      <c r="P26" s="221"/>
-      <c r="Q26" s="216"/>
-      <c r="R26" s="217"/>
-      <c r="S26" s="217"/>
-      <c r="T26" s="217"/>
-      <c r="U26" s="217"/>
-      <c r="V26" s="217"/>
-      <c r="W26" s="217"/>
-      <c r="X26" s="217"/>
-      <c r="Y26" s="217"/>
-      <c r="Z26" s="217"/>
-      <c r="AA26" s="217"/>
-      <c r="AB26" s="217"/>
-      <c r="AC26" s="217"/>
-      <c r="AD26" s="217"/>
-      <c r="AE26" s="218"/>
-      <c r="AF26" s="219"/>
-      <c r="AG26" s="220"/>
-      <c r="AH26" s="220"/>
-      <c r="AI26" s="221"/>
+      <c r="B26" s="214"/>
+      <c r="C26" s="216"/>
+      <c r="D26" s="241"/>
+      <c r="E26" s="242"/>
+      <c r="F26" s="243"/>
+      <c r="G26" s="214"/>
+      <c r="H26" s="215"/>
+      <c r="I26" s="216"/>
+      <c r="J26" s="226"/>
+      <c r="K26" s="227"/>
+      <c r="L26" s="227"/>
+      <c r="M26" s="227"/>
+      <c r="N26" s="227"/>
+      <c r="O26" s="227"/>
+      <c r="P26" s="228"/>
+      <c r="Q26" s="223"/>
+      <c r="R26" s="224"/>
+      <c r="S26" s="224"/>
+      <c r="T26" s="224"/>
+      <c r="U26" s="224"/>
+      <c r="V26" s="224"/>
+      <c r="W26" s="224"/>
+      <c r="X26" s="224"/>
+      <c r="Y26" s="224"/>
+      <c r="Z26" s="224"/>
+      <c r="AA26" s="224"/>
+      <c r="AB26" s="224"/>
+      <c r="AC26" s="224"/>
+      <c r="AD26" s="224"/>
+      <c r="AE26" s="225"/>
+      <c r="AF26" s="226"/>
+      <c r="AG26" s="227"/>
+      <c r="AH26" s="227"/>
+      <c r="AI26" s="228"/>
     </row>
     <row r="27" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="57"/>
-      <c r="B27" s="222"/>
-      <c r="C27" s="223"/>
-      <c r="D27" s="224"/>
-      <c r="E27" s="225"/>
-      <c r="F27" s="226"/>
-      <c r="G27" s="222"/>
-      <c r="H27" s="227"/>
-      <c r="I27" s="223"/>
-      <c r="J27" s="219"/>
-      <c r="K27" s="220"/>
-      <c r="L27" s="220"/>
-      <c r="M27" s="220"/>
-      <c r="N27" s="220"/>
-      <c r="O27" s="220"/>
-      <c r="P27" s="221"/>
-      <c r="Q27" s="216"/>
-      <c r="R27" s="217"/>
-      <c r="S27" s="217"/>
-      <c r="T27" s="217"/>
-      <c r="U27" s="217"/>
-      <c r="V27" s="217"/>
-      <c r="W27" s="217"/>
-      <c r="X27" s="217"/>
-      <c r="Y27" s="217"/>
-      <c r="Z27" s="217"/>
-      <c r="AA27" s="217"/>
-      <c r="AB27" s="217"/>
-      <c r="AC27" s="217"/>
-      <c r="AD27" s="217"/>
-      <c r="AE27" s="218"/>
-      <c r="AF27" s="219"/>
-      <c r="AG27" s="220"/>
-      <c r="AH27" s="220"/>
-      <c r="AI27" s="221"/>
+      <c r="B27" s="214"/>
+      <c r="C27" s="216"/>
+      <c r="D27" s="241"/>
+      <c r="E27" s="242"/>
+      <c r="F27" s="243"/>
+      <c r="G27" s="214"/>
+      <c r="H27" s="215"/>
+      <c r="I27" s="216"/>
+      <c r="J27" s="226"/>
+      <c r="K27" s="227"/>
+      <c r="L27" s="227"/>
+      <c r="M27" s="227"/>
+      <c r="N27" s="227"/>
+      <c r="O27" s="227"/>
+      <c r="P27" s="228"/>
+      <c r="Q27" s="223"/>
+      <c r="R27" s="224"/>
+      <c r="S27" s="224"/>
+      <c r="T27" s="224"/>
+      <c r="U27" s="224"/>
+      <c r="V27" s="224"/>
+      <c r="W27" s="224"/>
+      <c r="X27" s="224"/>
+      <c r="Y27" s="224"/>
+      <c r="Z27" s="224"/>
+      <c r="AA27" s="224"/>
+      <c r="AB27" s="224"/>
+      <c r="AC27" s="224"/>
+      <c r="AD27" s="224"/>
+      <c r="AE27" s="225"/>
+      <c r="AF27" s="226"/>
+      <c r="AG27" s="227"/>
+      <c r="AH27" s="227"/>
+      <c r="AI27" s="228"/>
     </row>
     <row r="28" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="57"/>
-      <c r="B28" s="222"/>
-      <c r="C28" s="223"/>
-      <c r="D28" s="224"/>
-      <c r="E28" s="225"/>
-      <c r="F28" s="226"/>
-      <c r="G28" s="222"/>
-      <c r="H28" s="227"/>
-      <c r="I28" s="223"/>
-      <c r="J28" s="219"/>
-      <c r="K28" s="220"/>
-      <c r="L28" s="220"/>
-      <c r="M28" s="220"/>
-      <c r="N28" s="220"/>
-      <c r="O28" s="220"/>
-      <c r="P28" s="221"/>
-      <c r="Q28" s="216"/>
-      <c r="R28" s="217"/>
-      <c r="S28" s="217"/>
-      <c r="T28" s="217"/>
-      <c r="U28" s="217"/>
-      <c r="V28" s="217"/>
-      <c r="W28" s="217"/>
-      <c r="X28" s="217"/>
-      <c r="Y28" s="217"/>
-      <c r="Z28" s="217"/>
-      <c r="AA28" s="217"/>
-      <c r="AB28" s="217"/>
-      <c r="AC28" s="217"/>
-      <c r="AD28" s="217"/>
-      <c r="AE28" s="218"/>
-      <c r="AF28" s="219"/>
-      <c r="AG28" s="220"/>
-      <c r="AH28" s="220"/>
-      <c r="AI28" s="221"/>
+      <c r="B28" s="214"/>
+      <c r="C28" s="216"/>
+      <c r="D28" s="241"/>
+      <c r="E28" s="242"/>
+      <c r="F28" s="243"/>
+      <c r="G28" s="214"/>
+      <c r="H28" s="215"/>
+      <c r="I28" s="216"/>
+      <c r="J28" s="226"/>
+      <c r="K28" s="227"/>
+      <c r="L28" s="227"/>
+      <c r="M28" s="227"/>
+      <c r="N28" s="227"/>
+      <c r="O28" s="227"/>
+      <c r="P28" s="228"/>
+      <c r="Q28" s="223"/>
+      <c r="R28" s="224"/>
+      <c r="S28" s="224"/>
+      <c r="T28" s="224"/>
+      <c r="U28" s="224"/>
+      <c r="V28" s="224"/>
+      <c r="W28" s="224"/>
+      <c r="X28" s="224"/>
+      <c r="Y28" s="224"/>
+      <c r="Z28" s="224"/>
+      <c r="AA28" s="224"/>
+      <c r="AB28" s="224"/>
+      <c r="AC28" s="224"/>
+      <c r="AD28" s="224"/>
+      <c r="AE28" s="225"/>
+      <c r="AF28" s="226"/>
+      <c r="AG28" s="227"/>
+      <c r="AH28" s="227"/>
+      <c r="AI28" s="228"/>
     </row>
     <row r="29" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="57"/>
-      <c r="B29" s="222"/>
-      <c r="C29" s="223"/>
-      <c r="D29" s="224"/>
-      <c r="E29" s="225"/>
-      <c r="F29" s="226"/>
-      <c r="G29" s="222"/>
-      <c r="H29" s="227"/>
-      <c r="I29" s="223"/>
-      <c r="J29" s="219"/>
-      <c r="K29" s="220"/>
-      <c r="L29" s="220"/>
-      <c r="M29" s="220"/>
-      <c r="N29" s="220"/>
-      <c r="O29" s="220"/>
-      <c r="P29" s="221"/>
-      <c r="Q29" s="216"/>
-      <c r="R29" s="217"/>
-      <c r="S29" s="217"/>
-      <c r="T29" s="217"/>
-      <c r="U29" s="217"/>
-      <c r="V29" s="217"/>
-      <c r="W29" s="217"/>
-      <c r="X29" s="217"/>
-      <c r="Y29" s="217"/>
-      <c r="Z29" s="217"/>
-      <c r="AA29" s="217"/>
-      <c r="AB29" s="217"/>
-      <c r="AC29" s="217"/>
-      <c r="AD29" s="217"/>
-      <c r="AE29" s="218"/>
-      <c r="AF29" s="219"/>
-      <c r="AG29" s="220"/>
-      <c r="AH29" s="220"/>
-      <c r="AI29" s="221"/>
+      <c r="B29" s="214"/>
+      <c r="C29" s="216"/>
+      <c r="D29" s="241"/>
+      <c r="E29" s="242"/>
+      <c r="F29" s="243"/>
+      <c r="G29" s="214"/>
+      <c r="H29" s="215"/>
+      <c r="I29" s="216"/>
+      <c r="J29" s="226"/>
+      <c r="K29" s="227"/>
+      <c r="L29" s="227"/>
+      <c r="M29" s="227"/>
+      <c r="N29" s="227"/>
+      <c r="O29" s="227"/>
+      <c r="P29" s="228"/>
+      <c r="Q29" s="223"/>
+      <c r="R29" s="224"/>
+      <c r="S29" s="224"/>
+      <c r="T29" s="224"/>
+      <c r="U29" s="224"/>
+      <c r="V29" s="224"/>
+      <c r="W29" s="224"/>
+      <c r="X29" s="224"/>
+      <c r="Y29" s="224"/>
+      <c r="Z29" s="224"/>
+      <c r="AA29" s="224"/>
+      <c r="AB29" s="224"/>
+      <c r="AC29" s="224"/>
+      <c r="AD29" s="224"/>
+      <c r="AE29" s="225"/>
+      <c r="AF29" s="226"/>
+      <c r="AG29" s="227"/>
+      <c r="AH29" s="227"/>
+      <c r="AI29" s="228"/>
     </row>
     <row r="30" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="57"/>
-      <c r="B30" s="222"/>
-      <c r="C30" s="223"/>
-      <c r="D30" s="224"/>
-      <c r="E30" s="225"/>
-      <c r="F30" s="226"/>
-      <c r="G30" s="222"/>
-      <c r="H30" s="227"/>
-      <c r="I30" s="223"/>
-      <c r="J30" s="219"/>
-      <c r="K30" s="220"/>
-      <c r="L30" s="220"/>
-      <c r="M30" s="220"/>
-      <c r="N30" s="220"/>
-      <c r="O30" s="220"/>
-      <c r="P30" s="221"/>
-      <c r="Q30" s="216"/>
-      <c r="R30" s="217"/>
-      <c r="S30" s="217"/>
-      <c r="T30" s="217"/>
-      <c r="U30" s="217"/>
-      <c r="V30" s="217"/>
-      <c r="W30" s="217"/>
-      <c r="X30" s="217"/>
-      <c r="Y30" s="217"/>
-      <c r="Z30" s="217"/>
-      <c r="AA30" s="217"/>
-      <c r="AB30" s="217"/>
-      <c r="AC30" s="217"/>
-      <c r="AD30" s="217"/>
-      <c r="AE30" s="218"/>
-      <c r="AF30" s="219"/>
-      <c r="AG30" s="220"/>
-      <c r="AH30" s="220"/>
-      <c r="AI30" s="221"/>
+      <c r="B30" s="214"/>
+      <c r="C30" s="216"/>
+      <c r="D30" s="241"/>
+      <c r="E30" s="242"/>
+      <c r="F30" s="243"/>
+      <c r="G30" s="214"/>
+      <c r="H30" s="215"/>
+      <c r="I30" s="216"/>
+      <c r="J30" s="226"/>
+      <c r="K30" s="227"/>
+      <c r="L30" s="227"/>
+      <c r="M30" s="227"/>
+      <c r="N30" s="227"/>
+      <c r="O30" s="227"/>
+      <c r="P30" s="228"/>
+      <c r="Q30" s="223"/>
+      <c r="R30" s="224"/>
+      <c r="S30" s="224"/>
+      <c r="T30" s="224"/>
+      <c r="U30" s="224"/>
+      <c r="V30" s="224"/>
+      <c r="W30" s="224"/>
+      <c r="X30" s="224"/>
+      <c r="Y30" s="224"/>
+      <c r="Z30" s="224"/>
+      <c r="AA30" s="224"/>
+      <c r="AB30" s="224"/>
+      <c r="AC30" s="224"/>
+      <c r="AD30" s="224"/>
+      <c r="AE30" s="225"/>
+      <c r="AF30" s="226"/>
+      <c r="AG30" s="227"/>
+      <c r="AH30" s="227"/>
+      <c r="AI30" s="228"/>
     </row>
     <row r="31" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="57"/>
-      <c r="B31" s="222"/>
-      <c r="C31" s="223"/>
-      <c r="D31" s="224"/>
-      <c r="E31" s="225"/>
-      <c r="F31" s="226"/>
-      <c r="G31" s="222"/>
-      <c r="H31" s="227"/>
-      <c r="I31" s="223"/>
-      <c r="J31" s="219"/>
-      <c r="K31" s="220"/>
-      <c r="L31" s="220"/>
-      <c r="M31" s="220"/>
-      <c r="N31" s="220"/>
-      <c r="O31" s="220"/>
-      <c r="P31" s="221"/>
-      <c r="Q31" s="216"/>
-      <c r="R31" s="217"/>
-      <c r="S31" s="217"/>
-      <c r="T31" s="217"/>
-      <c r="U31" s="217"/>
-      <c r="V31" s="217"/>
-      <c r="W31" s="217"/>
-      <c r="X31" s="217"/>
-      <c r="Y31" s="217"/>
-      <c r="Z31" s="217"/>
-      <c r="AA31" s="217"/>
-      <c r="AB31" s="217"/>
-      <c r="AC31" s="217"/>
-      <c r="AD31" s="217"/>
-      <c r="AE31" s="218"/>
-      <c r="AF31" s="219"/>
-      <c r="AG31" s="220"/>
-      <c r="AH31" s="220"/>
-      <c r="AI31" s="221"/>
+      <c r="B31" s="214"/>
+      <c r="C31" s="216"/>
+      <c r="D31" s="241"/>
+      <c r="E31" s="242"/>
+      <c r="F31" s="243"/>
+      <c r="G31" s="214"/>
+      <c r="H31" s="215"/>
+      <c r="I31" s="216"/>
+      <c r="J31" s="226"/>
+      <c r="K31" s="227"/>
+      <c r="L31" s="227"/>
+      <c r="M31" s="227"/>
+      <c r="N31" s="227"/>
+      <c r="O31" s="227"/>
+      <c r="P31" s="228"/>
+      <c r="Q31" s="223"/>
+      <c r="R31" s="224"/>
+      <c r="S31" s="224"/>
+      <c r="T31" s="224"/>
+      <c r="U31" s="224"/>
+      <c r="V31" s="224"/>
+      <c r="W31" s="224"/>
+      <c r="X31" s="224"/>
+      <c r="Y31" s="224"/>
+      <c r="Z31" s="224"/>
+      <c r="AA31" s="224"/>
+      <c r="AB31" s="224"/>
+      <c r="AC31" s="224"/>
+      <c r="AD31" s="224"/>
+      <c r="AE31" s="225"/>
+      <c r="AF31" s="226"/>
+      <c r="AG31" s="227"/>
+      <c r="AH31" s="227"/>
+      <c r="AI31" s="228"/>
     </row>
     <row r="32" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="57"/>
-      <c r="B32" s="222"/>
-      <c r="C32" s="223"/>
-      <c r="D32" s="224"/>
-      <c r="E32" s="225"/>
-      <c r="F32" s="226"/>
-      <c r="G32" s="222"/>
-      <c r="H32" s="227"/>
-      <c r="I32" s="223"/>
-      <c r="J32" s="219"/>
-      <c r="K32" s="220"/>
-      <c r="L32" s="220"/>
-      <c r="M32" s="220"/>
-      <c r="N32" s="220"/>
-      <c r="O32" s="220"/>
-      <c r="P32" s="221"/>
-      <c r="Q32" s="216"/>
-      <c r="R32" s="217"/>
-      <c r="S32" s="217"/>
-      <c r="T32" s="217"/>
-      <c r="U32" s="217"/>
-      <c r="V32" s="217"/>
-      <c r="W32" s="217"/>
-      <c r="X32" s="217"/>
-      <c r="Y32" s="217"/>
-      <c r="Z32" s="217"/>
-      <c r="AA32" s="217"/>
-      <c r="AB32" s="217"/>
-      <c r="AC32" s="217"/>
-      <c r="AD32" s="217"/>
-      <c r="AE32" s="218"/>
-      <c r="AF32" s="219"/>
-      <c r="AG32" s="220"/>
-      <c r="AH32" s="220"/>
-      <c r="AI32" s="221"/>
+      <c r="B32" s="214"/>
+      <c r="C32" s="216"/>
+      <c r="D32" s="241"/>
+      <c r="E32" s="242"/>
+      <c r="F32" s="243"/>
+      <c r="G32" s="214"/>
+      <c r="H32" s="215"/>
+      <c r="I32" s="216"/>
+      <c r="J32" s="226"/>
+      <c r="K32" s="227"/>
+      <c r="L32" s="227"/>
+      <c r="M32" s="227"/>
+      <c r="N32" s="227"/>
+      <c r="O32" s="227"/>
+      <c r="P32" s="228"/>
+      <c r="Q32" s="223"/>
+      <c r="R32" s="224"/>
+      <c r="S32" s="224"/>
+      <c r="T32" s="224"/>
+      <c r="U32" s="224"/>
+      <c r="V32" s="224"/>
+      <c r="W32" s="224"/>
+      <c r="X32" s="224"/>
+      <c r="Y32" s="224"/>
+      <c r="Z32" s="224"/>
+      <c r="AA32" s="224"/>
+      <c r="AB32" s="224"/>
+      <c r="AC32" s="224"/>
+      <c r="AD32" s="224"/>
+      <c r="AE32" s="225"/>
+      <c r="AF32" s="226"/>
+      <c r="AG32" s="227"/>
+      <c r="AH32" s="227"/>
+      <c r="AI32" s="228"/>
     </row>
     <row r="33" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="57"/>
-      <c r="B33" s="222"/>
-      <c r="C33" s="223"/>
-      <c r="D33" s="224"/>
-      <c r="E33" s="225"/>
-      <c r="F33" s="226"/>
-      <c r="G33" s="222"/>
-      <c r="H33" s="227"/>
-      <c r="I33" s="223"/>
-      <c r="J33" s="219"/>
-      <c r="K33" s="220"/>
-      <c r="L33" s="220"/>
-      <c r="M33" s="220"/>
-      <c r="N33" s="220"/>
-      <c r="O33" s="220"/>
-      <c r="P33" s="221"/>
-      <c r="Q33" s="216"/>
-      <c r="R33" s="217"/>
-      <c r="S33" s="217"/>
-      <c r="T33" s="217"/>
-      <c r="U33" s="217"/>
-      <c r="V33" s="217"/>
-      <c r="W33" s="217"/>
-      <c r="X33" s="217"/>
-      <c r="Y33" s="217"/>
-      <c r="Z33" s="217"/>
-      <c r="AA33" s="217"/>
-      <c r="AB33" s="217"/>
-      <c r="AC33" s="217"/>
-      <c r="AD33" s="217"/>
-      <c r="AE33" s="218"/>
-      <c r="AF33" s="219"/>
-      <c r="AG33" s="220"/>
-      <c r="AH33" s="220"/>
-      <c r="AI33" s="221"/>
+      <c r="B33" s="214"/>
+      <c r="C33" s="216"/>
+      <c r="D33" s="241"/>
+      <c r="E33" s="242"/>
+      <c r="F33" s="243"/>
+      <c r="G33" s="214"/>
+      <c r="H33" s="215"/>
+      <c r="I33" s="216"/>
+      <c r="J33" s="226"/>
+      <c r="K33" s="227"/>
+      <c r="L33" s="227"/>
+      <c r="M33" s="227"/>
+      <c r="N33" s="227"/>
+      <c r="O33" s="227"/>
+      <c r="P33" s="228"/>
+      <c r="Q33" s="223"/>
+      <c r="R33" s="224"/>
+      <c r="S33" s="224"/>
+      <c r="T33" s="224"/>
+      <c r="U33" s="224"/>
+      <c r="V33" s="224"/>
+      <c r="W33" s="224"/>
+      <c r="X33" s="224"/>
+      <c r="Y33" s="224"/>
+      <c r="Z33" s="224"/>
+      <c r="AA33" s="224"/>
+      <c r="AB33" s="224"/>
+      <c r="AC33" s="224"/>
+      <c r="AD33" s="224"/>
+      <c r="AE33" s="225"/>
+      <c r="AF33" s="226"/>
+      <c r="AG33" s="227"/>
+      <c r="AH33" s="227"/>
+      <c r="AI33" s="228"/>
     </row>
     <row r="34" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="28"/>
@@ -6484,161 +6484,6 @@
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -6663,6 +6508,161 @@
     <mergeCell ref="AF22:AI22"/>
     <mergeCell ref="J23:P23"/>
     <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="S1:Z3"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <printOptions horizontalCentered="1"/>
@@ -6819,158 +6819,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="32" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="251" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="203"/>
-      <c r="C1" s="203"/>
-      <c r="D1" s="204"/>
-      <c r="E1" s="274" t="str">
+      <c r="B1" s="252"/>
+      <c r="C1" s="252"/>
+      <c r="D1" s="253"/>
+      <c r="E1" s="268" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="251"/>
-      <c r="G1" s="251"/>
-      <c r="H1" s="251"/>
-      <c r="I1" s="251"/>
-      <c r="J1" s="251"/>
-      <c r="K1" s="251"/>
-      <c r="L1" s="251"/>
-      <c r="M1" s="251"/>
-      <c r="N1" s="252"/>
-      <c r="O1" s="205" t="s">
+      <c r="F1" s="221"/>
+      <c r="G1" s="221"/>
+      <c r="H1" s="221"/>
+      <c r="I1" s="221"/>
+      <c r="J1" s="221"/>
+      <c r="K1" s="221"/>
+      <c r="L1" s="221"/>
+      <c r="M1" s="221"/>
+      <c r="N1" s="222"/>
+      <c r="O1" s="254" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="206"/>
-      <c r="Q1" s="206"/>
-      <c r="R1" s="207"/>
-      <c r="S1" s="265" t="str">
+      <c r="P1" s="255"/>
+      <c r="Q1" s="255"/>
+      <c r="R1" s="256"/>
+      <c r="S1" s="269" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10101/ログイン</v>
       </c>
-      <c r="T1" s="266"/>
-      <c r="U1" s="266"/>
-      <c r="V1" s="266"/>
-      <c r="W1" s="266"/>
-      <c r="X1" s="266"/>
-      <c r="Y1" s="266"/>
-      <c r="Z1" s="267"/>
-      <c r="AA1" s="202" t="s">
+      <c r="T1" s="270"/>
+      <c r="U1" s="270"/>
+      <c r="V1" s="270"/>
+      <c r="W1" s="270"/>
+      <c r="X1" s="270"/>
+      <c r="Y1" s="270"/>
+      <c r="Z1" s="271"/>
+      <c r="AA1" s="251" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="204"/>
-      <c r="AC1" s="238" t="str">
+      <c r="AB1" s="253"/>
+      <c r="AC1" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="239"/>
-      <c r="AE1" s="239"/>
-      <c r="AF1" s="240"/>
-      <c r="AG1" s="275">
+      <c r="AD1" s="203"/>
+      <c r="AE1" s="203"/>
+      <c r="AF1" s="204"/>
+      <c r="AG1" s="265">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43656</v>
       </c>
-      <c r="AH1" s="276"/>
-      <c r="AI1" s="277"/>
+      <c r="AH1" s="266"/>
+      <c r="AI1" s="267"/>
     </row>
     <row r="2" spans="1:35" s="32" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="202" t="s">
+      <c r="A2" s="251" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="203"/>
-      <c r="C2" s="203"/>
-      <c r="D2" s="204"/>
-      <c r="E2" s="274" t="str">
+      <c r="B2" s="252"/>
+      <c r="C2" s="252"/>
+      <c r="D2" s="253"/>
+      <c r="E2" s="268" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="251"/>
-      <c r="G2" s="251"/>
-      <c r="H2" s="251"/>
-      <c r="I2" s="251"/>
-      <c r="J2" s="251"/>
-      <c r="K2" s="251"/>
-      <c r="L2" s="251"/>
-      <c r="M2" s="251"/>
-      <c r="N2" s="252"/>
-      <c r="O2" s="208"/>
-      <c r="P2" s="209"/>
-      <c r="Q2" s="209"/>
-      <c r="R2" s="210"/>
-      <c r="S2" s="268"/>
-      <c r="T2" s="269"/>
-      <c r="U2" s="269"/>
-      <c r="V2" s="269"/>
-      <c r="W2" s="269"/>
-      <c r="X2" s="269"/>
-      <c r="Y2" s="269"/>
-      <c r="Z2" s="270"/>
-      <c r="AA2" s="202" t="s">
+      <c r="F2" s="221"/>
+      <c r="G2" s="221"/>
+      <c r="H2" s="221"/>
+      <c r="I2" s="221"/>
+      <c r="J2" s="221"/>
+      <c r="K2" s="221"/>
+      <c r="L2" s="221"/>
+      <c r="M2" s="221"/>
+      <c r="N2" s="222"/>
+      <c r="O2" s="257"/>
+      <c r="P2" s="258"/>
+      <c r="Q2" s="258"/>
+      <c r="R2" s="259"/>
+      <c r="S2" s="272"/>
+      <c r="T2" s="273"/>
+      <c r="U2" s="273"/>
+      <c r="V2" s="273"/>
+      <c r="W2" s="273"/>
+      <c r="X2" s="273"/>
+      <c r="Y2" s="273"/>
+      <c r="Z2" s="274"/>
+      <c r="AA2" s="251" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="204"/>
-      <c r="AC2" s="238" t="str">
+      <c r="AB2" s="253"/>
+      <c r="AC2" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="239"/>
-      <c r="AE2" s="239"/>
-      <c r="AF2" s="240"/>
-      <c r="AG2" s="275">
+      <c r="AD2" s="203"/>
+      <c r="AE2" s="203"/>
+      <c r="AF2" s="204"/>
+      <c r="AG2" s="265">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="276"/>
-      <c r="AI2" s="277"/>
+      <c r="AH2" s="266"/>
+      <c r="AI2" s="267"/>
     </row>
     <row r="3" spans="1:35" s="32" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="202" t="s">
+      <c r="A3" s="251" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="203"/>
-      <c r="C3" s="203"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="274" t="str">
+      <c r="B3" s="252"/>
+      <c r="C3" s="252"/>
+      <c r="D3" s="253"/>
+      <c r="E3" s="268" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="251"/>
-      <c r="G3" s="251"/>
-      <c r="H3" s="251"/>
-      <c r="I3" s="251"/>
-      <c r="J3" s="251"/>
-      <c r="K3" s="251"/>
-      <c r="L3" s="251"/>
-      <c r="M3" s="251"/>
-      <c r="N3" s="252"/>
-      <c r="O3" s="211"/>
-      <c r="P3" s="212"/>
-      <c r="Q3" s="212"/>
-      <c r="R3" s="213"/>
-      <c r="S3" s="271"/>
-      <c r="T3" s="272"/>
-      <c r="U3" s="272"/>
-      <c r="V3" s="272"/>
-      <c r="W3" s="272"/>
-      <c r="X3" s="272"/>
-      <c r="Y3" s="272"/>
-      <c r="Z3" s="273"/>
-      <c r="AA3" s="202"/>
-      <c r="AB3" s="204"/>
-      <c r="AC3" s="238" t="str">
+      <c r="F3" s="221"/>
+      <c r="G3" s="221"/>
+      <c r="H3" s="221"/>
+      <c r="I3" s="221"/>
+      <c r="J3" s="221"/>
+      <c r="K3" s="221"/>
+      <c r="L3" s="221"/>
+      <c r="M3" s="221"/>
+      <c r="N3" s="222"/>
+      <c r="O3" s="260"/>
+      <c r="P3" s="261"/>
+      <c r="Q3" s="261"/>
+      <c r="R3" s="262"/>
+      <c r="S3" s="275"/>
+      <c r="T3" s="276"/>
+      <c r="U3" s="276"/>
+      <c r="V3" s="276"/>
+      <c r="W3" s="276"/>
+      <c r="X3" s="276"/>
+      <c r="Y3" s="276"/>
+      <c r="Z3" s="277"/>
+      <c r="AA3" s="251"/>
+      <c r="AB3" s="253"/>
+      <c r="AC3" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="239"/>
-      <c r="AE3" s="239"/>
-      <c r="AF3" s="240"/>
-      <c r="AG3" s="275" t="str">
+      <c r="AD3" s="203"/>
+      <c r="AE3" s="203"/>
+      <c r="AF3" s="204"/>
+      <c r="AG3" s="265" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="276"/>
-      <c r="AI3" s="277"/>
+      <c r="AH3" s="266"/>
+      <c r="AI3" s="267"/>
     </row>
     <row r="4" spans="1:35" s="35" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="29"/>
@@ -7852,14 +7852,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -7869,6 +7861,14 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -7895,158 +7895,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="251" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="203"/>
-      <c r="C1" s="203"/>
-      <c r="D1" s="204"/>
-      <c r="E1" s="274" t="str">
+      <c r="B1" s="252"/>
+      <c r="C1" s="252"/>
+      <c r="D1" s="253"/>
+      <c r="E1" s="268" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="251"/>
-      <c r="G1" s="251"/>
-      <c r="H1" s="251"/>
-      <c r="I1" s="251"/>
-      <c r="J1" s="251"/>
-      <c r="K1" s="251"/>
-      <c r="L1" s="251"/>
-      <c r="M1" s="251"/>
-      <c r="N1" s="252"/>
-      <c r="O1" s="205" t="s">
+      <c r="F1" s="221"/>
+      <c r="G1" s="221"/>
+      <c r="H1" s="221"/>
+      <c r="I1" s="221"/>
+      <c r="J1" s="221"/>
+      <c r="K1" s="221"/>
+      <c r="L1" s="221"/>
+      <c r="M1" s="221"/>
+      <c r="N1" s="222"/>
+      <c r="O1" s="254" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="206"/>
-      <c r="Q1" s="206"/>
-      <c r="R1" s="207"/>
-      <c r="S1" s="265" t="str">
+      <c r="P1" s="255"/>
+      <c r="Q1" s="255"/>
+      <c r="R1" s="256"/>
+      <c r="S1" s="269" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10101/ログイン</v>
       </c>
-      <c r="T1" s="266"/>
-      <c r="U1" s="266"/>
-      <c r="V1" s="266"/>
-      <c r="W1" s="266"/>
-      <c r="X1" s="266"/>
-      <c r="Y1" s="266"/>
-      <c r="Z1" s="267"/>
-      <c r="AA1" s="202" t="s">
+      <c r="T1" s="270"/>
+      <c r="U1" s="270"/>
+      <c r="V1" s="270"/>
+      <c r="W1" s="270"/>
+      <c r="X1" s="270"/>
+      <c r="Y1" s="270"/>
+      <c r="Z1" s="271"/>
+      <c r="AA1" s="251" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="204"/>
-      <c r="AC1" s="238" t="str">
+      <c r="AB1" s="253"/>
+      <c r="AC1" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="239"/>
-      <c r="AE1" s="239"/>
-      <c r="AF1" s="240"/>
-      <c r="AG1" s="275">
+      <c r="AD1" s="203"/>
+      <c r="AE1" s="203"/>
+      <c r="AF1" s="204"/>
+      <c r="AG1" s="265">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43656</v>
       </c>
-      <c r="AH1" s="276"/>
-      <c r="AI1" s="277"/>
+      <c r="AH1" s="266"/>
+      <c r="AI1" s="267"/>
     </row>
     <row r="2" spans="1:35" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="202" t="s">
+      <c r="A2" s="251" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="203"/>
-      <c r="C2" s="203"/>
-      <c r="D2" s="204"/>
-      <c r="E2" s="274" t="str">
+      <c r="B2" s="252"/>
+      <c r="C2" s="252"/>
+      <c r="D2" s="253"/>
+      <c r="E2" s="268" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="251"/>
-      <c r="G2" s="251"/>
-      <c r="H2" s="251"/>
-      <c r="I2" s="251"/>
-      <c r="J2" s="251"/>
-      <c r="K2" s="251"/>
-      <c r="L2" s="251"/>
-      <c r="M2" s="251"/>
-      <c r="N2" s="252"/>
-      <c r="O2" s="208"/>
-      <c r="P2" s="209"/>
-      <c r="Q2" s="209"/>
-      <c r="R2" s="210"/>
-      <c r="S2" s="268"/>
-      <c r="T2" s="269"/>
-      <c r="U2" s="269"/>
-      <c r="V2" s="269"/>
-      <c r="W2" s="269"/>
-      <c r="X2" s="269"/>
-      <c r="Y2" s="269"/>
-      <c r="Z2" s="270"/>
-      <c r="AA2" s="202" t="s">
+      <c r="F2" s="221"/>
+      <c r="G2" s="221"/>
+      <c r="H2" s="221"/>
+      <c r="I2" s="221"/>
+      <c r="J2" s="221"/>
+      <c r="K2" s="221"/>
+      <c r="L2" s="221"/>
+      <c r="M2" s="221"/>
+      <c r="N2" s="222"/>
+      <c r="O2" s="257"/>
+      <c r="P2" s="258"/>
+      <c r="Q2" s="258"/>
+      <c r="R2" s="259"/>
+      <c r="S2" s="272"/>
+      <c r="T2" s="273"/>
+      <c r="U2" s="273"/>
+      <c r="V2" s="273"/>
+      <c r="W2" s="273"/>
+      <c r="X2" s="273"/>
+      <c r="Y2" s="273"/>
+      <c r="Z2" s="274"/>
+      <c r="AA2" s="251" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="204"/>
-      <c r="AC2" s="238" t="str">
+      <c r="AB2" s="253"/>
+      <c r="AC2" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="239"/>
-      <c r="AE2" s="239"/>
-      <c r="AF2" s="240"/>
-      <c r="AG2" s="275">
+      <c r="AD2" s="203"/>
+      <c r="AE2" s="203"/>
+      <c r="AF2" s="204"/>
+      <c r="AG2" s="265">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="276"/>
-      <c r="AI2" s="277"/>
+      <c r="AH2" s="266"/>
+      <c r="AI2" s="267"/>
     </row>
     <row r="3" spans="1:35" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="202" t="s">
+      <c r="A3" s="251" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="203"/>
-      <c r="C3" s="203"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="274" t="str">
+      <c r="B3" s="252"/>
+      <c r="C3" s="252"/>
+      <c r="D3" s="253"/>
+      <c r="E3" s="268" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="251"/>
-      <c r="G3" s="251"/>
-      <c r="H3" s="251"/>
-      <c r="I3" s="251"/>
-      <c r="J3" s="251"/>
-      <c r="K3" s="251"/>
-      <c r="L3" s="251"/>
-      <c r="M3" s="251"/>
-      <c r="N3" s="252"/>
-      <c r="O3" s="211"/>
-      <c r="P3" s="212"/>
-      <c r="Q3" s="212"/>
-      <c r="R3" s="213"/>
-      <c r="S3" s="271"/>
-      <c r="T3" s="272"/>
-      <c r="U3" s="272"/>
-      <c r="V3" s="272"/>
-      <c r="W3" s="272"/>
-      <c r="X3" s="272"/>
-      <c r="Y3" s="272"/>
-      <c r="Z3" s="273"/>
-      <c r="AA3" s="202"/>
-      <c r="AB3" s="204"/>
-      <c r="AC3" s="238" t="str">
+      <c r="F3" s="221"/>
+      <c r="G3" s="221"/>
+      <c r="H3" s="221"/>
+      <c r="I3" s="221"/>
+      <c r="J3" s="221"/>
+      <c r="K3" s="221"/>
+      <c r="L3" s="221"/>
+      <c r="M3" s="221"/>
+      <c r="N3" s="222"/>
+      <c r="O3" s="260"/>
+      <c r="P3" s="261"/>
+      <c r="Q3" s="261"/>
+      <c r="R3" s="262"/>
+      <c r="S3" s="275"/>
+      <c r="T3" s="276"/>
+      <c r="U3" s="276"/>
+      <c r="V3" s="276"/>
+      <c r="W3" s="276"/>
+      <c r="X3" s="276"/>
+      <c r="Y3" s="276"/>
+      <c r="Z3" s="277"/>
+      <c r="AA3" s="251"/>
+      <c r="AB3" s="253"/>
+      <c r="AC3" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="239"/>
-      <c r="AE3" s="239"/>
-      <c r="AF3" s="240"/>
-      <c r="AG3" s="275" t="str">
+      <c r="AD3" s="203"/>
+      <c r="AE3" s="203"/>
+      <c r="AF3" s="204"/>
+      <c r="AG3" s="265" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="276"/>
-      <c r="AI3" s="277"/>
+      <c r="AH3" s="266"/>
+      <c r="AI3" s="267"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -8068,7 +8068,7 @@
       <c r="D8" s="289"/>
       <c r="E8" s="289"/>
       <c r="F8" s="290"/>
-      <c r="G8" s="219" t="s">
+      <c r="G8" s="226" t="s">
         <v>137</v>
       </c>
       <c r="H8" s="291"/>
@@ -8106,7 +8106,7 @@
       <c r="D9" s="293"/>
       <c r="E9" s="293"/>
       <c r="F9" s="294"/>
-      <c r="G9" s="219" t="s">
+      <c r="G9" s="226" t="s">
         <v>138</v>
       </c>
       <c r="H9" s="289"/>
@@ -8356,18 +8356,6 @@
     <row r="52" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C10:F13"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:AG8"/>
-    <mergeCell ref="G9:AG9"/>
-    <mergeCell ref="C9:F9"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -8379,6 +8367,18 @@
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C10:F13"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:AG8"/>
+    <mergeCell ref="G9:AG9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -8409,160 +8409,160 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="383" t="s">
+      <c r="A1" s="340" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="384"/>
-      <c r="C1" s="384"/>
-      <c r="D1" s="385"/>
-      <c r="E1" s="274" t="str">
+      <c r="B1" s="341"/>
+      <c r="C1" s="341"/>
+      <c r="D1" s="342"/>
+      <c r="E1" s="268" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="251"/>
-      <c r="G1" s="251"/>
-      <c r="H1" s="251"/>
-      <c r="I1" s="251"/>
-      <c r="J1" s="251"/>
-      <c r="K1" s="251"/>
-      <c r="L1" s="251"/>
-      <c r="M1" s="251"/>
-      <c r="N1" s="252"/>
-      <c r="O1" s="205" t="s">
+      <c r="F1" s="221"/>
+      <c r="G1" s="221"/>
+      <c r="H1" s="221"/>
+      <c r="I1" s="221"/>
+      <c r="J1" s="221"/>
+      <c r="K1" s="221"/>
+      <c r="L1" s="221"/>
+      <c r="M1" s="221"/>
+      <c r="N1" s="222"/>
+      <c r="O1" s="254" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="206"/>
-      <c r="Q1" s="206"/>
-      <c r="R1" s="207"/>
-      <c r="S1" s="265" t="str">
+      <c r="P1" s="255"/>
+      <c r="Q1" s="255"/>
+      <c r="R1" s="256"/>
+      <c r="S1" s="269" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10101/ログイン</v>
       </c>
-      <c r="T1" s="266"/>
-      <c r="U1" s="266"/>
-      <c r="V1" s="266"/>
-      <c r="W1" s="266"/>
-      <c r="X1" s="266"/>
-      <c r="Y1" s="266"/>
-      <c r="Z1" s="267"/>
-      <c r="AA1" s="202" t="s">
+      <c r="T1" s="270"/>
+      <c r="U1" s="270"/>
+      <c r="V1" s="270"/>
+      <c r="W1" s="270"/>
+      <c r="X1" s="270"/>
+      <c r="Y1" s="270"/>
+      <c r="Z1" s="271"/>
+      <c r="AA1" s="251" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="204"/>
-      <c r="AC1" s="238" t="str">
+      <c r="AB1" s="253"/>
+      <c r="AC1" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="239"/>
-      <c r="AE1" s="239"/>
-      <c r="AF1" s="240"/>
-      <c r="AG1" s="380">
+      <c r="AD1" s="203"/>
+      <c r="AE1" s="203"/>
+      <c r="AF1" s="204"/>
+      <c r="AG1" s="337">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43656</v>
       </c>
-      <c r="AH1" s="381"/>
-      <c r="AI1" s="382"/>
+      <c r="AH1" s="338"/>
+      <c r="AI1" s="339"/>
       <c r="AJ1" s="30"/>
     </row>
     <row r="2" spans="1:36" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="383" t="s">
+      <c r="A2" s="340" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="384"/>
-      <c r="C2" s="384"/>
-      <c r="D2" s="385"/>
-      <c r="E2" s="274" t="str">
+      <c r="B2" s="341"/>
+      <c r="C2" s="341"/>
+      <c r="D2" s="342"/>
+      <c r="E2" s="268" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="251"/>
-      <c r="G2" s="251"/>
-      <c r="H2" s="251"/>
-      <c r="I2" s="251"/>
-      <c r="J2" s="251"/>
-      <c r="K2" s="251"/>
-      <c r="L2" s="251"/>
-      <c r="M2" s="251"/>
-      <c r="N2" s="252"/>
-      <c r="O2" s="208"/>
-      <c r="P2" s="209"/>
-      <c r="Q2" s="209"/>
-      <c r="R2" s="210"/>
-      <c r="S2" s="268"/>
-      <c r="T2" s="269"/>
-      <c r="U2" s="269"/>
-      <c r="V2" s="269"/>
-      <c r="W2" s="269"/>
-      <c r="X2" s="269"/>
-      <c r="Y2" s="269"/>
-      <c r="Z2" s="270"/>
-      <c r="AA2" s="202" t="s">
+      <c r="F2" s="221"/>
+      <c r="G2" s="221"/>
+      <c r="H2" s="221"/>
+      <c r="I2" s="221"/>
+      <c r="J2" s="221"/>
+      <c r="K2" s="221"/>
+      <c r="L2" s="221"/>
+      <c r="M2" s="221"/>
+      <c r="N2" s="222"/>
+      <c r="O2" s="257"/>
+      <c r="P2" s="258"/>
+      <c r="Q2" s="258"/>
+      <c r="R2" s="259"/>
+      <c r="S2" s="272"/>
+      <c r="T2" s="273"/>
+      <c r="U2" s="273"/>
+      <c r="V2" s="273"/>
+      <c r="W2" s="273"/>
+      <c r="X2" s="273"/>
+      <c r="Y2" s="273"/>
+      <c r="Z2" s="274"/>
+      <c r="AA2" s="251" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="204"/>
-      <c r="AC2" s="238" t="str">
+      <c r="AB2" s="253"/>
+      <c r="AC2" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="239"/>
-      <c r="AE2" s="239"/>
-      <c r="AF2" s="240"/>
-      <c r="AG2" s="380">
+      <c r="AD2" s="203"/>
+      <c r="AE2" s="203"/>
+      <c r="AF2" s="204"/>
+      <c r="AG2" s="337">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="381"/>
-      <c r="AI2" s="382"/>
+      <c r="AH2" s="338"/>
+      <c r="AI2" s="339"/>
       <c r="AJ2" s="30"/>
     </row>
     <row r="3" spans="1:36" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="383" t="s">
+      <c r="A3" s="340" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="384"/>
-      <c r="C3" s="384"/>
-      <c r="D3" s="385"/>
-      <c r="E3" s="274" t="str">
+      <c r="B3" s="341"/>
+      <c r="C3" s="341"/>
+      <c r="D3" s="342"/>
+      <c r="E3" s="268" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="251"/>
-      <c r="G3" s="251"/>
-      <c r="H3" s="251"/>
-      <c r="I3" s="251"/>
-      <c r="J3" s="251"/>
-      <c r="K3" s="251"/>
-      <c r="L3" s="251"/>
-      <c r="M3" s="251"/>
-      <c r="N3" s="252"/>
-      <c r="O3" s="211"/>
-      <c r="P3" s="212"/>
-      <c r="Q3" s="212"/>
-      <c r="R3" s="213"/>
-      <c r="S3" s="271"/>
-      <c r="T3" s="272"/>
-      <c r="U3" s="272"/>
-      <c r="V3" s="272"/>
-      <c r="W3" s="272"/>
-      <c r="X3" s="272"/>
-      <c r="Y3" s="272"/>
-      <c r="Z3" s="273"/>
-      <c r="AA3" s="202"/>
-      <c r="AB3" s="204"/>
-      <c r="AC3" s="238" t="str">
+      <c r="F3" s="221"/>
+      <c r="G3" s="221"/>
+      <c r="H3" s="221"/>
+      <c r="I3" s="221"/>
+      <c r="J3" s="221"/>
+      <c r="K3" s="221"/>
+      <c r="L3" s="221"/>
+      <c r="M3" s="221"/>
+      <c r="N3" s="222"/>
+      <c r="O3" s="260"/>
+      <c r="P3" s="261"/>
+      <c r="Q3" s="261"/>
+      <c r="R3" s="262"/>
+      <c r="S3" s="275"/>
+      <c r="T3" s="276"/>
+      <c r="U3" s="276"/>
+      <c r="V3" s="276"/>
+      <c r="W3" s="276"/>
+      <c r="X3" s="276"/>
+      <c r="Y3" s="276"/>
+      <c r="Z3" s="277"/>
+      <c r="AA3" s="251"/>
+      <c r="AB3" s="253"/>
+      <c r="AC3" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="239"/>
-      <c r="AE3" s="239"/>
-      <c r="AF3" s="240"/>
-      <c r="AG3" s="380" t="str">
+      <c r="AD3" s="203"/>
+      <c r="AE3" s="203"/>
+      <c r="AF3" s="204"/>
+      <c r="AG3" s="337" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="381"/>
-      <c r="AI3" s="382"/>
+      <c r="AH3" s="338"/>
+      <c r="AI3" s="339"/>
       <c r="AJ3" s="30"/>
     </row>
     <row r="4" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8714,39 +8714,39 @@
       <c r="D43" s="131" t="s">
         <v>41</v>
       </c>
-      <c r="E43" s="358" t="s">
+      <c r="E43" s="343" t="s">
         <v>69</v>
       </c>
-      <c r="F43" s="358"/>
-      <c r="G43" s="358"/>
-      <c r="H43" s="358"/>
-      <c r="I43" s="358"/>
-      <c r="J43" s="358"/>
-      <c r="K43" s="358"/>
-      <c r="L43" s="358"/>
-      <c r="M43" s="358"/>
-      <c r="N43" s="358" t="s">
+      <c r="F43" s="343"/>
+      <c r="G43" s="343"/>
+      <c r="H43" s="343"/>
+      <c r="I43" s="343"/>
+      <c r="J43" s="343"/>
+      <c r="K43" s="343"/>
+      <c r="L43" s="343"/>
+      <c r="M43" s="343"/>
+      <c r="N43" s="343" t="s">
         <v>43</v>
       </c>
-      <c r="O43" s="358"/>
-      <c r="P43" s="358"/>
-      <c r="Q43" s="358" t="s">
+      <c r="O43" s="343"/>
+      <c r="P43" s="343"/>
+      <c r="Q43" s="343" t="s">
         <v>25</v>
       </c>
-      <c r="R43" s="358"/>
-      <c r="S43" s="358"/>
-      <c r="T43" s="358"/>
-      <c r="U43" s="358"/>
-      <c r="V43" s="358" t="s">
+      <c r="R43" s="343"/>
+      <c r="S43" s="343"/>
+      <c r="T43" s="343"/>
+      <c r="U43" s="343"/>
+      <c r="V43" s="343" t="s">
         <v>14</v>
       </c>
-      <c r="W43" s="358"/>
-      <c r="X43" s="358"/>
-      <c r="Y43" s="358"/>
-      <c r="Z43" s="358"/>
-      <c r="AA43" s="358"/>
-      <c r="AB43" s="358"/>
-      <c r="AC43" s="358"/>
+      <c r="W43" s="343"/>
+      <c r="X43" s="343"/>
+      <c r="Y43" s="343"/>
+      <c r="Z43" s="343"/>
+      <c r="AA43" s="343"/>
+      <c r="AB43" s="343"/>
+      <c r="AC43" s="343"/>
       <c r="AD43" s="135"/>
       <c r="AE43" s="135"/>
       <c r="AF43" s="135"/>
@@ -8757,39 +8757,39 @@
       <c r="D44" s="153">
         <v>1</v>
       </c>
-      <c r="E44" s="375" t="s">
+      <c r="E44" s="359" t="s">
         <v>119</v>
       </c>
-      <c r="F44" s="372"/>
-      <c r="G44" s="372"/>
-      <c r="H44" s="372"/>
-      <c r="I44" s="372"/>
-      <c r="J44" s="372"/>
-      <c r="K44" s="372"/>
-      <c r="L44" s="372"/>
-      <c r="M44" s="372"/>
-      <c r="N44" s="372" t="s">
+      <c r="F44" s="356"/>
+      <c r="G44" s="356"/>
+      <c r="H44" s="356"/>
+      <c r="I44" s="356"/>
+      <c r="J44" s="356"/>
+      <c r="K44" s="356"/>
+      <c r="L44" s="356"/>
+      <c r="M44" s="356"/>
+      <c r="N44" s="356" t="s">
         <v>89</v>
       </c>
-      <c r="O44" s="372"/>
-      <c r="P44" s="372"/>
-      <c r="Q44" s="370" t="s">
+      <c r="O44" s="356"/>
+      <c r="P44" s="356"/>
+      <c r="Q44" s="354" t="s">
         <v>113</v>
       </c>
-      <c r="R44" s="370"/>
-      <c r="S44" s="370"/>
-      <c r="T44" s="370"/>
-      <c r="U44" s="370"/>
-      <c r="V44" s="371" t="s">
+      <c r="R44" s="354"/>
+      <c r="S44" s="354"/>
+      <c r="T44" s="354"/>
+      <c r="U44" s="354"/>
+      <c r="V44" s="355" t="s">
         <v>123</v>
       </c>
-      <c r="W44" s="370"/>
-      <c r="X44" s="370"/>
-      <c r="Y44" s="370"/>
-      <c r="Z44" s="370"/>
-      <c r="AA44" s="370"/>
-      <c r="AB44" s="370"/>
-      <c r="AC44" s="370"/>
+      <c r="W44" s="354"/>
+      <c r="X44" s="354"/>
+      <c r="Y44" s="354"/>
+      <c r="Z44" s="354"/>
+      <c r="AA44" s="354"/>
+      <c r="AB44" s="354"/>
+      <c r="AC44" s="354"/>
       <c r="AM44" s="35"/>
     </row>
     <row r="45" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8866,36 +8866,36 @@
       <c r="AZ48" s="133"/>
     </row>
     <row r="49" spans="3:53" s="91" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D49" s="301" t="s">
+      <c r="D49" s="366" t="s">
         <v>41</v>
       </c>
-      <c r="E49" s="352" t="s">
+      <c r="E49" s="334" t="s">
         <v>29</v>
       </c>
-      <c r="F49" s="353"/>
-      <c r="G49" s="353"/>
-      <c r="H49" s="353"/>
-      <c r="I49" s="353"/>
-      <c r="J49" s="353"/>
-      <c r="K49" s="353"/>
-      <c r="L49" s="353"/>
-      <c r="M49" s="353"/>
-      <c r="N49" s="353"/>
-      <c r="O49" s="353"/>
-      <c r="P49" s="353"/>
-      <c r="Q49" s="353"/>
-      <c r="R49" s="353"/>
-      <c r="S49" s="353"/>
-      <c r="T49" s="353"/>
-      <c r="U49" s="353"/>
-      <c r="V49" s="353"/>
-      <c r="W49" s="353"/>
-      <c r="X49" s="353"/>
-      <c r="Y49" s="353"/>
-      <c r="Z49" s="353"/>
-      <c r="AA49" s="353"/>
-      <c r="AB49" s="353"/>
-      <c r="AC49" s="354"/>
+      <c r="F49" s="335"/>
+      <c r="G49" s="335"/>
+      <c r="H49" s="335"/>
+      <c r="I49" s="335"/>
+      <c r="J49" s="335"/>
+      <c r="K49" s="335"/>
+      <c r="L49" s="335"/>
+      <c r="M49" s="335"/>
+      <c r="N49" s="335"/>
+      <c r="O49" s="335"/>
+      <c r="P49" s="335"/>
+      <c r="Q49" s="335"/>
+      <c r="R49" s="335"/>
+      <c r="S49" s="335"/>
+      <c r="T49" s="335"/>
+      <c r="U49" s="335"/>
+      <c r="V49" s="335"/>
+      <c r="W49" s="335"/>
+      <c r="X49" s="335"/>
+      <c r="Y49" s="335"/>
+      <c r="Z49" s="335"/>
+      <c r="AA49" s="335"/>
+      <c r="AB49" s="335"/>
+      <c r="AC49" s="336"/>
       <c r="AD49" s="279" t="s">
         <v>33</v>
       </c>
@@ -8913,29 +8913,29 @@
       <c r="AN49" s="133"/>
     </row>
     <row r="50" spans="3:53" s="91" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D50" s="325"/>
+      <c r="D50" s="367"/>
       <c r="E50" s="279" t="s">
         <v>31</v>
       </c>
       <c r="F50" s="280"/>
       <c r="G50" s="280"/>
       <c r="H50" s="281"/>
-      <c r="I50" s="351" t="s">
+      <c r="I50" s="383" t="s">
         <v>39</v>
       </c>
-      <c r="J50" s="327"/>
-      <c r="K50" s="327"/>
-      <c r="L50" s="328"/>
-      <c r="M50" s="326" t="s">
+      <c r="J50" s="370"/>
+      <c r="K50" s="370"/>
+      <c r="L50" s="371"/>
+      <c r="M50" s="369" t="s">
         <v>118</v>
       </c>
-      <c r="N50" s="327"/>
-      <c r="O50" s="327"/>
-      <c r="P50" s="327"/>
-      <c r="Q50" s="327"/>
-      <c r="R50" s="327"/>
-      <c r="S50" s="327"/>
-      <c r="T50" s="328"/>
+      <c r="N50" s="370"/>
+      <c r="O50" s="370"/>
+      <c r="P50" s="370"/>
+      <c r="Q50" s="370"/>
+      <c r="R50" s="370"/>
+      <c r="S50" s="370"/>
+      <c r="T50" s="371"/>
       <c r="U50" s="279" t="s">
         <v>32</v>
       </c>
@@ -8948,7 +8948,7 @@
       </c>
       <c r="AA50" s="280"/>
       <c r="AB50" s="281"/>
-      <c r="AC50" s="301" t="s">
+      <c r="AC50" s="366" t="s">
         <v>44</v>
       </c>
       <c r="AD50" s="282"/>
@@ -8970,23 +8970,23 @@
       <c r="AT50" s="133"/>
     </row>
     <row r="51" spans="3:53" s="91" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D51" s="302"/>
+      <c r="D51" s="368"/>
       <c r="E51" s="285"/>
       <c r="F51" s="286"/>
       <c r="G51" s="286"/>
       <c r="H51" s="287"/>
-      <c r="I51" s="329"/>
-      <c r="J51" s="330"/>
-      <c r="K51" s="330"/>
-      <c r="L51" s="331"/>
-      <c r="M51" s="329"/>
-      <c r="N51" s="330"/>
-      <c r="O51" s="330"/>
-      <c r="P51" s="330"/>
-      <c r="Q51" s="330"/>
-      <c r="R51" s="330"/>
-      <c r="S51" s="330"/>
-      <c r="T51" s="331"/>
+      <c r="I51" s="372"/>
+      <c r="J51" s="373"/>
+      <c r="K51" s="373"/>
+      <c r="L51" s="374"/>
+      <c r="M51" s="372"/>
+      <c r="N51" s="373"/>
+      <c r="O51" s="373"/>
+      <c r="P51" s="373"/>
+      <c r="Q51" s="373"/>
+      <c r="R51" s="373"/>
+      <c r="S51" s="373"/>
+      <c r="T51" s="374"/>
       <c r="U51" s="285"/>
       <c r="V51" s="286"/>
       <c r="W51" s="286"/>
@@ -8995,7 +8995,7 @@
       <c r="Z51" s="285"/>
       <c r="AA51" s="286"/>
       <c r="AB51" s="287"/>
-      <c r="AC51" s="302"/>
+      <c r="AC51" s="368"/>
       <c r="AD51" s="285"/>
       <c r="AE51" s="286"/>
       <c r="AF51" s="286"/>
@@ -9020,49 +9020,49 @@
       <c r="D52" s="138">
         <v>1</v>
       </c>
-      <c r="E52" s="219" t="s">
+      <c r="E52" s="226" t="s">
         <v>141</v>
       </c>
       <c r="F52" s="291"/>
       <c r="G52" s="291"/>
-      <c r="H52" s="349"/>
-      <c r="I52" s="350" t="s">
+      <c r="H52" s="362"/>
+      <c r="I52" s="361" t="s">
         <v>88</v>
       </c>
-      <c r="J52" s="350"/>
-      <c r="K52" s="350"/>
-      <c r="L52" s="350"/>
-      <c r="M52" s="373" t="s">
+      <c r="J52" s="361"/>
+      <c r="K52" s="361"/>
+      <c r="L52" s="361"/>
+      <c r="M52" s="357" t="s">
         <v>136</v>
       </c>
-      <c r="N52" s="374"/>
-      <c r="O52" s="374"/>
-      <c r="P52" s="374"/>
-      <c r="Q52" s="374"/>
-      <c r="R52" s="374"/>
-      <c r="S52" s="374"/>
-      <c r="T52" s="374"/>
-      <c r="U52" s="347" t="s">
+      <c r="N52" s="358"/>
+      <c r="O52" s="358"/>
+      <c r="P52" s="358"/>
+      <c r="Q52" s="358"/>
+      <c r="R52" s="358"/>
+      <c r="S52" s="358"/>
+      <c r="T52" s="358"/>
+      <c r="U52" s="329" t="s">
         <v>135</v>
       </c>
-      <c r="V52" s="348"/>
-      <c r="W52" s="348"/>
-      <c r="X52" s="348"/>
-      <c r="Y52" s="348"/>
-      <c r="Z52" s="347" t="s">
+      <c r="V52" s="330"/>
+      <c r="W52" s="330"/>
+      <c r="X52" s="330"/>
+      <c r="Y52" s="330"/>
+      <c r="Z52" s="329" t="s">
         <v>135</v>
       </c>
-      <c r="AA52" s="348"/>
-      <c r="AB52" s="348"/>
+      <c r="AA52" s="330"/>
+      <c r="AB52" s="330"/>
       <c r="AC52" s="176" t="s">
         <v>90</v>
       </c>
-      <c r="AD52" s="216" t="s">
+      <c r="AD52" s="223" t="s">
         <v>141</v>
       </c>
-      <c r="AE52" s="299"/>
-      <c r="AF52" s="299"/>
-      <c r="AG52" s="300"/>
+      <c r="AE52" s="324"/>
+      <c r="AF52" s="324"/>
+      <c r="AG52" s="325"/>
       <c r="AH52" s="133"/>
       <c r="AI52" s="133"/>
       <c r="AJ52" s="133"/>
@@ -9083,49 +9083,49 @@
       <c r="D53" s="138">
         <v>2</v>
       </c>
-      <c r="E53" s="219" t="s">
+      <c r="E53" s="226" t="s">
         <v>142</v>
       </c>
       <c r="F53" s="291"/>
       <c r="G53" s="291"/>
-      <c r="H53" s="349"/>
-      <c r="I53" s="376" t="s">
+      <c r="H53" s="362"/>
+      <c r="I53" s="360" t="s">
         <v>171</v>
       </c>
-      <c r="J53" s="350"/>
-      <c r="K53" s="350"/>
-      <c r="L53" s="350"/>
-      <c r="M53" s="355" t="s">
+      <c r="J53" s="361"/>
+      <c r="K53" s="361"/>
+      <c r="L53" s="361"/>
+      <c r="M53" s="351" t="s">
         <v>79</v>
       </c>
-      <c r="N53" s="356"/>
-      <c r="O53" s="356"/>
-      <c r="P53" s="356"/>
-      <c r="Q53" s="356"/>
-      <c r="R53" s="356"/>
-      <c r="S53" s="356"/>
-      <c r="T53" s="357"/>
-      <c r="U53" s="216" t="s">
+      <c r="N53" s="315"/>
+      <c r="O53" s="315"/>
+      <c r="P53" s="315"/>
+      <c r="Q53" s="315"/>
+      <c r="R53" s="315"/>
+      <c r="S53" s="315"/>
+      <c r="T53" s="316"/>
+      <c r="U53" s="223" t="s">
         <v>173</v>
       </c>
-      <c r="V53" s="299"/>
-      <c r="W53" s="299"/>
-      <c r="X53" s="299"/>
-      <c r="Y53" s="300"/>
-      <c r="Z53" s="347" t="s">
+      <c r="V53" s="324"/>
+      <c r="W53" s="324"/>
+      <c r="X53" s="324"/>
+      <c r="Y53" s="325"/>
+      <c r="Z53" s="329" t="s">
         <v>135</v>
       </c>
-      <c r="AA53" s="348"/>
-      <c r="AB53" s="348"/>
+      <c r="AA53" s="330"/>
+      <c r="AB53" s="330"/>
       <c r="AC53" s="176" t="s">
         <v>90</v>
       </c>
-      <c r="AD53" s="216" t="s">
+      <c r="AD53" s="223" t="s">
         <v>142</v>
       </c>
-      <c r="AE53" s="299"/>
-      <c r="AF53" s="299"/>
-      <c r="AG53" s="300"/>
+      <c r="AE53" s="324"/>
+      <c r="AF53" s="324"/>
+      <c r="AG53" s="325"/>
       <c r="AH53" s="133"/>
       <c r="AI53" s="133"/>
       <c r="AJ53" s="133"/>
@@ -9250,24 +9250,24 @@
       <c r="AW57" s="105"/>
     </row>
     <row r="58" spans="3:53" x14ac:dyDescent="0.15">
-      <c r="D58" s="332" t="s">
+      <c r="D58" s="375" t="s">
         <v>117</v>
       </c>
-      <c r="E58" s="334" t="s">
+      <c r="E58" s="306" t="s">
         <v>49</v>
       </c>
-      <c r="F58" s="335"/>
-      <c r="G58" s="335"/>
-      <c r="H58" s="335"/>
-      <c r="I58" s="335"/>
-      <c r="J58" s="336"/>
-      <c r="K58" s="334" t="s">
+      <c r="F58" s="307"/>
+      <c r="G58" s="307"/>
+      <c r="H58" s="307"/>
+      <c r="I58" s="307"/>
+      <c r="J58" s="308"/>
+      <c r="K58" s="306" t="s">
         <v>50</v>
       </c>
-      <c r="L58" s="335"/>
-      <c r="M58" s="335"/>
-      <c r="N58" s="336"/>
-      <c r="O58" s="395" t="s">
+      <c r="L58" s="307"/>
+      <c r="M58" s="307"/>
+      <c r="N58" s="308"/>
+      <c r="O58" s="304" t="s">
         <v>51</v>
       </c>
       <c r="P58" s="139" t="s">
@@ -9278,21 +9278,21 @@
       <c r="S58" s="140"/>
       <c r="T58" s="140"/>
       <c r="U58" s="140"/>
-      <c r="V58" s="334" t="s">
+      <c r="V58" s="306" t="s">
         <v>30</v>
       </c>
-      <c r="W58" s="335"/>
-      <c r="X58" s="335"/>
-      <c r="Y58" s="335"/>
-      <c r="Z58" s="335"/>
-      <c r="AA58" s="335"/>
-      <c r="AB58" s="335"/>
-      <c r="AC58" s="335"/>
-      <c r="AD58" s="335"/>
-      <c r="AE58" s="335"/>
-      <c r="AF58" s="335"/>
-      <c r="AG58" s="335"/>
-      <c r="AH58" s="336"/>
+      <c r="W58" s="307"/>
+      <c r="X58" s="307"/>
+      <c r="Y58" s="307"/>
+      <c r="Z58" s="307"/>
+      <c r="AA58" s="307"/>
+      <c r="AB58" s="307"/>
+      <c r="AC58" s="307"/>
+      <c r="AD58" s="307"/>
+      <c r="AE58" s="307"/>
+      <c r="AF58" s="307"/>
+      <c r="AG58" s="307"/>
+      <c r="AH58" s="308"/>
       <c r="AK58" s="105"/>
       <c r="AL58" s="105"/>
       <c r="AM58" s="105"/>
@@ -9308,18 +9308,18 @@
       <c r="AW58" s="105"/>
     </row>
     <row r="59" spans="3:53" x14ac:dyDescent="0.15">
-      <c r="D59" s="333"/>
-      <c r="E59" s="337"/>
-      <c r="F59" s="338"/>
-      <c r="G59" s="338"/>
-      <c r="H59" s="338"/>
-      <c r="I59" s="338"/>
-      <c r="J59" s="339"/>
-      <c r="K59" s="337"/>
-      <c r="L59" s="338"/>
-      <c r="M59" s="338"/>
-      <c r="N59" s="339"/>
-      <c r="O59" s="396"/>
+      <c r="D59" s="376"/>
+      <c r="E59" s="309"/>
+      <c r="F59" s="310"/>
+      <c r="G59" s="310"/>
+      <c r="H59" s="310"/>
+      <c r="I59" s="310"/>
+      <c r="J59" s="311"/>
+      <c r="K59" s="309"/>
+      <c r="L59" s="310"/>
+      <c r="M59" s="310"/>
+      <c r="N59" s="311"/>
+      <c r="O59" s="305"/>
       <c r="P59" s="141" t="s">
         <v>52</v>
       </c>
@@ -9332,23 +9332,23 @@
       <c r="S59" s="141" t="s">
         <v>55</v>
       </c>
-      <c r="T59" s="397" t="s">
+      <c r="T59" s="312" t="s">
         <v>59</v>
       </c>
-      <c r="U59" s="398"/>
-      <c r="V59" s="337"/>
-      <c r="W59" s="338"/>
-      <c r="X59" s="338"/>
-      <c r="Y59" s="338"/>
-      <c r="Z59" s="338"/>
-      <c r="AA59" s="338"/>
-      <c r="AB59" s="338"/>
-      <c r="AC59" s="338"/>
-      <c r="AD59" s="338"/>
-      <c r="AE59" s="338"/>
-      <c r="AF59" s="338"/>
-      <c r="AG59" s="338"/>
-      <c r="AH59" s="339"/>
+      <c r="U59" s="313"/>
+      <c r="V59" s="309"/>
+      <c r="W59" s="310"/>
+      <c r="X59" s="310"/>
+      <c r="Y59" s="310"/>
+      <c r="Z59" s="310"/>
+      <c r="AA59" s="310"/>
+      <c r="AB59" s="310"/>
+      <c r="AC59" s="310"/>
+      <c r="AD59" s="310"/>
+      <c r="AE59" s="310"/>
+      <c r="AF59" s="310"/>
+      <c r="AG59" s="310"/>
+      <c r="AH59" s="311"/>
       <c r="AK59" s="105"/>
       <c r="AL59" s="105"/>
       <c r="AM59" s="105"/>
@@ -9367,20 +9367,20 @@
       <c r="D60" s="142">
         <v>1</v>
       </c>
-      <c r="E60" s="309" t="s">
+      <c r="E60" s="380" t="s">
         <v>143</v>
       </c>
-      <c r="F60" s="310"/>
-      <c r="G60" s="310"/>
-      <c r="H60" s="310"/>
-      <c r="I60" s="310"/>
-      <c r="J60" s="311"/>
-      <c r="K60" s="345" t="s">
+      <c r="F60" s="381"/>
+      <c r="G60" s="381"/>
+      <c r="H60" s="381"/>
+      <c r="I60" s="381"/>
+      <c r="J60" s="382"/>
+      <c r="K60" s="352" t="s">
         <v>91</v>
       </c>
-      <c r="L60" s="299"/>
-      <c r="M60" s="299"/>
-      <c r="N60" s="300"/>
+      <c r="L60" s="324"/>
+      <c r="M60" s="324"/>
+      <c r="N60" s="325"/>
       <c r="O60" s="137" t="s">
         <v>92</v>
       </c>
@@ -9396,25 +9396,25 @@
       <c r="S60" s="162" t="s">
         <v>89</v>
       </c>
-      <c r="T60" s="343" t="s">
+      <c r="T60" s="378" t="s">
         <v>89</v>
       </c>
-      <c r="U60" s="344"/>
-      <c r="V60" s="345" t="s">
+      <c r="U60" s="379"/>
+      <c r="V60" s="352" t="s">
         <v>79</v>
       </c>
-      <c r="W60" s="299"/>
-      <c r="X60" s="299"/>
-      <c r="Y60" s="299"/>
-      <c r="Z60" s="299"/>
-      <c r="AA60" s="299"/>
-      <c r="AB60" s="299"/>
-      <c r="AC60" s="299"/>
-      <c r="AD60" s="299"/>
-      <c r="AE60" s="299"/>
-      <c r="AF60" s="299"/>
-      <c r="AG60" s="299"/>
-      <c r="AH60" s="300"/>
+      <c r="W60" s="324"/>
+      <c r="X60" s="324"/>
+      <c r="Y60" s="324"/>
+      <c r="Z60" s="324"/>
+      <c r="AA60" s="324"/>
+      <c r="AB60" s="324"/>
+      <c r="AC60" s="324"/>
+      <c r="AD60" s="324"/>
+      <c r="AE60" s="324"/>
+      <c r="AF60" s="324"/>
+      <c r="AG60" s="324"/>
+      <c r="AH60" s="325"/>
       <c r="AK60" s="105"/>
       <c r="AL60" s="105"/>
       <c r="AM60" s="105"/>
@@ -9441,12 +9441,12 @@
       <c r="H61" s="199"/>
       <c r="I61" s="199"/>
       <c r="J61" s="199"/>
-      <c r="K61" s="345" t="s">
+      <c r="K61" s="352" t="s">
         <v>91</v>
       </c>
-      <c r="L61" s="299"/>
-      <c r="M61" s="299"/>
-      <c r="N61" s="300"/>
+      <c r="L61" s="324"/>
+      <c r="M61" s="324"/>
+      <c r="N61" s="325"/>
       <c r="O61" s="137" t="s">
         <v>92</v>
       </c>
@@ -9462,25 +9462,25 @@
       <c r="S61" s="176" t="s">
         <v>89</v>
       </c>
-      <c r="T61" s="343" t="s">
+      <c r="T61" s="378" t="s">
         <v>89</v>
       </c>
-      <c r="U61" s="344"/>
-      <c r="V61" s="345" t="s">
+      <c r="U61" s="379"/>
+      <c r="V61" s="352" t="s">
         <v>79</v>
       </c>
-      <c r="W61" s="299"/>
-      <c r="X61" s="299"/>
-      <c r="Y61" s="299"/>
-      <c r="Z61" s="299"/>
-      <c r="AA61" s="299"/>
-      <c r="AB61" s="299"/>
-      <c r="AC61" s="299"/>
-      <c r="AD61" s="299"/>
-      <c r="AE61" s="299"/>
-      <c r="AF61" s="299"/>
-      <c r="AG61" s="299"/>
-      <c r="AH61" s="300"/>
+      <c r="W61" s="324"/>
+      <c r="X61" s="324"/>
+      <c r="Y61" s="324"/>
+      <c r="Z61" s="324"/>
+      <c r="AA61" s="324"/>
+      <c r="AB61" s="324"/>
+      <c r="AC61" s="324"/>
+      <c r="AD61" s="324"/>
+      <c r="AE61" s="324"/>
+      <c r="AF61" s="324"/>
+      <c r="AG61" s="324"/>
+      <c r="AH61" s="325"/>
       <c r="AK61" s="105"/>
       <c r="AL61" s="105"/>
       <c r="AM61" s="105"/>
@@ -9606,181 +9606,181 @@
       <c r="D66" s="144" t="s">
         <v>11</v>
       </c>
-      <c r="E66" s="340" t="s">
+      <c r="E66" s="295" t="s">
         <v>72</v>
       </c>
-      <c r="F66" s="341"/>
-      <c r="G66" s="341"/>
-      <c r="H66" s="341"/>
-      <c r="I66" s="341"/>
-      <c r="J66" s="342"/>
-      <c r="K66" s="340" t="s">
+      <c r="F66" s="296"/>
+      <c r="G66" s="296"/>
+      <c r="H66" s="296"/>
+      <c r="I66" s="296"/>
+      <c r="J66" s="377"/>
+      <c r="K66" s="295" t="s">
         <v>38</v>
       </c>
-      <c r="L66" s="341"/>
-      <c r="M66" s="341"/>
-      <c r="N66" s="341"/>
-      <c r="O66" s="341"/>
-      <c r="P66" s="341"/>
-      <c r="Q66" s="346"/>
+      <c r="L66" s="296"/>
+      <c r="M66" s="296"/>
+      <c r="N66" s="296"/>
+      <c r="O66" s="296"/>
+      <c r="P66" s="296"/>
+      <c r="Q66" s="297"/>
       <c r="R66" s="288" t="s">
         <v>73</v>
       </c>
-      <c r="S66" s="341"/>
-      <c r="T66" s="341"/>
-      <c r="U66" s="341"/>
-      <c r="V66" s="341"/>
-      <c r="W66" s="341"/>
-      <c r="X66" s="341"/>
-      <c r="Y66" s="346"/>
-      <c r="Z66" s="352" t="s">
+      <c r="S66" s="296"/>
+      <c r="T66" s="296"/>
+      <c r="U66" s="296"/>
+      <c r="V66" s="296"/>
+      <c r="W66" s="296"/>
+      <c r="X66" s="296"/>
+      <c r="Y66" s="297"/>
+      <c r="Z66" s="334" t="s">
         <v>26</v>
       </c>
-      <c r="AA66" s="353"/>
-      <c r="AB66" s="353"/>
-      <c r="AC66" s="353"/>
-      <c r="AD66" s="354"/>
-      <c r="AE66" s="389" t="s">
+      <c r="AA66" s="335"/>
+      <c r="AB66" s="335"/>
+      <c r="AC66" s="335"/>
+      <c r="AD66" s="336"/>
+      <c r="AE66" s="331" t="s">
         <v>129</v>
       </c>
-      <c r="AF66" s="390"/>
-      <c r="AG66" s="390"/>
-      <c r="AH66" s="391"/>
+      <c r="AF66" s="332"/>
+      <c r="AG66" s="332"/>
+      <c r="AH66" s="333"/>
     </row>
     <row r="67" spans="1:58" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D67" s="145">
         <v>1</v>
       </c>
-      <c r="E67" s="359" t="s">
+      <c r="E67" s="344" t="s">
         <v>94</v>
       </c>
-      <c r="F67" s="360"/>
-      <c r="G67" s="360"/>
-      <c r="H67" s="360"/>
-      <c r="I67" s="360"/>
-      <c r="J67" s="361"/>
-      <c r="K67" s="345" t="s">
+      <c r="F67" s="322"/>
+      <c r="G67" s="322"/>
+      <c r="H67" s="322"/>
+      <c r="I67" s="322"/>
+      <c r="J67" s="323"/>
+      <c r="K67" s="352" t="s">
         <v>95</v>
       </c>
-      <c r="L67" s="299"/>
-      <c r="M67" s="299"/>
-      <c r="N67" s="299"/>
-      <c r="O67" s="299"/>
-      <c r="P67" s="299"/>
-      <c r="Q67" s="300"/>
-      <c r="R67" s="216" t="s">
+      <c r="L67" s="324"/>
+      <c r="M67" s="324"/>
+      <c r="N67" s="324"/>
+      <c r="O67" s="324"/>
+      <c r="P67" s="324"/>
+      <c r="Q67" s="325"/>
+      <c r="R67" s="223" t="s">
         <v>145</v>
       </c>
-      <c r="S67" s="299"/>
-      <c r="T67" s="299"/>
-      <c r="U67" s="299"/>
-      <c r="V67" s="299"/>
-      <c r="W67" s="299"/>
-      <c r="X67" s="299"/>
-      <c r="Y67" s="300"/>
-      <c r="Z67" s="345" t="s">
+      <c r="S67" s="324"/>
+      <c r="T67" s="324"/>
+      <c r="U67" s="324"/>
+      <c r="V67" s="324"/>
+      <c r="W67" s="324"/>
+      <c r="X67" s="324"/>
+      <c r="Y67" s="325"/>
+      <c r="Z67" s="352" t="s">
         <v>93</v>
       </c>
-      <c r="AA67" s="299"/>
-      <c r="AB67" s="299"/>
-      <c r="AC67" s="299"/>
-      <c r="AD67" s="300"/>
-      <c r="AE67" s="386" t="s">
+      <c r="AA67" s="324"/>
+      <c r="AB67" s="324"/>
+      <c r="AC67" s="324"/>
+      <c r="AD67" s="325"/>
+      <c r="AE67" s="326" t="s">
         <v>71</v>
       </c>
-      <c r="AF67" s="387"/>
-      <c r="AG67" s="387"/>
-      <c r="AH67" s="388"/>
+      <c r="AF67" s="327"/>
+      <c r="AG67" s="327"/>
+      <c r="AH67" s="328"/>
     </row>
     <row r="68" spans="1:58" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D68" s="145">
         <v>2</v>
       </c>
-      <c r="E68" s="369" t="s">
+      <c r="E68" s="321" t="s">
         <v>138</v>
       </c>
-      <c r="F68" s="360"/>
-      <c r="G68" s="360"/>
-      <c r="H68" s="360"/>
-      <c r="I68" s="360"/>
-      <c r="J68" s="361"/>
-      <c r="K68" s="216" t="s">
+      <c r="F68" s="322"/>
+      <c r="G68" s="322"/>
+      <c r="H68" s="322"/>
+      <c r="I68" s="322"/>
+      <c r="J68" s="323"/>
+      <c r="K68" s="223" t="s">
         <v>144</v>
       </c>
-      <c r="L68" s="299"/>
-      <c r="M68" s="299"/>
-      <c r="N68" s="299"/>
-      <c r="O68" s="299"/>
-      <c r="P68" s="299"/>
-      <c r="Q68" s="300"/>
-      <c r="R68" s="216" t="s">
+      <c r="L68" s="324"/>
+      <c r="M68" s="324"/>
+      <c r="N68" s="324"/>
+      <c r="O68" s="324"/>
+      <c r="P68" s="324"/>
+      <c r="Q68" s="325"/>
+      <c r="R68" s="223" t="s">
         <v>146</v>
       </c>
-      <c r="S68" s="299"/>
-      <c r="T68" s="299"/>
-      <c r="U68" s="299"/>
-      <c r="V68" s="299"/>
-      <c r="W68" s="299"/>
-      <c r="X68" s="299"/>
-      <c r="Y68" s="300"/>
-      <c r="Z68" s="216" t="s">
+      <c r="S68" s="324"/>
+      <c r="T68" s="324"/>
+      <c r="U68" s="324"/>
+      <c r="V68" s="324"/>
+      <c r="W68" s="324"/>
+      <c r="X68" s="324"/>
+      <c r="Y68" s="325"/>
+      <c r="Z68" s="223" t="s">
         <v>161</v>
       </c>
-      <c r="AA68" s="299"/>
-      <c r="AB68" s="299"/>
-      <c r="AC68" s="299"/>
-      <c r="AD68" s="300"/>
-      <c r="AE68" s="386" t="s">
+      <c r="AA68" s="324"/>
+      <c r="AB68" s="324"/>
+      <c r="AC68" s="324"/>
+      <c r="AD68" s="325"/>
+      <c r="AE68" s="326" t="s">
         <v>71</v>
       </c>
-      <c r="AF68" s="387"/>
-      <c r="AG68" s="387"/>
-      <c r="AH68" s="388"/>
+      <c r="AF68" s="327"/>
+      <c r="AG68" s="327"/>
+      <c r="AH68" s="328"/>
     </row>
     <row r="69" spans="1:58" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D69" s="145">
         <v>3</v>
       </c>
-      <c r="E69" s="369" t="s">
+      <c r="E69" s="321" t="s">
         <v>197</v>
       </c>
-      <c r="F69" s="360"/>
-      <c r="G69" s="360"/>
-      <c r="H69" s="360"/>
-      <c r="I69" s="360"/>
-      <c r="J69" s="361"/>
-      <c r="K69" s="216" t="s">
+      <c r="F69" s="322"/>
+      <c r="G69" s="322"/>
+      <c r="H69" s="322"/>
+      <c r="I69" s="322"/>
+      <c r="J69" s="323"/>
+      <c r="K69" s="223" t="s">
         <v>198</v>
       </c>
-      <c r="L69" s="299"/>
-      <c r="M69" s="299"/>
-      <c r="N69" s="299"/>
-      <c r="O69" s="299"/>
-      <c r="P69" s="299"/>
-      <c r="Q69" s="300"/>
-      <c r="R69" s="216" t="s">
+      <c r="L69" s="324"/>
+      <c r="M69" s="324"/>
+      <c r="N69" s="324"/>
+      <c r="O69" s="324"/>
+      <c r="P69" s="324"/>
+      <c r="Q69" s="325"/>
+      <c r="R69" s="223" t="s">
         <v>199</v>
       </c>
-      <c r="S69" s="299"/>
-      <c r="T69" s="299"/>
-      <c r="U69" s="299"/>
-      <c r="V69" s="299"/>
-      <c r="W69" s="299"/>
-      <c r="X69" s="299"/>
-      <c r="Y69" s="300"/>
-      <c r="Z69" s="216" t="s">
+      <c r="S69" s="324"/>
+      <c r="T69" s="324"/>
+      <c r="U69" s="324"/>
+      <c r="V69" s="324"/>
+      <c r="W69" s="324"/>
+      <c r="X69" s="324"/>
+      <c r="Y69" s="325"/>
+      <c r="Z69" s="223" t="s">
         <v>138</v>
       </c>
-      <c r="AA69" s="299"/>
-      <c r="AB69" s="299"/>
-      <c r="AC69" s="299"/>
-      <c r="AD69" s="300"/>
-      <c r="AE69" s="386" t="s">
+      <c r="AA69" s="324"/>
+      <c r="AB69" s="324"/>
+      <c r="AC69" s="324"/>
+      <c r="AD69" s="325"/>
+      <c r="AE69" s="326" t="s">
         <v>71</v>
       </c>
-      <c r="AF69" s="387"/>
-      <c r="AG69" s="387"/>
-      <c r="AH69" s="388"/>
+      <c r="AF69" s="327"/>
+      <c r="AG69" s="327"/>
+      <c r="AH69" s="328"/>
     </row>
     <row r="70" spans="1:58" s="108" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D70" s="128"/>
@@ -10227,40 +10227,40 @@
       <c r="G89" s="288" t="s">
         <v>68</v>
       </c>
-      <c r="H89" s="341"/>
-      <c r="I89" s="341"/>
-      <c r="J89" s="341"/>
-      <c r="K89" s="341"/>
-      <c r="L89" s="346"/>
-      <c r="M89" s="400" t="s">
+      <c r="H89" s="296"/>
+      <c r="I89" s="296"/>
+      <c r="J89" s="296"/>
+      <c r="K89" s="296"/>
+      <c r="L89" s="297"/>
+      <c r="M89" s="317" t="s">
         <v>76</v>
       </c>
-      <c r="N89" s="341"/>
-      <c r="O89" s="341"/>
-      <c r="P89" s="341"/>
-      <c r="Q89" s="341"/>
-      <c r="R89" s="341"/>
-      <c r="S89" s="341"/>
-      <c r="T89" s="341"/>
-      <c r="U89" s="341"/>
-      <c r="V89" s="346"/>
-      <c r="W89" s="368" t="s">
+      <c r="N89" s="296"/>
+      <c r="O89" s="296"/>
+      <c r="P89" s="296"/>
+      <c r="Q89" s="296"/>
+      <c r="R89" s="296"/>
+      <c r="S89" s="296"/>
+      <c r="T89" s="296"/>
+      <c r="U89" s="296"/>
+      <c r="V89" s="297"/>
+      <c r="W89" s="353" t="s">
         <v>162</v>
       </c>
-      <c r="X89" s="366"/>
-      <c r="Y89" s="367"/>
-      <c r="Z89" s="365" t="s">
+      <c r="X89" s="349"/>
+      <c r="Y89" s="350"/>
+      <c r="Z89" s="348" t="s">
         <v>77</v>
       </c>
-      <c r="AA89" s="366"/>
-      <c r="AB89" s="366"/>
-      <c r="AC89" s="367"/>
-      <c r="AD89" s="377" t="s">
+      <c r="AA89" s="349"/>
+      <c r="AB89" s="349"/>
+      <c r="AC89" s="350"/>
+      <c r="AD89" s="363" t="s">
         <v>130</v>
       </c>
-      <c r="AE89" s="378"/>
-      <c r="AF89" s="378"/>
-      <c r="AG89" s="379"/>
+      <c r="AE89" s="364"/>
+      <c r="AF89" s="364"/>
+      <c r="AG89" s="365"/>
       <c r="AJ89" s="125"/>
       <c r="AK89" s="125"/>
       <c r="AL89" s="125"/>
@@ -10290,43 +10290,43 @@
       <c r="F90" s="148">
         <v>1</v>
       </c>
-      <c r="G90" s="399" t="s">
+      <c r="G90" s="314" t="s">
         <v>70</v>
       </c>
-      <c r="H90" s="356"/>
-      <c r="I90" s="356"/>
-      <c r="J90" s="356"/>
-      <c r="K90" s="356"/>
-      <c r="L90" s="357"/>
-      <c r="M90" s="355" t="s">
+      <c r="H90" s="315"/>
+      <c r="I90" s="315"/>
+      <c r="J90" s="315"/>
+      <c r="K90" s="315"/>
+      <c r="L90" s="316"/>
+      <c r="M90" s="351" t="s">
         <v>86</v>
       </c>
-      <c r="N90" s="356"/>
-      <c r="O90" s="356"/>
-      <c r="P90" s="356"/>
-      <c r="Q90" s="356"/>
-      <c r="R90" s="356"/>
-      <c r="S90" s="356"/>
-      <c r="T90" s="356"/>
-      <c r="U90" s="356"/>
-      <c r="V90" s="357"/>
-      <c r="W90" s="401" t="s">
+      <c r="N90" s="315"/>
+      <c r="O90" s="315"/>
+      <c r="P90" s="315"/>
+      <c r="Q90" s="315"/>
+      <c r="R90" s="315"/>
+      <c r="S90" s="315"/>
+      <c r="T90" s="315"/>
+      <c r="U90" s="315"/>
+      <c r="V90" s="316"/>
+      <c r="W90" s="318" t="s">
         <v>132</v>
       </c>
-      <c r="X90" s="402"/>
-      <c r="Y90" s="403"/>
-      <c r="Z90" s="362" t="s">
+      <c r="X90" s="319"/>
+      <c r="Y90" s="320"/>
+      <c r="Z90" s="345" t="s">
         <v>131</v>
       </c>
-      <c r="AA90" s="363"/>
-      <c r="AB90" s="363"/>
-      <c r="AC90" s="364"/>
-      <c r="AD90" s="355" t="s">
+      <c r="AA90" s="346"/>
+      <c r="AB90" s="346"/>
+      <c r="AC90" s="347"/>
+      <c r="AD90" s="351" t="s">
         <v>120</v>
       </c>
-      <c r="AE90" s="356"/>
-      <c r="AF90" s="356"/>
-      <c r="AG90" s="357"/>
+      <c r="AE90" s="315"/>
+      <c r="AF90" s="315"/>
+      <c r="AG90" s="316"/>
       <c r="AI90" s="125"/>
       <c r="AJ90" s="125"/>
       <c r="AK90" s="125"/>
@@ -10474,70 +10474,70 @@
       </c>
     </row>
     <row r="99" spans="6:58" s="108" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="G99" s="306" t="s">
+      <c r="G99" s="298" t="s">
         <v>99</v>
       </c>
-      <c r="H99" s="307"/>
-      <c r="I99" s="307"/>
-      <c r="J99" s="307"/>
-      <c r="K99" s="307"/>
-      <c r="L99" s="307"/>
-      <c r="M99" s="307"/>
-      <c r="N99" s="307"/>
-      <c r="O99" s="307"/>
-      <c r="P99" s="308"/>
-      <c r="Q99" s="392" t="s">
+      <c r="H99" s="299"/>
+      <c r="I99" s="299"/>
+      <c r="J99" s="299"/>
+      <c r="K99" s="299"/>
+      <c r="L99" s="299"/>
+      <c r="M99" s="299"/>
+      <c r="N99" s="299"/>
+      <c r="O99" s="299"/>
+      <c r="P99" s="300"/>
+      <c r="Q99" s="301" t="s">
         <v>100</v>
       </c>
-      <c r="R99" s="393"/>
-      <c r="S99" s="393"/>
-      <c r="T99" s="393"/>
-      <c r="U99" s="393"/>
-      <c r="V99" s="393"/>
-      <c r="W99" s="393"/>
-      <c r="X99" s="393"/>
-      <c r="Y99" s="393"/>
-      <c r="Z99" s="394"/>
+      <c r="R99" s="302"/>
+      <c r="S99" s="302"/>
+      <c r="T99" s="302"/>
+      <c r="U99" s="302"/>
+      <c r="V99" s="302"/>
+      <c r="W99" s="302"/>
+      <c r="X99" s="302"/>
+      <c r="Y99" s="302"/>
+      <c r="Z99" s="303"/>
     </row>
     <row r="100" spans="6:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G100" s="312" t="s">
+      <c r="G100" s="391" t="s">
         <v>143</v>
       </c>
-      <c r="H100" s="313"/>
-      <c r="I100" s="313"/>
-      <c r="J100" s="313"/>
-      <c r="K100" s="313"/>
-      <c r="L100" s="313"/>
-      <c r="M100" s="313"/>
-      <c r="N100" s="313"/>
-      <c r="O100" s="313"/>
-      <c r="P100" s="314"/>
-      <c r="Q100" s="309" t="s">
+      <c r="H100" s="392"/>
+      <c r="I100" s="392"/>
+      <c r="J100" s="392"/>
+      <c r="K100" s="392"/>
+      <c r="L100" s="392"/>
+      <c r="M100" s="392"/>
+      <c r="N100" s="392"/>
+      <c r="O100" s="392"/>
+      <c r="P100" s="393"/>
+      <c r="Q100" s="380" t="s">
         <v>169</v>
       </c>
-      <c r="R100" s="310"/>
-      <c r="S100" s="310"/>
-      <c r="T100" s="310"/>
-      <c r="U100" s="310"/>
-      <c r="V100" s="310"/>
-      <c r="W100" s="310"/>
-      <c r="X100" s="310"/>
-      <c r="Y100" s="310"/>
-      <c r="Z100" s="311"/>
+      <c r="R100" s="381"/>
+      <c r="S100" s="381"/>
+      <c r="T100" s="381"/>
+      <c r="U100" s="381"/>
+      <c r="V100" s="381"/>
+      <c r="W100" s="381"/>
+      <c r="X100" s="381"/>
+      <c r="Y100" s="381"/>
+      <c r="Z100" s="382"/>
       <c r="AG100" s="109"/>
       <c r="AH100" s="109"/>
     </row>
     <row r="101" spans="6:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G101" s="321"/>
-      <c r="H101" s="322"/>
-      <c r="I101" s="322"/>
-      <c r="J101" s="322"/>
-      <c r="K101" s="322"/>
-      <c r="L101" s="322"/>
-      <c r="M101" s="322"/>
-      <c r="N101" s="322"/>
-      <c r="O101" s="322"/>
-      <c r="P101" s="323"/>
+      <c r="G101" s="400"/>
+      <c r="H101" s="401"/>
+      <c r="I101" s="401"/>
+      <c r="J101" s="401"/>
+      <c r="K101" s="401"/>
+      <c r="L101" s="401"/>
+      <c r="M101" s="401"/>
+      <c r="N101" s="401"/>
+      <c r="O101" s="401"/>
+      <c r="P101" s="402"/>
       <c r="Q101" s="190" t="s">
         <v>168</v>
       </c>
@@ -10554,16 +10554,16 @@
       <c r="AH101" s="109"/>
     </row>
     <row r="102" spans="6:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G102" s="321"/>
-      <c r="H102" s="322"/>
-      <c r="I102" s="322"/>
-      <c r="J102" s="322"/>
-      <c r="K102" s="322"/>
-      <c r="L102" s="322"/>
-      <c r="M102" s="322"/>
-      <c r="N102" s="322"/>
-      <c r="O102" s="322"/>
-      <c r="P102" s="323"/>
+      <c r="G102" s="400"/>
+      <c r="H102" s="401"/>
+      <c r="I102" s="401"/>
+      <c r="J102" s="401"/>
+      <c r="K102" s="401"/>
+      <c r="L102" s="401"/>
+      <c r="M102" s="401"/>
+      <c r="N102" s="401"/>
+      <c r="O102" s="401"/>
+      <c r="P102" s="402"/>
       <c r="Q102" s="174" t="s">
         <v>142</v>
       </c>
@@ -10580,16 +10580,16 @@
       <c r="AH102" s="109"/>
     </row>
     <row r="103" spans="6:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G103" s="321"/>
-      <c r="H103" s="322"/>
-      <c r="I103" s="322"/>
-      <c r="J103" s="322"/>
-      <c r="K103" s="322"/>
-      <c r="L103" s="322"/>
-      <c r="M103" s="322"/>
-      <c r="N103" s="322"/>
-      <c r="O103" s="322"/>
-      <c r="P103" s="323"/>
+      <c r="G103" s="400"/>
+      <c r="H103" s="401"/>
+      <c r="I103" s="401"/>
+      <c r="J103" s="401"/>
+      <c r="K103" s="401"/>
+      <c r="L103" s="401"/>
+      <c r="M103" s="401"/>
+      <c r="N103" s="401"/>
+      <c r="O103" s="401"/>
+      <c r="P103" s="402"/>
       <c r="Q103" s="174" t="s">
         <v>156</v>
       </c>
@@ -10606,54 +10606,54 @@
       <c r="AH103" s="109"/>
     </row>
     <row r="104" spans="6:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G104" s="321"/>
-      <c r="H104" s="322"/>
-      <c r="I104" s="322"/>
-      <c r="J104" s="322"/>
-      <c r="K104" s="322"/>
-      <c r="L104" s="322"/>
-      <c r="M104" s="322"/>
-      <c r="N104" s="322"/>
-      <c r="O104" s="322"/>
-      <c r="P104" s="323"/>
-      <c r="Q104" s="309" t="s">
+      <c r="G104" s="400"/>
+      <c r="H104" s="401"/>
+      <c r="I104" s="401"/>
+      <c r="J104" s="401"/>
+      <c r="K104" s="401"/>
+      <c r="L104" s="401"/>
+      <c r="M104" s="401"/>
+      <c r="N104" s="401"/>
+      <c r="O104" s="401"/>
+      <c r="P104" s="402"/>
+      <c r="Q104" s="380" t="s">
         <v>153</v>
       </c>
-      <c r="R104" s="310"/>
-      <c r="S104" s="310"/>
-      <c r="T104" s="310"/>
-      <c r="U104" s="310"/>
-      <c r="V104" s="310"/>
-      <c r="W104" s="310"/>
-      <c r="X104" s="310"/>
-      <c r="Y104" s="310"/>
-      <c r="Z104" s="311"/>
+      <c r="R104" s="381"/>
+      <c r="S104" s="381"/>
+      <c r="T104" s="381"/>
+      <c r="U104" s="381"/>
+      <c r="V104" s="381"/>
+      <c r="W104" s="381"/>
+      <c r="X104" s="381"/>
+      <c r="Y104" s="381"/>
+      <c r="Z104" s="382"/>
       <c r="AG104" s="109"/>
       <c r="AH104" s="109"/>
     </row>
     <row r="105" spans="6:58" x14ac:dyDescent="0.15">
-      <c r="G105" s="324"/>
-      <c r="H105" s="322"/>
-      <c r="I105" s="322"/>
-      <c r="J105" s="322"/>
-      <c r="K105" s="322"/>
-      <c r="L105" s="322"/>
-      <c r="M105" s="322"/>
-      <c r="N105" s="322"/>
-      <c r="O105" s="322"/>
-      <c r="P105" s="323"/>
-      <c r="Q105" s="309" t="s">
+      <c r="G105" s="403"/>
+      <c r="H105" s="401"/>
+      <c r="I105" s="401"/>
+      <c r="J105" s="401"/>
+      <c r="K105" s="401"/>
+      <c r="L105" s="401"/>
+      <c r="M105" s="401"/>
+      <c r="N105" s="401"/>
+      <c r="O105" s="401"/>
+      <c r="P105" s="402"/>
+      <c r="Q105" s="380" t="s">
         <v>154</v>
       </c>
-      <c r="R105" s="310"/>
-      <c r="S105" s="310"/>
-      <c r="T105" s="310"/>
-      <c r="U105" s="310"/>
-      <c r="V105" s="310"/>
-      <c r="W105" s="310"/>
-      <c r="X105" s="310"/>
-      <c r="Y105" s="310"/>
-      <c r="Z105" s="311"/>
+      <c r="R105" s="381"/>
+      <c r="S105" s="381"/>
+      <c r="T105" s="381"/>
+      <c r="U105" s="381"/>
+      <c r="V105" s="381"/>
+      <c r="W105" s="381"/>
+      <c r="X105" s="381"/>
+      <c r="Y105" s="381"/>
+      <c r="Z105" s="382"/>
       <c r="AC105" s="110"/>
       <c r="AD105" s="110"/>
       <c r="AE105" s="110"/>
@@ -10672,28 +10672,28 @@
       <c r="AY105" s="110"/>
     </row>
     <row r="106" spans="6:58" x14ac:dyDescent="0.15">
-      <c r="G106" s="318" t="s">
+      <c r="G106" s="397" t="s">
         <v>101</v>
       </c>
-      <c r="H106" s="319"/>
-      <c r="I106" s="319"/>
-      <c r="J106" s="319"/>
-      <c r="K106" s="319"/>
-      <c r="L106" s="319"/>
-      <c r="M106" s="319"/>
-      <c r="N106" s="319"/>
-      <c r="O106" s="319"/>
-      <c r="P106" s="319"/>
-      <c r="Q106" s="319"/>
-      <c r="R106" s="319"/>
-      <c r="S106" s="319"/>
-      <c r="T106" s="319"/>
-      <c r="U106" s="319"/>
-      <c r="V106" s="319"/>
-      <c r="W106" s="319"/>
-      <c r="X106" s="319"/>
-      <c r="Y106" s="319"/>
-      <c r="Z106" s="320"/>
+      <c r="H106" s="398"/>
+      <c r="I106" s="398"/>
+      <c r="J106" s="398"/>
+      <c r="K106" s="398"/>
+      <c r="L106" s="398"/>
+      <c r="M106" s="398"/>
+      <c r="N106" s="398"/>
+      <c r="O106" s="398"/>
+      <c r="P106" s="398"/>
+      <c r="Q106" s="398"/>
+      <c r="R106" s="398"/>
+      <c r="S106" s="398"/>
+      <c r="T106" s="398"/>
+      <c r="U106" s="398"/>
+      <c r="V106" s="398"/>
+      <c r="W106" s="398"/>
+      <c r="X106" s="398"/>
+      <c r="Y106" s="398"/>
+      <c r="Z106" s="399"/>
       <c r="AJ106" s="110"/>
       <c r="AK106" s="110"/>
       <c r="AL106" s="110"/>
@@ -10998,56 +10998,56 @@
       </c>
     </row>
     <row r="115" spans="4:58" s="108" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="G115" s="306" t="s">
+      <c r="G115" s="298" t="s">
         <v>99</v>
       </c>
-      <c r="H115" s="307"/>
-      <c r="I115" s="307"/>
-      <c r="J115" s="307"/>
-      <c r="K115" s="307"/>
-      <c r="L115" s="307"/>
-      <c r="M115" s="307"/>
-      <c r="N115" s="307"/>
-      <c r="O115" s="307"/>
-      <c r="P115" s="308"/>
-      <c r="Q115" s="392" t="s">
+      <c r="H115" s="299"/>
+      <c r="I115" s="299"/>
+      <c r="J115" s="299"/>
+      <c r="K115" s="299"/>
+      <c r="L115" s="299"/>
+      <c r="M115" s="299"/>
+      <c r="N115" s="299"/>
+      <c r="O115" s="299"/>
+      <c r="P115" s="300"/>
+      <c r="Q115" s="301" t="s">
         <v>100</v>
       </c>
-      <c r="R115" s="393"/>
-      <c r="S115" s="393"/>
-      <c r="T115" s="393"/>
-      <c r="U115" s="393"/>
-      <c r="V115" s="393"/>
-      <c r="W115" s="393"/>
-      <c r="X115" s="393"/>
-      <c r="Y115" s="393"/>
-      <c r="Z115" s="394"/>
+      <c r="R115" s="302"/>
+      <c r="S115" s="302"/>
+      <c r="T115" s="302"/>
+      <c r="U115" s="302"/>
+      <c r="V115" s="302"/>
+      <c r="W115" s="302"/>
+      <c r="X115" s="302"/>
+      <c r="Y115" s="302"/>
+      <c r="Z115" s="303"/>
     </row>
     <row r="116" spans="4:58" x14ac:dyDescent="0.15">
-      <c r="G116" s="312" t="s">
+      <c r="G116" s="391" t="s">
         <v>181</v>
       </c>
-      <c r="H116" s="313"/>
-      <c r="I116" s="313"/>
-      <c r="J116" s="313"/>
-      <c r="K116" s="313"/>
-      <c r="L116" s="313"/>
-      <c r="M116" s="313"/>
-      <c r="N116" s="313"/>
-      <c r="O116" s="313"/>
-      <c r="P116" s="314"/>
-      <c r="Q116" s="309" t="s">
+      <c r="H116" s="392"/>
+      <c r="I116" s="392"/>
+      <c r="J116" s="392"/>
+      <c r="K116" s="392"/>
+      <c r="L116" s="392"/>
+      <c r="M116" s="392"/>
+      <c r="N116" s="392"/>
+      <c r="O116" s="392"/>
+      <c r="P116" s="393"/>
+      <c r="Q116" s="380" t="s">
         <v>182</v>
       </c>
-      <c r="R116" s="310"/>
-      <c r="S116" s="310"/>
-      <c r="T116" s="310"/>
-      <c r="U116" s="310"/>
-      <c r="V116" s="310"/>
-      <c r="W116" s="310"/>
-      <c r="X116" s="310"/>
-      <c r="Y116" s="310"/>
-      <c r="Z116" s="311"/>
+      <c r="R116" s="381"/>
+      <c r="S116" s="381"/>
+      <c r="T116" s="381"/>
+      <c r="U116" s="381"/>
+      <c r="V116" s="381"/>
+      <c r="W116" s="381"/>
+      <c r="X116" s="381"/>
+      <c r="Y116" s="381"/>
+      <c r="Z116" s="382"/>
       <c r="AC116" s="110"/>
       <c r="AD116" s="110"/>
       <c r="AE116" s="110"/>
@@ -11066,28 +11066,28 @@
       <c r="AY116" s="110"/>
     </row>
     <row r="117" spans="4:58" x14ac:dyDescent="0.15">
-      <c r="G117" s="315"/>
-      <c r="H117" s="316"/>
-      <c r="I117" s="316"/>
-      <c r="J117" s="316"/>
-      <c r="K117" s="316"/>
-      <c r="L117" s="316"/>
-      <c r="M117" s="316"/>
-      <c r="N117" s="316"/>
-      <c r="O117" s="316"/>
-      <c r="P117" s="317"/>
-      <c r="Q117" s="309" t="s">
+      <c r="G117" s="394"/>
+      <c r="H117" s="395"/>
+      <c r="I117" s="395"/>
+      <c r="J117" s="395"/>
+      <c r="K117" s="395"/>
+      <c r="L117" s="395"/>
+      <c r="M117" s="395"/>
+      <c r="N117" s="395"/>
+      <c r="O117" s="395"/>
+      <c r="P117" s="396"/>
+      <c r="Q117" s="380" t="s">
         <v>183</v>
       </c>
-      <c r="R117" s="310"/>
-      <c r="S117" s="310"/>
-      <c r="T117" s="310"/>
-      <c r="U117" s="310"/>
-      <c r="V117" s="310"/>
-      <c r="W117" s="310"/>
-      <c r="X117" s="310"/>
-      <c r="Y117" s="310"/>
-      <c r="Z117" s="311"/>
+      <c r="R117" s="381"/>
+      <c r="S117" s="381"/>
+      <c r="T117" s="381"/>
+      <c r="U117" s="381"/>
+      <c r="V117" s="381"/>
+      <c r="W117" s="381"/>
+      <c r="X117" s="381"/>
+      <c r="Y117" s="381"/>
+      <c r="Z117" s="382"/>
       <c r="AC117" s="110"/>
       <c r="AD117" s="110"/>
       <c r="AE117" s="110"/>
@@ -11106,28 +11106,28 @@
       <c r="AY117" s="110"/>
     </row>
     <row r="118" spans="4:58" x14ac:dyDescent="0.15">
-      <c r="G118" s="318" t="s">
+      <c r="G118" s="397" t="s">
         <v>101</v>
       </c>
-      <c r="H118" s="319"/>
-      <c r="I118" s="319"/>
-      <c r="J118" s="319"/>
-      <c r="K118" s="319"/>
-      <c r="L118" s="319"/>
-      <c r="M118" s="319"/>
-      <c r="N118" s="319"/>
-      <c r="O118" s="319"/>
-      <c r="P118" s="319"/>
-      <c r="Q118" s="319"/>
-      <c r="R118" s="319"/>
-      <c r="S118" s="319"/>
-      <c r="T118" s="319"/>
-      <c r="U118" s="319"/>
-      <c r="V118" s="319"/>
-      <c r="W118" s="319"/>
-      <c r="X118" s="319"/>
-      <c r="Y118" s="319"/>
-      <c r="Z118" s="320"/>
+      <c r="H118" s="398"/>
+      <c r="I118" s="398"/>
+      <c r="J118" s="398"/>
+      <c r="K118" s="398"/>
+      <c r="L118" s="398"/>
+      <c r="M118" s="398"/>
+      <c r="N118" s="398"/>
+      <c r="O118" s="398"/>
+      <c r="P118" s="398"/>
+      <c r="Q118" s="398"/>
+      <c r="R118" s="398"/>
+      <c r="S118" s="398"/>
+      <c r="T118" s="398"/>
+      <c r="U118" s="398"/>
+      <c r="V118" s="398"/>
+      <c r="W118" s="398"/>
+      <c r="X118" s="398"/>
+      <c r="Y118" s="398"/>
+      <c r="Z118" s="399"/>
       <c r="AJ118" s="110"/>
       <c r="AK118" s="110"/>
       <c r="AL118" s="110"/>
@@ -11797,7 +11797,7 @@
       <c r="BF138" s="110"/>
     </row>
     <row r="139" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H139" s="301" t="s">
+      <c r="H139" s="366" t="s">
         <v>157</v>
       </c>
       <c r="I139" s="279" t="s">
@@ -11808,19 +11808,19 @@
       <c r="L139" s="280"/>
       <c r="M139" s="280"/>
       <c r="N139" s="281"/>
-      <c r="O139" s="303" t="s">
+      <c r="O139" s="388" t="s">
         <v>114</v>
       </c>
-      <c r="P139" s="304"/>
-      <c r="Q139" s="304"/>
-      <c r="R139" s="304"/>
-      <c r="S139" s="304"/>
-      <c r="T139" s="304"/>
-      <c r="U139" s="304"/>
-      <c r="V139" s="304"/>
-      <c r="W139" s="304"/>
-      <c r="X139" s="304"/>
-      <c r="Y139" s="305"/>
+      <c r="P139" s="389"/>
+      <c r="Q139" s="389"/>
+      <c r="R139" s="389"/>
+      <c r="S139" s="389"/>
+      <c r="T139" s="389"/>
+      <c r="U139" s="389"/>
+      <c r="V139" s="389"/>
+      <c r="W139" s="389"/>
+      <c r="X139" s="389"/>
+      <c r="Y139" s="390"/>
       <c r="Z139" s="279" t="s">
         <v>32</v>
       </c>
@@ -11836,28 +11836,28 @@
       <c r="AH139" s="186"/>
     </row>
     <row r="140" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H140" s="302"/>
+      <c r="H140" s="368"/>
       <c r="I140" s="285"/>
       <c r="J140" s="286"/>
       <c r="K140" s="286"/>
       <c r="L140" s="286"/>
       <c r="M140" s="286"/>
       <c r="N140" s="287"/>
-      <c r="O140" s="303" t="s">
+      <c r="O140" s="388" t="s">
         <v>115</v>
       </c>
-      <c r="P140" s="304"/>
-      <c r="Q140" s="304"/>
-      <c r="R140" s="304"/>
-      <c r="S140" s="305"/>
-      <c r="T140" s="306" t="s">
+      <c r="P140" s="389"/>
+      <c r="Q140" s="389"/>
+      <c r="R140" s="389"/>
+      <c r="S140" s="390"/>
+      <c r="T140" s="298" t="s">
         <v>105</v>
       </c>
-      <c r="U140" s="307"/>
-      <c r="V140" s="307"/>
-      <c r="W140" s="307"/>
-      <c r="X140" s="307"/>
-      <c r="Y140" s="308"/>
+      <c r="U140" s="299"/>
+      <c r="V140" s="299"/>
+      <c r="W140" s="299"/>
+      <c r="X140" s="299"/>
+      <c r="Y140" s="300"/>
       <c r="Z140" s="285"/>
       <c r="AA140" s="286"/>
       <c r="AB140" s="286"/>
@@ -11872,14 +11872,14 @@
       <c r="H141" s="138">
         <v>1</v>
       </c>
-      <c r="I141" s="295" t="s">
+      <c r="I141" s="384" t="s">
         <v>158</v>
       </c>
-      <c r="J141" s="296"/>
-      <c r="K141" s="296"/>
-      <c r="L141" s="296"/>
-      <c r="M141" s="296"/>
-      <c r="N141" s="297"/>
+      <c r="J141" s="385"/>
+      <c r="K141" s="385"/>
+      <c r="L141" s="385"/>
+      <c r="M141" s="385"/>
+      <c r="N141" s="386"/>
       <c r="O141" s="178" t="s">
         <v>143</v>
       </c>
@@ -11887,22 +11887,22 @@
       <c r="Q141" s="179"/>
       <c r="R141" s="179"/>
       <c r="S141" s="180"/>
-      <c r="T141" s="295" t="s">
+      <c r="T141" s="384" t="s">
         <v>159</v>
       </c>
-      <c r="U141" s="296"/>
-      <c r="V141" s="296"/>
-      <c r="W141" s="296"/>
-      <c r="X141" s="296"/>
-      <c r="Y141" s="297"/>
-      <c r="Z141" s="298" t="s">
+      <c r="U141" s="385"/>
+      <c r="V141" s="385"/>
+      <c r="W141" s="385"/>
+      <c r="X141" s="385"/>
+      <c r="Y141" s="386"/>
+      <c r="Z141" s="387" t="s">
         <v>160</v>
       </c>
-      <c r="AA141" s="299"/>
-      <c r="AB141" s="299"/>
-      <c r="AC141" s="299"/>
-      <c r="AD141" s="299"/>
-      <c r="AE141" s="300"/>
+      <c r="AA141" s="324"/>
+      <c r="AB141" s="324"/>
+      <c r="AC141" s="324"/>
+      <c r="AD141" s="324"/>
+      <c r="AE141" s="325"/>
       <c r="AF141" s="170"/>
       <c r="AG141" s="168"/>
       <c r="AH141" s="169"/>
@@ -12208,7 +12208,7 @@
       <c r="BF148" s="110"/>
     </row>
     <row r="149" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H149" s="301" t="s">
+      <c r="H149" s="366" t="s">
         <v>157</v>
       </c>
       <c r="I149" s="279" t="s">
@@ -12219,19 +12219,19 @@
       <c r="L149" s="280"/>
       <c r="M149" s="280"/>
       <c r="N149" s="281"/>
-      <c r="O149" s="303" t="s">
+      <c r="O149" s="388" t="s">
         <v>114</v>
       </c>
-      <c r="P149" s="304"/>
-      <c r="Q149" s="304"/>
-      <c r="R149" s="304"/>
-      <c r="S149" s="304"/>
-      <c r="T149" s="304"/>
-      <c r="U149" s="304"/>
-      <c r="V149" s="304"/>
-      <c r="W149" s="304"/>
-      <c r="X149" s="304"/>
-      <c r="Y149" s="305"/>
+      <c r="P149" s="389"/>
+      <c r="Q149" s="389"/>
+      <c r="R149" s="389"/>
+      <c r="S149" s="389"/>
+      <c r="T149" s="389"/>
+      <c r="U149" s="389"/>
+      <c r="V149" s="389"/>
+      <c r="W149" s="389"/>
+      <c r="X149" s="389"/>
+      <c r="Y149" s="390"/>
       <c r="Z149" s="279" t="s">
         <v>32</v>
       </c>
@@ -12247,28 +12247,28 @@
       <c r="AH149" s="186"/>
     </row>
     <row r="150" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H150" s="302"/>
+      <c r="H150" s="368"/>
       <c r="I150" s="285"/>
       <c r="J150" s="286"/>
       <c r="K150" s="286"/>
       <c r="L150" s="286"/>
       <c r="M150" s="286"/>
       <c r="N150" s="287"/>
-      <c r="O150" s="303" t="s">
+      <c r="O150" s="388" t="s">
         <v>115</v>
       </c>
-      <c r="P150" s="304"/>
-      <c r="Q150" s="304"/>
-      <c r="R150" s="304"/>
-      <c r="S150" s="305"/>
-      <c r="T150" s="306" t="s">
+      <c r="P150" s="389"/>
+      <c r="Q150" s="389"/>
+      <c r="R150" s="389"/>
+      <c r="S150" s="390"/>
+      <c r="T150" s="298" t="s">
         <v>105</v>
       </c>
-      <c r="U150" s="307"/>
-      <c r="V150" s="307"/>
-      <c r="W150" s="307"/>
-      <c r="X150" s="307"/>
-      <c r="Y150" s="308"/>
+      <c r="U150" s="299"/>
+      <c r="V150" s="299"/>
+      <c r="W150" s="299"/>
+      <c r="X150" s="299"/>
+      <c r="Y150" s="300"/>
       <c r="Z150" s="285"/>
       <c r="AA150" s="286"/>
       <c r="AB150" s="286"/>
@@ -12283,14 +12283,14 @@
       <c r="H151" s="138">
         <v>1</v>
       </c>
-      <c r="I151" s="295" t="s">
+      <c r="I151" s="384" t="s">
         <v>163</v>
       </c>
-      <c r="J151" s="296"/>
-      <c r="K151" s="296"/>
-      <c r="L151" s="296"/>
-      <c r="M151" s="296"/>
-      <c r="N151" s="297"/>
+      <c r="J151" s="385"/>
+      <c r="K151" s="385"/>
+      <c r="L151" s="385"/>
+      <c r="M151" s="385"/>
+      <c r="N151" s="386"/>
       <c r="O151" s="178" t="s">
         <v>164</v>
       </c>
@@ -12298,22 +12298,22 @@
       <c r="Q151" s="179"/>
       <c r="R151" s="179"/>
       <c r="S151" s="180"/>
-      <c r="T151" s="295" t="s">
+      <c r="T151" s="384" t="s">
         <v>159</v>
       </c>
-      <c r="U151" s="296"/>
-      <c r="V151" s="296"/>
-      <c r="W151" s="296"/>
-      <c r="X151" s="296"/>
-      <c r="Y151" s="297"/>
-      <c r="Z151" s="298" t="s">
+      <c r="U151" s="385"/>
+      <c r="V151" s="385"/>
+      <c r="W151" s="385"/>
+      <c r="X151" s="385"/>
+      <c r="Y151" s="386"/>
+      <c r="Z151" s="387" t="s">
         <v>165</v>
       </c>
-      <c r="AA151" s="299"/>
-      <c r="AB151" s="299"/>
-      <c r="AC151" s="299"/>
-      <c r="AD151" s="299"/>
-      <c r="AE151" s="300"/>
+      <c r="AA151" s="324"/>
+      <c r="AB151" s="324"/>
+      <c r="AC151" s="324"/>
+      <c r="AD151" s="324"/>
+      <c r="AE151" s="325"/>
       <c r="AF151" s="170"/>
       <c r="AG151" s="168"/>
       <c r="AH151" s="169"/>
@@ -12322,14 +12322,14 @@
       <c r="H152" s="138">
         <v>2</v>
       </c>
-      <c r="I152" s="295" t="s">
+      <c r="I152" s="384" t="s">
         <v>179</v>
       </c>
-      <c r="J152" s="296"/>
-      <c r="K152" s="296"/>
-      <c r="L152" s="296"/>
-      <c r="M152" s="296"/>
-      <c r="N152" s="297"/>
+      <c r="J152" s="385"/>
+      <c r="K152" s="385"/>
+      <c r="L152" s="385"/>
+      <c r="M152" s="385"/>
+      <c r="N152" s="386"/>
       <c r="O152" s="178" t="s">
         <v>164</v>
       </c>
@@ -12337,22 +12337,22 @@
       <c r="Q152" s="179"/>
       <c r="R152" s="179"/>
       <c r="S152" s="180"/>
-      <c r="T152" s="295" t="s">
+      <c r="T152" s="384" t="s">
         <v>93</v>
       </c>
-      <c r="U152" s="296"/>
-      <c r="V152" s="296"/>
-      <c r="W152" s="296"/>
-      <c r="X152" s="296"/>
-      <c r="Y152" s="297"/>
-      <c r="Z152" s="298">
+      <c r="U152" s="385"/>
+      <c r="V152" s="385"/>
+      <c r="W152" s="385"/>
+      <c r="X152" s="385"/>
+      <c r="Y152" s="386"/>
+      <c r="Z152" s="387">
         <v>0</v>
       </c>
-      <c r="AA152" s="299"/>
-      <c r="AB152" s="299"/>
-      <c r="AC152" s="299"/>
-      <c r="AD152" s="299"/>
-      <c r="AE152" s="300"/>
+      <c r="AA152" s="324"/>
+      <c r="AB152" s="324"/>
+      <c r="AC152" s="324"/>
+      <c r="AD152" s="324"/>
+      <c r="AE152" s="325"/>
       <c r="AF152" s="197"/>
       <c r="AG152" s="195"/>
       <c r="AH152" s="196"/>
@@ -13240,51 +13240,60 @@
     </row>
   </sheetData>
   <mergeCells count="123">
-    <mergeCell ref="K66:Q66"/>
-    <mergeCell ref="G115:P115"/>
-    <mergeCell ref="Q115:Z115"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="V58:AH59"/>
-    <mergeCell ref="T59:U59"/>
-    <mergeCell ref="G99:P99"/>
-    <mergeCell ref="Q99:Z99"/>
-    <mergeCell ref="G90:L90"/>
-    <mergeCell ref="M89:V89"/>
-    <mergeCell ref="W90:Y90"/>
-    <mergeCell ref="E69:J69"/>
-    <mergeCell ref="K69:Q69"/>
-    <mergeCell ref="R69:Y69"/>
-    <mergeCell ref="Z69:AD69"/>
-    <mergeCell ref="AE69:AH69"/>
-    <mergeCell ref="AD49:AG51"/>
-    <mergeCell ref="Z52:AB52"/>
-    <mergeCell ref="AD53:AG53"/>
-    <mergeCell ref="AD52:AG52"/>
-    <mergeCell ref="U50:Y51"/>
-    <mergeCell ref="U52:Y52"/>
-    <mergeCell ref="R68:Y68"/>
-    <mergeCell ref="Z68:AD68"/>
-    <mergeCell ref="AE68:AH68"/>
-    <mergeCell ref="AE66:AH66"/>
-    <mergeCell ref="Z66:AD66"/>
-    <mergeCell ref="AE67:AH67"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="I152:N152"/>
+    <mergeCell ref="T152:Y152"/>
+    <mergeCell ref="Z152:AE152"/>
+    <mergeCell ref="I151:N151"/>
+    <mergeCell ref="T151:Y151"/>
+    <mergeCell ref="Z151:AE151"/>
+    <mergeCell ref="H149:H150"/>
+    <mergeCell ref="I149:N150"/>
+    <mergeCell ref="O149:Y149"/>
+    <mergeCell ref="Z149:AE150"/>
+    <mergeCell ref="O150:S150"/>
+    <mergeCell ref="T150:Y150"/>
+    <mergeCell ref="I141:N141"/>
+    <mergeCell ref="T141:Y141"/>
+    <mergeCell ref="Z141:AE141"/>
+    <mergeCell ref="Q104:Z104"/>
+    <mergeCell ref="H139:H140"/>
+    <mergeCell ref="I139:N140"/>
+    <mergeCell ref="O139:Y139"/>
+    <mergeCell ref="Z139:AE140"/>
+    <mergeCell ref="O140:S140"/>
+    <mergeCell ref="T140:Y140"/>
+    <mergeCell ref="G116:P117"/>
+    <mergeCell ref="Q116:Z116"/>
+    <mergeCell ref="Q117:Z117"/>
+    <mergeCell ref="G118:Z118"/>
+    <mergeCell ref="G100:P105"/>
+    <mergeCell ref="Q100:Z100"/>
+    <mergeCell ref="Q105:Z105"/>
+    <mergeCell ref="G106:Z106"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="M50:T51"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:J59"/>
+    <mergeCell ref="K58:N59"/>
+    <mergeCell ref="E66:J66"/>
+    <mergeCell ref="T61:U61"/>
+    <mergeCell ref="V61:AH61"/>
+    <mergeCell ref="K61:N61"/>
+    <mergeCell ref="R66:Y66"/>
+    <mergeCell ref="E60:J60"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="T60:U60"/>
+    <mergeCell ref="V60:AH60"/>
+    <mergeCell ref="U53:Y53"/>
+    <mergeCell ref="Z53:AB53"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="I50:L51"/>
+    <mergeCell ref="E50:H51"/>
+    <mergeCell ref="E49:AC49"/>
+    <mergeCell ref="Z50:AB51"/>
+    <mergeCell ref="AC50:AC51"/>
+    <mergeCell ref="M53:T53"/>
     <mergeCell ref="E43:M43"/>
     <mergeCell ref="N43:P43"/>
     <mergeCell ref="Q43:U43"/>
@@ -13309,60 +13318,51 @@
     <mergeCell ref="AD89:AG89"/>
     <mergeCell ref="AD90:AG90"/>
     <mergeCell ref="G89:L89"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="M50:T51"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:J59"/>
-    <mergeCell ref="K58:N59"/>
-    <mergeCell ref="E66:J66"/>
-    <mergeCell ref="T61:U61"/>
-    <mergeCell ref="V61:AH61"/>
-    <mergeCell ref="K61:N61"/>
-    <mergeCell ref="R66:Y66"/>
-    <mergeCell ref="E60:J60"/>
-    <mergeCell ref="K60:N60"/>
-    <mergeCell ref="T60:U60"/>
-    <mergeCell ref="V60:AH60"/>
-    <mergeCell ref="U53:Y53"/>
-    <mergeCell ref="Z53:AB53"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="I50:L51"/>
-    <mergeCell ref="E50:H51"/>
-    <mergeCell ref="E49:AC49"/>
-    <mergeCell ref="Z50:AB51"/>
-    <mergeCell ref="AC50:AC51"/>
-    <mergeCell ref="M53:T53"/>
-    <mergeCell ref="I141:N141"/>
-    <mergeCell ref="T141:Y141"/>
-    <mergeCell ref="Z141:AE141"/>
-    <mergeCell ref="Q104:Z104"/>
-    <mergeCell ref="H139:H140"/>
-    <mergeCell ref="I139:N140"/>
-    <mergeCell ref="O139:Y139"/>
-    <mergeCell ref="Z139:AE140"/>
-    <mergeCell ref="O140:S140"/>
-    <mergeCell ref="T140:Y140"/>
-    <mergeCell ref="G116:P117"/>
-    <mergeCell ref="Q116:Z116"/>
-    <mergeCell ref="Q117:Z117"/>
-    <mergeCell ref="G118:Z118"/>
-    <mergeCell ref="G100:P105"/>
-    <mergeCell ref="Q100:Z100"/>
-    <mergeCell ref="Q105:Z105"/>
-    <mergeCell ref="G106:Z106"/>
-    <mergeCell ref="I152:N152"/>
-    <mergeCell ref="T152:Y152"/>
-    <mergeCell ref="Z152:AE152"/>
-    <mergeCell ref="I151:N151"/>
-    <mergeCell ref="T151:Y151"/>
-    <mergeCell ref="Z151:AE151"/>
-    <mergeCell ref="H149:H150"/>
-    <mergeCell ref="I149:N150"/>
-    <mergeCell ref="O149:Y149"/>
-    <mergeCell ref="Z149:AE150"/>
-    <mergeCell ref="O150:S150"/>
-    <mergeCell ref="T150:Y150"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AD49:AG51"/>
+    <mergeCell ref="Z52:AB52"/>
+    <mergeCell ref="AD53:AG53"/>
+    <mergeCell ref="AD52:AG52"/>
+    <mergeCell ref="U50:Y51"/>
+    <mergeCell ref="U52:Y52"/>
+    <mergeCell ref="R68:Y68"/>
+    <mergeCell ref="Z68:AD68"/>
+    <mergeCell ref="AE68:AH68"/>
+    <mergeCell ref="AE66:AH66"/>
+    <mergeCell ref="Z66:AD66"/>
+    <mergeCell ref="AE67:AH67"/>
+    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="G115:P115"/>
+    <mergeCell ref="Q115:Z115"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="V58:AH59"/>
+    <mergeCell ref="T59:U59"/>
+    <mergeCell ref="G99:P99"/>
+    <mergeCell ref="Q99:Z99"/>
+    <mergeCell ref="G90:L90"/>
+    <mergeCell ref="M89:V89"/>
+    <mergeCell ref="W90:Y90"/>
+    <mergeCell ref="E69:J69"/>
+    <mergeCell ref="K69:Q69"/>
+    <mergeCell ref="R69:Y69"/>
+    <mergeCell ref="Z69:AD69"/>
+    <mergeCell ref="AE69:AH69"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="5">

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(画面)_WA10101_ログイン.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(画面)_WA10101_ログイン.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF9B12F-40C8-4BF1-B044-768D37CA4564}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA91442-BBB2-4FA5-BFBF-3D75DCBCCDB7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'2. WA10101(ログイン画面)'!#REF!</definedName>
     <definedName name="_Toc46209822" localSheetId="3">'1.  画面取引定義'!$B$5</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'1.  画面取引定義'!$A$1:$AI$21</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'2. WA10101(ログイン画面)'!$A$1:$AI$185</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'2. WA10101(ログイン画面)'!$A$1:$AI$186</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">データ!$A$1:$E$13</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
@@ -277,7 +277,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="210">
   <si>
     <t>PJ名</t>
   </si>
@@ -1353,14 +1353,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>有効期限(FROM)</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>有効期限(TO)</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>(a)アカウント存在チェック</t>
     <rPh sb="8" eb="10">
       <t>ソンザイ</t>
@@ -1368,34 +1360,11 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>認証失敗回数</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>No.</t>
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>認証失敗回数</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>-</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">認証失敗回数 + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>1</t>
-    </r>
     <phoneticPr fontId="11"/>
   </si>
   <si>
@@ -1448,49 +1417,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>ア.画面入力したパスワードを暗号化して「(2) 検索処理」の検索結果のパスワード比較を行う。不一致 の場合、下記認証失敗回数の更新を行い、</t>
-    <rPh sb="24" eb="26">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="46" eb="49">
-      <t>フイッチ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>シッパイ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>カイスウ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>パスワード(ブラウザの機能でマスキングして表示する)</t>
     <phoneticPr fontId="11"/>
   </si>
@@ -1572,55 +1498,7 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>認証失敗回数</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>イ.「(2) 検索処理」の検索結果をもとに、パスワード＝画面入力したパスワード の場合、下記最終ログイン日時と認証失敗回数の更新を行う。</t>
-    <rPh sb="7" eb="9">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>サイシュウ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ニチジ</t>
-    </rPh>
-    <rPh sb="55" eb="59">
-      <t>ニンショウシッパイ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>カイスウ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="65" eb="66">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>ユーザ</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>漢字氏名</t>
     <phoneticPr fontId="11"/>
   </si>
   <si>
@@ -1799,10 +1677,180 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
+    <t>エ.セッションフィクセーション対策としてセッションIDを変更する。</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>オ.CSRFトークン発行を実施する。</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>カ.「(2) 検索処理」の検索結果を認証情報としてセッションに追加する。</t>
+    <rPh sb="7" eb="9">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>パスワード有効期限</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>失敗回数</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>適用開始日</t>
+    <rPh sb="0" eb="5">
+      <t>テキヨウカイシビ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>適用終了日</t>
+    <rPh sb="0" eb="5">
+      <t>テキヨウシュウリョウビ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>BETWEEN to_date(適用開始日, 'YYYYMIDD') AND to_date(適用終了日, 'YYYYMIDD')</t>
+    <rPh sb="16" eb="18">
+      <t>テキヨウ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>カイシビ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>テキヨウ</t>
+    </rPh>
+    <rPh sb="49" eb="52">
+      <t>シュウリョウビ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>ユーザパスワード</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>ユーザ氏名（漢字）</t>
+    <rPh sb="3" eb="5">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンジ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>ア.画面入力したパスワードを暗号化して「(2) 検索処理」の検索結果のパスワード比較を行う。不一致 の場合、下記失敗回数の更新を行い、</t>
+    <rPh sb="24" eb="26">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="46" eb="49">
+      <t>フイッチ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>失敗回数 + 1</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>イ.「(2) 検索処理」の検索結果をもとに、パスワード＝画面入力したパスワード の場合、下記最終ログイン日時と失敗回数の更新を行う。</t>
+    <rPh sb="7" eb="9">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>サイシュウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
     <t>・(2) DBアクセス（検索処理）：実装に合わせて検索条件修正
 ・(3)　表示処理：パスワード有効期限判定追記
 ・(3)　表示処理：パスワード認証成功時のセキュリティ対策追記
-・ログアウト処理を追記</t>
+・ログアウト処理を
+・テーブルカラム名を手イーブル定義に合わせて修正</t>
     <rPh sb="18" eb="20">
       <t>ジッソウ</t>
     </rPh>
@@ -1830,43 +1878,7 @@
     <rPh sb="94" eb="96">
       <t>ショリ</t>
     </rPh>
-    <rPh sb="97" eb="99">
-      <t>ツイキ</t>
-    </rPh>
     <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>エ.セッションフィクセーション対策としてセッションIDを変更する。</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>オ.CSRFトークン発行を実施する。</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>カ.「(2) 検索処理」の検索結果を認証情報としてセッションに追加する。</t>
-    <rPh sb="7" eb="9">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
   </si>
 </sst>
 </file>
@@ -2523,7 +2535,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="404">
+  <cellXfs count="407">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2916,8 +2928,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2936,7 +2946,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2976,9 +2985,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2995,9 +3001,123 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="31" fontId="8" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3034,24 +3154,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3061,24 +3163,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3115,77 +3199,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -3196,36 +3238,6 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3277,23 +3289,284 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3304,24 +3577,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3331,12 +3586,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -3349,243 +3598,9 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="パーセント 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -4422,7 +4437,9 @@
   </sheetPr>
   <dimension ref="A1:S513"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4465,7 +4482,7 @@
       <c r="H23" s="5"/>
       <c r="I23" s="19"/>
       <c r="J23" s="15" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="K23" s="19"/>
       <c r="L23" s="19"/>
@@ -5110,7 +5127,7 @@
   <dimension ref="A1:AN34"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:F14"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -5119,57 +5136,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="251" t="s">
+      <c r="A1" s="202" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="252"/>
-      <c r="C1" s="252"/>
-      <c r="D1" s="253"/>
-      <c r="E1" s="220" t="s">
+      <c r="B1" s="203"/>
+      <c r="C1" s="203"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="250" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="221"/>
-      <c r="G1" s="221"/>
-      <c r="H1" s="221"/>
-      <c r="I1" s="221"/>
-      <c r="J1" s="221"/>
-      <c r="K1" s="221"/>
-      <c r="L1" s="221"/>
-      <c r="M1" s="221"/>
-      <c r="N1" s="222"/>
-      <c r="O1" s="254" t="s">
+      <c r="F1" s="251"/>
+      <c r="G1" s="251"/>
+      <c r="H1" s="251"/>
+      <c r="I1" s="251"/>
+      <c r="J1" s="251"/>
+      <c r="K1" s="251"/>
+      <c r="L1" s="251"/>
+      <c r="M1" s="251"/>
+      <c r="N1" s="252"/>
+      <c r="O1" s="205" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="255"/>
-      <c r="Q1" s="255"/>
-      <c r="R1" s="256"/>
-      <c r="S1" s="232" t="s">
+      <c r="P1" s="206"/>
+      <c r="Q1" s="206"/>
+      <c r="R1" s="207"/>
+      <c r="S1" s="256" t="s">
         <v>139</v>
       </c>
-      <c r="T1" s="233"/>
-      <c r="U1" s="233"/>
-      <c r="V1" s="233"/>
-      <c r="W1" s="233"/>
-      <c r="X1" s="233"/>
-      <c r="Y1" s="233"/>
-      <c r="Z1" s="234"/>
-      <c r="AA1" s="251" t="s">
+      <c r="T1" s="257"/>
+      <c r="U1" s="257"/>
+      <c r="V1" s="257"/>
+      <c r="W1" s="257"/>
+      <c r="X1" s="257"/>
+      <c r="Y1" s="257"/>
+      <c r="Z1" s="258"/>
+      <c r="AA1" s="202" t="s">
         <v>35</v>
       </c>
-      <c r="AB1" s="253"/>
-      <c r="AC1" s="202" t="str">
+      <c r="AB1" s="204"/>
+      <c r="AC1" s="238" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="203"/>
-      <c r="AE1" s="203"/>
-      <c r="AF1" s="204"/>
-      <c r="AG1" s="208">
+      <c r="AD1" s="239"/>
+      <c r="AE1" s="239"/>
+      <c r="AF1" s="240"/>
+      <c r="AG1" s="244">
         <f>IF(D8="","",D8)</f>
         <v>43656</v>
       </c>
-      <c r="AH1" s="209"/>
-      <c r="AI1" s="210"/>
+      <c r="AH1" s="245"/>
+      <c r="AI1" s="246"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="9"/>
@@ -5177,53 +5194,53 @@
       <c r="AN1" s="10"/>
     </row>
     <row r="2" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="251" t="s">
+      <c r="A2" s="202" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="252"/>
-      <c r="C2" s="252"/>
-      <c r="D2" s="253"/>
-      <c r="E2" s="220" t="s">
+      <c r="B2" s="203"/>
+      <c r="C2" s="203"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="250" t="s">
         <v>112</v>
       </c>
-      <c r="F2" s="221"/>
-      <c r="G2" s="221"/>
-      <c r="H2" s="221"/>
-      <c r="I2" s="221"/>
-      <c r="J2" s="221"/>
-      <c r="K2" s="221"/>
-      <c r="L2" s="221"/>
-      <c r="M2" s="221"/>
-      <c r="N2" s="222"/>
-      <c r="O2" s="257"/>
-      <c r="P2" s="258"/>
-      <c r="Q2" s="258"/>
-      <c r="R2" s="259"/>
-      <c r="S2" s="235"/>
-      <c r="T2" s="236"/>
-      <c r="U2" s="236"/>
-      <c r="V2" s="236"/>
-      <c r="W2" s="236"/>
-      <c r="X2" s="236"/>
-      <c r="Y2" s="236"/>
-      <c r="Z2" s="237"/>
-      <c r="AA2" s="251" t="s">
+      <c r="F2" s="251"/>
+      <c r="G2" s="251"/>
+      <c r="H2" s="251"/>
+      <c r="I2" s="251"/>
+      <c r="J2" s="251"/>
+      <c r="K2" s="251"/>
+      <c r="L2" s="251"/>
+      <c r="M2" s="251"/>
+      <c r="N2" s="252"/>
+      <c r="O2" s="208"/>
+      <c r="P2" s="209"/>
+      <c r="Q2" s="209"/>
+      <c r="R2" s="210"/>
+      <c r="S2" s="259"/>
+      <c r="T2" s="260"/>
+      <c r="U2" s="260"/>
+      <c r="V2" s="260"/>
+      <c r="W2" s="260"/>
+      <c r="X2" s="260"/>
+      <c r="Y2" s="260"/>
+      <c r="Z2" s="261"/>
+      <c r="AA2" s="202" t="s">
         <v>36</v>
       </c>
-      <c r="AB2" s="253"/>
-      <c r="AC2" s="211" t="str">
+      <c r="AB2" s="204"/>
+      <c r="AC2" s="247" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="212"/>
-      <c r="AE2" s="212"/>
-      <c r="AF2" s="213"/>
-      <c r="AG2" s="208">
+      <c r="AD2" s="248"/>
+      <c r="AE2" s="248"/>
+      <c r="AF2" s="249"/>
+      <c r="AG2" s="244">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="209"/>
-      <c r="AI2" s="210"/>
+      <c r="AH2" s="245"/>
+      <c r="AI2" s="246"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
@@ -5231,45 +5248,45 @@
       <c r="AN2" s="9"/>
     </row>
     <row r="3" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="251" t="s">
+      <c r="A3" s="202" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="252"/>
-      <c r="C3" s="252"/>
-      <c r="D3" s="253"/>
-      <c r="E3" s="220" t="s">
+      <c r="B3" s="203"/>
+      <c r="C3" s="203"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="250" t="s">
         <v>134</v>
       </c>
-      <c r="F3" s="221"/>
-      <c r="G3" s="221"/>
-      <c r="H3" s="221"/>
-      <c r="I3" s="221"/>
-      <c r="J3" s="221"/>
-      <c r="K3" s="221"/>
-      <c r="L3" s="221"/>
-      <c r="M3" s="221"/>
-      <c r="N3" s="222"/>
-      <c r="O3" s="260"/>
-      <c r="P3" s="261"/>
-      <c r="Q3" s="261"/>
-      <c r="R3" s="262"/>
-      <c r="S3" s="238"/>
-      <c r="T3" s="239"/>
-      <c r="U3" s="239"/>
-      <c r="V3" s="239"/>
-      <c r="W3" s="239"/>
-      <c r="X3" s="239"/>
-      <c r="Y3" s="239"/>
-      <c r="Z3" s="240"/>
-      <c r="AA3" s="263"/>
-      <c r="AB3" s="264"/>
-      <c r="AC3" s="202"/>
-      <c r="AD3" s="203"/>
-      <c r="AE3" s="203"/>
-      <c r="AF3" s="204"/>
-      <c r="AG3" s="208"/>
-      <c r="AH3" s="209"/>
-      <c r="AI3" s="210"/>
+      <c r="F3" s="251"/>
+      <c r="G3" s="251"/>
+      <c r="H3" s="251"/>
+      <c r="I3" s="251"/>
+      <c r="J3" s="251"/>
+      <c r="K3" s="251"/>
+      <c r="L3" s="251"/>
+      <c r="M3" s="251"/>
+      <c r="N3" s="252"/>
+      <c r="O3" s="211"/>
+      <c r="P3" s="212"/>
+      <c r="Q3" s="212"/>
+      <c r="R3" s="213"/>
+      <c r="S3" s="262"/>
+      <c r="T3" s="263"/>
+      <c r="U3" s="263"/>
+      <c r="V3" s="263"/>
+      <c r="W3" s="263"/>
+      <c r="X3" s="263"/>
+      <c r="Y3" s="263"/>
+      <c r="Z3" s="264"/>
+      <c r="AA3" s="214"/>
+      <c r="AB3" s="215"/>
+      <c r="AC3" s="238"/>
+      <c r="AD3" s="239"/>
+      <c r="AE3" s="239"/>
+      <c r="AF3" s="240"/>
+      <c r="AG3" s="244"/>
+      <c r="AH3" s="245"/>
+      <c r="AI3" s="246"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
@@ -5408,1042 +5425,1042 @@
       <c r="A7" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="217" t="s">
+      <c r="B7" s="228" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="219"/>
-      <c r="D7" s="217" t="s">
+      <c r="C7" s="229"/>
+      <c r="D7" s="228" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="218"/>
-      <c r="F7" s="219"/>
-      <c r="G7" s="217" t="s">
+      <c r="E7" s="230"/>
+      <c r="F7" s="229"/>
+      <c r="G7" s="228" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="218"/>
-      <c r="I7" s="219"/>
-      <c r="J7" s="217" t="s">
+      <c r="H7" s="230"/>
+      <c r="I7" s="229"/>
+      <c r="J7" s="228" t="s">
         <v>85</v>
       </c>
-      <c r="K7" s="218"/>
-      <c r="L7" s="218"/>
-      <c r="M7" s="218"/>
-      <c r="N7" s="218"/>
-      <c r="O7" s="218"/>
-      <c r="P7" s="219"/>
-      <c r="Q7" s="217" t="s">
+      <c r="K7" s="230"/>
+      <c r="L7" s="230"/>
+      <c r="M7" s="230"/>
+      <c r="N7" s="230"/>
+      <c r="O7" s="230"/>
+      <c r="P7" s="229"/>
+      <c r="Q7" s="228" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="218"/>
-      <c r="S7" s="218"/>
-      <c r="T7" s="218"/>
-      <c r="U7" s="218"/>
-      <c r="V7" s="218"/>
-      <c r="W7" s="218"/>
-      <c r="X7" s="218"/>
-      <c r="Y7" s="218"/>
-      <c r="Z7" s="218"/>
-      <c r="AA7" s="218"/>
-      <c r="AB7" s="218"/>
-      <c r="AC7" s="218"/>
-      <c r="AD7" s="218"/>
-      <c r="AE7" s="219"/>
-      <c r="AF7" s="217" t="s">
+      <c r="R7" s="230"/>
+      <c r="S7" s="230"/>
+      <c r="T7" s="230"/>
+      <c r="U7" s="230"/>
+      <c r="V7" s="230"/>
+      <c r="W7" s="230"/>
+      <c r="X7" s="230"/>
+      <c r="Y7" s="230"/>
+      <c r="Z7" s="230"/>
+      <c r="AA7" s="230"/>
+      <c r="AB7" s="230"/>
+      <c r="AC7" s="230"/>
+      <c r="AD7" s="230"/>
+      <c r="AE7" s="229"/>
+      <c r="AF7" s="228" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="218"/>
-      <c r="AH7" s="218"/>
-      <c r="AI7" s="219"/>
+      <c r="AG7" s="230"/>
+      <c r="AH7" s="230"/>
+      <c r="AI7" s="229"/>
     </row>
     <row r="8" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="56">
         <v>1</v>
       </c>
-      <c r="B8" s="244" t="s">
+      <c r="B8" s="231" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="245"/>
-      <c r="D8" s="246">
+      <c r="C8" s="232"/>
+      <c r="D8" s="233">
         <v>43656</v>
       </c>
-      <c r="E8" s="247"/>
-      <c r="F8" s="248"/>
-      <c r="G8" s="249" t="s">
+      <c r="E8" s="234"/>
+      <c r="F8" s="235"/>
+      <c r="G8" s="236" t="s">
         <v>107</v>
       </c>
-      <c r="H8" s="250"/>
-      <c r="I8" s="245"/>
-      <c r="J8" s="229" t="s">
+      <c r="H8" s="237"/>
+      <c r="I8" s="232"/>
+      <c r="J8" s="253" t="s">
         <v>108</v>
       </c>
-      <c r="K8" s="230"/>
-      <c r="L8" s="230"/>
-      <c r="M8" s="230"/>
-      <c r="N8" s="230"/>
-      <c r="O8" s="230"/>
-      <c r="P8" s="231"/>
-      <c r="Q8" s="205" t="s">
+      <c r="K8" s="254"/>
+      <c r="L8" s="254"/>
+      <c r="M8" s="254"/>
+      <c r="N8" s="254"/>
+      <c r="O8" s="254"/>
+      <c r="P8" s="255"/>
+      <c r="Q8" s="241" t="s">
         <v>109</v>
       </c>
-      <c r="R8" s="206"/>
-      <c r="S8" s="206"/>
-      <c r="T8" s="206"/>
-      <c r="U8" s="206"/>
-      <c r="V8" s="206"/>
-      <c r="W8" s="206"/>
-      <c r="X8" s="206"/>
-      <c r="Y8" s="206"/>
-      <c r="Z8" s="206"/>
-      <c r="AA8" s="206"/>
-      <c r="AB8" s="206"/>
-      <c r="AC8" s="206"/>
-      <c r="AD8" s="206"/>
-      <c r="AE8" s="207"/>
-      <c r="AF8" s="229" t="s">
+      <c r="R8" s="242"/>
+      <c r="S8" s="242"/>
+      <c r="T8" s="242"/>
+      <c r="U8" s="242"/>
+      <c r="V8" s="242"/>
+      <c r="W8" s="242"/>
+      <c r="X8" s="242"/>
+      <c r="Y8" s="242"/>
+      <c r="Z8" s="242"/>
+      <c r="AA8" s="242"/>
+      <c r="AB8" s="242"/>
+      <c r="AC8" s="242"/>
+      <c r="AD8" s="242"/>
+      <c r="AE8" s="243"/>
+      <c r="AF8" s="253" t="s">
         <v>110</v>
       </c>
-      <c r="AG8" s="230"/>
-      <c r="AH8" s="230"/>
-      <c r="AI8" s="231"/>
-    </row>
-    <row r="9" spans="1:40" s="55" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AG8" s="254"/>
+      <c r="AH8" s="254"/>
+      <c r="AI8" s="255"/>
+    </row>
+    <row r="9" spans="1:40" s="55" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="57">
         <v>2</v>
       </c>
-      <c r="B9" s="214" t="s">
-        <v>188</v>
-      </c>
-      <c r="C9" s="216"/>
-      <c r="D9" s="241">
+      <c r="B9" s="222" t="s">
+        <v>179</v>
+      </c>
+      <c r="C9" s="223"/>
+      <c r="D9" s="224">
         <v>44796</v>
       </c>
-      <c r="E9" s="242"/>
-      <c r="F9" s="243"/>
-      <c r="G9" s="214" t="s">
-        <v>189</v>
-      </c>
-      <c r="H9" s="215"/>
-      <c r="I9" s="216"/>
-      <c r="J9" s="223" t="s">
-        <v>200</v>
-      </c>
-      <c r="K9" s="227"/>
-      <c r="L9" s="227"/>
-      <c r="M9" s="227"/>
-      <c r="N9" s="227"/>
-      <c r="O9" s="227"/>
-      <c r="P9" s="228"/>
-      <c r="Q9" s="223" t="s">
-        <v>205</v>
-      </c>
-      <c r="R9" s="224"/>
-      <c r="S9" s="224"/>
-      <c r="T9" s="224"/>
-      <c r="U9" s="224"/>
-      <c r="V9" s="224"/>
-      <c r="W9" s="224"/>
-      <c r="X9" s="224"/>
-      <c r="Y9" s="224"/>
-      <c r="Z9" s="224"/>
-      <c r="AA9" s="224"/>
-      <c r="AB9" s="224"/>
-      <c r="AC9" s="224"/>
-      <c r="AD9" s="224"/>
-      <c r="AE9" s="225"/>
-      <c r="AF9" s="226" t="s">
-        <v>187</v>
-      </c>
-      <c r="AG9" s="227"/>
-      <c r="AH9" s="227"/>
-      <c r="AI9" s="228"/>
+      <c r="E9" s="225"/>
+      <c r="F9" s="226"/>
+      <c r="G9" s="222" t="s">
+        <v>180</v>
+      </c>
+      <c r="H9" s="227"/>
+      <c r="I9" s="223"/>
+      <c r="J9" s="216" t="s">
+        <v>191</v>
+      </c>
+      <c r="K9" s="220"/>
+      <c r="L9" s="220"/>
+      <c r="M9" s="220"/>
+      <c r="N9" s="220"/>
+      <c r="O9" s="220"/>
+      <c r="P9" s="221"/>
+      <c r="Q9" s="216" t="s">
+        <v>209</v>
+      </c>
+      <c r="R9" s="217"/>
+      <c r="S9" s="217"/>
+      <c r="T9" s="217"/>
+      <c r="U9" s="217"/>
+      <c r="V9" s="217"/>
+      <c r="W9" s="217"/>
+      <c r="X9" s="217"/>
+      <c r="Y9" s="217"/>
+      <c r="Z9" s="217"/>
+      <c r="AA9" s="217"/>
+      <c r="AB9" s="217"/>
+      <c r="AC9" s="217"/>
+      <c r="AD9" s="217"/>
+      <c r="AE9" s="218"/>
+      <c r="AF9" s="219" t="s">
+        <v>178</v>
+      </c>
+      <c r="AG9" s="220"/>
+      <c r="AH9" s="220"/>
+      <c r="AI9" s="221"/>
     </row>
     <row r="10" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="57"/>
-      <c r="B10" s="214"/>
-      <c r="C10" s="216"/>
-      <c r="D10" s="241"/>
-      <c r="E10" s="242"/>
-      <c r="F10" s="243"/>
-      <c r="G10" s="214"/>
-      <c r="H10" s="215"/>
-      <c r="I10" s="216"/>
-      <c r="J10" s="226"/>
-      <c r="K10" s="227"/>
-      <c r="L10" s="227"/>
-      <c r="M10" s="227"/>
-      <c r="N10" s="227"/>
-      <c r="O10" s="227"/>
-      <c r="P10" s="228"/>
-      <c r="Q10" s="223"/>
-      <c r="R10" s="224"/>
-      <c r="S10" s="224"/>
-      <c r="T10" s="224"/>
-      <c r="U10" s="224"/>
-      <c r="V10" s="224"/>
-      <c r="W10" s="224"/>
-      <c r="X10" s="224"/>
-      <c r="Y10" s="224"/>
-      <c r="Z10" s="224"/>
-      <c r="AA10" s="224"/>
-      <c r="AB10" s="224"/>
-      <c r="AC10" s="224"/>
-      <c r="AD10" s="224"/>
-      <c r="AE10" s="225"/>
-      <c r="AF10" s="226"/>
-      <c r="AG10" s="227"/>
-      <c r="AH10" s="227"/>
-      <c r="AI10" s="228"/>
+      <c r="B10" s="222"/>
+      <c r="C10" s="223"/>
+      <c r="D10" s="224"/>
+      <c r="E10" s="225"/>
+      <c r="F10" s="226"/>
+      <c r="G10" s="222"/>
+      <c r="H10" s="227"/>
+      <c r="I10" s="223"/>
+      <c r="J10" s="219"/>
+      <c r="K10" s="220"/>
+      <c r="L10" s="220"/>
+      <c r="M10" s="220"/>
+      <c r="N10" s="220"/>
+      <c r="O10" s="220"/>
+      <c r="P10" s="221"/>
+      <c r="Q10" s="216"/>
+      <c r="R10" s="217"/>
+      <c r="S10" s="217"/>
+      <c r="T10" s="217"/>
+      <c r="U10" s="217"/>
+      <c r="V10" s="217"/>
+      <c r="W10" s="217"/>
+      <c r="X10" s="217"/>
+      <c r="Y10" s="217"/>
+      <c r="Z10" s="217"/>
+      <c r="AA10" s="217"/>
+      <c r="AB10" s="217"/>
+      <c r="AC10" s="217"/>
+      <c r="AD10" s="217"/>
+      <c r="AE10" s="218"/>
+      <c r="AF10" s="219"/>
+      <c r="AG10" s="220"/>
+      <c r="AH10" s="220"/>
+      <c r="AI10" s="221"/>
     </row>
     <row r="11" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="57"/>
-      <c r="B11" s="214"/>
-      <c r="C11" s="216"/>
-      <c r="D11" s="241"/>
-      <c r="E11" s="242"/>
-      <c r="F11" s="243"/>
-      <c r="G11" s="214"/>
-      <c r="H11" s="215"/>
-      <c r="I11" s="216"/>
-      <c r="J11" s="226"/>
-      <c r="K11" s="227"/>
-      <c r="L11" s="227"/>
-      <c r="M11" s="227"/>
-      <c r="N11" s="227"/>
-      <c r="O11" s="227"/>
-      <c r="P11" s="228"/>
-      <c r="Q11" s="223"/>
-      <c r="R11" s="224"/>
-      <c r="S11" s="224"/>
-      <c r="T11" s="224"/>
-      <c r="U11" s="224"/>
-      <c r="V11" s="224"/>
-      <c r="W11" s="224"/>
-      <c r="X11" s="224"/>
-      <c r="Y11" s="224"/>
-      <c r="Z11" s="224"/>
-      <c r="AA11" s="224"/>
-      <c r="AB11" s="224"/>
-      <c r="AC11" s="224"/>
-      <c r="AD11" s="224"/>
-      <c r="AE11" s="225"/>
-      <c r="AF11" s="226"/>
-      <c r="AG11" s="227"/>
-      <c r="AH11" s="227"/>
-      <c r="AI11" s="228"/>
+      <c r="B11" s="222"/>
+      <c r="C11" s="223"/>
+      <c r="D11" s="224"/>
+      <c r="E11" s="225"/>
+      <c r="F11" s="226"/>
+      <c r="G11" s="222"/>
+      <c r="H11" s="227"/>
+      <c r="I11" s="223"/>
+      <c r="J11" s="219"/>
+      <c r="K11" s="220"/>
+      <c r="L11" s="220"/>
+      <c r="M11" s="220"/>
+      <c r="N11" s="220"/>
+      <c r="O11" s="220"/>
+      <c r="P11" s="221"/>
+      <c r="Q11" s="216"/>
+      <c r="R11" s="217"/>
+      <c r="S11" s="217"/>
+      <c r="T11" s="217"/>
+      <c r="U11" s="217"/>
+      <c r="V11" s="217"/>
+      <c r="W11" s="217"/>
+      <c r="X11" s="217"/>
+      <c r="Y11" s="217"/>
+      <c r="Z11" s="217"/>
+      <c r="AA11" s="217"/>
+      <c r="AB11" s="217"/>
+      <c r="AC11" s="217"/>
+      <c r="AD11" s="217"/>
+      <c r="AE11" s="218"/>
+      <c r="AF11" s="219"/>
+      <c r="AG11" s="220"/>
+      <c r="AH11" s="220"/>
+      <c r="AI11" s="221"/>
     </row>
     <row r="12" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="57"/>
-      <c r="B12" s="214"/>
-      <c r="C12" s="216"/>
-      <c r="D12" s="241"/>
-      <c r="E12" s="242"/>
-      <c r="F12" s="243"/>
-      <c r="G12" s="214"/>
-      <c r="H12" s="215"/>
-      <c r="I12" s="216"/>
-      <c r="J12" s="226"/>
-      <c r="K12" s="227"/>
-      <c r="L12" s="227"/>
-      <c r="M12" s="227"/>
-      <c r="N12" s="227"/>
-      <c r="O12" s="227"/>
-      <c r="P12" s="228"/>
-      <c r="Q12" s="223"/>
-      <c r="R12" s="224"/>
-      <c r="S12" s="224"/>
-      <c r="T12" s="224"/>
-      <c r="U12" s="224"/>
-      <c r="V12" s="224"/>
-      <c r="W12" s="224"/>
-      <c r="X12" s="224"/>
-      <c r="Y12" s="224"/>
-      <c r="Z12" s="224"/>
-      <c r="AA12" s="224"/>
-      <c r="AB12" s="224"/>
-      <c r="AC12" s="224"/>
-      <c r="AD12" s="224"/>
-      <c r="AE12" s="225"/>
-      <c r="AF12" s="226"/>
-      <c r="AG12" s="227"/>
-      <c r="AH12" s="227"/>
-      <c r="AI12" s="228"/>
+      <c r="B12" s="222"/>
+      <c r="C12" s="223"/>
+      <c r="D12" s="224"/>
+      <c r="E12" s="225"/>
+      <c r="F12" s="226"/>
+      <c r="G12" s="222"/>
+      <c r="H12" s="227"/>
+      <c r="I12" s="223"/>
+      <c r="J12" s="219"/>
+      <c r="K12" s="220"/>
+      <c r="L12" s="220"/>
+      <c r="M12" s="220"/>
+      <c r="N12" s="220"/>
+      <c r="O12" s="220"/>
+      <c r="P12" s="221"/>
+      <c r="Q12" s="216"/>
+      <c r="R12" s="217"/>
+      <c r="S12" s="217"/>
+      <c r="T12" s="217"/>
+      <c r="U12" s="217"/>
+      <c r="V12" s="217"/>
+      <c r="W12" s="217"/>
+      <c r="X12" s="217"/>
+      <c r="Y12" s="217"/>
+      <c r="Z12" s="217"/>
+      <c r="AA12" s="217"/>
+      <c r="AB12" s="217"/>
+      <c r="AC12" s="217"/>
+      <c r="AD12" s="217"/>
+      <c r="AE12" s="218"/>
+      <c r="AF12" s="219"/>
+      <c r="AG12" s="220"/>
+      <c r="AH12" s="220"/>
+      <c r="AI12" s="221"/>
     </row>
     <row r="13" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="57"/>
-      <c r="B13" s="214"/>
-      <c r="C13" s="216"/>
-      <c r="D13" s="241"/>
-      <c r="E13" s="242"/>
-      <c r="F13" s="243"/>
-      <c r="G13" s="214"/>
-      <c r="H13" s="215"/>
-      <c r="I13" s="216"/>
-      <c r="J13" s="226"/>
-      <c r="K13" s="227"/>
-      <c r="L13" s="227"/>
-      <c r="M13" s="227"/>
-      <c r="N13" s="227"/>
-      <c r="O13" s="227"/>
-      <c r="P13" s="228"/>
-      <c r="Q13" s="223"/>
-      <c r="R13" s="224"/>
-      <c r="S13" s="224"/>
-      <c r="T13" s="224"/>
-      <c r="U13" s="224"/>
-      <c r="V13" s="224"/>
-      <c r="W13" s="224"/>
-      <c r="X13" s="224"/>
-      <c r="Y13" s="224"/>
-      <c r="Z13" s="224"/>
-      <c r="AA13" s="224"/>
-      <c r="AB13" s="224"/>
-      <c r="AC13" s="224"/>
-      <c r="AD13" s="224"/>
-      <c r="AE13" s="225"/>
-      <c r="AF13" s="226"/>
-      <c r="AG13" s="227"/>
-      <c r="AH13" s="227"/>
-      <c r="AI13" s="228"/>
+      <c r="B13" s="222"/>
+      <c r="C13" s="223"/>
+      <c r="D13" s="224"/>
+      <c r="E13" s="225"/>
+      <c r="F13" s="226"/>
+      <c r="G13" s="222"/>
+      <c r="H13" s="227"/>
+      <c r="I13" s="223"/>
+      <c r="J13" s="219"/>
+      <c r="K13" s="220"/>
+      <c r="L13" s="220"/>
+      <c r="M13" s="220"/>
+      <c r="N13" s="220"/>
+      <c r="O13" s="220"/>
+      <c r="P13" s="221"/>
+      <c r="Q13" s="216"/>
+      <c r="R13" s="217"/>
+      <c r="S13" s="217"/>
+      <c r="T13" s="217"/>
+      <c r="U13" s="217"/>
+      <c r="V13" s="217"/>
+      <c r="W13" s="217"/>
+      <c r="X13" s="217"/>
+      <c r="Y13" s="217"/>
+      <c r="Z13" s="217"/>
+      <c r="AA13" s="217"/>
+      <c r="AB13" s="217"/>
+      <c r="AC13" s="217"/>
+      <c r="AD13" s="217"/>
+      <c r="AE13" s="218"/>
+      <c r="AF13" s="219"/>
+      <c r="AG13" s="220"/>
+      <c r="AH13" s="220"/>
+      <c r="AI13" s="221"/>
     </row>
     <row r="14" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="57"/>
-      <c r="B14" s="214"/>
-      <c r="C14" s="216"/>
-      <c r="D14" s="241"/>
-      <c r="E14" s="242"/>
-      <c r="F14" s="243"/>
-      <c r="G14" s="214"/>
-      <c r="H14" s="215"/>
-      <c r="I14" s="216"/>
-      <c r="J14" s="226"/>
-      <c r="K14" s="227"/>
-      <c r="L14" s="227"/>
-      <c r="M14" s="227"/>
-      <c r="N14" s="227"/>
-      <c r="O14" s="227"/>
-      <c r="P14" s="228"/>
-      <c r="Q14" s="223"/>
-      <c r="R14" s="224"/>
-      <c r="S14" s="224"/>
-      <c r="T14" s="224"/>
-      <c r="U14" s="224"/>
-      <c r="V14" s="224"/>
-      <c r="W14" s="224"/>
-      <c r="X14" s="224"/>
-      <c r="Y14" s="224"/>
-      <c r="Z14" s="224"/>
-      <c r="AA14" s="224"/>
-      <c r="AB14" s="224"/>
-      <c r="AC14" s="224"/>
-      <c r="AD14" s="224"/>
-      <c r="AE14" s="225"/>
-      <c r="AF14" s="226"/>
-      <c r="AG14" s="227"/>
-      <c r="AH14" s="227"/>
-      <c r="AI14" s="228"/>
+      <c r="B14" s="222"/>
+      <c r="C14" s="223"/>
+      <c r="D14" s="224"/>
+      <c r="E14" s="225"/>
+      <c r="F14" s="226"/>
+      <c r="G14" s="222"/>
+      <c r="H14" s="227"/>
+      <c r="I14" s="223"/>
+      <c r="J14" s="219"/>
+      <c r="K14" s="220"/>
+      <c r="L14" s="220"/>
+      <c r="M14" s="220"/>
+      <c r="N14" s="220"/>
+      <c r="O14" s="220"/>
+      <c r="P14" s="221"/>
+      <c r="Q14" s="216"/>
+      <c r="R14" s="217"/>
+      <c r="S14" s="217"/>
+      <c r="T14" s="217"/>
+      <c r="U14" s="217"/>
+      <c r="V14" s="217"/>
+      <c r="W14" s="217"/>
+      <c r="X14" s="217"/>
+      <c r="Y14" s="217"/>
+      <c r="Z14" s="217"/>
+      <c r="AA14" s="217"/>
+      <c r="AB14" s="217"/>
+      <c r="AC14" s="217"/>
+      <c r="AD14" s="217"/>
+      <c r="AE14" s="218"/>
+      <c r="AF14" s="219"/>
+      <c r="AG14" s="220"/>
+      <c r="AH14" s="220"/>
+      <c r="AI14" s="221"/>
     </row>
     <row r="15" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="57"/>
-      <c r="B15" s="214"/>
-      <c r="C15" s="216"/>
-      <c r="D15" s="241"/>
-      <c r="E15" s="242"/>
-      <c r="F15" s="243"/>
-      <c r="G15" s="214"/>
-      <c r="H15" s="215"/>
-      <c r="I15" s="216"/>
-      <c r="J15" s="226"/>
-      <c r="K15" s="227"/>
-      <c r="L15" s="227"/>
-      <c r="M15" s="227"/>
-      <c r="N15" s="227"/>
-      <c r="O15" s="227"/>
-      <c r="P15" s="228"/>
-      <c r="Q15" s="223"/>
-      <c r="R15" s="224"/>
-      <c r="S15" s="224"/>
-      <c r="T15" s="224"/>
-      <c r="U15" s="224"/>
-      <c r="V15" s="224"/>
-      <c r="W15" s="224"/>
-      <c r="X15" s="224"/>
-      <c r="Y15" s="224"/>
-      <c r="Z15" s="224"/>
-      <c r="AA15" s="224"/>
-      <c r="AB15" s="224"/>
-      <c r="AC15" s="224"/>
-      <c r="AD15" s="224"/>
-      <c r="AE15" s="225"/>
-      <c r="AF15" s="226"/>
-      <c r="AG15" s="227"/>
-      <c r="AH15" s="227"/>
-      <c r="AI15" s="228"/>
+      <c r="B15" s="222"/>
+      <c r="C15" s="223"/>
+      <c r="D15" s="224"/>
+      <c r="E15" s="225"/>
+      <c r="F15" s="226"/>
+      <c r="G15" s="222"/>
+      <c r="H15" s="227"/>
+      <c r="I15" s="223"/>
+      <c r="J15" s="219"/>
+      <c r="K15" s="220"/>
+      <c r="L15" s="220"/>
+      <c r="M15" s="220"/>
+      <c r="N15" s="220"/>
+      <c r="O15" s="220"/>
+      <c r="P15" s="221"/>
+      <c r="Q15" s="216"/>
+      <c r="R15" s="217"/>
+      <c r="S15" s="217"/>
+      <c r="T15" s="217"/>
+      <c r="U15" s="217"/>
+      <c r="V15" s="217"/>
+      <c r="W15" s="217"/>
+      <c r="X15" s="217"/>
+      <c r="Y15" s="217"/>
+      <c r="Z15" s="217"/>
+      <c r="AA15" s="217"/>
+      <c r="AB15" s="217"/>
+      <c r="AC15" s="217"/>
+      <c r="AD15" s="217"/>
+      <c r="AE15" s="218"/>
+      <c r="AF15" s="219"/>
+      <c r="AG15" s="220"/>
+      <c r="AH15" s="220"/>
+      <c r="AI15" s="221"/>
     </row>
     <row r="16" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="57"/>
-      <c r="B16" s="214"/>
-      <c r="C16" s="216"/>
-      <c r="D16" s="241"/>
-      <c r="E16" s="242"/>
-      <c r="F16" s="243"/>
-      <c r="G16" s="214"/>
-      <c r="H16" s="215"/>
-      <c r="I16" s="216"/>
-      <c r="J16" s="226"/>
-      <c r="K16" s="227"/>
-      <c r="L16" s="227"/>
-      <c r="M16" s="227"/>
-      <c r="N16" s="227"/>
-      <c r="O16" s="227"/>
-      <c r="P16" s="228"/>
-      <c r="Q16" s="223"/>
-      <c r="R16" s="224"/>
-      <c r="S16" s="224"/>
-      <c r="T16" s="224"/>
-      <c r="U16" s="224"/>
-      <c r="V16" s="224"/>
-      <c r="W16" s="224"/>
-      <c r="X16" s="224"/>
-      <c r="Y16" s="224"/>
-      <c r="Z16" s="224"/>
-      <c r="AA16" s="224"/>
-      <c r="AB16" s="224"/>
-      <c r="AC16" s="224"/>
-      <c r="AD16" s="224"/>
-      <c r="AE16" s="225"/>
-      <c r="AF16" s="226"/>
-      <c r="AG16" s="227"/>
-      <c r="AH16" s="227"/>
-      <c r="AI16" s="228"/>
+      <c r="B16" s="222"/>
+      <c r="C16" s="223"/>
+      <c r="D16" s="224"/>
+      <c r="E16" s="225"/>
+      <c r="F16" s="226"/>
+      <c r="G16" s="222"/>
+      <c r="H16" s="227"/>
+      <c r="I16" s="223"/>
+      <c r="J16" s="219"/>
+      <c r="K16" s="220"/>
+      <c r="L16" s="220"/>
+      <c r="M16" s="220"/>
+      <c r="N16" s="220"/>
+      <c r="O16" s="220"/>
+      <c r="P16" s="221"/>
+      <c r="Q16" s="216"/>
+      <c r="R16" s="217"/>
+      <c r="S16" s="217"/>
+      <c r="T16" s="217"/>
+      <c r="U16" s="217"/>
+      <c r="V16" s="217"/>
+      <c r="W16" s="217"/>
+      <c r="X16" s="217"/>
+      <c r="Y16" s="217"/>
+      <c r="Z16" s="217"/>
+      <c r="AA16" s="217"/>
+      <c r="AB16" s="217"/>
+      <c r="AC16" s="217"/>
+      <c r="AD16" s="217"/>
+      <c r="AE16" s="218"/>
+      <c r="AF16" s="219"/>
+      <c r="AG16" s="220"/>
+      <c r="AH16" s="220"/>
+      <c r="AI16" s="221"/>
     </row>
     <row r="17" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="57"/>
-      <c r="B17" s="214"/>
-      <c r="C17" s="216"/>
-      <c r="D17" s="241"/>
-      <c r="E17" s="242"/>
-      <c r="F17" s="243"/>
-      <c r="G17" s="214"/>
-      <c r="H17" s="215"/>
-      <c r="I17" s="216"/>
-      <c r="J17" s="226"/>
-      <c r="K17" s="227"/>
-      <c r="L17" s="227"/>
-      <c r="M17" s="227"/>
-      <c r="N17" s="227"/>
-      <c r="O17" s="227"/>
-      <c r="P17" s="228"/>
-      <c r="Q17" s="223"/>
-      <c r="R17" s="224"/>
-      <c r="S17" s="224"/>
-      <c r="T17" s="224"/>
-      <c r="U17" s="224"/>
-      <c r="V17" s="224"/>
-      <c r="W17" s="224"/>
-      <c r="X17" s="224"/>
-      <c r="Y17" s="224"/>
-      <c r="Z17" s="224"/>
-      <c r="AA17" s="224"/>
-      <c r="AB17" s="224"/>
-      <c r="AC17" s="224"/>
-      <c r="AD17" s="224"/>
-      <c r="AE17" s="225"/>
-      <c r="AF17" s="226"/>
-      <c r="AG17" s="227"/>
-      <c r="AH17" s="227"/>
-      <c r="AI17" s="228"/>
+      <c r="B17" s="222"/>
+      <c r="C17" s="223"/>
+      <c r="D17" s="224"/>
+      <c r="E17" s="225"/>
+      <c r="F17" s="226"/>
+      <c r="G17" s="222"/>
+      <c r="H17" s="227"/>
+      <c r="I17" s="223"/>
+      <c r="J17" s="219"/>
+      <c r="K17" s="220"/>
+      <c r="L17" s="220"/>
+      <c r="M17" s="220"/>
+      <c r="N17" s="220"/>
+      <c r="O17" s="220"/>
+      <c r="P17" s="221"/>
+      <c r="Q17" s="216"/>
+      <c r="R17" s="217"/>
+      <c r="S17" s="217"/>
+      <c r="T17" s="217"/>
+      <c r="U17" s="217"/>
+      <c r="V17" s="217"/>
+      <c r="W17" s="217"/>
+      <c r="X17" s="217"/>
+      <c r="Y17" s="217"/>
+      <c r="Z17" s="217"/>
+      <c r="AA17" s="217"/>
+      <c r="AB17" s="217"/>
+      <c r="AC17" s="217"/>
+      <c r="AD17" s="217"/>
+      <c r="AE17" s="218"/>
+      <c r="AF17" s="219"/>
+      <c r="AG17" s="220"/>
+      <c r="AH17" s="220"/>
+      <c r="AI17" s="221"/>
     </row>
     <row r="18" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="57"/>
-      <c r="B18" s="214"/>
-      <c r="C18" s="216"/>
-      <c r="D18" s="241"/>
-      <c r="E18" s="242"/>
-      <c r="F18" s="243"/>
-      <c r="G18" s="214"/>
-      <c r="H18" s="215"/>
-      <c r="I18" s="216"/>
-      <c r="J18" s="226"/>
-      <c r="K18" s="227"/>
-      <c r="L18" s="227"/>
-      <c r="M18" s="227"/>
-      <c r="N18" s="227"/>
-      <c r="O18" s="227"/>
-      <c r="P18" s="228"/>
-      <c r="Q18" s="223"/>
-      <c r="R18" s="224"/>
-      <c r="S18" s="224"/>
-      <c r="T18" s="224"/>
-      <c r="U18" s="224"/>
-      <c r="V18" s="224"/>
-      <c r="W18" s="224"/>
-      <c r="X18" s="224"/>
-      <c r="Y18" s="224"/>
-      <c r="Z18" s="224"/>
-      <c r="AA18" s="224"/>
-      <c r="AB18" s="224"/>
-      <c r="AC18" s="224"/>
-      <c r="AD18" s="224"/>
-      <c r="AE18" s="225"/>
-      <c r="AF18" s="226"/>
-      <c r="AG18" s="227"/>
-      <c r="AH18" s="227"/>
-      <c r="AI18" s="228"/>
+      <c r="B18" s="222"/>
+      <c r="C18" s="223"/>
+      <c r="D18" s="224"/>
+      <c r="E18" s="225"/>
+      <c r="F18" s="226"/>
+      <c r="G18" s="222"/>
+      <c r="H18" s="227"/>
+      <c r="I18" s="223"/>
+      <c r="J18" s="219"/>
+      <c r="K18" s="220"/>
+      <c r="L18" s="220"/>
+      <c r="M18" s="220"/>
+      <c r="N18" s="220"/>
+      <c r="O18" s="220"/>
+      <c r="P18" s="221"/>
+      <c r="Q18" s="216"/>
+      <c r="R18" s="217"/>
+      <c r="S18" s="217"/>
+      <c r="T18" s="217"/>
+      <c r="U18" s="217"/>
+      <c r="V18" s="217"/>
+      <c r="W18" s="217"/>
+      <c r="X18" s="217"/>
+      <c r="Y18" s="217"/>
+      <c r="Z18" s="217"/>
+      <c r="AA18" s="217"/>
+      <c r="AB18" s="217"/>
+      <c r="AC18" s="217"/>
+      <c r="AD18" s="217"/>
+      <c r="AE18" s="218"/>
+      <c r="AF18" s="219"/>
+      <c r="AG18" s="220"/>
+      <c r="AH18" s="220"/>
+      <c r="AI18" s="221"/>
     </row>
     <row r="19" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="57"/>
-      <c r="B19" s="214"/>
-      <c r="C19" s="216"/>
-      <c r="D19" s="241"/>
-      <c r="E19" s="242"/>
-      <c r="F19" s="243"/>
-      <c r="G19" s="214"/>
-      <c r="H19" s="215"/>
-      <c r="I19" s="216"/>
-      <c r="J19" s="226"/>
-      <c r="K19" s="227"/>
-      <c r="L19" s="227"/>
-      <c r="M19" s="227"/>
-      <c r="N19" s="227"/>
-      <c r="O19" s="227"/>
-      <c r="P19" s="228"/>
-      <c r="Q19" s="223"/>
-      <c r="R19" s="224"/>
-      <c r="S19" s="224"/>
-      <c r="T19" s="224"/>
-      <c r="U19" s="224"/>
-      <c r="V19" s="224"/>
-      <c r="W19" s="224"/>
-      <c r="X19" s="224"/>
-      <c r="Y19" s="224"/>
-      <c r="Z19" s="224"/>
-      <c r="AA19" s="224"/>
-      <c r="AB19" s="224"/>
-      <c r="AC19" s="224"/>
-      <c r="AD19" s="224"/>
-      <c r="AE19" s="225"/>
-      <c r="AF19" s="226"/>
-      <c r="AG19" s="227"/>
-      <c r="AH19" s="227"/>
-      <c r="AI19" s="228"/>
+      <c r="B19" s="222"/>
+      <c r="C19" s="223"/>
+      <c r="D19" s="224"/>
+      <c r="E19" s="225"/>
+      <c r="F19" s="226"/>
+      <c r="G19" s="222"/>
+      <c r="H19" s="227"/>
+      <c r="I19" s="223"/>
+      <c r="J19" s="219"/>
+      <c r="K19" s="220"/>
+      <c r="L19" s="220"/>
+      <c r="M19" s="220"/>
+      <c r="N19" s="220"/>
+      <c r="O19" s="220"/>
+      <c r="P19" s="221"/>
+      <c r="Q19" s="216"/>
+      <c r="R19" s="217"/>
+      <c r="S19" s="217"/>
+      <c r="T19" s="217"/>
+      <c r="U19" s="217"/>
+      <c r="V19" s="217"/>
+      <c r="W19" s="217"/>
+      <c r="X19" s="217"/>
+      <c r="Y19" s="217"/>
+      <c r="Z19" s="217"/>
+      <c r="AA19" s="217"/>
+      <c r="AB19" s="217"/>
+      <c r="AC19" s="217"/>
+      <c r="AD19" s="217"/>
+      <c r="AE19" s="218"/>
+      <c r="AF19" s="219"/>
+      <c r="AG19" s="220"/>
+      <c r="AH19" s="220"/>
+      <c r="AI19" s="221"/>
     </row>
     <row r="20" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="57"/>
-      <c r="B20" s="214"/>
-      <c r="C20" s="216"/>
-      <c r="D20" s="241"/>
-      <c r="E20" s="242"/>
-      <c r="F20" s="243"/>
-      <c r="G20" s="214"/>
-      <c r="H20" s="215"/>
-      <c r="I20" s="216"/>
-      <c r="J20" s="226"/>
-      <c r="K20" s="227"/>
-      <c r="L20" s="227"/>
-      <c r="M20" s="227"/>
-      <c r="N20" s="227"/>
-      <c r="O20" s="227"/>
-      <c r="P20" s="228"/>
-      <c r="Q20" s="223"/>
-      <c r="R20" s="224"/>
-      <c r="S20" s="224"/>
-      <c r="T20" s="224"/>
-      <c r="U20" s="224"/>
-      <c r="V20" s="224"/>
-      <c r="W20" s="224"/>
-      <c r="X20" s="224"/>
-      <c r="Y20" s="224"/>
-      <c r="Z20" s="224"/>
-      <c r="AA20" s="224"/>
-      <c r="AB20" s="224"/>
-      <c r="AC20" s="224"/>
-      <c r="AD20" s="224"/>
-      <c r="AE20" s="225"/>
-      <c r="AF20" s="226"/>
-      <c r="AG20" s="227"/>
-      <c r="AH20" s="227"/>
-      <c r="AI20" s="228"/>
+      <c r="B20" s="222"/>
+      <c r="C20" s="223"/>
+      <c r="D20" s="224"/>
+      <c r="E20" s="225"/>
+      <c r="F20" s="226"/>
+      <c r="G20" s="222"/>
+      <c r="H20" s="227"/>
+      <c r="I20" s="223"/>
+      <c r="J20" s="219"/>
+      <c r="K20" s="220"/>
+      <c r="L20" s="220"/>
+      <c r="M20" s="220"/>
+      <c r="N20" s="220"/>
+      <c r="O20" s="220"/>
+      <c r="P20" s="221"/>
+      <c r="Q20" s="216"/>
+      <c r="R20" s="217"/>
+      <c r="S20" s="217"/>
+      <c r="T20" s="217"/>
+      <c r="U20" s="217"/>
+      <c r="V20" s="217"/>
+      <c r="W20" s="217"/>
+      <c r="X20" s="217"/>
+      <c r="Y20" s="217"/>
+      <c r="Z20" s="217"/>
+      <c r="AA20" s="217"/>
+      <c r="AB20" s="217"/>
+      <c r="AC20" s="217"/>
+      <c r="AD20" s="217"/>
+      <c r="AE20" s="218"/>
+      <c r="AF20" s="219"/>
+      <c r="AG20" s="220"/>
+      <c r="AH20" s="220"/>
+      <c r="AI20" s="221"/>
     </row>
     <row r="21" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="57"/>
-      <c r="B21" s="214"/>
-      <c r="C21" s="216"/>
-      <c r="D21" s="241"/>
-      <c r="E21" s="242"/>
-      <c r="F21" s="243"/>
-      <c r="G21" s="214"/>
-      <c r="H21" s="215"/>
-      <c r="I21" s="216"/>
-      <c r="J21" s="226"/>
-      <c r="K21" s="227"/>
-      <c r="L21" s="227"/>
-      <c r="M21" s="227"/>
-      <c r="N21" s="227"/>
-      <c r="O21" s="227"/>
-      <c r="P21" s="228"/>
-      <c r="Q21" s="223"/>
-      <c r="R21" s="224"/>
-      <c r="S21" s="224"/>
-      <c r="T21" s="224"/>
-      <c r="U21" s="224"/>
-      <c r="V21" s="224"/>
-      <c r="W21" s="224"/>
-      <c r="X21" s="224"/>
-      <c r="Y21" s="224"/>
-      <c r="Z21" s="224"/>
-      <c r="AA21" s="224"/>
-      <c r="AB21" s="224"/>
-      <c r="AC21" s="224"/>
-      <c r="AD21" s="224"/>
-      <c r="AE21" s="225"/>
-      <c r="AF21" s="226"/>
-      <c r="AG21" s="227"/>
-      <c r="AH21" s="227"/>
-      <c r="AI21" s="228"/>
+      <c r="B21" s="222"/>
+      <c r="C21" s="223"/>
+      <c r="D21" s="224"/>
+      <c r="E21" s="225"/>
+      <c r="F21" s="226"/>
+      <c r="G21" s="222"/>
+      <c r="H21" s="227"/>
+      <c r="I21" s="223"/>
+      <c r="J21" s="219"/>
+      <c r="K21" s="220"/>
+      <c r="L21" s="220"/>
+      <c r="M21" s="220"/>
+      <c r="N21" s="220"/>
+      <c r="O21" s="220"/>
+      <c r="P21" s="221"/>
+      <c r="Q21" s="216"/>
+      <c r="R21" s="217"/>
+      <c r="S21" s="217"/>
+      <c r="T21" s="217"/>
+      <c r="U21" s="217"/>
+      <c r="V21" s="217"/>
+      <c r="W21" s="217"/>
+      <c r="X21" s="217"/>
+      <c r="Y21" s="217"/>
+      <c r="Z21" s="217"/>
+      <c r="AA21" s="217"/>
+      <c r="AB21" s="217"/>
+      <c r="AC21" s="217"/>
+      <c r="AD21" s="217"/>
+      <c r="AE21" s="218"/>
+      <c r="AF21" s="219"/>
+      <c r="AG21" s="220"/>
+      <c r="AH21" s="220"/>
+      <c r="AI21" s="221"/>
     </row>
     <row r="22" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="57"/>
-      <c r="B22" s="214"/>
-      <c r="C22" s="216"/>
-      <c r="D22" s="241"/>
-      <c r="E22" s="242"/>
-      <c r="F22" s="243"/>
-      <c r="G22" s="214"/>
-      <c r="H22" s="215"/>
-      <c r="I22" s="216"/>
-      <c r="J22" s="226"/>
-      <c r="K22" s="227"/>
-      <c r="L22" s="227"/>
-      <c r="M22" s="227"/>
-      <c r="N22" s="227"/>
-      <c r="O22" s="227"/>
-      <c r="P22" s="228"/>
-      <c r="Q22" s="223"/>
-      <c r="R22" s="224"/>
-      <c r="S22" s="224"/>
-      <c r="T22" s="224"/>
-      <c r="U22" s="224"/>
-      <c r="V22" s="224"/>
-      <c r="W22" s="224"/>
-      <c r="X22" s="224"/>
-      <c r="Y22" s="224"/>
-      <c r="Z22" s="224"/>
-      <c r="AA22" s="224"/>
-      <c r="AB22" s="224"/>
-      <c r="AC22" s="224"/>
-      <c r="AD22" s="224"/>
-      <c r="AE22" s="225"/>
-      <c r="AF22" s="226"/>
-      <c r="AG22" s="227"/>
-      <c r="AH22" s="227"/>
-      <c r="AI22" s="228"/>
+      <c r="B22" s="222"/>
+      <c r="C22" s="223"/>
+      <c r="D22" s="224"/>
+      <c r="E22" s="225"/>
+      <c r="F22" s="226"/>
+      <c r="G22" s="222"/>
+      <c r="H22" s="227"/>
+      <c r="I22" s="223"/>
+      <c r="J22" s="219"/>
+      <c r="K22" s="220"/>
+      <c r="L22" s="220"/>
+      <c r="M22" s="220"/>
+      <c r="N22" s="220"/>
+      <c r="O22" s="220"/>
+      <c r="P22" s="221"/>
+      <c r="Q22" s="216"/>
+      <c r="R22" s="217"/>
+      <c r="S22" s="217"/>
+      <c r="T22" s="217"/>
+      <c r="U22" s="217"/>
+      <c r="V22" s="217"/>
+      <c r="W22" s="217"/>
+      <c r="X22" s="217"/>
+      <c r="Y22" s="217"/>
+      <c r="Z22" s="217"/>
+      <c r="AA22" s="217"/>
+      <c r="AB22" s="217"/>
+      <c r="AC22" s="217"/>
+      <c r="AD22" s="217"/>
+      <c r="AE22" s="218"/>
+      <c r="AF22" s="219"/>
+      <c r="AG22" s="220"/>
+      <c r="AH22" s="220"/>
+      <c r="AI22" s="221"/>
     </row>
     <row r="23" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="57"/>
-      <c r="B23" s="214"/>
-      <c r="C23" s="216"/>
-      <c r="D23" s="241"/>
-      <c r="E23" s="242"/>
-      <c r="F23" s="243"/>
-      <c r="G23" s="214"/>
-      <c r="H23" s="215"/>
-      <c r="I23" s="216"/>
-      <c r="J23" s="226"/>
-      <c r="K23" s="227"/>
-      <c r="L23" s="227"/>
-      <c r="M23" s="227"/>
-      <c r="N23" s="227"/>
-      <c r="O23" s="227"/>
-      <c r="P23" s="228"/>
-      <c r="Q23" s="223"/>
-      <c r="R23" s="224"/>
-      <c r="S23" s="224"/>
-      <c r="T23" s="224"/>
-      <c r="U23" s="224"/>
-      <c r="V23" s="224"/>
-      <c r="W23" s="224"/>
-      <c r="X23" s="224"/>
-      <c r="Y23" s="224"/>
-      <c r="Z23" s="224"/>
-      <c r="AA23" s="224"/>
-      <c r="AB23" s="224"/>
-      <c r="AC23" s="224"/>
-      <c r="AD23" s="224"/>
-      <c r="AE23" s="225"/>
-      <c r="AF23" s="226"/>
-      <c r="AG23" s="227"/>
-      <c r="AH23" s="227"/>
-      <c r="AI23" s="228"/>
+      <c r="B23" s="222"/>
+      <c r="C23" s="223"/>
+      <c r="D23" s="224"/>
+      <c r="E23" s="225"/>
+      <c r="F23" s="226"/>
+      <c r="G23" s="222"/>
+      <c r="H23" s="227"/>
+      <c r="I23" s="223"/>
+      <c r="J23" s="219"/>
+      <c r="K23" s="220"/>
+      <c r="L23" s="220"/>
+      <c r="M23" s="220"/>
+      <c r="N23" s="220"/>
+      <c r="O23" s="220"/>
+      <c r="P23" s="221"/>
+      <c r="Q23" s="216"/>
+      <c r="R23" s="217"/>
+      <c r="S23" s="217"/>
+      <c r="T23" s="217"/>
+      <c r="U23" s="217"/>
+      <c r="V23" s="217"/>
+      <c r="W23" s="217"/>
+      <c r="X23" s="217"/>
+      <c r="Y23" s="217"/>
+      <c r="Z23" s="217"/>
+      <c r="AA23" s="217"/>
+      <c r="AB23" s="217"/>
+      <c r="AC23" s="217"/>
+      <c r="AD23" s="217"/>
+      <c r="AE23" s="218"/>
+      <c r="AF23" s="219"/>
+      <c r="AG23" s="220"/>
+      <c r="AH23" s="220"/>
+      <c r="AI23" s="221"/>
     </row>
     <row r="24" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="57"/>
-      <c r="B24" s="214"/>
-      <c r="C24" s="216"/>
-      <c r="D24" s="241"/>
-      <c r="E24" s="242"/>
-      <c r="F24" s="243"/>
-      <c r="G24" s="214"/>
-      <c r="H24" s="215"/>
-      <c r="I24" s="216"/>
-      <c r="J24" s="226"/>
-      <c r="K24" s="227"/>
-      <c r="L24" s="227"/>
-      <c r="M24" s="227"/>
-      <c r="N24" s="227"/>
-      <c r="O24" s="227"/>
-      <c r="P24" s="228"/>
-      <c r="Q24" s="223"/>
-      <c r="R24" s="224"/>
-      <c r="S24" s="224"/>
-      <c r="T24" s="224"/>
-      <c r="U24" s="224"/>
-      <c r="V24" s="224"/>
-      <c r="W24" s="224"/>
-      <c r="X24" s="224"/>
-      <c r="Y24" s="224"/>
-      <c r="Z24" s="224"/>
-      <c r="AA24" s="224"/>
-      <c r="AB24" s="224"/>
-      <c r="AC24" s="224"/>
-      <c r="AD24" s="224"/>
-      <c r="AE24" s="225"/>
-      <c r="AF24" s="226"/>
-      <c r="AG24" s="227"/>
-      <c r="AH24" s="227"/>
-      <c r="AI24" s="228"/>
+      <c r="B24" s="222"/>
+      <c r="C24" s="223"/>
+      <c r="D24" s="224"/>
+      <c r="E24" s="225"/>
+      <c r="F24" s="226"/>
+      <c r="G24" s="222"/>
+      <c r="H24" s="227"/>
+      <c r="I24" s="223"/>
+      <c r="J24" s="219"/>
+      <c r="K24" s="220"/>
+      <c r="L24" s="220"/>
+      <c r="M24" s="220"/>
+      <c r="N24" s="220"/>
+      <c r="O24" s="220"/>
+      <c r="P24" s="221"/>
+      <c r="Q24" s="216"/>
+      <c r="R24" s="217"/>
+      <c r="S24" s="217"/>
+      <c r="T24" s="217"/>
+      <c r="U24" s="217"/>
+      <c r="V24" s="217"/>
+      <c r="W24" s="217"/>
+      <c r="X24" s="217"/>
+      <c r="Y24" s="217"/>
+      <c r="Z24" s="217"/>
+      <c r="AA24" s="217"/>
+      <c r="AB24" s="217"/>
+      <c r="AC24" s="217"/>
+      <c r="AD24" s="217"/>
+      <c r="AE24" s="218"/>
+      <c r="AF24" s="219"/>
+      <c r="AG24" s="220"/>
+      <c r="AH24" s="220"/>
+      <c r="AI24" s="221"/>
     </row>
     <row r="25" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="57"/>
-      <c r="B25" s="214"/>
-      <c r="C25" s="216"/>
-      <c r="D25" s="241"/>
-      <c r="E25" s="242"/>
-      <c r="F25" s="243"/>
-      <c r="G25" s="214"/>
-      <c r="H25" s="215"/>
-      <c r="I25" s="216"/>
-      <c r="J25" s="226"/>
-      <c r="K25" s="227"/>
-      <c r="L25" s="227"/>
-      <c r="M25" s="227"/>
-      <c r="N25" s="227"/>
-      <c r="O25" s="227"/>
-      <c r="P25" s="228"/>
-      <c r="Q25" s="223"/>
-      <c r="R25" s="224"/>
-      <c r="S25" s="224"/>
-      <c r="T25" s="224"/>
-      <c r="U25" s="224"/>
-      <c r="V25" s="224"/>
-      <c r="W25" s="224"/>
-      <c r="X25" s="224"/>
-      <c r="Y25" s="224"/>
-      <c r="Z25" s="224"/>
-      <c r="AA25" s="224"/>
-      <c r="AB25" s="224"/>
-      <c r="AC25" s="224"/>
-      <c r="AD25" s="224"/>
-      <c r="AE25" s="225"/>
-      <c r="AF25" s="226"/>
-      <c r="AG25" s="227"/>
-      <c r="AH25" s="227"/>
-      <c r="AI25" s="228"/>
+      <c r="B25" s="222"/>
+      <c r="C25" s="223"/>
+      <c r="D25" s="224"/>
+      <c r="E25" s="225"/>
+      <c r="F25" s="226"/>
+      <c r="G25" s="222"/>
+      <c r="H25" s="227"/>
+      <c r="I25" s="223"/>
+      <c r="J25" s="219"/>
+      <c r="K25" s="220"/>
+      <c r="L25" s="220"/>
+      <c r="M25" s="220"/>
+      <c r="N25" s="220"/>
+      <c r="O25" s="220"/>
+      <c r="P25" s="221"/>
+      <c r="Q25" s="216"/>
+      <c r="R25" s="217"/>
+      <c r="S25" s="217"/>
+      <c r="T25" s="217"/>
+      <c r="U25" s="217"/>
+      <c r="V25" s="217"/>
+      <c r="W25" s="217"/>
+      <c r="X25" s="217"/>
+      <c r="Y25" s="217"/>
+      <c r="Z25" s="217"/>
+      <c r="AA25" s="217"/>
+      <c r="AB25" s="217"/>
+      <c r="AC25" s="217"/>
+      <c r="AD25" s="217"/>
+      <c r="AE25" s="218"/>
+      <c r="AF25" s="219"/>
+      <c r="AG25" s="220"/>
+      <c r="AH25" s="220"/>
+      <c r="AI25" s="221"/>
     </row>
     <row r="26" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="57"/>
-      <c r="B26" s="214"/>
-      <c r="C26" s="216"/>
-      <c r="D26" s="241"/>
-      <c r="E26" s="242"/>
-      <c r="F26" s="243"/>
-      <c r="G26" s="214"/>
-      <c r="H26" s="215"/>
-      <c r="I26" s="216"/>
-      <c r="J26" s="226"/>
-      <c r="K26" s="227"/>
-      <c r="L26" s="227"/>
-      <c r="M26" s="227"/>
-      <c r="N26" s="227"/>
-      <c r="O26" s="227"/>
-      <c r="P26" s="228"/>
-      <c r="Q26" s="223"/>
-      <c r="R26" s="224"/>
-      <c r="S26" s="224"/>
-      <c r="T26" s="224"/>
-      <c r="U26" s="224"/>
-      <c r="V26" s="224"/>
-      <c r="W26" s="224"/>
-      <c r="X26" s="224"/>
-      <c r="Y26" s="224"/>
-      <c r="Z26" s="224"/>
-      <c r="AA26" s="224"/>
-      <c r="AB26" s="224"/>
-      <c r="AC26" s="224"/>
-      <c r="AD26" s="224"/>
-      <c r="AE26" s="225"/>
-      <c r="AF26" s="226"/>
-      <c r="AG26" s="227"/>
-      <c r="AH26" s="227"/>
-      <c r="AI26" s="228"/>
+      <c r="B26" s="222"/>
+      <c r="C26" s="223"/>
+      <c r="D26" s="224"/>
+      <c r="E26" s="225"/>
+      <c r="F26" s="226"/>
+      <c r="G26" s="222"/>
+      <c r="H26" s="227"/>
+      <c r="I26" s="223"/>
+      <c r="J26" s="219"/>
+      <c r="K26" s="220"/>
+      <c r="L26" s="220"/>
+      <c r="M26" s="220"/>
+      <c r="N26" s="220"/>
+      <c r="O26" s="220"/>
+      <c r="P26" s="221"/>
+      <c r="Q26" s="216"/>
+      <c r="R26" s="217"/>
+      <c r="S26" s="217"/>
+      <c r="T26" s="217"/>
+      <c r="U26" s="217"/>
+      <c r="V26" s="217"/>
+      <c r="W26" s="217"/>
+      <c r="X26" s="217"/>
+      <c r="Y26" s="217"/>
+      <c r="Z26" s="217"/>
+      <c r="AA26" s="217"/>
+      <c r="AB26" s="217"/>
+      <c r="AC26" s="217"/>
+      <c r="AD26" s="217"/>
+      <c r="AE26" s="218"/>
+      <c r="AF26" s="219"/>
+      <c r="AG26" s="220"/>
+      <c r="AH26" s="220"/>
+      <c r="AI26" s="221"/>
     </row>
     <row r="27" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="57"/>
-      <c r="B27" s="214"/>
-      <c r="C27" s="216"/>
-      <c r="D27" s="241"/>
-      <c r="E27" s="242"/>
-      <c r="F27" s="243"/>
-      <c r="G27" s="214"/>
-      <c r="H27" s="215"/>
-      <c r="I27" s="216"/>
-      <c r="J27" s="226"/>
-      <c r="K27" s="227"/>
-      <c r="L27" s="227"/>
-      <c r="M27" s="227"/>
-      <c r="N27" s="227"/>
-      <c r="O27" s="227"/>
-      <c r="P27" s="228"/>
-      <c r="Q27" s="223"/>
-      <c r="R27" s="224"/>
-      <c r="S27" s="224"/>
-      <c r="T27" s="224"/>
-      <c r="U27" s="224"/>
-      <c r="V27" s="224"/>
-      <c r="W27" s="224"/>
-      <c r="X27" s="224"/>
-      <c r="Y27" s="224"/>
-      <c r="Z27" s="224"/>
-      <c r="AA27" s="224"/>
-      <c r="AB27" s="224"/>
-      <c r="AC27" s="224"/>
-      <c r="AD27" s="224"/>
-      <c r="AE27" s="225"/>
-      <c r="AF27" s="226"/>
-      <c r="AG27" s="227"/>
-      <c r="AH27" s="227"/>
-      <c r="AI27" s="228"/>
+      <c r="B27" s="222"/>
+      <c r="C27" s="223"/>
+      <c r="D27" s="224"/>
+      <c r="E27" s="225"/>
+      <c r="F27" s="226"/>
+      <c r="G27" s="222"/>
+      <c r="H27" s="227"/>
+      <c r="I27" s="223"/>
+      <c r="J27" s="219"/>
+      <c r="K27" s="220"/>
+      <c r="L27" s="220"/>
+      <c r="M27" s="220"/>
+      <c r="N27" s="220"/>
+      <c r="O27" s="220"/>
+      <c r="P27" s="221"/>
+      <c r="Q27" s="216"/>
+      <c r="R27" s="217"/>
+      <c r="S27" s="217"/>
+      <c r="T27" s="217"/>
+      <c r="U27" s="217"/>
+      <c r="V27" s="217"/>
+      <c r="W27" s="217"/>
+      <c r="X27" s="217"/>
+      <c r="Y27" s="217"/>
+      <c r="Z27" s="217"/>
+      <c r="AA27" s="217"/>
+      <c r="AB27" s="217"/>
+      <c r="AC27" s="217"/>
+      <c r="AD27" s="217"/>
+      <c r="AE27" s="218"/>
+      <c r="AF27" s="219"/>
+      <c r="AG27" s="220"/>
+      <c r="AH27" s="220"/>
+      <c r="AI27" s="221"/>
     </row>
     <row r="28" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="57"/>
-      <c r="B28" s="214"/>
-      <c r="C28" s="216"/>
-      <c r="D28" s="241"/>
-      <c r="E28" s="242"/>
-      <c r="F28" s="243"/>
-      <c r="G28" s="214"/>
-      <c r="H28" s="215"/>
-      <c r="I28" s="216"/>
-      <c r="J28" s="226"/>
-      <c r="K28" s="227"/>
-      <c r="L28" s="227"/>
-      <c r="M28" s="227"/>
-      <c r="N28" s="227"/>
-      <c r="O28" s="227"/>
-      <c r="P28" s="228"/>
-      <c r="Q28" s="223"/>
-      <c r="R28" s="224"/>
-      <c r="S28" s="224"/>
-      <c r="T28" s="224"/>
-      <c r="U28" s="224"/>
-      <c r="V28" s="224"/>
-      <c r="W28" s="224"/>
-      <c r="X28" s="224"/>
-      <c r="Y28" s="224"/>
-      <c r="Z28" s="224"/>
-      <c r="AA28" s="224"/>
-      <c r="AB28" s="224"/>
-      <c r="AC28" s="224"/>
-      <c r="AD28" s="224"/>
-      <c r="AE28" s="225"/>
-      <c r="AF28" s="226"/>
-      <c r="AG28" s="227"/>
-      <c r="AH28" s="227"/>
-      <c r="AI28" s="228"/>
+      <c r="B28" s="222"/>
+      <c r="C28" s="223"/>
+      <c r="D28" s="224"/>
+      <c r="E28" s="225"/>
+      <c r="F28" s="226"/>
+      <c r="G28" s="222"/>
+      <c r="H28" s="227"/>
+      <c r="I28" s="223"/>
+      <c r="J28" s="219"/>
+      <c r="K28" s="220"/>
+      <c r="L28" s="220"/>
+      <c r="M28" s="220"/>
+      <c r="N28" s="220"/>
+      <c r="O28" s="220"/>
+      <c r="P28" s="221"/>
+      <c r="Q28" s="216"/>
+      <c r="R28" s="217"/>
+      <c r="S28" s="217"/>
+      <c r="T28" s="217"/>
+      <c r="U28" s="217"/>
+      <c r="V28" s="217"/>
+      <c r="W28" s="217"/>
+      <c r="X28" s="217"/>
+      <c r="Y28" s="217"/>
+      <c r="Z28" s="217"/>
+      <c r="AA28" s="217"/>
+      <c r="AB28" s="217"/>
+      <c r="AC28" s="217"/>
+      <c r="AD28" s="217"/>
+      <c r="AE28" s="218"/>
+      <c r="AF28" s="219"/>
+      <c r="AG28" s="220"/>
+      <c r="AH28" s="220"/>
+      <c r="AI28" s="221"/>
     </row>
     <row r="29" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="57"/>
-      <c r="B29" s="214"/>
-      <c r="C29" s="216"/>
-      <c r="D29" s="241"/>
-      <c r="E29" s="242"/>
-      <c r="F29" s="243"/>
-      <c r="G29" s="214"/>
-      <c r="H29" s="215"/>
-      <c r="I29" s="216"/>
-      <c r="J29" s="226"/>
-      <c r="K29" s="227"/>
-      <c r="L29" s="227"/>
-      <c r="M29" s="227"/>
-      <c r="N29" s="227"/>
-      <c r="O29" s="227"/>
-      <c r="P29" s="228"/>
-      <c r="Q29" s="223"/>
-      <c r="R29" s="224"/>
-      <c r="S29" s="224"/>
-      <c r="T29" s="224"/>
-      <c r="U29" s="224"/>
-      <c r="V29" s="224"/>
-      <c r="W29" s="224"/>
-      <c r="X29" s="224"/>
-      <c r="Y29" s="224"/>
-      <c r="Z29" s="224"/>
-      <c r="AA29" s="224"/>
-      <c r="AB29" s="224"/>
-      <c r="AC29" s="224"/>
-      <c r="AD29" s="224"/>
-      <c r="AE29" s="225"/>
-      <c r="AF29" s="226"/>
-      <c r="AG29" s="227"/>
-      <c r="AH29" s="227"/>
-      <c r="AI29" s="228"/>
+      <c r="B29" s="222"/>
+      <c r="C29" s="223"/>
+      <c r="D29" s="224"/>
+      <c r="E29" s="225"/>
+      <c r="F29" s="226"/>
+      <c r="G29" s="222"/>
+      <c r="H29" s="227"/>
+      <c r="I29" s="223"/>
+      <c r="J29" s="219"/>
+      <c r="K29" s="220"/>
+      <c r="L29" s="220"/>
+      <c r="M29" s="220"/>
+      <c r="N29" s="220"/>
+      <c r="O29" s="220"/>
+      <c r="P29" s="221"/>
+      <c r="Q29" s="216"/>
+      <c r="R29" s="217"/>
+      <c r="S29" s="217"/>
+      <c r="T29" s="217"/>
+      <c r="U29" s="217"/>
+      <c r="V29" s="217"/>
+      <c r="W29" s="217"/>
+      <c r="X29" s="217"/>
+      <c r="Y29" s="217"/>
+      <c r="Z29" s="217"/>
+      <c r="AA29" s="217"/>
+      <c r="AB29" s="217"/>
+      <c r="AC29" s="217"/>
+      <c r="AD29" s="217"/>
+      <c r="AE29" s="218"/>
+      <c r="AF29" s="219"/>
+      <c r="AG29" s="220"/>
+      <c r="AH29" s="220"/>
+      <c r="AI29" s="221"/>
     </row>
     <row r="30" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="57"/>
-      <c r="B30" s="214"/>
-      <c r="C30" s="216"/>
-      <c r="D30" s="241"/>
-      <c r="E30" s="242"/>
-      <c r="F30" s="243"/>
-      <c r="G30" s="214"/>
-      <c r="H30" s="215"/>
-      <c r="I30" s="216"/>
-      <c r="J30" s="226"/>
-      <c r="K30" s="227"/>
-      <c r="L30" s="227"/>
-      <c r="M30" s="227"/>
-      <c r="N30" s="227"/>
-      <c r="O30" s="227"/>
-      <c r="P30" s="228"/>
-      <c r="Q30" s="223"/>
-      <c r="R30" s="224"/>
-      <c r="S30" s="224"/>
-      <c r="T30" s="224"/>
-      <c r="U30" s="224"/>
-      <c r="V30" s="224"/>
-      <c r="W30" s="224"/>
-      <c r="X30" s="224"/>
-      <c r="Y30" s="224"/>
-      <c r="Z30" s="224"/>
-      <c r="AA30" s="224"/>
-      <c r="AB30" s="224"/>
-      <c r="AC30" s="224"/>
-      <c r="AD30" s="224"/>
-      <c r="AE30" s="225"/>
-      <c r="AF30" s="226"/>
-      <c r="AG30" s="227"/>
-      <c r="AH30" s="227"/>
-      <c r="AI30" s="228"/>
+      <c r="B30" s="222"/>
+      <c r="C30" s="223"/>
+      <c r="D30" s="224"/>
+      <c r="E30" s="225"/>
+      <c r="F30" s="226"/>
+      <c r="G30" s="222"/>
+      <c r="H30" s="227"/>
+      <c r="I30" s="223"/>
+      <c r="J30" s="219"/>
+      <c r="K30" s="220"/>
+      <c r="L30" s="220"/>
+      <c r="M30" s="220"/>
+      <c r="N30" s="220"/>
+      <c r="O30" s="220"/>
+      <c r="P30" s="221"/>
+      <c r="Q30" s="216"/>
+      <c r="R30" s="217"/>
+      <c r="S30" s="217"/>
+      <c r="T30" s="217"/>
+      <c r="U30" s="217"/>
+      <c r="V30" s="217"/>
+      <c r="W30" s="217"/>
+      <c r="X30" s="217"/>
+      <c r="Y30" s="217"/>
+      <c r="Z30" s="217"/>
+      <c r="AA30" s="217"/>
+      <c r="AB30" s="217"/>
+      <c r="AC30" s="217"/>
+      <c r="AD30" s="217"/>
+      <c r="AE30" s="218"/>
+      <c r="AF30" s="219"/>
+      <c r="AG30" s="220"/>
+      <c r="AH30" s="220"/>
+      <c r="AI30" s="221"/>
     </row>
     <row r="31" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="57"/>
-      <c r="B31" s="214"/>
-      <c r="C31" s="216"/>
-      <c r="D31" s="241"/>
-      <c r="E31" s="242"/>
-      <c r="F31" s="243"/>
-      <c r="G31" s="214"/>
-      <c r="H31" s="215"/>
-      <c r="I31" s="216"/>
-      <c r="J31" s="226"/>
-      <c r="K31" s="227"/>
-      <c r="L31" s="227"/>
-      <c r="M31" s="227"/>
-      <c r="N31" s="227"/>
-      <c r="O31" s="227"/>
-      <c r="P31" s="228"/>
-      <c r="Q31" s="223"/>
-      <c r="R31" s="224"/>
-      <c r="S31" s="224"/>
-      <c r="T31" s="224"/>
-      <c r="U31" s="224"/>
-      <c r="V31" s="224"/>
-      <c r="W31" s="224"/>
-      <c r="X31" s="224"/>
-      <c r="Y31" s="224"/>
-      <c r="Z31" s="224"/>
-      <c r="AA31" s="224"/>
-      <c r="AB31" s="224"/>
-      <c r="AC31" s="224"/>
-      <c r="AD31" s="224"/>
-      <c r="AE31" s="225"/>
-      <c r="AF31" s="226"/>
-      <c r="AG31" s="227"/>
-      <c r="AH31" s="227"/>
-      <c r="AI31" s="228"/>
+      <c r="B31" s="222"/>
+      <c r="C31" s="223"/>
+      <c r="D31" s="224"/>
+      <c r="E31" s="225"/>
+      <c r="F31" s="226"/>
+      <c r="G31" s="222"/>
+      <c r="H31" s="227"/>
+      <c r="I31" s="223"/>
+      <c r="J31" s="219"/>
+      <c r="K31" s="220"/>
+      <c r="L31" s="220"/>
+      <c r="M31" s="220"/>
+      <c r="N31" s="220"/>
+      <c r="O31" s="220"/>
+      <c r="P31" s="221"/>
+      <c r="Q31" s="216"/>
+      <c r="R31" s="217"/>
+      <c r="S31" s="217"/>
+      <c r="T31" s="217"/>
+      <c r="U31" s="217"/>
+      <c r="V31" s="217"/>
+      <c r="W31" s="217"/>
+      <c r="X31" s="217"/>
+      <c r="Y31" s="217"/>
+      <c r="Z31" s="217"/>
+      <c r="AA31" s="217"/>
+      <c r="AB31" s="217"/>
+      <c r="AC31" s="217"/>
+      <c r="AD31" s="217"/>
+      <c r="AE31" s="218"/>
+      <c r="AF31" s="219"/>
+      <c r="AG31" s="220"/>
+      <c r="AH31" s="220"/>
+      <c r="AI31" s="221"/>
     </row>
     <row r="32" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="57"/>
-      <c r="B32" s="214"/>
-      <c r="C32" s="216"/>
-      <c r="D32" s="241"/>
-      <c r="E32" s="242"/>
-      <c r="F32" s="243"/>
-      <c r="G32" s="214"/>
-      <c r="H32" s="215"/>
-      <c r="I32" s="216"/>
-      <c r="J32" s="226"/>
-      <c r="K32" s="227"/>
-      <c r="L32" s="227"/>
-      <c r="M32" s="227"/>
-      <c r="N32" s="227"/>
-      <c r="O32" s="227"/>
-      <c r="P32" s="228"/>
-      <c r="Q32" s="223"/>
-      <c r="R32" s="224"/>
-      <c r="S32" s="224"/>
-      <c r="T32" s="224"/>
-      <c r="U32" s="224"/>
-      <c r="V32" s="224"/>
-      <c r="W32" s="224"/>
-      <c r="X32" s="224"/>
-      <c r="Y32" s="224"/>
-      <c r="Z32" s="224"/>
-      <c r="AA32" s="224"/>
-      <c r="AB32" s="224"/>
-      <c r="AC32" s="224"/>
-      <c r="AD32" s="224"/>
-      <c r="AE32" s="225"/>
-      <c r="AF32" s="226"/>
-      <c r="AG32" s="227"/>
-      <c r="AH32" s="227"/>
-      <c r="AI32" s="228"/>
+      <c r="B32" s="222"/>
+      <c r="C32" s="223"/>
+      <c r="D32" s="224"/>
+      <c r="E32" s="225"/>
+      <c r="F32" s="226"/>
+      <c r="G32" s="222"/>
+      <c r="H32" s="227"/>
+      <c r="I32" s="223"/>
+      <c r="J32" s="219"/>
+      <c r="K32" s="220"/>
+      <c r="L32" s="220"/>
+      <c r="M32" s="220"/>
+      <c r="N32" s="220"/>
+      <c r="O32" s="220"/>
+      <c r="P32" s="221"/>
+      <c r="Q32" s="216"/>
+      <c r="R32" s="217"/>
+      <c r="S32" s="217"/>
+      <c r="T32" s="217"/>
+      <c r="U32" s="217"/>
+      <c r="V32" s="217"/>
+      <c r="W32" s="217"/>
+      <c r="X32" s="217"/>
+      <c r="Y32" s="217"/>
+      <c r="Z32" s="217"/>
+      <c r="AA32" s="217"/>
+      <c r="AB32" s="217"/>
+      <c r="AC32" s="217"/>
+      <c r="AD32" s="217"/>
+      <c r="AE32" s="218"/>
+      <c r="AF32" s="219"/>
+      <c r="AG32" s="220"/>
+      <c r="AH32" s="220"/>
+      <c r="AI32" s="221"/>
     </row>
     <row r="33" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="57"/>
-      <c r="B33" s="214"/>
-      <c r="C33" s="216"/>
-      <c r="D33" s="241"/>
-      <c r="E33" s="242"/>
-      <c r="F33" s="243"/>
-      <c r="G33" s="214"/>
-      <c r="H33" s="215"/>
-      <c r="I33" s="216"/>
-      <c r="J33" s="226"/>
-      <c r="K33" s="227"/>
-      <c r="L33" s="227"/>
-      <c r="M33" s="227"/>
-      <c r="N33" s="227"/>
-      <c r="O33" s="227"/>
-      <c r="P33" s="228"/>
-      <c r="Q33" s="223"/>
-      <c r="R33" s="224"/>
-      <c r="S33" s="224"/>
-      <c r="T33" s="224"/>
-      <c r="U33" s="224"/>
-      <c r="V33" s="224"/>
-      <c r="W33" s="224"/>
-      <c r="X33" s="224"/>
-      <c r="Y33" s="224"/>
-      <c r="Z33" s="224"/>
-      <c r="AA33" s="224"/>
-      <c r="AB33" s="224"/>
-      <c r="AC33" s="224"/>
-      <c r="AD33" s="224"/>
-      <c r="AE33" s="225"/>
-      <c r="AF33" s="226"/>
-      <c r="AG33" s="227"/>
-      <c r="AH33" s="227"/>
-      <c r="AI33" s="228"/>
+      <c r="B33" s="222"/>
+      <c r="C33" s="223"/>
+      <c r="D33" s="224"/>
+      <c r="E33" s="225"/>
+      <c r="F33" s="226"/>
+      <c r="G33" s="222"/>
+      <c r="H33" s="227"/>
+      <c r="I33" s="223"/>
+      <c r="J33" s="219"/>
+      <c r="K33" s="220"/>
+      <c r="L33" s="220"/>
+      <c r="M33" s="220"/>
+      <c r="N33" s="220"/>
+      <c r="O33" s="220"/>
+      <c r="P33" s="221"/>
+      <c r="Q33" s="216"/>
+      <c r="R33" s="217"/>
+      <c r="S33" s="217"/>
+      <c r="T33" s="217"/>
+      <c r="U33" s="217"/>
+      <c r="V33" s="217"/>
+      <c r="W33" s="217"/>
+      <c r="X33" s="217"/>
+      <c r="Y33" s="217"/>
+      <c r="Z33" s="217"/>
+      <c r="AA33" s="217"/>
+      <c r="AB33" s="217"/>
+      <c r="AC33" s="217"/>
+      <c r="AD33" s="217"/>
+      <c r="AE33" s="218"/>
+      <c r="AF33" s="219"/>
+      <c r="AG33" s="220"/>
+      <c r="AH33" s="220"/>
+      <c r="AI33" s="221"/>
     </row>
     <row r="34" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="28"/>
@@ -6484,6 +6501,161 @@
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -6508,161 +6680,6 @@
     <mergeCell ref="AF22:AI22"/>
     <mergeCell ref="J23:P23"/>
     <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="S1:Z3"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <printOptions horizontalCentered="1"/>
@@ -6819,158 +6836,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="32" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="251" t="s">
+      <c r="A1" s="202" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="252"/>
-      <c r="C1" s="252"/>
-      <c r="D1" s="253"/>
-      <c r="E1" s="268" t="str">
+      <c r="B1" s="203"/>
+      <c r="C1" s="203"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="274" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="221"/>
-      <c r="G1" s="221"/>
-      <c r="H1" s="221"/>
-      <c r="I1" s="221"/>
-      <c r="J1" s="221"/>
-      <c r="K1" s="221"/>
-      <c r="L1" s="221"/>
-      <c r="M1" s="221"/>
-      <c r="N1" s="222"/>
-      <c r="O1" s="254" t="s">
+      <c r="F1" s="251"/>
+      <c r="G1" s="251"/>
+      <c r="H1" s="251"/>
+      <c r="I1" s="251"/>
+      <c r="J1" s="251"/>
+      <c r="K1" s="251"/>
+      <c r="L1" s="251"/>
+      <c r="M1" s="251"/>
+      <c r="N1" s="252"/>
+      <c r="O1" s="205" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="255"/>
-      <c r="Q1" s="255"/>
-      <c r="R1" s="256"/>
-      <c r="S1" s="269" t="str">
+      <c r="P1" s="206"/>
+      <c r="Q1" s="206"/>
+      <c r="R1" s="207"/>
+      <c r="S1" s="265" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10101/ログイン</v>
       </c>
-      <c r="T1" s="270"/>
-      <c r="U1" s="270"/>
-      <c r="V1" s="270"/>
-      <c r="W1" s="270"/>
-      <c r="X1" s="270"/>
-      <c r="Y1" s="270"/>
-      <c r="Z1" s="271"/>
-      <c r="AA1" s="251" t="s">
+      <c r="T1" s="266"/>
+      <c r="U1" s="266"/>
+      <c r="V1" s="266"/>
+      <c r="W1" s="266"/>
+      <c r="X1" s="266"/>
+      <c r="Y1" s="266"/>
+      <c r="Z1" s="267"/>
+      <c r="AA1" s="202" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="253"/>
-      <c r="AC1" s="202" t="str">
+      <c r="AB1" s="204"/>
+      <c r="AC1" s="238" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="203"/>
-      <c r="AE1" s="203"/>
-      <c r="AF1" s="204"/>
-      <c r="AG1" s="265">
+      <c r="AD1" s="239"/>
+      <c r="AE1" s="239"/>
+      <c r="AF1" s="240"/>
+      <c r="AG1" s="275">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43656</v>
       </c>
-      <c r="AH1" s="266"/>
-      <c r="AI1" s="267"/>
+      <c r="AH1" s="276"/>
+      <c r="AI1" s="277"/>
     </row>
     <row r="2" spans="1:35" s="32" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="251" t="s">
+      <c r="A2" s="202" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="252"/>
-      <c r="C2" s="252"/>
-      <c r="D2" s="253"/>
-      <c r="E2" s="268" t="str">
+      <c r="B2" s="203"/>
+      <c r="C2" s="203"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="274" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="221"/>
-      <c r="G2" s="221"/>
-      <c r="H2" s="221"/>
-      <c r="I2" s="221"/>
-      <c r="J2" s="221"/>
-      <c r="K2" s="221"/>
-      <c r="L2" s="221"/>
-      <c r="M2" s="221"/>
-      <c r="N2" s="222"/>
-      <c r="O2" s="257"/>
-      <c r="P2" s="258"/>
-      <c r="Q2" s="258"/>
-      <c r="R2" s="259"/>
-      <c r="S2" s="272"/>
-      <c r="T2" s="273"/>
-      <c r="U2" s="273"/>
-      <c r="V2" s="273"/>
-      <c r="W2" s="273"/>
-      <c r="X2" s="273"/>
-      <c r="Y2" s="273"/>
-      <c r="Z2" s="274"/>
-      <c r="AA2" s="251" t="s">
+      <c r="F2" s="251"/>
+      <c r="G2" s="251"/>
+      <c r="H2" s="251"/>
+      <c r="I2" s="251"/>
+      <c r="J2" s="251"/>
+      <c r="K2" s="251"/>
+      <c r="L2" s="251"/>
+      <c r="M2" s="251"/>
+      <c r="N2" s="252"/>
+      <c r="O2" s="208"/>
+      <c r="P2" s="209"/>
+      <c r="Q2" s="209"/>
+      <c r="R2" s="210"/>
+      <c r="S2" s="268"/>
+      <c r="T2" s="269"/>
+      <c r="U2" s="269"/>
+      <c r="V2" s="269"/>
+      <c r="W2" s="269"/>
+      <c r="X2" s="269"/>
+      <c r="Y2" s="269"/>
+      <c r="Z2" s="270"/>
+      <c r="AA2" s="202" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="253"/>
-      <c r="AC2" s="202" t="str">
+      <c r="AB2" s="204"/>
+      <c r="AC2" s="238" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="203"/>
-      <c r="AE2" s="203"/>
-      <c r="AF2" s="204"/>
-      <c r="AG2" s="265">
+      <c r="AD2" s="239"/>
+      <c r="AE2" s="239"/>
+      <c r="AF2" s="240"/>
+      <c r="AG2" s="275">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="266"/>
-      <c r="AI2" s="267"/>
+      <c r="AH2" s="276"/>
+      <c r="AI2" s="277"/>
     </row>
     <row r="3" spans="1:35" s="32" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="251" t="s">
+      <c r="A3" s="202" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="252"/>
-      <c r="C3" s="252"/>
-      <c r="D3" s="253"/>
-      <c r="E3" s="268" t="str">
+      <c r="B3" s="203"/>
+      <c r="C3" s="203"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="274" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="221"/>
-      <c r="G3" s="221"/>
-      <c r="H3" s="221"/>
-      <c r="I3" s="221"/>
-      <c r="J3" s="221"/>
-      <c r="K3" s="221"/>
-      <c r="L3" s="221"/>
-      <c r="M3" s="221"/>
-      <c r="N3" s="222"/>
-      <c r="O3" s="260"/>
-      <c r="P3" s="261"/>
-      <c r="Q3" s="261"/>
-      <c r="R3" s="262"/>
-      <c r="S3" s="275"/>
-      <c r="T3" s="276"/>
-      <c r="U3" s="276"/>
-      <c r="V3" s="276"/>
-      <c r="W3" s="276"/>
-      <c r="X3" s="276"/>
-      <c r="Y3" s="276"/>
-      <c r="Z3" s="277"/>
-      <c r="AA3" s="251"/>
-      <c r="AB3" s="253"/>
-      <c r="AC3" s="202" t="str">
+      <c r="F3" s="251"/>
+      <c r="G3" s="251"/>
+      <c r="H3" s="251"/>
+      <c r="I3" s="251"/>
+      <c r="J3" s="251"/>
+      <c r="K3" s="251"/>
+      <c r="L3" s="251"/>
+      <c r="M3" s="251"/>
+      <c r="N3" s="252"/>
+      <c r="O3" s="211"/>
+      <c r="P3" s="212"/>
+      <c r="Q3" s="212"/>
+      <c r="R3" s="213"/>
+      <c r="S3" s="271"/>
+      <c r="T3" s="272"/>
+      <c r="U3" s="272"/>
+      <c r="V3" s="272"/>
+      <c r="W3" s="272"/>
+      <c r="X3" s="272"/>
+      <c r="Y3" s="272"/>
+      <c r="Z3" s="273"/>
+      <c r="AA3" s="202"/>
+      <c r="AB3" s="204"/>
+      <c r="AC3" s="238" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="203"/>
-      <c r="AE3" s="203"/>
-      <c r="AF3" s="204"/>
-      <c r="AG3" s="265" t="str">
+      <c r="AD3" s="239"/>
+      <c r="AE3" s="239"/>
+      <c r="AF3" s="240"/>
+      <c r="AG3" s="275" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="266"/>
-      <c r="AI3" s="267"/>
+      <c r="AH3" s="276"/>
+      <c r="AI3" s="277"/>
     </row>
     <row r="4" spans="1:35" s="35" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="29"/>
@@ -7203,7 +7220,7 @@
     <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="31"/>
       <c r="B10" s="41" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C10" s="53"/>
       <c r="D10" s="31"/>
@@ -7852,6 +7869,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -7861,14 +7886,6 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -7895,158 +7912,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="251" t="s">
+      <c r="A1" s="202" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="252"/>
-      <c r="C1" s="252"/>
-      <c r="D1" s="253"/>
-      <c r="E1" s="268" t="str">
+      <c r="B1" s="203"/>
+      <c r="C1" s="203"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="274" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="221"/>
-      <c r="G1" s="221"/>
-      <c r="H1" s="221"/>
-      <c r="I1" s="221"/>
-      <c r="J1" s="221"/>
-      <c r="K1" s="221"/>
-      <c r="L1" s="221"/>
-      <c r="M1" s="221"/>
-      <c r="N1" s="222"/>
-      <c r="O1" s="254" t="s">
+      <c r="F1" s="251"/>
+      <c r="G1" s="251"/>
+      <c r="H1" s="251"/>
+      <c r="I1" s="251"/>
+      <c r="J1" s="251"/>
+      <c r="K1" s="251"/>
+      <c r="L1" s="251"/>
+      <c r="M1" s="251"/>
+      <c r="N1" s="252"/>
+      <c r="O1" s="205" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="255"/>
-      <c r="Q1" s="255"/>
-      <c r="R1" s="256"/>
-      <c r="S1" s="269" t="str">
+      <c r="P1" s="206"/>
+      <c r="Q1" s="206"/>
+      <c r="R1" s="207"/>
+      <c r="S1" s="265" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10101/ログイン</v>
       </c>
-      <c r="T1" s="270"/>
-      <c r="U1" s="270"/>
-      <c r="V1" s="270"/>
-      <c r="W1" s="270"/>
-      <c r="X1" s="270"/>
-      <c r="Y1" s="270"/>
-      <c r="Z1" s="271"/>
-      <c r="AA1" s="251" t="s">
+      <c r="T1" s="266"/>
+      <c r="U1" s="266"/>
+      <c r="V1" s="266"/>
+      <c r="W1" s="266"/>
+      <c r="X1" s="266"/>
+      <c r="Y1" s="266"/>
+      <c r="Z1" s="267"/>
+      <c r="AA1" s="202" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="253"/>
-      <c r="AC1" s="202" t="str">
+      <c r="AB1" s="204"/>
+      <c r="AC1" s="238" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="203"/>
-      <c r="AE1" s="203"/>
-      <c r="AF1" s="204"/>
-      <c r="AG1" s="265">
+      <c r="AD1" s="239"/>
+      <c r="AE1" s="239"/>
+      <c r="AF1" s="240"/>
+      <c r="AG1" s="275">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43656</v>
       </c>
-      <c r="AH1" s="266"/>
-      <c r="AI1" s="267"/>
+      <c r="AH1" s="276"/>
+      <c r="AI1" s="277"/>
     </row>
     <row r="2" spans="1:35" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="251" t="s">
+      <c r="A2" s="202" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="252"/>
-      <c r="C2" s="252"/>
-      <c r="D2" s="253"/>
-      <c r="E2" s="268" t="str">
+      <c r="B2" s="203"/>
+      <c r="C2" s="203"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="274" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="221"/>
-      <c r="G2" s="221"/>
-      <c r="H2" s="221"/>
-      <c r="I2" s="221"/>
-      <c r="J2" s="221"/>
-      <c r="K2" s="221"/>
-      <c r="L2" s="221"/>
-      <c r="M2" s="221"/>
-      <c r="N2" s="222"/>
-      <c r="O2" s="257"/>
-      <c r="P2" s="258"/>
-      <c r="Q2" s="258"/>
-      <c r="R2" s="259"/>
-      <c r="S2" s="272"/>
-      <c r="T2" s="273"/>
-      <c r="U2" s="273"/>
-      <c r="V2" s="273"/>
-      <c r="W2" s="273"/>
-      <c r="X2" s="273"/>
-      <c r="Y2" s="273"/>
-      <c r="Z2" s="274"/>
-      <c r="AA2" s="251" t="s">
+      <c r="F2" s="251"/>
+      <c r="G2" s="251"/>
+      <c r="H2" s="251"/>
+      <c r="I2" s="251"/>
+      <c r="J2" s="251"/>
+      <c r="K2" s="251"/>
+      <c r="L2" s="251"/>
+      <c r="M2" s="251"/>
+      <c r="N2" s="252"/>
+      <c r="O2" s="208"/>
+      <c r="P2" s="209"/>
+      <c r="Q2" s="209"/>
+      <c r="R2" s="210"/>
+      <c r="S2" s="268"/>
+      <c r="T2" s="269"/>
+      <c r="U2" s="269"/>
+      <c r="V2" s="269"/>
+      <c r="W2" s="269"/>
+      <c r="X2" s="269"/>
+      <c r="Y2" s="269"/>
+      <c r="Z2" s="270"/>
+      <c r="AA2" s="202" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="253"/>
-      <c r="AC2" s="202" t="str">
+      <c r="AB2" s="204"/>
+      <c r="AC2" s="238" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="203"/>
-      <c r="AE2" s="203"/>
-      <c r="AF2" s="204"/>
-      <c r="AG2" s="265">
+      <c r="AD2" s="239"/>
+      <c r="AE2" s="239"/>
+      <c r="AF2" s="240"/>
+      <c r="AG2" s="275">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="266"/>
-      <c r="AI2" s="267"/>
+      <c r="AH2" s="276"/>
+      <c r="AI2" s="277"/>
     </row>
     <row r="3" spans="1:35" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="251" t="s">
+      <c r="A3" s="202" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="252"/>
-      <c r="C3" s="252"/>
-      <c r="D3" s="253"/>
-      <c r="E3" s="268" t="str">
+      <c r="B3" s="203"/>
+      <c r="C3" s="203"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="274" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="221"/>
-      <c r="G3" s="221"/>
-      <c r="H3" s="221"/>
-      <c r="I3" s="221"/>
-      <c r="J3" s="221"/>
-      <c r="K3" s="221"/>
-      <c r="L3" s="221"/>
-      <c r="M3" s="221"/>
-      <c r="N3" s="222"/>
-      <c r="O3" s="260"/>
-      <c r="P3" s="261"/>
-      <c r="Q3" s="261"/>
-      <c r="R3" s="262"/>
-      <c r="S3" s="275"/>
-      <c r="T3" s="276"/>
-      <c r="U3" s="276"/>
-      <c r="V3" s="276"/>
-      <c r="W3" s="276"/>
-      <c r="X3" s="276"/>
-      <c r="Y3" s="276"/>
-      <c r="Z3" s="277"/>
-      <c r="AA3" s="251"/>
-      <c r="AB3" s="253"/>
-      <c r="AC3" s="202" t="str">
+      <c r="F3" s="251"/>
+      <c r="G3" s="251"/>
+      <c r="H3" s="251"/>
+      <c r="I3" s="251"/>
+      <c r="J3" s="251"/>
+      <c r="K3" s="251"/>
+      <c r="L3" s="251"/>
+      <c r="M3" s="251"/>
+      <c r="N3" s="252"/>
+      <c r="O3" s="211"/>
+      <c r="P3" s="212"/>
+      <c r="Q3" s="212"/>
+      <c r="R3" s="213"/>
+      <c r="S3" s="271"/>
+      <c r="T3" s="272"/>
+      <c r="U3" s="272"/>
+      <c r="V3" s="272"/>
+      <c r="W3" s="272"/>
+      <c r="X3" s="272"/>
+      <c r="Y3" s="272"/>
+      <c r="Z3" s="273"/>
+      <c r="AA3" s="202"/>
+      <c r="AB3" s="204"/>
+      <c r="AC3" s="238" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="203"/>
-      <c r="AE3" s="203"/>
-      <c r="AF3" s="204"/>
-      <c r="AG3" s="265" t="str">
+      <c r="AD3" s="239"/>
+      <c r="AE3" s="239"/>
+      <c r="AF3" s="240"/>
+      <c r="AG3" s="275" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="266"/>
-      <c r="AI3" s="267"/>
+      <c r="AH3" s="276"/>
+      <c r="AI3" s="277"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -8068,7 +8085,7 @@
       <c r="D8" s="289"/>
       <c r="E8" s="289"/>
       <c r="F8" s="290"/>
-      <c r="G8" s="226" t="s">
+      <c r="G8" s="219" t="s">
         <v>137</v>
       </c>
       <c r="H8" s="291"/>
@@ -8106,7 +8123,7 @@
       <c r="D9" s="293"/>
       <c r="E9" s="293"/>
       <c r="F9" s="294"/>
-      <c r="G9" s="226" t="s">
+      <c r="G9" s="219" t="s">
         <v>138</v>
       </c>
       <c r="H9" s="289"/>
@@ -8145,7 +8162,7 @@
       <c r="E10" s="280"/>
       <c r="F10" s="281"/>
       <c r="G10" s="163" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="H10" s="93"/>
       <c r="I10" s="93"/>
@@ -8181,7 +8198,7 @@
       <c r="E11" s="283"/>
       <c r="F11" s="284"/>
       <c r="G11" s="95" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="H11" s="35"/>
       <c r="I11" s="35"/>
@@ -8216,7 +8233,7 @@
       <c r="D12" s="283"/>
       <c r="E12" s="283"/>
       <c r="F12" s="284"/>
-      <c r="G12" s="175"/>
+      <c r="G12" s="172"/>
       <c r="H12" s="35"/>
       <c r="I12" s="35"/>
       <c r="J12" s="35"/>
@@ -8287,7 +8304,7 @@
       <c r="E14" s="278"/>
       <c r="F14" s="278"/>
       <c r="G14" s="100" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="H14" s="101"/>
       <c r="I14" s="101"/>
@@ -8356,6 +8373,18 @@
     <row r="52" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C10:F13"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:AG8"/>
+    <mergeCell ref="G9:AG9"/>
+    <mergeCell ref="C9:F9"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -8367,18 +8396,6 @@
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C10:F13"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:AG8"/>
-    <mergeCell ref="G9:AG9"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -8395,9 +8412,9 @@
   <sheetPr codeName="Sheet7">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BG181"/>
+  <dimension ref="A1:BG182"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -8409,160 +8426,160 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="340" t="s">
+      <c r="A1" s="383" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="341"/>
-      <c r="C1" s="341"/>
-      <c r="D1" s="342"/>
-      <c r="E1" s="268" t="str">
+      <c r="B1" s="384"/>
+      <c r="C1" s="384"/>
+      <c r="D1" s="385"/>
+      <c r="E1" s="274" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="221"/>
-      <c r="G1" s="221"/>
-      <c r="H1" s="221"/>
-      <c r="I1" s="221"/>
-      <c r="J1" s="221"/>
-      <c r="K1" s="221"/>
-      <c r="L1" s="221"/>
-      <c r="M1" s="221"/>
-      <c r="N1" s="222"/>
-      <c r="O1" s="254" t="s">
+      <c r="F1" s="251"/>
+      <c r="G1" s="251"/>
+      <c r="H1" s="251"/>
+      <c r="I1" s="251"/>
+      <c r="J1" s="251"/>
+      <c r="K1" s="251"/>
+      <c r="L1" s="251"/>
+      <c r="M1" s="251"/>
+      <c r="N1" s="252"/>
+      <c r="O1" s="205" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="255"/>
-      <c r="Q1" s="255"/>
-      <c r="R1" s="256"/>
-      <c r="S1" s="269" t="str">
+      <c r="P1" s="206"/>
+      <c r="Q1" s="206"/>
+      <c r="R1" s="207"/>
+      <c r="S1" s="265" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10101/ログイン</v>
       </c>
-      <c r="T1" s="270"/>
-      <c r="U1" s="270"/>
-      <c r="V1" s="270"/>
-      <c r="W1" s="270"/>
-      <c r="X1" s="270"/>
-      <c r="Y1" s="270"/>
-      <c r="Z1" s="271"/>
-      <c r="AA1" s="251" t="s">
+      <c r="T1" s="266"/>
+      <c r="U1" s="266"/>
+      <c r="V1" s="266"/>
+      <c r="W1" s="266"/>
+      <c r="X1" s="266"/>
+      <c r="Y1" s="266"/>
+      <c r="Z1" s="267"/>
+      <c r="AA1" s="202" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="253"/>
-      <c r="AC1" s="202" t="str">
+      <c r="AB1" s="204"/>
+      <c r="AC1" s="238" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="203"/>
-      <c r="AE1" s="203"/>
-      <c r="AF1" s="204"/>
-      <c r="AG1" s="337">
+      <c r="AD1" s="239"/>
+      <c r="AE1" s="239"/>
+      <c r="AF1" s="240"/>
+      <c r="AG1" s="380">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43656</v>
       </c>
-      <c r="AH1" s="338"/>
-      <c r="AI1" s="339"/>
+      <c r="AH1" s="381"/>
+      <c r="AI1" s="382"/>
       <c r="AJ1" s="30"/>
     </row>
     <row r="2" spans="1:36" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="340" t="s">
+      <c r="A2" s="383" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="341"/>
-      <c r="C2" s="341"/>
-      <c r="D2" s="342"/>
-      <c r="E2" s="268" t="str">
+      <c r="B2" s="384"/>
+      <c r="C2" s="384"/>
+      <c r="D2" s="385"/>
+      <c r="E2" s="274" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="221"/>
-      <c r="G2" s="221"/>
-      <c r="H2" s="221"/>
-      <c r="I2" s="221"/>
-      <c r="J2" s="221"/>
-      <c r="K2" s="221"/>
-      <c r="L2" s="221"/>
-      <c r="M2" s="221"/>
-      <c r="N2" s="222"/>
-      <c r="O2" s="257"/>
-      <c r="P2" s="258"/>
-      <c r="Q2" s="258"/>
-      <c r="R2" s="259"/>
-      <c r="S2" s="272"/>
-      <c r="T2" s="273"/>
-      <c r="U2" s="273"/>
-      <c r="V2" s="273"/>
-      <c r="W2" s="273"/>
-      <c r="X2" s="273"/>
-      <c r="Y2" s="273"/>
-      <c r="Z2" s="274"/>
-      <c r="AA2" s="251" t="s">
+      <c r="F2" s="251"/>
+      <c r="G2" s="251"/>
+      <c r="H2" s="251"/>
+      <c r="I2" s="251"/>
+      <c r="J2" s="251"/>
+      <c r="K2" s="251"/>
+      <c r="L2" s="251"/>
+      <c r="M2" s="251"/>
+      <c r="N2" s="252"/>
+      <c r="O2" s="208"/>
+      <c r="P2" s="209"/>
+      <c r="Q2" s="209"/>
+      <c r="R2" s="210"/>
+      <c r="S2" s="268"/>
+      <c r="T2" s="269"/>
+      <c r="U2" s="269"/>
+      <c r="V2" s="269"/>
+      <c r="W2" s="269"/>
+      <c r="X2" s="269"/>
+      <c r="Y2" s="269"/>
+      <c r="Z2" s="270"/>
+      <c r="AA2" s="202" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="253"/>
-      <c r="AC2" s="202" t="str">
+      <c r="AB2" s="204"/>
+      <c r="AC2" s="238" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="203"/>
-      <c r="AE2" s="203"/>
-      <c r="AF2" s="204"/>
-      <c r="AG2" s="337">
+      <c r="AD2" s="239"/>
+      <c r="AE2" s="239"/>
+      <c r="AF2" s="240"/>
+      <c r="AG2" s="380">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="338"/>
-      <c r="AI2" s="339"/>
+      <c r="AH2" s="381"/>
+      <c r="AI2" s="382"/>
       <c r="AJ2" s="30"/>
     </row>
     <row r="3" spans="1:36" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="340" t="s">
+      <c r="A3" s="383" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="341"/>
-      <c r="C3" s="341"/>
-      <c r="D3" s="342"/>
-      <c r="E3" s="268" t="str">
+      <c r="B3" s="384"/>
+      <c r="C3" s="384"/>
+      <c r="D3" s="385"/>
+      <c r="E3" s="274" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="221"/>
-      <c r="G3" s="221"/>
-      <c r="H3" s="221"/>
-      <c r="I3" s="221"/>
-      <c r="J3" s="221"/>
-      <c r="K3" s="221"/>
-      <c r="L3" s="221"/>
-      <c r="M3" s="221"/>
-      <c r="N3" s="222"/>
-      <c r="O3" s="260"/>
-      <c r="P3" s="261"/>
-      <c r="Q3" s="261"/>
-      <c r="R3" s="262"/>
-      <c r="S3" s="275"/>
-      <c r="T3" s="276"/>
-      <c r="U3" s="276"/>
-      <c r="V3" s="276"/>
-      <c r="W3" s="276"/>
-      <c r="X3" s="276"/>
-      <c r="Y3" s="276"/>
-      <c r="Z3" s="277"/>
-      <c r="AA3" s="251"/>
-      <c r="AB3" s="253"/>
-      <c r="AC3" s="202" t="str">
+      <c r="F3" s="251"/>
+      <c r="G3" s="251"/>
+      <c r="H3" s="251"/>
+      <c r="I3" s="251"/>
+      <c r="J3" s="251"/>
+      <c r="K3" s="251"/>
+      <c r="L3" s="251"/>
+      <c r="M3" s="251"/>
+      <c r="N3" s="252"/>
+      <c r="O3" s="211"/>
+      <c r="P3" s="212"/>
+      <c r="Q3" s="212"/>
+      <c r="R3" s="213"/>
+      <c r="S3" s="271"/>
+      <c r="T3" s="272"/>
+      <c r="U3" s="272"/>
+      <c r="V3" s="272"/>
+      <c r="W3" s="272"/>
+      <c r="X3" s="272"/>
+      <c r="Y3" s="272"/>
+      <c r="Z3" s="273"/>
+      <c r="AA3" s="202"/>
+      <c r="AB3" s="204"/>
+      <c r="AC3" s="238" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="203"/>
-      <c r="AE3" s="203"/>
-      <c r="AF3" s="204"/>
-      <c r="AG3" s="337" t="str">
+      <c r="AD3" s="239"/>
+      <c r="AE3" s="239"/>
+      <c r="AF3" s="240"/>
+      <c r="AG3" s="380" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="338"/>
-      <c r="AI3" s="339"/>
+      <c r="AH3" s="381"/>
+      <c r="AI3" s="382"/>
       <c r="AJ3" s="30"/>
     </row>
     <row r="4" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8714,39 +8731,39 @@
       <c r="D43" s="131" t="s">
         <v>41</v>
       </c>
-      <c r="E43" s="343" t="s">
+      <c r="E43" s="358" t="s">
         <v>69</v>
       </c>
-      <c r="F43" s="343"/>
-      <c r="G43" s="343"/>
-      <c r="H43" s="343"/>
-      <c r="I43" s="343"/>
-      <c r="J43" s="343"/>
-      <c r="K43" s="343"/>
-      <c r="L43" s="343"/>
-      <c r="M43" s="343"/>
-      <c r="N43" s="343" t="s">
+      <c r="F43" s="358"/>
+      <c r="G43" s="358"/>
+      <c r="H43" s="358"/>
+      <c r="I43" s="358"/>
+      <c r="J43" s="358"/>
+      <c r="K43" s="358"/>
+      <c r="L43" s="358"/>
+      <c r="M43" s="358"/>
+      <c r="N43" s="358" t="s">
         <v>43</v>
       </c>
-      <c r="O43" s="343"/>
-      <c r="P43" s="343"/>
-      <c r="Q43" s="343" t="s">
+      <c r="O43" s="358"/>
+      <c r="P43" s="358"/>
+      <c r="Q43" s="358" t="s">
         <v>25</v>
       </c>
-      <c r="R43" s="343"/>
-      <c r="S43" s="343"/>
-      <c r="T43" s="343"/>
-      <c r="U43" s="343"/>
-      <c r="V43" s="343" t="s">
+      <c r="R43" s="358"/>
+      <c r="S43" s="358"/>
+      <c r="T43" s="358"/>
+      <c r="U43" s="358"/>
+      <c r="V43" s="358" t="s">
         <v>14</v>
       </c>
-      <c r="W43" s="343"/>
-      <c r="X43" s="343"/>
-      <c r="Y43" s="343"/>
-      <c r="Z43" s="343"/>
-      <c r="AA43" s="343"/>
-      <c r="AB43" s="343"/>
-      <c r="AC43" s="343"/>
+      <c r="W43" s="358"/>
+      <c r="X43" s="358"/>
+      <c r="Y43" s="358"/>
+      <c r="Z43" s="358"/>
+      <c r="AA43" s="358"/>
+      <c r="AB43" s="358"/>
+      <c r="AC43" s="358"/>
       <c r="AD43" s="135"/>
       <c r="AE43" s="135"/>
       <c r="AF43" s="135"/>
@@ -8757,39 +8774,39 @@
       <c r="D44" s="153">
         <v>1</v>
       </c>
-      <c r="E44" s="359" t="s">
+      <c r="E44" s="375" t="s">
         <v>119</v>
       </c>
-      <c r="F44" s="356"/>
-      <c r="G44" s="356"/>
-      <c r="H44" s="356"/>
-      <c r="I44" s="356"/>
-      <c r="J44" s="356"/>
-      <c r="K44" s="356"/>
-      <c r="L44" s="356"/>
-      <c r="M44" s="356"/>
-      <c r="N44" s="356" t="s">
+      <c r="F44" s="372"/>
+      <c r="G44" s="372"/>
+      <c r="H44" s="372"/>
+      <c r="I44" s="372"/>
+      <c r="J44" s="372"/>
+      <c r="K44" s="372"/>
+      <c r="L44" s="372"/>
+      <c r="M44" s="372"/>
+      <c r="N44" s="372" t="s">
         <v>89</v>
       </c>
-      <c r="O44" s="356"/>
-      <c r="P44" s="356"/>
-      <c r="Q44" s="354" t="s">
+      <c r="O44" s="372"/>
+      <c r="P44" s="372"/>
+      <c r="Q44" s="370" t="s">
         <v>113</v>
       </c>
-      <c r="R44" s="354"/>
-      <c r="S44" s="354"/>
-      <c r="T44" s="354"/>
-      <c r="U44" s="354"/>
-      <c r="V44" s="355" t="s">
+      <c r="R44" s="370"/>
+      <c r="S44" s="370"/>
+      <c r="T44" s="370"/>
+      <c r="U44" s="370"/>
+      <c r="V44" s="371" t="s">
         <v>123</v>
       </c>
-      <c r="W44" s="354"/>
-      <c r="X44" s="354"/>
-      <c r="Y44" s="354"/>
-      <c r="Z44" s="354"/>
-      <c r="AA44" s="354"/>
-      <c r="AB44" s="354"/>
-      <c r="AC44" s="354"/>
+      <c r="W44" s="370"/>
+      <c r="X44" s="370"/>
+      <c r="Y44" s="370"/>
+      <c r="Z44" s="370"/>
+      <c r="AA44" s="370"/>
+      <c r="AB44" s="370"/>
+      <c r="AC44" s="370"/>
       <c r="AM44" s="35"/>
     </row>
     <row r="45" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8866,36 +8883,36 @@
       <c r="AZ48" s="133"/>
     </row>
     <row r="49" spans="3:53" s="91" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D49" s="366" t="s">
+      <c r="D49" s="301" t="s">
         <v>41</v>
       </c>
-      <c r="E49" s="334" t="s">
+      <c r="E49" s="352" t="s">
         <v>29</v>
       </c>
-      <c r="F49" s="335"/>
-      <c r="G49" s="335"/>
-      <c r="H49" s="335"/>
-      <c r="I49" s="335"/>
-      <c r="J49" s="335"/>
-      <c r="K49" s="335"/>
-      <c r="L49" s="335"/>
-      <c r="M49" s="335"/>
-      <c r="N49" s="335"/>
-      <c r="O49" s="335"/>
-      <c r="P49" s="335"/>
-      <c r="Q49" s="335"/>
-      <c r="R49" s="335"/>
-      <c r="S49" s="335"/>
-      <c r="T49" s="335"/>
-      <c r="U49" s="335"/>
-      <c r="V49" s="335"/>
-      <c r="W49" s="335"/>
-      <c r="X49" s="335"/>
-      <c r="Y49" s="335"/>
-      <c r="Z49" s="335"/>
-      <c r="AA49" s="335"/>
-      <c r="AB49" s="335"/>
-      <c r="AC49" s="336"/>
+      <c r="F49" s="353"/>
+      <c r="G49" s="353"/>
+      <c r="H49" s="353"/>
+      <c r="I49" s="353"/>
+      <c r="J49" s="353"/>
+      <c r="K49" s="353"/>
+      <c r="L49" s="353"/>
+      <c r="M49" s="353"/>
+      <c r="N49" s="353"/>
+      <c r="O49" s="353"/>
+      <c r="P49" s="353"/>
+      <c r="Q49" s="353"/>
+      <c r="R49" s="353"/>
+      <c r="S49" s="353"/>
+      <c r="T49" s="353"/>
+      <c r="U49" s="353"/>
+      <c r="V49" s="353"/>
+      <c r="W49" s="353"/>
+      <c r="X49" s="353"/>
+      <c r="Y49" s="353"/>
+      <c r="Z49" s="353"/>
+      <c r="AA49" s="353"/>
+      <c r="AB49" s="353"/>
+      <c r="AC49" s="354"/>
       <c r="AD49" s="279" t="s">
         <v>33</v>
       </c>
@@ -8913,29 +8930,29 @@
       <c r="AN49" s="133"/>
     </row>
     <row r="50" spans="3:53" s="91" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D50" s="367"/>
+      <c r="D50" s="325"/>
       <c r="E50" s="279" t="s">
         <v>31</v>
       </c>
       <c r="F50" s="280"/>
       <c r="G50" s="280"/>
       <c r="H50" s="281"/>
-      <c r="I50" s="383" t="s">
+      <c r="I50" s="351" t="s">
         <v>39</v>
       </c>
-      <c r="J50" s="370"/>
-      <c r="K50" s="370"/>
-      <c r="L50" s="371"/>
-      <c r="M50" s="369" t="s">
+      <c r="J50" s="327"/>
+      <c r="K50" s="327"/>
+      <c r="L50" s="328"/>
+      <c r="M50" s="326" t="s">
         <v>118</v>
       </c>
-      <c r="N50" s="370"/>
-      <c r="O50" s="370"/>
-      <c r="P50" s="370"/>
-      <c r="Q50" s="370"/>
-      <c r="R50" s="370"/>
-      <c r="S50" s="370"/>
-      <c r="T50" s="371"/>
+      <c r="N50" s="327"/>
+      <c r="O50" s="327"/>
+      <c r="P50" s="327"/>
+      <c r="Q50" s="327"/>
+      <c r="R50" s="327"/>
+      <c r="S50" s="327"/>
+      <c r="T50" s="328"/>
       <c r="U50" s="279" t="s">
         <v>32</v>
       </c>
@@ -8948,7 +8965,7 @@
       </c>
       <c r="AA50" s="280"/>
       <c r="AB50" s="281"/>
-      <c r="AC50" s="366" t="s">
+      <c r="AC50" s="301" t="s">
         <v>44</v>
       </c>
       <c r="AD50" s="282"/>
@@ -8970,23 +8987,23 @@
       <c r="AT50" s="133"/>
     </row>
     <row r="51" spans="3:53" s="91" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D51" s="368"/>
+      <c r="D51" s="302"/>
       <c r="E51" s="285"/>
       <c r="F51" s="286"/>
       <c r="G51" s="286"/>
       <c r="H51" s="287"/>
-      <c r="I51" s="372"/>
-      <c r="J51" s="373"/>
-      <c r="K51" s="373"/>
-      <c r="L51" s="374"/>
-      <c r="M51" s="372"/>
-      <c r="N51" s="373"/>
-      <c r="O51" s="373"/>
-      <c r="P51" s="373"/>
-      <c r="Q51" s="373"/>
-      <c r="R51" s="373"/>
-      <c r="S51" s="373"/>
-      <c r="T51" s="374"/>
+      <c r="I51" s="329"/>
+      <c r="J51" s="330"/>
+      <c r="K51" s="330"/>
+      <c r="L51" s="331"/>
+      <c r="M51" s="329"/>
+      <c r="N51" s="330"/>
+      <c r="O51" s="330"/>
+      <c r="P51" s="330"/>
+      <c r="Q51" s="330"/>
+      <c r="R51" s="330"/>
+      <c r="S51" s="330"/>
+      <c r="T51" s="331"/>
       <c r="U51" s="285"/>
       <c r="V51" s="286"/>
       <c r="W51" s="286"/>
@@ -8995,7 +9012,7 @@
       <c r="Z51" s="285"/>
       <c r="AA51" s="286"/>
       <c r="AB51" s="287"/>
-      <c r="AC51" s="368"/>
+      <c r="AC51" s="302"/>
       <c r="AD51" s="285"/>
       <c r="AE51" s="286"/>
       <c r="AF51" s="286"/>
@@ -9004,13 +9021,13 @@
       <c r="AI51" s="133"/>
       <c r="AJ51" s="133"/>
       <c r="AK51" s="133"/>
-      <c r="AL51" s="171" t="s">
+      <c r="AL51" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="AM51" s="172"/>
-      <c r="AN51" s="172"/>
-      <c r="AO51" s="172"/>
-      <c r="AP51" s="173"/>
+      <c r="AM51" s="170"/>
+      <c r="AN51" s="170"/>
+      <c r="AO51" s="170"/>
+      <c r="AP51" s="171"/>
       <c r="AQ51" s="133"/>
       <c r="AR51" s="133"/>
       <c r="AS51" s="133"/>
@@ -9020,55 +9037,55 @@
       <c r="D52" s="138">
         <v>1</v>
       </c>
-      <c r="E52" s="226" t="s">
+      <c r="E52" s="219" t="s">
         <v>141</v>
       </c>
       <c r="F52" s="291"/>
       <c r="G52" s="291"/>
-      <c r="H52" s="362"/>
-      <c r="I52" s="361" t="s">
+      <c r="H52" s="349"/>
+      <c r="I52" s="350" t="s">
         <v>88</v>
       </c>
-      <c r="J52" s="361"/>
-      <c r="K52" s="361"/>
-      <c r="L52" s="361"/>
-      <c r="M52" s="357" t="s">
+      <c r="J52" s="350"/>
+      <c r="K52" s="350"/>
+      <c r="L52" s="350"/>
+      <c r="M52" s="373" t="s">
         <v>136</v>
       </c>
-      <c r="N52" s="358"/>
-      <c r="O52" s="358"/>
-      <c r="P52" s="358"/>
-      <c r="Q52" s="358"/>
-      <c r="R52" s="358"/>
-      <c r="S52" s="358"/>
-      <c r="T52" s="358"/>
-      <c r="U52" s="329" t="s">
+      <c r="N52" s="374"/>
+      <c r="O52" s="374"/>
+      <c r="P52" s="374"/>
+      <c r="Q52" s="374"/>
+      <c r="R52" s="374"/>
+      <c r="S52" s="374"/>
+      <c r="T52" s="374"/>
+      <c r="U52" s="347" t="s">
         <v>135</v>
       </c>
-      <c r="V52" s="330"/>
-      <c r="W52" s="330"/>
-      <c r="X52" s="330"/>
-      <c r="Y52" s="330"/>
-      <c r="Z52" s="329" t="s">
+      <c r="V52" s="348"/>
+      <c r="W52" s="348"/>
+      <c r="X52" s="348"/>
+      <c r="Y52" s="348"/>
+      <c r="Z52" s="347" t="s">
         <v>135</v>
       </c>
-      <c r="AA52" s="330"/>
-      <c r="AB52" s="330"/>
-      <c r="AC52" s="176" t="s">
+      <c r="AA52" s="348"/>
+      <c r="AB52" s="348"/>
+      <c r="AC52" s="173" t="s">
         <v>90</v>
       </c>
-      <c r="AD52" s="223" t="s">
+      <c r="AD52" s="216" t="s">
         <v>141</v>
       </c>
-      <c r="AE52" s="324"/>
-      <c r="AF52" s="324"/>
-      <c r="AG52" s="325"/>
+      <c r="AE52" s="299"/>
+      <c r="AF52" s="299"/>
+      <c r="AG52" s="300"/>
       <c r="AH52" s="133"/>
       <c r="AI52" s="133"/>
       <c r="AJ52" s="133"/>
       <c r="AK52" s="133"/>
       <c r="AL52" s="100" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="AM52" s="164"/>
       <c r="AN52" s="164"/>
@@ -9083,55 +9100,55 @@
       <c r="D53" s="138">
         <v>2</v>
       </c>
-      <c r="E53" s="226" t="s">
+      <c r="E53" s="219" t="s">
         <v>142</v>
       </c>
       <c r="F53" s="291"/>
       <c r="G53" s="291"/>
-      <c r="H53" s="362"/>
-      <c r="I53" s="360" t="s">
-        <v>171</v>
-      </c>
-      <c r="J53" s="361"/>
-      <c r="K53" s="361"/>
-      <c r="L53" s="361"/>
-      <c r="M53" s="351" t="s">
+      <c r="H53" s="349"/>
+      <c r="I53" s="376" t="s">
+        <v>166</v>
+      </c>
+      <c r="J53" s="350"/>
+      <c r="K53" s="350"/>
+      <c r="L53" s="350"/>
+      <c r="M53" s="355" t="s">
         <v>79</v>
       </c>
-      <c r="N53" s="315"/>
-      <c r="O53" s="315"/>
-      <c r="P53" s="315"/>
-      <c r="Q53" s="315"/>
-      <c r="R53" s="315"/>
-      <c r="S53" s="315"/>
-      <c r="T53" s="316"/>
-      <c r="U53" s="223" t="s">
-        <v>173</v>
-      </c>
-      <c r="V53" s="324"/>
-      <c r="W53" s="324"/>
-      <c r="X53" s="324"/>
-      <c r="Y53" s="325"/>
-      <c r="Z53" s="329" t="s">
+      <c r="N53" s="356"/>
+      <c r="O53" s="356"/>
+      <c r="P53" s="356"/>
+      <c r="Q53" s="356"/>
+      <c r="R53" s="356"/>
+      <c r="S53" s="356"/>
+      <c r="T53" s="357"/>
+      <c r="U53" s="216" t="s">
+        <v>167</v>
+      </c>
+      <c r="V53" s="299"/>
+      <c r="W53" s="299"/>
+      <c r="X53" s="299"/>
+      <c r="Y53" s="300"/>
+      <c r="Z53" s="347" t="s">
         <v>135</v>
       </c>
-      <c r="AA53" s="330"/>
-      <c r="AB53" s="330"/>
-      <c r="AC53" s="176" t="s">
+      <c r="AA53" s="348"/>
+      <c r="AB53" s="348"/>
+      <c r="AC53" s="173" t="s">
         <v>90</v>
       </c>
-      <c r="AD53" s="223" t="s">
+      <c r="AD53" s="216" t="s">
         <v>142</v>
       </c>
-      <c r="AE53" s="324"/>
-      <c r="AF53" s="324"/>
-      <c r="AG53" s="325"/>
+      <c r="AE53" s="299"/>
+      <c r="AF53" s="299"/>
+      <c r="AG53" s="300"/>
       <c r="AH53" s="133"/>
       <c r="AI53" s="133"/>
       <c r="AJ53" s="133"/>
       <c r="AK53" s="133"/>
       <c r="AL53" s="100" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="AM53" s="164"/>
       <c r="AN53" s="164"/>
@@ -9250,24 +9267,24 @@
       <c r="AW57" s="105"/>
     </row>
     <row r="58" spans="3:53" x14ac:dyDescent="0.15">
-      <c r="D58" s="375" t="s">
+      <c r="D58" s="332" t="s">
         <v>117</v>
       </c>
-      <c r="E58" s="306" t="s">
+      <c r="E58" s="334" t="s">
         <v>49</v>
       </c>
-      <c r="F58" s="307"/>
-      <c r="G58" s="307"/>
-      <c r="H58" s="307"/>
-      <c r="I58" s="307"/>
-      <c r="J58" s="308"/>
-      <c r="K58" s="306" t="s">
+      <c r="F58" s="335"/>
+      <c r="G58" s="335"/>
+      <c r="H58" s="335"/>
+      <c r="I58" s="335"/>
+      <c r="J58" s="336"/>
+      <c r="K58" s="334" t="s">
         <v>50</v>
       </c>
-      <c r="L58" s="307"/>
-      <c r="M58" s="307"/>
-      <c r="N58" s="308"/>
-      <c r="O58" s="304" t="s">
+      <c r="L58" s="335"/>
+      <c r="M58" s="335"/>
+      <c r="N58" s="336"/>
+      <c r="O58" s="395" t="s">
         <v>51</v>
       </c>
       <c r="P58" s="139" t="s">
@@ -9278,21 +9295,21 @@
       <c r="S58" s="140"/>
       <c r="T58" s="140"/>
       <c r="U58" s="140"/>
-      <c r="V58" s="306" t="s">
+      <c r="V58" s="334" t="s">
         <v>30</v>
       </c>
-      <c r="W58" s="307"/>
-      <c r="X58" s="307"/>
-      <c r="Y58" s="307"/>
-      <c r="Z58" s="307"/>
-      <c r="AA58" s="307"/>
-      <c r="AB58" s="307"/>
-      <c r="AC58" s="307"/>
-      <c r="AD58" s="307"/>
-      <c r="AE58" s="307"/>
-      <c r="AF58" s="307"/>
-      <c r="AG58" s="307"/>
-      <c r="AH58" s="308"/>
+      <c r="W58" s="335"/>
+      <c r="X58" s="335"/>
+      <c r="Y58" s="335"/>
+      <c r="Z58" s="335"/>
+      <c r="AA58" s="335"/>
+      <c r="AB58" s="335"/>
+      <c r="AC58" s="335"/>
+      <c r="AD58" s="335"/>
+      <c r="AE58" s="335"/>
+      <c r="AF58" s="335"/>
+      <c r="AG58" s="335"/>
+      <c r="AH58" s="336"/>
       <c r="AK58" s="105"/>
       <c r="AL58" s="105"/>
       <c r="AM58" s="105"/>
@@ -9308,18 +9325,18 @@
       <c r="AW58" s="105"/>
     </row>
     <row r="59" spans="3:53" x14ac:dyDescent="0.15">
-      <c r="D59" s="376"/>
-      <c r="E59" s="309"/>
-      <c r="F59" s="310"/>
-      <c r="G59" s="310"/>
-      <c r="H59" s="310"/>
-      <c r="I59" s="310"/>
-      <c r="J59" s="311"/>
-      <c r="K59" s="309"/>
-      <c r="L59" s="310"/>
-      <c r="M59" s="310"/>
-      <c r="N59" s="311"/>
-      <c r="O59" s="305"/>
+      <c r="D59" s="333"/>
+      <c r="E59" s="337"/>
+      <c r="F59" s="338"/>
+      <c r="G59" s="338"/>
+      <c r="H59" s="338"/>
+      <c r="I59" s="338"/>
+      <c r="J59" s="339"/>
+      <c r="K59" s="337"/>
+      <c r="L59" s="338"/>
+      <c r="M59" s="338"/>
+      <c r="N59" s="339"/>
+      <c r="O59" s="396"/>
       <c r="P59" s="141" t="s">
         <v>52</v>
       </c>
@@ -9332,23 +9349,23 @@
       <c r="S59" s="141" t="s">
         <v>55</v>
       </c>
-      <c r="T59" s="312" t="s">
+      <c r="T59" s="397" t="s">
         <v>59</v>
       </c>
-      <c r="U59" s="313"/>
-      <c r="V59" s="309"/>
-      <c r="W59" s="310"/>
-      <c r="X59" s="310"/>
-      <c r="Y59" s="310"/>
-      <c r="Z59" s="310"/>
-      <c r="AA59" s="310"/>
-      <c r="AB59" s="310"/>
-      <c r="AC59" s="310"/>
-      <c r="AD59" s="310"/>
-      <c r="AE59" s="310"/>
-      <c r="AF59" s="310"/>
-      <c r="AG59" s="310"/>
-      <c r="AH59" s="311"/>
+      <c r="U59" s="398"/>
+      <c r="V59" s="337"/>
+      <c r="W59" s="338"/>
+      <c r="X59" s="338"/>
+      <c r="Y59" s="338"/>
+      <c r="Z59" s="338"/>
+      <c r="AA59" s="338"/>
+      <c r="AB59" s="338"/>
+      <c r="AC59" s="338"/>
+      <c r="AD59" s="338"/>
+      <c r="AE59" s="338"/>
+      <c r="AF59" s="338"/>
+      <c r="AG59" s="338"/>
+      <c r="AH59" s="339"/>
       <c r="AK59" s="105"/>
       <c r="AL59" s="105"/>
       <c r="AM59" s="105"/>
@@ -9367,20 +9384,20 @@
       <c r="D60" s="142">
         <v>1</v>
       </c>
-      <c r="E60" s="380" t="s">
+      <c r="E60" s="309" t="s">
         <v>143</v>
       </c>
-      <c r="F60" s="381"/>
-      <c r="G60" s="381"/>
-      <c r="H60" s="381"/>
-      <c r="I60" s="381"/>
-      <c r="J60" s="382"/>
-      <c r="K60" s="352" t="s">
+      <c r="F60" s="310"/>
+      <c r="G60" s="310"/>
+      <c r="H60" s="310"/>
+      <c r="I60" s="310"/>
+      <c r="J60" s="311"/>
+      <c r="K60" s="345" t="s">
         <v>91</v>
       </c>
-      <c r="L60" s="324"/>
-      <c r="M60" s="324"/>
-      <c r="N60" s="325"/>
+      <c r="L60" s="299"/>
+      <c r="M60" s="299"/>
+      <c r="N60" s="300"/>
       <c r="O60" s="137" t="s">
         <v>92</v>
       </c>
@@ -9396,25 +9413,25 @@
       <c r="S60" s="162" t="s">
         <v>89</v>
       </c>
-      <c r="T60" s="378" t="s">
+      <c r="T60" s="343" t="s">
         <v>89</v>
       </c>
-      <c r="U60" s="379"/>
-      <c r="V60" s="352" t="s">
+      <c r="U60" s="344"/>
+      <c r="V60" s="345" t="s">
         <v>79</v>
       </c>
-      <c r="W60" s="324"/>
-      <c r="X60" s="324"/>
-      <c r="Y60" s="324"/>
-      <c r="Z60" s="324"/>
-      <c r="AA60" s="324"/>
-      <c r="AB60" s="324"/>
-      <c r="AC60" s="324"/>
-      <c r="AD60" s="324"/>
-      <c r="AE60" s="324"/>
-      <c r="AF60" s="324"/>
-      <c r="AG60" s="324"/>
-      <c r="AH60" s="325"/>
+      <c r="W60" s="299"/>
+      <c r="X60" s="299"/>
+      <c r="Y60" s="299"/>
+      <c r="Z60" s="299"/>
+      <c r="AA60" s="299"/>
+      <c r="AB60" s="299"/>
+      <c r="AC60" s="299"/>
+      <c r="AD60" s="299"/>
+      <c r="AE60" s="299"/>
+      <c r="AF60" s="299"/>
+      <c r="AG60" s="299"/>
+      <c r="AH60" s="300"/>
       <c r="AK60" s="105"/>
       <c r="AL60" s="105"/>
       <c r="AM60" s="105"/>
@@ -9430,57 +9447,57 @@
       <c r="AW60" s="105"/>
     </row>
     <row r="61" spans="3:53" x14ac:dyDescent="0.15">
-      <c r="D61" s="200">
+      <c r="D61" s="194">
         <v>2</v>
       </c>
-      <c r="E61" s="198" t="s">
-        <v>181</v>
-      </c>
-      <c r="F61" s="199"/>
-      <c r="G61" s="199"/>
-      <c r="H61" s="199"/>
-      <c r="I61" s="199"/>
-      <c r="J61" s="199"/>
-      <c r="K61" s="352" t="s">
+      <c r="E61" s="192" t="s">
+        <v>173</v>
+      </c>
+      <c r="F61" s="193"/>
+      <c r="G61" s="193"/>
+      <c r="H61" s="193"/>
+      <c r="I61" s="193"/>
+      <c r="J61" s="193"/>
+      <c r="K61" s="345" t="s">
         <v>91</v>
       </c>
-      <c r="L61" s="324"/>
-      <c r="M61" s="324"/>
-      <c r="N61" s="325"/>
+      <c r="L61" s="299"/>
+      <c r="M61" s="299"/>
+      <c r="N61" s="300"/>
       <c r="O61" s="137" t="s">
         <v>92</v>
       </c>
-      <c r="P61" s="176" t="s">
+      <c r="P61" s="173" t="s">
         <v>89</v>
       </c>
-      <c r="Q61" s="176" t="s">
+      <c r="Q61" s="173" t="s">
         <v>90</v>
       </c>
-      <c r="R61" s="176" t="s">
+      <c r="R61" s="173" t="s">
         <v>89</v>
       </c>
-      <c r="S61" s="176" t="s">
+      <c r="S61" s="173" t="s">
         <v>89</v>
       </c>
-      <c r="T61" s="378" t="s">
+      <c r="T61" s="343" t="s">
         <v>89</v>
       </c>
-      <c r="U61" s="379"/>
-      <c r="V61" s="352" t="s">
+      <c r="U61" s="344"/>
+      <c r="V61" s="345" t="s">
         <v>79</v>
       </c>
-      <c r="W61" s="324"/>
-      <c r="X61" s="324"/>
-      <c r="Y61" s="324"/>
-      <c r="Z61" s="324"/>
-      <c r="AA61" s="324"/>
-      <c r="AB61" s="324"/>
-      <c r="AC61" s="324"/>
-      <c r="AD61" s="324"/>
-      <c r="AE61" s="324"/>
-      <c r="AF61" s="324"/>
-      <c r="AG61" s="324"/>
-      <c r="AH61" s="325"/>
+      <c r="W61" s="299"/>
+      <c r="X61" s="299"/>
+      <c r="Y61" s="299"/>
+      <c r="Z61" s="299"/>
+      <c r="AA61" s="299"/>
+      <c r="AB61" s="299"/>
+      <c r="AC61" s="299"/>
+      <c r="AD61" s="299"/>
+      <c r="AE61" s="299"/>
+      <c r="AF61" s="299"/>
+      <c r="AG61" s="299"/>
+      <c r="AH61" s="300"/>
       <c r="AK61" s="105"/>
       <c r="AL61" s="105"/>
       <c r="AM61" s="105"/>
@@ -9606,181 +9623,181 @@
       <c r="D66" s="144" t="s">
         <v>11</v>
       </c>
-      <c r="E66" s="295" t="s">
+      <c r="E66" s="340" t="s">
         <v>72</v>
       </c>
-      <c r="F66" s="296"/>
-      <c r="G66" s="296"/>
-      <c r="H66" s="296"/>
-      <c r="I66" s="296"/>
-      <c r="J66" s="377"/>
-      <c r="K66" s="295" t="s">
+      <c r="F66" s="341"/>
+      <c r="G66" s="341"/>
+      <c r="H66" s="341"/>
+      <c r="I66" s="341"/>
+      <c r="J66" s="342"/>
+      <c r="K66" s="340" t="s">
         <v>38</v>
       </c>
-      <c r="L66" s="296"/>
-      <c r="M66" s="296"/>
-      <c r="N66" s="296"/>
-      <c r="O66" s="296"/>
-      <c r="P66" s="296"/>
-      <c r="Q66" s="297"/>
+      <c r="L66" s="341"/>
+      <c r="M66" s="341"/>
+      <c r="N66" s="341"/>
+      <c r="O66" s="341"/>
+      <c r="P66" s="341"/>
+      <c r="Q66" s="346"/>
       <c r="R66" s="288" t="s">
         <v>73</v>
       </c>
-      <c r="S66" s="296"/>
-      <c r="T66" s="296"/>
-      <c r="U66" s="296"/>
-      <c r="V66" s="296"/>
-      <c r="W66" s="296"/>
-      <c r="X66" s="296"/>
-      <c r="Y66" s="297"/>
-      <c r="Z66" s="334" t="s">
+      <c r="S66" s="341"/>
+      <c r="T66" s="341"/>
+      <c r="U66" s="341"/>
+      <c r="V66" s="341"/>
+      <c r="W66" s="341"/>
+      <c r="X66" s="341"/>
+      <c r="Y66" s="346"/>
+      <c r="Z66" s="352" t="s">
         <v>26</v>
       </c>
-      <c r="AA66" s="335"/>
-      <c r="AB66" s="335"/>
-      <c r="AC66" s="335"/>
-      <c r="AD66" s="336"/>
-      <c r="AE66" s="331" t="s">
+      <c r="AA66" s="353"/>
+      <c r="AB66" s="353"/>
+      <c r="AC66" s="353"/>
+      <c r="AD66" s="354"/>
+      <c r="AE66" s="389" t="s">
         <v>129</v>
       </c>
-      <c r="AF66" s="332"/>
-      <c r="AG66" s="332"/>
-      <c r="AH66" s="333"/>
+      <c r="AF66" s="390"/>
+      <c r="AG66" s="390"/>
+      <c r="AH66" s="391"/>
     </row>
     <row r="67" spans="1:58" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D67" s="145">
         <v>1</v>
       </c>
-      <c r="E67" s="344" t="s">
+      <c r="E67" s="359" t="s">
         <v>94</v>
       </c>
-      <c r="F67" s="322"/>
-      <c r="G67" s="322"/>
-      <c r="H67" s="322"/>
-      <c r="I67" s="322"/>
-      <c r="J67" s="323"/>
-      <c r="K67" s="352" t="s">
+      <c r="F67" s="360"/>
+      <c r="G67" s="360"/>
+      <c r="H67" s="360"/>
+      <c r="I67" s="360"/>
+      <c r="J67" s="361"/>
+      <c r="K67" s="345" t="s">
         <v>95</v>
       </c>
-      <c r="L67" s="324"/>
-      <c r="M67" s="324"/>
-      <c r="N67" s="324"/>
-      <c r="O67" s="324"/>
-      <c r="P67" s="324"/>
-      <c r="Q67" s="325"/>
-      <c r="R67" s="223" t="s">
+      <c r="L67" s="299"/>
+      <c r="M67" s="299"/>
+      <c r="N67" s="299"/>
+      <c r="O67" s="299"/>
+      <c r="P67" s="299"/>
+      <c r="Q67" s="300"/>
+      <c r="R67" s="216" t="s">
         <v>145</v>
       </c>
-      <c r="S67" s="324"/>
-      <c r="T67" s="324"/>
-      <c r="U67" s="324"/>
-      <c r="V67" s="324"/>
-      <c r="W67" s="324"/>
-      <c r="X67" s="324"/>
-      <c r="Y67" s="325"/>
-      <c r="Z67" s="352" t="s">
+      <c r="S67" s="299"/>
+      <c r="T67" s="299"/>
+      <c r="U67" s="299"/>
+      <c r="V67" s="299"/>
+      <c r="W67" s="299"/>
+      <c r="X67" s="299"/>
+      <c r="Y67" s="300"/>
+      <c r="Z67" s="345" t="s">
         <v>93</v>
       </c>
-      <c r="AA67" s="324"/>
-      <c r="AB67" s="324"/>
-      <c r="AC67" s="324"/>
-      <c r="AD67" s="325"/>
-      <c r="AE67" s="326" t="s">
+      <c r="AA67" s="299"/>
+      <c r="AB67" s="299"/>
+      <c r="AC67" s="299"/>
+      <c r="AD67" s="300"/>
+      <c r="AE67" s="386" t="s">
         <v>71</v>
       </c>
-      <c r="AF67" s="327"/>
-      <c r="AG67" s="327"/>
-      <c r="AH67" s="328"/>
+      <c r="AF67" s="387"/>
+      <c r="AG67" s="387"/>
+      <c r="AH67" s="388"/>
     </row>
     <row r="68" spans="1:58" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D68" s="145">
         <v>2</v>
       </c>
-      <c r="E68" s="321" t="s">
+      <c r="E68" s="369" t="s">
         <v>138</v>
       </c>
-      <c r="F68" s="322"/>
-      <c r="G68" s="322"/>
-      <c r="H68" s="322"/>
-      <c r="I68" s="322"/>
-      <c r="J68" s="323"/>
-      <c r="K68" s="223" t="s">
+      <c r="F68" s="360"/>
+      <c r="G68" s="360"/>
+      <c r="H68" s="360"/>
+      <c r="I68" s="360"/>
+      <c r="J68" s="361"/>
+      <c r="K68" s="216" t="s">
         <v>144</v>
       </c>
-      <c r="L68" s="324"/>
-      <c r="M68" s="324"/>
-      <c r="N68" s="324"/>
-      <c r="O68" s="324"/>
-      <c r="P68" s="324"/>
-      <c r="Q68" s="325"/>
-      <c r="R68" s="223" t="s">
+      <c r="L68" s="299"/>
+      <c r="M68" s="299"/>
+      <c r="N68" s="299"/>
+      <c r="O68" s="299"/>
+      <c r="P68" s="299"/>
+      <c r="Q68" s="300"/>
+      <c r="R68" s="216" t="s">
         <v>146</v>
       </c>
-      <c r="S68" s="324"/>
-      <c r="T68" s="324"/>
-      <c r="U68" s="324"/>
-      <c r="V68" s="324"/>
-      <c r="W68" s="324"/>
-      <c r="X68" s="324"/>
-      <c r="Y68" s="325"/>
-      <c r="Z68" s="223" t="s">
-        <v>161</v>
-      </c>
-      <c r="AA68" s="324"/>
-      <c r="AB68" s="324"/>
-      <c r="AC68" s="324"/>
-      <c r="AD68" s="325"/>
-      <c r="AE68" s="326" t="s">
+      <c r="S68" s="299"/>
+      <c r="T68" s="299"/>
+      <c r="U68" s="299"/>
+      <c r="V68" s="299"/>
+      <c r="W68" s="299"/>
+      <c r="X68" s="299"/>
+      <c r="Y68" s="300"/>
+      <c r="Z68" s="216" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA68" s="299"/>
+      <c r="AB68" s="299"/>
+      <c r="AC68" s="299"/>
+      <c r="AD68" s="300"/>
+      <c r="AE68" s="386" t="s">
         <v>71</v>
       </c>
-      <c r="AF68" s="327"/>
-      <c r="AG68" s="327"/>
-      <c r="AH68" s="328"/>
+      <c r="AF68" s="387"/>
+      <c r="AG68" s="387"/>
+      <c r="AH68" s="388"/>
     </row>
     <row r="69" spans="1:58" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D69" s="145">
         <v>3</v>
       </c>
-      <c r="E69" s="321" t="s">
-        <v>197</v>
-      </c>
-      <c r="F69" s="322"/>
-      <c r="G69" s="322"/>
-      <c r="H69" s="322"/>
-      <c r="I69" s="322"/>
-      <c r="J69" s="323"/>
-      <c r="K69" s="223" t="s">
-        <v>198</v>
-      </c>
-      <c r="L69" s="324"/>
-      <c r="M69" s="324"/>
-      <c r="N69" s="324"/>
-      <c r="O69" s="324"/>
-      <c r="P69" s="324"/>
-      <c r="Q69" s="325"/>
-      <c r="R69" s="223" t="s">
-        <v>199</v>
-      </c>
-      <c r="S69" s="324"/>
-      <c r="T69" s="324"/>
-      <c r="U69" s="324"/>
-      <c r="V69" s="324"/>
-      <c r="W69" s="324"/>
-      <c r="X69" s="324"/>
-      <c r="Y69" s="325"/>
-      <c r="Z69" s="223" t="s">
+      <c r="E69" s="369" t="s">
+        <v>188</v>
+      </c>
+      <c r="F69" s="360"/>
+      <c r="G69" s="360"/>
+      <c r="H69" s="360"/>
+      <c r="I69" s="360"/>
+      <c r="J69" s="361"/>
+      <c r="K69" s="216" t="s">
+        <v>189</v>
+      </c>
+      <c r="L69" s="299"/>
+      <c r="M69" s="299"/>
+      <c r="N69" s="299"/>
+      <c r="O69" s="299"/>
+      <c r="P69" s="299"/>
+      <c r="Q69" s="300"/>
+      <c r="R69" s="216" t="s">
+        <v>190</v>
+      </c>
+      <c r="S69" s="299"/>
+      <c r="T69" s="299"/>
+      <c r="U69" s="299"/>
+      <c r="V69" s="299"/>
+      <c r="W69" s="299"/>
+      <c r="X69" s="299"/>
+      <c r="Y69" s="300"/>
+      <c r="Z69" s="216" t="s">
         <v>138</v>
       </c>
-      <c r="AA69" s="324"/>
-      <c r="AB69" s="324"/>
-      <c r="AC69" s="324"/>
-      <c r="AD69" s="325"/>
-      <c r="AE69" s="326" t="s">
+      <c r="AA69" s="299"/>
+      <c r="AB69" s="299"/>
+      <c r="AC69" s="299"/>
+      <c r="AD69" s="300"/>
+      <c r="AE69" s="386" t="s">
         <v>71</v>
       </c>
-      <c r="AF69" s="327"/>
-      <c r="AG69" s="327"/>
-      <c r="AH69" s="328"/>
+      <c r="AF69" s="387"/>
+      <c r="AG69" s="387"/>
+      <c r="AH69" s="388"/>
     </row>
     <row r="70" spans="1:58" s="108" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D70" s="128"/>
@@ -10227,40 +10244,40 @@
       <c r="G89" s="288" t="s">
         <v>68</v>
       </c>
-      <c r="H89" s="296"/>
-      <c r="I89" s="296"/>
-      <c r="J89" s="296"/>
-      <c r="K89" s="296"/>
-      <c r="L89" s="297"/>
-      <c r="M89" s="317" t="s">
+      <c r="H89" s="341"/>
+      <c r="I89" s="341"/>
+      <c r="J89" s="341"/>
+      <c r="K89" s="341"/>
+      <c r="L89" s="346"/>
+      <c r="M89" s="400" t="s">
         <v>76</v>
       </c>
-      <c r="N89" s="296"/>
-      <c r="O89" s="296"/>
-      <c r="P89" s="296"/>
-      <c r="Q89" s="296"/>
-      <c r="R89" s="296"/>
-      <c r="S89" s="296"/>
-      <c r="T89" s="296"/>
-      <c r="U89" s="296"/>
-      <c r="V89" s="297"/>
-      <c r="W89" s="353" t="s">
-        <v>162</v>
-      </c>
-      <c r="X89" s="349"/>
-      <c r="Y89" s="350"/>
-      <c r="Z89" s="348" t="s">
+      <c r="N89" s="341"/>
+      <c r="O89" s="341"/>
+      <c r="P89" s="341"/>
+      <c r="Q89" s="341"/>
+      <c r="R89" s="341"/>
+      <c r="S89" s="341"/>
+      <c r="T89" s="341"/>
+      <c r="U89" s="341"/>
+      <c r="V89" s="346"/>
+      <c r="W89" s="368" t="s">
+        <v>157</v>
+      </c>
+      <c r="X89" s="366"/>
+      <c r="Y89" s="367"/>
+      <c r="Z89" s="365" t="s">
         <v>77</v>
       </c>
-      <c r="AA89" s="349"/>
-      <c r="AB89" s="349"/>
-      <c r="AC89" s="350"/>
-      <c r="AD89" s="363" t="s">
+      <c r="AA89" s="366"/>
+      <c r="AB89" s="366"/>
+      <c r="AC89" s="367"/>
+      <c r="AD89" s="377" t="s">
         <v>130</v>
       </c>
-      <c r="AE89" s="364"/>
-      <c r="AF89" s="364"/>
-      <c r="AG89" s="365"/>
+      <c r="AE89" s="378"/>
+      <c r="AF89" s="378"/>
+      <c r="AG89" s="379"/>
       <c r="AJ89" s="125"/>
       <c r="AK89" s="125"/>
       <c r="AL89" s="125"/>
@@ -10290,43 +10307,43 @@
       <c r="F90" s="148">
         <v>1</v>
       </c>
-      <c r="G90" s="314" t="s">
+      <c r="G90" s="399" t="s">
         <v>70</v>
       </c>
-      <c r="H90" s="315"/>
-      <c r="I90" s="315"/>
-      <c r="J90" s="315"/>
-      <c r="K90" s="315"/>
-      <c r="L90" s="316"/>
-      <c r="M90" s="351" t="s">
+      <c r="H90" s="356"/>
+      <c r="I90" s="356"/>
+      <c r="J90" s="356"/>
+      <c r="K90" s="356"/>
+      <c r="L90" s="357"/>
+      <c r="M90" s="355" t="s">
         <v>86</v>
       </c>
-      <c r="N90" s="315"/>
-      <c r="O90" s="315"/>
-      <c r="P90" s="315"/>
-      <c r="Q90" s="315"/>
-      <c r="R90" s="315"/>
-      <c r="S90" s="315"/>
-      <c r="T90" s="315"/>
-      <c r="U90" s="315"/>
-      <c r="V90" s="316"/>
-      <c r="W90" s="318" t="s">
+      <c r="N90" s="356"/>
+      <c r="O90" s="356"/>
+      <c r="P90" s="356"/>
+      <c r="Q90" s="356"/>
+      <c r="R90" s="356"/>
+      <c r="S90" s="356"/>
+      <c r="T90" s="356"/>
+      <c r="U90" s="356"/>
+      <c r="V90" s="357"/>
+      <c r="W90" s="401" t="s">
         <v>132</v>
       </c>
-      <c r="X90" s="319"/>
-      <c r="Y90" s="320"/>
-      <c r="Z90" s="345" t="s">
+      <c r="X90" s="402"/>
+      <c r="Y90" s="403"/>
+      <c r="Z90" s="362" t="s">
         <v>131</v>
       </c>
-      <c r="AA90" s="346"/>
-      <c r="AB90" s="346"/>
-      <c r="AC90" s="347"/>
-      <c r="AD90" s="351" t="s">
+      <c r="AA90" s="363"/>
+      <c r="AB90" s="363"/>
+      <c r="AC90" s="364"/>
+      <c r="AD90" s="355" t="s">
         <v>120</v>
       </c>
-      <c r="AE90" s="315"/>
-      <c r="AF90" s="315"/>
-      <c r="AG90" s="316"/>
+      <c r="AE90" s="356"/>
+      <c r="AF90" s="356"/>
+      <c r="AG90" s="357"/>
       <c r="AI90" s="125"/>
       <c r="AJ90" s="125"/>
       <c r="AK90" s="125"/>
@@ -10474,232 +10491,234 @@
       </c>
     </row>
     <row r="99" spans="6:58" s="108" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="G99" s="298" t="s">
+      <c r="G99" s="306" t="s">
         <v>99</v>
       </c>
-      <c r="H99" s="299"/>
-      <c r="I99" s="299"/>
-      <c r="J99" s="299"/>
-      <c r="K99" s="299"/>
-      <c r="L99" s="299"/>
-      <c r="M99" s="299"/>
-      <c r="N99" s="299"/>
-      <c r="O99" s="299"/>
-      <c r="P99" s="300"/>
-      <c r="Q99" s="301" t="s">
+      <c r="H99" s="307"/>
+      <c r="I99" s="307"/>
+      <c r="J99" s="307"/>
+      <c r="K99" s="307"/>
+      <c r="L99" s="307"/>
+      <c r="M99" s="307"/>
+      <c r="N99" s="307"/>
+      <c r="O99" s="307"/>
+      <c r="P99" s="308"/>
+      <c r="Q99" s="195" t="s">
         <v>100</v>
       </c>
-      <c r="R99" s="302"/>
-      <c r="S99" s="302"/>
-      <c r="T99" s="302"/>
-      <c r="U99" s="302"/>
-      <c r="V99" s="302"/>
-      <c r="W99" s="302"/>
-      <c r="X99" s="302"/>
-      <c r="Y99" s="302"/>
-      <c r="Z99" s="303"/>
+      <c r="R99" s="196"/>
+      <c r="S99" s="196"/>
+      <c r="T99" s="196"/>
+      <c r="U99" s="196"/>
+      <c r="V99" s="196"/>
+      <c r="W99" s="196"/>
+      <c r="X99" s="196"/>
+      <c r="Y99" s="196"/>
+      <c r="Z99" s="196"/>
+      <c r="AA99" s="196"/>
+      <c r="AB99" s="197"/>
     </row>
     <row r="100" spans="6:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G100" s="391" t="s">
+      <c r="G100" s="312" t="s">
         <v>143</v>
       </c>
-      <c r="H100" s="392"/>
-      <c r="I100" s="392"/>
-      <c r="J100" s="392"/>
-      <c r="K100" s="392"/>
-      <c r="L100" s="392"/>
-      <c r="M100" s="392"/>
-      <c r="N100" s="392"/>
-      <c r="O100" s="392"/>
-      <c r="P100" s="393"/>
-      <c r="Q100" s="380" t="s">
-        <v>169</v>
-      </c>
-      <c r="R100" s="381"/>
-      <c r="S100" s="381"/>
-      <c r="T100" s="381"/>
-      <c r="U100" s="381"/>
-      <c r="V100" s="381"/>
-      <c r="W100" s="381"/>
-      <c r="X100" s="381"/>
-      <c r="Y100" s="381"/>
-      <c r="Z100" s="382"/>
+      <c r="H100" s="313"/>
+      <c r="I100" s="313"/>
+      <c r="J100" s="313"/>
+      <c r="K100" s="313"/>
+      <c r="L100" s="313"/>
+      <c r="M100" s="313"/>
+      <c r="N100" s="313"/>
+      <c r="O100" s="313"/>
+      <c r="P100" s="314"/>
+      <c r="Q100" s="198" t="s">
+        <v>164</v>
+      </c>
+      <c r="R100" s="199"/>
+      <c r="S100" s="199"/>
+      <c r="T100" s="199"/>
+      <c r="U100" s="199"/>
+      <c r="V100" s="199"/>
+      <c r="W100" s="199"/>
+      <c r="X100" s="199"/>
+      <c r="Y100" s="199"/>
+      <c r="Z100" s="199"/>
+      <c r="AA100" s="199"/>
+      <c r="AB100" s="200"/>
       <c r="AG100" s="109"/>
       <c r="AH100" s="109"/>
     </row>
     <row r="101" spans="6:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G101" s="400"/>
-      <c r="H101" s="401"/>
-      <c r="I101" s="401"/>
-      <c r="J101" s="401"/>
-      <c r="K101" s="401"/>
-      <c r="L101" s="401"/>
-      <c r="M101" s="401"/>
-      <c r="N101" s="401"/>
-      <c r="O101" s="401"/>
-      <c r="P101" s="402"/>
-      <c r="Q101" s="190" t="s">
-        <v>168</v>
-      </c>
-      <c r="R101" s="191"/>
-      <c r="S101" s="191"/>
-      <c r="T101" s="191"/>
-      <c r="U101" s="191"/>
-      <c r="V101" s="191"/>
-      <c r="W101" s="191"/>
-      <c r="X101" s="191"/>
-      <c r="Y101" s="191"/>
-      <c r="Z101" s="192"/>
+      <c r="G101" s="321"/>
+      <c r="H101" s="322"/>
+      <c r="I101" s="322"/>
+      <c r="J101" s="322"/>
+      <c r="K101" s="322"/>
+      <c r="L101" s="322"/>
+      <c r="M101" s="322"/>
+      <c r="N101" s="322"/>
+      <c r="O101" s="322"/>
+      <c r="P101" s="323"/>
+      <c r="Q101" s="198" t="s">
+        <v>163</v>
+      </c>
+      <c r="R101" s="199"/>
+      <c r="S101" s="199"/>
+      <c r="T101" s="199"/>
+      <c r="U101" s="199"/>
+      <c r="V101" s="199"/>
+      <c r="W101" s="199"/>
+      <c r="X101" s="199"/>
+      <c r="Y101" s="199"/>
+      <c r="Z101" s="199"/>
+      <c r="AA101" s="199"/>
+      <c r="AB101" s="200"/>
       <c r="AG101" s="109"/>
       <c r="AH101" s="109"/>
     </row>
     <row r="102" spans="6:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G102" s="400"/>
-      <c r="H102" s="401"/>
-      <c r="I102" s="401"/>
-      <c r="J102" s="401"/>
-      <c r="K102" s="401"/>
-      <c r="L102" s="401"/>
-      <c r="M102" s="401"/>
-      <c r="N102" s="401"/>
-      <c r="O102" s="401"/>
-      <c r="P102" s="402"/>
-      <c r="Q102" s="174" t="s">
-        <v>142</v>
-      </c>
-      <c r="R102" s="166"/>
-      <c r="S102" s="166"/>
-      <c r="T102" s="166"/>
-      <c r="U102" s="166"/>
-      <c r="V102" s="166"/>
-      <c r="W102" s="166"/>
-      <c r="X102" s="166"/>
-      <c r="Y102" s="166"/>
-      <c r="Z102" s="167"/>
+      <c r="G102" s="321"/>
+      <c r="H102" s="322"/>
+      <c r="I102" s="322"/>
+      <c r="J102" s="322"/>
+      <c r="K102" s="322"/>
+      <c r="L102" s="322"/>
+      <c r="M102" s="322"/>
+      <c r="N102" s="322"/>
+      <c r="O102" s="322"/>
+      <c r="P102" s="323"/>
+      <c r="Q102" s="198" t="s">
+        <v>204</v>
+      </c>
+      <c r="R102" s="199"/>
+      <c r="S102" s="199"/>
+      <c r="T102" s="199"/>
+      <c r="U102" s="199"/>
+      <c r="V102" s="199"/>
+      <c r="W102" s="199"/>
+      <c r="X102" s="199"/>
+      <c r="Y102" s="199"/>
+      <c r="Z102" s="199"/>
+      <c r="AA102" s="199"/>
+      <c r="AB102" s="200"/>
       <c r="AG102" s="109"/>
       <c r="AH102" s="109"/>
     </row>
     <row r="103" spans="6:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G103" s="400"/>
-      <c r="H103" s="401"/>
-      <c r="I103" s="401"/>
-      <c r="J103" s="401"/>
-      <c r="K103" s="401"/>
-      <c r="L103" s="401"/>
-      <c r="M103" s="401"/>
-      <c r="N103" s="401"/>
-      <c r="O103" s="401"/>
-      <c r="P103" s="402"/>
-      <c r="Q103" s="174" t="s">
-        <v>156</v>
-      </c>
-      <c r="R103" s="166"/>
-      <c r="S103" s="166"/>
-      <c r="T103" s="166"/>
-      <c r="U103" s="166"/>
-      <c r="V103" s="166"/>
-      <c r="W103" s="166"/>
-      <c r="X103" s="166"/>
-      <c r="Y103" s="166"/>
-      <c r="Z103" s="167"/>
+      <c r="G103" s="321"/>
+      <c r="H103" s="322"/>
+      <c r="I103" s="322"/>
+      <c r="J103" s="322"/>
+      <c r="K103" s="322"/>
+      <c r="L103" s="322"/>
+      <c r="M103" s="322"/>
+      <c r="N103" s="322"/>
+      <c r="O103" s="322"/>
+      <c r="P103" s="323"/>
+      <c r="Q103" s="198" t="s">
+        <v>199</v>
+      </c>
+      <c r="R103" s="199"/>
+      <c r="S103" s="199"/>
+      <c r="T103" s="199"/>
+      <c r="U103" s="199"/>
+      <c r="V103" s="199"/>
+      <c r="W103" s="199"/>
+      <c r="X103" s="199"/>
+      <c r="Y103" s="199"/>
+      <c r="Z103" s="199"/>
+      <c r="AA103" s="199"/>
+      <c r="AB103" s="200"/>
       <c r="AG103" s="109"/>
       <c r="AH103" s="109"/>
     </row>
     <row r="104" spans="6:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G104" s="400"/>
-      <c r="H104" s="401"/>
-      <c r="I104" s="401"/>
-      <c r="J104" s="401"/>
-      <c r="K104" s="401"/>
-      <c r="L104" s="401"/>
-      <c r="M104" s="401"/>
-      <c r="N104" s="401"/>
-      <c r="O104" s="401"/>
-      <c r="P104" s="402"/>
-      <c r="Q104" s="380" t="s">
-        <v>153</v>
-      </c>
-      <c r="R104" s="381"/>
-      <c r="S104" s="381"/>
-      <c r="T104" s="381"/>
-      <c r="U104" s="381"/>
-      <c r="V104" s="381"/>
-      <c r="W104" s="381"/>
-      <c r="X104" s="381"/>
-      <c r="Y104" s="381"/>
-      <c r="Z104" s="382"/>
+      <c r="G104" s="321"/>
+      <c r="H104" s="322"/>
+      <c r="I104" s="322"/>
+      <c r="J104" s="322"/>
+      <c r="K104" s="322"/>
+      <c r="L104" s="322"/>
+      <c r="M104" s="322"/>
+      <c r="N104" s="322"/>
+      <c r="O104" s="322"/>
+      <c r="P104" s="323"/>
+      <c r="Q104" s="198" t="s">
+        <v>200</v>
+      </c>
+      <c r="R104" s="199"/>
+      <c r="S104" s="199"/>
+      <c r="T104" s="199"/>
+      <c r="U104" s="199"/>
+      <c r="V104" s="199"/>
+      <c r="W104" s="199"/>
+      <c r="X104" s="199"/>
+      <c r="Y104" s="199"/>
+      <c r="Z104" s="199"/>
+      <c r="AA104" s="199"/>
+      <c r="AB104" s="200"/>
       <c r="AG104" s="109"/>
       <c r="AH104" s="109"/>
     </row>
-    <row r="105" spans="6:58" x14ac:dyDescent="0.15">
-      <c r="G105" s="403"/>
-      <c r="H105" s="401"/>
-      <c r="I105" s="401"/>
-      <c r="J105" s="401"/>
-      <c r="K105" s="401"/>
-      <c r="L105" s="401"/>
-      <c r="M105" s="401"/>
-      <c r="N105" s="401"/>
-      <c r="O105" s="401"/>
-      <c r="P105" s="402"/>
-      <c r="Q105" s="380" t="s">
-        <v>154</v>
-      </c>
-      <c r="R105" s="381"/>
-      <c r="S105" s="381"/>
-      <c r="T105" s="381"/>
-      <c r="U105" s="381"/>
-      <c r="V105" s="381"/>
-      <c r="W105" s="381"/>
-      <c r="X105" s="381"/>
-      <c r="Y105" s="381"/>
-      <c r="Z105" s="382"/>
-      <c r="AC105" s="110"/>
-      <c r="AD105" s="110"/>
-      <c r="AE105" s="110"/>
-      <c r="AF105" s="110"/>
+    <row r="105" spans="6:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G105" s="321"/>
+      <c r="H105" s="322"/>
+      <c r="I105" s="322"/>
+      <c r="J105" s="322"/>
+      <c r="K105" s="322"/>
+      <c r="L105" s="322"/>
+      <c r="M105" s="322"/>
+      <c r="N105" s="322"/>
+      <c r="O105" s="322"/>
+      <c r="P105" s="323"/>
+      <c r="Q105" s="198" t="s">
+        <v>201</v>
+      </c>
+      <c r="R105" s="199"/>
+      <c r="S105" s="199"/>
+      <c r="T105" s="199"/>
+      <c r="U105" s="199"/>
+      <c r="V105" s="199"/>
+      <c r="W105" s="199"/>
+      <c r="X105" s="199"/>
+      <c r="Y105" s="199"/>
+      <c r="Z105" s="199"/>
+      <c r="AA105" s="199"/>
+      <c r="AB105" s="200"/>
       <c r="AG105" s="109"/>
       <c r="AH105" s="109"/>
-      <c r="AP105" s="110"/>
-      <c r="AQ105" s="110"/>
-      <c r="AR105" s="110"/>
-      <c r="AS105" s="110"/>
-      <c r="AT105" s="110"/>
-      <c r="AU105" s="110"/>
-      <c r="AV105" s="110"/>
-      <c r="AW105" s="110"/>
-      <c r="AX105" s="110"/>
-      <c r="AY105" s="110"/>
     </row>
     <row r="106" spans="6:58" x14ac:dyDescent="0.15">
-      <c r="G106" s="397" t="s">
-        <v>101</v>
-      </c>
-      <c r="H106" s="398"/>
-      <c r="I106" s="398"/>
-      <c r="J106" s="398"/>
-      <c r="K106" s="398"/>
-      <c r="L106" s="398"/>
-      <c r="M106" s="398"/>
-      <c r="N106" s="398"/>
-      <c r="O106" s="398"/>
-      <c r="P106" s="398"/>
-      <c r="Q106" s="398"/>
-      <c r="R106" s="398"/>
-      <c r="S106" s="398"/>
-      <c r="T106" s="398"/>
-      <c r="U106" s="398"/>
-      <c r="V106" s="398"/>
-      <c r="W106" s="398"/>
-      <c r="X106" s="398"/>
-      <c r="Y106" s="398"/>
-      <c r="Z106" s="399"/>
-      <c r="AJ106" s="110"/>
-      <c r="AK106" s="110"/>
-      <c r="AL106" s="110"/>
-      <c r="AM106" s="110"/>
-      <c r="AN106" s="110"/>
-      <c r="AO106" s="110"/>
+      <c r="G106" s="324"/>
+      <c r="H106" s="322"/>
+      <c r="I106" s="322"/>
+      <c r="J106" s="322"/>
+      <c r="K106" s="322"/>
+      <c r="L106" s="322"/>
+      <c r="M106" s="322"/>
+      <c r="N106" s="322"/>
+      <c r="O106" s="322"/>
+      <c r="P106" s="323"/>
+      <c r="Q106" s="198" t="s">
+        <v>202</v>
+      </c>
+      <c r="R106" s="199"/>
+      <c r="S106" s="199"/>
+      <c r="T106" s="199"/>
+      <c r="U106" s="199"/>
+      <c r="V106" s="199"/>
+      <c r="W106" s="199"/>
+      <c r="X106" s="199"/>
+      <c r="Y106" s="199"/>
+      <c r="Z106" s="199"/>
+      <c r="AA106" s="199"/>
+      <c r="AB106" s="200"/>
+      <c r="AC106" s="110"/>
+      <c r="AD106" s="110"/>
+      <c r="AE106" s="110"/>
+      <c r="AF106" s="110"/>
+      <c r="AG106" s="109"/>
+      <c r="AH106" s="109"/>
       <c r="AP106" s="110"/>
       <c r="AQ106" s="110"/>
       <c r="AR106" s="110"/>
@@ -10710,35 +10729,32 @@
       <c r="AW106" s="110"/>
       <c r="AX106" s="110"/>
       <c r="AY106" s="110"/>
-      <c r="AZ106" s="110"/>
-      <c r="BA106" s="110"/>
-      <c r="BB106" s="110"/>
-      <c r="BC106" s="110"/>
-      <c r="BD106" s="110"/>
-      <c r="BE106" s="110"/>
-      <c r="BF106" s="110"/>
     </row>
     <row r="107" spans="6:58" x14ac:dyDescent="0.15">
-      <c r="G107" s="111"/>
-      <c r="H107" s="112"/>
-      <c r="I107" s="112"/>
-      <c r="J107" s="112"/>
-      <c r="K107" s="112"/>
-      <c r="L107" s="112"/>
-      <c r="M107" s="112"/>
-      <c r="N107" s="112"/>
-      <c r="O107" s="112"/>
-      <c r="P107" s="112"/>
-      <c r="Q107" s="112"/>
-      <c r="R107" s="112"/>
-      <c r="S107" s="112"/>
-      <c r="T107" s="112"/>
-      <c r="U107" s="112"/>
-      <c r="V107" s="112"/>
-      <c r="W107" s="112"/>
-      <c r="X107" s="112"/>
-      <c r="Y107" s="112"/>
-      <c r="Z107" s="113"/>
+      <c r="G107" s="404" t="s">
+        <v>101</v>
+      </c>
+      <c r="H107" s="405"/>
+      <c r="I107" s="405"/>
+      <c r="J107" s="405"/>
+      <c r="K107" s="405"/>
+      <c r="L107" s="405"/>
+      <c r="M107" s="405"/>
+      <c r="N107" s="405"/>
+      <c r="O107" s="405"/>
+      <c r="P107" s="405"/>
+      <c r="Q107" s="405"/>
+      <c r="R107" s="405"/>
+      <c r="S107" s="405"/>
+      <c r="T107" s="405"/>
+      <c r="U107" s="405"/>
+      <c r="V107" s="405"/>
+      <c r="W107" s="405"/>
+      <c r="X107" s="405"/>
+      <c r="Y107" s="405"/>
+      <c r="Z107" s="405"/>
+      <c r="AA107" s="405"/>
+      <c r="AB107" s="406"/>
       <c r="AJ107" s="110"/>
       <c r="AK107" s="110"/>
       <c r="AL107" s="110"/>
@@ -10764,30 +10780,28 @@
       <c r="BF107" s="110"/>
     </row>
     <row r="108" spans="6:58" x14ac:dyDescent="0.15">
-      <c r="G108" s="114"/>
-      <c r="H108" s="177"/>
-      <c r="I108" s="177" t="s">
-        <v>152</v>
-      </c>
-      <c r="J108" s="115"/>
-      <c r="K108" s="115"/>
-      <c r="L108" s="115"/>
-      <c r="M108" s="116"/>
-      <c r="O108" s="115"/>
-      <c r="P108" s="116" t="s">
-        <v>102</v>
-      </c>
-      <c r="R108" s="177" t="s">
-        <v>151</v>
-      </c>
-      <c r="S108" s="115"/>
-      <c r="T108" s="115"/>
-      <c r="U108" s="115"/>
-      <c r="V108" s="117"/>
-      <c r="W108" s="115"/>
-      <c r="X108" s="115"/>
-      <c r="Y108" s="115"/>
-      <c r="Z108" s="118"/>
+      <c r="G108" s="111"/>
+      <c r="H108" s="112"/>
+      <c r="I108" s="112"/>
+      <c r="J108" s="112"/>
+      <c r="K108" s="112"/>
+      <c r="L108" s="112"/>
+      <c r="M108" s="112"/>
+      <c r="N108" s="112"/>
+      <c r="O108" s="112"/>
+      <c r="P108" s="112"/>
+      <c r="Q108" s="112"/>
+      <c r="R108" s="112"/>
+      <c r="S108" s="112"/>
+      <c r="T108" s="112"/>
+      <c r="U108" s="112"/>
+      <c r="V108" s="112"/>
+      <c r="W108" s="112"/>
+      <c r="X108" s="112"/>
+      <c r="Y108" s="112"/>
+      <c r="Z108" s="112"/>
+      <c r="AA108" s="112"/>
+      <c r="AB108" s="113"/>
       <c r="AJ108" s="110"/>
       <c r="AK108" s="110"/>
       <c r="AL108" s="110"/>
@@ -10814,15 +10828,21 @@
     </row>
     <row r="109" spans="6:58" x14ac:dyDescent="0.15">
       <c r="G109" s="114"/>
-      <c r="H109" s="177"/>
-      <c r="I109" s="177"/>
+      <c r="H109" s="174"/>
+      <c r="I109" s="174" t="s">
+        <v>152</v>
+      </c>
       <c r="J109" s="115"/>
       <c r="K109" s="115"/>
       <c r="L109" s="115"/>
       <c r="M109" s="116"/>
       <c r="O109" s="115"/>
-      <c r="P109" s="116"/>
-      <c r="R109" s="177"/>
+      <c r="P109" s="116" t="s">
+        <v>102</v>
+      </c>
+      <c r="R109" s="174" t="s">
+        <v>151</v>
+      </c>
       <c r="S109" s="115"/>
       <c r="T109" s="115"/>
       <c r="U109" s="115"/>
@@ -10830,7 +10850,9 @@
       <c r="W109" s="115"/>
       <c r="X109" s="115"/>
       <c r="Y109" s="115"/>
-      <c r="Z109" s="118"/>
+      <c r="Z109" s="115"/>
+      <c r="AA109" s="115"/>
+      <c r="AB109" s="118"/>
       <c r="AJ109" s="110"/>
       <c r="AK109" s="110"/>
       <c r="AL109" s="110"/>
@@ -10857,19 +10879,15 @@
     </row>
     <row r="110" spans="6:58" x14ac:dyDescent="0.15">
       <c r="G110" s="114"/>
-      <c r="H110" s="177" t="s">
-        <v>191</v>
-      </c>
-      <c r="I110" s="177" t="s">
-        <v>192</v>
-      </c>
+      <c r="H110" s="174"/>
+      <c r="I110" s="174"/>
       <c r="J110" s="115"/>
       <c r="K110" s="115"/>
       <c r="L110" s="115"/>
       <c r="M110" s="116"/>
       <c r="O110" s="115"/>
       <c r="P110" s="116"/>
-      <c r="R110" s="177"/>
+      <c r="R110" s="174"/>
       <c r="S110" s="115"/>
       <c r="T110" s="115"/>
       <c r="U110" s="115"/>
@@ -10877,7 +10895,9 @@
       <c r="W110" s="115"/>
       <c r="X110" s="115"/>
       <c r="Y110" s="115"/>
-      <c r="Z110" s="118"/>
+      <c r="Z110" s="115"/>
+      <c r="AA110" s="115"/>
+      <c r="AB110" s="118"/>
       <c r="AJ110" s="110"/>
       <c r="AK110" s="110"/>
       <c r="AL110" s="110"/>
@@ -10903,26 +10923,32 @@
       <c r="BF110" s="110"/>
     </row>
     <row r="111" spans="6:58" x14ac:dyDescent="0.15">
-      <c r="G111" s="119"/>
-      <c r="H111" s="120"/>
-      <c r="I111" s="120"/>
-      <c r="J111" s="120"/>
-      <c r="K111" s="120"/>
-      <c r="L111" s="121"/>
-      <c r="M111" s="121"/>
-      <c r="N111" s="120"/>
-      <c r="O111" s="120"/>
-      <c r="P111" s="120"/>
-      <c r="Q111" s="120"/>
-      <c r="R111" s="120"/>
-      <c r="S111" s="120"/>
-      <c r="T111" s="120"/>
-      <c r="U111" s="120"/>
-      <c r="V111" s="122"/>
-      <c r="W111" s="120"/>
-      <c r="X111" s="120"/>
-      <c r="Y111" s="120"/>
-      <c r="Z111" s="123"/>
+      <c r="G111" s="114"/>
+      <c r="H111" s="174" t="s">
+        <v>182</v>
+      </c>
+      <c r="I111" s="174" t="s">
+        <v>183</v>
+      </c>
+      <c r="J111" s="115"/>
+      <c r="K111" s="174" t="s">
+        <v>203</v>
+      </c>
+      <c r="L111" s="115"/>
+      <c r="M111" s="116"/>
+      <c r="O111" s="115"/>
+      <c r="P111" s="116"/>
+      <c r="R111" s="174"/>
+      <c r="S111" s="115"/>
+      <c r="T111" s="115"/>
+      <c r="U111" s="115"/>
+      <c r="V111" s="117"/>
+      <c r="W111" s="115"/>
+      <c r="X111" s="115"/>
+      <c r="Y111" s="115"/>
+      <c r="Z111" s="115"/>
+      <c r="AA111" s="115"/>
+      <c r="AB111" s="118"/>
       <c r="AJ111" s="110"/>
       <c r="AK111" s="110"/>
       <c r="AL111" s="110"/>
@@ -10948,26 +10974,28 @@
       <c r="BF111" s="110"/>
     </row>
     <row r="112" spans="6:58" x14ac:dyDescent="0.15">
-      <c r="G112" s="115"/>
-      <c r="H112" s="115"/>
-      <c r="I112" s="115"/>
-      <c r="J112" s="115"/>
-      <c r="K112" s="115"/>
-      <c r="L112" s="116"/>
-      <c r="M112" s="116"/>
-      <c r="N112" s="115"/>
-      <c r="O112" s="115"/>
-      <c r="P112" s="115"/>
-      <c r="Q112" s="115"/>
-      <c r="R112" s="115"/>
-      <c r="S112" s="115"/>
-      <c r="T112" s="115"/>
-      <c r="U112" s="115"/>
-      <c r="V112" s="117"/>
-      <c r="W112" s="115"/>
-      <c r="X112" s="115"/>
-      <c r="Y112" s="115"/>
-      <c r="Z112" s="124"/>
+      <c r="G112" s="119"/>
+      <c r="H112" s="120"/>
+      <c r="I112" s="120"/>
+      <c r="J112" s="120"/>
+      <c r="K112" s="120"/>
+      <c r="L112" s="121"/>
+      <c r="M112" s="121"/>
+      <c r="N112" s="120"/>
+      <c r="O112" s="120"/>
+      <c r="P112" s="120"/>
+      <c r="Q112" s="120"/>
+      <c r="R112" s="120"/>
+      <c r="S112" s="120"/>
+      <c r="T112" s="120"/>
+      <c r="U112" s="120"/>
+      <c r="V112" s="122"/>
+      <c r="W112" s="120"/>
+      <c r="X112" s="120"/>
+      <c r="Y112" s="120"/>
+      <c r="Z112" s="120"/>
+      <c r="AA112" s="120"/>
+      <c r="AB112" s="123"/>
       <c r="AJ112" s="110"/>
       <c r="AK112" s="110"/>
       <c r="AL112" s="110"/>
@@ -10993,101 +11021,106 @@
       <c r="BF112" s="110"/>
     </row>
     <row r="113" spans="4:58" x14ac:dyDescent="0.15">
-      <c r="F113" s="103" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="115" spans="4:58" s="108" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="G115" s="298" t="s">
+      <c r="G113" s="115"/>
+      <c r="H113" s="115"/>
+      <c r="I113" s="115"/>
+      <c r="J113" s="115"/>
+      <c r="K113" s="115"/>
+      <c r="L113" s="116"/>
+      <c r="M113" s="116"/>
+      <c r="N113" s="115"/>
+      <c r="O113" s="115"/>
+      <c r="P113" s="115"/>
+      <c r="Q113" s="115"/>
+      <c r="R113" s="115"/>
+      <c r="S113" s="115"/>
+      <c r="T113" s="115"/>
+      <c r="U113" s="115"/>
+      <c r="V113" s="117"/>
+      <c r="W113" s="115"/>
+      <c r="X113" s="115"/>
+      <c r="Y113" s="115"/>
+      <c r="Z113" s="124"/>
+      <c r="AJ113" s="110"/>
+      <c r="AK113" s="110"/>
+      <c r="AL113" s="110"/>
+      <c r="AM113" s="110"/>
+      <c r="AN113" s="110"/>
+      <c r="AO113" s="110"/>
+      <c r="AP113" s="110"/>
+      <c r="AQ113" s="110"/>
+      <c r="AR113" s="110"/>
+      <c r="AS113" s="110"/>
+      <c r="AT113" s="110"/>
+      <c r="AU113" s="110"/>
+      <c r="AV113" s="110"/>
+      <c r="AW113" s="110"/>
+      <c r="AX113" s="110"/>
+      <c r="AY113" s="110"/>
+      <c r="AZ113" s="110"/>
+      <c r="BA113" s="110"/>
+      <c r="BB113" s="110"/>
+      <c r="BC113" s="110"/>
+      <c r="BD113" s="110"/>
+      <c r="BE113" s="110"/>
+      <c r="BF113" s="110"/>
+    </row>
+    <row r="114" spans="4:58" x14ac:dyDescent="0.15">
+      <c r="F114" s="103" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="116" spans="4:58" s="108" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G116" s="306" t="s">
         <v>99</v>
       </c>
-      <c r="H115" s="299"/>
-      <c r="I115" s="299"/>
-      <c r="J115" s="299"/>
-      <c r="K115" s="299"/>
-      <c r="L115" s="299"/>
-      <c r="M115" s="299"/>
-      <c r="N115" s="299"/>
-      <c r="O115" s="299"/>
-      <c r="P115" s="300"/>
-      <c r="Q115" s="301" t="s">
+      <c r="H116" s="307"/>
+      <c r="I116" s="307"/>
+      <c r="J116" s="307"/>
+      <c r="K116" s="307"/>
+      <c r="L116" s="307"/>
+      <c r="M116" s="307"/>
+      <c r="N116" s="307"/>
+      <c r="O116" s="307"/>
+      <c r="P116" s="308"/>
+      <c r="Q116" s="392" t="s">
         <v>100</v>
       </c>
-      <c r="R115" s="302"/>
-      <c r="S115" s="302"/>
-      <c r="T115" s="302"/>
-      <c r="U115" s="302"/>
-      <c r="V115" s="302"/>
-      <c r="W115" s="302"/>
-      <c r="X115" s="302"/>
-      <c r="Y115" s="302"/>
-      <c r="Z115" s="303"/>
-    </row>
-    <row r="116" spans="4:58" x14ac:dyDescent="0.15">
-      <c r="G116" s="391" t="s">
-        <v>181</v>
-      </c>
-      <c r="H116" s="392"/>
-      <c r="I116" s="392"/>
-      <c r="J116" s="392"/>
-      <c r="K116" s="392"/>
-      <c r="L116" s="392"/>
-      <c r="M116" s="392"/>
-      <c r="N116" s="392"/>
-      <c r="O116" s="392"/>
-      <c r="P116" s="393"/>
-      <c r="Q116" s="380" t="s">
-        <v>182</v>
-      </c>
-      <c r="R116" s="381"/>
-      <c r="S116" s="381"/>
-      <c r="T116" s="381"/>
-      <c r="U116" s="381"/>
-      <c r="V116" s="381"/>
-      <c r="W116" s="381"/>
-      <c r="X116" s="381"/>
-      <c r="Y116" s="381"/>
-      <c r="Z116" s="382"/>
-      <c r="AC116" s="110"/>
-      <c r="AD116" s="110"/>
-      <c r="AE116" s="110"/>
-      <c r="AF116" s="110"/>
-      <c r="AG116" s="109"/>
-      <c r="AH116" s="109"/>
-      <c r="AP116" s="110"/>
-      <c r="AQ116" s="110"/>
-      <c r="AR116" s="110"/>
-      <c r="AS116" s="110"/>
-      <c r="AT116" s="110"/>
-      <c r="AU116" s="110"/>
-      <c r="AV116" s="110"/>
-      <c r="AW116" s="110"/>
-      <c r="AX116" s="110"/>
-      <c r="AY116" s="110"/>
+      <c r="R116" s="393"/>
+      <c r="S116" s="393"/>
+      <c r="T116" s="393"/>
+      <c r="U116" s="393"/>
+      <c r="V116" s="393"/>
+      <c r="W116" s="393"/>
+      <c r="X116" s="393"/>
+      <c r="Y116" s="393"/>
+      <c r="Z116" s="394"/>
     </row>
     <row r="117" spans="4:58" x14ac:dyDescent="0.15">
-      <c r="G117" s="394"/>
-      <c r="H117" s="395"/>
-      <c r="I117" s="395"/>
-      <c r="J117" s="395"/>
-      <c r="K117" s="395"/>
-      <c r="L117" s="395"/>
-      <c r="M117" s="395"/>
-      <c r="N117" s="395"/>
-      <c r="O117" s="395"/>
-      <c r="P117" s="396"/>
-      <c r="Q117" s="380" t="s">
-        <v>183</v>
-      </c>
-      <c r="R117" s="381"/>
-      <c r="S117" s="381"/>
-      <c r="T117" s="381"/>
-      <c r="U117" s="381"/>
-      <c r="V117" s="381"/>
-      <c r="W117" s="381"/>
-      <c r="X117" s="381"/>
-      <c r="Y117" s="381"/>
-      <c r="Z117" s="382"/>
+      <c r="G117" s="312" t="s">
+        <v>173</v>
+      </c>
+      <c r="H117" s="313"/>
+      <c r="I117" s="313"/>
+      <c r="J117" s="313"/>
+      <c r="K117" s="313"/>
+      <c r="L117" s="313"/>
+      <c r="M117" s="313"/>
+      <c r="N117" s="313"/>
+      <c r="O117" s="313"/>
+      <c r="P117" s="314"/>
+      <c r="Q117" s="309" t="s">
+        <v>205</v>
+      </c>
+      <c r="R117" s="310"/>
+      <c r="S117" s="310"/>
+      <c r="T117" s="310"/>
+      <c r="U117" s="310"/>
+      <c r="V117" s="310"/>
+      <c r="W117" s="310"/>
+      <c r="X117" s="310"/>
+      <c r="Y117" s="310"/>
+      <c r="Z117" s="311"/>
       <c r="AC117" s="110"/>
       <c r="AD117" s="110"/>
       <c r="AE117" s="110"/>
@@ -11106,34 +11139,34 @@
       <c r="AY117" s="110"/>
     </row>
     <row r="118" spans="4:58" x14ac:dyDescent="0.15">
-      <c r="G118" s="397" t="s">
-        <v>101</v>
-      </c>
-      <c r="H118" s="398"/>
-      <c r="I118" s="398"/>
-      <c r="J118" s="398"/>
-      <c r="K118" s="398"/>
-      <c r="L118" s="398"/>
-      <c r="M118" s="398"/>
-      <c r="N118" s="398"/>
-      <c r="O118" s="398"/>
-      <c r="P118" s="398"/>
-      <c r="Q118" s="398"/>
-      <c r="R118" s="398"/>
-      <c r="S118" s="398"/>
-      <c r="T118" s="398"/>
-      <c r="U118" s="398"/>
-      <c r="V118" s="398"/>
-      <c r="W118" s="398"/>
-      <c r="X118" s="398"/>
-      <c r="Y118" s="398"/>
-      <c r="Z118" s="399"/>
-      <c r="AJ118" s="110"/>
-      <c r="AK118" s="110"/>
-      <c r="AL118" s="110"/>
-      <c r="AM118" s="110"/>
-      <c r="AN118" s="110"/>
-      <c r="AO118" s="110"/>
+      <c r="G118" s="315"/>
+      <c r="H118" s="316"/>
+      <c r="I118" s="316"/>
+      <c r="J118" s="316"/>
+      <c r="K118" s="316"/>
+      <c r="L118" s="316"/>
+      <c r="M118" s="316"/>
+      <c r="N118" s="316"/>
+      <c r="O118" s="316"/>
+      <c r="P118" s="317"/>
+      <c r="Q118" s="309" t="s">
+        <v>174</v>
+      </c>
+      <c r="R118" s="310"/>
+      <c r="S118" s="310"/>
+      <c r="T118" s="310"/>
+      <c r="U118" s="310"/>
+      <c r="V118" s="310"/>
+      <c r="W118" s="310"/>
+      <c r="X118" s="310"/>
+      <c r="Y118" s="310"/>
+      <c r="Z118" s="311"/>
+      <c r="AC118" s="110"/>
+      <c r="AD118" s="110"/>
+      <c r="AE118" s="110"/>
+      <c r="AF118" s="110"/>
+      <c r="AG118" s="109"/>
+      <c r="AH118" s="109"/>
       <c r="AP118" s="110"/>
       <c r="AQ118" s="110"/>
       <c r="AR118" s="110"/>
@@ -11144,35 +11177,30 @@
       <c r="AW118" s="110"/>
       <c r="AX118" s="110"/>
       <c r="AY118" s="110"/>
-      <c r="AZ118" s="110"/>
-      <c r="BA118" s="110"/>
-      <c r="BB118" s="110"/>
-      <c r="BC118" s="110"/>
-      <c r="BD118" s="110"/>
-      <c r="BE118" s="110"/>
-      <c r="BF118" s="110"/>
     </row>
     <row r="119" spans="4:58" x14ac:dyDescent="0.15">
-      <c r="G119" s="111"/>
-      <c r="H119" s="112"/>
-      <c r="I119" s="112"/>
-      <c r="J119" s="112"/>
-      <c r="K119" s="112"/>
-      <c r="L119" s="112"/>
-      <c r="M119" s="112"/>
-      <c r="N119" s="112"/>
-      <c r="O119" s="112"/>
-      <c r="P119" s="112"/>
-      <c r="Q119" s="112"/>
-      <c r="R119" s="112"/>
-      <c r="S119" s="112"/>
-      <c r="T119" s="112"/>
-      <c r="U119" s="112"/>
-      <c r="V119" s="112"/>
-      <c r="W119" s="112"/>
-      <c r="X119" s="112"/>
-      <c r="Y119" s="112"/>
-      <c r="Z119" s="113"/>
+      <c r="G119" s="318" t="s">
+        <v>101</v>
+      </c>
+      <c r="H119" s="319"/>
+      <c r="I119" s="319"/>
+      <c r="J119" s="319"/>
+      <c r="K119" s="319"/>
+      <c r="L119" s="319"/>
+      <c r="M119" s="319"/>
+      <c r="N119" s="319"/>
+      <c r="O119" s="319"/>
+      <c r="P119" s="319"/>
+      <c r="Q119" s="319"/>
+      <c r="R119" s="319"/>
+      <c r="S119" s="319"/>
+      <c r="T119" s="319"/>
+      <c r="U119" s="319"/>
+      <c r="V119" s="319"/>
+      <c r="W119" s="319"/>
+      <c r="X119" s="319"/>
+      <c r="Y119" s="319"/>
+      <c r="Z119" s="320"/>
       <c r="AJ119" s="110"/>
       <c r="AK119" s="110"/>
       <c r="AL119" s="110"/>
@@ -11198,30 +11226,26 @@
       <c r="BF119" s="110"/>
     </row>
     <row r="120" spans="4:58" x14ac:dyDescent="0.15">
-      <c r="G120" s="114"/>
-      <c r="H120" s="177" t="s">
-        <v>185</v>
-      </c>
-      <c r="I120" s="115"/>
-      <c r="J120" s="115"/>
-      <c r="K120" s="115"/>
-      <c r="L120" s="116"/>
-      <c r="N120" s="115"/>
-      <c r="O120" s="116" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q120" s="177" t="s">
-        <v>186</v>
-      </c>
-      <c r="R120" s="115"/>
-      <c r="S120" s="115"/>
-      <c r="T120" s="115"/>
-      <c r="U120" s="115"/>
-      <c r="V120" s="117"/>
-      <c r="W120" s="115"/>
-      <c r="X120" s="115"/>
-      <c r="Y120" s="115"/>
-      <c r="Z120" s="118"/>
+      <c r="G120" s="111"/>
+      <c r="H120" s="112"/>
+      <c r="I120" s="112"/>
+      <c r="J120" s="112"/>
+      <c r="K120" s="112"/>
+      <c r="L120" s="112"/>
+      <c r="M120" s="112"/>
+      <c r="N120" s="112"/>
+      <c r="O120" s="112"/>
+      <c r="P120" s="112"/>
+      <c r="Q120" s="112"/>
+      <c r="R120" s="112"/>
+      <c r="S120" s="112"/>
+      <c r="T120" s="112"/>
+      <c r="U120" s="112"/>
+      <c r="V120" s="112"/>
+      <c r="W120" s="112"/>
+      <c r="X120" s="112"/>
+      <c r="Y120" s="112"/>
+      <c r="Z120" s="113"/>
       <c r="AJ120" s="110"/>
       <c r="AK120" s="110"/>
       <c r="AL120" s="110"/>
@@ -11247,26 +11271,30 @@
       <c r="BF120" s="110"/>
     </row>
     <row r="121" spans="4:58" x14ac:dyDescent="0.15">
-      <c r="G121" s="119"/>
-      <c r="H121" s="120"/>
-      <c r="I121" s="120"/>
-      <c r="J121" s="120"/>
-      <c r="K121" s="120"/>
-      <c r="L121" s="121"/>
-      <c r="M121" s="121"/>
-      <c r="N121" s="120"/>
-      <c r="O121" s="120"/>
-      <c r="P121" s="120"/>
-      <c r="Q121" s="120"/>
-      <c r="R121" s="120"/>
-      <c r="S121" s="120"/>
-      <c r="T121" s="120"/>
-      <c r="U121" s="120"/>
-      <c r="V121" s="122"/>
-      <c r="W121" s="120"/>
-      <c r="X121" s="120"/>
-      <c r="Y121" s="120"/>
-      <c r="Z121" s="123"/>
+      <c r="G121" s="114"/>
+      <c r="H121" s="174" t="s">
+        <v>176</v>
+      </c>
+      <c r="I121" s="115"/>
+      <c r="J121" s="115"/>
+      <c r="K121" s="115"/>
+      <c r="L121" s="116"/>
+      <c r="N121" s="115"/>
+      <c r="O121" s="116" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q121" s="174" t="s">
+        <v>177</v>
+      </c>
+      <c r="R121" s="115"/>
+      <c r="S121" s="115"/>
+      <c r="T121" s="115"/>
+      <c r="U121" s="115"/>
+      <c r="V121" s="117"/>
+      <c r="W121" s="115"/>
+      <c r="X121" s="115"/>
+      <c r="Y121" s="115"/>
+      <c r="Z121" s="118"/>
       <c r="AJ121" s="110"/>
       <c r="AK121" s="110"/>
       <c r="AL121" s="110"/>
@@ -11292,26 +11320,26 @@
       <c r="BF121" s="110"/>
     </row>
     <row r="122" spans="4:58" x14ac:dyDescent="0.15">
-      <c r="G122" s="115"/>
-      <c r="H122" s="115"/>
-      <c r="I122" s="115"/>
-      <c r="J122" s="115"/>
-      <c r="K122" s="115"/>
-      <c r="L122" s="116"/>
-      <c r="M122" s="116"/>
-      <c r="N122" s="115"/>
-      <c r="O122" s="115"/>
-      <c r="P122" s="115"/>
-      <c r="Q122" s="115"/>
-      <c r="R122" s="115"/>
-      <c r="S122" s="115"/>
-      <c r="T122" s="115"/>
-      <c r="U122" s="115"/>
-      <c r="V122" s="117"/>
-      <c r="W122" s="115"/>
-      <c r="X122" s="115"/>
-      <c r="Y122" s="115"/>
-      <c r="Z122" s="124"/>
+      <c r="G122" s="119"/>
+      <c r="H122" s="120"/>
+      <c r="I122" s="120"/>
+      <c r="J122" s="120"/>
+      <c r="K122" s="120"/>
+      <c r="L122" s="121"/>
+      <c r="M122" s="121"/>
+      <c r="N122" s="120"/>
+      <c r="O122" s="120"/>
+      <c r="P122" s="120"/>
+      <c r="Q122" s="120"/>
+      <c r="R122" s="120"/>
+      <c r="S122" s="120"/>
+      <c r="T122" s="120"/>
+      <c r="U122" s="120"/>
+      <c r="V122" s="122"/>
+      <c r="W122" s="120"/>
+      <c r="X122" s="120"/>
+      <c r="Y122" s="120"/>
+      <c r="Z122" s="123"/>
       <c r="AJ122" s="110"/>
       <c r="AK122" s="110"/>
       <c r="AL122" s="110"/>
@@ -11336,99 +11364,114 @@
       <c r="BE122" s="110"/>
       <c r="BF122" s="110"/>
     </row>
-    <row r="123" spans="4:58" s="108" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="AI123" s="125"/>
-      <c r="AJ123" s="125"/>
-      <c r="AK123" s="125"/>
-      <c r="AL123" s="125"/>
-      <c r="AM123" s="125"/>
-      <c r="AN123" s="125"/>
-      <c r="AO123" s="125"/>
-      <c r="AP123" s="125"/>
-      <c r="AQ123" s="125"/>
-      <c r="AR123" s="125"/>
-      <c r="AS123" s="125"/>
-      <c r="AT123" s="125"/>
-      <c r="AU123" s="125"/>
-      <c r="AV123" s="125"/>
-      <c r="AW123" s="125"/>
-      <c r="AX123" s="125"/>
-      <c r="AY123" s="125"/>
-      <c r="AZ123" s="125"/>
-      <c r="BA123" s="125"/>
-      <c r="BB123" s="125"/>
-      <c r="BC123" s="125"/>
-      <c r="BD123" s="125"/>
-      <c r="BE123" s="125"/>
-    </row>
-    <row r="124" spans="4:58" x14ac:dyDescent="0.15">
-      <c r="E124" s="103" t="s">
+    <row r="123" spans="4:58" x14ac:dyDescent="0.15">
+      <c r="G123" s="115"/>
+      <c r="H123" s="115"/>
+      <c r="I123" s="115"/>
+      <c r="J123" s="115"/>
+      <c r="K123" s="115"/>
+      <c r="L123" s="116"/>
+      <c r="M123" s="116"/>
+      <c r="N123" s="115"/>
+      <c r="O123" s="115"/>
+      <c r="P123" s="115"/>
+      <c r="Q123" s="115"/>
+      <c r="R123" s="115"/>
+      <c r="S123" s="115"/>
+      <c r="T123" s="115"/>
+      <c r="U123" s="115"/>
+      <c r="V123" s="117"/>
+      <c r="W123" s="115"/>
+      <c r="X123" s="115"/>
+      <c r="Y123" s="115"/>
+      <c r="Z123" s="124"/>
+      <c r="AJ123" s="110"/>
+      <c r="AK123" s="110"/>
+      <c r="AL123" s="110"/>
+      <c r="AM123" s="110"/>
+      <c r="AN123" s="110"/>
+      <c r="AO123" s="110"/>
+      <c r="AP123" s="110"/>
+      <c r="AQ123" s="110"/>
+      <c r="AR123" s="110"/>
+      <c r="AS123" s="110"/>
+      <c r="AT123" s="110"/>
+      <c r="AU123" s="110"/>
+      <c r="AV123" s="110"/>
+      <c r="AW123" s="110"/>
+      <c r="AX123" s="110"/>
+      <c r="AY123" s="110"/>
+      <c r="AZ123" s="110"/>
+      <c r="BA123" s="110"/>
+      <c r="BB123" s="110"/>
+      <c r="BC123" s="110"/>
+      <c r="BD123" s="110"/>
+      <c r="BE123" s="110"/>
+      <c r="BF123" s="110"/>
+    </row>
+    <row r="124" spans="4:58" s="108" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AI124" s="125"/>
+      <c r="AJ124" s="125"/>
+      <c r="AK124" s="125"/>
+      <c r="AL124" s="125"/>
+      <c r="AM124" s="125"/>
+      <c r="AN124" s="125"/>
+      <c r="AO124" s="125"/>
+      <c r="AP124" s="125"/>
+      <c r="AQ124" s="125"/>
+      <c r="AR124" s="125"/>
+      <c r="AS124" s="125"/>
+      <c r="AT124" s="125"/>
+      <c r="AU124" s="125"/>
+      <c r="AV124" s="125"/>
+      <c r="AW124" s="125"/>
+      <c r="AX124" s="125"/>
+      <c r="AY124" s="125"/>
+      <c r="AZ124" s="125"/>
+      <c r="BA124" s="125"/>
+      <c r="BB124" s="125"/>
+      <c r="BC124" s="125"/>
+      <c r="BD124" s="125"/>
+      <c r="BE124" s="125"/>
+    </row>
+    <row r="125" spans="4:58" x14ac:dyDescent="0.15">
+      <c r="E125" s="103" t="s">
         <v>103</v>
       </c>
-      <c r="G124" s="107"/>
-      <c r="AJ124" s="110"/>
-      <c r="AK124" s="110"/>
-      <c r="AL124" s="110"/>
-      <c r="AM124" s="110"/>
-      <c r="AN124" s="110"/>
-      <c r="AO124" s="110"/>
-      <c r="AP124" s="110"/>
-      <c r="AQ124" s="110"/>
-      <c r="AR124" s="110"/>
-      <c r="AS124" s="110"/>
-      <c r="AT124" s="110"/>
-      <c r="AU124" s="110"/>
-      <c r="AV124" s="110"/>
-      <c r="AW124" s="110"/>
-      <c r="AX124" s="110"/>
-      <c r="AY124" s="110"/>
-      <c r="AZ124" s="110"/>
-      <c r="BA124" s="110"/>
-      <c r="BB124" s="110"/>
-      <c r="BC124" s="110"/>
-      <c r="BD124" s="110"/>
-      <c r="BE124" s="110"/>
-      <c r="BF124" s="110"/>
-    </row>
-    <row r="125" spans="4:58" s="108" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D125" s="29"/>
-      <c r="E125" s="106"/>
-      <c r="F125" s="104"/>
-    </row>
-    <row r="126" spans="4:58" x14ac:dyDescent="0.15">
-      <c r="E126" s="126"/>
-      <c r="F126" s="71" t="s">
-        <v>155</v>
-      </c>
-      <c r="AJ126" s="110"/>
-      <c r="AK126" s="110"/>
-      <c r="AL126" s="110"/>
-      <c r="AM126" s="110"/>
-      <c r="AN126" s="110"/>
-      <c r="AO126" s="110"/>
-      <c r="AP126" s="110"/>
-      <c r="AQ126" s="110"/>
-      <c r="AR126" s="110"/>
-      <c r="AS126" s="110"/>
-      <c r="AT126" s="110"/>
-      <c r="AU126" s="110"/>
-      <c r="AV126" s="110"/>
-      <c r="AW126" s="110"/>
-      <c r="AX126" s="110"/>
-      <c r="AY126" s="110"/>
-      <c r="AZ126" s="110"/>
-      <c r="BA126" s="110"/>
-      <c r="BB126" s="110"/>
-      <c r="BC126" s="110"/>
-      <c r="BD126" s="110"/>
-      <c r="BE126" s="110"/>
-      <c r="BF126" s="110"/>
+      <c r="G125" s="107"/>
+      <c r="AJ125" s="110"/>
+      <c r="AK125" s="110"/>
+      <c r="AL125" s="110"/>
+      <c r="AM125" s="110"/>
+      <c r="AN125" s="110"/>
+      <c r="AO125" s="110"/>
+      <c r="AP125" s="110"/>
+      <c r="AQ125" s="110"/>
+      <c r="AR125" s="110"/>
+      <c r="AS125" s="110"/>
+      <c r="AT125" s="110"/>
+      <c r="AU125" s="110"/>
+      <c r="AV125" s="110"/>
+      <c r="AW125" s="110"/>
+      <c r="AX125" s="110"/>
+      <c r="AY125" s="110"/>
+      <c r="AZ125" s="110"/>
+      <c r="BA125" s="110"/>
+      <c r="BB125" s="110"/>
+      <c r="BC125" s="110"/>
+      <c r="BD125" s="110"/>
+      <c r="BE125" s="110"/>
+      <c r="BF125" s="110"/>
+    </row>
+    <row r="126" spans="4:58" s="108" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D126" s="29"/>
+      <c r="E126" s="106"/>
+      <c r="F126" s="104"/>
     </row>
     <row r="127" spans="4:58" x14ac:dyDescent="0.15">
       <c r="E127" s="126"/>
-      <c r="F127" s="127"/>
-      <c r="G127" s="71" t="s">
-        <v>174</v>
+      <c r="F127" s="71" t="s">
+        <v>153</v>
       </c>
       <c r="AJ127" s="110"/>
       <c r="AK127" s="110"/>
@@ -11457,16 +11500,9 @@
     <row r="128" spans="4:58" x14ac:dyDescent="0.15">
       <c r="E128" s="126"/>
       <c r="F128" s="127"/>
-      <c r="H128" s="74" t="s">
-        <v>170</v>
-      </c>
-      <c r="I128" s="193"/>
-      <c r="J128" s="193"/>
-      <c r="K128" s="193"/>
-      <c r="L128" s="193"/>
-      <c r="M128" s="193"/>
-      <c r="N128" s="193"/>
-      <c r="O128" s="193"/>
+      <c r="G128" s="71" t="s">
+        <v>168</v>
+      </c>
       <c r="AJ128" s="110"/>
       <c r="AK128" s="110"/>
       <c r="AL128" s="110"/>
@@ -11494,7 +11530,16 @@
     <row r="129" spans="5:59" x14ac:dyDescent="0.15">
       <c r="E129" s="126"/>
       <c r="F129" s="127"/>
-      <c r="G129" s="71"/>
+      <c r="H129" s="74" t="s">
+        <v>165</v>
+      </c>
+      <c r="I129" s="187"/>
+      <c r="J129" s="187"/>
+      <c r="K129" s="187"/>
+      <c r="L129" s="187"/>
+      <c r="M129" s="187"/>
+      <c r="N129" s="187"/>
+      <c r="O129" s="187"/>
       <c r="AJ129" s="110"/>
       <c r="AK129" s="110"/>
       <c r="AL129" s="110"/>
@@ -11521,9 +11566,8 @@
     </row>
     <row r="130" spans="5:59" x14ac:dyDescent="0.15">
       <c r="E130" s="126"/>
-      <c r="F130" s="71" t="s">
-        <v>201</v>
-      </c>
+      <c r="F130" s="127"/>
+      <c r="G130" s="71"/>
       <c r="AJ130" s="110"/>
       <c r="AK130" s="110"/>
       <c r="AL130" s="110"/>
@@ -11550,9 +11594,8 @@
     </row>
     <row r="131" spans="5:59" x14ac:dyDescent="0.15">
       <c r="E131" s="126"/>
-      <c r="F131" s="127"/>
-      <c r="G131" s="71" t="s">
-        <v>175</v>
+      <c r="F131" s="71" t="s">
+        <v>192</v>
       </c>
       <c r="AJ131" s="110"/>
       <c r="AK131" s="110"/>
@@ -11581,15 +11624,9 @@
     <row r="132" spans="5:59" x14ac:dyDescent="0.15">
       <c r="E132" s="126"/>
       <c r="F132" s="127"/>
-      <c r="H132" s="74" t="s">
-        <v>170</v>
-      </c>
-      <c r="I132" s="193"/>
-      <c r="J132" s="193"/>
-      <c r="K132" s="193"/>
-      <c r="L132" s="193"/>
-      <c r="M132" s="193"/>
-      <c r="N132" s="193"/>
+      <c r="G132" s="71" t="s">
+        <v>169</v>
+      </c>
       <c r="AJ132" s="110"/>
       <c r="AK132" s="110"/>
       <c r="AL132" s="110"/>
@@ -11617,7 +11654,15 @@
     <row r="133" spans="5:59" x14ac:dyDescent="0.15">
       <c r="E133" s="126"/>
       <c r="F133" s="127"/>
-      <c r="G133" s="71"/>
+      <c r="H133" s="74" t="s">
+        <v>165</v>
+      </c>
+      <c r="I133" s="187"/>
+      <c r="J133" s="187"/>
+      <c r="K133" s="187"/>
+      <c r="L133" s="187"/>
+      <c r="M133" s="187"/>
+      <c r="N133" s="187"/>
       <c r="AJ133" s="110"/>
       <c r="AK133" s="110"/>
       <c r="AL133" s="110"/>
@@ -11644,9 +11689,8 @@
     </row>
     <row r="134" spans="5:59" x14ac:dyDescent="0.15">
       <c r="E134" s="126"/>
-      <c r="F134" s="71" t="s">
-        <v>202</v>
-      </c>
+      <c r="F134" s="127"/>
+      <c r="G134" s="71"/>
       <c r="AJ134" s="110"/>
       <c r="AK134" s="110"/>
       <c r="AL134" s="110"/>
@@ -11673,12 +11717,11 @@
     </row>
     <row r="135" spans="5:59" x14ac:dyDescent="0.15">
       <c r="E135" s="126"/>
-      <c r="F135" s="127"/>
-      <c r="G135" s="71" t="s">
-        <v>172</v>
+      <c r="F135" s="71" t="s">
+        <v>193</v>
       </c>
       <c r="AJ135" s="110"/>
-      <c r="AK135" s="194"/>
+      <c r="AK135" s="110"/>
       <c r="AL135" s="110"/>
       <c r="AM135" s="110"/>
       <c r="AN135" s="110"/>
@@ -11704,12 +11747,11 @@
     <row r="136" spans="5:59" x14ac:dyDescent="0.15">
       <c r="E136" s="126"/>
       <c r="F136" s="127"/>
-      <c r="G136" s="71"/>
-      <c r="H136" s="103" t="s">
-        <v>176</v>
+      <c r="G136" s="71" t="s">
+        <v>206</v>
       </c>
       <c r="AJ136" s="110"/>
-      <c r="AK136" s="110"/>
+      <c r="AK136" s="188"/>
       <c r="AL136" s="110"/>
       <c r="AM136" s="110"/>
       <c r="AN136" s="110"/>
@@ -11735,15 +11777,10 @@
     <row r="137" spans="5:59" x14ac:dyDescent="0.15">
       <c r="E137" s="126"/>
       <c r="F137" s="127"/>
-      <c r="H137" s="74" t="s">
+      <c r="G137" s="71"/>
+      <c r="H137" s="103" t="s">
         <v>170</v>
       </c>
-      <c r="I137" s="193"/>
-      <c r="J137" s="193"/>
-      <c r="K137" s="193"/>
-      <c r="L137" s="193"/>
-      <c r="M137" s="193"/>
-      <c r="N137" s="193"/>
       <c r="AJ137" s="110"/>
       <c r="AK137" s="110"/>
       <c r="AL137" s="110"/>
@@ -11771,7 +11808,15 @@
     <row r="138" spans="5:59" x14ac:dyDescent="0.15">
       <c r="E138" s="126"/>
       <c r="F138" s="127"/>
-      <c r="G138" s="71"/>
+      <c r="H138" s="74" t="s">
+        <v>165</v>
+      </c>
+      <c r="I138" s="187"/>
+      <c r="J138" s="187"/>
+      <c r="K138" s="187"/>
+      <c r="L138" s="187"/>
+      <c r="M138" s="187"/>
+      <c r="N138" s="187"/>
       <c r="AJ138" s="110"/>
       <c r="AK138" s="110"/>
       <c r="AL138" s="110"/>
@@ -11796,199 +11841,175 @@
       <c r="BE138" s="110"/>
       <c r="BF138" s="110"/>
     </row>
-    <row r="139" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H139" s="366" t="s">
-        <v>157</v>
-      </c>
-      <c r="I139" s="279" t="s">
+    <row r="139" spans="5:59" x14ac:dyDescent="0.15">
+      <c r="E139" s="126"/>
+      <c r="F139" s="127"/>
+      <c r="G139" s="71"/>
+      <c r="AJ139" s="110"/>
+      <c r="AK139" s="110"/>
+      <c r="AL139" s="110"/>
+      <c r="AM139" s="110"/>
+      <c r="AN139" s="110"/>
+      <c r="AO139" s="110"/>
+      <c r="AP139" s="110"/>
+      <c r="AQ139" s="110"/>
+      <c r="AR139" s="110"/>
+      <c r="AS139" s="110"/>
+      <c r="AT139" s="110"/>
+      <c r="AU139" s="110"/>
+      <c r="AV139" s="110"/>
+      <c r="AW139" s="110"/>
+      <c r="AX139" s="110"/>
+      <c r="AY139" s="110"/>
+      <c r="AZ139" s="110"/>
+      <c r="BA139" s="110"/>
+      <c r="BB139" s="110"/>
+      <c r="BC139" s="110"/>
+      <c r="BD139" s="110"/>
+      <c r="BE139" s="110"/>
+      <c r="BF139" s="110"/>
+    </row>
+    <row r="140" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H140" s="301" t="s">
+        <v>154</v>
+      </c>
+      <c r="I140" s="279" t="s">
         <v>104</v>
       </c>
-      <c r="J139" s="280"/>
-      <c r="K139" s="280"/>
-      <c r="L139" s="280"/>
-      <c r="M139" s="280"/>
-      <c r="N139" s="281"/>
-      <c r="O139" s="388" t="s">
+      <c r="J140" s="280"/>
+      <c r="K140" s="280"/>
+      <c r="L140" s="280"/>
+      <c r="M140" s="280"/>
+      <c r="N140" s="281"/>
+      <c r="O140" s="303" t="s">
         <v>114</v>
       </c>
-      <c r="P139" s="389"/>
-      <c r="Q139" s="389"/>
-      <c r="R139" s="389"/>
-      <c r="S139" s="389"/>
-      <c r="T139" s="389"/>
-      <c r="U139" s="389"/>
-      <c r="V139" s="389"/>
-      <c r="W139" s="389"/>
-      <c r="X139" s="389"/>
-      <c r="Y139" s="390"/>
-      <c r="Z139" s="279" t="s">
+      <c r="P140" s="304"/>
+      <c r="Q140" s="304"/>
+      <c r="R140" s="304"/>
+      <c r="S140" s="304"/>
+      <c r="T140" s="304"/>
+      <c r="U140" s="304"/>
+      <c r="V140" s="304"/>
+      <c r="W140" s="304"/>
+      <c r="X140" s="304"/>
+      <c r="Y140" s="305"/>
+      <c r="Z140" s="279" t="s">
         <v>32</v>
       </c>
-      <c r="AA139" s="280"/>
-      <c r="AB139" s="280"/>
-      <c r="AC139" s="280"/>
-      <c r="AD139" s="280"/>
-      <c r="AE139" s="281"/>
-      <c r="AF139" s="184" t="s">
+      <c r="AA140" s="280"/>
+      <c r="AB140" s="280"/>
+      <c r="AC140" s="280"/>
+      <c r="AD140" s="280"/>
+      <c r="AE140" s="281"/>
+      <c r="AF140" s="181" t="s">
         <v>30</v>
       </c>
-      <c r="AG139" s="185"/>
-      <c r="AH139" s="186"/>
-    </row>
-    <row r="140" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H140" s="368"/>
-      <c r="I140" s="285"/>
-      <c r="J140" s="286"/>
-      <c r="K140" s="286"/>
-      <c r="L140" s="286"/>
-      <c r="M140" s="286"/>
-      <c r="N140" s="287"/>
-      <c r="O140" s="388" t="s">
+      <c r="AG140" s="182"/>
+      <c r="AH140" s="183"/>
+    </row>
+    <row r="141" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H141" s="302"/>
+      <c r="I141" s="285"/>
+      <c r="J141" s="286"/>
+      <c r="K141" s="286"/>
+      <c r="L141" s="286"/>
+      <c r="M141" s="286"/>
+      <c r="N141" s="287"/>
+      <c r="O141" s="303" t="s">
         <v>115</v>
       </c>
-      <c r="P140" s="389"/>
-      <c r="Q140" s="389"/>
-      <c r="R140" s="389"/>
-      <c r="S140" s="390"/>
-      <c r="T140" s="298" t="s">
+      <c r="P141" s="304"/>
+      <c r="Q141" s="304"/>
+      <c r="R141" s="304"/>
+      <c r="S141" s="305"/>
+      <c r="T141" s="306" t="s">
         <v>105</v>
       </c>
-      <c r="U140" s="299"/>
-      <c r="V140" s="299"/>
-      <c r="W140" s="299"/>
-      <c r="X140" s="299"/>
-      <c r="Y140" s="300"/>
-      <c r="Z140" s="285"/>
-      <c r="AA140" s="286"/>
-      <c r="AB140" s="286"/>
-      <c r="AC140" s="286"/>
-      <c r="AD140" s="286"/>
-      <c r="AE140" s="287"/>
-      <c r="AF140" s="187"/>
-      <c r="AG140" s="188"/>
-      <c r="AH140" s="189"/>
-    </row>
-    <row r="141" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H141" s="138">
+      <c r="U141" s="307"/>
+      <c r="V141" s="307"/>
+      <c r="W141" s="307"/>
+      <c r="X141" s="307"/>
+      <c r="Y141" s="308"/>
+      <c r="Z141" s="285"/>
+      <c r="AA141" s="286"/>
+      <c r="AB141" s="286"/>
+      <c r="AC141" s="286"/>
+      <c r="AD141" s="286"/>
+      <c r="AE141" s="287"/>
+      <c r="AF141" s="184"/>
+      <c r="AG141" s="185"/>
+      <c r="AH141" s="186"/>
+    </row>
+    <row r="142" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H142" s="138">
         <v>1</v>
       </c>
-      <c r="I141" s="384" t="s">
-        <v>158</v>
-      </c>
-      <c r="J141" s="385"/>
-      <c r="K141" s="385"/>
-      <c r="L141" s="385"/>
-      <c r="M141" s="385"/>
-      <c r="N141" s="386"/>
-      <c r="O141" s="178" t="s">
+      <c r="I142" s="295" t="s">
+        <v>200</v>
+      </c>
+      <c r="J142" s="296"/>
+      <c r="K142" s="296"/>
+      <c r="L142" s="296"/>
+      <c r="M142" s="296"/>
+      <c r="N142" s="297"/>
+      <c r="O142" s="175" t="s">
         <v>143</v>
       </c>
-      <c r="P141" s="179"/>
-      <c r="Q141" s="179"/>
-      <c r="R141" s="179"/>
-      <c r="S141" s="180"/>
-      <c r="T141" s="384" t="s">
-        <v>159</v>
-      </c>
-      <c r="U141" s="385"/>
-      <c r="V141" s="385"/>
-      <c r="W141" s="385"/>
-      <c r="X141" s="385"/>
-      <c r="Y141" s="386"/>
-      <c r="Z141" s="387" t="s">
-        <v>160</v>
-      </c>
-      <c r="AA141" s="324"/>
-      <c r="AB141" s="324"/>
-      <c r="AC141" s="324"/>
-      <c r="AD141" s="324"/>
-      <c r="AE141" s="325"/>
-      <c r="AF141" s="170"/>
-      <c r="AG141" s="168"/>
-      <c r="AH141" s="169"/>
-    </row>
-    <row r="142" spans="5:59" x14ac:dyDescent="0.15">
-      <c r="H142" s="181" t="s">
+      <c r="P142" s="176"/>
+      <c r="Q142" s="176"/>
+      <c r="R142" s="176"/>
+      <c r="S142" s="177"/>
+      <c r="T142" s="295" t="s">
+        <v>155</v>
+      </c>
+      <c r="U142" s="296"/>
+      <c r="V142" s="296"/>
+      <c r="W142" s="296"/>
+      <c r="X142" s="296"/>
+      <c r="Y142" s="297"/>
+      <c r="Z142" s="298" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA142" s="299"/>
+      <c r="AB142" s="299"/>
+      <c r="AC142" s="299"/>
+      <c r="AD142" s="299"/>
+      <c r="AE142" s="300"/>
+      <c r="AF142" s="168"/>
+      <c r="AG142" s="166"/>
+      <c r="AH142" s="167"/>
+    </row>
+    <row r="143" spans="5:59" x14ac:dyDescent="0.15">
+      <c r="H143" s="178" t="s">
         <v>101</v>
       </c>
-      <c r="I142" s="182"/>
-      <c r="J142" s="182"/>
-      <c r="K142" s="182"/>
-      <c r="L142" s="182"/>
-      <c r="M142" s="182"/>
-      <c r="N142" s="182"/>
-      <c r="O142" s="182"/>
-      <c r="P142" s="182"/>
-      <c r="Q142" s="182"/>
-      <c r="R142" s="182"/>
-      <c r="S142" s="182"/>
-      <c r="T142" s="182"/>
-      <c r="U142" s="182"/>
-      <c r="V142" s="182"/>
-      <c r="W142" s="182"/>
-      <c r="X142" s="182"/>
-      <c r="Y142" s="182"/>
-      <c r="Z142" s="182"/>
-      <c r="AA142" s="182"/>
-      <c r="AB142" s="182"/>
-      <c r="AC142" s="182"/>
-      <c r="AD142" s="182"/>
-      <c r="AE142" s="182"/>
-      <c r="AF142" s="182"/>
-      <c r="AG142" s="182"/>
-      <c r="AH142" s="183"/>
-      <c r="AK142" s="110"/>
-      <c r="AL142" s="110"/>
-      <c r="AM142" s="110"/>
-      <c r="AN142" s="110"/>
-      <c r="AO142" s="110"/>
-      <c r="AP142" s="110"/>
-      <c r="AQ142" s="110"/>
-      <c r="AR142" s="110"/>
-      <c r="AS142" s="110"/>
-      <c r="AT142" s="110"/>
-      <c r="AU142" s="110"/>
-      <c r="AV142" s="110"/>
-      <c r="AW142" s="110"/>
-      <c r="AX142" s="110"/>
-      <c r="AY142" s="110"/>
-      <c r="AZ142" s="110"/>
-      <c r="BA142" s="110"/>
-      <c r="BB142" s="110"/>
-      <c r="BC142" s="110"/>
-      <c r="BD142" s="110"/>
-      <c r="BE142" s="110"/>
-      <c r="BF142" s="110"/>
-      <c r="BG142" s="110"/>
-    </row>
-    <row r="143" spans="5:59" x14ac:dyDescent="0.15">
-      <c r="H143" s="111"/>
-      <c r="I143" s="112"/>
-      <c r="J143" s="112"/>
-      <c r="K143" s="112"/>
-      <c r="L143" s="112"/>
-      <c r="M143" s="112"/>
-      <c r="N143" s="112"/>
-      <c r="O143" s="112"/>
-      <c r="P143" s="112"/>
-      <c r="Q143" s="112"/>
-      <c r="R143" s="112"/>
-      <c r="S143" s="112"/>
-      <c r="T143" s="112"/>
-      <c r="U143" s="112"/>
-      <c r="V143" s="112"/>
-      <c r="W143" s="112"/>
-      <c r="X143" s="112"/>
-      <c r="Y143" s="112"/>
-      <c r="Z143" s="112"/>
-      <c r="AA143" s="112"/>
-      <c r="AB143" s="112"/>
-      <c r="AC143" s="112"/>
-      <c r="AD143" s="112"/>
-      <c r="AE143" s="112"/>
-      <c r="AF143" s="112"/>
-      <c r="AG143" s="112"/>
-      <c r="AH143" s="113"/>
+      <c r="I143" s="179"/>
+      <c r="J143" s="179"/>
+      <c r="K143" s="179"/>
+      <c r="L143" s="179"/>
+      <c r="M143" s="179"/>
+      <c r="N143" s="179"/>
+      <c r="O143" s="179"/>
+      <c r="P143" s="179"/>
+      <c r="Q143" s="179"/>
+      <c r="R143" s="179"/>
+      <c r="S143" s="179"/>
+      <c r="T143" s="179"/>
+      <c r="U143" s="179"/>
+      <c r="V143" s="179"/>
+      <c r="W143" s="179"/>
+      <c r="X143" s="179"/>
+      <c r="Y143" s="179"/>
+      <c r="Z143" s="179"/>
+      <c r="AA143" s="179"/>
+      <c r="AB143" s="179"/>
+      <c r="AC143" s="179"/>
+      <c r="AD143" s="179"/>
+      <c r="AE143" s="179"/>
+      <c r="AF143" s="179"/>
+      <c r="AG143" s="179"/>
+      <c r="AH143" s="180"/>
       <c r="AK143" s="110"/>
       <c r="AL143" s="110"/>
       <c r="AM143" s="110"/>
@@ -12014,37 +12035,33 @@
       <c r="BG143" s="110"/>
     </row>
     <row r="144" spans="5:59" x14ac:dyDescent="0.15">
-      <c r="H144" s="114"/>
-      <c r="I144" s="177" t="s">
-        <v>152</v>
-      </c>
-      <c r="J144" s="115"/>
-      <c r="K144" s="115"/>
-      <c r="L144" s="115"/>
-      <c r="M144" s="116"/>
-      <c r="O144" s="115"/>
-      <c r="P144" s="116" t="s">
-        <v>102</v>
-      </c>
-      <c r="R144" s="177" t="s">
-        <v>151</v>
-      </c>
-      <c r="S144" s="115"/>
-      <c r="T144" s="115"/>
-      <c r="U144" s="115"/>
-      <c r="V144" s="115"/>
-      <c r="W144" s="117"/>
-      <c r="X144" s="115"/>
-      <c r="Y144" s="115"/>
-      <c r="Z144" s="115"/>
-      <c r="AA144" s="115"/>
-      <c r="AB144" s="117"/>
-      <c r="AC144" s="115"/>
-      <c r="AD144" s="117"/>
-      <c r="AE144" s="115"/>
-      <c r="AF144" s="117"/>
-      <c r="AG144" s="115"/>
-      <c r="AH144" s="118"/>
+      <c r="H144" s="111"/>
+      <c r="I144" s="112"/>
+      <c r="J144" s="112"/>
+      <c r="K144" s="112"/>
+      <c r="L144" s="112"/>
+      <c r="M144" s="112"/>
+      <c r="N144" s="112"/>
+      <c r="O144" s="112"/>
+      <c r="P144" s="112"/>
+      <c r="Q144" s="112"/>
+      <c r="R144" s="112"/>
+      <c r="S144" s="112"/>
+      <c r="T144" s="112"/>
+      <c r="U144" s="112"/>
+      <c r="V144" s="112"/>
+      <c r="W144" s="112"/>
+      <c r="X144" s="112"/>
+      <c r="Y144" s="112"/>
+      <c r="Z144" s="112"/>
+      <c r="AA144" s="112"/>
+      <c r="AB144" s="112"/>
+      <c r="AC144" s="112"/>
+      <c r="AD144" s="112"/>
+      <c r="AE144" s="112"/>
+      <c r="AF144" s="112"/>
+      <c r="AG144" s="112"/>
+      <c r="AH144" s="113"/>
       <c r="AK144" s="110"/>
       <c r="AL144" s="110"/>
       <c r="AM144" s="110"/>
@@ -12070,33 +12087,37 @@
       <c r="BG144" s="110"/>
     </row>
     <row r="145" spans="5:59" x14ac:dyDescent="0.15">
-      <c r="H145" s="119"/>
-      <c r="I145" s="120"/>
-      <c r="J145" s="120"/>
-      <c r="K145" s="120"/>
-      <c r="L145" s="120"/>
-      <c r="M145" s="121"/>
-      <c r="N145" s="121"/>
-      <c r="O145" s="120"/>
-      <c r="P145" s="120"/>
-      <c r="Q145" s="120"/>
-      <c r="R145" s="120"/>
-      <c r="S145" s="120"/>
-      <c r="T145" s="120"/>
-      <c r="U145" s="120"/>
-      <c r="V145" s="120"/>
-      <c r="W145" s="122"/>
-      <c r="X145" s="120"/>
-      <c r="Y145" s="120"/>
-      <c r="Z145" s="120"/>
-      <c r="AA145" s="120"/>
-      <c r="AB145" s="122"/>
-      <c r="AC145" s="120"/>
-      <c r="AD145" s="122"/>
-      <c r="AE145" s="120"/>
-      <c r="AF145" s="122"/>
-      <c r="AG145" s="120"/>
-      <c r="AH145" s="123"/>
+      <c r="H145" s="114"/>
+      <c r="I145" s="174" t="s">
+        <v>152</v>
+      </c>
+      <c r="J145" s="115"/>
+      <c r="K145" s="115"/>
+      <c r="L145" s="115"/>
+      <c r="M145" s="116"/>
+      <c r="O145" s="115"/>
+      <c r="P145" s="116" t="s">
+        <v>102</v>
+      </c>
+      <c r="R145" s="174" t="s">
+        <v>151</v>
+      </c>
+      <c r="S145" s="115"/>
+      <c r="T145" s="115"/>
+      <c r="U145" s="115"/>
+      <c r="V145" s="115"/>
+      <c r="W145" s="117"/>
+      <c r="X145" s="115"/>
+      <c r="Y145" s="115"/>
+      <c r="Z145" s="115"/>
+      <c r="AA145" s="115"/>
+      <c r="AB145" s="117"/>
+      <c r="AC145" s="115"/>
+      <c r="AD145" s="117"/>
+      <c r="AE145" s="115"/>
+      <c r="AF145" s="117"/>
+      <c r="AG145" s="115"/>
+      <c r="AH145" s="118"/>
       <c r="AK145" s="110"/>
       <c r="AL145" s="110"/>
       <c r="AM145" s="110"/>
@@ -12122,10 +12143,33 @@
       <c r="BG145" s="110"/>
     </row>
     <row r="146" spans="5:59" x14ac:dyDescent="0.15">
-      <c r="E146" s="126"/>
-      <c r="F146" s="127"/>
-      <c r="G146" s="71"/>
-      <c r="AJ146" s="110"/>
+      <c r="H146" s="119"/>
+      <c r="I146" s="120"/>
+      <c r="J146" s="120"/>
+      <c r="K146" s="120"/>
+      <c r="L146" s="120"/>
+      <c r="M146" s="121"/>
+      <c r="N146" s="121"/>
+      <c r="O146" s="120"/>
+      <c r="P146" s="120"/>
+      <c r="Q146" s="120"/>
+      <c r="R146" s="120"/>
+      <c r="S146" s="120"/>
+      <c r="T146" s="120"/>
+      <c r="U146" s="120"/>
+      <c r="V146" s="120"/>
+      <c r="W146" s="122"/>
+      <c r="X146" s="120"/>
+      <c r="Y146" s="120"/>
+      <c r="Z146" s="120"/>
+      <c r="AA146" s="120"/>
+      <c r="AB146" s="122"/>
+      <c r="AC146" s="120"/>
+      <c r="AD146" s="122"/>
+      <c r="AE146" s="120"/>
+      <c r="AF146" s="122"/>
+      <c r="AG146" s="120"/>
+      <c r="AH146" s="123"/>
       <c r="AK146" s="110"/>
       <c r="AL146" s="110"/>
       <c r="AM146" s="110"/>
@@ -12148,13 +12192,12 @@
       <c r="BD146" s="110"/>
       <c r="BE146" s="110"/>
       <c r="BF146" s="110"/>
+      <c r="BG146" s="110"/>
     </row>
     <row r="147" spans="5:59" x14ac:dyDescent="0.15">
       <c r="E147" s="126"/>
       <c r="F147" s="127"/>
-      <c r="G147" s="71" t="s">
-        <v>180</v>
-      </c>
+      <c r="G147" s="71"/>
       <c r="AJ147" s="110"/>
       <c r="AK147" s="110"/>
       <c r="AL147" s="110"/>
@@ -12182,7 +12225,9 @@
     <row r="148" spans="5:59" x14ac:dyDescent="0.15">
       <c r="E148" s="126"/>
       <c r="F148" s="127"/>
-      <c r="G148" s="71"/>
+      <c r="G148" s="71" t="s">
+        <v>208</v>
+      </c>
       <c r="AJ148" s="110"/>
       <c r="AK148" s="110"/>
       <c r="AL148" s="110"/>
@@ -12207,238 +12252,214 @@
       <c r="BE148" s="110"/>
       <c r="BF148" s="110"/>
     </row>
-    <row r="149" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H149" s="366" t="s">
-        <v>157</v>
-      </c>
-      <c r="I149" s="279" t="s">
+    <row r="149" spans="5:59" x14ac:dyDescent="0.15">
+      <c r="E149" s="126"/>
+      <c r="F149" s="127"/>
+      <c r="G149" s="71"/>
+      <c r="AJ149" s="110"/>
+      <c r="AK149" s="110"/>
+      <c r="AL149" s="110"/>
+      <c r="AM149" s="110"/>
+      <c r="AN149" s="110"/>
+      <c r="AO149" s="110"/>
+      <c r="AP149" s="110"/>
+      <c r="AQ149" s="110"/>
+      <c r="AR149" s="110"/>
+      <c r="AS149" s="110"/>
+      <c r="AT149" s="110"/>
+      <c r="AU149" s="110"/>
+      <c r="AV149" s="110"/>
+      <c r="AW149" s="110"/>
+      <c r="AX149" s="110"/>
+      <c r="AY149" s="110"/>
+      <c r="AZ149" s="110"/>
+      <c r="BA149" s="110"/>
+      <c r="BB149" s="110"/>
+      <c r="BC149" s="110"/>
+      <c r="BD149" s="110"/>
+      <c r="BE149" s="110"/>
+      <c r="BF149" s="110"/>
+    </row>
+    <row r="150" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H150" s="301" t="s">
+        <v>154</v>
+      </c>
+      <c r="I150" s="279" t="s">
         <v>104</v>
       </c>
-      <c r="J149" s="280"/>
-      <c r="K149" s="280"/>
-      <c r="L149" s="280"/>
-      <c r="M149" s="280"/>
-      <c r="N149" s="281"/>
-      <c r="O149" s="388" t="s">
+      <c r="J150" s="280"/>
+      <c r="K150" s="280"/>
+      <c r="L150" s="280"/>
+      <c r="M150" s="280"/>
+      <c r="N150" s="281"/>
+      <c r="O150" s="303" t="s">
         <v>114</v>
       </c>
-      <c r="P149" s="389"/>
-      <c r="Q149" s="389"/>
-      <c r="R149" s="389"/>
-      <c r="S149" s="389"/>
-      <c r="T149" s="389"/>
-      <c r="U149" s="389"/>
-      <c r="V149" s="389"/>
-      <c r="W149" s="389"/>
-      <c r="X149" s="389"/>
-      <c r="Y149" s="390"/>
-      <c r="Z149" s="279" t="s">
+      <c r="P150" s="304"/>
+      <c r="Q150" s="304"/>
+      <c r="R150" s="304"/>
+      <c r="S150" s="304"/>
+      <c r="T150" s="304"/>
+      <c r="U150" s="304"/>
+      <c r="V150" s="304"/>
+      <c r="W150" s="304"/>
+      <c r="X150" s="304"/>
+      <c r="Y150" s="305"/>
+      <c r="Z150" s="279" t="s">
         <v>32</v>
       </c>
-      <c r="AA149" s="280"/>
-      <c r="AB149" s="280"/>
-      <c r="AC149" s="280"/>
-      <c r="AD149" s="280"/>
-      <c r="AE149" s="281"/>
-      <c r="AF149" s="184" t="s">
+      <c r="AA150" s="280"/>
+      <c r="AB150" s="280"/>
+      <c r="AC150" s="280"/>
+      <c r="AD150" s="280"/>
+      <c r="AE150" s="281"/>
+      <c r="AF150" s="181" t="s">
         <v>30</v>
       </c>
-      <c r="AG149" s="185"/>
-      <c r="AH149" s="186"/>
-    </row>
-    <row r="150" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H150" s="368"/>
-      <c r="I150" s="285"/>
-      <c r="J150" s="286"/>
-      <c r="K150" s="286"/>
-      <c r="L150" s="286"/>
-      <c r="M150" s="286"/>
-      <c r="N150" s="287"/>
-      <c r="O150" s="388" t="s">
+      <c r="AG150" s="182"/>
+      <c r="AH150" s="183"/>
+    </row>
+    <row r="151" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H151" s="302"/>
+      <c r="I151" s="285"/>
+      <c r="J151" s="286"/>
+      <c r="K151" s="286"/>
+      <c r="L151" s="286"/>
+      <c r="M151" s="286"/>
+      <c r="N151" s="287"/>
+      <c r="O151" s="303" t="s">
         <v>115</v>
       </c>
-      <c r="P150" s="389"/>
-      <c r="Q150" s="389"/>
-      <c r="R150" s="389"/>
-      <c r="S150" s="390"/>
-      <c r="T150" s="298" t="s">
+      <c r="P151" s="304"/>
+      <c r="Q151" s="304"/>
+      <c r="R151" s="304"/>
+      <c r="S151" s="305"/>
+      <c r="T151" s="306" t="s">
         <v>105</v>
       </c>
-      <c r="U150" s="299"/>
-      <c r="V150" s="299"/>
-      <c r="W150" s="299"/>
-      <c r="X150" s="299"/>
-      <c r="Y150" s="300"/>
-      <c r="Z150" s="285"/>
-      <c r="AA150" s="286"/>
-      <c r="AB150" s="286"/>
-      <c r="AC150" s="286"/>
-      <c r="AD150" s="286"/>
-      <c r="AE150" s="287"/>
-      <c r="AF150" s="187"/>
-      <c r="AG150" s="188"/>
-      <c r="AH150" s="189"/>
-    </row>
-    <row r="151" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H151" s="138">
-        <v>1</v>
-      </c>
-      <c r="I151" s="384" t="s">
-        <v>163</v>
-      </c>
-      <c r="J151" s="385"/>
-      <c r="K151" s="385"/>
-      <c r="L151" s="385"/>
-      <c r="M151" s="385"/>
-      <c r="N151" s="386"/>
-      <c r="O151" s="178" t="s">
-        <v>164</v>
-      </c>
-      <c r="P151" s="179"/>
-      <c r="Q151" s="179"/>
-      <c r="R151" s="179"/>
-      <c r="S151" s="180"/>
-      <c r="T151" s="384" t="s">
-        <v>159</v>
-      </c>
-      <c r="U151" s="385"/>
-      <c r="V151" s="385"/>
-      <c r="W151" s="385"/>
-      <c r="X151" s="385"/>
-      <c r="Y151" s="386"/>
-      <c r="Z151" s="387" t="s">
-        <v>165</v>
-      </c>
-      <c r="AA151" s="324"/>
-      <c r="AB151" s="324"/>
-      <c r="AC151" s="324"/>
-      <c r="AD151" s="324"/>
-      <c r="AE151" s="325"/>
-      <c r="AF151" s="170"/>
-      <c r="AG151" s="168"/>
-      <c r="AH151" s="169"/>
+      <c r="U151" s="307"/>
+      <c r="V151" s="307"/>
+      <c r="W151" s="307"/>
+      <c r="X151" s="307"/>
+      <c r="Y151" s="308"/>
+      <c r="Z151" s="285"/>
+      <c r="AA151" s="286"/>
+      <c r="AB151" s="286"/>
+      <c r="AC151" s="286"/>
+      <c r="AD151" s="286"/>
+      <c r="AE151" s="287"/>
+      <c r="AF151" s="184"/>
+      <c r="AG151" s="185"/>
+      <c r="AH151" s="186"/>
     </row>
     <row r="152" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H152" s="138">
+        <v>1</v>
+      </c>
+      <c r="I152" s="295" t="s">
+        <v>158</v>
+      </c>
+      <c r="J152" s="296"/>
+      <c r="K152" s="296"/>
+      <c r="L152" s="296"/>
+      <c r="M152" s="296"/>
+      <c r="N152" s="297"/>
+      <c r="O152" s="175" t="s">
+        <v>159</v>
+      </c>
+      <c r="P152" s="176"/>
+      <c r="Q152" s="176"/>
+      <c r="R152" s="176"/>
+      <c r="S152" s="177"/>
+      <c r="T152" s="295" t="s">
+        <v>155</v>
+      </c>
+      <c r="U152" s="296"/>
+      <c r="V152" s="296"/>
+      <c r="W152" s="296"/>
+      <c r="X152" s="296"/>
+      <c r="Y152" s="297"/>
+      <c r="Z152" s="298" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA152" s="299"/>
+      <c r="AB152" s="299"/>
+      <c r="AC152" s="299"/>
+      <c r="AD152" s="299"/>
+      <c r="AE152" s="300"/>
+      <c r="AF152" s="168"/>
+      <c r="AG152" s="166"/>
+      <c r="AH152" s="167"/>
+    </row>
+    <row r="153" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H153" s="138">
         <v>2</v>
       </c>
-      <c r="I152" s="384" t="s">
-        <v>179</v>
-      </c>
-      <c r="J152" s="385"/>
-      <c r="K152" s="385"/>
-      <c r="L152" s="385"/>
-      <c r="M152" s="385"/>
-      <c r="N152" s="386"/>
-      <c r="O152" s="178" t="s">
-        <v>164</v>
-      </c>
-      <c r="P152" s="179"/>
-      <c r="Q152" s="179"/>
-      <c r="R152" s="179"/>
-      <c r="S152" s="180"/>
-      <c r="T152" s="384" t="s">
+      <c r="I153" s="295" t="s">
+        <v>200</v>
+      </c>
+      <c r="J153" s="296"/>
+      <c r="K153" s="296"/>
+      <c r="L153" s="296"/>
+      <c r="M153" s="296"/>
+      <c r="N153" s="297"/>
+      <c r="O153" s="175" t="s">
+        <v>159</v>
+      </c>
+      <c r="P153" s="176"/>
+      <c r="Q153" s="176"/>
+      <c r="R153" s="176"/>
+      <c r="S153" s="177"/>
+      <c r="T153" s="295" t="s">
         <v>93</v>
       </c>
-      <c r="U152" s="385"/>
-      <c r="V152" s="385"/>
-      <c r="W152" s="385"/>
-      <c r="X152" s="385"/>
-      <c r="Y152" s="386"/>
-      <c r="Z152" s="387">
+      <c r="U153" s="296"/>
+      <c r="V153" s="296"/>
+      <c r="W153" s="296"/>
+      <c r="X153" s="296"/>
+      <c r="Y153" s="297"/>
+      <c r="Z153" s="298">
         <v>0</v>
       </c>
-      <c r="AA152" s="324"/>
-      <c r="AB152" s="324"/>
-      <c r="AC152" s="324"/>
-      <c r="AD152" s="324"/>
-      <c r="AE152" s="325"/>
-      <c r="AF152" s="197"/>
-      <c r="AG152" s="195"/>
-      <c r="AH152" s="196"/>
-    </row>
-    <row r="153" spans="5:59" x14ac:dyDescent="0.15">
-      <c r="H153" s="181" t="s">
+      <c r="AA153" s="299"/>
+      <c r="AB153" s="299"/>
+      <c r="AC153" s="299"/>
+      <c r="AD153" s="299"/>
+      <c r="AE153" s="300"/>
+      <c r="AF153" s="191"/>
+      <c r="AG153" s="189"/>
+      <c r="AH153" s="190"/>
+    </row>
+    <row r="154" spans="5:59" x14ac:dyDescent="0.15">
+      <c r="H154" s="178" t="s">
         <v>101</v>
       </c>
-      <c r="I153" s="182"/>
-      <c r="J153" s="182"/>
-      <c r="K153" s="182"/>
-      <c r="L153" s="182"/>
-      <c r="M153" s="182"/>
-      <c r="N153" s="182"/>
-      <c r="O153" s="182"/>
-      <c r="P153" s="182"/>
-      <c r="Q153" s="182"/>
-      <c r="R153" s="182"/>
-      <c r="S153" s="182"/>
-      <c r="T153" s="182"/>
-      <c r="U153" s="182"/>
-      <c r="V153" s="182"/>
-      <c r="W153" s="182"/>
-      <c r="X153" s="182"/>
-      <c r="Y153" s="182"/>
-      <c r="Z153" s="182"/>
-      <c r="AA153" s="182"/>
-      <c r="AB153" s="182"/>
-      <c r="AC153" s="182"/>
-      <c r="AD153" s="182"/>
-      <c r="AE153" s="182"/>
-      <c r="AF153" s="182"/>
-      <c r="AG153" s="182"/>
-      <c r="AH153" s="183"/>
-      <c r="AK153" s="110"/>
-      <c r="AL153" s="110"/>
-      <c r="AM153" s="110"/>
-      <c r="AN153" s="110"/>
-      <c r="AO153" s="110"/>
-      <c r="AP153" s="110"/>
-      <c r="AQ153" s="110"/>
-      <c r="AR153" s="110"/>
-      <c r="AS153" s="110"/>
-      <c r="AT153" s="110"/>
-      <c r="AU153" s="110"/>
-      <c r="AV153" s="110"/>
-      <c r="AW153" s="110"/>
-      <c r="AX153" s="110"/>
-      <c r="AY153" s="110"/>
-      <c r="AZ153" s="110"/>
-      <c r="BA153" s="110"/>
-      <c r="BB153" s="110"/>
-      <c r="BC153" s="110"/>
-      <c r="BD153" s="110"/>
-      <c r="BE153" s="110"/>
-      <c r="BF153" s="110"/>
-      <c r="BG153" s="110"/>
-    </row>
-    <row r="154" spans="5:59" x14ac:dyDescent="0.15">
-      <c r="H154" s="111"/>
-      <c r="I154" s="112"/>
-      <c r="J154" s="112"/>
-      <c r="K154" s="112"/>
-      <c r="L154" s="112"/>
-      <c r="M154" s="112"/>
-      <c r="N154" s="112"/>
-      <c r="O154" s="112"/>
-      <c r="P154" s="112"/>
-      <c r="Q154" s="112"/>
-      <c r="R154" s="112"/>
-      <c r="S154" s="112"/>
-      <c r="T154" s="112"/>
-      <c r="U154" s="112"/>
-      <c r="V154" s="112"/>
-      <c r="W154" s="112"/>
-      <c r="X154" s="112"/>
-      <c r="Y154" s="112"/>
-      <c r="Z154" s="112"/>
-      <c r="AA154" s="112"/>
-      <c r="AB154" s="112"/>
-      <c r="AC154" s="112"/>
-      <c r="AD154" s="112"/>
-      <c r="AE154" s="112"/>
-      <c r="AF154" s="112"/>
-      <c r="AG154" s="112"/>
-      <c r="AH154" s="113"/>
+      <c r="I154" s="179"/>
+      <c r="J154" s="179"/>
+      <c r="K154" s="179"/>
+      <c r="L154" s="179"/>
+      <c r="M154" s="179"/>
+      <c r="N154" s="179"/>
+      <c r="O154" s="179"/>
+      <c r="P154" s="179"/>
+      <c r="Q154" s="179"/>
+      <c r="R154" s="179"/>
+      <c r="S154" s="179"/>
+      <c r="T154" s="179"/>
+      <c r="U154" s="179"/>
+      <c r="V154" s="179"/>
+      <c r="W154" s="179"/>
+      <c r="X154" s="179"/>
+      <c r="Y154" s="179"/>
+      <c r="Z154" s="179"/>
+      <c r="AA154" s="179"/>
+      <c r="AB154" s="179"/>
+      <c r="AC154" s="179"/>
+      <c r="AD154" s="179"/>
+      <c r="AE154" s="179"/>
+      <c r="AF154" s="179"/>
+      <c r="AG154" s="179"/>
+      <c r="AH154" s="180"/>
       <c r="AK154" s="110"/>
       <c r="AL154" s="110"/>
       <c r="AM154" s="110"/>
@@ -12464,37 +12485,33 @@
       <c r="BG154" s="110"/>
     </row>
     <row r="155" spans="5:59" x14ac:dyDescent="0.15">
-      <c r="H155" s="114"/>
-      <c r="I155" s="177" t="s">
-        <v>152</v>
-      </c>
-      <c r="J155" s="115"/>
-      <c r="K155" s="115"/>
-      <c r="L155" s="115"/>
-      <c r="M155" s="116"/>
-      <c r="O155" s="115"/>
-      <c r="P155" s="116" t="s">
-        <v>102</v>
-      </c>
-      <c r="R155" s="177" t="s">
-        <v>151</v>
-      </c>
-      <c r="S155" s="115"/>
-      <c r="T155" s="115"/>
-      <c r="U155" s="115"/>
-      <c r="V155" s="115"/>
-      <c r="W155" s="117"/>
-      <c r="X155" s="115"/>
-      <c r="Y155" s="115"/>
-      <c r="Z155" s="115"/>
-      <c r="AA155" s="115"/>
-      <c r="AB155" s="117"/>
-      <c r="AC155" s="115"/>
-      <c r="AD155" s="117"/>
-      <c r="AE155" s="115"/>
-      <c r="AF155" s="117"/>
-      <c r="AG155" s="115"/>
-      <c r="AH155" s="118"/>
+      <c r="H155" s="111"/>
+      <c r="I155" s="112"/>
+      <c r="J155" s="112"/>
+      <c r="K155" s="112"/>
+      <c r="L155" s="112"/>
+      <c r="M155" s="112"/>
+      <c r="N155" s="112"/>
+      <c r="O155" s="112"/>
+      <c r="P155" s="112"/>
+      <c r="Q155" s="112"/>
+      <c r="R155" s="112"/>
+      <c r="S155" s="112"/>
+      <c r="T155" s="112"/>
+      <c r="U155" s="112"/>
+      <c r="V155" s="112"/>
+      <c r="W155" s="112"/>
+      <c r="X155" s="112"/>
+      <c r="Y155" s="112"/>
+      <c r="Z155" s="112"/>
+      <c r="AA155" s="112"/>
+      <c r="AB155" s="112"/>
+      <c r="AC155" s="112"/>
+      <c r="AD155" s="112"/>
+      <c r="AE155" s="112"/>
+      <c r="AF155" s="112"/>
+      <c r="AG155" s="112"/>
+      <c r="AH155" s="113"/>
       <c r="AK155" s="110"/>
       <c r="AL155" s="110"/>
       <c r="AM155" s="110"/>
@@ -12520,33 +12537,37 @@
       <c r="BG155" s="110"/>
     </row>
     <row r="156" spans="5:59" x14ac:dyDescent="0.15">
-      <c r="H156" s="119"/>
-      <c r="I156" s="120"/>
-      <c r="J156" s="120"/>
-      <c r="K156" s="120"/>
-      <c r="L156" s="120"/>
-      <c r="M156" s="121"/>
-      <c r="N156" s="121"/>
-      <c r="O156" s="120"/>
-      <c r="P156" s="120"/>
-      <c r="Q156" s="120"/>
-      <c r="R156" s="120"/>
-      <c r="S156" s="120"/>
-      <c r="T156" s="120"/>
-      <c r="U156" s="120"/>
-      <c r="V156" s="120"/>
-      <c r="W156" s="122"/>
-      <c r="X156" s="120"/>
-      <c r="Y156" s="120"/>
-      <c r="Z156" s="120"/>
-      <c r="AA156" s="120"/>
-      <c r="AB156" s="122"/>
-      <c r="AC156" s="120"/>
-      <c r="AD156" s="122"/>
-      <c r="AE156" s="120"/>
-      <c r="AF156" s="122"/>
-      <c r="AG156" s="120"/>
-      <c r="AH156" s="123"/>
+      <c r="H156" s="114"/>
+      <c r="I156" s="174" t="s">
+        <v>152</v>
+      </c>
+      <c r="J156" s="115"/>
+      <c r="K156" s="115"/>
+      <c r="L156" s="115"/>
+      <c r="M156" s="116"/>
+      <c r="O156" s="115"/>
+      <c r="P156" s="116" t="s">
+        <v>102</v>
+      </c>
+      <c r="R156" s="174" t="s">
+        <v>151</v>
+      </c>
+      <c r="S156" s="115"/>
+      <c r="T156" s="115"/>
+      <c r="U156" s="115"/>
+      <c r="V156" s="115"/>
+      <c r="W156" s="117"/>
+      <c r="X156" s="115"/>
+      <c r="Y156" s="115"/>
+      <c r="Z156" s="115"/>
+      <c r="AA156" s="115"/>
+      <c r="AB156" s="117"/>
+      <c r="AC156" s="115"/>
+      <c r="AD156" s="117"/>
+      <c r="AE156" s="115"/>
+      <c r="AF156" s="117"/>
+      <c r="AG156" s="115"/>
+      <c r="AH156" s="118"/>
       <c r="AK156" s="110"/>
       <c r="AL156" s="110"/>
       <c r="AM156" s="110"/>
@@ -12572,10 +12593,33 @@
       <c r="BG156" s="110"/>
     </row>
     <row r="157" spans="5:59" x14ac:dyDescent="0.15">
-      <c r="E157" s="126"/>
-      <c r="F157" s="127"/>
-      <c r="G157" s="71"/>
-      <c r="AJ157" s="110"/>
+      <c r="H157" s="119"/>
+      <c r="I157" s="120"/>
+      <c r="J157" s="120"/>
+      <c r="K157" s="120"/>
+      <c r="L157" s="120"/>
+      <c r="M157" s="121"/>
+      <c r="N157" s="121"/>
+      <c r="O157" s="120"/>
+      <c r="P157" s="120"/>
+      <c r="Q157" s="120"/>
+      <c r="R157" s="120"/>
+      <c r="S157" s="120"/>
+      <c r="T157" s="120"/>
+      <c r="U157" s="120"/>
+      <c r="V157" s="120"/>
+      <c r="W157" s="122"/>
+      <c r="X157" s="120"/>
+      <c r="Y157" s="120"/>
+      <c r="Z157" s="120"/>
+      <c r="AA157" s="120"/>
+      <c r="AB157" s="122"/>
+      <c r="AC157" s="120"/>
+      <c r="AD157" s="122"/>
+      <c r="AE157" s="120"/>
+      <c r="AF157" s="122"/>
+      <c r="AG157" s="120"/>
+      <c r="AH157" s="123"/>
       <c r="AK157" s="110"/>
       <c r="AL157" s="110"/>
       <c r="AM157" s="110"/>
@@ -12598,13 +12642,12 @@
       <c r="BD157" s="110"/>
       <c r="BE157" s="110"/>
       <c r="BF157" s="110"/>
+      <c r="BG157" s="110"/>
     </row>
     <row r="158" spans="5:59" x14ac:dyDescent="0.15">
       <c r="E158" s="126"/>
       <c r="F158" s="127"/>
-      <c r="G158" s="71" t="s">
-        <v>204</v>
-      </c>
+      <c r="G158" s="71"/>
       <c r="AJ158" s="110"/>
       <c r="AK158" s="110"/>
       <c r="AL158" s="110"/>
@@ -12632,15 +12675,9 @@
     <row r="159" spans="5:59" x14ac:dyDescent="0.15">
       <c r="E159" s="126"/>
       <c r="F159" s="127"/>
-      <c r="H159" s="74" t="s">
-        <v>170</v>
-      </c>
-      <c r="I159" s="193"/>
-      <c r="J159" s="193"/>
-      <c r="K159" s="193"/>
-      <c r="L159" s="193"/>
-      <c r="M159" s="193"/>
-      <c r="N159" s="193"/>
+      <c r="G159" s="71" t="s">
+        <v>195</v>
+      </c>
       <c r="AJ159" s="110"/>
       <c r="AK159" s="110"/>
       <c r="AL159" s="110"/>
@@ -12668,7 +12705,15 @@
     <row r="160" spans="5:59" x14ac:dyDescent="0.15">
       <c r="E160" s="126"/>
       <c r="F160" s="127"/>
-      <c r="G160" s="71"/>
+      <c r="H160" s="74" t="s">
+        <v>165</v>
+      </c>
+      <c r="I160" s="187"/>
+      <c r="J160" s="187"/>
+      <c r="K160" s="187"/>
+      <c r="L160" s="187"/>
+      <c r="M160" s="187"/>
+      <c r="N160" s="187"/>
       <c r="AJ160" s="110"/>
       <c r="AK160" s="110"/>
       <c r="AL160" s="110"/>
@@ -12696,9 +12741,7 @@
     <row r="161" spans="1:58" x14ac:dyDescent="0.15">
       <c r="E161" s="126"/>
       <c r="F161" s="127"/>
-      <c r="G161" s="71" t="s">
-        <v>206</v>
-      </c>
+      <c r="G161" s="71"/>
       <c r="AJ161" s="110"/>
       <c r="AK161" s="110"/>
       <c r="AL161" s="110"/>
@@ -12726,7 +12769,9 @@
     <row r="162" spans="1:58" x14ac:dyDescent="0.15">
       <c r="E162" s="126"/>
       <c r="F162" s="127"/>
-      <c r="G162" s="71"/>
+      <c r="G162" s="71" t="s">
+        <v>196</v>
+      </c>
       <c r="AJ162" s="110"/>
       <c r="AK162" s="110"/>
       <c r="AL162" s="110"/>
@@ -12754,9 +12799,7 @@
     <row r="163" spans="1:58" x14ac:dyDescent="0.15">
       <c r="E163" s="126"/>
       <c r="F163" s="127"/>
-      <c r="G163" s="71" t="s">
-        <v>207</v>
-      </c>
+      <c r="G163" s="71"/>
       <c r="AJ163" s="110"/>
       <c r="AK163" s="110"/>
       <c r="AL163" s="110"/>
@@ -12784,7 +12827,9 @@
     <row r="164" spans="1:58" x14ac:dyDescent="0.15">
       <c r="E164" s="126"/>
       <c r="F164" s="127"/>
-      <c r="G164" s="71"/>
+      <c r="G164" s="71" t="s">
+        <v>197</v>
+      </c>
       <c r="AJ164" s="110"/>
       <c r="AK164" s="110"/>
       <c r="AL164" s="110"/>
@@ -12812,9 +12857,7 @@
     <row r="165" spans="1:58" x14ac:dyDescent="0.15">
       <c r="E165" s="126"/>
       <c r="F165" s="127"/>
-      <c r="G165" s="71" t="s">
-        <v>208</v>
-      </c>
+      <c r="G165" s="71"/>
       <c r="AJ165" s="110"/>
       <c r="AK165" s="110"/>
       <c r="AL165" s="110"/>
@@ -12842,7 +12885,9 @@
     <row r="166" spans="1:58" x14ac:dyDescent="0.15">
       <c r="E166" s="126"/>
       <c r="F166" s="127"/>
-      <c r="G166" s="71"/>
+      <c r="G166" s="71" t="s">
+        <v>198</v>
+      </c>
       <c r="AJ166" s="110"/>
       <c r="AK166" s="110"/>
       <c r="AL166" s="110"/>
@@ -12869,9 +12914,8 @@
     </row>
     <row r="167" spans="1:58" x14ac:dyDescent="0.15">
       <c r="E167" s="126"/>
-      <c r="F167" s="71" t="s">
-        <v>203</v>
-      </c>
+      <c r="F167" s="127"/>
+      <c r="G167" s="71"/>
       <c r="AJ167" s="110"/>
       <c r="AK167" s="110"/>
       <c r="AL167" s="110"/>
@@ -12898,8 +12942,9 @@
     </row>
     <row r="168" spans="1:58" x14ac:dyDescent="0.15">
       <c r="E168" s="126"/>
-      <c r="F168" s="127"/>
-      <c r="G168" s="71"/>
+      <c r="F168" s="71" t="s">
+        <v>194</v>
+      </c>
       <c r="AJ168" s="110"/>
       <c r="AK168" s="110"/>
       <c r="AL168" s="110"/>
@@ -12926,7 +12971,8 @@
     </row>
     <row r="169" spans="1:58" x14ac:dyDescent="0.15">
       <c r="E169" s="126"/>
-      <c r="F169" s="71"/>
+      <c r="F169" s="127"/>
+      <c r="G169" s="71"/>
       <c r="AJ169" s="110"/>
       <c r="AK169" s="110"/>
       <c r="AL169" s="110"/>
@@ -12951,31 +12997,38 @@
       <c r="BE169" s="110"/>
       <c r="BF169" s="110"/>
     </row>
-    <row r="170" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C170" s="105"/>
-      <c r="D170" s="152" t="s">
-        <v>195</v>
-      </c>
-      <c r="E170" s="106"/>
-      <c r="AP170" s="105"/>
-      <c r="AQ170" s="105"/>
-      <c r="AR170" s="105"/>
-      <c r="AS170" s="105"/>
-      <c r="AT170" s="105"/>
-      <c r="AU170" s="105"/>
-      <c r="AV170" s="105"/>
-      <c r="AW170" s="105"/>
-      <c r="AX170" s="105"/>
-      <c r="AY170" s="105"/>
-      <c r="AZ170" s="105"/>
-      <c r="BA170" s="105"/>
-      <c r="BB170" s="105"/>
-      <c r="BC170" s="105"/>
-      <c r="BD170" s="105"/>
+    <row r="170" spans="1:58" x14ac:dyDescent="0.15">
+      <c r="E170" s="126"/>
+      <c r="F170" s="71"/>
+      <c r="AJ170" s="110"/>
+      <c r="AK170" s="110"/>
+      <c r="AL170" s="110"/>
+      <c r="AM170" s="110"/>
+      <c r="AN170" s="110"/>
+      <c r="AO170" s="110"/>
+      <c r="AP170" s="110"/>
+      <c r="AQ170" s="110"/>
+      <c r="AR170" s="110"/>
+      <c r="AS170" s="110"/>
+      <c r="AT170" s="110"/>
+      <c r="AU170" s="110"/>
+      <c r="AV170" s="110"/>
+      <c r="AW170" s="110"/>
+      <c r="AX170" s="110"/>
+      <c r="AY170" s="110"/>
+      <c r="AZ170" s="110"/>
+      <c r="BA170" s="110"/>
+      <c r="BB170" s="110"/>
+      <c r="BC170" s="110"/>
+      <c r="BD170" s="110"/>
+      <c r="BE170" s="110"/>
+      <c r="BF170" s="110"/>
     </row>
     <row r="171" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C171" s="105"/>
-      <c r="D171" s="106"/>
+      <c r="D171" s="152" t="s">
+        <v>186</v>
+      </c>
       <c r="E171" s="106"/>
       <c r="AP171" s="105"/>
       <c r="AQ171" s="105"/>
@@ -12993,144 +13046,138 @@
       <c r="BC171" s="105"/>
       <c r="BD171" s="105"/>
     </row>
-    <row r="172" spans="1:58" s="108" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C172" s="29"/>
+    <row r="172" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C172" s="105"/>
       <c r="D172" s="106"/>
-      <c r="E172" s="106" t="s">
+      <c r="E172" s="106"/>
+      <c r="AP172" s="105"/>
+      <c r="AQ172" s="105"/>
+      <c r="AR172" s="105"/>
+      <c r="AS172" s="105"/>
+      <c r="AT172" s="105"/>
+      <c r="AU172" s="105"/>
+      <c r="AV172" s="105"/>
+      <c r="AW172" s="105"/>
+      <c r="AX172" s="105"/>
+      <c r="AY172" s="105"/>
+      <c r="AZ172" s="105"/>
+      <c r="BA172" s="105"/>
+      <c r="BB172" s="105"/>
+      <c r="BC172" s="105"/>
+      <c r="BD172" s="105"/>
+    </row>
+    <row r="173" spans="1:58" s="108" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C173" s="29"/>
+      <c r="D173" s="106"/>
+      <c r="E173" s="106" t="s">
         <v>97</v>
       </c>
-      <c r="AP172" s="29"/>
-    </row>
-    <row r="173" spans="1:58" x14ac:dyDescent="0.15">
-      <c r="E173" s="126"/>
-      <c r="F173" s="127"/>
-      <c r="G173" s="71"/>
-      <c r="AJ173" s="110"/>
-      <c r="AK173" s="110"/>
-      <c r="AL173" s="110"/>
-      <c r="AM173" s="110"/>
-      <c r="AN173" s="110"/>
-      <c r="AO173" s="110"/>
-      <c r="AP173" s="110"/>
-      <c r="AQ173" s="110"/>
-      <c r="AR173" s="110"/>
-      <c r="AS173" s="110"/>
-      <c r="AT173" s="110"/>
-      <c r="AU173" s="110"/>
-      <c r="AV173" s="110"/>
-      <c r="AW173" s="110"/>
-      <c r="AX173" s="110"/>
-      <c r="AY173" s="110"/>
-      <c r="AZ173" s="110"/>
-      <c r="BA173" s="110"/>
-      <c r="BB173" s="110"/>
-      <c r="BC173" s="110"/>
-      <c r="BD173" s="110"/>
-      <c r="BE173" s="110"/>
-      <c r="BF173" s="110"/>
-    </row>
-    <row r="174" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C174" s="105"/>
-      <c r="D174" s="106"/>
-      <c r="E174" s="106"/>
-      <c r="F174" s="17" t="s">
+      <c r="AP173" s="29"/>
+    </row>
+    <row r="174" spans="1:58" x14ac:dyDescent="0.15">
+      <c r="E174" s="126"/>
+      <c r="F174" s="127"/>
+      <c r="G174" s="71"/>
+      <c r="AJ174" s="110"/>
+      <c r="AK174" s="110"/>
+      <c r="AL174" s="110"/>
+      <c r="AM174" s="110"/>
+      <c r="AN174" s="110"/>
+      <c r="AO174" s="110"/>
+      <c r="AP174" s="110"/>
+      <c r="AQ174" s="110"/>
+      <c r="AR174" s="110"/>
+      <c r="AS174" s="110"/>
+      <c r="AT174" s="110"/>
+      <c r="AU174" s="110"/>
+      <c r="AV174" s="110"/>
+      <c r="AW174" s="110"/>
+      <c r="AX174" s="110"/>
+      <c r="AY174" s="110"/>
+      <c r="AZ174" s="110"/>
+      <c r="BA174" s="110"/>
+      <c r="BB174" s="110"/>
+      <c r="BC174" s="110"/>
+      <c r="BD174" s="110"/>
+      <c r="BE174" s="110"/>
+      <c r="BF174" s="110"/>
+    </row>
+    <row r="175" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C175" s="105"/>
+      <c r="D175" s="106"/>
+      <c r="E175" s="106"/>
+      <c r="F175" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="AP174" s="105"/>
-    </row>
-    <row r="175" spans="1:58" s="108" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A175" s="29"/>
-      <c r="B175" s="107"/>
-      <c r="C175" s="29"/>
-      <c r="D175" s="29"/>
-      <c r="E175" s="29"/>
-      <c r="G175" s="151"/>
-      <c r="H175" s="151"/>
-      <c r="I175" s="151"/>
-      <c r="J175" s="151"/>
-      <c r="K175" s="151"/>
-      <c r="L175" s="151"/>
-      <c r="M175" s="151"/>
-      <c r="N175" s="151"/>
-      <c r="O175" s="151"/>
-      <c r="P175" s="151"/>
-      <c r="Q175" s="151"/>
-      <c r="R175" s="151"/>
-      <c r="S175" s="151"/>
-      <c r="T175" s="151"/>
-      <c r="U175" s="151"/>
-      <c r="V175" s="151"/>
-      <c r="W175" s="151"/>
-      <c r="X175" s="151"/>
-      <c r="Y175" s="151"/>
-      <c r="Z175" s="151"/>
-      <c r="AA175" s="151"/>
-      <c r="AB175" s="151"/>
-      <c r="AC175" s="151"/>
-      <c r="AD175" s="149"/>
-      <c r="AE175" s="149"/>
-      <c r="AF175" s="149"/>
-      <c r="AG175" s="149"/>
-      <c r="AH175" s="149"/>
-      <c r="AI175" s="149"/>
-      <c r="AJ175" s="130"/>
+      <c r="AP175" s="105"/>
     </row>
     <row r="176" spans="1:58" s="108" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="AI176" s="125"/>
-      <c r="AJ176" s="125"/>
-      <c r="AK176" s="125"/>
-      <c r="AL176" s="125"/>
-      <c r="AM176" s="125"/>
-      <c r="AN176" s="125"/>
-      <c r="AO176" s="125"/>
-      <c r="AP176" s="125"/>
-      <c r="AQ176" s="125"/>
-      <c r="AR176" s="125"/>
-      <c r="AS176" s="125"/>
-      <c r="AT176" s="125"/>
-      <c r="AU176" s="125"/>
-      <c r="AV176" s="125"/>
-      <c r="AW176" s="125"/>
-      <c r="AX176" s="125"/>
-      <c r="AY176" s="125"/>
-      <c r="AZ176" s="125"/>
-      <c r="BA176" s="125"/>
-      <c r="BB176" s="125"/>
-      <c r="BC176" s="125"/>
-      <c r="BD176" s="125"/>
-      <c r="BE176" s="125"/>
-    </row>
-    <row r="177" spans="5:58" x14ac:dyDescent="0.15">
-      <c r="E177" s="103" t="s">
+      <c r="A176" s="29"/>
+      <c r="B176" s="107"/>
+      <c r="C176" s="29"/>
+      <c r="D176" s="29"/>
+      <c r="E176" s="29"/>
+      <c r="G176" s="151"/>
+      <c r="H176" s="151"/>
+      <c r="I176" s="151"/>
+      <c r="J176" s="151"/>
+      <c r="K176" s="151"/>
+      <c r="L176" s="151"/>
+      <c r="M176" s="151"/>
+      <c r="N176" s="151"/>
+      <c r="O176" s="151"/>
+      <c r="P176" s="151"/>
+      <c r="Q176" s="151"/>
+      <c r="R176" s="151"/>
+      <c r="S176" s="151"/>
+      <c r="T176" s="151"/>
+      <c r="U176" s="151"/>
+      <c r="V176" s="151"/>
+      <c r="W176" s="151"/>
+      <c r="X176" s="151"/>
+      <c r="Y176" s="151"/>
+      <c r="Z176" s="151"/>
+      <c r="AA176" s="151"/>
+      <c r="AB176" s="151"/>
+      <c r="AC176" s="151"/>
+      <c r="AD176" s="149"/>
+      <c r="AE176" s="149"/>
+      <c r="AF176" s="149"/>
+      <c r="AG176" s="149"/>
+      <c r="AH176" s="149"/>
+      <c r="AI176" s="149"/>
+      <c r="AJ176" s="130"/>
+    </row>
+    <row r="177" spans="5:58" s="108" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AI177" s="125"/>
+      <c r="AJ177" s="125"/>
+      <c r="AK177" s="125"/>
+      <c r="AL177" s="125"/>
+      <c r="AM177" s="125"/>
+      <c r="AN177" s="125"/>
+      <c r="AO177" s="125"/>
+      <c r="AP177" s="125"/>
+      <c r="AQ177" s="125"/>
+      <c r="AR177" s="125"/>
+      <c r="AS177" s="125"/>
+      <c r="AT177" s="125"/>
+      <c r="AU177" s="125"/>
+      <c r="AV177" s="125"/>
+      <c r="AW177" s="125"/>
+      <c r="AX177" s="125"/>
+      <c r="AY177" s="125"/>
+      <c r="AZ177" s="125"/>
+      <c r="BA177" s="125"/>
+      <c r="BB177" s="125"/>
+      <c r="BC177" s="125"/>
+      <c r="BD177" s="125"/>
+      <c r="BE177" s="125"/>
+    </row>
+    <row r="178" spans="5:58" x14ac:dyDescent="0.15">
+      <c r="E178" s="103" t="s">
         <v>147</v>
       </c>
-      <c r="G177" s="107"/>
-      <c r="AJ177" s="110"/>
-      <c r="AK177" s="110"/>
-      <c r="AL177" s="110"/>
-      <c r="AM177" s="110"/>
-      <c r="AN177" s="110"/>
-      <c r="AO177" s="110"/>
-      <c r="AP177" s="110"/>
-      <c r="AQ177" s="110"/>
-      <c r="AR177" s="110"/>
-      <c r="AS177" s="110"/>
-      <c r="AT177" s="110"/>
-      <c r="AU177" s="110"/>
-      <c r="AV177" s="110"/>
-      <c r="AW177" s="110"/>
-      <c r="AX177" s="110"/>
-      <c r="AY177" s="110"/>
-      <c r="AZ177" s="110"/>
-      <c r="BA177" s="110"/>
-      <c r="BB177" s="110"/>
-      <c r="BC177" s="110"/>
-      <c r="BD177" s="110"/>
-      <c r="BE177" s="110"/>
-      <c r="BF177" s="110"/>
-    </row>
-    <row r="178" spans="5:58" x14ac:dyDescent="0.15">
-      <c r="H178" s="107"/>
+      <c r="G178" s="107"/>
       <c r="AJ178" s="110"/>
       <c r="AK178" s="110"/>
       <c r="AL178" s="110"/>
@@ -13156,10 +13203,7 @@
       <c r="BF178" s="110"/>
     </row>
     <row r="179" spans="5:58" x14ac:dyDescent="0.15">
-      <c r="E179" s="126"/>
-      <c r="F179" s="71" t="s">
-        <v>196</v>
-      </c>
+      <c r="H179" s="107"/>
       <c r="AJ179" s="110"/>
       <c r="AK179" s="110"/>
       <c r="AL179" s="110"/>
@@ -13186,8 +13230,9 @@
     </row>
     <row r="180" spans="5:58" x14ac:dyDescent="0.15">
       <c r="E180" s="126"/>
-      <c r="F180" s="71"/>
-      <c r="G180" s="71"/>
+      <c r="F180" s="71" t="s">
+        <v>187</v>
+      </c>
       <c r="AJ180" s="110"/>
       <c r="AK180" s="110"/>
       <c r="AL180" s="110"/>
@@ -13214,6 +13259,8 @@
     </row>
     <row r="181" spans="5:58" x14ac:dyDescent="0.15">
       <c r="E181" s="126"/>
+      <c r="F181" s="71"/>
+      <c r="G181" s="71"/>
       <c r="AJ181" s="110"/>
       <c r="AK181" s="110"/>
       <c r="AL181" s="110"/>
@@ -13238,38 +13285,102 @@
       <c r="BE181" s="110"/>
       <c r="BF181" s="110"/>
     </row>
+    <row r="182" spans="5:58" x14ac:dyDescent="0.15">
+      <c r="E182" s="126"/>
+      <c r="AJ182" s="110"/>
+      <c r="AK182" s="110"/>
+      <c r="AL182" s="110"/>
+      <c r="AM182" s="110"/>
+      <c r="AN182" s="110"/>
+      <c r="AO182" s="110"/>
+      <c r="AP182" s="110"/>
+      <c r="AQ182" s="110"/>
+      <c r="AR182" s="110"/>
+      <c r="AS182" s="110"/>
+      <c r="AT182" s="110"/>
+      <c r="AU182" s="110"/>
+      <c r="AV182" s="110"/>
+      <c r="AW182" s="110"/>
+      <c r="AX182" s="110"/>
+      <c r="AY182" s="110"/>
+      <c r="AZ182" s="110"/>
+      <c r="BA182" s="110"/>
+      <c r="BB182" s="110"/>
+      <c r="BC182" s="110"/>
+      <c r="BD182" s="110"/>
+      <c r="BE182" s="110"/>
+      <c r="BF182" s="110"/>
+    </row>
   </sheetData>
-  <mergeCells count="123">
-    <mergeCell ref="I152:N152"/>
-    <mergeCell ref="T152:Y152"/>
-    <mergeCell ref="Z152:AE152"/>
-    <mergeCell ref="I151:N151"/>
-    <mergeCell ref="T151:Y151"/>
-    <mergeCell ref="Z151:AE151"/>
-    <mergeCell ref="H149:H150"/>
-    <mergeCell ref="I149:N150"/>
-    <mergeCell ref="O149:Y149"/>
-    <mergeCell ref="Z149:AE150"/>
-    <mergeCell ref="O150:S150"/>
-    <mergeCell ref="T150:Y150"/>
-    <mergeCell ref="I141:N141"/>
-    <mergeCell ref="T141:Y141"/>
-    <mergeCell ref="Z141:AE141"/>
-    <mergeCell ref="Q104:Z104"/>
-    <mergeCell ref="H139:H140"/>
-    <mergeCell ref="I139:N140"/>
-    <mergeCell ref="O139:Y139"/>
-    <mergeCell ref="Z139:AE140"/>
-    <mergeCell ref="O140:S140"/>
-    <mergeCell ref="T140:Y140"/>
-    <mergeCell ref="G116:P117"/>
+  <mergeCells count="118">
+    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="G116:P116"/>
     <mergeCell ref="Q116:Z116"/>
-    <mergeCell ref="Q117:Z117"/>
-    <mergeCell ref="G118:Z118"/>
-    <mergeCell ref="G100:P105"/>
-    <mergeCell ref="Q100:Z100"/>
-    <mergeCell ref="Q105:Z105"/>
-    <mergeCell ref="G106:Z106"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="V58:AH59"/>
+    <mergeCell ref="T59:U59"/>
+    <mergeCell ref="G99:P99"/>
+    <mergeCell ref="G90:L90"/>
+    <mergeCell ref="M89:V89"/>
+    <mergeCell ref="W90:Y90"/>
+    <mergeCell ref="E69:J69"/>
+    <mergeCell ref="K69:Q69"/>
+    <mergeCell ref="R69:Y69"/>
+    <mergeCell ref="Z69:AD69"/>
+    <mergeCell ref="AE69:AH69"/>
+    <mergeCell ref="AD49:AG51"/>
+    <mergeCell ref="Z52:AB52"/>
+    <mergeCell ref="AD53:AG53"/>
+    <mergeCell ref="AD52:AG52"/>
+    <mergeCell ref="U50:Y51"/>
+    <mergeCell ref="U52:Y52"/>
+    <mergeCell ref="R68:Y68"/>
+    <mergeCell ref="Z68:AD68"/>
+    <mergeCell ref="AE68:AH68"/>
+    <mergeCell ref="AE66:AH66"/>
+    <mergeCell ref="Z66:AD66"/>
+    <mergeCell ref="AE67:AH67"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="E43:M43"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="Q43:U43"/>
+    <mergeCell ref="V43:AC43"/>
+    <mergeCell ref="E67:J67"/>
+    <mergeCell ref="Z90:AC90"/>
+    <mergeCell ref="Z89:AC89"/>
+    <mergeCell ref="M90:V90"/>
+    <mergeCell ref="R67:Y67"/>
+    <mergeCell ref="Z67:AD67"/>
+    <mergeCell ref="W89:Y89"/>
+    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="E68:J68"/>
+    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="Q44:U44"/>
+    <mergeCell ref="V44:AC44"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="M52:T52"/>
+    <mergeCell ref="E44:M44"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="AD89:AG89"/>
+    <mergeCell ref="AD90:AG90"/>
+    <mergeCell ref="G89:L89"/>
     <mergeCell ref="D49:D51"/>
     <mergeCell ref="M50:T51"/>
     <mergeCell ref="D58:D59"/>
@@ -13294,75 +13405,32 @@
     <mergeCell ref="Z50:AB51"/>
     <mergeCell ref="AC50:AC51"/>
     <mergeCell ref="M53:T53"/>
-    <mergeCell ref="E43:M43"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="Q43:U43"/>
-    <mergeCell ref="V43:AC43"/>
-    <mergeCell ref="E67:J67"/>
-    <mergeCell ref="Z90:AC90"/>
-    <mergeCell ref="Z89:AC89"/>
-    <mergeCell ref="M90:V90"/>
-    <mergeCell ref="R67:Y67"/>
-    <mergeCell ref="Z67:AD67"/>
-    <mergeCell ref="W89:Y89"/>
-    <mergeCell ref="K67:Q67"/>
-    <mergeCell ref="E68:J68"/>
-    <mergeCell ref="K68:Q68"/>
-    <mergeCell ref="Q44:U44"/>
-    <mergeCell ref="V44:AC44"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="M52:T52"/>
-    <mergeCell ref="E44:M44"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="AD89:AG89"/>
-    <mergeCell ref="AD90:AG90"/>
-    <mergeCell ref="G89:L89"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AD49:AG51"/>
-    <mergeCell ref="Z52:AB52"/>
-    <mergeCell ref="AD53:AG53"/>
-    <mergeCell ref="AD52:AG52"/>
-    <mergeCell ref="U50:Y51"/>
-    <mergeCell ref="U52:Y52"/>
-    <mergeCell ref="R68:Y68"/>
-    <mergeCell ref="Z68:AD68"/>
-    <mergeCell ref="AE68:AH68"/>
-    <mergeCell ref="AE66:AH66"/>
-    <mergeCell ref="Z66:AD66"/>
-    <mergeCell ref="AE67:AH67"/>
-    <mergeCell ref="K66:Q66"/>
-    <mergeCell ref="G115:P115"/>
-    <mergeCell ref="Q115:Z115"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="V58:AH59"/>
-    <mergeCell ref="T59:U59"/>
-    <mergeCell ref="G99:P99"/>
-    <mergeCell ref="Q99:Z99"/>
-    <mergeCell ref="G90:L90"/>
-    <mergeCell ref="M89:V89"/>
-    <mergeCell ref="W90:Y90"/>
-    <mergeCell ref="E69:J69"/>
-    <mergeCell ref="K69:Q69"/>
-    <mergeCell ref="R69:Y69"/>
-    <mergeCell ref="Z69:AD69"/>
-    <mergeCell ref="AE69:AH69"/>
+    <mergeCell ref="I142:N142"/>
+    <mergeCell ref="T142:Y142"/>
+    <mergeCell ref="Z142:AE142"/>
+    <mergeCell ref="H140:H141"/>
+    <mergeCell ref="I140:N141"/>
+    <mergeCell ref="O140:Y140"/>
+    <mergeCell ref="Z140:AE141"/>
+    <mergeCell ref="O141:S141"/>
+    <mergeCell ref="T141:Y141"/>
+    <mergeCell ref="G117:P118"/>
+    <mergeCell ref="Q117:Z117"/>
+    <mergeCell ref="Q118:Z118"/>
+    <mergeCell ref="G119:Z119"/>
+    <mergeCell ref="G100:P106"/>
+    <mergeCell ref="I153:N153"/>
+    <mergeCell ref="T153:Y153"/>
+    <mergeCell ref="Z153:AE153"/>
+    <mergeCell ref="I152:N152"/>
+    <mergeCell ref="T152:Y152"/>
+    <mergeCell ref="Z152:AE152"/>
+    <mergeCell ref="H150:H151"/>
+    <mergeCell ref="I150:N151"/>
+    <mergeCell ref="O150:Y150"/>
+    <mergeCell ref="Z150:AE151"/>
+    <mergeCell ref="O151:S151"/>
+    <mergeCell ref="T151:Y151"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="5">
@@ -13391,9 +13459,9 @@
   <rowBreaks count="5" manualBreakCount="5">
     <brk id="40" max="34" man="1"/>
     <brk id="71" max="34" man="1"/>
-    <brk id="112" max="34" man="1"/>
-    <brk id="122" max="34" man="1"/>
-    <brk id="169" max="34" man="1"/>
+    <brk id="113" max="34" man="1"/>
+    <brk id="123" max="34" man="1"/>
+    <brk id="170" max="34" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(画面)_WA10101_ログイン.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(画面)_WA10101_ログイン.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA91442-BBB2-4FA5-BFBF-3D75DCBCCDB7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C18270-DCD2-4BD5-BDD9-5136F953BCD9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'1.  画面取引定義'!$A$1:$AI$21</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'2. WA10101(ログイン画面)'!$A$1:$AI$186</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">データ!$A$1:$E$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$18</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'1.  画面取引定義'!$1:$4</definedName>
@@ -3007,9 +3007,159 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="31" fontId="8" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3052,151 +3202,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3226,18 +3241,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3289,33 +3292,15 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3324,249 +3309,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3577,6 +3319,24 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3586,6 +3346,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -3598,9 +3364,243 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="パーセント 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -4500,12 +4500,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="201">
+      <c r="I25" s="204">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v>44796</v>
       </c>
-      <c r="J25" s="201"/>
-      <c r="K25" s="201"/>
+      <c r="J25" s="204"/>
+      <c r="K25" s="204"/>
       <c r="L25" s="19"/>
     </row>
     <row r="26" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5136,57 +5136,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="254" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="203"/>
-      <c r="C1" s="203"/>
-      <c r="D1" s="204"/>
-      <c r="E1" s="250" t="s">
+      <c r="B1" s="255"/>
+      <c r="C1" s="255"/>
+      <c r="D1" s="256"/>
+      <c r="E1" s="223" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="251"/>
-      <c r="G1" s="251"/>
-      <c r="H1" s="251"/>
-      <c r="I1" s="251"/>
-      <c r="J1" s="251"/>
-      <c r="K1" s="251"/>
-      <c r="L1" s="251"/>
-      <c r="M1" s="251"/>
-      <c r="N1" s="252"/>
-      <c r="O1" s="205" t="s">
+      <c r="F1" s="224"/>
+      <c r="G1" s="224"/>
+      <c r="H1" s="224"/>
+      <c r="I1" s="224"/>
+      <c r="J1" s="224"/>
+      <c r="K1" s="224"/>
+      <c r="L1" s="224"/>
+      <c r="M1" s="224"/>
+      <c r="N1" s="225"/>
+      <c r="O1" s="257" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="206"/>
-      <c r="Q1" s="206"/>
-      <c r="R1" s="207"/>
-      <c r="S1" s="256" t="s">
+      <c r="P1" s="258"/>
+      <c r="Q1" s="258"/>
+      <c r="R1" s="259"/>
+      <c r="S1" s="235" t="s">
         <v>139</v>
       </c>
-      <c r="T1" s="257"/>
-      <c r="U1" s="257"/>
-      <c r="V1" s="257"/>
-      <c r="W1" s="257"/>
-      <c r="X1" s="257"/>
-      <c r="Y1" s="257"/>
-      <c r="Z1" s="258"/>
-      <c r="AA1" s="202" t="s">
+      <c r="T1" s="236"/>
+      <c r="U1" s="236"/>
+      <c r="V1" s="236"/>
+      <c r="W1" s="236"/>
+      <c r="X1" s="236"/>
+      <c r="Y1" s="236"/>
+      <c r="Z1" s="237"/>
+      <c r="AA1" s="254" t="s">
         <v>35</v>
       </c>
-      <c r="AB1" s="204"/>
-      <c r="AC1" s="238" t="str">
+      <c r="AB1" s="256"/>
+      <c r="AC1" s="205" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="239"/>
-      <c r="AE1" s="239"/>
-      <c r="AF1" s="240"/>
-      <c r="AG1" s="244">
+      <c r="AD1" s="206"/>
+      <c r="AE1" s="206"/>
+      <c r="AF1" s="207"/>
+      <c r="AG1" s="211">
         <f>IF(D8="","",D8)</f>
         <v>43656</v>
       </c>
-      <c r="AH1" s="245"/>
-      <c r="AI1" s="246"/>
+      <c r="AH1" s="212"/>
+      <c r="AI1" s="213"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="9"/>
@@ -5194,53 +5194,53 @@
       <c r="AN1" s="10"/>
     </row>
     <row r="2" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="202" t="s">
+      <c r="A2" s="254" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="203"/>
-      <c r="C2" s="203"/>
-      <c r="D2" s="204"/>
-      <c r="E2" s="250" t="s">
+      <c r="B2" s="255"/>
+      <c r="C2" s="255"/>
+      <c r="D2" s="256"/>
+      <c r="E2" s="223" t="s">
         <v>112</v>
       </c>
-      <c r="F2" s="251"/>
-      <c r="G2" s="251"/>
-      <c r="H2" s="251"/>
-      <c r="I2" s="251"/>
-      <c r="J2" s="251"/>
-      <c r="K2" s="251"/>
-      <c r="L2" s="251"/>
-      <c r="M2" s="251"/>
-      <c r="N2" s="252"/>
-      <c r="O2" s="208"/>
-      <c r="P2" s="209"/>
-      <c r="Q2" s="209"/>
-      <c r="R2" s="210"/>
-      <c r="S2" s="259"/>
-      <c r="T2" s="260"/>
-      <c r="U2" s="260"/>
-      <c r="V2" s="260"/>
-      <c r="W2" s="260"/>
-      <c r="X2" s="260"/>
-      <c r="Y2" s="260"/>
-      <c r="Z2" s="261"/>
-      <c r="AA2" s="202" t="s">
+      <c r="F2" s="224"/>
+      <c r="G2" s="224"/>
+      <c r="H2" s="224"/>
+      <c r="I2" s="224"/>
+      <c r="J2" s="224"/>
+      <c r="K2" s="224"/>
+      <c r="L2" s="224"/>
+      <c r="M2" s="224"/>
+      <c r="N2" s="225"/>
+      <c r="O2" s="260"/>
+      <c r="P2" s="261"/>
+      <c r="Q2" s="261"/>
+      <c r="R2" s="262"/>
+      <c r="S2" s="238"/>
+      <c r="T2" s="239"/>
+      <c r="U2" s="239"/>
+      <c r="V2" s="239"/>
+      <c r="W2" s="239"/>
+      <c r="X2" s="239"/>
+      <c r="Y2" s="239"/>
+      <c r="Z2" s="240"/>
+      <c r="AA2" s="254" t="s">
         <v>36</v>
       </c>
-      <c r="AB2" s="204"/>
-      <c r="AC2" s="247" t="str">
+      <c r="AB2" s="256"/>
+      <c r="AC2" s="214" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="248"/>
-      <c r="AE2" s="248"/>
-      <c r="AF2" s="249"/>
-      <c r="AG2" s="244">
+      <c r="AD2" s="215"/>
+      <c r="AE2" s="215"/>
+      <c r="AF2" s="216"/>
+      <c r="AG2" s="211">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="245"/>
-      <c r="AI2" s="246"/>
+      <c r="AH2" s="212"/>
+      <c r="AI2" s="213"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
@@ -5248,45 +5248,45 @@
       <c r="AN2" s="9"/>
     </row>
     <row r="3" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="202" t="s">
+      <c r="A3" s="254" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="203"/>
-      <c r="C3" s="203"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="250" t="s">
+      <c r="B3" s="255"/>
+      <c r="C3" s="255"/>
+      <c r="D3" s="256"/>
+      <c r="E3" s="223" t="s">
         <v>134</v>
       </c>
-      <c r="F3" s="251"/>
-      <c r="G3" s="251"/>
-      <c r="H3" s="251"/>
-      <c r="I3" s="251"/>
-      <c r="J3" s="251"/>
-      <c r="K3" s="251"/>
-      <c r="L3" s="251"/>
-      <c r="M3" s="251"/>
-      <c r="N3" s="252"/>
-      <c r="O3" s="211"/>
-      <c r="P3" s="212"/>
-      <c r="Q3" s="212"/>
-      <c r="R3" s="213"/>
-      <c r="S3" s="262"/>
-      <c r="T3" s="263"/>
-      <c r="U3" s="263"/>
-      <c r="V3" s="263"/>
-      <c r="W3" s="263"/>
-      <c r="X3" s="263"/>
-      <c r="Y3" s="263"/>
-      <c r="Z3" s="264"/>
-      <c r="AA3" s="214"/>
-      <c r="AB3" s="215"/>
-      <c r="AC3" s="238"/>
-      <c r="AD3" s="239"/>
-      <c r="AE3" s="239"/>
-      <c r="AF3" s="240"/>
-      <c r="AG3" s="244"/>
-      <c r="AH3" s="245"/>
-      <c r="AI3" s="246"/>
+      <c r="F3" s="224"/>
+      <c r="G3" s="224"/>
+      <c r="H3" s="224"/>
+      <c r="I3" s="224"/>
+      <c r="J3" s="224"/>
+      <c r="K3" s="224"/>
+      <c r="L3" s="224"/>
+      <c r="M3" s="224"/>
+      <c r="N3" s="225"/>
+      <c r="O3" s="263"/>
+      <c r="P3" s="264"/>
+      <c r="Q3" s="264"/>
+      <c r="R3" s="265"/>
+      <c r="S3" s="241"/>
+      <c r="T3" s="242"/>
+      <c r="U3" s="242"/>
+      <c r="V3" s="242"/>
+      <c r="W3" s="242"/>
+      <c r="X3" s="242"/>
+      <c r="Y3" s="242"/>
+      <c r="Z3" s="243"/>
+      <c r="AA3" s="266"/>
+      <c r="AB3" s="267"/>
+      <c r="AC3" s="205"/>
+      <c r="AD3" s="206"/>
+      <c r="AE3" s="206"/>
+      <c r="AF3" s="207"/>
+      <c r="AG3" s="211"/>
+      <c r="AH3" s="212"/>
+      <c r="AI3" s="213"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
@@ -5425,1042 +5425,1042 @@
       <c r="A7" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="228" t="s">
+      <c r="B7" s="220" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="229"/>
-      <c r="D7" s="228" t="s">
+      <c r="C7" s="222"/>
+      <c r="D7" s="220" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="230"/>
-      <c r="F7" s="229"/>
-      <c r="G7" s="228" t="s">
+      <c r="E7" s="221"/>
+      <c r="F7" s="222"/>
+      <c r="G7" s="220" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="230"/>
-      <c r="I7" s="229"/>
-      <c r="J7" s="228" t="s">
+      <c r="H7" s="221"/>
+      <c r="I7" s="222"/>
+      <c r="J7" s="220" t="s">
         <v>85</v>
       </c>
-      <c r="K7" s="230"/>
-      <c r="L7" s="230"/>
-      <c r="M7" s="230"/>
-      <c r="N7" s="230"/>
-      <c r="O7" s="230"/>
-      <c r="P7" s="229"/>
-      <c r="Q7" s="228" t="s">
+      <c r="K7" s="221"/>
+      <c r="L7" s="221"/>
+      <c r="M7" s="221"/>
+      <c r="N7" s="221"/>
+      <c r="O7" s="221"/>
+      <c r="P7" s="222"/>
+      <c r="Q7" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="230"/>
-      <c r="S7" s="230"/>
-      <c r="T7" s="230"/>
-      <c r="U7" s="230"/>
-      <c r="V7" s="230"/>
-      <c r="W7" s="230"/>
-      <c r="X7" s="230"/>
-      <c r="Y7" s="230"/>
-      <c r="Z7" s="230"/>
-      <c r="AA7" s="230"/>
-      <c r="AB7" s="230"/>
-      <c r="AC7" s="230"/>
-      <c r="AD7" s="230"/>
-      <c r="AE7" s="229"/>
-      <c r="AF7" s="228" t="s">
+      <c r="R7" s="221"/>
+      <c r="S7" s="221"/>
+      <c r="T7" s="221"/>
+      <c r="U7" s="221"/>
+      <c r="V7" s="221"/>
+      <c r="W7" s="221"/>
+      <c r="X7" s="221"/>
+      <c r="Y7" s="221"/>
+      <c r="Z7" s="221"/>
+      <c r="AA7" s="221"/>
+      <c r="AB7" s="221"/>
+      <c r="AC7" s="221"/>
+      <c r="AD7" s="221"/>
+      <c r="AE7" s="222"/>
+      <c r="AF7" s="220" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="230"/>
-      <c r="AH7" s="230"/>
-      <c r="AI7" s="229"/>
+      <c r="AG7" s="221"/>
+      <c r="AH7" s="221"/>
+      <c r="AI7" s="222"/>
     </row>
     <row r="8" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="56">
         <v>1</v>
       </c>
-      <c r="B8" s="231" t="s">
+      <c r="B8" s="247" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="232"/>
-      <c r="D8" s="233">
+      <c r="C8" s="248"/>
+      <c r="D8" s="249">
         <v>43656</v>
       </c>
-      <c r="E8" s="234"/>
-      <c r="F8" s="235"/>
-      <c r="G8" s="236" t="s">
+      <c r="E8" s="250"/>
+      <c r="F8" s="251"/>
+      <c r="G8" s="252" t="s">
         <v>107</v>
       </c>
-      <c r="H8" s="237"/>
-      <c r="I8" s="232"/>
-      <c r="J8" s="253" t="s">
+      <c r="H8" s="253"/>
+      <c r="I8" s="248"/>
+      <c r="J8" s="232" t="s">
         <v>108</v>
       </c>
-      <c r="K8" s="254"/>
-      <c r="L8" s="254"/>
-      <c r="M8" s="254"/>
-      <c r="N8" s="254"/>
-      <c r="O8" s="254"/>
-      <c r="P8" s="255"/>
-      <c r="Q8" s="241" t="s">
+      <c r="K8" s="233"/>
+      <c r="L8" s="233"/>
+      <c r="M8" s="233"/>
+      <c r="N8" s="233"/>
+      <c r="O8" s="233"/>
+      <c r="P8" s="234"/>
+      <c r="Q8" s="208" t="s">
         <v>109</v>
       </c>
-      <c r="R8" s="242"/>
-      <c r="S8" s="242"/>
-      <c r="T8" s="242"/>
-      <c r="U8" s="242"/>
-      <c r="V8" s="242"/>
-      <c r="W8" s="242"/>
-      <c r="X8" s="242"/>
-      <c r="Y8" s="242"/>
-      <c r="Z8" s="242"/>
-      <c r="AA8" s="242"/>
-      <c r="AB8" s="242"/>
-      <c r="AC8" s="242"/>
-      <c r="AD8" s="242"/>
-      <c r="AE8" s="243"/>
-      <c r="AF8" s="253" t="s">
+      <c r="R8" s="209"/>
+      <c r="S8" s="209"/>
+      <c r="T8" s="209"/>
+      <c r="U8" s="209"/>
+      <c r="V8" s="209"/>
+      <c r="W8" s="209"/>
+      <c r="X8" s="209"/>
+      <c r="Y8" s="209"/>
+      <c r="Z8" s="209"/>
+      <c r="AA8" s="209"/>
+      <c r="AB8" s="209"/>
+      <c r="AC8" s="209"/>
+      <c r="AD8" s="209"/>
+      <c r="AE8" s="210"/>
+      <c r="AF8" s="232" t="s">
         <v>110</v>
       </c>
-      <c r="AG8" s="254"/>
-      <c r="AH8" s="254"/>
-      <c r="AI8" s="255"/>
+      <c r="AG8" s="233"/>
+      <c r="AH8" s="233"/>
+      <c r="AI8" s="234"/>
     </row>
     <row r="9" spans="1:40" s="55" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="57">
         <v>2</v>
       </c>
-      <c r="B9" s="222" t="s">
+      <c r="B9" s="217" t="s">
         <v>179</v>
       </c>
-      <c r="C9" s="223"/>
-      <c r="D9" s="224">
+      <c r="C9" s="219"/>
+      <c r="D9" s="244">
         <v>44796</v>
       </c>
-      <c r="E9" s="225"/>
-      <c r="F9" s="226"/>
-      <c r="G9" s="222" t="s">
+      <c r="E9" s="245"/>
+      <c r="F9" s="246"/>
+      <c r="G9" s="217" t="s">
         <v>180</v>
       </c>
-      <c r="H9" s="227"/>
-      <c r="I9" s="223"/>
-      <c r="J9" s="216" t="s">
+      <c r="H9" s="218"/>
+      <c r="I9" s="219"/>
+      <c r="J9" s="226" t="s">
         <v>191</v>
       </c>
-      <c r="K9" s="220"/>
-      <c r="L9" s="220"/>
-      <c r="M9" s="220"/>
-      <c r="N9" s="220"/>
-      <c r="O9" s="220"/>
-      <c r="P9" s="221"/>
-      <c r="Q9" s="216" t="s">
+      <c r="K9" s="230"/>
+      <c r="L9" s="230"/>
+      <c r="M9" s="230"/>
+      <c r="N9" s="230"/>
+      <c r="O9" s="230"/>
+      <c r="P9" s="231"/>
+      <c r="Q9" s="226" t="s">
         <v>209</v>
       </c>
-      <c r="R9" s="217"/>
-      <c r="S9" s="217"/>
-      <c r="T9" s="217"/>
-      <c r="U9" s="217"/>
-      <c r="V9" s="217"/>
-      <c r="W9" s="217"/>
-      <c r="X9" s="217"/>
-      <c r="Y9" s="217"/>
-      <c r="Z9" s="217"/>
-      <c r="AA9" s="217"/>
-      <c r="AB9" s="217"/>
-      <c r="AC9" s="217"/>
-      <c r="AD9" s="217"/>
-      <c r="AE9" s="218"/>
-      <c r="AF9" s="219" t="s">
+      <c r="R9" s="227"/>
+      <c r="S9" s="227"/>
+      <c r="T9" s="227"/>
+      <c r="U9" s="227"/>
+      <c r="V9" s="227"/>
+      <c r="W9" s="227"/>
+      <c r="X9" s="227"/>
+      <c r="Y9" s="227"/>
+      <c r="Z9" s="227"/>
+      <c r="AA9" s="227"/>
+      <c r="AB9" s="227"/>
+      <c r="AC9" s="227"/>
+      <c r="AD9" s="227"/>
+      <c r="AE9" s="228"/>
+      <c r="AF9" s="229" t="s">
         <v>178</v>
       </c>
-      <c r="AG9" s="220"/>
-      <c r="AH9" s="220"/>
-      <c r="AI9" s="221"/>
+      <c r="AG9" s="230"/>
+      <c r="AH9" s="230"/>
+      <c r="AI9" s="231"/>
     </row>
     <row r="10" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="57"/>
-      <c r="B10" s="222"/>
-      <c r="C10" s="223"/>
-      <c r="D10" s="224"/>
-      <c r="E10" s="225"/>
-      <c r="F10" s="226"/>
-      <c r="G10" s="222"/>
-      <c r="H10" s="227"/>
-      <c r="I10" s="223"/>
-      <c r="J10" s="219"/>
-      <c r="K10" s="220"/>
-      <c r="L10" s="220"/>
-      <c r="M10" s="220"/>
-      <c r="N10" s="220"/>
-      <c r="O10" s="220"/>
-      <c r="P10" s="221"/>
-      <c r="Q10" s="216"/>
-      <c r="R10" s="217"/>
-      <c r="S10" s="217"/>
-      <c r="T10" s="217"/>
-      <c r="U10" s="217"/>
-      <c r="V10" s="217"/>
-      <c r="W10" s="217"/>
-      <c r="X10" s="217"/>
-      <c r="Y10" s="217"/>
-      <c r="Z10" s="217"/>
-      <c r="AA10" s="217"/>
-      <c r="AB10" s="217"/>
-      <c r="AC10" s="217"/>
-      <c r="AD10" s="217"/>
-      <c r="AE10" s="218"/>
-      <c r="AF10" s="219"/>
-      <c r="AG10" s="220"/>
-      <c r="AH10" s="220"/>
-      <c r="AI10" s="221"/>
+      <c r="B10" s="217"/>
+      <c r="C10" s="219"/>
+      <c r="D10" s="244"/>
+      <c r="E10" s="245"/>
+      <c r="F10" s="246"/>
+      <c r="G10" s="217"/>
+      <c r="H10" s="218"/>
+      <c r="I10" s="219"/>
+      <c r="J10" s="229"/>
+      <c r="K10" s="230"/>
+      <c r="L10" s="230"/>
+      <c r="M10" s="230"/>
+      <c r="N10" s="230"/>
+      <c r="O10" s="230"/>
+      <c r="P10" s="231"/>
+      <c r="Q10" s="226"/>
+      <c r="R10" s="227"/>
+      <c r="S10" s="227"/>
+      <c r="T10" s="227"/>
+      <c r="U10" s="227"/>
+      <c r="V10" s="227"/>
+      <c r="W10" s="227"/>
+      <c r="X10" s="227"/>
+      <c r="Y10" s="227"/>
+      <c r="Z10" s="227"/>
+      <c r="AA10" s="227"/>
+      <c r="AB10" s="227"/>
+      <c r="AC10" s="227"/>
+      <c r="AD10" s="227"/>
+      <c r="AE10" s="228"/>
+      <c r="AF10" s="229"/>
+      <c r="AG10" s="230"/>
+      <c r="AH10" s="230"/>
+      <c r="AI10" s="231"/>
     </row>
     <row r="11" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="57"/>
-      <c r="B11" s="222"/>
-      <c r="C11" s="223"/>
-      <c r="D11" s="224"/>
-      <c r="E11" s="225"/>
-      <c r="F11" s="226"/>
-      <c r="G11" s="222"/>
-      <c r="H11" s="227"/>
-      <c r="I11" s="223"/>
-      <c r="J11" s="219"/>
-      <c r="K11" s="220"/>
-      <c r="L11" s="220"/>
-      <c r="M11" s="220"/>
-      <c r="N11" s="220"/>
-      <c r="O11" s="220"/>
-      <c r="P11" s="221"/>
-      <c r="Q11" s="216"/>
-      <c r="R11" s="217"/>
-      <c r="S11" s="217"/>
-      <c r="T11" s="217"/>
-      <c r="U11" s="217"/>
-      <c r="V11" s="217"/>
-      <c r="W11" s="217"/>
-      <c r="X11" s="217"/>
-      <c r="Y11" s="217"/>
-      <c r="Z11" s="217"/>
-      <c r="AA11" s="217"/>
-      <c r="AB11" s="217"/>
-      <c r="AC11" s="217"/>
-      <c r="AD11" s="217"/>
-      <c r="AE11" s="218"/>
-      <c r="AF11" s="219"/>
-      <c r="AG11" s="220"/>
-      <c r="AH11" s="220"/>
-      <c r="AI11" s="221"/>
+      <c r="B11" s="217"/>
+      <c r="C11" s="219"/>
+      <c r="D11" s="244"/>
+      <c r="E11" s="245"/>
+      <c r="F11" s="246"/>
+      <c r="G11" s="217"/>
+      <c r="H11" s="218"/>
+      <c r="I11" s="219"/>
+      <c r="J11" s="229"/>
+      <c r="K11" s="230"/>
+      <c r="L11" s="230"/>
+      <c r="M11" s="230"/>
+      <c r="N11" s="230"/>
+      <c r="O11" s="230"/>
+      <c r="P11" s="231"/>
+      <c r="Q11" s="226"/>
+      <c r="R11" s="227"/>
+      <c r="S11" s="227"/>
+      <c r="T11" s="227"/>
+      <c r="U11" s="227"/>
+      <c r="V11" s="227"/>
+      <c r="W11" s="227"/>
+      <c r="X11" s="227"/>
+      <c r="Y11" s="227"/>
+      <c r="Z11" s="227"/>
+      <c r="AA11" s="227"/>
+      <c r="AB11" s="227"/>
+      <c r="AC11" s="227"/>
+      <c r="AD11" s="227"/>
+      <c r="AE11" s="228"/>
+      <c r="AF11" s="229"/>
+      <c r="AG11" s="230"/>
+      <c r="AH11" s="230"/>
+      <c r="AI11" s="231"/>
     </row>
     <row r="12" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="57"/>
-      <c r="B12" s="222"/>
-      <c r="C12" s="223"/>
-      <c r="D12" s="224"/>
-      <c r="E12" s="225"/>
-      <c r="F12" s="226"/>
-      <c r="G12" s="222"/>
-      <c r="H12" s="227"/>
-      <c r="I12" s="223"/>
-      <c r="J12" s="219"/>
-      <c r="K12" s="220"/>
-      <c r="L12" s="220"/>
-      <c r="M12" s="220"/>
-      <c r="N12" s="220"/>
-      <c r="O12" s="220"/>
-      <c r="P12" s="221"/>
-      <c r="Q12" s="216"/>
-      <c r="R12" s="217"/>
-      <c r="S12" s="217"/>
-      <c r="T12" s="217"/>
-      <c r="U12" s="217"/>
-      <c r="V12" s="217"/>
-      <c r="W12" s="217"/>
-      <c r="X12" s="217"/>
-      <c r="Y12" s="217"/>
-      <c r="Z12" s="217"/>
-      <c r="AA12" s="217"/>
-      <c r="AB12" s="217"/>
-      <c r="AC12" s="217"/>
-      <c r="AD12" s="217"/>
-      <c r="AE12" s="218"/>
-      <c r="AF12" s="219"/>
-      <c r="AG12" s="220"/>
-      <c r="AH12" s="220"/>
-      <c r="AI12" s="221"/>
+      <c r="B12" s="217"/>
+      <c r="C12" s="219"/>
+      <c r="D12" s="244"/>
+      <c r="E12" s="245"/>
+      <c r="F12" s="246"/>
+      <c r="G12" s="217"/>
+      <c r="H12" s="218"/>
+      <c r="I12" s="219"/>
+      <c r="J12" s="229"/>
+      <c r="K12" s="230"/>
+      <c r="L12" s="230"/>
+      <c r="M12" s="230"/>
+      <c r="N12" s="230"/>
+      <c r="O12" s="230"/>
+      <c r="P12" s="231"/>
+      <c r="Q12" s="226"/>
+      <c r="R12" s="227"/>
+      <c r="S12" s="227"/>
+      <c r="T12" s="227"/>
+      <c r="U12" s="227"/>
+      <c r="V12" s="227"/>
+      <c r="W12" s="227"/>
+      <c r="X12" s="227"/>
+      <c r="Y12" s="227"/>
+      <c r="Z12" s="227"/>
+      <c r="AA12" s="227"/>
+      <c r="AB12" s="227"/>
+      <c r="AC12" s="227"/>
+      <c r="AD12" s="227"/>
+      <c r="AE12" s="228"/>
+      <c r="AF12" s="229"/>
+      <c r="AG12" s="230"/>
+      <c r="AH12" s="230"/>
+      <c r="AI12" s="231"/>
     </row>
     <row r="13" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="57"/>
-      <c r="B13" s="222"/>
-      <c r="C13" s="223"/>
-      <c r="D13" s="224"/>
-      <c r="E13" s="225"/>
-      <c r="F13" s="226"/>
-      <c r="G13" s="222"/>
-      <c r="H13" s="227"/>
-      <c r="I13" s="223"/>
-      <c r="J13" s="219"/>
-      <c r="K13" s="220"/>
-      <c r="L13" s="220"/>
-      <c r="M13" s="220"/>
-      <c r="N13" s="220"/>
-      <c r="O13" s="220"/>
-      <c r="P13" s="221"/>
-      <c r="Q13" s="216"/>
-      <c r="R13" s="217"/>
-      <c r="S13" s="217"/>
-      <c r="T13" s="217"/>
-      <c r="U13" s="217"/>
-      <c r="V13" s="217"/>
-      <c r="W13" s="217"/>
-      <c r="X13" s="217"/>
-      <c r="Y13" s="217"/>
-      <c r="Z13" s="217"/>
-      <c r="AA13" s="217"/>
-      <c r="AB13" s="217"/>
-      <c r="AC13" s="217"/>
-      <c r="AD13" s="217"/>
-      <c r="AE13" s="218"/>
-      <c r="AF13" s="219"/>
-      <c r="AG13" s="220"/>
-      <c r="AH13" s="220"/>
-      <c r="AI13" s="221"/>
+      <c r="B13" s="217"/>
+      <c r="C13" s="219"/>
+      <c r="D13" s="244"/>
+      <c r="E13" s="245"/>
+      <c r="F13" s="246"/>
+      <c r="G13" s="217"/>
+      <c r="H13" s="218"/>
+      <c r="I13" s="219"/>
+      <c r="J13" s="229"/>
+      <c r="K13" s="230"/>
+      <c r="L13" s="230"/>
+      <c r="M13" s="230"/>
+      <c r="N13" s="230"/>
+      <c r="O13" s="230"/>
+      <c r="P13" s="231"/>
+      <c r="Q13" s="226"/>
+      <c r="R13" s="227"/>
+      <c r="S13" s="227"/>
+      <c r="T13" s="227"/>
+      <c r="U13" s="227"/>
+      <c r="V13" s="227"/>
+      <c r="W13" s="227"/>
+      <c r="X13" s="227"/>
+      <c r="Y13" s="227"/>
+      <c r="Z13" s="227"/>
+      <c r="AA13" s="227"/>
+      <c r="AB13" s="227"/>
+      <c r="AC13" s="227"/>
+      <c r="AD13" s="227"/>
+      <c r="AE13" s="228"/>
+      <c r="AF13" s="229"/>
+      <c r="AG13" s="230"/>
+      <c r="AH13" s="230"/>
+      <c r="AI13" s="231"/>
     </row>
     <row r="14" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="57"/>
-      <c r="B14" s="222"/>
-      <c r="C14" s="223"/>
-      <c r="D14" s="224"/>
-      <c r="E14" s="225"/>
-      <c r="F14" s="226"/>
-      <c r="G14" s="222"/>
-      <c r="H14" s="227"/>
-      <c r="I14" s="223"/>
-      <c r="J14" s="219"/>
-      <c r="K14" s="220"/>
-      <c r="L14" s="220"/>
-      <c r="M14" s="220"/>
-      <c r="N14" s="220"/>
-      <c r="O14" s="220"/>
-      <c r="P14" s="221"/>
-      <c r="Q14" s="216"/>
-      <c r="R14" s="217"/>
-      <c r="S14" s="217"/>
-      <c r="T14" s="217"/>
-      <c r="U14" s="217"/>
-      <c r="V14" s="217"/>
-      <c r="W14" s="217"/>
-      <c r="X14" s="217"/>
-      <c r="Y14" s="217"/>
-      <c r="Z14" s="217"/>
-      <c r="AA14" s="217"/>
-      <c r="AB14" s="217"/>
-      <c r="AC14" s="217"/>
-      <c r="AD14" s="217"/>
-      <c r="AE14" s="218"/>
-      <c r="AF14" s="219"/>
-      <c r="AG14" s="220"/>
-      <c r="AH14" s="220"/>
-      <c r="AI14" s="221"/>
+      <c r="B14" s="217"/>
+      <c r="C14" s="219"/>
+      <c r="D14" s="244"/>
+      <c r="E14" s="245"/>
+      <c r="F14" s="246"/>
+      <c r="G14" s="217"/>
+      <c r="H14" s="218"/>
+      <c r="I14" s="219"/>
+      <c r="J14" s="229"/>
+      <c r="K14" s="230"/>
+      <c r="L14" s="230"/>
+      <c r="M14" s="230"/>
+      <c r="N14" s="230"/>
+      <c r="O14" s="230"/>
+      <c r="P14" s="231"/>
+      <c r="Q14" s="226"/>
+      <c r="R14" s="227"/>
+      <c r="S14" s="227"/>
+      <c r="T14" s="227"/>
+      <c r="U14" s="227"/>
+      <c r="V14" s="227"/>
+      <c r="W14" s="227"/>
+      <c r="X14" s="227"/>
+      <c r="Y14" s="227"/>
+      <c r="Z14" s="227"/>
+      <c r="AA14" s="227"/>
+      <c r="AB14" s="227"/>
+      <c r="AC14" s="227"/>
+      <c r="AD14" s="227"/>
+      <c r="AE14" s="228"/>
+      <c r="AF14" s="229"/>
+      <c r="AG14" s="230"/>
+      <c r="AH14" s="230"/>
+      <c r="AI14" s="231"/>
     </row>
     <row r="15" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="57"/>
-      <c r="B15" s="222"/>
-      <c r="C15" s="223"/>
-      <c r="D15" s="224"/>
-      <c r="E15" s="225"/>
-      <c r="F15" s="226"/>
-      <c r="G15" s="222"/>
-      <c r="H15" s="227"/>
-      <c r="I15" s="223"/>
-      <c r="J15" s="219"/>
-      <c r="K15" s="220"/>
-      <c r="L15" s="220"/>
-      <c r="M15" s="220"/>
-      <c r="N15" s="220"/>
-      <c r="O15" s="220"/>
-      <c r="P15" s="221"/>
-      <c r="Q15" s="216"/>
-      <c r="R15" s="217"/>
-      <c r="S15" s="217"/>
-      <c r="T15" s="217"/>
-      <c r="U15" s="217"/>
-      <c r="V15" s="217"/>
-      <c r="W15" s="217"/>
-      <c r="X15" s="217"/>
-      <c r="Y15" s="217"/>
-      <c r="Z15" s="217"/>
-      <c r="AA15" s="217"/>
-      <c r="AB15" s="217"/>
-      <c r="AC15" s="217"/>
-      <c r="AD15" s="217"/>
-      <c r="AE15" s="218"/>
-      <c r="AF15" s="219"/>
-      <c r="AG15" s="220"/>
-      <c r="AH15" s="220"/>
-      <c r="AI15" s="221"/>
+      <c r="B15" s="217"/>
+      <c r="C15" s="219"/>
+      <c r="D15" s="244"/>
+      <c r="E15" s="245"/>
+      <c r="F15" s="246"/>
+      <c r="G15" s="217"/>
+      <c r="H15" s="218"/>
+      <c r="I15" s="219"/>
+      <c r="J15" s="229"/>
+      <c r="K15" s="230"/>
+      <c r="L15" s="230"/>
+      <c r="M15" s="230"/>
+      <c r="N15" s="230"/>
+      <c r="O15" s="230"/>
+      <c r="P15" s="231"/>
+      <c r="Q15" s="226"/>
+      <c r="R15" s="227"/>
+      <c r="S15" s="227"/>
+      <c r="T15" s="227"/>
+      <c r="U15" s="227"/>
+      <c r="V15" s="227"/>
+      <c r="W15" s="227"/>
+      <c r="X15" s="227"/>
+      <c r="Y15" s="227"/>
+      <c r="Z15" s="227"/>
+      <c r="AA15" s="227"/>
+      <c r="AB15" s="227"/>
+      <c r="AC15" s="227"/>
+      <c r="AD15" s="227"/>
+      <c r="AE15" s="228"/>
+      <c r="AF15" s="229"/>
+      <c r="AG15" s="230"/>
+      <c r="AH15" s="230"/>
+      <c r="AI15" s="231"/>
     </row>
     <row r="16" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="57"/>
-      <c r="B16" s="222"/>
-      <c r="C16" s="223"/>
-      <c r="D16" s="224"/>
-      <c r="E16" s="225"/>
-      <c r="F16" s="226"/>
-      <c r="G16" s="222"/>
-      <c r="H16" s="227"/>
-      <c r="I16" s="223"/>
-      <c r="J16" s="219"/>
-      <c r="K16" s="220"/>
-      <c r="L16" s="220"/>
-      <c r="M16" s="220"/>
-      <c r="N16" s="220"/>
-      <c r="O16" s="220"/>
-      <c r="P16" s="221"/>
-      <c r="Q16" s="216"/>
-      <c r="R16" s="217"/>
-      <c r="S16" s="217"/>
-      <c r="T16" s="217"/>
-      <c r="U16" s="217"/>
-      <c r="V16" s="217"/>
-      <c r="W16" s="217"/>
-      <c r="X16" s="217"/>
-      <c r="Y16" s="217"/>
-      <c r="Z16" s="217"/>
-      <c r="AA16" s="217"/>
-      <c r="AB16" s="217"/>
-      <c r="AC16" s="217"/>
-      <c r="AD16" s="217"/>
-      <c r="AE16" s="218"/>
-      <c r="AF16" s="219"/>
-      <c r="AG16" s="220"/>
-      <c r="AH16" s="220"/>
-      <c r="AI16" s="221"/>
+      <c r="B16" s="217"/>
+      <c r="C16" s="219"/>
+      <c r="D16" s="244"/>
+      <c r="E16" s="245"/>
+      <c r="F16" s="246"/>
+      <c r="G16" s="217"/>
+      <c r="H16" s="218"/>
+      <c r="I16" s="219"/>
+      <c r="J16" s="229"/>
+      <c r="K16" s="230"/>
+      <c r="L16" s="230"/>
+      <c r="M16" s="230"/>
+      <c r="N16" s="230"/>
+      <c r="O16" s="230"/>
+      <c r="P16" s="231"/>
+      <c r="Q16" s="226"/>
+      <c r="R16" s="227"/>
+      <c r="S16" s="227"/>
+      <c r="T16" s="227"/>
+      <c r="U16" s="227"/>
+      <c r="V16" s="227"/>
+      <c r="W16" s="227"/>
+      <c r="X16" s="227"/>
+      <c r="Y16" s="227"/>
+      <c r="Z16" s="227"/>
+      <c r="AA16" s="227"/>
+      <c r="AB16" s="227"/>
+      <c r="AC16" s="227"/>
+      <c r="AD16" s="227"/>
+      <c r="AE16" s="228"/>
+      <c r="AF16" s="229"/>
+      <c r="AG16" s="230"/>
+      <c r="AH16" s="230"/>
+      <c r="AI16" s="231"/>
     </row>
     <row r="17" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="57"/>
-      <c r="B17" s="222"/>
-      <c r="C17" s="223"/>
-      <c r="D17" s="224"/>
-      <c r="E17" s="225"/>
-      <c r="F17" s="226"/>
-      <c r="G17" s="222"/>
-      <c r="H17" s="227"/>
-      <c r="I17" s="223"/>
-      <c r="J17" s="219"/>
-      <c r="K17" s="220"/>
-      <c r="L17" s="220"/>
-      <c r="M17" s="220"/>
-      <c r="N17" s="220"/>
-      <c r="O17" s="220"/>
-      <c r="P17" s="221"/>
-      <c r="Q17" s="216"/>
-      <c r="R17" s="217"/>
-      <c r="S17" s="217"/>
-      <c r="T17" s="217"/>
-      <c r="U17" s="217"/>
-      <c r="V17" s="217"/>
-      <c r="W17" s="217"/>
-      <c r="X17" s="217"/>
-      <c r="Y17" s="217"/>
-      <c r="Z17" s="217"/>
-      <c r="AA17" s="217"/>
-      <c r="AB17" s="217"/>
-      <c r="AC17" s="217"/>
-      <c r="AD17" s="217"/>
-      <c r="AE17" s="218"/>
-      <c r="AF17" s="219"/>
-      <c r="AG17" s="220"/>
-      <c r="AH17" s="220"/>
-      <c r="AI17" s="221"/>
+      <c r="B17" s="217"/>
+      <c r="C17" s="219"/>
+      <c r="D17" s="244"/>
+      <c r="E17" s="245"/>
+      <c r="F17" s="246"/>
+      <c r="G17" s="217"/>
+      <c r="H17" s="218"/>
+      <c r="I17" s="219"/>
+      <c r="J17" s="229"/>
+      <c r="K17" s="230"/>
+      <c r="L17" s="230"/>
+      <c r="M17" s="230"/>
+      <c r="N17" s="230"/>
+      <c r="O17" s="230"/>
+      <c r="P17" s="231"/>
+      <c r="Q17" s="226"/>
+      <c r="R17" s="227"/>
+      <c r="S17" s="227"/>
+      <c r="T17" s="227"/>
+      <c r="U17" s="227"/>
+      <c r="V17" s="227"/>
+      <c r="W17" s="227"/>
+      <c r="X17" s="227"/>
+      <c r="Y17" s="227"/>
+      <c r="Z17" s="227"/>
+      <c r="AA17" s="227"/>
+      <c r="AB17" s="227"/>
+      <c r="AC17" s="227"/>
+      <c r="AD17" s="227"/>
+      <c r="AE17" s="228"/>
+      <c r="AF17" s="229"/>
+      <c r="AG17" s="230"/>
+      <c r="AH17" s="230"/>
+      <c r="AI17" s="231"/>
     </row>
     <row r="18" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="57"/>
-      <c r="B18" s="222"/>
-      <c r="C18" s="223"/>
-      <c r="D18" s="224"/>
-      <c r="E18" s="225"/>
-      <c r="F18" s="226"/>
-      <c r="G18" s="222"/>
-      <c r="H18" s="227"/>
-      <c r="I18" s="223"/>
-      <c r="J18" s="219"/>
-      <c r="K18" s="220"/>
-      <c r="L18" s="220"/>
-      <c r="M18" s="220"/>
-      <c r="N18" s="220"/>
-      <c r="O18" s="220"/>
-      <c r="P18" s="221"/>
-      <c r="Q18" s="216"/>
-      <c r="R18" s="217"/>
-      <c r="S18" s="217"/>
-      <c r="T18" s="217"/>
-      <c r="U18" s="217"/>
-      <c r="V18" s="217"/>
-      <c r="W18" s="217"/>
-      <c r="X18" s="217"/>
-      <c r="Y18" s="217"/>
-      <c r="Z18" s="217"/>
-      <c r="AA18" s="217"/>
-      <c r="AB18" s="217"/>
-      <c r="AC18" s="217"/>
-      <c r="AD18" s="217"/>
-      <c r="AE18" s="218"/>
-      <c r="AF18" s="219"/>
-      <c r="AG18" s="220"/>
-      <c r="AH18" s="220"/>
-      <c r="AI18" s="221"/>
+      <c r="B18" s="217"/>
+      <c r="C18" s="219"/>
+      <c r="D18" s="244"/>
+      <c r="E18" s="245"/>
+      <c r="F18" s="246"/>
+      <c r="G18" s="217"/>
+      <c r="H18" s="218"/>
+      <c r="I18" s="219"/>
+      <c r="J18" s="229"/>
+      <c r="K18" s="230"/>
+      <c r="L18" s="230"/>
+      <c r="M18" s="230"/>
+      <c r="N18" s="230"/>
+      <c r="O18" s="230"/>
+      <c r="P18" s="231"/>
+      <c r="Q18" s="226"/>
+      <c r="R18" s="227"/>
+      <c r="S18" s="227"/>
+      <c r="T18" s="227"/>
+      <c r="U18" s="227"/>
+      <c r="V18" s="227"/>
+      <c r="W18" s="227"/>
+      <c r="X18" s="227"/>
+      <c r="Y18" s="227"/>
+      <c r="Z18" s="227"/>
+      <c r="AA18" s="227"/>
+      <c r="AB18" s="227"/>
+      <c r="AC18" s="227"/>
+      <c r="AD18" s="227"/>
+      <c r="AE18" s="228"/>
+      <c r="AF18" s="229"/>
+      <c r="AG18" s="230"/>
+      <c r="AH18" s="230"/>
+      <c r="AI18" s="231"/>
     </row>
     <row r="19" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="57"/>
-      <c r="B19" s="222"/>
-      <c r="C19" s="223"/>
-      <c r="D19" s="224"/>
-      <c r="E19" s="225"/>
-      <c r="F19" s="226"/>
-      <c r="G19" s="222"/>
-      <c r="H19" s="227"/>
-      <c r="I19" s="223"/>
-      <c r="J19" s="219"/>
-      <c r="K19" s="220"/>
-      <c r="L19" s="220"/>
-      <c r="M19" s="220"/>
-      <c r="N19" s="220"/>
-      <c r="O19" s="220"/>
-      <c r="P19" s="221"/>
-      <c r="Q19" s="216"/>
-      <c r="R19" s="217"/>
-      <c r="S19" s="217"/>
-      <c r="T19" s="217"/>
-      <c r="U19" s="217"/>
-      <c r="V19" s="217"/>
-      <c r="W19" s="217"/>
-      <c r="X19" s="217"/>
-      <c r="Y19" s="217"/>
-      <c r="Z19" s="217"/>
-      <c r="AA19" s="217"/>
-      <c r="AB19" s="217"/>
-      <c r="AC19" s="217"/>
-      <c r="AD19" s="217"/>
-      <c r="AE19" s="218"/>
-      <c r="AF19" s="219"/>
-      <c r="AG19" s="220"/>
-      <c r="AH19" s="220"/>
-      <c r="AI19" s="221"/>
+      <c r="B19" s="217"/>
+      <c r="C19" s="219"/>
+      <c r="D19" s="244"/>
+      <c r="E19" s="245"/>
+      <c r="F19" s="246"/>
+      <c r="G19" s="217"/>
+      <c r="H19" s="218"/>
+      <c r="I19" s="219"/>
+      <c r="J19" s="229"/>
+      <c r="K19" s="230"/>
+      <c r="L19" s="230"/>
+      <c r="M19" s="230"/>
+      <c r="N19" s="230"/>
+      <c r="O19" s="230"/>
+      <c r="P19" s="231"/>
+      <c r="Q19" s="226"/>
+      <c r="R19" s="227"/>
+      <c r="S19" s="227"/>
+      <c r="T19" s="227"/>
+      <c r="U19" s="227"/>
+      <c r="V19" s="227"/>
+      <c r="W19" s="227"/>
+      <c r="X19" s="227"/>
+      <c r="Y19" s="227"/>
+      <c r="Z19" s="227"/>
+      <c r="AA19" s="227"/>
+      <c r="AB19" s="227"/>
+      <c r="AC19" s="227"/>
+      <c r="AD19" s="227"/>
+      <c r="AE19" s="228"/>
+      <c r="AF19" s="229"/>
+      <c r="AG19" s="230"/>
+      <c r="AH19" s="230"/>
+      <c r="AI19" s="231"/>
     </row>
     <row r="20" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="57"/>
-      <c r="B20" s="222"/>
-      <c r="C20" s="223"/>
-      <c r="D20" s="224"/>
-      <c r="E20" s="225"/>
-      <c r="F20" s="226"/>
-      <c r="G20" s="222"/>
-      <c r="H20" s="227"/>
-      <c r="I20" s="223"/>
-      <c r="J20" s="219"/>
-      <c r="K20" s="220"/>
-      <c r="L20" s="220"/>
-      <c r="M20" s="220"/>
-      <c r="N20" s="220"/>
-      <c r="O20" s="220"/>
-      <c r="P20" s="221"/>
-      <c r="Q20" s="216"/>
-      <c r="R20" s="217"/>
-      <c r="S20" s="217"/>
-      <c r="T20" s="217"/>
-      <c r="U20" s="217"/>
-      <c r="V20" s="217"/>
-      <c r="W20" s="217"/>
-      <c r="X20" s="217"/>
-      <c r="Y20" s="217"/>
-      <c r="Z20" s="217"/>
-      <c r="AA20" s="217"/>
-      <c r="AB20" s="217"/>
-      <c r="AC20" s="217"/>
-      <c r="AD20" s="217"/>
-      <c r="AE20" s="218"/>
-      <c r="AF20" s="219"/>
-      <c r="AG20" s="220"/>
-      <c r="AH20" s="220"/>
-      <c r="AI20" s="221"/>
+      <c r="B20" s="217"/>
+      <c r="C20" s="219"/>
+      <c r="D20" s="244"/>
+      <c r="E20" s="245"/>
+      <c r="F20" s="246"/>
+      <c r="G20" s="217"/>
+      <c r="H20" s="218"/>
+      <c r="I20" s="219"/>
+      <c r="J20" s="229"/>
+      <c r="K20" s="230"/>
+      <c r="L20" s="230"/>
+      <c r="M20" s="230"/>
+      <c r="N20" s="230"/>
+      <c r="O20" s="230"/>
+      <c r="P20" s="231"/>
+      <c r="Q20" s="226"/>
+      <c r="R20" s="227"/>
+      <c r="S20" s="227"/>
+      <c r="T20" s="227"/>
+      <c r="U20" s="227"/>
+      <c r="V20" s="227"/>
+      <c r="W20" s="227"/>
+      <c r="X20" s="227"/>
+      <c r="Y20" s="227"/>
+      <c r="Z20" s="227"/>
+      <c r="AA20" s="227"/>
+      <c r="AB20" s="227"/>
+      <c r="AC20" s="227"/>
+      <c r="AD20" s="227"/>
+      <c r="AE20" s="228"/>
+      <c r="AF20" s="229"/>
+      <c r="AG20" s="230"/>
+      <c r="AH20" s="230"/>
+      <c r="AI20" s="231"/>
     </row>
     <row r="21" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="57"/>
-      <c r="B21" s="222"/>
-      <c r="C21" s="223"/>
-      <c r="D21" s="224"/>
-      <c r="E21" s="225"/>
-      <c r="F21" s="226"/>
-      <c r="G21" s="222"/>
-      <c r="H21" s="227"/>
-      <c r="I21" s="223"/>
-      <c r="J21" s="219"/>
-      <c r="K21" s="220"/>
-      <c r="L21" s="220"/>
-      <c r="M21" s="220"/>
-      <c r="N21" s="220"/>
-      <c r="O21" s="220"/>
-      <c r="P21" s="221"/>
-      <c r="Q21" s="216"/>
-      <c r="R21" s="217"/>
-      <c r="S21" s="217"/>
-      <c r="T21" s="217"/>
-      <c r="U21" s="217"/>
-      <c r="V21" s="217"/>
-      <c r="W21" s="217"/>
-      <c r="X21" s="217"/>
-      <c r="Y21" s="217"/>
-      <c r="Z21" s="217"/>
-      <c r="AA21" s="217"/>
-      <c r="AB21" s="217"/>
-      <c r="AC21" s="217"/>
-      <c r="AD21" s="217"/>
-      <c r="AE21" s="218"/>
-      <c r="AF21" s="219"/>
-      <c r="AG21" s="220"/>
-      <c r="AH21" s="220"/>
-      <c r="AI21" s="221"/>
+      <c r="B21" s="217"/>
+      <c r="C21" s="219"/>
+      <c r="D21" s="244"/>
+      <c r="E21" s="245"/>
+      <c r="F21" s="246"/>
+      <c r="G21" s="217"/>
+      <c r="H21" s="218"/>
+      <c r="I21" s="219"/>
+      <c r="J21" s="229"/>
+      <c r="K21" s="230"/>
+      <c r="L21" s="230"/>
+      <c r="M21" s="230"/>
+      <c r="N21" s="230"/>
+      <c r="O21" s="230"/>
+      <c r="P21" s="231"/>
+      <c r="Q21" s="226"/>
+      <c r="R21" s="227"/>
+      <c r="S21" s="227"/>
+      <c r="T21" s="227"/>
+      <c r="U21" s="227"/>
+      <c r="V21" s="227"/>
+      <c r="W21" s="227"/>
+      <c r="X21" s="227"/>
+      <c r="Y21" s="227"/>
+      <c r="Z21" s="227"/>
+      <c r="AA21" s="227"/>
+      <c r="AB21" s="227"/>
+      <c r="AC21" s="227"/>
+      <c r="AD21" s="227"/>
+      <c r="AE21" s="228"/>
+      <c r="AF21" s="229"/>
+      <c r="AG21" s="230"/>
+      <c r="AH21" s="230"/>
+      <c r="AI21" s="231"/>
     </row>
     <row r="22" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="57"/>
-      <c r="B22" s="222"/>
-      <c r="C22" s="223"/>
-      <c r="D22" s="224"/>
-      <c r="E22" s="225"/>
-      <c r="F22" s="226"/>
-      <c r="G22" s="222"/>
-      <c r="H22" s="227"/>
-      <c r="I22" s="223"/>
-      <c r="J22" s="219"/>
-      <c r="K22" s="220"/>
-      <c r="L22" s="220"/>
-      <c r="M22" s="220"/>
-      <c r="N22" s="220"/>
-      <c r="O22" s="220"/>
-      <c r="P22" s="221"/>
-      <c r="Q22" s="216"/>
-      <c r="R22" s="217"/>
-      <c r="S22" s="217"/>
-      <c r="T22" s="217"/>
-      <c r="U22" s="217"/>
-      <c r="V22" s="217"/>
-      <c r="W22" s="217"/>
-      <c r="X22" s="217"/>
-      <c r="Y22" s="217"/>
-      <c r="Z22" s="217"/>
-      <c r="AA22" s="217"/>
-      <c r="AB22" s="217"/>
-      <c r="AC22" s="217"/>
-      <c r="AD22" s="217"/>
-      <c r="AE22" s="218"/>
-      <c r="AF22" s="219"/>
-      <c r="AG22" s="220"/>
-      <c r="AH22" s="220"/>
-      <c r="AI22" s="221"/>
+      <c r="B22" s="217"/>
+      <c r="C22" s="219"/>
+      <c r="D22" s="244"/>
+      <c r="E22" s="245"/>
+      <c r="F22" s="246"/>
+      <c r="G22" s="217"/>
+      <c r="H22" s="218"/>
+      <c r="I22" s="219"/>
+      <c r="J22" s="229"/>
+      <c r="K22" s="230"/>
+      <c r="L22" s="230"/>
+      <c r="M22" s="230"/>
+      <c r="N22" s="230"/>
+      <c r="O22" s="230"/>
+      <c r="P22" s="231"/>
+      <c r="Q22" s="226"/>
+      <c r="R22" s="227"/>
+      <c r="S22" s="227"/>
+      <c r="T22" s="227"/>
+      <c r="U22" s="227"/>
+      <c r="V22" s="227"/>
+      <c r="W22" s="227"/>
+      <c r="X22" s="227"/>
+      <c r="Y22" s="227"/>
+      <c r="Z22" s="227"/>
+      <c r="AA22" s="227"/>
+      <c r="AB22" s="227"/>
+      <c r="AC22" s="227"/>
+      <c r="AD22" s="227"/>
+      <c r="AE22" s="228"/>
+      <c r="AF22" s="229"/>
+      <c r="AG22" s="230"/>
+      <c r="AH22" s="230"/>
+      <c r="AI22" s="231"/>
     </row>
     <row r="23" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="57"/>
-      <c r="B23" s="222"/>
-      <c r="C23" s="223"/>
-      <c r="D23" s="224"/>
-      <c r="E23" s="225"/>
-      <c r="F23" s="226"/>
-      <c r="G23" s="222"/>
-      <c r="H23" s="227"/>
-      <c r="I23" s="223"/>
-      <c r="J23" s="219"/>
-      <c r="K23" s="220"/>
-      <c r="L23" s="220"/>
-      <c r="M23" s="220"/>
-      <c r="N23" s="220"/>
-      <c r="O23" s="220"/>
-      <c r="P23" s="221"/>
-      <c r="Q23" s="216"/>
-      <c r="R23" s="217"/>
-      <c r="S23" s="217"/>
-      <c r="T23" s="217"/>
-      <c r="U23" s="217"/>
-      <c r="V23" s="217"/>
-      <c r="W23" s="217"/>
-      <c r="X23" s="217"/>
-      <c r="Y23" s="217"/>
-      <c r="Z23" s="217"/>
-      <c r="AA23" s="217"/>
-      <c r="AB23" s="217"/>
-      <c r="AC23" s="217"/>
-      <c r="AD23" s="217"/>
-      <c r="AE23" s="218"/>
-      <c r="AF23" s="219"/>
-      <c r="AG23" s="220"/>
-      <c r="AH23" s="220"/>
-      <c r="AI23" s="221"/>
+      <c r="B23" s="217"/>
+      <c r="C23" s="219"/>
+      <c r="D23" s="244"/>
+      <c r="E23" s="245"/>
+      <c r="F23" s="246"/>
+      <c r="G23" s="217"/>
+      <c r="H23" s="218"/>
+      <c r="I23" s="219"/>
+      <c r="J23" s="229"/>
+      <c r="K23" s="230"/>
+      <c r="L23" s="230"/>
+      <c r="M23" s="230"/>
+      <c r="N23" s="230"/>
+      <c r="O23" s="230"/>
+      <c r="P23" s="231"/>
+      <c r="Q23" s="226"/>
+      <c r="R23" s="227"/>
+      <c r="S23" s="227"/>
+      <c r="T23" s="227"/>
+      <c r="U23" s="227"/>
+      <c r="V23" s="227"/>
+      <c r="W23" s="227"/>
+      <c r="X23" s="227"/>
+      <c r="Y23" s="227"/>
+      <c r="Z23" s="227"/>
+      <c r="AA23" s="227"/>
+      <c r="AB23" s="227"/>
+      <c r="AC23" s="227"/>
+      <c r="AD23" s="227"/>
+      <c r="AE23" s="228"/>
+      <c r="AF23" s="229"/>
+      <c r="AG23" s="230"/>
+      <c r="AH23" s="230"/>
+      <c r="AI23" s="231"/>
     </row>
     <row r="24" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="57"/>
-      <c r="B24" s="222"/>
-      <c r="C24" s="223"/>
-      <c r="D24" s="224"/>
-      <c r="E24" s="225"/>
-      <c r="F24" s="226"/>
-      <c r="G24" s="222"/>
-      <c r="H24" s="227"/>
-      <c r="I24" s="223"/>
-      <c r="J24" s="219"/>
-      <c r="K24" s="220"/>
-      <c r="L24" s="220"/>
-      <c r="M24" s="220"/>
-      <c r="N24" s="220"/>
-      <c r="O24" s="220"/>
-      <c r="P24" s="221"/>
-      <c r="Q24" s="216"/>
-      <c r="R24" s="217"/>
-      <c r="S24" s="217"/>
-      <c r="T24" s="217"/>
-      <c r="U24" s="217"/>
-      <c r="V24" s="217"/>
-      <c r="W24" s="217"/>
-      <c r="X24" s="217"/>
-      <c r="Y24" s="217"/>
-      <c r="Z24" s="217"/>
-      <c r="AA24" s="217"/>
-      <c r="AB24" s="217"/>
-      <c r="AC24" s="217"/>
-      <c r="AD24" s="217"/>
-      <c r="AE24" s="218"/>
-      <c r="AF24" s="219"/>
-      <c r="AG24" s="220"/>
-      <c r="AH24" s="220"/>
-      <c r="AI24" s="221"/>
+      <c r="B24" s="217"/>
+      <c r="C24" s="219"/>
+      <c r="D24" s="244"/>
+      <c r="E24" s="245"/>
+      <c r="F24" s="246"/>
+      <c r="G24" s="217"/>
+      <c r="H24" s="218"/>
+      <c r="I24" s="219"/>
+      <c r="J24" s="229"/>
+      <c r="K24" s="230"/>
+      <c r="L24" s="230"/>
+      <c r="M24" s="230"/>
+      <c r="N24" s="230"/>
+      <c r="O24" s="230"/>
+      <c r="P24" s="231"/>
+      <c r="Q24" s="226"/>
+      <c r="R24" s="227"/>
+      <c r="S24" s="227"/>
+      <c r="T24" s="227"/>
+      <c r="U24" s="227"/>
+      <c r="V24" s="227"/>
+      <c r="W24" s="227"/>
+      <c r="X24" s="227"/>
+      <c r="Y24" s="227"/>
+      <c r="Z24" s="227"/>
+      <c r="AA24" s="227"/>
+      <c r="AB24" s="227"/>
+      <c r="AC24" s="227"/>
+      <c r="AD24" s="227"/>
+      <c r="AE24" s="228"/>
+      <c r="AF24" s="229"/>
+      <c r="AG24" s="230"/>
+      <c r="AH24" s="230"/>
+      <c r="AI24" s="231"/>
     </row>
     <row r="25" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="57"/>
-      <c r="B25" s="222"/>
-      <c r="C25" s="223"/>
-      <c r="D25" s="224"/>
-      <c r="E25" s="225"/>
-      <c r="F25" s="226"/>
-      <c r="G25" s="222"/>
-      <c r="H25" s="227"/>
-      <c r="I25" s="223"/>
-      <c r="J25" s="219"/>
-      <c r="K25" s="220"/>
-      <c r="L25" s="220"/>
-      <c r="M25" s="220"/>
-      <c r="N25" s="220"/>
-      <c r="O25" s="220"/>
-      <c r="P25" s="221"/>
-      <c r="Q25" s="216"/>
-      <c r="R25" s="217"/>
-      <c r="S25" s="217"/>
-      <c r="T25" s="217"/>
-      <c r="U25" s="217"/>
-      <c r="V25" s="217"/>
-      <c r="W25" s="217"/>
-      <c r="X25" s="217"/>
-      <c r="Y25" s="217"/>
-      <c r="Z25" s="217"/>
-      <c r="AA25" s="217"/>
-      <c r="AB25" s="217"/>
-      <c r="AC25" s="217"/>
-      <c r="AD25" s="217"/>
-      <c r="AE25" s="218"/>
-      <c r="AF25" s="219"/>
-      <c r="AG25" s="220"/>
-      <c r="AH25" s="220"/>
-      <c r="AI25" s="221"/>
+      <c r="B25" s="217"/>
+      <c r="C25" s="219"/>
+      <c r="D25" s="244"/>
+      <c r="E25" s="245"/>
+      <c r="F25" s="246"/>
+      <c r="G25" s="217"/>
+      <c r="H25" s="218"/>
+      <c r="I25" s="219"/>
+      <c r="J25" s="229"/>
+      <c r="K25" s="230"/>
+      <c r="L25" s="230"/>
+      <c r="M25" s="230"/>
+      <c r="N25" s="230"/>
+      <c r="O25" s="230"/>
+      <c r="P25" s="231"/>
+      <c r="Q25" s="226"/>
+      <c r="R25" s="227"/>
+      <c r="S25" s="227"/>
+      <c r="T25" s="227"/>
+      <c r="U25" s="227"/>
+      <c r="V25" s="227"/>
+      <c r="W25" s="227"/>
+      <c r="X25" s="227"/>
+      <c r="Y25" s="227"/>
+      <c r="Z25" s="227"/>
+      <c r="AA25" s="227"/>
+      <c r="AB25" s="227"/>
+      <c r="AC25" s="227"/>
+      <c r="AD25" s="227"/>
+      <c r="AE25" s="228"/>
+      <c r="AF25" s="229"/>
+      <c r="AG25" s="230"/>
+      <c r="AH25" s="230"/>
+      <c r="AI25" s="231"/>
     </row>
     <row r="26" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="57"/>
-      <c r="B26" s="222"/>
-      <c r="C26" s="223"/>
-      <c r="D26" s="224"/>
-      <c r="E26" s="225"/>
-      <c r="F26" s="226"/>
-      <c r="G26" s="222"/>
-      <c r="H26" s="227"/>
-      <c r="I26" s="223"/>
-      <c r="J26" s="219"/>
-      <c r="K26" s="220"/>
-      <c r="L26" s="220"/>
-      <c r="M26" s="220"/>
-      <c r="N26" s="220"/>
-      <c r="O26" s="220"/>
-      <c r="P26" s="221"/>
-      <c r="Q26" s="216"/>
-      <c r="R26" s="217"/>
-      <c r="S26" s="217"/>
-      <c r="T26" s="217"/>
-      <c r="U26" s="217"/>
-      <c r="V26" s="217"/>
-      <c r="W26" s="217"/>
-      <c r="X26" s="217"/>
-      <c r="Y26" s="217"/>
-      <c r="Z26" s="217"/>
-      <c r="AA26" s="217"/>
-      <c r="AB26" s="217"/>
-      <c r="AC26" s="217"/>
-      <c r="AD26" s="217"/>
-      <c r="AE26" s="218"/>
-      <c r="AF26" s="219"/>
-      <c r="AG26" s="220"/>
-      <c r="AH26" s="220"/>
-      <c r="AI26" s="221"/>
+      <c r="B26" s="217"/>
+      <c r="C26" s="219"/>
+      <c r="D26" s="244"/>
+      <c r="E26" s="245"/>
+      <c r="F26" s="246"/>
+      <c r="G26" s="217"/>
+      <c r="H26" s="218"/>
+      <c r="I26" s="219"/>
+      <c r="J26" s="229"/>
+      <c r="K26" s="230"/>
+      <c r="L26" s="230"/>
+      <c r="M26" s="230"/>
+      <c r="N26" s="230"/>
+      <c r="O26" s="230"/>
+      <c r="P26" s="231"/>
+      <c r="Q26" s="226"/>
+      <c r="R26" s="227"/>
+      <c r="S26" s="227"/>
+      <c r="T26" s="227"/>
+      <c r="U26" s="227"/>
+      <c r="V26" s="227"/>
+      <c r="W26" s="227"/>
+      <c r="X26" s="227"/>
+      <c r="Y26" s="227"/>
+      <c r="Z26" s="227"/>
+      <c r="AA26" s="227"/>
+      <c r="AB26" s="227"/>
+      <c r="AC26" s="227"/>
+      <c r="AD26" s="227"/>
+      <c r="AE26" s="228"/>
+      <c r="AF26" s="229"/>
+      <c r="AG26" s="230"/>
+      <c r="AH26" s="230"/>
+      <c r="AI26" s="231"/>
     </row>
     <row r="27" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="57"/>
-      <c r="B27" s="222"/>
-      <c r="C27" s="223"/>
-      <c r="D27" s="224"/>
-      <c r="E27" s="225"/>
-      <c r="F27" s="226"/>
-      <c r="G27" s="222"/>
-      <c r="H27" s="227"/>
-      <c r="I27" s="223"/>
-      <c r="J27" s="219"/>
-      <c r="K27" s="220"/>
-      <c r="L27" s="220"/>
-      <c r="M27" s="220"/>
-      <c r="N27" s="220"/>
-      <c r="O27" s="220"/>
-      <c r="P27" s="221"/>
-      <c r="Q27" s="216"/>
-      <c r="R27" s="217"/>
-      <c r="S27" s="217"/>
-      <c r="T27" s="217"/>
-      <c r="U27" s="217"/>
-      <c r="V27" s="217"/>
-      <c r="W27" s="217"/>
-      <c r="X27" s="217"/>
-      <c r="Y27" s="217"/>
-      <c r="Z27" s="217"/>
-      <c r="AA27" s="217"/>
-      <c r="AB27" s="217"/>
-      <c r="AC27" s="217"/>
-      <c r="AD27" s="217"/>
-      <c r="AE27" s="218"/>
-      <c r="AF27" s="219"/>
-      <c r="AG27" s="220"/>
-      <c r="AH27" s="220"/>
-      <c r="AI27" s="221"/>
+      <c r="B27" s="217"/>
+      <c r="C27" s="219"/>
+      <c r="D27" s="244"/>
+      <c r="E27" s="245"/>
+      <c r="F27" s="246"/>
+      <c r="G27" s="217"/>
+      <c r="H27" s="218"/>
+      <c r="I27" s="219"/>
+      <c r="J27" s="229"/>
+      <c r="K27" s="230"/>
+      <c r="L27" s="230"/>
+      <c r="M27" s="230"/>
+      <c r="N27" s="230"/>
+      <c r="O27" s="230"/>
+      <c r="P27" s="231"/>
+      <c r="Q27" s="226"/>
+      <c r="R27" s="227"/>
+      <c r="S27" s="227"/>
+      <c r="T27" s="227"/>
+      <c r="U27" s="227"/>
+      <c r="V27" s="227"/>
+      <c r="W27" s="227"/>
+      <c r="X27" s="227"/>
+      <c r="Y27" s="227"/>
+      <c r="Z27" s="227"/>
+      <c r="AA27" s="227"/>
+      <c r="AB27" s="227"/>
+      <c r="AC27" s="227"/>
+      <c r="AD27" s="227"/>
+      <c r="AE27" s="228"/>
+      <c r="AF27" s="229"/>
+      <c r="AG27" s="230"/>
+      <c r="AH27" s="230"/>
+      <c r="AI27" s="231"/>
     </row>
     <row r="28" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="57"/>
-      <c r="B28" s="222"/>
-      <c r="C28" s="223"/>
-      <c r="D28" s="224"/>
-      <c r="E28" s="225"/>
-      <c r="F28" s="226"/>
-      <c r="G28" s="222"/>
-      <c r="H28" s="227"/>
-      <c r="I28" s="223"/>
-      <c r="J28" s="219"/>
-      <c r="K28" s="220"/>
-      <c r="L28" s="220"/>
-      <c r="M28" s="220"/>
-      <c r="N28" s="220"/>
-      <c r="O28" s="220"/>
-      <c r="P28" s="221"/>
-      <c r="Q28" s="216"/>
-      <c r="R28" s="217"/>
-      <c r="S28" s="217"/>
-      <c r="T28" s="217"/>
-      <c r="U28" s="217"/>
-      <c r="V28" s="217"/>
-      <c r="W28" s="217"/>
-      <c r="X28" s="217"/>
-      <c r="Y28" s="217"/>
-      <c r="Z28" s="217"/>
-      <c r="AA28" s="217"/>
-      <c r="AB28" s="217"/>
-      <c r="AC28" s="217"/>
-      <c r="AD28" s="217"/>
-      <c r="AE28" s="218"/>
-      <c r="AF28" s="219"/>
-      <c r="AG28" s="220"/>
-      <c r="AH28" s="220"/>
-      <c r="AI28" s="221"/>
+      <c r="B28" s="217"/>
+      <c r="C28" s="219"/>
+      <c r="D28" s="244"/>
+      <c r="E28" s="245"/>
+      <c r="F28" s="246"/>
+      <c r="G28" s="217"/>
+      <c r="H28" s="218"/>
+      <c r="I28" s="219"/>
+      <c r="J28" s="229"/>
+      <c r="K28" s="230"/>
+      <c r="L28" s="230"/>
+      <c r="M28" s="230"/>
+      <c r="N28" s="230"/>
+      <c r="O28" s="230"/>
+      <c r="P28" s="231"/>
+      <c r="Q28" s="226"/>
+      <c r="R28" s="227"/>
+      <c r="S28" s="227"/>
+      <c r="T28" s="227"/>
+      <c r="U28" s="227"/>
+      <c r="V28" s="227"/>
+      <c r="W28" s="227"/>
+      <c r="X28" s="227"/>
+      <c r="Y28" s="227"/>
+      <c r="Z28" s="227"/>
+      <c r="AA28" s="227"/>
+      <c r="AB28" s="227"/>
+      <c r="AC28" s="227"/>
+      <c r="AD28" s="227"/>
+      <c r="AE28" s="228"/>
+      <c r="AF28" s="229"/>
+      <c r="AG28" s="230"/>
+      <c r="AH28" s="230"/>
+      <c r="AI28" s="231"/>
     </row>
     <row r="29" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="57"/>
-      <c r="B29" s="222"/>
-      <c r="C29" s="223"/>
-      <c r="D29" s="224"/>
-      <c r="E29" s="225"/>
-      <c r="F29" s="226"/>
-      <c r="G29" s="222"/>
-      <c r="H29" s="227"/>
-      <c r="I29" s="223"/>
-      <c r="J29" s="219"/>
-      <c r="K29" s="220"/>
-      <c r="L29" s="220"/>
-      <c r="M29" s="220"/>
-      <c r="N29" s="220"/>
-      <c r="O29" s="220"/>
-      <c r="P29" s="221"/>
-      <c r="Q29" s="216"/>
-      <c r="R29" s="217"/>
-      <c r="S29" s="217"/>
-      <c r="T29" s="217"/>
-      <c r="U29" s="217"/>
-      <c r="V29" s="217"/>
-      <c r="W29" s="217"/>
-      <c r="X29" s="217"/>
-      <c r="Y29" s="217"/>
-      <c r="Z29" s="217"/>
-      <c r="AA29" s="217"/>
-      <c r="AB29" s="217"/>
-      <c r="AC29" s="217"/>
-      <c r="AD29" s="217"/>
-      <c r="AE29" s="218"/>
-      <c r="AF29" s="219"/>
-      <c r="AG29" s="220"/>
-      <c r="AH29" s="220"/>
-      <c r="AI29" s="221"/>
+      <c r="B29" s="217"/>
+      <c r="C29" s="219"/>
+      <c r="D29" s="244"/>
+      <c r="E29" s="245"/>
+      <c r="F29" s="246"/>
+      <c r="G29" s="217"/>
+      <c r="H29" s="218"/>
+      <c r="I29" s="219"/>
+      <c r="J29" s="229"/>
+      <c r="K29" s="230"/>
+      <c r="L29" s="230"/>
+      <c r="M29" s="230"/>
+      <c r="N29" s="230"/>
+      <c r="O29" s="230"/>
+      <c r="P29" s="231"/>
+      <c r="Q29" s="226"/>
+      <c r="R29" s="227"/>
+      <c r="S29" s="227"/>
+      <c r="T29" s="227"/>
+      <c r="U29" s="227"/>
+      <c r="V29" s="227"/>
+      <c r="W29" s="227"/>
+      <c r="X29" s="227"/>
+      <c r="Y29" s="227"/>
+      <c r="Z29" s="227"/>
+      <c r="AA29" s="227"/>
+      <c r="AB29" s="227"/>
+      <c r="AC29" s="227"/>
+      <c r="AD29" s="227"/>
+      <c r="AE29" s="228"/>
+      <c r="AF29" s="229"/>
+      <c r="AG29" s="230"/>
+      <c r="AH29" s="230"/>
+      <c r="AI29" s="231"/>
     </row>
     <row r="30" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="57"/>
-      <c r="B30" s="222"/>
-      <c r="C30" s="223"/>
-      <c r="D30" s="224"/>
-      <c r="E30" s="225"/>
-      <c r="F30" s="226"/>
-      <c r="G30" s="222"/>
-      <c r="H30" s="227"/>
-      <c r="I30" s="223"/>
-      <c r="J30" s="219"/>
-      <c r="K30" s="220"/>
-      <c r="L30" s="220"/>
-      <c r="M30" s="220"/>
-      <c r="N30" s="220"/>
-      <c r="O30" s="220"/>
-      <c r="P30" s="221"/>
-      <c r="Q30" s="216"/>
-      <c r="R30" s="217"/>
-      <c r="S30" s="217"/>
-      <c r="T30" s="217"/>
-      <c r="U30" s="217"/>
-      <c r="V30" s="217"/>
-      <c r="W30" s="217"/>
-      <c r="X30" s="217"/>
-      <c r="Y30" s="217"/>
-      <c r="Z30" s="217"/>
-      <c r="AA30" s="217"/>
-      <c r="AB30" s="217"/>
-      <c r="AC30" s="217"/>
-      <c r="AD30" s="217"/>
-      <c r="AE30" s="218"/>
-      <c r="AF30" s="219"/>
-      <c r="AG30" s="220"/>
-      <c r="AH30" s="220"/>
-      <c r="AI30" s="221"/>
+      <c r="B30" s="217"/>
+      <c r="C30" s="219"/>
+      <c r="D30" s="244"/>
+      <c r="E30" s="245"/>
+      <c r="F30" s="246"/>
+      <c r="G30" s="217"/>
+      <c r="H30" s="218"/>
+      <c r="I30" s="219"/>
+      <c r="J30" s="229"/>
+      <c r="K30" s="230"/>
+      <c r="L30" s="230"/>
+      <c r="M30" s="230"/>
+      <c r="N30" s="230"/>
+      <c r="O30" s="230"/>
+      <c r="P30" s="231"/>
+      <c r="Q30" s="226"/>
+      <c r="R30" s="227"/>
+      <c r="S30" s="227"/>
+      <c r="T30" s="227"/>
+      <c r="U30" s="227"/>
+      <c r="V30" s="227"/>
+      <c r="W30" s="227"/>
+      <c r="X30" s="227"/>
+      <c r="Y30" s="227"/>
+      <c r="Z30" s="227"/>
+      <c r="AA30" s="227"/>
+      <c r="AB30" s="227"/>
+      <c r="AC30" s="227"/>
+      <c r="AD30" s="227"/>
+      <c r="AE30" s="228"/>
+      <c r="AF30" s="229"/>
+      <c r="AG30" s="230"/>
+      <c r="AH30" s="230"/>
+      <c r="AI30" s="231"/>
     </row>
     <row r="31" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="57"/>
-      <c r="B31" s="222"/>
-      <c r="C31" s="223"/>
-      <c r="D31" s="224"/>
-      <c r="E31" s="225"/>
-      <c r="F31" s="226"/>
-      <c r="G31" s="222"/>
-      <c r="H31" s="227"/>
-      <c r="I31" s="223"/>
-      <c r="J31" s="219"/>
-      <c r="K31" s="220"/>
-      <c r="L31" s="220"/>
-      <c r="M31" s="220"/>
-      <c r="N31" s="220"/>
-      <c r="O31" s="220"/>
-      <c r="P31" s="221"/>
-      <c r="Q31" s="216"/>
-      <c r="R31" s="217"/>
-      <c r="S31" s="217"/>
-      <c r="T31" s="217"/>
-      <c r="U31" s="217"/>
-      <c r="V31" s="217"/>
-      <c r="W31" s="217"/>
-      <c r="X31" s="217"/>
-      <c r="Y31" s="217"/>
-      <c r="Z31" s="217"/>
-      <c r="AA31" s="217"/>
-      <c r="AB31" s="217"/>
-      <c r="AC31" s="217"/>
-      <c r="AD31" s="217"/>
-      <c r="AE31" s="218"/>
-      <c r="AF31" s="219"/>
-      <c r="AG31" s="220"/>
-      <c r="AH31" s="220"/>
-      <c r="AI31" s="221"/>
+      <c r="B31" s="217"/>
+      <c r="C31" s="219"/>
+      <c r="D31" s="244"/>
+      <c r="E31" s="245"/>
+      <c r="F31" s="246"/>
+      <c r="G31" s="217"/>
+      <c r="H31" s="218"/>
+      <c r="I31" s="219"/>
+      <c r="J31" s="229"/>
+      <c r="K31" s="230"/>
+      <c r="L31" s="230"/>
+      <c r="M31" s="230"/>
+      <c r="N31" s="230"/>
+      <c r="O31" s="230"/>
+      <c r="P31" s="231"/>
+      <c r="Q31" s="226"/>
+      <c r="R31" s="227"/>
+      <c r="S31" s="227"/>
+      <c r="T31" s="227"/>
+      <c r="U31" s="227"/>
+      <c r="V31" s="227"/>
+      <c r="W31" s="227"/>
+      <c r="X31" s="227"/>
+      <c r="Y31" s="227"/>
+      <c r="Z31" s="227"/>
+      <c r="AA31" s="227"/>
+      <c r="AB31" s="227"/>
+      <c r="AC31" s="227"/>
+      <c r="AD31" s="227"/>
+      <c r="AE31" s="228"/>
+      <c r="AF31" s="229"/>
+      <c r="AG31" s="230"/>
+      <c r="AH31" s="230"/>
+      <c r="AI31" s="231"/>
     </row>
     <row r="32" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="57"/>
-      <c r="B32" s="222"/>
-      <c r="C32" s="223"/>
-      <c r="D32" s="224"/>
-      <c r="E32" s="225"/>
-      <c r="F32" s="226"/>
-      <c r="G32" s="222"/>
-      <c r="H32" s="227"/>
-      <c r="I32" s="223"/>
-      <c r="J32" s="219"/>
-      <c r="K32" s="220"/>
-      <c r="L32" s="220"/>
-      <c r="M32" s="220"/>
-      <c r="N32" s="220"/>
-      <c r="O32" s="220"/>
-      <c r="P32" s="221"/>
-      <c r="Q32" s="216"/>
-      <c r="R32" s="217"/>
-      <c r="S32" s="217"/>
-      <c r="T32" s="217"/>
-      <c r="U32" s="217"/>
-      <c r="V32" s="217"/>
-      <c r="W32" s="217"/>
-      <c r="X32" s="217"/>
-      <c r="Y32" s="217"/>
-      <c r="Z32" s="217"/>
-      <c r="AA32" s="217"/>
-      <c r="AB32" s="217"/>
-      <c r="AC32" s="217"/>
-      <c r="AD32" s="217"/>
-      <c r="AE32" s="218"/>
-      <c r="AF32" s="219"/>
-      <c r="AG32" s="220"/>
-      <c r="AH32" s="220"/>
-      <c r="AI32" s="221"/>
+      <c r="B32" s="217"/>
+      <c r="C32" s="219"/>
+      <c r="D32" s="244"/>
+      <c r="E32" s="245"/>
+      <c r="F32" s="246"/>
+      <c r="G32" s="217"/>
+      <c r="H32" s="218"/>
+      <c r="I32" s="219"/>
+      <c r="J32" s="229"/>
+      <c r="K32" s="230"/>
+      <c r="L32" s="230"/>
+      <c r="M32" s="230"/>
+      <c r="N32" s="230"/>
+      <c r="O32" s="230"/>
+      <c r="P32" s="231"/>
+      <c r="Q32" s="226"/>
+      <c r="R32" s="227"/>
+      <c r="S32" s="227"/>
+      <c r="T32" s="227"/>
+      <c r="U32" s="227"/>
+      <c r="V32" s="227"/>
+      <c r="W32" s="227"/>
+      <c r="X32" s="227"/>
+      <c r="Y32" s="227"/>
+      <c r="Z32" s="227"/>
+      <c r="AA32" s="227"/>
+      <c r="AB32" s="227"/>
+      <c r="AC32" s="227"/>
+      <c r="AD32" s="227"/>
+      <c r="AE32" s="228"/>
+      <c r="AF32" s="229"/>
+      <c r="AG32" s="230"/>
+      <c r="AH32" s="230"/>
+      <c r="AI32" s="231"/>
     </row>
     <row r="33" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="57"/>
-      <c r="B33" s="222"/>
-      <c r="C33" s="223"/>
-      <c r="D33" s="224"/>
-      <c r="E33" s="225"/>
-      <c r="F33" s="226"/>
-      <c r="G33" s="222"/>
-      <c r="H33" s="227"/>
-      <c r="I33" s="223"/>
-      <c r="J33" s="219"/>
-      <c r="K33" s="220"/>
-      <c r="L33" s="220"/>
-      <c r="M33" s="220"/>
-      <c r="N33" s="220"/>
-      <c r="O33" s="220"/>
-      <c r="P33" s="221"/>
-      <c r="Q33" s="216"/>
-      <c r="R33" s="217"/>
-      <c r="S33" s="217"/>
-      <c r="T33" s="217"/>
-      <c r="U33" s="217"/>
-      <c r="V33" s="217"/>
-      <c r="W33" s="217"/>
-      <c r="X33" s="217"/>
-      <c r="Y33" s="217"/>
-      <c r="Z33" s="217"/>
-      <c r="AA33" s="217"/>
-      <c r="AB33" s="217"/>
-      <c r="AC33" s="217"/>
-      <c r="AD33" s="217"/>
-      <c r="AE33" s="218"/>
-      <c r="AF33" s="219"/>
-      <c r="AG33" s="220"/>
-      <c r="AH33" s="220"/>
-      <c r="AI33" s="221"/>
+      <c r="B33" s="217"/>
+      <c r="C33" s="219"/>
+      <c r="D33" s="244"/>
+      <c r="E33" s="245"/>
+      <c r="F33" s="246"/>
+      <c r="G33" s="217"/>
+      <c r="H33" s="218"/>
+      <c r="I33" s="219"/>
+      <c r="J33" s="229"/>
+      <c r="K33" s="230"/>
+      <c r="L33" s="230"/>
+      <c r="M33" s="230"/>
+      <c r="N33" s="230"/>
+      <c r="O33" s="230"/>
+      <c r="P33" s="231"/>
+      <c r="Q33" s="226"/>
+      <c r="R33" s="227"/>
+      <c r="S33" s="227"/>
+      <c r="T33" s="227"/>
+      <c r="U33" s="227"/>
+      <c r="V33" s="227"/>
+      <c r="W33" s="227"/>
+      <c r="X33" s="227"/>
+      <c r="Y33" s="227"/>
+      <c r="Z33" s="227"/>
+      <c r="AA33" s="227"/>
+      <c r="AB33" s="227"/>
+      <c r="AC33" s="227"/>
+      <c r="AD33" s="227"/>
+      <c r="AE33" s="228"/>
+      <c r="AF33" s="229"/>
+      <c r="AG33" s="230"/>
+      <c r="AH33" s="230"/>
+      <c r="AI33" s="231"/>
     </row>
     <row r="34" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="28"/>
@@ -6501,161 +6501,6 @@
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -6680,6 +6525,161 @@
     <mergeCell ref="AF22:AI22"/>
     <mergeCell ref="J23:P23"/>
     <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="S1:Z3"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <printOptions horizontalCentered="1"/>
@@ -6836,158 +6836,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="32" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="254" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="203"/>
-      <c r="C1" s="203"/>
-      <c r="D1" s="204"/>
-      <c r="E1" s="274" t="str">
+      <c r="B1" s="255"/>
+      <c r="C1" s="255"/>
+      <c r="D1" s="256"/>
+      <c r="E1" s="271" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="251"/>
-      <c r="G1" s="251"/>
-      <c r="H1" s="251"/>
-      <c r="I1" s="251"/>
-      <c r="J1" s="251"/>
-      <c r="K1" s="251"/>
-      <c r="L1" s="251"/>
-      <c r="M1" s="251"/>
-      <c r="N1" s="252"/>
-      <c r="O1" s="205" t="s">
+      <c r="F1" s="224"/>
+      <c r="G1" s="224"/>
+      <c r="H1" s="224"/>
+      <c r="I1" s="224"/>
+      <c r="J1" s="224"/>
+      <c r="K1" s="224"/>
+      <c r="L1" s="224"/>
+      <c r="M1" s="224"/>
+      <c r="N1" s="225"/>
+      <c r="O1" s="257" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="206"/>
-      <c r="Q1" s="206"/>
-      <c r="R1" s="207"/>
-      <c r="S1" s="265" t="str">
+      <c r="P1" s="258"/>
+      <c r="Q1" s="258"/>
+      <c r="R1" s="259"/>
+      <c r="S1" s="272" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10101/ログイン</v>
       </c>
-      <c r="T1" s="266"/>
-      <c r="U1" s="266"/>
-      <c r="V1" s="266"/>
-      <c r="W1" s="266"/>
-      <c r="X1" s="266"/>
-      <c r="Y1" s="266"/>
-      <c r="Z1" s="267"/>
-      <c r="AA1" s="202" t="s">
+      <c r="T1" s="273"/>
+      <c r="U1" s="273"/>
+      <c r="V1" s="273"/>
+      <c r="W1" s="273"/>
+      <c r="X1" s="273"/>
+      <c r="Y1" s="273"/>
+      <c r="Z1" s="274"/>
+      <c r="AA1" s="254" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="204"/>
-      <c r="AC1" s="238" t="str">
+      <c r="AB1" s="256"/>
+      <c r="AC1" s="205" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="239"/>
-      <c r="AE1" s="239"/>
-      <c r="AF1" s="240"/>
-      <c r="AG1" s="275">
+      <c r="AD1" s="206"/>
+      <c r="AE1" s="206"/>
+      <c r="AF1" s="207"/>
+      <c r="AG1" s="268">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43656</v>
       </c>
-      <c r="AH1" s="276"/>
-      <c r="AI1" s="277"/>
+      <c r="AH1" s="269"/>
+      <c r="AI1" s="270"/>
     </row>
     <row r="2" spans="1:35" s="32" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="202" t="s">
+      <c r="A2" s="254" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="203"/>
-      <c r="C2" s="203"/>
-      <c r="D2" s="204"/>
-      <c r="E2" s="274" t="str">
+      <c r="B2" s="255"/>
+      <c r="C2" s="255"/>
+      <c r="D2" s="256"/>
+      <c r="E2" s="271" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="251"/>
-      <c r="G2" s="251"/>
-      <c r="H2" s="251"/>
-      <c r="I2" s="251"/>
-      <c r="J2" s="251"/>
-      <c r="K2" s="251"/>
-      <c r="L2" s="251"/>
-      <c r="M2" s="251"/>
-      <c r="N2" s="252"/>
-      <c r="O2" s="208"/>
-      <c r="P2" s="209"/>
-      <c r="Q2" s="209"/>
-      <c r="R2" s="210"/>
-      <c r="S2" s="268"/>
-      <c r="T2" s="269"/>
-      <c r="U2" s="269"/>
-      <c r="V2" s="269"/>
-      <c r="W2" s="269"/>
-      <c r="X2" s="269"/>
-      <c r="Y2" s="269"/>
-      <c r="Z2" s="270"/>
-      <c r="AA2" s="202" t="s">
+      <c r="F2" s="224"/>
+      <c r="G2" s="224"/>
+      <c r="H2" s="224"/>
+      <c r="I2" s="224"/>
+      <c r="J2" s="224"/>
+      <c r="K2" s="224"/>
+      <c r="L2" s="224"/>
+      <c r="M2" s="224"/>
+      <c r="N2" s="225"/>
+      <c r="O2" s="260"/>
+      <c r="P2" s="261"/>
+      <c r="Q2" s="261"/>
+      <c r="R2" s="262"/>
+      <c r="S2" s="275"/>
+      <c r="T2" s="276"/>
+      <c r="U2" s="276"/>
+      <c r="V2" s="276"/>
+      <c r="W2" s="276"/>
+      <c r="X2" s="276"/>
+      <c r="Y2" s="276"/>
+      <c r="Z2" s="277"/>
+      <c r="AA2" s="254" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="204"/>
-      <c r="AC2" s="238" t="str">
+      <c r="AB2" s="256"/>
+      <c r="AC2" s="205" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="239"/>
-      <c r="AE2" s="239"/>
-      <c r="AF2" s="240"/>
-      <c r="AG2" s="275">
+      <c r="AD2" s="206"/>
+      <c r="AE2" s="206"/>
+      <c r="AF2" s="207"/>
+      <c r="AG2" s="268">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="276"/>
-      <c r="AI2" s="277"/>
+      <c r="AH2" s="269"/>
+      <c r="AI2" s="270"/>
     </row>
     <row r="3" spans="1:35" s="32" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="202" t="s">
+      <c r="A3" s="254" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="203"/>
-      <c r="C3" s="203"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="274" t="str">
+      <c r="B3" s="255"/>
+      <c r="C3" s="255"/>
+      <c r="D3" s="256"/>
+      <c r="E3" s="271" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="251"/>
-      <c r="G3" s="251"/>
-      <c r="H3" s="251"/>
-      <c r="I3" s="251"/>
-      <c r="J3" s="251"/>
-      <c r="K3" s="251"/>
-      <c r="L3" s="251"/>
-      <c r="M3" s="251"/>
-      <c r="N3" s="252"/>
-      <c r="O3" s="211"/>
-      <c r="P3" s="212"/>
-      <c r="Q3" s="212"/>
-      <c r="R3" s="213"/>
-      <c r="S3" s="271"/>
-      <c r="T3" s="272"/>
-      <c r="U3" s="272"/>
-      <c r="V3" s="272"/>
-      <c r="W3" s="272"/>
-      <c r="X3" s="272"/>
-      <c r="Y3" s="272"/>
-      <c r="Z3" s="273"/>
-      <c r="AA3" s="202"/>
-      <c r="AB3" s="204"/>
-      <c r="AC3" s="238" t="str">
+      <c r="F3" s="224"/>
+      <c r="G3" s="224"/>
+      <c r="H3" s="224"/>
+      <c r="I3" s="224"/>
+      <c r="J3" s="224"/>
+      <c r="K3" s="224"/>
+      <c r="L3" s="224"/>
+      <c r="M3" s="224"/>
+      <c r="N3" s="225"/>
+      <c r="O3" s="263"/>
+      <c r="P3" s="264"/>
+      <c r="Q3" s="264"/>
+      <c r="R3" s="265"/>
+      <c r="S3" s="278"/>
+      <c r="T3" s="279"/>
+      <c r="U3" s="279"/>
+      <c r="V3" s="279"/>
+      <c r="W3" s="279"/>
+      <c r="X3" s="279"/>
+      <c r="Y3" s="279"/>
+      <c r="Z3" s="280"/>
+      <c r="AA3" s="254"/>
+      <c r="AB3" s="256"/>
+      <c r="AC3" s="205" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="239"/>
-      <c r="AE3" s="239"/>
-      <c r="AF3" s="240"/>
-      <c r="AG3" s="275" t="str">
+      <c r="AD3" s="206"/>
+      <c r="AE3" s="206"/>
+      <c r="AF3" s="207"/>
+      <c r="AG3" s="268" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="276"/>
-      <c r="AI3" s="277"/>
+      <c r="AH3" s="269"/>
+      <c r="AI3" s="270"/>
     </row>
     <row r="4" spans="1:35" s="35" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="29"/>
@@ -7869,14 +7869,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -7886,6 +7878,14 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -7903,7 +7903,7 @@
   <dimension ref="A1:AI52"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -7912,158 +7912,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="254" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="203"/>
-      <c r="C1" s="203"/>
-      <c r="D1" s="204"/>
-      <c r="E1" s="274" t="str">
+      <c r="B1" s="255"/>
+      <c r="C1" s="255"/>
+      <c r="D1" s="256"/>
+      <c r="E1" s="271" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="251"/>
-      <c r="G1" s="251"/>
-      <c r="H1" s="251"/>
-      <c r="I1" s="251"/>
-      <c r="J1" s="251"/>
-      <c r="K1" s="251"/>
-      <c r="L1" s="251"/>
-      <c r="M1" s="251"/>
-      <c r="N1" s="252"/>
-      <c r="O1" s="205" t="s">
+      <c r="F1" s="224"/>
+      <c r="G1" s="224"/>
+      <c r="H1" s="224"/>
+      <c r="I1" s="224"/>
+      <c r="J1" s="224"/>
+      <c r="K1" s="224"/>
+      <c r="L1" s="224"/>
+      <c r="M1" s="224"/>
+      <c r="N1" s="225"/>
+      <c r="O1" s="257" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="206"/>
-      <c r="Q1" s="206"/>
-      <c r="R1" s="207"/>
-      <c r="S1" s="265" t="str">
+      <c r="P1" s="258"/>
+      <c r="Q1" s="258"/>
+      <c r="R1" s="259"/>
+      <c r="S1" s="272" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10101/ログイン</v>
       </c>
-      <c r="T1" s="266"/>
-      <c r="U1" s="266"/>
-      <c r="V1" s="266"/>
-      <c r="W1" s="266"/>
-      <c r="X1" s="266"/>
-      <c r="Y1" s="266"/>
-      <c r="Z1" s="267"/>
-      <c r="AA1" s="202" t="s">
+      <c r="T1" s="273"/>
+      <c r="U1" s="273"/>
+      <c r="V1" s="273"/>
+      <c r="W1" s="273"/>
+      <c r="X1" s="273"/>
+      <c r="Y1" s="273"/>
+      <c r="Z1" s="274"/>
+      <c r="AA1" s="254" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="204"/>
-      <c r="AC1" s="238" t="str">
+      <c r="AB1" s="256"/>
+      <c r="AC1" s="205" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="239"/>
-      <c r="AE1" s="239"/>
-      <c r="AF1" s="240"/>
-      <c r="AG1" s="275">
+      <c r="AD1" s="206"/>
+      <c r="AE1" s="206"/>
+      <c r="AF1" s="207"/>
+      <c r="AG1" s="268">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43656</v>
       </c>
-      <c r="AH1" s="276"/>
-      <c r="AI1" s="277"/>
+      <c r="AH1" s="269"/>
+      <c r="AI1" s="270"/>
     </row>
     <row r="2" spans="1:35" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="202" t="s">
+      <c r="A2" s="254" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="203"/>
-      <c r="C2" s="203"/>
-      <c r="D2" s="204"/>
-      <c r="E2" s="274" t="str">
+      <c r="B2" s="255"/>
+      <c r="C2" s="255"/>
+      <c r="D2" s="256"/>
+      <c r="E2" s="271" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="251"/>
-      <c r="G2" s="251"/>
-      <c r="H2" s="251"/>
-      <c r="I2" s="251"/>
-      <c r="J2" s="251"/>
-      <c r="K2" s="251"/>
-      <c r="L2" s="251"/>
-      <c r="M2" s="251"/>
-      <c r="N2" s="252"/>
-      <c r="O2" s="208"/>
-      <c r="P2" s="209"/>
-      <c r="Q2" s="209"/>
-      <c r="R2" s="210"/>
-      <c r="S2" s="268"/>
-      <c r="T2" s="269"/>
-      <c r="U2" s="269"/>
-      <c r="V2" s="269"/>
-      <c r="W2" s="269"/>
-      <c r="X2" s="269"/>
-      <c r="Y2" s="269"/>
-      <c r="Z2" s="270"/>
-      <c r="AA2" s="202" t="s">
+      <c r="F2" s="224"/>
+      <c r="G2" s="224"/>
+      <c r="H2" s="224"/>
+      <c r="I2" s="224"/>
+      <c r="J2" s="224"/>
+      <c r="K2" s="224"/>
+      <c r="L2" s="224"/>
+      <c r="M2" s="224"/>
+      <c r="N2" s="225"/>
+      <c r="O2" s="260"/>
+      <c r="P2" s="261"/>
+      <c r="Q2" s="261"/>
+      <c r="R2" s="262"/>
+      <c r="S2" s="275"/>
+      <c r="T2" s="276"/>
+      <c r="U2" s="276"/>
+      <c r="V2" s="276"/>
+      <c r="W2" s="276"/>
+      <c r="X2" s="276"/>
+      <c r="Y2" s="276"/>
+      <c r="Z2" s="277"/>
+      <c r="AA2" s="254" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="204"/>
-      <c r="AC2" s="238" t="str">
+      <c r="AB2" s="256"/>
+      <c r="AC2" s="205" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="239"/>
-      <c r="AE2" s="239"/>
-      <c r="AF2" s="240"/>
-      <c r="AG2" s="275">
+      <c r="AD2" s="206"/>
+      <c r="AE2" s="206"/>
+      <c r="AF2" s="207"/>
+      <c r="AG2" s="268">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="276"/>
-      <c r="AI2" s="277"/>
+      <c r="AH2" s="269"/>
+      <c r="AI2" s="270"/>
     </row>
     <row r="3" spans="1:35" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="202" t="s">
+      <c r="A3" s="254" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="203"/>
-      <c r="C3" s="203"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="274" t="str">
+      <c r="B3" s="255"/>
+      <c r="C3" s="255"/>
+      <c r="D3" s="256"/>
+      <c r="E3" s="271" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="251"/>
-      <c r="G3" s="251"/>
-      <c r="H3" s="251"/>
-      <c r="I3" s="251"/>
-      <c r="J3" s="251"/>
-      <c r="K3" s="251"/>
-      <c r="L3" s="251"/>
-      <c r="M3" s="251"/>
-      <c r="N3" s="252"/>
-      <c r="O3" s="211"/>
-      <c r="P3" s="212"/>
-      <c r="Q3" s="212"/>
-      <c r="R3" s="213"/>
-      <c r="S3" s="271"/>
-      <c r="T3" s="272"/>
-      <c r="U3" s="272"/>
-      <c r="V3" s="272"/>
-      <c r="W3" s="272"/>
-      <c r="X3" s="272"/>
-      <c r="Y3" s="272"/>
-      <c r="Z3" s="273"/>
-      <c r="AA3" s="202"/>
-      <c r="AB3" s="204"/>
-      <c r="AC3" s="238" t="str">
+      <c r="F3" s="224"/>
+      <c r="G3" s="224"/>
+      <c r="H3" s="224"/>
+      <c r="I3" s="224"/>
+      <c r="J3" s="224"/>
+      <c r="K3" s="224"/>
+      <c r="L3" s="224"/>
+      <c r="M3" s="224"/>
+      <c r="N3" s="225"/>
+      <c r="O3" s="263"/>
+      <c r="P3" s="264"/>
+      <c r="Q3" s="264"/>
+      <c r="R3" s="265"/>
+      <c r="S3" s="278"/>
+      <c r="T3" s="279"/>
+      <c r="U3" s="279"/>
+      <c r="V3" s="279"/>
+      <c r="W3" s="279"/>
+      <c r="X3" s="279"/>
+      <c r="Y3" s="279"/>
+      <c r="Z3" s="280"/>
+      <c r="AA3" s="254"/>
+      <c r="AB3" s="256"/>
+      <c r="AC3" s="205" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="239"/>
-      <c r="AE3" s="239"/>
-      <c r="AF3" s="240"/>
-      <c r="AG3" s="275" t="str">
+      <c r="AD3" s="206"/>
+      <c r="AE3" s="206"/>
+      <c r="AF3" s="207"/>
+      <c r="AG3" s="268" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="276"/>
-      <c r="AI3" s="277"/>
+      <c r="AH3" s="269"/>
+      <c r="AI3" s="270"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -8079,88 +8079,88 @@
     <row r="7" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="8" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="92"/>
-      <c r="C8" s="288" t="s">
+      <c r="C8" s="291" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="289"/>
-      <c r="E8" s="289"/>
-      <c r="F8" s="290"/>
-      <c r="G8" s="219" t="s">
+      <c r="D8" s="292"/>
+      <c r="E8" s="292"/>
+      <c r="F8" s="293"/>
+      <c r="G8" s="229" t="s">
         <v>137</v>
       </c>
-      <c r="H8" s="291"/>
-      <c r="I8" s="291"/>
-      <c r="J8" s="291"/>
-      <c r="K8" s="291"/>
-      <c r="L8" s="289"/>
-      <c r="M8" s="289"/>
-      <c r="N8" s="289"/>
-      <c r="O8" s="289"/>
-      <c r="P8" s="289"/>
-      <c r="Q8" s="289"/>
-      <c r="R8" s="289"/>
-      <c r="S8" s="289"/>
-      <c r="T8" s="289"/>
-      <c r="U8" s="289"/>
-      <c r="V8" s="289"/>
-      <c r="W8" s="289"/>
-      <c r="X8" s="289"/>
-      <c r="Y8" s="289"/>
-      <c r="Z8" s="289"/>
-      <c r="AA8" s="289"/>
-      <c r="AB8" s="289"/>
-      <c r="AC8" s="289"/>
-      <c r="AD8" s="289"/>
-      <c r="AE8" s="289"/>
-      <c r="AF8" s="289"/>
-      <c r="AG8" s="290"/>
+      <c r="H8" s="294"/>
+      <c r="I8" s="294"/>
+      <c r="J8" s="294"/>
+      <c r="K8" s="294"/>
+      <c r="L8" s="292"/>
+      <c r="M8" s="292"/>
+      <c r="N8" s="292"/>
+      <c r="O8" s="292"/>
+      <c r="P8" s="292"/>
+      <c r="Q8" s="292"/>
+      <c r="R8" s="292"/>
+      <c r="S8" s="292"/>
+      <c r="T8" s="292"/>
+      <c r="U8" s="292"/>
+      <c r="V8" s="292"/>
+      <c r="W8" s="292"/>
+      <c r="X8" s="292"/>
+      <c r="Y8" s="292"/>
+      <c r="Z8" s="292"/>
+      <c r="AA8" s="292"/>
+      <c r="AB8" s="292"/>
+      <c r="AC8" s="292"/>
+      <c r="AD8" s="292"/>
+      <c r="AE8" s="292"/>
+      <c r="AF8" s="292"/>
+      <c r="AG8" s="293"/>
     </row>
     <row r="9" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="92"/>
-      <c r="C9" s="292" t="s">
+      <c r="C9" s="295" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="293"/>
-      <c r="E9" s="293"/>
-      <c r="F9" s="294"/>
-      <c r="G9" s="219" t="s">
+      <c r="D9" s="296"/>
+      <c r="E9" s="296"/>
+      <c r="F9" s="297"/>
+      <c r="G9" s="229" t="s">
         <v>138</v>
       </c>
-      <c r="H9" s="289"/>
-      <c r="I9" s="289"/>
-      <c r="J9" s="289"/>
-      <c r="K9" s="289"/>
-      <c r="L9" s="289"/>
-      <c r="M9" s="289"/>
-      <c r="N9" s="289"/>
-      <c r="O9" s="289"/>
-      <c r="P9" s="289"/>
-      <c r="Q9" s="289"/>
-      <c r="R9" s="289"/>
-      <c r="S9" s="289"/>
-      <c r="T9" s="289"/>
-      <c r="U9" s="289"/>
-      <c r="V9" s="289"/>
-      <c r="W9" s="289"/>
-      <c r="X9" s="289"/>
-      <c r="Y9" s="289"/>
-      <c r="Z9" s="289"/>
-      <c r="AA9" s="289"/>
-      <c r="AB9" s="289"/>
-      <c r="AC9" s="289"/>
-      <c r="AD9" s="289"/>
-      <c r="AE9" s="289"/>
-      <c r="AF9" s="289"/>
-      <c r="AG9" s="290"/>
+      <c r="H9" s="292"/>
+      <c r="I9" s="292"/>
+      <c r="J9" s="292"/>
+      <c r="K9" s="292"/>
+      <c r="L9" s="292"/>
+      <c r="M9" s="292"/>
+      <c r="N9" s="292"/>
+      <c r="O9" s="292"/>
+      <c r="P9" s="292"/>
+      <c r="Q9" s="292"/>
+      <c r="R9" s="292"/>
+      <c r="S9" s="292"/>
+      <c r="T9" s="292"/>
+      <c r="U9" s="292"/>
+      <c r="V9" s="292"/>
+      <c r="W9" s="292"/>
+      <c r="X9" s="292"/>
+      <c r="Y9" s="292"/>
+      <c r="Z9" s="292"/>
+      <c r="AA9" s="292"/>
+      <c r="AB9" s="292"/>
+      <c r="AC9" s="292"/>
+      <c r="AD9" s="292"/>
+      <c r="AE9" s="292"/>
+      <c r="AF9" s="292"/>
+      <c r="AG9" s="293"/>
     </row>
     <row r="10" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="92"/>
-      <c r="C10" s="279" t="s">
+      <c r="C10" s="282" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="280"/>
-      <c r="E10" s="280"/>
-      <c r="F10" s="281"/>
+      <c r="D10" s="283"/>
+      <c r="E10" s="283"/>
+      <c r="F10" s="284"/>
       <c r="G10" s="163" t="s">
         <v>184</v>
       </c>
@@ -8193,10 +8193,10 @@
     </row>
     <row r="11" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="92"/>
-      <c r="C11" s="282"/>
-      <c r="D11" s="283"/>
-      <c r="E11" s="283"/>
-      <c r="F11" s="284"/>
+      <c r="C11" s="285"/>
+      <c r="D11" s="286"/>
+      <c r="E11" s="286"/>
+      <c r="F11" s="287"/>
       <c r="G11" s="95" t="s">
         <v>185</v>
       </c>
@@ -8229,10 +8229,10 @@
     </row>
     <row r="12" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="92"/>
-      <c r="C12" s="282"/>
-      <c r="D12" s="283"/>
-      <c r="E12" s="283"/>
-      <c r="F12" s="284"/>
+      <c r="C12" s="285"/>
+      <c r="D12" s="286"/>
+      <c r="E12" s="286"/>
+      <c r="F12" s="287"/>
       <c r="G12" s="172"/>
       <c r="H12" s="35"/>
       <c r="I12" s="35"/>
@@ -8263,10 +8263,10 @@
     </row>
     <row r="13" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="92"/>
-      <c r="C13" s="285"/>
-      <c r="D13" s="286"/>
-      <c r="E13" s="286"/>
-      <c r="F13" s="287"/>
+      <c r="C13" s="288"/>
+      <c r="D13" s="289"/>
+      <c r="E13" s="289"/>
+      <c r="F13" s="290"/>
       <c r="G13" s="97"/>
       <c r="H13" s="98"/>
       <c r="I13" s="98"/>
@@ -8297,12 +8297,12 @@
     </row>
     <row r="14" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="92"/>
-      <c r="C14" s="278" t="s">
+      <c r="C14" s="281" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="278"/>
-      <c r="E14" s="278"/>
-      <c r="F14" s="278"/>
+      <c r="D14" s="281"/>
+      <c r="E14" s="281"/>
+      <c r="F14" s="281"/>
       <c r="G14" s="100" t="s">
         <v>161</v>
       </c>
@@ -8373,18 +8373,6 @@
     <row r="52" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C10:F13"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:AG8"/>
-    <mergeCell ref="G9:AG9"/>
-    <mergeCell ref="C9:F9"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -8396,6 +8384,18 @@
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C10:F13"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:AG8"/>
+    <mergeCell ref="G9:AG9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -8414,7 +8414,7 @@
   </sheetPr>
   <dimension ref="A1:BG182"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -8426,160 +8426,160 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="383" t="s">
+      <c r="A1" s="343" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="384"/>
-      <c r="C1" s="384"/>
-      <c r="D1" s="385"/>
-      <c r="E1" s="274" t="str">
+      <c r="B1" s="344"/>
+      <c r="C1" s="344"/>
+      <c r="D1" s="345"/>
+      <c r="E1" s="271" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="251"/>
-      <c r="G1" s="251"/>
-      <c r="H1" s="251"/>
-      <c r="I1" s="251"/>
-      <c r="J1" s="251"/>
-      <c r="K1" s="251"/>
-      <c r="L1" s="251"/>
-      <c r="M1" s="251"/>
-      <c r="N1" s="252"/>
-      <c r="O1" s="205" t="s">
+      <c r="F1" s="224"/>
+      <c r="G1" s="224"/>
+      <c r="H1" s="224"/>
+      <c r="I1" s="224"/>
+      <c r="J1" s="224"/>
+      <c r="K1" s="224"/>
+      <c r="L1" s="224"/>
+      <c r="M1" s="224"/>
+      <c r="N1" s="225"/>
+      <c r="O1" s="257" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="206"/>
-      <c r="Q1" s="206"/>
-      <c r="R1" s="207"/>
-      <c r="S1" s="265" t="str">
+      <c r="P1" s="258"/>
+      <c r="Q1" s="258"/>
+      <c r="R1" s="259"/>
+      <c r="S1" s="272" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10101/ログイン</v>
       </c>
-      <c r="T1" s="266"/>
-      <c r="U1" s="266"/>
-      <c r="V1" s="266"/>
-      <c r="W1" s="266"/>
-      <c r="X1" s="266"/>
-      <c r="Y1" s="266"/>
-      <c r="Z1" s="267"/>
-      <c r="AA1" s="202" t="s">
+      <c r="T1" s="273"/>
+      <c r="U1" s="273"/>
+      <c r="V1" s="273"/>
+      <c r="W1" s="273"/>
+      <c r="X1" s="273"/>
+      <c r="Y1" s="273"/>
+      <c r="Z1" s="274"/>
+      <c r="AA1" s="254" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="204"/>
-      <c r="AC1" s="238" t="str">
+      <c r="AB1" s="256"/>
+      <c r="AC1" s="205" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="239"/>
-      <c r="AE1" s="239"/>
-      <c r="AF1" s="240"/>
-      <c r="AG1" s="380">
+      <c r="AD1" s="206"/>
+      <c r="AE1" s="206"/>
+      <c r="AF1" s="207"/>
+      <c r="AG1" s="340">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43656</v>
       </c>
-      <c r="AH1" s="381"/>
-      <c r="AI1" s="382"/>
+      <c r="AH1" s="341"/>
+      <c r="AI1" s="342"/>
       <c r="AJ1" s="30"/>
     </row>
     <row r="2" spans="1:36" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="383" t="s">
+      <c r="A2" s="343" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="384"/>
-      <c r="C2" s="384"/>
-      <c r="D2" s="385"/>
-      <c r="E2" s="274" t="str">
+      <c r="B2" s="344"/>
+      <c r="C2" s="344"/>
+      <c r="D2" s="345"/>
+      <c r="E2" s="271" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="251"/>
-      <c r="G2" s="251"/>
-      <c r="H2" s="251"/>
-      <c r="I2" s="251"/>
-      <c r="J2" s="251"/>
-      <c r="K2" s="251"/>
-      <c r="L2" s="251"/>
-      <c r="M2" s="251"/>
-      <c r="N2" s="252"/>
-      <c r="O2" s="208"/>
-      <c r="P2" s="209"/>
-      <c r="Q2" s="209"/>
-      <c r="R2" s="210"/>
-      <c r="S2" s="268"/>
-      <c r="T2" s="269"/>
-      <c r="U2" s="269"/>
-      <c r="V2" s="269"/>
-      <c r="W2" s="269"/>
-      <c r="X2" s="269"/>
-      <c r="Y2" s="269"/>
-      <c r="Z2" s="270"/>
-      <c r="AA2" s="202" t="s">
+      <c r="F2" s="224"/>
+      <c r="G2" s="224"/>
+      <c r="H2" s="224"/>
+      <c r="I2" s="224"/>
+      <c r="J2" s="224"/>
+      <c r="K2" s="224"/>
+      <c r="L2" s="224"/>
+      <c r="M2" s="224"/>
+      <c r="N2" s="225"/>
+      <c r="O2" s="260"/>
+      <c r="P2" s="261"/>
+      <c r="Q2" s="261"/>
+      <c r="R2" s="262"/>
+      <c r="S2" s="275"/>
+      <c r="T2" s="276"/>
+      <c r="U2" s="276"/>
+      <c r="V2" s="276"/>
+      <c r="W2" s="276"/>
+      <c r="X2" s="276"/>
+      <c r="Y2" s="276"/>
+      <c r="Z2" s="277"/>
+      <c r="AA2" s="254" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="204"/>
-      <c r="AC2" s="238" t="str">
+      <c r="AB2" s="256"/>
+      <c r="AC2" s="205" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="239"/>
-      <c r="AE2" s="239"/>
-      <c r="AF2" s="240"/>
-      <c r="AG2" s="380">
+      <c r="AD2" s="206"/>
+      <c r="AE2" s="206"/>
+      <c r="AF2" s="207"/>
+      <c r="AG2" s="340">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="381"/>
-      <c r="AI2" s="382"/>
+      <c r="AH2" s="341"/>
+      <c r="AI2" s="342"/>
       <c r="AJ2" s="30"/>
     </row>
     <row r="3" spans="1:36" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="383" t="s">
+      <c r="A3" s="343" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="384"/>
-      <c r="C3" s="384"/>
-      <c r="D3" s="385"/>
-      <c r="E3" s="274" t="str">
+      <c r="B3" s="344"/>
+      <c r="C3" s="344"/>
+      <c r="D3" s="345"/>
+      <c r="E3" s="271" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="251"/>
-      <c r="G3" s="251"/>
-      <c r="H3" s="251"/>
-      <c r="I3" s="251"/>
-      <c r="J3" s="251"/>
-      <c r="K3" s="251"/>
-      <c r="L3" s="251"/>
-      <c r="M3" s="251"/>
-      <c r="N3" s="252"/>
-      <c r="O3" s="211"/>
-      <c r="P3" s="212"/>
-      <c r="Q3" s="212"/>
-      <c r="R3" s="213"/>
-      <c r="S3" s="271"/>
-      <c r="T3" s="272"/>
-      <c r="U3" s="272"/>
-      <c r="V3" s="272"/>
-      <c r="W3" s="272"/>
-      <c r="X3" s="272"/>
-      <c r="Y3" s="272"/>
-      <c r="Z3" s="273"/>
-      <c r="AA3" s="202"/>
-      <c r="AB3" s="204"/>
-      <c r="AC3" s="238" t="str">
+      <c r="F3" s="224"/>
+      <c r="G3" s="224"/>
+      <c r="H3" s="224"/>
+      <c r="I3" s="224"/>
+      <c r="J3" s="224"/>
+      <c r="K3" s="224"/>
+      <c r="L3" s="224"/>
+      <c r="M3" s="224"/>
+      <c r="N3" s="225"/>
+      <c r="O3" s="263"/>
+      <c r="P3" s="264"/>
+      <c r="Q3" s="264"/>
+      <c r="R3" s="265"/>
+      <c r="S3" s="278"/>
+      <c r="T3" s="279"/>
+      <c r="U3" s="279"/>
+      <c r="V3" s="279"/>
+      <c r="W3" s="279"/>
+      <c r="X3" s="279"/>
+      <c r="Y3" s="279"/>
+      <c r="Z3" s="280"/>
+      <c r="AA3" s="254"/>
+      <c r="AB3" s="256"/>
+      <c r="AC3" s="205" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="239"/>
-      <c r="AE3" s="239"/>
-      <c r="AF3" s="240"/>
-      <c r="AG3" s="380" t="str">
+      <c r="AD3" s="206"/>
+      <c r="AE3" s="206"/>
+      <c r="AF3" s="207"/>
+      <c r="AG3" s="340" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="381"/>
-      <c r="AI3" s="382"/>
+      <c r="AH3" s="341"/>
+      <c r="AI3" s="342"/>
       <c r="AJ3" s="30"/>
     </row>
     <row r="4" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8731,39 +8731,39 @@
       <c r="D43" s="131" t="s">
         <v>41</v>
       </c>
-      <c r="E43" s="358" t="s">
+      <c r="E43" s="346" t="s">
         <v>69</v>
       </c>
-      <c r="F43" s="358"/>
-      <c r="G43" s="358"/>
-      <c r="H43" s="358"/>
-      <c r="I43" s="358"/>
-      <c r="J43" s="358"/>
-      <c r="K43" s="358"/>
-      <c r="L43" s="358"/>
-      <c r="M43" s="358"/>
-      <c r="N43" s="358" t="s">
+      <c r="F43" s="346"/>
+      <c r="G43" s="346"/>
+      <c r="H43" s="346"/>
+      <c r="I43" s="346"/>
+      <c r="J43" s="346"/>
+      <c r="K43" s="346"/>
+      <c r="L43" s="346"/>
+      <c r="M43" s="346"/>
+      <c r="N43" s="346" t="s">
         <v>43</v>
       </c>
-      <c r="O43" s="358"/>
-      <c r="P43" s="358"/>
-      <c r="Q43" s="358" t="s">
+      <c r="O43" s="346"/>
+      <c r="P43" s="346"/>
+      <c r="Q43" s="346" t="s">
         <v>25</v>
       </c>
-      <c r="R43" s="358"/>
-      <c r="S43" s="358"/>
-      <c r="T43" s="358"/>
-      <c r="U43" s="358"/>
-      <c r="V43" s="358" t="s">
+      <c r="R43" s="346"/>
+      <c r="S43" s="346"/>
+      <c r="T43" s="346"/>
+      <c r="U43" s="346"/>
+      <c r="V43" s="346" t="s">
         <v>14</v>
       </c>
-      <c r="W43" s="358"/>
-      <c r="X43" s="358"/>
-      <c r="Y43" s="358"/>
-      <c r="Z43" s="358"/>
-      <c r="AA43" s="358"/>
-      <c r="AB43" s="358"/>
-      <c r="AC43" s="358"/>
+      <c r="W43" s="346"/>
+      <c r="X43" s="346"/>
+      <c r="Y43" s="346"/>
+      <c r="Z43" s="346"/>
+      <c r="AA43" s="346"/>
+      <c r="AB43" s="346"/>
+      <c r="AC43" s="346"/>
       <c r="AD43" s="135"/>
       <c r="AE43" s="135"/>
       <c r="AF43" s="135"/>
@@ -8774,39 +8774,39 @@
       <c r="D44" s="153">
         <v>1</v>
       </c>
-      <c r="E44" s="375" t="s">
+      <c r="E44" s="362" t="s">
         <v>119</v>
       </c>
-      <c r="F44" s="372"/>
-      <c r="G44" s="372"/>
-      <c r="H44" s="372"/>
-      <c r="I44" s="372"/>
-      <c r="J44" s="372"/>
-      <c r="K44" s="372"/>
-      <c r="L44" s="372"/>
-      <c r="M44" s="372"/>
-      <c r="N44" s="372" t="s">
+      <c r="F44" s="359"/>
+      <c r="G44" s="359"/>
+      <c r="H44" s="359"/>
+      <c r="I44" s="359"/>
+      <c r="J44" s="359"/>
+      <c r="K44" s="359"/>
+      <c r="L44" s="359"/>
+      <c r="M44" s="359"/>
+      <c r="N44" s="359" t="s">
         <v>89</v>
       </c>
-      <c r="O44" s="372"/>
-      <c r="P44" s="372"/>
-      <c r="Q44" s="370" t="s">
+      <c r="O44" s="359"/>
+      <c r="P44" s="359"/>
+      <c r="Q44" s="357" t="s">
         <v>113</v>
       </c>
-      <c r="R44" s="370"/>
-      <c r="S44" s="370"/>
-      <c r="T44" s="370"/>
-      <c r="U44" s="370"/>
-      <c r="V44" s="371" t="s">
+      <c r="R44" s="357"/>
+      <c r="S44" s="357"/>
+      <c r="T44" s="357"/>
+      <c r="U44" s="357"/>
+      <c r="V44" s="358" t="s">
         <v>123</v>
       </c>
-      <c r="W44" s="370"/>
-      <c r="X44" s="370"/>
-      <c r="Y44" s="370"/>
-      <c r="Z44" s="370"/>
-      <c r="AA44" s="370"/>
-      <c r="AB44" s="370"/>
-      <c r="AC44" s="370"/>
+      <c r="W44" s="357"/>
+      <c r="X44" s="357"/>
+      <c r="Y44" s="357"/>
+      <c r="Z44" s="357"/>
+      <c r="AA44" s="357"/>
+      <c r="AB44" s="357"/>
+      <c r="AC44" s="357"/>
       <c r="AM44" s="35"/>
     </row>
     <row r="45" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8883,42 +8883,42 @@
       <c r="AZ48" s="133"/>
     </row>
     <row r="49" spans="3:53" s="91" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D49" s="301" t="s">
+      <c r="D49" s="369" t="s">
         <v>41</v>
       </c>
-      <c r="E49" s="352" t="s">
+      <c r="E49" s="337" t="s">
         <v>29</v>
       </c>
-      <c r="F49" s="353"/>
-      <c r="G49" s="353"/>
-      <c r="H49" s="353"/>
-      <c r="I49" s="353"/>
-      <c r="J49" s="353"/>
-      <c r="K49" s="353"/>
-      <c r="L49" s="353"/>
-      <c r="M49" s="353"/>
-      <c r="N49" s="353"/>
-      <c r="O49" s="353"/>
-      <c r="P49" s="353"/>
-      <c r="Q49" s="353"/>
-      <c r="R49" s="353"/>
-      <c r="S49" s="353"/>
-      <c r="T49" s="353"/>
-      <c r="U49" s="353"/>
-      <c r="V49" s="353"/>
-      <c r="W49" s="353"/>
-      <c r="X49" s="353"/>
-      <c r="Y49" s="353"/>
-      <c r="Z49" s="353"/>
-      <c r="AA49" s="353"/>
-      <c r="AB49" s="353"/>
-      <c r="AC49" s="354"/>
-      <c r="AD49" s="279" t="s">
+      <c r="F49" s="338"/>
+      <c r="G49" s="338"/>
+      <c r="H49" s="338"/>
+      <c r="I49" s="338"/>
+      <c r="J49" s="338"/>
+      <c r="K49" s="338"/>
+      <c r="L49" s="338"/>
+      <c r="M49" s="338"/>
+      <c r="N49" s="338"/>
+      <c r="O49" s="338"/>
+      <c r="P49" s="338"/>
+      <c r="Q49" s="338"/>
+      <c r="R49" s="338"/>
+      <c r="S49" s="338"/>
+      <c r="T49" s="338"/>
+      <c r="U49" s="338"/>
+      <c r="V49" s="338"/>
+      <c r="W49" s="338"/>
+      <c r="X49" s="338"/>
+      <c r="Y49" s="338"/>
+      <c r="Z49" s="338"/>
+      <c r="AA49" s="338"/>
+      <c r="AB49" s="338"/>
+      <c r="AC49" s="339"/>
+      <c r="AD49" s="282" t="s">
         <v>33</v>
       </c>
-      <c r="AE49" s="280"/>
-      <c r="AF49" s="280"/>
-      <c r="AG49" s="281"/>
+      <c r="AE49" s="283"/>
+      <c r="AF49" s="283"/>
+      <c r="AG49" s="284"/>
       <c r="AH49" s="133"/>
       <c r="AI49" s="133"/>
       <c r="AJ49" s="133"/>
@@ -8930,48 +8930,48 @@
       <c r="AN49" s="133"/>
     </row>
     <row r="50" spans="3:53" s="91" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D50" s="325"/>
-      <c r="E50" s="279" t="s">
+      <c r="D50" s="370"/>
+      <c r="E50" s="282" t="s">
         <v>31</v>
       </c>
-      <c r="F50" s="280"/>
-      <c r="G50" s="280"/>
-      <c r="H50" s="281"/>
-      <c r="I50" s="351" t="s">
+      <c r="F50" s="283"/>
+      <c r="G50" s="283"/>
+      <c r="H50" s="284"/>
+      <c r="I50" s="386" t="s">
         <v>39</v>
       </c>
-      <c r="J50" s="327"/>
-      <c r="K50" s="327"/>
-      <c r="L50" s="328"/>
-      <c r="M50" s="326" t="s">
+      <c r="J50" s="373"/>
+      <c r="K50" s="373"/>
+      <c r="L50" s="374"/>
+      <c r="M50" s="372" t="s">
         <v>118</v>
       </c>
-      <c r="N50" s="327"/>
-      <c r="O50" s="327"/>
-      <c r="P50" s="327"/>
-      <c r="Q50" s="327"/>
-      <c r="R50" s="327"/>
-      <c r="S50" s="327"/>
-      <c r="T50" s="328"/>
-      <c r="U50" s="279" t="s">
+      <c r="N50" s="373"/>
+      <c r="O50" s="373"/>
+      <c r="P50" s="373"/>
+      <c r="Q50" s="373"/>
+      <c r="R50" s="373"/>
+      <c r="S50" s="373"/>
+      <c r="T50" s="374"/>
+      <c r="U50" s="282" t="s">
         <v>32</v>
       </c>
-      <c r="V50" s="280"/>
-      <c r="W50" s="280"/>
-      <c r="X50" s="280"/>
-      <c r="Y50" s="281"/>
-      <c r="Z50" s="279" t="s">
+      <c r="V50" s="283"/>
+      <c r="W50" s="283"/>
+      <c r="X50" s="283"/>
+      <c r="Y50" s="284"/>
+      <c r="Z50" s="282" t="s">
         <v>27</v>
       </c>
-      <c r="AA50" s="280"/>
-      <c r="AB50" s="281"/>
-      <c r="AC50" s="301" t="s">
+      <c r="AA50" s="283"/>
+      <c r="AB50" s="284"/>
+      <c r="AC50" s="369" t="s">
         <v>44</v>
       </c>
-      <c r="AD50" s="282"/>
-      <c r="AE50" s="283"/>
-      <c r="AF50" s="283"/>
-      <c r="AG50" s="284"/>
+      <c r="AD50" s="285"/>
+      <c r="AE50" s="286"/>
+      <c r="AF50" s="286"/>
+      <c r="AG50" s="287"/>
       <c r="AH50" s="133"/>
       <c r="AI50" s="133"/>
       <c r="AJ50" s="133"/>
@@ -8987,36 +8987,36 @@
       <c r="AT50" s="133"/>
     </row>
     <row r="51" spans="3:53" s="91" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D51" s="302"/>
-      <c r="E51" s="285"/>
-      <c r="F51" s="286"/>
-      <c r="G51" s="286"/>
-      <c r="H51" s="287"/>
-      <c r="I51" s="329"/>
-      <c r="J51" s="330"/>
-      <c r="K51" s="330"/>
-      <c r="L51" s="331"/>
-      <c r="M51" s="329"/>
-      <c r="N51" s="330"/>
-      <c r="O51" s="330"/>
-      <c r="P51" s="330"/>
-      <c r="Q51" s="330"/>
-      <c r="R51" s="330"/>
-      <c r="S51" s="330"/>
-      <c r="T51" s="331"/>
-      <c r="U51" s="285"/>
-      <c r="V51" s="286"/>
-      <c r="W51" s="286"/>
-      <c r="X51" s="286"/>
-      <c r="Y51" s="287"/>
-      <c r="Z51" s="285"/>
-      <c r="AA51" s="286"/>
-      <c r="AB51" s="287"/>
-      <c r="AC51" s="302"/>
-      <c r="AD51" s="285"/>
-      <c r="AE51" s="286"/>
-      <c r="AF51" s="286"/>
-      <c r="AG51" s="287"/>
+      <c r="D51" s="371"/>
+      <c r="E51" s="288"/>
+      <c r="F51" s="289"/>
+      <c r="G51" s="289"/>
+      <c r="H51" s="290"/>
+      <c r="I51" s="375"/>
+      <c r="J51" s="376"/>
+      <c r="K51" s="376"/>
+      <c r="L51" s="377"/>
+      <c r="M51" s="375"/>
+      <c r="N51" s="376"/>
+      <c r="O51" s="376"/>
+      <c r="P51" s="376"/>
+      <c r="Q51" s="376"/>
+      <c r="R51" s="376"/>
+      <c r="S51" s="376"/>
+      <c r="T51" s="377"/>
+      <c r="U51" s="288"/>
+      <c r="V51" s="289"/>
+      <c r="W51" s="289"/>
+      <c r="X51" s="289"/>
+      <c r="Y51" s="290"/>
+      <c r="Z51" s="288"/>
+      <c r="AA51" s="289"/>
+      <c r="AB51" s="290"/>
+      <c r="AC51" s="371"/>
+      <c r="AD51" s="288"/>
+      <c r="AE51" s="289"/>
+      <c r="AF51" s="289"/>
+      <c r="AG51" s="290"/>
       <c r="AH51" s="133"/>
       <c r="AI51" s="133"/>
       <c r="AJ51" s="133"/>
@@ -9037,49 +9037,49 @@
       <c r="D52" s="138">
         <v>1</v>
       </c>
-      <c r="E52" s="219" t="s">
+      <c r="E52" s="229" t="s">
         <v>141</v>
       </c>
-      <c r="F52" s="291"/>
-      <c r="G52" s="291"/>
-      <c r="H52" s="349"/>
-      <c r="I52" s="350" t="s">
+      <c r="F52" s="294"/>
+      <c r="G52" s="294"/>
+      <c r="H52" s="365"/>
+      <c r="I52" s="364" t="s">
         <v>88</v>
       </c>
-      <c r="J52" s="350"/>
-      <c r="K52" s="350"/>
-      <c r="L52" s="350"/>
-      <c r="M52" s="373" t="s">
+      <c r="J52" s="364"/>
+      <c r="K52" s="364"/>
+      <c r="L52" s="364"/>
+      <c r="M52" s="360" t="s">
         <v>136</v>
       </c>
-      <c r="N52" s="374"/>
-      <c r="O52" s="374"/>
-      <c r="P52" s="374"/>
-      <c r="Q52" s="374"/>
-      <c r="R52" s="374"/>
-      <c r="S52" s="374"/>
-      <c r="T52" s="374"/>
-      <c r="U52" s="347" t="s">
+      <c r="N52" s="361"/>
+      <c r="O52" s="361"/>
+      <c r="P52" s="361"/>
+      <c r="Q52" s="361"/>
+      <c r="R52" s="361"/>
+      <c r="S52" s="361"/>
+      <c r="T52" s="361"/>
+      <c r="U52" s="332" t="s">
         <v>135</v>
       </c>
-      <c r="V52" s="348"/>
-      <c r="W52" s="348"/>
-      <c r="X52" s="348"/>
-      <c r="Y52" s="348"/>
-      <c r="Z52" s="347" t="s">
+      <c r="V52" s="333"/>
+      <c r="W52" s="333"/>
+      <c r="X52" s="333"/>
+      <c r="Y52" s="333"/>
+      <c r="Z52" s="332" t="s">
         <v>135</v>
       </c>
-      <c r="AA52" s="348"/>
-      <c r="AB52" s="348"/>
+      <c r="AA52" s="333"/>
+      <c r="AB52" s="333"/>
       <c r="AC52" s="173" t="s">
         <v>90</v>
       </c>
-      <c r="AD52" s="216" t="s">
+      <c r="AD52" s="226" t="s">
         <v>141</v>
       </c>
-      <c r="AE52" s="299"/>
-      <c r="AF52" s="299"/>
-      <c r="AG52" s="300"/>
+      <c r="AE52" s="327"/>
+      <c r="AF52" s="327"/>
+      <c r="AG52" s="328"/>
       <c r="AH52" s="133"/>
       <c r="AI52" s="133"/>
       <c r="AJ52" s="133"/>
@@ -9100,49 +9100,49 @@
       <c r="D53" s="138">
         <v>2</v>
       </c>
-      <c r="E53" s="219" t="s">
+      <c r="E53" s="229" t="s">
         <v>142</v>
       </c>
-      <c r="F53" s="291"/>
-      <c r="G53" s="291"/>
-      <c r="H53" s="349"/>
-      <c r="I53" s="376" t="s">
+      <c r="F53" s="294"/>
+      <c r="G53" s="294"/>
+      <c r="H53" s="365"/>
+      <c r="I53" s="363" t="s">
         <v>166</v>
       </c>
-      <c r="J53" s="350"/>
-      <c r="K53" s="350"/>
-      <c r="L53" s="350"/>
-      <c r="M53" s="355" t="s">
+      <c r="J53" s="364"/>
+      <c r="K53" s="364"/>
+      <c r="L53" s="364"/>
+      <c r="M53" s="354" t="s">
         <v>79</v>
       </c>
-      <c r="N53" s="356"/>
-      <c r="O53" s="356"/>
-      <c r="P53" s="356"/>
-      <c r="Q53" s="356"/>
-      <c r="R53" s="356"/>
-      <c r="S53" s="356"/>
-      <c r="T53" s="357"/>
-      <c r="U53" s="216" t="s">
+      <c r="N53" s="318"/>
+      <c r="O53" s="318"/>
+      <c r="P53" s="318"/>
+      <c r="Q53" s="318"/>
+      <c r="R53" s="318"/>
+      <c r="S53" s="318"/>
+      <c r="T53" s="319"/>
+      <c r="U53" s="226" t="s">
         <v>167</v>
       </c>
-      <c r="V53" s="299"/>
-      <c r="W53" s="299"/>
-      <c r="X53" s="299"/>
-      <c r="Y53" s="300"/>
-      <c r="Z53" s="347" t="s">
+      <c r="V53" s="327"/>
+      <c r="W53" s="327"/>
+      <c r="X53" s="327"/>
+      <c r="Y53" s="328"/>
+      <c r="Z53" s="332" t="s">
         <v>135</v>
       </c>
-      <c r="AA53" s="348"/>
-      <c r="AB53" s="348"/>
+      <c r="AA53" s="333"/>
+      <c r="AB53" s="333"/>
       <c r="AC53" s="173" t="s">
         <v>90</v>
       </c>
-      <c r="AD53" s="216" t="s">
-        <v>142</v>
-      </c>
-      <c r="AE53" s="299"/>
-      <c r="AF53" s="299"/>
-      <c r="AG53" s="300"/>
+      <c r="AD53" s="226" t="s">
+        <v>204</v>
+      </c>
+      <c r="AE53" s="327"/>
+      <c r="AF53" s="327"/>
+      <c r="AG53" s="328"/>
       <c r="AH53" s="133"/>
       <c r="AI53" s="133"/>
       <c r="AJ53" s="133"/>
@@ -9267,24 +9267,24 @@
       <c r="AW57" s="105"/>
     </row>
     <row r="58" spans="3:53" x14ac:dyDescent="0.15">
-      <c r="D58" s="332" t="s">
+      <c r="D58" s="378" t="s">
         <v>117</v>
       </c>
-      <c r="E58" s="334" t="s">
+      <c r="E58" s="309" t="s">
         <v>49</v>
       </c>
-      <c r="F58" s="335"/>
-      <c r="G58" s="335"/>
-      <c r="H58" s="335"/>
-      <c r="I58" s="335"/>
-      <c r="J58" s="336"/>
-      <c r="K58" s="334" t="s">
+      <c r="F58" s="310"/>
+      <c r="G58" s="310"/>
+      <c r="H58" s="310"/>
+      <c r="I58" s="310"/>
+      <c r="J58" s="311"/>
+      <c r="K58" s="309" t="s">
         <v>50</v>
       </c>
-      <c r="L58" s="335"/>
-      <c r="M58" s="335"/>
-      <c r="N58" s="336"/>
-      <c r="O58" s="395" t="s">
+      <c r="L58" s="310"/>
+      <c r="M58" s="310"/>
+      <c r="N58" s="311"/>
+      <c r="O58" s="307" t="s">
         <v>51</v>
       </c>
       <c r="P58" s="139" t="s">
@@ -9295,21 +9295,21 @@
       <c r="S58" s="140"/>
       <c r="T58" s="140"/>
       <c r="U58" s="140"/>
-      <c r="V58" s="334" t="s">
+      <c r="V58" s="309" t="s">
         <v>30</v>
       </c>
-      <c r="W58" s="335"/>
-      <c r="X58" s="335"/>
-      <c r="Y58" s="335"/>
-      <c r="Z58" s="335"/>
-      <c r="AA58" s="335"/>
-      <c r="AB58" s="335"/>
-      <c r="AC58" s="335"/>
-      <c r="AD58" s="335"/>
-      <c r="AE58" s="335"/>
-      <c r="AF58" s="335"/>
-      <c r="AG58" s="335"/>
-      <c r="AH58" s="336"/>
+      <c r="W58" s="310"/>
+      <c r="X58" s="310"/>
+      <c r="Y58" s="310"/>
+      <c r="Z58" s="310"/>
+      <c r="AA58" s="310"/>
+      <c r="AB58" s="310"/>
+      <c r="AC58" s="310"/>
+      <c r="AD58" s="310"/>
+      <c r="AE58" s="310"/>
+      <c r="AF58" s="310"/>
+      <c r="AG58" s="310"/>
+      <c r="AH58" s="311"/>
       <c r="AK58" s="105"/>
       <c r="AL58" s="105"/>
       <c r="AM58" s="105"/>
@@ -9325,18 +9325,18 @@
       <c r="AW58" s="105"/>
     </row>
     <row r="59" spans="3:53" x14ac:dyDescent="0.15">
-      <c r="D59" s="333"/>
-      <c r="E59" s="337"/>
-      <c r="F59" s="338"/>
-      <c r="G59" s="338"/>
-      <c r="H59" s="338"/>
-      <c r="I59" s="338"/>
-      <c r="J59" s="339"/>
-      <c r="K59" s="337"/>
-      <c r="L59" s="338"/>
-      <c r="M59" s="338"/>
-      <c r="N59" s="339"/>
-      <c r="O59" s="396"/>
+      <c r="D59" s="379"/>
+      <c r="E59" s="312"/>
+      <c r="F59" s="313"/>
+      <c r="G59" s="313"/>
+      <c r="H59" s="313"/>
+      <c r="I59" s="313"/>
+      <c r="J59" s="314"/>
+      <c r="K59" s="312"/>
+      <c r="L59" s="313"/>
+      <c r="M59" s="313"/>
+      <c r="N59" s="314"/>
+      <c r="O59" s="308"/>
       <c r="P59" s="141" t="s">
         <v>52</v>
       </c>
@@ -9349,23 +9349,23 @@
       <c r="S59" s="141" t="s">
         <v>55</v>
       </c>
-      <c r="T59" s="397" t="s">
+      <c r="T59" s="315" t="s">
         <v>59</v>
       </c>
-      <c r="U59" s="398"/>
-      <c r="V59" s="337"/>
-      <c r="W59" s="338"/>
-      <c r="X59" s="338"/>
-      <c r="Y59" s="338"/>
-      <c r="Z59" s="338"/>
-      <c r="AA59" s="338"/>
-      <c r="AB59" s="338"/>
-      <c r="AC59" s="338"/>
-      <c r="AD59" s="338"/>
-      <c r="AE59" s="338"/>
-      <c r="AF59" s="338"/>
-      <c r="AG59" s="338"/>
-      <c r="AH59" s="339"/>
+      <c r="U59" s="316"/>
+      <c r="V59" s="312"/>
+      <c r="W59" s="313"/>
+      <c r="X59" s="313"/>
+      <c r="Y59" s="313"/>
+      <c r="Z59" s="313"/>
+      <c r="AA59" s="313"/>
+      <c r="AB59" s="313"/>
+      <c r="AC59" s="313"/>
+      <c r="AD59" s="313"/>
+      <c r="AE59" s="313"/>
+      <c r="AF59" s="313"/>
+      <c r="AG59" s="313"/>
+      <c r="AH59" s="314"/>
       <c r="AK59" s="105"/>
       <c r="AL59" s="105"/>
       <c r="AM59" s="105"/>
@@ -9384,20 +9384,20 @@
       <c r="D60" s="142">
         <v>1</v>
       </c>
-      <c r="E60" s="309" t="s">
+      <c r="E60" s="383" t="s">
         <v>143</v>
       </c>
-      <c r="F60" s="310"/>
-      <c r="G60" s="310"/>
-      <c r="H60" s="310"/>
-      <c r="I60" s="310"/>
-      <c r="J60" s="311"/>
-      <c r="K60" s="345" t="s">
+      <c r="F60" s="384"/>
+      <c r="G60" s="384"/>
+      <c r="H60" s="384"/>
+      <c r="I60" s="384"/>
+      <c r="J60" s="385"/>
+      <c r="K60" s="355" t="s">
         <v>91</v>
       </c>
-      <c r="L60" s="299"/>
-      <c r="M60" s="299"/>
-      <c r="N60" s="300"/>
+      <c r="L60" s="327"/>
+      <c r="M60" s="327"/>
+      <c r="N60" s="328"/>
       <c r="O60" s="137" t="s">
         <v>92</v>
       </c>
@@ -9413,25 +9413,25 @@
       <c r="S60" s="162" t="s">
         <v>89</v>
       </c>
-      <c r="T60" s="343" t="s">
+      <c r="T60" s="381" t="s">
         <v>89</v>
       </c>
-      <c r="U60" s="344"/>
-      <c r="V60" s="345" t="s">
+      <c r="U60" s="382"/>
+      <c r="V60" s="355" t="s">
         <v>79</v>
       </c>
-      <c r="W60" s="299"/>
-      <c r="X60" s="299"/>
-      <c r="Y60" s="299"/>
-      <c r="Z60" s="299"/>
-      <c r="AA60" s="299"/>
-      <c r="AB60" s="299"/>
-      <c r="AC60" s="299"/>
-      <c r="AD60" s="299"/>
-      <c r="AE60" s="299"/>
-      <c r="AF60" s="299"/>
-      <c r="AG60" s="299"/>
-      <c r="AH60" s="300"/>
+      <c r="W60" s="327"/>
+      <c r="X60" s="327"/>
+      <c r="Y60" s="327"/>
+      <c r="Z60" s="327"/>
+      <c r="AA60" s="327"/>
+      <c r="AB60" s="327"/>
+      <c r="AC60" s="327"/>
+      <c r="AD60" s="327"/>
+      <c r="AE60" s="327"/>
+      <c r="AF60" s="327"/>
+      <c r="AG60" s="327"/>
+      <c r="AH60" s="328"/>
       <c r="AK60" s="105"/>
       <c r="AL60" s="105"/>
       <c r="AM60" s="105"/>
@@ -9458,12 +9458,12 @@
       <c r="H61" s="193"/>
       <c r="I61" s="193"/>
       <c r="J61" s="193"/>
-      <c r="K61" s="345" t="s">
+      <c r="K61" s="355" t="s">
         <v>91</v>
       </c>
-      <c r="L61" s="299"/>
-      <c r="M61" s="299"/>
-      <c r="N61" s="300"/>
+      <c r="L61" s="327"/>
+      <c r="M61" s="327"/>
+      <c r="N61" s="328"/>
       <c r="O61" s="137" t="s">
         <v>92</v>
       </c>
@@ -9479,25 +9479,25 @@
       <c r="S61" s="173" t="s">
         <v>89</v>
       </c>
-      <c r="T61" s="343" t="s">
+      <c r="T61" s="381" t="s">
         <v>89</v>
       </c>
-      <c r="U61" s="344"/>
-      <c r="V61" s="345" t="s">
+      <c r="U61" s="382"/>
+      <c r="V61" s="355" t="s">
         <v>79</v>
       </c>
-      <c r="W61" s="299"/>
-      <c r="X61" s="299"/>
-      <c r="Y61" s="299"/>
-      <c r="Z61" s="299"/>
-      <c r="AA61" s="299"/>
-      <c r="AB61" s="299"/>
-      <c r="AC61" s="299"/>
-      <c r="AD61" s="299"/>
-      <c r="AE61" s="299"/>
-      <c r="AF61" s="299"/>
-      <c r="AG61" s="299"/>
-      <c r="AH61" s="300"/>
+      <c r="W61" s="327"/>
+      <c r="X61" s="327"/>
+      <c r="Y61" s="327"/>
+      <c r="Z61" s="327"/>
+      <c r="AA61" s="327"/>
+      <c r="AB61" s="327"/>
+      <c r="AC61" s="327"/>
+      <c r="AD61" s="327"/>
+      <c r="AE61" s="327"/>
+      <c r="AF61" s="327"/>
+      <c r="AG61" s="327"/>
+      <c r="AH61" s="328"/>
       <c r="AK61" s="105"/>
       <c r="AL61" s="105"/>
       <c r="AM61" s="105"/>
@@ -9623,181 +9623,181 @@
       <c r="D66" s="144" t="s">
         <v>11</v>
       </c>
-      <c r="E66" s="340" t="s">
+      <c r="E66" s="298" t="s">
         <v>72</v>
       </c>
-      <c r="F66" s="341"/>
-      <c r="G66" s="341"/>
-      <c r="H66" s="341"/>
-      <c r="I66" s="341"/>
-      <c r="J66" s="342"/>
-      <c r="K66" s="340" t="s">
+      <c r="F66" s="299"/>
+      <c r="G66" s="299"/>
+      <c r="H66" s="299"/>
+      <c r="I66" s="299"/>
+      <c r="J66" s="380"/>
+      <c r="K66" s="298" t="s">
         <v>38</v>
       </c>
-      <c r="L66" s="341"/>
-      <c r="M66" s="341"/>
-      <c r="N66" s="341"/>
-      <c r="O66" s="341"/>
-      <c r="P66" s="341"/>
-      <c r="Q66" s="346"/>
-      <c r="R66" s="288" t="s">
+      <c r="L66" s="299"/>
+      <c r="M66" s="299"/>
+      <c r="N66" s="299"/>
+      <c r="O66" s="299"/>
+      <c r="P66" s="299"/>
+      <c r="Q66" s="300"/>
+      <c r="R66" s="291" t="s">
         <v>73</v>
       </c>
-      <c r="S66" s="341"/>
-      <c r="T66" s="341"/>
-      <c r="U66" s="341"/>
-      <c r="V66" s="341"/>
-      <c r="W66" s="341"/>
-      <c r="X66" s="341"/>
-      <c r="Y66" s="346"/>
-      <c r="Z66" s="352" t="s">
+      <c r="S66" s="299"/>
+      <c r="T66" s="299"/>
+      <c r="U66" s="299"/>
+      <c r="V66" s="299"/>
+      <c r="W66" s="299"/>
+      <c r="X66" s="299"/>
+      <c r="Y66" s="300"/>
+      <c r="Z66" s="337" t="s">
         <v>26</v>
       </c>
-      <c r="AA66" s="353"/>
-      <c r="AB66" s="353"/>
-      <c r="AC66" s="353"/>
-      <c r="AD66" s="354"/>
-      <c r="AE66" s="389" t="s">
+      <c r="AA66" s="338"/>
+      <c r="AB66" s="338"/>
+      <c r="AC66" s="338"/>
+      <c r="AD66" s="339"/>
+      <c r="AE66" s="334" t="s">
         <v>129</v>
       </c>
-      <c r="AF66" s="390"/>
-      <c r="AG66" s="390"/>
-      <c r="AH66" s="391"/>
+      <c r="AF66" s="335"/>
+      <c r="AG66" s="335"/>
+      <c r="AH66" s="336"/>
     </row>
     <row r="67" spans="1:58" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D67" s="145">
         <v>1</v>
       </c>
-      <c r="E67" s="359" t="s">
+      <c r="E67" s="347" t="s">
         <v>94</v>
       </c>
-      <c r="F67" s="360"/>
-      <c r="G67" s="360"/>
-      <c r="H67" s="360"/>
-      <c r="I67" s="360"/>
-      <c r="J67" s="361"/>
-      <c r="K67" s="345" t="s">
+      <c r="F67" s="325"/>
+      <c r="G67" s="325"/>
+      <c r="H67" s="325"/>
+      <c r="I67" s="325"/>
+      <c r="J67" s="326"/>
+      <c r="K67" s="355" t="s">
         <v>95</v>
       </c>
-      <c r="L67" s="299"/>
-      <c r="M67" s="299"/>
-      <c r="N67" s="299"/>
-      <c r="O67" s="299"/>
-      <c r="P67" s="299"/>
-      <c r="Q67" s="300"/>
-      <c r="R67" s="216" t="s">
+      <c r="L67" s="327"/>
+      <c r="M67" s="327"/>
+      <c r="N67" s="327"/>
+      <c r="O67" s="327"/>
+      <c r="P67" s="327"/>
+      <c r="Q67" s="328"/>
+      <c r="R67" s="226" t="s">
         <v>145</v>
       </c>
-      <c r="S67" s="299"/>
-      <c r="T67" s="299"/>
-      <c r="U67" s="299"/>
-      <c r="V67" s="299"/>
-      <c r="W67" s="299"/>
-      <c r="X67" s="299"/>
-      <c r="Y67" s="300"/>
-      <c r="Z67" s="345" t="s">
+      <c r="S67" s="327"/>
+      <c r="T67" s="327"/>
+      <c r="U67" s="327"/>
+      <c r="V67" s="327"/>
+      <c r="W67" s="327"/>
+      <c r="X67" s="327"/>
+      <c r="Y67" s="328"/>
+      <c r="Z67" s="355" t="s">
         <v>93</v>
       </c>
-      <c r="AA67" s="299"/>
-      <c r="AB67" s="299"/>
-      <c r="AC67" s="299"/>
-      <c r="AD67" s="300"/>
-      <c r="AE67" s="386" t="s">
+      <c r="AA67" s="327"/>
+      <c r="AB67" s="327"/>
+      <c r="AC67" s="327"/>
+      <c r="AD67" s="328"/>
+      <c r="AE67" s="329" t="s">
         <v>71</v>
       </c>
-      <c r="AF67" s="387"/>
-      <c r="AG67" s="387"/>
-      <c r="AH67" s="388"/>
+      <c r="AF67" s="330"/>
+      <c r="AG67" s="330"/>
+      <c r="AH67" s="331"/>
     </row>
     <row r="68" spans="1:58" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D68" s="145">
         <v>2</v>
       </c>
-      <c r="E68" s="369" t="s">
+      <c r="E68" s="324" t="s">
         <v>138</v>
       </c>
-      <c r="F68" s="360"/>
-      <c r="G68" s="360"/>
-      <c r="H68" s="360"/>
-      <c r="I68" s="360"/>
-      <c r="J68" s="361"/>
-      <c r="K68" s="216" t="s">
+      <c r="F68" s="325"/>
+      <c r="G68" s="325"/>
+      <c r="H68" s="325"/>
+      <c r="I68" s="325"/>
+      <c r="J68" s="326"/>
+      <c r="K68" s="226" t="s">
         <v>144</v>
       </c>
-      <c r="L68" s="299"/>
-      <c r="M68" s="299"/>
-      <c r="N68" s="299"/>
-      <c r="O68" s="299"/>
-      <c r="P68" s="299"/>
-      <c r="Q68" s="300"/>
-      <c r="R68" s="216" t="s">
+      <c r="L68" s="327"/>
+      <c r="M68" s="327"/>
+      <c r="N68" s="327"/>
+      <c r="O68" s="327"/>
+      <c r="P68" s="327"/>
+      <c r="Q68" s="328"/>
+      <c r="R68" s="226" t="s">
         <v>146</v>
       </c>
-      <c r="S68" s="299"/>
-      <c r="T68" s="299"/>
-      <c r="U68" s="299"/>
-      <c r="V68" s="299"/>
-      <c r="W68" s="299"/>
-      <c r="X68" s="299"/>
-      <c r="Y68" s="300"/>
-      <c r="Z68" s="216" t="s">
+      <c r="S68" s="327"/>
+      <c r="T68" s="327"/>
+      <c r="U68" s="327"/>
+      <c r="V68" s="327"/>
+      <c r="W68" s="327"/>
+      <c r="X68" s="327"/>
+      <c r="Y68" s="328"/>
+      <c r="Z68" s="226" t="s">
         <v>156</v>
       </c>
-      <c r="AA68" s="299"/>
-      <c r="AB68" s="299"/>
-      <c r="AC68" s="299"/>
-      <c r="AD68" s="300"/>
-      <c r="AE68" s="386" t="s">
+      <c r="AA68" s="327"/>
+      <c r="AB68" s="327"/>
+      <c r="AC68" s="327"/>
+      <c r="AD68" s="328"/>
+      <c r="AE68" s="329" t="s">
         <v>71</v>
       </c>
-      <c r="AF68" s="387"/>
-      <c r="AG68" s="387"/>
-      <c r="AH68" s="388"/>
+      <c r="AF68" s="330"/>
+      <c r="AG68" s="330"/>
+      <c r="AH68" s="331"/>
     </row>
     <row r="69" spans="1:58" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D69" s="145">
         <v>3</v>
       </c>
-      <c r="E69" s="369" t="s">
+      <c r="E69" s="324" t="s">
         <v>188</v>
       </c>
-      <c r="F69" s="360"/>
-      <c r="G69" s="360"/>
-      <c r="H69" s="360"/>
-      <c r="I69" s="360"/>
-      <c r="J69" s="361"/>
-      <c r="K69" s="216" t="s">
+      <c r="F69" s="325"/>
+      <c r="G69" s="325"/>
+      <c r="H69" s="325"/>
+      <c r="I69" s="325"/>
+      <c r="J69" s="326"/>
+      <c r="K69" s="226" t="s">
         <v>189</v>
       </c>
-      <c r="L69" s="299"/>
-      <c r="M69" s="299"/>
-      <c r="N69" s="299"/>
-      <c r="O69" s="299"/>
-      <c r="P69" s="299"/>
-      <c r="Q69" s="300"/>
-      <c r="R69" s="216" t="s">
+      <c r="L69" s="327"/>
+      <c r="M69" s="327"/>
+      <c r="N69" s="327"/>
+      <c r="O69" s="327"/>
+      <c r="P69" s="327"/>
+      <c r="Q69" s="328"/>
+      <c r="R69" s="226" t="s">
         <v>190</v>
       </c>
-      <c r="S69" s="299"/>
-      <c r="T69" s="299"/>
-      <c r="U69" s="299"/>
-      <c r="V69" s="299"/>
-      <c r="W69" s="299"/>
-      <c r="X69" s="299"/>
-      <c r="Y69" s="300"/>
-      <c r="Z69" s="216" t="s">
+      <c r="S69" s="327"/>
+      <c r="T69" s="327"/>
+      <c r="U69" s="327"/>
+      <c r="V69" s="327"/>
+      <c r="W69" s="327"/>
+      <c r="X69" s="327"/>
+      <c r="Y69" s="328"/>
+      <c r="Z69" s="226" t="s">
         <v>138</v>
       </c>
-      <c r="AA69" s="299"/>
-      <c r="AB69" s="299"/>
-      <c r="AC69" s="299"/>
-      <c r="AD69" s="300"/>
-      <c r="AE69" s="386" t="s">
+      <c r="AA69" s="327"/>
+      <c r="AB69" s="327"/>
+      <c r="AC69" s="327"/>
+      <c r="AD69" s="328"/>
+      <c r="AE69" s="329" t="s">
         <v>71</v>
       </c>
-      <c r="AF69" s="387"/>
-      <c r="AG69" s="387"/>
-      <c r="AH69" s="388"/>
+      <c r="AF69" s="330"/>
+      <c r="AG69" s="330"/>
+      <c r="AH69" s="331"/>
     </row>
     <row r="70" spans="1:58" s="108" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D70" s="128"/>
@@ -10241,43 +10241,43 @@
       <c r="F89" s="147" t="s">
         <v>41</v>
       </c>
-      <c r="G89" s="288" t="s">
+      <c r="G89" s="291" t="s">
         <v>68</v>
       </c>
-      <c r="H89" s="341"/>
-      <c r="I89" s="341"/>
-      <c r="J89" s="341"/>
-      <c r="K89" s="341"/>
-      <c r="L89" s="346"/>
-      <c r="M89" s="400" t="s">
+      <c r="H89" s="299"/>
+      <c r="I89" s="299"/>
+      <c r="J89" s="299"/>
+      <c r="K89" s="299"/>
+      <c r="L89" s="300"/>
+      <c r="M89" s="320" t="s">
         <v>76</v>
       </c>
-      <c r="N89" s="341"/>
-      <c r="O89" s="341"/>
-      <c r="P89" s="341"/>
-      <c r="Q89" s="341"/>
-      <c r="R89" s="341"/>
-      <c r="S89" s="341"/>
-      <c r="T89" s="341"/>
-      <c r="U89" s="341"/>
-      <c r="V89" s="346"/>
-      <c r="W89" s="368" t="s">
+      <c r="N89" s="299"/>
+      <c r="O89" s="299"/>
+      <c r="P89" s="299"/>
+      <c r="Q89" s="299"/>
+      <c r="R89" s="299"/>
+      <c r="S89" s="299"/>
+      <c r="T89" s="299"/>
+      <c r="U89" s="299"/>
+      <c r="V89" s="300"/>
+      <c r="W89" s="356" t="s">
         <v>157</v>
       </c>
-      <c r="X89" s="366"/>
-      <c r="Y89" s="367"/>
-      <c r="Z89" s="365" t="s">
+      <c r="X89" s="352"/>
+      <c r="Y89" s="353"/>
+      <c r="Z89" s="351" t="s">
         <v>77</v>
       </c>
-      <c r="AA89" s="366"/>
-      <c r="AB89" s="366"/>
-      <c r="AC89" s="367"/>
-      <c r="AD89" s="377" t="s">
+      <c r="AA89" s="352"/>
+      <c r="AB89" s="352"/>
+      <c r="AC89" s="353"/>
+      <c r="AD89" s="366" t="s">
         <v>130</v>
       </c>
-      <c r="AE89" s="378"/>
-      <c r="AF89" s="378"/>
-      <c r="AG89" s="379"/>
+      <c r="AE89" s="367"/>
+      <c r="AF89" s="367"/>
+      <c r="AG89" s="368"/>
       <c r="AJ89" s="125"/>
       <c r="AK89" s="125"/>
       <c r="AL89" s="125"/>
@@ -10307,43 +10307,43 @@
       <c r="F90" s="148">
         <v>1</v>
       </c>
-      <c r="G90" s="399" t="s">
+      <c r="G90" s="317" t="s">
         <v>70</v>
       </c>
-      <c r="H90" s="356"/>
-      <c r="I90" s="356"/>
-      <c r="J90" s="356"/>
-      <c r="K90" s="356"/>
-      <c r="L90" s="357"/>
-      <c r="M90" s="355" t="s">
+      <c r="H90" s="318"/>
+      <c r="I90" s="318"/>
+      <c r="J90" s="318"/>
+      <c r="K90" s="318"/>
+      <c r="L90" s="319"/>
+      <c r="M90" s="354" t="s">
         <v>86</v>
       </c>
-      <c r="N90" s="356"/>
-      <c r="O90" s="356"/>
-      <c r="P90" s="356"/>
-      <c r="Q90" s="356"/>
-      <c r="R90" s="356"/>
-      <c r="S90" s="356"/>
-      <c r="T90" s="356"/>
-      <c r="U90" s="356"/>
-      <c r="V90" s="357"/>
-      <c r="W90" s="401" t="s">
+      <c r="N90" s="318"/>
+      <c r="O90" s="318"/>
+      <c r="P90" s="318"/>
+      <c r="Q90" s="318"/>
+      <c r="R90" s="318"/>
+      <c r="S90" s="318"/>
+      <c r="T90" s="318"/>
+      <c r="U90" s="318"/>
+      <c r="V90" s="319"/>
+      <c r="W90" s="321" t="s">
         <v>132</v>
       </c>
-      <c r="X90" s="402"/>
-      <c r="Y90" s="403"/>
-      <c r="Z90" s="362" t="s">
+      <c r="X90" s="322"/>
+      <c r="Y90" s="323"/>
+      <c r="Z90" s="348" t="s">
         <v>131</v>
       </c>
-      <c r="AA90" s="363"/>
-      <c r="AB90" s="363"/>
-      <c r="AC90" s="364"/>
-      <c r="AD90" s="355" t="s">
+      <c r="AA90" s="349"/>
+      <c r="AB90" s="349"/>
+      <c r="AC90" s="350"/>
+      <c r="AD90" s="354" t="s">
         <v>120</v>
       </c>
-      <c r="AE90" s="356"/>
-      <c r="AF90" s="356"/>
-      <c r="AG90" s="357"/>
+      <c r="AE90" s="318"/>
+      <c r="AF90" s="318"/>
+      <c r="AG90" s="319"/>
       <c r="AI90" s="125"/>
       <c r="AJ90" s="125"/>
       <c r="AK90" s="125"/>
@@ -10491,18 +10491,18 @@
       </c>
     </row>
     <row r="99" spans="6:58" s="108" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="G99" s="306" t="s">
+      <c r="G99" s="301" t="s">
         <v>99</v>
       </c>
-      <c r="H99" s="307"/>
-      <c r="I99" s="307"/>
-      <c r="J99" s="307"/>
-      <c r="K99" s="307"/>
-      <c r="L99" s="307"/>
-      <c r="M99" s="307"/>
-      <c r="N99" s="307"/>
-      <c r="O99" s="307"/>
-      <c r="P99" s="308"/>
+      <c r="H99" s="302"/>
+      <c r="I99" s="302"/>
+      <c r="J99" s="302"/>
+      <c r="K99" s="302"/>
+      <c r="L99" s="302"/>
+      <c r="M99" s="302"/>
+      <c r="N99" s="302"/>
+      <c r="O99" s="302"/>
+      <c r="P99" s="303"/>
       <c r="Q99" s="195" t="s">
         <v>100</v>
       </c>
@@ -10519,18 +10519,18 @@
       <c r="AB99" s="197"/>
     </row>
     <row r="100" spans="6:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G100" s="312" t="s">
+      <c r="G100" s="394" t="s">
         <v>143</v>
       </c>
-      <c r="H100" s="313"/>
-      <c r="I100" s="313"/>
-      <c r="J100" s="313"/>
-      <c r="K100" s="313"/>
-      <c r="L100" s="313"/>
-      <c r="M100" s="313"/>
-      <c r="N100" s="313"/>
-      <c r="O100" s="313"/>
-      <c r="P100" s="314"/>
+      <c r="H100" s="395"/>
+      <c r="I100" s="395"/>
+      <c r="J100" s="395"/>
+      <c r="K100" s="395"/>
+      <c r="L100" s="395"/>
+      <c r="M100" s="395"/>
+      <c r="N100" s="395"/>
+      <c r="O100" s="395"/>
+      <c r="P100" s="396"/>
       <c r="Q100" s="198" t="s">
         <v>164</v>
       </c>
@@ -10549,16 +10549,16 @@
       <c r="AH100" s="109"/>
     </row>
     <row r="101" spans="6:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G101" s="321"/>
-      <c r="H101" s="322"/>
-      <c r="I101" s="322"/>
-      <c r="J101" s="322"/>
-      <c r="K101" s="322"/>
-      <c r="L101" s="322"/>
-      <c r="M101" s="322"/>
-      <c r="N101" s="322"/>
-      <c r="O101" s="322"/>
-      <c r="P101" s="323"/>
+      <c r="G101" s="403"/>
+      <c r="H101" s="404"/>
+      <c r="I101" s="404"/>
+      <c r="J101" s="404"/>
+      <c r="K101" s="404"/>
+      <c r="L101" s="404"/>
+      <c r="M101" s="404"/>
+      <c r="N101" s="404"/>
+      <c r="O101" s="404"/>
+      <c r="P101" s="405"/>
       <c r="Q101" s="198" t="s">
         <v>163</v>
       </c>
@@ -10577,16 +10577,16 @@
       <c r="AH101" s="109"/>
     </row>
     <row r="102" spans="6:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G102" s="321"/>
-      <c r="H102" s="322"/>
-      <c r="I102" s="322"/>
-      <c r="J102" s="322"/>
-      <c r="K102" s="322"/>
-      <c r="L102" s="322"/>
-      <c r="M102" s="322"/>
-      <c r="N102" s="322"/>
-      <c r="O102" s="322"/>
-      <c r="P102" s="323"/>
+      <c r="G102" s="403"/>
+      <c r="H102" s="404"/>
+      <c r="I102" s="404"/>
+      <c r="J102" s="404"/>
+      <c r="K102" s="404"/>
+      <c r="L102" s="404"/>
+      <c r="M102" s="404"/>
+      <c r="N102" s="404"/>
+      <c r="O102" s="404"/>
+      <c r="P102" s="405"/>
       <c r="Q102" s="198" t="s">
         <v>204</v>
       </c>
@@ -10605,16 +10605,16 @@
       <c r="AH102" s="109"/>
     </row>
     <row r="103" spans="6:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G103" s="321"/>
-      <c r="H103" s="322"/>
-      <c r="I103" s="322"/>
-      <c r="J103" s="322"/>
-      <c r="K103" s="322"/>
-      <c r="L103" s="322"/>
-      <c r="M103" s="322"/>
-      <c r="N103" s="322"/>
-      <c r="O103" s="322"/>
-      <c r="P103" s="323"/>
+      <c r="G103" s="403"/>
+      <c r="H103" s="404"/>
+      <c r="I103" s="404"/>
+      <c r="J103" s="404"/>
+      <c r="K103" s="404"/>
+      <c r="L103" s="404"/>
+      <c r="M103" s="404"/>
+      <c r="N103" s="404"/>
+      <c r="O103" s="404"/>
+      <c r="P103" s="405"/>
       <c r="Q103" s="198" t="s">
         <v>199</v>
       </c>
@@ -10633,16 +10633,16 @@
       <c r="AH103" s="109"/>
     </row>
     <row r="104" spans="6:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G104" s="321"/>
-      <c r="H104" s="322"/>
-      <c r="I104" s="322"/>
-      <c r="J104" s="322"/>
-      <c r="K104" s="322"/>
-      <c r="L104" s="322"/>
-      <c r="M104" s="322"/>
-      <c r="N104" s="322"/>
-      <c r="O104" s="322"/>
-      <c r="P104" s="323"/>
+      <c r="G104" s="403"/>
+      <c r="H104" s="404"/>
+      <c r="I104" s="404"/>
+      <c r="J104" s="404"/>
+      <c r="K104" s="404"/>
+      <c r="L104" s="404"/>
+      <c r="M104" s="404"/>
+      <c r="N104" s="404"/>
+      <c r="O104" s="404"/>
+      <c r="P104" s="405"/>
       <c r="Q104" s="198" t="s">
         <v>200</v>
       </c>
@@ -10661,16 +10661,16 @@
       <c r="AH104" s="109"/>
     </row>
     <row r="105" spans="6:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G105" s="321"/>
-      <c r="H105" s="322"/>
-      <c r="I105" s="322"/>
-      <c r="J105" s="322"/>
-      <c r="K105" s="322"/>
-      <c r="L105" s="322"/>
-      <c r="M105" s="322"/>
-      <c r="N105" s="322"/>
-      <c r="O105" s="322"/>
-      <c r="P105" s="323"/>
+      <c r="G105" s="403"/>
+      <c r="H105" s="404"/>
+      <c r="I105" s="404"/>
+      <c r="J105" s="404"/>
+      <c r="K105" s="404"/>
+      <c r="L105" s="404"/>
+      <c r="M105" s="404"/>
+      <c r="N105" s="404"/>
+      <c r="O105" s="404"/>
+      <c r="P105" s="405"/>
       <c r="Q105" s="198" t="s">
         <v>201</v>
       </c>
@@ -10689,16 +10689,16 @@
       <c r="AH105" s="109"/>
     </row>
     <row r="106" spans="6:58" x14ac:dyDescent="0.15">
-      <c r="G106" s="324"/>
-      <c r="H106" s="322"/>
-      <c r="I106" s="322"/>
-      <c r="J106" s="322"/>
-      <c r="K106" s="322"/>
-      <c r="L106" s="322"/>
-      <c r="M106" s="322"/>
-      <c r="N106" s="322"/>
-      <c r="O106" s="322"/>
-      <c r="P106" s="323"/>
+      <c r="G106" s="406"/>
+      <c r="H106" s="404"/>
+      <c r="I106" s="404"/>
+      <c r="J106" s="404"/>
+      <c r="K106" s="404"/>
+      <c r="L106" s="404"/>
+      <c r="M106" s="404"/>
+      <c r="N106" s="404"/>
+      <c r="O106" s="404"/>
+      <c r="P106" s="405"/>
       <c r="Q106" s="198" t="s">
         <v>202</v>
       </c>
@@ -10731,30 +10731,30 @@
       <c r="AY106" s="110"/>
     </row>
     <row r="107" spans="6:58" x14ac:dyDescent="0.15">
-      <c r="G107" s="404" t="s">
+      <c r="G107" s="201" t="s">
         <v>101</v>
       </c>
-      <c r="H107" s="405"/>
-      <c r="I107" s="405"/>
-      <c r="J107" s="405"/>
-      <c r="K107" s="405"/>
-      <c r="L107" s="405"/>
-      <c r="M107" s="405"/>
-      <c r="N107" s="405"/>
-      <c r="O107" s="405"/>
-      <c r="P107" s="405"/>
-      <c r="Q107" s="405"/>
-      <c r="R107" s="405"/>
-      <c r="S107" s="405"/>
-      <c r="T107" s="405"/>
-      <c r="U107" s="405"/>
-      <c r="V107" s="405"/>
-      <c r="W107" s="405"/>
-      <c r="X107" s="405"/>
-      <c r="Y107" s="405"/>
-      <c r="Z107" s="405"/>
-      <c r="AA107" s="405"/>
-      <c r="AB107" s="406"/>
+      <c r="H107" s="202"/>
+      <c r="I107" s="202"/>
+      <c r="J107" s="202"/>
+      <c r="K107" s="202"/>
+      <c r="L107" s="202"/>
+      <c r="M107" s="202"/>
+      <c r="N107" s="202"/>
+      <c r="O107" s="202"/>
+      <c r="P107" s="202"/>
+      <c r="Q107" s="202"/>
+      <c r="R107" s="202"/>
+      <c r="S107" s="202"/>
+      <c r="T107" s="202"/>
+      <c r="U107" s="202"/>
+      <c r="V107" s="202"/>
+      <c r="W107" s="202"/>
+      <c r="X107" s="202"/>
+      <c r="Y107" s="202"/>
+      <c r="Z107" s="202"/>
+      <c r="AA107" s="202"/>
+      <c r="AB107" s="203"/>
       <c r="AJ107" s="110"/>
       <c r="AK107" s="110"/>
       <c r="AL107" s="110"/>
@@ -11071,56 +11071,56 @@
       </c>
     </row>
     <row r="116" spans="4:58" s="108" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="G116" s="306" t="s">
+      <c r="G116" s="301" t="s">
         <v>99</v>
       </c>
-      <c r="H116" s="307"/>
-      <c r="I116" s="307"/>
-      <c r="J116" s="307"/>
-      <c r="K116" s="307"/>
-      <c r="L116" s="307"/>
-      <c r="M116" s="307"/>
-      <c r="N116" s="307"/>
-      <c r="O116" s="307"/>
-      <c r="P116" s="308"/>
-      <c r="Q116" s="392" t="s">
+      <c r="H116" s="302"/>
+      <c r="I116" s="302"/>
+      <c r="J116" s="302"/>
+      <c r="K116" s="302"/>
+      <c r="L116" s="302"/>
+      <c r="M116" s="302"/>
+      <c r="N116" s="302"/>
+      <c r="O116" s="302"/>
+      <c r="P116" s="303"/>
+      <c r="Q116" s="304" t="s">
         <v>100</v>
       </c>
-      <c r="R116" s="393"/>
-      <c r="S116" s="393"/>
-      <c r="T116" s="393"/>
-      <c r="U116" s="393"/>
-      <c r="V116" s="393"/>
-      <c r="W116" s="393"/>
-      <c r="X116" s="393"/>
-      <c r="Y116" s="393"/>
-      <c r="Z116" s="394"/>
+      <c r="R116" s="305"/>
+      <c r="S116" s="305"/>
+      <c r="T116" s="305"/>
+      <c r="U116" s="305"/>
+      <c r="V116" s="305"/>
+      <c r="W116" s="305"/>
+      <c r="X116" s="305"/>
+      <c r="Y116" s="305"/>
+      <c r="Z116" s="306"/>
     </row>
     <row r="117" spans="4:58" x14ac:dyDescent="0.15">
-      <c r="G117" s="312" t="s">
+      <c r="G117" s="394" t="s">
         <v>173</v>
       </c>
-      <c r="H117" s="313"/>
-      <c r="I117" s="313"/>
-      <c r="J117" s="313"/>
-      <c r="K117" s="313"/>
-      <c r="L117" s="313"/>
-      <c r="M117" s="313"/>
-      <c r="N117" s="313"/>
-      <c r="O117" s="313"/>
-      <c r="P117" s="314"/>
-      <c r="Q117" s="309" t="s">
+      <c r="H117" s="395"/>
+      <c r="I117" s="395"/>
+      <c r="J117" s="395"/>
+      <c r="K117" s="395"/>
+      <c r="L117" s="395"/>
+      <c r="M117" s="395"/>
+      <c r="N117" s="395"/>
+      <c r="O117" s="395"/>
+      <c r="P117" s="396"/>
+      <c r="Q117" s="383" t="s">
         <v>205</v>
       </c>
-      <c r="R117" s="310"/>
-      <c r="S117" s="310"/>
-      <c r="T117" s="310"/>
-      <c r="U117" s="310"/>
-      <c r="V117" s="310"/>
-      <c r="W117" s="310"/>
-      <c r="X117" s="310"/>
-      <c r="Y117" s="310"/>
-      <c r="Z117" s="311"/>
+      <c r="R117" s="384"/>
+      <c r="S117" s="384"/>
+      <c r="T117" s="384"/>
+      <c r="U117" s="384"/>
+      <c r="V117" s="384"/>
+      <c r="W117" s="384"/>
+      <c r="X117" s="384"/>
+      <c r="Y117" s="384"/>
+      <c r="Z117" s="385"/>
       <c r="AC117" s="110"/>
       <c r="AD117" s="110"/>
       <c r="AE117" s="110"/>
@@ -11139,28 +11139,28 @@
       <c r="AY117" s="110"/>
     </row>
     <row r="118" spans="4:58" x14ac:dyDescent="0.15">
-      <c r="G118" s="315"/>
-      <c r="H118" s="316"/>
-      <c r="I118" s="316"/>
-      <c r="J118" s="316"/>
-      <c r="K118" s="316"/>
-      <c r="L118" s="316"/>
-      <c r="M118" s="316"/>
-      <c r="N118" s="316"/>
-      <c r="O118" s="316"/>
-      <c r="P118" s="317"/>
-      <c r="Q118" s="309" t="s">
+      <c r="G118" s="397"/>
+      <c r="H118" s="398"/>
+      <c r="I118" s="398"/>
+      <c r="J118" s="398"/>
+      <c r="K118" s="398"/>
+      <c r="L118" s="398"/>
+      <c r="M118" s="398"/>
+      <c r="N118" s="398"/>
+      <c r="O118" s="398"/>
+      <c r="P118" s="399"/>
+      <c r="Q118" s="383" t="s">
         <v>174</v>
       </c>
-      <c r="R118" s="310"/>
-      <c r="S118" s="310"/>
-      <c r="T118" s="310"/>
-      <c r="U118" s="310"/>
-      <c r="V118" s="310"/>
-      <c r="W118" s="310"/>
-      <c r="X118" s="310"/>
-      <c r="Y118" s="310"/>
-      <c r="Z118" s="311"/>
+      <c r="R118" s="384"/>
+      <c r="S118" s="384"/>
+      <c r="T118" s="384"/>
+      <c r="U118" s="384"/>
+      <c r="V118" s="384"/>
+      <c r="W118" s="384"/>
+      <c r="X118" s="384"/>
+      <c r="Y118" s="384"/>
+      <c r="Z118" s="385"/>
       <c r="AC118" s="110"/>
       <c r="AD118" s="110"/>
       <c r="AE118" s="110"/>
@@ -11179,28 +11179,28 @@
       <c r="AY118" s="110"/>
     </row>
     <row r="119" spans="4:58" x14ac:dyDescent="0.15">
-      <c r="G119" s="318" t="s">
+      <c r="G119" s="400" t="s">
         <v>101</v>
       </c>
-      <c r="H119" s="319"/>
-      <c r="I119" s="319"/>
-      <c r="J119" s="319"/>
-      <c r="K119" s="319"/>
-      <c r="L119" s="319"/>
-      <c r="M119" s="319"/>
-      <c r="N119" s="319"/>
-      <c r="O119" s="319"/>
-      <c r="P119" s="319"/>
-      <c r="Q119" s="319"/>
-      <c r="R119" s="319"/>
-      <c r="S119" s="319"/>
-      <c r="T119" s="319"/>
-      <c r="U119" s="319"/>
-      <c r="V119" s="319"/>
-      <c r="W119" s="319"/>
-      <c r="X119" s="319"/>
-      <c r="Y119" s="319"/>
-      <c r="Z119" s="320"/>
+      <c r="H119" s="401"/>
+      <c r="I119" s="401"/>
+      <c r="J119" s="401"/>
+      <c r="K119" s="401"/>
+      <c r="L119" s="401"/>
+      <c r="M119" s="401"/>
+      <c r="N119" s="401"/>
+      <c r="O119" s="401"/>
+      <c r="P119" s="401"/>
+      <c r="Q119" s="401"/>
+      <c r="R119" s="401"/>
+      <c r="S119" s="401"/>
+      <c r="T119" s="401"/>
+      <c r="U119" s="401"/>
+      <c r="V119" s="401"/>
+      <c r="W119" s="401"/>
+      <c r="X119" s="401"/>
+      <c r="Y119" s="401"/>
+      <c r="Z119" s="402"/>
       <c r="AJ119" s="110"/>
       <c r="AK119" s="110"/>
       <c r="AL119" s="110"/>
@@ -11870,38 +11870,38 @@
       <c r="BF139" s="110"/>
     </row>
     <row r="140" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H140" s="301" t="s">
+      <c r="H140" s="369" t="s">
         <v>154</v>
       </c>
-      <c r="I140" s="279" t="s">
+      <c r="I140" s="282" t="s">
         <v>104</v>
       </c>
-      <c r="J140" s="280"/>
-      <c r="K140" s="280"/>
-      <c r="L140" s="280"/>
-      <c r="M140" s="280"/>
-      <c r="N140" s="281"/>
-      <c r="O140" s="303" t="s">
+      <c r="J140" s="283"/>
+      <c r="K140" s="283"/>
+      <c r="L140" s="283"/>
+      <c r="M140" s="283"/>
+      <c r="N140" s="284"/>
+      <c r="O140" s="391" t="s">
         <v>114</v>
       </c>
-      <c r="P140" s="304"/>
-      <c r="Q140" s="304"/>
-      <c r="R140" s="304"/>
-      <c r="S140" s="304"/>
-      <c r="T140" s="304"/>
-      <c r="U140" s="304"/>
-      <c r="V140" s="304"/>
-      <c r="W140" s="304"/>
-      <c r="X140" s="304"/>
-      <c r="Y140" s="305"/>
-      <c r="Z140" s="279" t="s">
+      <c r="P140" s="392"/>
+      <c r="Q140" s="392"/>
+      <c r="R140" s="392"/>
+      <c r="S140" s="392"/>
+      <c r="T140" s="392"/>
+      <c r="U140" s="392"/>
+      <c r="V140" s="392"/>
+      <c r="W140" s="392"/>
+      <c r="X140" s="392"/>
+      <c r="Y140" s="393"/>
+      <c r="Z140" s="282" t="s">
         <v>32</v>
       </c>
-      <c r="AA140" s="280"/>
-      <c r="AB140" s="280"/>
-      <c r="AC140" s="280"/>
-      <c r="AD140" s="280"/>
-      <c r="AE140" s="281"/>
+      <c r="AA140" s="283"/>
+      <c r="AB140" s="283"/>
+      <c r="AC140" s="283"/>
+      <c r="AD140" s="283"/>
+      <c r="AE140" s="284"/>
       <c r="AF140" s="181" t="s">
         <v>30</v>
       </c>
@@ -11909,34 +11909,34 @@
       <c r="AH140" s="183"/>
     </row>
     <row r="141" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H141" s="302"/>
-      <c r="I141" s="285"/>
-      <c r="J141" s="286"/>
-      <c r="K141" s="286"/>
-      <c r="L141" s="286"/>
-      <c r="M141" s="286"/>
-      <c r="N141" s="287"/>
-      <c r="O141" s="303" t="s">
+      <c r="H141" s="371"/>
+      <c r="I141" s="288"/>
+      <c r="J141" s="289"/>
+      <c r="K141" s="289"/>
+      <c r="L141" s="289"/>
+      <c r="M141" s="289"/>
+      <c r="N141" s="290"/>
+      <c r="O141" s="391" t="s">
         <v>115</v>
       </c>
-      <c r="P141" s="304"/>
-      <c r="Q141" s="304"/>
-      <c r="R141" s="304"/>
-      <c r="S141" s="305"/>
-      <c r="T141" s="306" t="s">
+      <c r="P141" s="392"/>
+      <c r="Q141" s="392"/>
+      <c r="R141" s="392"/>
+      <c r="S141" s="393"/>
+      <c r="T141" s="301" t="s">
         <v>105</v>
       </c>
-      <c r="U141" s="307"/>
-      <c r="V141" s="307"/>
-      <c r="W141" s="307"/>
-      <c r="X141" s="307"/>
-      <c r="Y141" s="308"/>
-      <c r="Z141" s="285"/>
-      <c r="AA141" s="286"/>
-      <c r="AB141" s="286"/>
-      <c r="AC141" s="286"/>
-      <c r="AD141" s="286"/>
-      <c r="AE141" s="287"/>
+      <c r="U141" s="302"/>
+      <c r="V141" s="302"/>
+      <c r="W141" s="302"/>
+      <c r="X141" s="302"/>
+      <c r="Y141" s="303"/>
+      <c r="Z141" s="288"/>
+      <c r="AA141" s="289"/>
+      <c r="AB141" s="289"/>
+      <c r="AC141" s="289"/>
+      <c r="AD141" s="289"/>
+      <c r="AE141" s="290"/>
       <c r="AF141" s="184"/>
       <c r="AG141" s="185"/>
       <c r="AH141" s="186"/>
@@ -11945,14 +11945,14 @@
       <c r="H142" s="138">
         <v>1</v>
       </c>
-      <c r="I142" s="295" t="s">
+      <c r="I142" s="387" t="s">
         <v>200</v>
       </c>
-      <c r="J142" s="296"/>
-      <c r="K142" s="296"/>
-      <c r="L142" s="296"/>
-      <c r="M142" s="296"/>
-      <c r="N142" s="297"/>
+      <c r="J142" s="388"/>
+      <c r="K142" s="388"/>
+      <c r="L142" s="388"/>
+      <c r="M142" s="388"/>
+      <c r="N142" s="389"/>
       <c r="O142" s="175" t="s">
         <v>143</v>
       </c>
@@ -11960,22 +11960,22 @@
       <c r="Q142" s="176"/>
       <c r="R142" s="176"/>
       <c r="S142" s="177"/>
-      <c r="T142" s="295" t="s">
+      <c r="T142" s="387" t="s">
         <v>155</v>
       </c>
-      <c r="U142" s="296"/>
-      <c r="V142" s="296"/>
-      <c r="W142" s="296"/>
-      <c r="X142" s="296"/>
-      <c r="Y142" s="297"/>
-      <c r="Z142" s="298" t="s">
+      <c r="U142" s="388"/>
+      <c r="V142" s="388"/>
+      <c r="W142" s="388"/>
+      <c r="X142" s="388"/>
+      <c r="Y142" s="389"/>
+      <c r="Z142" s="390" t="s">
         <v>207</v>
       </c>
-      <c r="AA142" s="299"/>
-      <c r="AB142" s="299"/>
-      <c r="AC142" s="299"/>
-      <c r="AD142" s="299"/>
-      <c r="AE142" s="300"/>
+      <c r="AA142" s="327"/>
+      <c r="AB142" s="327"/>
+      <c r="AC142" s="327"/>
+      <c r="AD142" s="327"/>
+      <c r="AE142" s="328"/>
       <c r="AF142" s="168"/>
       <c r="AG142" s="166"/>
       <c r="AH142" s="167"/>
@@ -12281,38 +12281,38 @@
       <c r="BF149" s="110"/>
     </row>
     <row r="150" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H150" s="301" t="s">
+      <c r="H150" s="369" t="s">
         <v>154</v>
       </c>
-      <c r="I150" s="279" t="s">
+      <c r="I150" s="282" t="s">
         <v>104</v>
       </c>
-      <c r="J150" s="280"/>
-      <c r="K150" s="280"/>
-      <c r="L150" s="280"/>
-      <c r="M150" s="280"/>
-      <c r="N150" s="281"/>
-      <c r="O150" s="303" t="s">
+      <c r="J150" s="283"/>
+      <c r="K150" s="283"/>
+      <c r="L150" s="283"/>
+      <c r="M150" s="283"/>
+      <c r="N150" s="284"/>
+      <c r="O150" s="391" t="s">
         <v>114</v>
       </c>
-      <c r="P150" s="304"/>
-      <c r="Q150" s="304"/>
-      <c r="R150" s="304"/>
-      <c r="S150" s="304"/>
-      <c r="T150" s="304"/>
-      <c r="U150" s="304"/>
-      <c r="V150" s="304"/>
-      <c r="W150" s="304"/>
-      <c r="X150" s="304"/>
-      <c r="Y150" s="305"/>
-      <c r="Z150" s="279" t="s">
+      <c r="P150" s="392"/>
+      <c r="Q150" s="392"/>
+      <c r="R150" s="392"/>
+      <c r="S150" s="392"/>
+      <c r="T150" s="392"/>
+      <c r="U150" s="392"/>
+      <c r="V150" s="392"/>
+      <c r="W150" s="392"/>
+      <c r="X150" s="392"/>
+      <c r="Y150" s="393"/>
+      <c r="Z150" s="282" t="s">
         <v>32</v>
       </c>
-      <c r="AA150" s="280"/>
-      <c r="AB150" s="280"/>
-      <c r="AC150" s="280"/>
-      <c r="AD150" s="280"/>
-      <c r="AE150" s="281"/>
+      <c r="AA150" s="283"/>
+      <c r="AB150" s="283"/>
+      <c r="AC150" s="283"/>
+      <c r="AD150" s="283"/>
+      <c r="AE150" s="284"/>
       <c r="AF150" s="181" t="s">
         <v>30</v>
       </c>
@@ -12320,34 +12320,34 @@
       <c r="AH150" s="183"/>
     </row>
     <row r="151" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H151" s="302"/>
-      <c r="I151" s="285"/>
-      <c r="J151" s="286"/>
-      <c r="K151" s="286"/>
-      <c r="L151" s="286"/>
-      <c r="M151" s="286"/>
-      <c r="N151" s="287"/>
-      <c r="O151" s="303" t="s">
+      <c r="H151" s="371"/>
+      <c r="I151" s="288"/>
+      <c r="J151" s="289"/>
+      <c r="K151" s="289"/>
+      <c r="L151" s="289"/>
+      <c r="M151" s="289"/>
+      <c r="N151" s="290"/>
+      <c r="O151" s="391" t="s">
         <v>115</v>
       </c>
-      <c r="P151" s="304"/>
-      <c r="Q151" s="304"/>
-      <c r="R151" s="304"/>
-      <c r="S151" s="305"/>
-      <c r="T151" s="306" t="s">
+      <c r="P151" s="392"/>
+      <c r="Q151" s="392"/>
+      <c r="R151" s="392"/>
+      <c r="S151" s="393"/>
+      <c r="T151" s="301" t="s">
         <v>105</v>
       </c>
-      <c r="U151" s="307"/>
-      <c r="V151" s="307"/>
-      <c r="W151" s="307"/>
-      <c r="X151" s="307"/>
-      <c r="Y151" s="308"/>
-      <c r="Z151" s="285"/>
-      <c r="AA151" s="286"/>
-      <c r="AB151" s="286"/>
-      <c r="AC151" s="286"/>
-      <c r="AD151" s="286"/>
-      <c r="AE151" s="287"/>
+      <c r="U151" s="302"/>
+      <c r="V151" s="302"/>
+      <c r="W151" s="302"/>
+      <c r="X151" s="302"/>
+      <c r="Y151" s="303"/>
+      <c r="Z151" s="288"/>
+      <c r="AA151" s="289"/>
+      <c r="AB151" s="289"/>
+      <c r="AC151" s="289"/>
+      <c r="AD151" s="289"/>
+      <c r="AE151" s="290"/>
       <c r="AF151" s="184"/>
       <c r="AG151" s="185"/>
       <c r="AH151" s="186"/>
@@ -12356,14 +12356,14 @@
       <c r="H152" s="138">
         <v>1</v>
       </c>
-      <c r="I152" s="295" t="s">
+      <c r="I152" s="387" t="s">
         <v>158</v>
       </c>
-      <c r="J152" s="296"/>
-      <c r="K152" s="296"/>
-      <c r="L152" s="296"/>
-      <c r="M152" s="296"/>
-      <c r="N152" s="297"/>
+      <c r="J152" s="388"/>
+      <c r="K152" s="388"/>
+      <c r="L152" s="388"/>
+      <c r="M152" s="388"/>
+      <c r="N152" s="389"/>
       <c r="O152" s="175" t="s">
         <v>159</v>
       </c>
@@ -12371,22 +12371,22 @@
       <c r="Q152" s="176"/>
       <c r="R152" s="176"/>
       <c r="S152" s="177"/>
-      <c r="T152" s="295" t="s">
+      <c r="T152" s="387" t="s">
         <v>155</v>
       </c>
-      <c r="U152" s="296"/>
-      <c r="V152" s="296"/>
-      <c r="W152" s="296"/>
-      <c r="X152" s="296"/>
-      <c r="Y152" s="297"/>
-      <c r="Z152" s="298" t="s">
+      <c r="U152" s="388"/>
+      <c r="V152" s="388"/>
+      <c r="W152" s="388"/>
+      <c r="X152" s="388"/>
+      <c r="Y152" s="389"/>
+      <c r="Z152" s="390" t="s">
         <v>160</v>
       </c>
-      <c r="AA152" s="299"/>
-      <c r="AB152" s="299"/>
-      <c r="AC152" s="299"/>
-      <c r="AD152" s="299"/>
-      <c r="AE152" s="300"/>
+      <c r="AA152" s="327"/>
+      <c r="AB152" s="327"/>
+      <c r="AC152" s="327"/>
+      <c r="AD152" s="327"/>
+      <c r="AE152" s="328"/>
       <c r="AF152" s="168"/>
       <c r="AG152" s="166"/>
       <c r="AH152" s="167"/>
@@ -12395,14 +12395,14 @@
       <c r="H153" s="138">
         <v>2</v>
       </c>
-      <c r="I153" s="295" t="s">
+      <c r="I153" s="387" t="s">
         <v>200</v>
       </c>
-      <c r="J153" s="296"/>
-      <c r="K153" s="296"/>
-      <c r="L153" s="296"/>
-      <c r="M153" s="296"/>
-      <c r="N153" s="297"/>
+      <c r="J153" s="388"/>
+      <c r="K153" s="388"/>
+      <c r="L153" s="388"/>
+      <c r="M153" s="388"/>
+      <c r="N153" s="389"/>
       <c r="O153" s="175" t="s">
         <v>159</v>
       </c>
@@ -12410,22 +12410,22 @@
       <c r="Q153" s="176"/>
       <c r="R153" s="176"/>
       <c r="S153" s="177"/>
-      <c r="T153" s="295" t="s">
+      <c r="T153" s="387" t="s">
         <v>93</v>
       </c>
-      <c r="U153" s="296"/>
-      <c r="V153" s="296"/>
-      <c r="W153" s="296"/>
-      <c r="X153" s="296"/>
-      <c r="Y153" s="297"/>
-      <c r="Z153" s="298">
+      <c r="U153" s="388"/>
+      <c r="V153" s="388"/>
+      <c r="W153" s="388"/>
+      <c r="X153" s="388"/>
+      <c r="Y153" s="389"/>
+      <c r="Z153" s="390">
         <v>0</v>
       </c>
-      <c r="AA153" s="299"/>
-      <c r="AB153" s="299"/>
-      <c r="AC153" s="299"/>
-      <c r="AD153" s="299"/>
-      <c r="AE153" s="300"/>
+      <c r="AA153" s="327"/>
+      <c r="AB153" s="327"/>
+      <c r="AC153" s="327"/>
+      <c r="AD153" s="327"/>
+      <c r="AE153" s="328"/>
       <c r="AF153" s="191"/>
       <c r="AG153" s="189"/>
       <c r="AH153" s="190"/>
@@ -13313,50 +13313,56 @@
     </row>
   </sheetData>
   <mergeCells count="118">
-    <mergeCell ref="K66:Q66"/>
-    <mergeCell ref="G116:P116"/>
-    <mergeCell ref="Q116:Z116"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="V58:AH59"/>
-    <mergeCell ref="T59:U59"/>
-    <mergeCell ref="G99:P99"/>
-    <mergeCell ref="G90:L90"/>
-    <mergeCell ref="M89:V89"/>
-    <mergeCell ref="W90:Y90"/>
-    <mergeCell ref="E69:J69"/>
-    <mergeCell ref="K69:Q69"/>
-    <mergeCell ref="R69:Y69"/>
-    <mergeCell ref="Z69:AD69"/>
-    <mergeCell ref="AE69:AH69"/>
-    <mergeCell ref="AD49:AG51"/>
-    <mergeCell ref="Z52:AB52"/>
-    <mergeCell ref="AD53:AG53"/>
-    <mergeCell ref="AD52:AG52"/>
-    <mergeCell ref="U50:Y51"/>
-    <mergeCell ref="U52:Y52"/>
-    <mergeCell ref="R68:Y68"/>
-    <mergeCell ref="Z68:AD68"/>
-    <mergeCell ref="AE68:AH68"/>
-    <mergeCell ref="AE66:AH66"/>
-    <mergeCell ref="Z66:AD66"/>
-    <mergeCell ref="AE67:AH67"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="G117:P118"/>
+    <mergeCell ref="Q117:Z117"/>
+    <mergeCell ref="Q118:Z118"/>
+    <mergeCell ref="G119:Z119"/>
+    <mergeCell ref="G100:P106"/>
+    <mergeCell ref="I153:N153"/>
+    <mergeCell ref="T153:Y153"/>
+    <mergeCell ref="Z153:AE153"/>
+    <mergeCell ref="I152:N152"/>
+    <mergeCell ref="T152:Y152"/>
+    <mergeCell ref="Z152:AE152"/>
+    <mergeCell ref="H150:H151"/>
+    <mergeCell ref="I150:N151"/>
+    <mergeCell ref="O150:Y150"/>
+    <mergeCell ref="Z150:AE151"/>
+    <mergeCell ref="O151:S151"/>
+    <mergeCell ref="T151:Y151"/>
+    <mergeCell ref="I142:N142"/>
+    <mergeCell ref="T142:Y142"/>
+    <mergeCell ref="Z142:AE142"/>
+    <mergeCell ref="H140:H141"/>
+    <mergeCell ref="I140:N141"/>
+    <mergeCell ref="O140:Y140"/>
+    <mergeCell ref="Z140:AE141"/>
+    <mergeCell ref="O141:S141"/>
+    <mergeCell ref="T141:Y141"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="M50:T51"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:J59"/>
+    <mergeCell ref="K58:N59"/>
+    <mergeCell ref="E66:J66"/>
+    <mergeCell ref="T61:U61"/>
+    <mergeCell ref="V61:AH61"/>
+    <mergeCell ref="K61:N61"/>
+    <mergeCell ref="R66:Y66"/>
+    <mergeCell ref="E60:J60"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="T60:U60"/>
+    <mergeCell ref="V60:AH60"/>
+    <mergeCell ref="U53:Y53"/>
+    <mergeCell ref="Z53:AB53"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="I50:L51"/>
+    <mergeCell ref="E50:H51"/>
+    <mergeCell ref="E49:AC49"/>
+    <mergeCell ref="Z50:AB51"/>
+    <mergeCell ref="AC50:AC51"/>
+    <mergeCell ref="M53:T53"/>
     <mergeCell ref="E43:M43"/>
     <mergeCell ref="N43:P43"/>
     <mergeCell ref="Q43:U43"/>
@@ -13381,56 +13387,50 @@
     <mergeCell ref="AD89:AG89"/>
     <mergeCell ref="AD90:AG90"/>
     <mergeCell ref="G89:L89"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="M50:T51"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:J59"/>
-    <mergeCell ref="K58:N59"/>
-    <mergeCell ref="E66:J66"/>
-    <mergeCell ref="T61:U61"/>
-    <mergeCell ref="V61:AH61"/>
-    <mergeCell ref="K61:N61"/>
-    <mergeCell ref="R66:Y66"/>
-    <mergeCell ref="E60:J60"/>
-    <mergeCell ref="K60:N60"/>
-    <mergeCell ref="T60:U60"/>
-    <mergeCell ref="V60:AH60"/>
-    <mergeCell ref="U53:Y53"/>
-    <mergeCell ref="Z53:AB53"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="I50:L51"/>
-    <mergeCell ref="E50:H51"/>
-    <mergeCell ref="E49:AC49"/>
-    <mergeCell ref="Z50:AB51"/>
-    <mergeCell ref="AC50:AC51"/>
-    <mergeCell ref="M53:T53"/>
-    <mergeCell ref="I142:N142"/>
-    <mergeCell ref="T142:Y142"/>
-    <mergeCell ref="Z142:AE142"/>
-    <mergeCell ref="H140:H141"/>
-    <mergeCell ref="I140:N141"/>
-    <mergeCell ref="O140:Y140"/>
-    <mergeCell ref="Z140:AE141"/>
-    <mergeCell ref="O141:S141"/>
-    <mergeCell ref="T141:Y141"/>
-    <mergeCell ref="G117:P118"/>
-    <mergeCell ref="Q117:Z117"/>
-    <mergeCell ref="Q118:Z118"/>
-    <mergeCell ref="G119:Z119"/>
-    <mergeCell ref="G100:P106"/>
-    <mergeCell ref="I153:N153"/>
-    <mergeCell ref="T153:Y153"/>
-    <mergeCell ref="Z153:AE153"/>
-    <mergeCell ref="I152:N152"/>
-    <mergeCell ref="T152:Y152"/>
-    <mergeCell ref="Z152:AE152"/>
-    <mergeCell ref="H150:H151"/>
-    <mergeCell ref="I150:N151"/>
-    <mergeCell ref="O150:Y150"/>
-    <mergeCell ref="Z150:AE151"/>
-    <mergeCell ref="O151:S151"/>
-    <mergeCell ref="T151:Y151"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AD49:AG51"/>
+    <mergeCell ref="Z52:AB52"/>
+    <mergeCell ref="AD53:AG53"/>
+    <mergeCell ref="AD52:AG52"/>
+    <mergeCell ref="U50:Y51"/>
+    <mergeCell ref="U52:Y52"/>
+    <mergeCell ref="R68:Y68"/>
+    <mergeCell ref="Z68:AD68"/>
+    <mergeCell ref="AE68:AH68"/>
+    <mergeCell ref="AE66:AH66"/>
+    <mergeCell ref="Z66:AD66"/>
+    <mergeCell ref="AE67:AH67"/>
+    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="G116:P116"/>
+    <mergeCell ref="Q116:Z116"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="V58:AH59"/>
+    <mergeCell ref="T59:U59"/>
+    <mergeCell ref="G99:P99"/>
+    <mergeCell ref="G90:L90"/>
+    <mergeCell ref="M89:V89"/>
+    <mergeCell ref="W90:Y90"/>
+    <mergeCell ref="E69:J69"/>
+    <mergeCell ref="K69:Q69"/>
+    <mergeCell ref="R69:Y69"/>
+    <mergeCell ref="Z69:AD69"/>
+    <mergeCell ref="AE69:AH69"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="5">
